--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -13,11 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Group Condition" sheetId="1" r:id="rId1"/>
-    <sheet name="Too High" sheetId="2" r:id="rId2"/>
+    <sheet name="Recruitment_Log" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Group Condition'!$A$1:$G$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Too High'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Recruitment_Log!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="199">
   <si>
     <t>Too High</t>
   </si>
@@ -577,35 +577,62 @@
     <t>X</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Current Recruits</t>
-  </si>
-  <si>
-    <t>RetunePlanktiv_ReducePred</t>
-  </si>
-  <si>
-    <t>Excess Scalar (time init)</t>
-  </si>
-  <si>
-    <t>Atlantic Anchovy</t>
-  </si>
-  <si>
-    <t>Drums and Croakers</t>
-  </si>
-  <si>
-    <t>Summer Flounder</t>
+    <t>X?</t>
+  </si>
+  <si>
+    <t>LSQj</t>
+  </si>
+  <si>
+    <t>LSQa</t>
+  </si>
+  <si>
+    <t>ISQj</t>
+  </si>
+  <si>
+    <t>ISQa</t>
+  </si>
+  <si>
+    <t>NSHj</t>
+  </si>
+  <si>
+    <t>NSHa</t>
+  </si>
+  <si>
+    <t>OSHj</t>
+  </si>
+  <si>
+    <t>OSHa</t>
+  </si>
+  <si>
+    <t>KDENR_Orig</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>RemovePred3_Scale</t>
+  </si>
+  <si>
+    <t>RemovePred2_Scale</t>
+  </si>
+  <si>
+    <t>RemovePred2_newKDENR</t>
+  </si>
+  <si>
+    <t>RemovePred2_new</t>
+  </si>
+  <si>
+    <t>RemovePred3_NewKDENR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,16 +640,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F8F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -630,12 +690,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD6DADC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,8 +1024,8 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,70 +1064,76 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1070,21 +1181,21 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
         <v>181</v>
@@ -1092,132 +1203,126 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="D21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
-      </c>
-      <c r="G22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
         <v>181</v>
@@ -1225,35 +1330,32 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
         <v>181</v>
@@ -1261,12 +1363,12 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" t="s">
         <v>181</v>
       </c>
       <c r="F27" t="s">
@@ -1275,21 +1377,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>181</v>
@@ -1297,10 +1399,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
         <v>181</v>
@@ -1308,21 +1410,21 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
         <v>181</v>
@@ -1330,12 +1432,12 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
-      </c>
-      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
         <v>181</v>
       </c>
       <c r="F33" t="s">
@@ -1344,55 +1446,43 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
         <v>181</v>
@@ -1400,10 +1490,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="G38" t="s">
         <v>181</v>
@@ -1411,45 +1501,48 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1463,6 +1556,9 @@
       <c r="C43" t="s">
         <v>181</v>
       </c>
+      <c r="F43" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -1477,10 +1573,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
         <v>181</v>
@@ -1488,57 +1584,54 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" t="s">
+        <v>163</v>
+      </c>
+      <c r="G46" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" t="s">
-        <v>181</v>
-      </c>
-      <c r="F47" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
         <v>181</v>
@@ -1546,32 +1639,35 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" t="s">
+        <v>181</v>
+      </c>
+      <c r="G51" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" t="s">
+        <v>139</v>
+      </c>
+      <c r="G52" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="G53" t="s">
         <v>181</v>
@@ -1579,10 +1675,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="G54" t="s">
         <v>181</v>
@@ -1590,32 +1686,32 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+      <c r="G55" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
-      </c>
-      <c r="G56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="G57" t="s">
         <v>181</v>
@@ -1623,126 +1719,129 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
-      </c>
-      <c r="G58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" t="s">
+        <v>181</v>
+      </c>
+      <c r="E58" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" t="s">
+        <v>181</v>
+      </c>
+      <c r="G59" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
-      </c>
-      <c r="G60" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
-      </c>
-      <c r="C61" t="s">
-        <v>181</v>
-      </c>
-      <c r="E61" t="s">
+        <v>155</v>
+      </c>
+      <c r="F61" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" t="s">
+        <v>144</v>
+      </c>
+      <c r="G62" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
-      </c>
-      <c r="G63" t="s">
+        <v>157</v>
+      </c>
+      <c r="F63" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" t="s">
+        <v>121</v>
+      </c>
+      <c r="F64" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
-      </c>
-      <c r="G65" t="s">
+        <v>154</v>
+      </c>
+      <c r="F65" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
-      </c>
-      <c r="E66" t="s">
-        <v>181</v>
-      </c>
-      <c r="F66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
-      </c>
-      <c r="F67" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" t="s">
+        <v>181</v>
+      </c>
+      <c r="G67" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
         <v>181</v>
@@ -1750,10 +1849,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
         <v>181</v>
@@ -1761,12 +1860,12 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
-      </c>
-      <c r="G70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1797,46 +1896,43 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
-      </c>
-      <c r="G74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
-      </c>
-      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="G75" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -1846,118 +1942,136 @@
       <c r="B77" t="s">
         <v>127</v>
       </c>
+      <c r="C77" t="s">
+        <v>181</v>
+      </c>
       <c r="F77" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
+        <v>181</v>
+      </c>
+      <c r="G78" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>181</v>
-      </c>
-      <c r="F79" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
-      </c>
-      <c r="C80" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" t="s">
+        <v>181</v>
+      </c>
+      <c r="G80" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
-      </c>
-      <c r="G81" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>95</v>
-      </c>
-      <c r="G82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" t="s">
+        <v>181</v>
+      </c>
+      <c r="F82" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" t="s">
+        <v>122</v>
+      </c>
+      <c r="F83" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
-      </c>
-      <c r="G84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
+      <c r="F84" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>141</v>
-      </c>
-      <c r="C85" t="s">
+        <v>100</v>
+      </c>
+      <c r="F85" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
+        <v>181</v>
+      </c>
+      <c r="E86" t="s">
+        <v>181</v>
+      </c>
+      <c r="F86" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="G87" t="s">
         <v>181</v>
@@ -1965,19 +2079,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
-      </c>
-      <c r="C88" t="s">
+        <v>174</v>
+      </c>
+      <c r="G88" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G88">
-    <sortState ref="A2:G90">
-      <sortCondition ref="B1"/>
+    <sortState ref="A6:G86">
+      <sortCondition ref="B1:B88"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1986,673 +2100,1826 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="17.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1001094433</v>
+      </c>
+      <c r="D2" s="7">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7">
+        <v>66739628.866666667</v>
+      </c>
+      <c r="F2" s="8">
+        <v>66739628</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H33" si="0">IF(ISBLANK(G2),F2,F2/G2)</f>
+        <v>66739628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="4">
+        <v>20527442.649999999</v>
+      </c>
+      <c r="D3" s="7">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2052744.2649999999</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2052744.2649999999</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>513186.06624999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="4">
+        <v>114181041.2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="8">
+        <v>19030173</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>19030173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="4">
+        <v>15816.31169</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="8">
+        <v>15816.31169</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>63265.246760000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="4">
+        <v>16477555.609999999</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2353936.5157142854</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2353936.5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>470787.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="4">
+        <v>254421.22440000001</v>
+      </c>
+      <c r="D7" s="7">
+        <v>150</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1696.141496</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1696.14</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>1696.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="5">
+        <v>229000000000</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="8">
+        <v>500000000000</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>1000000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="4">
+        <v>32122718.550000001</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3212271805.0500002</v>
+      </c>
+      <c r="G9" s="9">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>214151453.67000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2123.8950410000002</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2123.8950410000002</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>2123.8950410000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="4">
+        <v>74822.192989999996</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="8">
+        <v>74822.192989999996</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>74822.192989999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="4">
+        <v>235.45910710000001</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="8">
+        <v>235.45910710000001</v>
+      </c>
+      <c r="G12" s="9">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>23.545910710000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="4">
+        <v>25797.24295</v>
+      </c>
+      <c r="D13" s="7">
+        <v>100</v>
+      </c>
+      <c r="E13" s="7">
+        <v>257.97242949999998</v>
+      </c>
+      <c r="F13" s="8">
+        <v>257.97000000000003</v>
+      </c>
+      <c r="G13" s="9">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>51.594000000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1718757.3940000001</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1718757.3940000001</v>
+      </c>
+      <c r="G14" s="9">
+        <v>75</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>22916.765253333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="4">
+        <v>15874.27808</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="8">
+        <v>15874.27808</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>15874.27808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2124041.1490000002</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2124041.1490000002</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>2124041.1490000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="4">
+        <v>21996106.07</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="8">
+        <v>21996106.07</v>
+      </c>
+      <c r="G17" s="9">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>2199610.6069999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="4">
+        <v>129309.07709999999</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="8">
+        <v>129309</v>
+      </c>
+      <c r="G18" s="9">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>12930.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="4">
+        <v>13236869.029999999</v>
+      </c>
+      <c r="D19" s="7">
+        <v>10</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1323686.9029999999</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1323686.8999999999</v>
+      </c>
+      <c r="G19" s="9">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>189098.12857142856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="4">
+        <v>172649603.19999999</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5</v>
+      </c>
+      <c r="E20" s="7">
+        <v>34529920.600000001</v>
+      </c>
+      <c r="F20" s="8">
+        <v>34529920</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>34529920</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="8">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B22" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="8">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="4">
+        <v>747577.53830000001</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5</v>
+      </c>
+      <c r="E23" s="7">
+        <v>149515.50766</v>
+      </c>
+      <c r="F23" s="8">
+        <v>149515.5</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>149515.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="4">
+        <v>15150975.09</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1893871.875</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1893871.875</v>
+      </c>
+      <c r="G24" s="9">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>189387.1875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2">
+      <c r="B26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="4">
+        <v>932233758.39999998</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="4">
+        <v>749.83099549999997</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="8">
+        <v>749.83099549999997</v>
+      </c>
+      <c r="G28" s="9">
+        <v>2</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>374.91549774999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4986608.142</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="8">
+        <v>4986608.142</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>4986608.142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="4">
+        <v>174418341.5</v>
+      </c>
+      <c r="D30" s="7">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7">
+        <v>34883668.299999997</v>
+      </c>
+      <c r="F30" s="8">
+        <v>34883668.299999997</v>
+      </c>
+      <c r="G30" s="9">
+        <v>5</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>6976733.6599999992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="4">
+        <v>432544359.30000001</v>
+      </c>
+      <c r="D31" s="7">
+        <v>20</v>
+      </c>
+      <c r="E31" s="7">
+        <v>21627217.965</v>
+      </c>
+      <c r="F31" s="8">
+        <v>21627217</v>
+      </c>
+      <c r="G31" s="9">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="0"/>
+        <v>2162721.7000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4108787.665</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5</v>
+      </c>
+      <c r="E32" s="7">
+        <v>821757.53300000005</v>
+      </c>
+      <c r="F32" s="8">
+        <v>821757.5</v>
+      </c>
+      <c r="G32" s="9">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="0"/>
+        <v>164351.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="3">
+        <f t="shared" ref="H34:H65" si="1">IF(ISBLANK(G34),F34,F34/G34)</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="4">
+        <v>22940055.34</v>
+      </c>
+      <c r="D35" s="7">
+        <v>5</v>
+      </c>
+      <c r="E35" s="7">
+        <v>4588011.068</v>
+      </c>
+      <c r="F35" s="8">
+        <v>4588011.068</v>
+      </c>
+      <c r="G35" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="1"/>
+        <v>611734.80906666664</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="4">
+        <v>19201175.25</v>
+      </c>
+      <c r="D36" s="7">
+        <v>150</v>
+      </c>
+      <c r="E36" s="7">
+        <v>128007.83500000001</v>
+      </c>
+      <c r="F36" s="8">
+        <v>128007.8</v>
+      </c>
+      <c r="G36" s="9">
+        <v>6</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="1"/>
+        <v>21334.633333333335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="4">
+        <v>34847060.600000001</v>
+      </c>
+      <c r="D37" s="7">
+        <v>10</v>
+      </c>
+      <c r="E37" s="7">
+        <v>3484706.06</v>
+      </c>
+      <c r="F37" s="8">
+        <v>3484706</v>
+      </c>
+      <c r="G37" s="9">
+        <v>5</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="1"/>
+        <v>696941.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="4">
+        <v>554.64984700000002</v>
+      </c>
+      <c r="D38" s="7">
+        <v>5</v>
+      </c>
+      <c r="E38" s="7">
+        <v>110.9298</v>
+      </c>
+      <c r="F38" s="8">
+        <v>110.9</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="3">
+        <f t="shared" si="1"/>
+        <v>110.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="4">
+        <v>17230050.359999999</v>
+      </c>
+      <c r="D39" s="7">
+        <v>20</v>
+      </c>
+      <c r="E39" s="7">
+        <v>861502.51799999992</v>
+      </c>
+      <c r="F39" s="8">
+        <v>861502.5</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="3">
+        <f t="shared" si="1"/>
+        <v>861502.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="4">
+        <v>4273.9050960000004</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="8">
+        <v>4273.9050960000004</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="3">
+        <f t="shared" si="1"/>
+        <v>4273.9050960000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="3">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="3">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="4">
+        <v>401050.08909999998</v>
+      </c>
+      <c r="D43" s="7">
+        <v>5</v>
+      </c>
+      <c r="E43" s="7">
+        <v>80210</v>
+      </c>
+      <c r="F43" s="8">
+        <v>80210</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="3">
+        <f t="shared" si="1"/>
+        <v>80210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="4">
+        <v>28898.867849999999</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="8">
+        <v>28898.867849999999</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="3">
+        <f t="shared" si="1"/>
+        <v>28898.867849999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="4">
+        <v>15779070.359999999</v>
+      </c>
+      <c r="D45" s="7">
+        <v>12</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1314922.53</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1314922.53</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="3">
+        <f t="shared" si="1"/>
+        <v>1314922.53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="4">
+        <v>6221.5131609999999</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="8">
+        <v>6221.5131609999999</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="3">
+        <f t="shared" si="1"/>
+        <v>6221.5131609999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="4">
+        <v>24854569.199999999</v>
+      </c>
+      <c r="D47" s="7">
+        <v>6</v>
+      </c>
+      <c r="E47" s="7">
+        <v>4142428.1666666665</v>
+      </c>
+      <c r="F47" s="8">
+        <v>4142428.1669999999</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="3">
+        <f t="shared" si="1"/>
+        <v>4142428.1669999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="4">
+        <v>53.609603989999997</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="8">
+        <v>53.609603989999997</v>
+      </c>
+      <c r="G48" s="9">
+        <v>2</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="1"/>
+        <v>26.804801994999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="4">
+        <v>16705.027440000002</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="8">
+        <v>16705.027440000002</v>
+      </c>
+      <c r="G49" s="9">
+        <v>15</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="1"/>
+        <v>1113.668496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="4">
+        <v>5700290.8640000001</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="8">
+        <v>5700290.8640000001</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="3">
+        <f t="shared" si="1"/>
+        <v>5700290.8640000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="4">
+        <v>10723808.939999999</v>
+      </c>
+      <c r="D51" s="7">
+        <v>30</v>
+      </c>
+      <c r="E51" s="7">
+        <v>357460.29800000001</v>
+      </c>
+      <c r="F51" s="8">
+        <v>357460.29800000001</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="3">
+        <f t="shared" si="1"/>
+        <v>357460.29800000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="4">
+        <v>2957397.3650000002</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" s="8">
+        <v>2957397.3650000002</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="3">
+        <f t="shared" si="1"/>
+        <v>2957397.3650000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="4">
+        <v>361154520.60000002</v>
+      </c>
+      <c r="D53" s="7">
+        <v>5</v>
+      </c>
+      <c r="E53" s="7">
+        <v>72230904.120000005</v>
+      </c>
+      <c r="F53" s="8">
+        <v>72230904</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="1"/>
+        <v>48153936</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="4">
+        <v>7496.955054</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" s="8">
+        <v>7496.955054</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="3">
+        <f t="shared" si="1"/>
+        <v>7496.955054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="4">
+        <v>358999.37920000002</v>
+      </c>
+      <c r="D55" s="7">
+        <v>12</v>
+      </c>
+      <c r="E55" s="7">
+        <v>29916.614166666666</v>
+      </c>
+      <c r="F55" s="8">
+        <v>29916.6</v>
+      </c>
+      <c r="G55" s="10">
+        <v>10</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="1"/>
+        <v>2991.66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="4">
+        <v>352590040.69999999</v>
+      </c>
+      <c r="D56" s="7">
+        <v>7</v>
+      </c>
+      <c r="E56" s="7">
+        <v>50370005.81428571</v>
+      </c>
+      <c r="F56" s="8">
+        <v>50370005.799999997</v>
+      </c>
+      <c r="G56" s="9">
+        <v>6</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="1"/>
+        <v>8395000.9666666668</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="4">
+        <v>233447.39780000001</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" s="8">
+        <v>233447.39780000001</v>
+      </c>
+      <c r="G57" s="9">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="1"/>
+        <v>29180.924725000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1053704.304</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F58" s="8">
+        <v>210740.4</v>
+      </c>
+      <c r="G58" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="1"/>
+        <v>28098.719999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="4">
+        <v>177129.4045</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" s="8">
+        <v>177129.4045</v>
+      </c>
+      <c r="G59" s="9">
+        <v>10</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="1"/>
+        <v>17712.940450000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="4">
+        <v>40960.04507</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="7">
+        <v>4096.0045070000006</v>
+      </c>
+      <c r="F60" s="8">
+        <v>4096</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="1"/>
+        <v>20480</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="4">
+        <v>71.004761549999998</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="8">
+        <v>71.004761549999998</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="3">
+        <f t="shared" si="1"/>
+        <v>71.004761549999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="4">
+        <v>52020187.369999997</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" s="8">
+        <v>52020187.369999997</v>
+      </c>
+      <c r="G62" s="9">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="1"/>
+        <v>5202018.7369999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="4">
+        <v>14975339.800000001</v>
+      </c>
+      <c r="D63" s="7">
+        <v>250</v>
+      </c>
+      <c r="E63" s="7">
+        <v>2199013.5920000002</v>
+      </c>
+      <c r="F63" s="8">
+        <v>2199013</v>
+      </c>
+      <c r="G63" s="9">
+        <v>5</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="1"/>
+        <v>439802.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="4">
+        <v>3738776.034</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F64" s="8">
+        <v>3738776.034</v>
+      </c>
+      <c r="G64" s="9">
+        <v>15</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="1"/>
+        <v>249251.73559999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="4">
+        <v>97071048.260000005</v>
+      </c>
+      <c r="D65" s="7">
+        <v>150</v>
+      </c>
+      <c r="E65" s="7">
+        <v>647140.3217333334</v>
+      </c>
+      <c r="F65" s="8">
+        <v>300000</v>
+      </c>
+      <c r="G65" s="9">
+        <v>7</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="1"/>
+        <v>42857.142857142855</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D2">
-        <v>25797.24295</v>
-      </c>
-      <c r="E2">
-        <f>D2/C2</f>
-        <v>257.97242949999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3">
+      <c r="C66" s="4">
+        <v>20265685.109999999</v>
+      </c>
+      <c r="D66" s="7">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>34847060.600000001</v>
-      </c>
-      <c r="E3">
-        <f>D3/C3</f>
-        <v>3484706.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4">
+      <c r="E66" s="7">
+        <v>2026568.5109999999</v>
+      </c>
+      <c r="F66" s="8">
+        <v>2026568.5109999999</v>
+      </c>
+      <c r="G66" s="9"/>
+      <c r="H66" s="3">
+        <f t="shared" ref="H66:H68" si="2">IF(ISBLANK(G66),F66,F66/G66)</f>
+        <v>2026568.5109999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="4">
+        <v>2983706.8709999998</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" s="8">
+        <v>2983706.8709999998</v>
+      </c>
+      <c r="G67" s="9">
+        <v>10</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="2"/>
+        <v>298370.68709999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="4">
+        <v>204805160.5</v>
+      </c>
+      <c r="D68" s="7">
+        <v>10</v>
+      </c>
+      <c r="E68" s="7">
+        <v>20480516.050000001</v>
+      </c>
+      <c r="F68" s="8">
+        <v>20480516</v>
+      </c>
+      <c r="G68" s="9">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>16477555.609999999</v>
-      </c>
-      <c r="E4">
-        <f>D4/C4</f>
-        <v>2353936.5157142854</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>352590040.69999999</v>
-      </c>
-      <c r="E5">
-        <f>D5/C5</f>
-        <v>50370005.81428571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>554.649</v>
-      </c>
-      <c r="E6">
-        <f>D6/C6</f>
-        <v>110.9298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>174418341.5</v>
-      </c>
-      <c r="E7">
-        <f>D7/C7</f>
-        <v>34883668.299999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>17230050.359999999</v>
-      </c>
-      <c r="E8">
-        <f>D8/C8</f>
-        <v>861502.51799999992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>13236869.029999999</v>
-      </c>
-      <c r="E9">
-        <f>D9/C9</f>
-        <v>1323686.9029999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>432544359.30000001</v>
-      </c>
-      <c r="E10">
-        <f>D10/C10</f>
-        <v>21627217.965</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>172649603</v>
-      </c>
-      <c r="E11">
-        <f>D11/C11</f>
-        <v>34529920.600000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12">
-        <v>150</v>
-      </c>
-      <c r="D12">
-        <v>254421.22440000001</v>
-      </c>
-      <c r="E12">
-        <f>D12/C12</f>
-        <v>1696.141496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>747577.53830000001</v>
-      </c>
-      <c r="E13">
-        <f>D13/C13</f>
-        <v>149515.50766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>0.05</v>
-      </c>
-      <c r="E14">
-        <f>D14/C14</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>15150975</v>
-      </c>
-      <c r="E15">
-        <f>D15/C15</f>
-        <v>1893871.875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>0.05</v>
-      </c>
-      <c r="E16">
-        <f>D16/C16</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>0.05</v>
-      </c>
-      <c r="E17">
-        <f>D17/C17</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18">
-        <v>150</v>
-      </c>
-      <c r="D18">
-        <v>19201175.25</v>
-      </c>
-      <c r="E18">
-        <f>D18/C18</f>
-        <v>128007.83500000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>22940055.34</v>
-      </c>
-      <c r="E19">
-        <f>D19/C19</f>
-        <v>4588011.068</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>20527442.649999999</v>
-      </c>
-      <c r="E20">
-        <f>D20/C20</f>
-        <v>2052744.2649999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>15779070.359999999</v>
-      </c>
-      <c r="E21">
-        <f>D21/C21</f>
-        <v>1314922.53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>1001094433</v>
-      </c>
-      <c r="E22">
-        <f>D22/C22</f>
-        <v>66739628.866666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>24854569</v>
-      </c>
-      <c r="E23">
-        <f>D23/C23</f>
-        <v>4142428.1666666665</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24">
-        <v>30</v>
-      </c>
-      <c r="D24">
-        <v>10723808.939999999</v>
-      </c>
-      <c r="E24">
-        <f>D24/C24</f>
-        <v>357460.29800000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>361154520.60000002</v>
-      </c>
-      <c r="E25">
-        <f>D25/C25</f>
-        <v>72230904.120000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>4108787.665</v>
-      </c>
-      <c r="E26">
-        <f>D26/C26</f>
-        <v>821757.53300000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>358999.37</v>
-      </c>
-      <c r="E27">
-        <f>D27/C27</f>
-        <v>29916.614166666666</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C28">
-        <v>500</v>
-      </c>
-      <c r="D28">
-        <v>105370430</v>
-      </c>
-      <c r="E28">
-        <f>D28/C28</f>
-        <v>210740.86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>401050</v>
-      </c>
-      <c r="E29">
-        <f>D29/C29</f>
-        <v>80210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30">
-        <v>1000</v>
-      </c>
-      <c r="D30">
-        <v>4096004.5070000002</v>
-      </c>
-      <c r="E30">
-        <f>D30/C30</f>
-        <v>4096.0045070000006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31">
-        <v>250</v>
-      </c>
-      <c r="D31">
-        <v>549753398</v>
-      </c>
-      <c r="E31">
-        <f>D31/C31</f>
-        <v>2199013.5920000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32">
-        <v>150</v>
-      </c>
-      <c r="D32">
-        <v>97071048.260000005</v>
-      </c>
-      <c r="E32">
-        <f>D32/C32</f>
-        <v>647140.3217333334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>20265685.109999999</v>
-      </c>
-      <c r="E33">
-        <f>D33/C33</f>
-        <v>2026568.5109999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>204805160.5</v>
-      </c>
-      <c r="E34">
-        <f>D34/C34</f>
-        <v>20480516.050000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <v>114181041</v>
-      </c>
-      <c r="E35">
-        <f>D35/C35</f>
-        <v>19030173.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <v>1293090</v>
-      </c>
-      <c r="E36">
-        <f>D36/C36</f>
-        <v>129309</v>
-      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="2"/>
+        <v>2925788</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69"/>
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70"/>
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B72"/>
+      <c r="C72"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1">
-    <sortState ref="A2:E38">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="A1:H1">
+    <sortState ref="A2:H68">
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Group Condition" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Group Condition'!$A$1:$G$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Recruitment_Log!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Recruitment_Log!$A$1:$K$68</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="202">
   <si>
     <t>Too High</t>
   </si>
@@ -626,6 +626,15 @@
   </si>
   <si>
     <t>RemovePred3_NewKDENR</t>
+  </si>
+  <si>
+    <t>RemovePred4_KDENR</t>
+  </si>
+  <si>
+    <t>RemovePred4_Changed</t>
+  </si>
+  <si>
+    <t>RemovePred3_FinalKDENR</t>
   </si>
 </sst>
 </file>
@@ -661,7 +670,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -714,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -723,24 +732,29 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,11 +1035,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,62 +1077,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
         <v>181</v>
@@ -1125,19 +1137,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1148,24 +1157,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>113</v>
       </c>
-      <c r="C9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" t="s">
-        <v>181</v>
-      </c>
       <c r="F9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1179,23 +1182,23 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="F11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
         <v>181</v>
@@ -1203,43 +1206,49 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="G14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>107</v>
+      </c>
+      <c r="E16" t="s">
+        <v>181</v>
       </c>
       <c r="F16" t="s">
         <v>181</v>
@@ -1247,302 +1256,293 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
         <v>181</v>
       </c>
-      <c r="E19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>82</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>171</v>
       </c>
-      <c r="G20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="G26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F27" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="G28" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="F29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>53</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>142</v>
       </c>
-      <c r="C30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="F33" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>151</v>
-      </c>
-      <c r="G34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="F34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
-      </c>
-      <c r="G35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
-      </c>
-      <c r="F36" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B42" t="s">
         <v>131</v>
       </c>
-      <c r="C37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" t="s">
-        <v>183</v>
-      </c>
-      <c r="E39" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" t="s">
-        <v>159</v>
-      </c>
-      <c r="F40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" t="s">
-        <v>108</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F42" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1560,92 +1560,89 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>54</v>
       </c>
       <c r="B44" t="s">
         <v>143</v>
       </c>
-      <c r="C44" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>35</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>124</v>
       </c>
-      <c r="C45" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" t="s">
-        <v>163</v>
-      </c>
-      <c r="G46" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>175</v>
-      </c>
-      <c r="G47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="F47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
-      </c>
-      <c r="G48" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
-      </c>
-      <c r="G49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="F49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="F50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
-      </c>
-      <c r="E51" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="G51" t="s">
         <v>181</v>
@@ -1653,237 +1650,231 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
-      </c>
-      <c r="G52" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
+      <c r="G53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="G56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>83</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B57" t="s">
         <v>172</v>
       </c>
-      <c r="G53" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>140</v>
-      </c>
-      <c r="G54" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" t="s">
-        <v>162</v>
-      </c>
-      <c r="G55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" t="s">
-        <v>123</v>
-      </c>
       <c r="G57" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" t="s">
-        <v>181</v>
-      </c>
-      <c r="E58" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" t="s">
-        <v>181</v>
-      </c>
-      <c r="G59" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C60" t="s">
+        <v>139</v>
+      </c>
+      <c r="G60" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
-      </c>
-      <c r="F61" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="G62" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
-      </c>
-      <c r="F63" t="s">
+        <v>179</v>
+      </c>
+      <c r="G63" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
-      </c>
-      <c r="F64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
-      </c>
-      <c r="F65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" t="s">
-        <v>181</v>
-      </c>
-      <c r="G67" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="F67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
-      </c>
-      <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G68" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="G70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>27</v>
       </c>
       <c r="B71" t="s">
         <v>114</v>
       </c>
-      <c r="E71" t="s">
-        <v>181</v>
-      </c>
       <c r="F71" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1894,45 +1885,51 @@
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" t="s">
+        <v>116</v>
+      </c>
+      <c r="F73" t="s">
+        <v>181</v>
+      </c>
+      <c r="G73" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>60</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>149</v>
       </c>
-      <c r="G73" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="G74" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
-      </c>
-      <c r="G75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="C76" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -1951,74 +1948,68 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
-      </c>
-      <c r="G78" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
+        <v>181</v>
+      </c>
+      <c r="F79" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
-      </c>
-      <c r="E80" t="s">
-        <v>181</v>
-      </c>
-      <c r="G80" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="C80" t="s">
+        <v>181</v>
+      </c>
+      <c r="F80" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
-      </c>
-      <c r="C81" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="F82" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F83" t="s">
         <v>181</v>
@@ -2026,52 +2017,46 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
-      </c>
-      <c r="F84" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" t="s">
+        <v>181</v>
+      </c>
+      <c r="F85" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>17</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>100</v>
       </c>
-      <c r="F85" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>44</v>
-      </c>
-      <c r="B86" t="s">
-        <v>133</v>
-      </c>
-      <c r="C86" t="s">
-        <v>181</v>
-      </c>
-      <c r="E86" t="s">
-        <v>181</v>
-      </c>
       <c r="F86" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="G87" t="s">
         <v>181</v>
@@ -2079,18 +2064,26 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
-      </c>
-      <c r="G88" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" t="s">
+        <v>181</v>
+      </c>
+      <c r="F88" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G88">
-    <sortState ref="A6:G86">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState ref="A2:G88">
       <sortCondition ref="B1:B88"/>
     </sortState>
   </autoFilter>
@@ -2100,13 +2093,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2116,1808 +2110,2449 @@
     <col min="3" max="3" width="27.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="20" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="9" max="9" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="4" t="s">
         <v>194</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="I1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>1001094433</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>15</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>66739628.866666667</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="11">
         <v>66739628</v>
       </c>
-      <c r="G2" s="9"/>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H33" si="0">IF(ISBLANK(G2),F2,F2/G2)</f>
+        <f>IF(ISBLANK(G2),F2,F2/G2)</f>
         <v>66739628</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="I2" s="3">
+        <v>45700000</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>45700000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>20527442.649999999</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>10</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>2052744.2649999999</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="11">
         <v>2052744.2649999999</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="4">
         <v>4</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G3),F3,F3/G3)</f>
         <v>513186.06624999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="I3" s="3">
+        <v>22700000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>22700000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>114181041.2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="D4" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="11">
         <v>19030173</v>
       </c>
-      <c r="G4" s="9"/>
       <c r="H4" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G4),F4,F4/G4)</f>
         <v>19030173</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="I4" s="3">
+        <v>19030173</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" ref="J3:J66" si="0">IF(H4=I4,"",1)</f>
+        <v/>
+      </c>
+      <c r="K4" s="3">
+        <v>19030173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>15816.31169</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="D5" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="11">
         <v>15816.31169</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="4">
         <v>0.25</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G5),F5,F5/G5)</f>
         <v>63265.246760000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="I5" s="3">
+        <v>63265</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>63265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>16477555.609999999</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>7</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>2353936.5157142854</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="11">
         <v>2353936.5</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="4">
         <v>5</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G6),F6,F6/G6)</f>
         <v>470787.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="I6" s="3">
+        <v>470787</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2353936.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>254421.22440000001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>150</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>1696.141496</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="11">
         <v>1696.14</v>
       </c>
-      <c r="G7" s="9"/>
       <c r="H7" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G7),F7,F7/G7)</f>
         <v>1696.14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="I7" s="3">
+        <v>1696.14</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="3">
+        <v>1696.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>229000000000</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="D8" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="11">
         <v>500000000000</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="4">
         <v>0.5</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G8),F8,F8/G8)</f>
         <v>1000000000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="I8" s="3">
+        <v>1000000000000</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="3">
+        <v>1000000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>32122718.550000001</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="D9" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="11">
         <v>3212271805.0500002</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="4">
         <v>15</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G9),F9,F9/G9)</f>
         <v>214151453.67000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="I9" s="3">
+        <v>214151453</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="11">
+        <v>3212271805.0500002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>2123.8950410000002</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="D10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="11">
         <v>2123.8950410000002</v>
       </c>
-      <c r="G10" s="9"/>
       <c r="H10" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G10),F10,F10/G10)</f>
         <v>2123.8950410000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="I10" s="3">
+        <v>2123.8950410000002</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="3">
+        <v>2123.8950410000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>74822.192989999996</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="D11" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="11">
         <v>74822.192989999996</v>
       </c>
-      <c r="G11" s="9"/>
       <c r="H11" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G11),F11,F11/G11)</f>
         <v>74822.192989999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="I11" s="3">
+        <v>74822.192989999996</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="11">
+        <v>74822.192989999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>235.45910710000001</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="D12" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="11">
         <v>235.45910710000001</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="4">
         <v>10</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G12),F12,F12/G12)</f>
         <v>23.545910710000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="I12" s="3">
+        <v>23</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>23.545910710000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <v>25797.24295</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>100</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>257.97242949999998</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="11">
         <v>257.97000000000003</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="4">
         <v>5</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G13),F13,F13/G13)</f>
         <v>51.594000000000008</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="I13" s="3">
+        <v>51</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>1718757.3940000001</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="D14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="11">
         <v>1718757.3940000001</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="4">
         <v>75</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G14),F14,F14/G14)</f>
         <v>22916.765253333335</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="I14" s="3">
+        <v>36100000000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>36100000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <v>15874.27808</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="D15" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="11">
         <v>15874.27808</v>
       </c>
-      <c r="G15" s="9"/>
       <c r="H15" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G15),F15,F15/G15)</f>
         <v>15874.27808</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="I15" s="3">
+        <v>15874.27808</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="3">
+        <v>15874.27808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="7">
         <v>2124041.1490000002</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="D16" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="11">
         <v>2124041.1490000002</v>
       </c>
-      <c r="G16" s="9"/>
       <c r="H16" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G16),F16,F16/G16)</f>
         <v>2124041.1490000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="I16" s="3">
+        <v>46100000</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="7">
         <v>21996106.07</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="D17" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="11">
         <v>21996106.07</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="4">
         <v>10</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G17),F17,F17/G17)</f>
         <v>2199610.6069999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="I17" s="3">
+        <v>8700000</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="7">
         <v>129309.07709999999</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="D18" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="11">
         <v>129309</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="4">
         <v>10</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G18),F18,F18/G18)</f>
         <v>12930.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="I18" s="3">
+        <v>12930</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>12930.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <v>13236869.029999999</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>10</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>1323686.9029999999</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="11">
         <v>1323686.8999999999</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="4">
         <v>7</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G19),F19,F19/G19)</f>
         <v>189098.12857142856</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="I19" s="3">
+        <v>189098</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>189098.12857142856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="7">
         <v>172649603.19999999</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>5</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>34529920.600000001</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="11">
         <v>34529920</v>
       </c>
-      <c r="G20" s="9"/>
       <c r="H20" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G20),F20,F20/G20)</f>
         <v>34529920</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="I20" s="3">
+        <v>104000000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>104000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="7">
         <v>0.05</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="D21" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="11">
         <v>3.3300000000000001E-3</v>
       </c>
-      <c r="G21" s="9"/>
       <c r="H21" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G21),F21,F21/G21)</f>
         <v>3.3300000000000001E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="I21" s="3">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="7">
         <v>0.05</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="D22" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="11">
         <v>3.3300000000000001E-3</v>
       </c>
-      <c r="G22" s="9"/>
       <c r="H22" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G22),F22,F22/G22)</f>
         <v>3.3300000000000001E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="I22" s="3">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="7">
         <v>747577.53830000001</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>5</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>149515.50766</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="11">
         <v>149515.5</v>
       </c>
-      <c r="G23" s="9"/>
       <c r="H23" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G23),F23,F23/G23)</f>
         <v>149515.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="I23" s="3">
+        <v>149515.5</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="3">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="7">
         <v>15150975.09</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>8</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>1893871.875</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="11">
         <v>1893871.875</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="4">
         <v>10</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G24),F24,F24/G24)</f>
         <v>189387.1875</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="I24" s="3">
+        <v>189387</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>378774.375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="7">
         <v>0.05</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="D25" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="11">
         <v>0.01</v>
       </c>
-      <c r="G25" s="9"/>
       <c r="H25" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G25),F25,F25/G25)</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="I25" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K25" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="7">
         <v>0.05</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" s="8">
+      <c r="D26" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="11">
         <v>0.01</v>
       </c>
-      <c r="G26" s="9"/>
       <c r="H26" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G26),F26,F26/G26)</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="I26" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K26" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="7">
         <v>932233758.39999998</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="8">
+      <c r="D27" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="11">
         <v>100000000</v>
       </c>
-      <c r="G27" s="9"/>
       <c r="H27" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G27),F27,F27/G27)</f>
         <v>100000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="I27" s="3">
+        <v>181000000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2</v>
+      </c>
+      <c r="K27" s="3">
+        <v>181000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="7">
         <v>749.83099549999997</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" s="8">
+      <c r="D28" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="11">
         <v>749.83099549999997</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="4">
         <v>2</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G28),F28,F28/G28)</f>
         <v>374.91549774999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="I28" s="3">
+        <v>375</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="7">
         <v>4986608.142</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="8">
+      <c r="D29" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="11">
         <v>4986608.142</v>
       </c>
-      <c r="G29" s="9"/>
       <c r="H29" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G29),F29,F29/G29)</f>
         <v>4986608.142</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="I29" s="3">
+        <v>4986608.142</v>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K29" s="3">
+        <v>4986608.142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="7">
         <v>174418341.5</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>5</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>34883668.299999997</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="11">
         <v>34883668.299999997</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="4">
         <v>5</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G30),F30,F30/G30)</f>
         <v>6976733.6599999992</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="I30" s="3">
+        <v>6976733</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>13953467.319999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="7">
         <v>432544359.30000001</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>20</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>21627217.965</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="11">
         <v>21627217</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="4">
         <v>10</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G31),F31,F31/G31)</f>
         <v>2162721.7000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="I31" s="3">
+        <v>2162721</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>4325443.4000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="7">
         <v>4108787.665</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>5</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>821757.53300000005</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="11">
         <v>821757.5</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="4">
         <v>5</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G32),F32,F32/G32)</f>
         <v>164351.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="I32" s="3">
+        <v>164351</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>328703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="7">
         <v>0.05</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="D33" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="11">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G33" s="9"/>
       <c r="H33" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(G33),F33,F33/G33)</f>
         <v>1.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+      <c r="I33" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K33" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="7">
         <v>0.05</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F34" s="8">
+      <c r="D34" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="11">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G34" s="9"/>
       <c r="H34" s="3">
-        <f t="shared" ref="H34:H65" si="1">IF(ISBLANK(G34),F34,F34/G34)</f>
+        <f>IF(ISBLANK(G34),F34,F34/G34)</f>
         <v>1.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="I34" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K34" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="7">
         <v>22940055.34</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>5</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>4588011.068</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="11">
         <v>4588011.068</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="4">
         <v>7.5</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G35),F35,F35/G35)</f>
         <v>611734.80906666664</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="I35" s="3">
+        <v>611734</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1411695.7132307691</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="7">
         <v>19201175.25</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>150</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>128007.83500000001</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="11">
         <v>128007.8</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="4">
         <v>6</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G36),F36,F36/G36)</f>
         <v>21334.633333333335</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="I36" s="3">
+        <v>21334</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <v>42669.26666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="7">
         <v>34847060.600000001</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>10</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>3484706.06</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="11">
         <v>3484706</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="4">
         <v>5</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G37),F37,F37/G37)</f>
         <v>696941.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="I37" s="3">
+        <v>696941</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1393882.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="7">
         <v>554.64984700000002</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>5</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>110.9298</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="11">
         <v>110.9</v>
       </c>
-      <c r="G38" s="9"/>
       <c r="H38" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G38),F38,F38/G38)</f>
         <v>110.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="I38" s="3">
+        <v>110.9</v>
+      </c>
+      <c r="J38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K38" s="3">
+        <v>110.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="7">
         <v>17230050.359999999</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>20</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>861502.51799999992</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="11">
         <v>861502.5</v>
       </c>
-      <c r="G39" s="9"/>
       <c r="H39" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G39),F39,F39/G39)</f>
         <v>861502.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="I39" s="3">
+        <v>861502.5</v>
+      </c>
+      <c r="J39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K39" s="3">
+        <v>861502.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="7">
         <v>4273.9050960000004</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F40" s="8">
+      <c r="D40" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="11">
         <v>4273.9050960000004</v>
       </c>
-      <c r="G40" s="9"/>
       <c r="H40" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G40),F40,F40/G40)</f>
         <v>4273.9050960000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+      <c r="I40" s="3">
+        <v>4273.9050960000004</v>
+      </c>
+      <c r="J40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K40" s="3">
+        <v>4273.9050960000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="7">
         <v>0.05</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F41" s="8">
+      <c r="D41" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="11">
         <v>0.05</v>
       </c>
-      <c r="G41" s="9"/>
       <c r="H41" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G41),F41,F41/G41)</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="I41" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K41" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="7">
         <v>0.05</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" s="8">
+      <c r="D42" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="11">
         <v>0.05</v>
       </c>
-      <c r="G42" s="9"/>
       <c r="H42" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G42),F42,F42/G42)</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+      <c r="I42" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="J42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K42" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="7">
         <v>401050.08909999998</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>5</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>80210</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="11">
         <v>80210</v>
       </c>
-      <c r="G43" s="9"/>
       <c r="H43" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G43),F43,F43/G43)</f>
         <v>80210</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+      <c r="I43" s="3">
+        <v>80210</v>
+      </c>
+      <c r="J43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K43" s="3">
+        <v>80210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="7">
         <v>28898.867849999999</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F44" s="8">
+      <c r="D44" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="11">
         <v>28898.867849999999</v>
       </c>
-      <c r="G44" s="9"/>
       <c r="H44" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G44),F44,F44/G44)</f>
         <v>28898.867849999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="I44" s="3">
+        <v>28898.867849999999</v>
+      </c>
+      <c r="J44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K44" s="3">
+        <v>28898.867849999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="7">
         <v>15779070.359999999</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>12</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>1314922.53</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="11">
         <v>1314922.53</v>
       </c>
-      <c r="G45" s="9"/>
       <c r="H45" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G45),F45,F45/G45)</f>
         <v>1314922.53</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+      <c r="I45" s="3">
+        <v>27400000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2</v>
+      </c>
+      <c r="K45" s="3">
+        <v>27400000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="7">
         <v>6221.5131609999999</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F46" s="8">
+      <c r="D46" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="11">
         <v>6221.5131609999999</v>
       </c>
-      <c r="G46" s="9"/>
       <c r="H46" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G46),F46,F46/G46)</f>
         <v>6221.5131609999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
+      <c r="I46" s="3">
+        <v>6221.5131609999999</v>
+      </c>
+      <c r="J46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K46" s="3">
+        <v>6221.5131609999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="7">
         <v>24854569.199999999</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>6</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>4142428.1666666665</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="11">
         <v>4142428.1669999999</v>
       </c>
-      <c r="G47" s="9"/>
       <c r="H47" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G47),F47,F47/G47)</f>
         <v>4142428.1669999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+      <c r="I47" s="3">
+        <v>4142428.1669999999</v>
+      </c>
+      <c r="J47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K47" s="3">
+        <v>4142428.1669999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="7">
         <v>53.609603989999997</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F48" s="8">
+      <c r="D48" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="11">
         <v>53.609603989999997</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="4">
         <v>2</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G48),F48,F48/G48)</f>
         <v>26.804801994999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
+      <c r="I48" s="3">
+        <v>26</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K48" s="3">
+        <v>26.804801994999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="7">
         <v>16705.027440000002</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F49" s="8">
+      <c r="D49" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="11">
         <v>16705.027440000002</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="4">
         <v>15</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G49),F49,F49/G49)</f>
         <v>1113.668496</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
+      <c r="I49" s="3">
+        <v>438000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="7">
         <v>5700290.8640000001</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" s="8">
+      <c r="D50" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="11">
         <v>5700290.8640000001</v>
       </c>
-      <c r="G50" s="9"/>
       <c r="H50" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G50),F50,F50/G50)</f>
         <v>5700290.8640000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+      <c r="I50" s="3">
+        <v>134000000</v>
+      </c>
+      <c r="J50" s="3">
+        <v>2</v>
+      </c>
+      <c r="K50" s="3">
+        <v>134000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="7">
         <v>10723808.939999999</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>30</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>357460.29800000001</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="11">
         <v>357460.29800000001</v>
       </c>
-      <c r="G51" s="9"/>
       <c r="H51" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G51),F51,F51/G51)</f>
         <v>357460.29800000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+      <c r="I51" s="3">
+        <v>357460.29800000001</v>
+      </c>
+      <c r="J51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K51" s="3">
+        <v>357460.29800000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="7">
         <v>2957397.3650000002</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F52" s="8">
+      <c r="D52" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" s="11">
         <v>2957397.3650000002</v>
       </c>
-      <c r="G52" s="9"/>
       <c r="H52" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G52),F52,F52/G52)</f>
         <v>2957397.3650000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
+      <c r="I52" s="3">
+        <v>2957397.3650000002</v>
+      </c>
+      <c r="J52" s="3" t="str">
+        <f>IF(H52=I52,"",1)</f>
+        <v/>
+      </c>
+      <c r="K52" s="3">
+        <v>3943196.4866666668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="7">
         <v>361154520.60000002</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>5</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>72230904.120000005</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="11">
         <v>72230904</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="4">
         <v>1.5</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G53),F53,F53/G53)</f>
         <v>48153936</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+      <c r="I53" s="3">
+        <v>48153936</v>
+      </c>
+      <c r="J53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K53" s="3">
+        <v>57784723.200000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="7">
         <v>7496.955054</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F54" s="8">
+      <c r="D54" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" s="11">
         <v>7496.955054</v>
       </c>
-      <c r="G54" s="9"/>
       <c r="H54" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G54),F54,F54/G54)</f>
         <v>7496.955054</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
+      <c r="I54" s="3">
+        <v>7496.955054</v>
+      </c>
+      <c r="J54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K54" s="3">
+        <v>7496.955054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="7">
         <v>358999.37920000002</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>12</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>29916.614166666666</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="11">
         <v>29916.6</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="9">
         <v>10</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G55),F55,F55/G55)</f>
         <v>2991.66</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+      <c r="I55" s="3">
+        <v>2991</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="3">
+        <v>2991.66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="7">
         <v>352590040.69999999</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <v>7</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>50370005.81428571</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="11">
         <v>50370005.799999997</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="4">
         <v>6</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G56),F56,F56/G56)</f>
         <v>8395000.9666666668</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+      <c r="I56" s="3">
+        <v>6330000</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3">
+        <f>I56/2</f>
+        <v>3165000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="7">
         <v>233447.39780000001</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F57" s="8">
+      <c r="D57" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" s="11">
         <v>233447.39780000001</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="4">
         <v>8</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G57),F57,F57/G57)</f>
         <v>29180.924725000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
+      <c r="I57" s="3">
+        <v>29180</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K57" s="3">
+        <v>58361.849450000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="7">
         <v>1053704.304</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F58" s="8">
+      <c r="D58" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F58" s="11">
         <v>210740.4</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="4">
         <v>7.5</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G58),F58,F58/G58)</f>
         <v>28098.719999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
+      <c r="I58" s="3">
+        <v>53400000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3">
+        <f>I58/10</f>
+        <v>5340000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="7">
         <v>177129.4045</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F59" s="8">
+      <c r="D59" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" s="11">
         <v>177129.4045</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="4">
         <v>10</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G59),F59,F59/G59)</f>
         <v>17712.940450000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
+      <c r="I59" s="3">
+        <v>17712</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K59" s="3">
+        <v>35425.880900000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="7">
         <v>40960.04507</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>1000</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>4096.0045070000006</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F60" s="11">
         <v>4096</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="4">
         <v>0.2</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G60),F60,F60/G60)</f>
         <v>20480</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
+      <c r="I60" s="3">
+        <v>1420000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1</v>
+      </c>
+      <c r="K60" s="3">
+        <f>I60/10</f>
+        <v>142000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="7">
         <v>71.004761549999998</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F61" s="8">
+      <c r="D61" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="11">
         <v>71.004761549999998</v>
       </c>
-      <c r="G61" s="9"/>
       <c r="H61" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G61),F61,F61/G61)</f>
         <v>71.004761549999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
+      <c r="I61" s="3">
+        <v>71.004761549999998</v>
+      </c>
+      <c r="J61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K61" s="3">
+        <v>71.004761549999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="7">
         <v>52020187.369999997</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F62" s="8">
+      <c r="D62" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" s="11">
         <v>52020187.369999997</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="4">
         <v>10</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G62),F62,F62/G62)</f>
         <v>5202018.7369999997</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
+      <c r="I62" s="3">
+        <v>5020000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1</v>
+      </c>
+      <c r="K62" s="3">
+        <f>I62*1.5</f>
+        <v>7530000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="7">
         <v>14975339.800000001</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="6">
         <v>250</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="6">
         <v>2199013.5920000002</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="11">
         <v>2199013</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="4">
         <v>5</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G63),F63,F63/G63)</f>
         <v>439802.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
+      <c r="I63" s="3">
+        <v>439802</v>
+      </c>
+      <c r="J63" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K63" s="3">
+        <v>879605.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="7">
         <v>3738776.034</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F64" s="8">
+      <c r="D64" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F64" s="11">
         <v>3738776.034</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="4">
         <v>15</v>
       </c>
       <c r="H64" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G64),F64,F64/G64)</f>
         <v>249251.73559999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
+      <c r="I64" s="3">
+        <v>32400000</v>
+      </c>
+      <c r="J64" s="3">
+        <v>1</v>
+      </c>
+      <c r="K64" s="3">
+        <f>I64/1.5</f>
+        <v>21600000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="7">
         <v>97071048.260000005</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="6">
         <v>150</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="6">
         <v>647140.3217333334</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="11">
         <v>300000</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="4">
         <v>7</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(G65),F65,F65/G65)</f>
         <v>42857.142857142855</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
+      <c r="I65" s="3">
+        <v>42857</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K65" s="3">
+        <v>42857.142857142855</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="7">
         <v>20265685.109999999</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <v>10</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="6">
         <v>2026568.5109999999</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="11">
         <v>2026568.5109999999</v>
       </c>
-      <c r="G66" s="9"/>
       <c r="H66" s="3">
-        <f t="shared" ref="H66:H68" si="2">IF(ISBLANK(G66),F66,F66/G66)</f>
+        <f>IF(ISBLANK(G66),F66,F66/G66)</f>
         <v>2026568.5109999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
+      <c r="I66" s="3">
+        <v>2026568.5109999999</v>
+      </c>
+      <c r="J66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K66" s="3">
+        <v>2026568.5109999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="7">
         <v>2983706.8709999998</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F67" s="8">
+      <c r="D67" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" s="11">
         <v>2983706.8709999998</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="4">
         <v>10</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(G67),F67,F67/G67)</f>
         <v>298370.68709999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
+      <c r="I67" s="3">
+        <v>491000</v>
+      </c>
+      <c r="J67" s="3">
+        <v>2</v>
+      </c>
+      <c r="K67" s="3">
+        <v>491000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="7">
         <v>204805160.5</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <v>10</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="6">
         <v>20480516.050000001</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F68" s="11">
         <v>20480516</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="4">
         <v>7</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK(G68),F68,F68/G68)</f>
         <v>2925788</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I68" s="3">
+        <v>29500000</v>
+      </c>
+      <c r="J68" s="3">
+        <v>1</v>
+      </c>
+      <c r="K68" s="3">
+        <v>2925788</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69"/>
       <c r="C69"/>
     </row>
-    <row r="70" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B72"/>
       <c r="C72"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
-    <sortState ref="A2:H68">
-      <sortCondition ref="B1"/>
-    </sortState>
+  <autoFilter ref="A1:K68">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Group Condition" sheetId="1" r:id="rId1"/>
     <sheet name="Recruitment_Log" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Group Condition'!$A$1:$G$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Recruitment_Log!$A$1:$K$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Group Condition'!$A$1:$I$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Recruitment_Log!$A$1:$O$68</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="212">
   <si>
     <t>Too High</t>
   </si>
@@ -635,6 +635,36 @@
   </si>
   <si>
     <t>RemovePred3_FinalKDENR</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Too High Early</t>
+  </si>
+  <si>
+    <t>RemovePred5_tochange</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>RemovePred5_KDENR</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>RemovePred6_KDENR</t>
+  </si>
+  <si>
+    <t>RemovePred6_Change</t>
   </si>
 </sst>
 </file>
@@ -723,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -755,6 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1036,25 +1067,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -1062,33 +1095,39 @@
         <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>92</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
       </c>
-      <c r="F2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1098,8 +1137,14 @@
       <c r="C3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1110,32 +1155,35 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>105</v>
       </c>
-      <c r="E5" t="s">
-        <v>181</v>
-      </c>
       <c r="F5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>115</v>
       </c>
-      <c r="F6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1145,116 +1193,119 @@
       <c r="C7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>94</v>
       </c>
-      <c r="F8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>113</v>
       </c>
-      <c r="F9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>125</v>
       </c>
-      <c r="E10" t="s">
-        <v>181</v>
-      </c>
       <c r="F10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>130</v>
       </c>
-      <c r="F11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>156</v>
       </c>
-      <c r="F12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>148</v>
       </c>
-      <c r="C13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>79</v>
       </c>
       <c r="B14" t="s">
         <v>168</v>
       </c>
-      <c r="G14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>158</v>
       </c>
-      <c r="D15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>107</v>
       </c>
-      <c r="E16" t="s">
-        <v>181</v>
-      </c>
       <c r="F16" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1264,19 +1315,25 @@
       <c r="C17" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
       <c r="B18" t="s">
         <v>138</v>
       </c>
-      <c r="G18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1286,63 +1343,69 @@
       <c r="C19" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="F20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>164</v>
       </c>
-      <c r="F21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>76</v>
       </c>
       <c r="B22" t="s">
         <v>165</v>
       </c>
-      <c r="G22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
       <c r="B23" t="s">
         <v>170</v>
       </c>
-      <c r="G23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>82</v>
       </c>
       <c r="B24" t="s">
         <v>171</v>
       </c>
-      <c r="G24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1352,201 +1415,228 @@
       <c r="C25" t="s">
         <v>181</v>
       </c>
-      <c r="F25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>101</v>
       </c>
-      <c r="G26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>80</v>
       </c>
       <c r="B27" t="s">
         <v>169</v>
       </c>
-      <c r="F27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>132</v>
       </c>
-      <c r="G28" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>153</v>
       </c>
-      <c r="F29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>151</v>
       </c>
-      <c r="F30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>89</v>
       </c>
       <c r="B31" t="s">
         <v>178</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
       <c r="B32" t="s">
         <v>142</v>
       </c>
-      <c r="F32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" t="s">
+        <v>181</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>70</v>
       </c>
       <c r="B33" t="s">
         <v>159</v>
       </c>
-      <c r="F33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
       <c r="B34" t="s">
         <v>152</v>
       </c>
-      <c r="F34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>181</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>93</v>
       </c>
-      <c r="D35" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>77</v>
       </c>
       <c r="B36" t="s">
         <v>166</v>
       </c>
-      <c r="G36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>57</v>
       </c>
       <c r="B37" t="s">
         <v>146</v>
       </c>
-      <c r="C37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>88</v>
       </c>
       <c r="B38" t="s">
         <v>177</v>
       </c>
-      <c r="G38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
       <c r="B39" t="s">
         <v>173</v>
       </c>
-      <c r="F39" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
       <c r="B40" t="s">
         <v>174</v>
       </c>
-      <c r="G40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>22</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
       </c>
-      <c r="D41" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>131</v>
       </c>
-      <c r="F42" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -1556,99 +1646,108 @@
       <c r="C43" t="s">
         <v>181</v>
       </c>
-      <c r="F43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" t="s">
+        <v>181</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>54</v>
       </c>
       <c r="B44" t="s">
         <v>143</v>
       </c>
-      <c r="F44" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>73</v>
       </c>
       <c r="B45" t="s">
         <v>162</v>
       </c>
-      <c r="G45" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>35</v>
       </c>
       <c r="B46" t="s">
         <v>124</v>
       </c>
-      <c r="F46" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>66</v>
       </c>
       <c r="B47" t="s">
         <v>155</v>
       </c>
-      <c r="F47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>29</v>
       </c>
       <c r="B48" t="s">
         <v>117</v>
       </c>
-      <c r="D48" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>68</v>
       </c>
       <c r="B49" t="s">
         <v>157</v>
       </c>
-      <c r="F49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>24</v>
       </c>
       <c r="B50" t="s">
         <v>110</v>
       </c>
-      <c r="F50" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
       <c r="B51" t="s">
         <v>137</v>
       </c>
-      <c r="G51" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -1658,74 +1757,80 @@
       <c r="C52" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>181</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>140</v>
       </c>
-      <c r="G53" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>74</v>
       </c>
       <c r="B54" t="s">
         <v>163</v>
       </c>
-      <c r="G54" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
       <c r="B55" t="s">
         <v>106</v>
       </c>
-      <c r="G55" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>86</v>
       </c>
       <c r="B56" t="s">
         <v>175</v>
       </c>
-      <c r="G56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>83</v>
       </c>
       <c r="B57" t="s">
         <v>172</v>
       </c>
-      <c r="G57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>145</v>
       </c>
-      <c r="G58" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -1735,77 +1840,86 @@
       <c r="C59" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>181</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>50</v>
       </c>
       <c r="B60" t="s">
         <v>139</v>
       </c>
-      <c r="G60" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>71</v>
       </c>
       <c r="B61" t="s">
         <v>160</v>
       </c>
-      <c r="C61" t="s">
-        <v>181</v>
-      </c>
       <c r="E61" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>31</v>
       </c>
       <c r="B62" t="s">
         <v>119</v>
       </c>
-      <c r="G62" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>181</v>
+      </c>
+      <c r="H62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>90</v>
       </c>
       <c r="B63" t="s">
         <v>179</v>
       </c>
-      <c r="G63" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>58</v>
       </c>
       <c r="B64" t="s">
         <v>147</v>
       </c>
-      <c r="C64" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>47</v>
       </c>
       <c r="B65" t="s">
         <v>136</v>
       </c>
-      <c r="C65" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -1815,102 +1929,105 @@
       <c r="C66" t="s">
         <v>181</v>
       </c>
-      <c r="F66" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>181</v>
+      </c>
+      <c r="G66" t="s">
+        <v>181</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>154</v>
       </c>
-      <c r="F67" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>55</v>
       </c>
       <c r="B68" t="s">
         <v>144</v>
       </c>
-      <c r="G68" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>78</v>
       </c>
       <c r="B69" t="s">
         <v>167</v>
       </c>
-      <c r="C69" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>87</v>
       </c>
       <c r="B70" t="s">
         <v>176</v>
       </c>
-      <c r="G70" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>27</v>
       </c>
       <c r="B71" t="s">
         <v>114</v>
       </c>
-      <c r="F71" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>161</v>
       </c>
-      <c r="F72" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
       <c r="B73" t="s">
         <v>116</v>
       </c>
-      <c r="F73" t="s">
-        <v>181</v>
-      </c>
       <c r="G73" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>60</v>
       </c>
       <c r="B74" t="s">
         <v>149</v>
       </c>
-      <c r="G74" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>46</v>
       </c>
@@ -1920,8 +2037,14 @@
       <c r="C75" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>181</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>45</v>
       </c>
@@ -1931,22 +2054,25 @@
       <c r="C76" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>181</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
       <c r="B77" t="s">
         <v>127</v>
       </c>
-      <c r="C77" t="s">
-        <v>181</v>
-      </c>
-      <c r="F77" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -1956,8 +2082,17 @@
       <c r="C78" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>181</v>
+      </c>
+      <c r="G78" t="s">
+        <v>181</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -1967,55 +2102,70 @@
       <c r="C79" t="s">
         <v>181</v>
       </c>
-      <c r="F79" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>181</v>
+      </c>
+      <c r="G79" t="s">
+        <v>181</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>34</v>
       </c>
       <c r="B80" t="s">
         <v>122</v>
       </c>
-      <c r="C80" t="s">
-        <v>181</v>
-      </c>
-      <c r="F80" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>181</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>61</v>
       </c>
       <c r="B81" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>12</v>
       </c>
       <c r="B82" t="s">
         <v>95</v>
       </c>
-      <c r="F82" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>181</v>
+      </c>
+      <c r="G82" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" t="s">
         <v>97</v>
       </c>
-      <c r="F83" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>181</v>
+      </c>
+      <c r="H83" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -2025,8 +2175,14 @@
       <c r="C84" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>181</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>52</v>
       </c>
@@ -2036,33 +2192,45 @@
       <c r="C85" t="s">
         <v>181</v>
       </c>
-      <c r="F85" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>181</v>
+      </c>
+      <c r="G85" t="s">
+        <v>181</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>17</v>
       </c>
       <c r="B86" t="s">
         <v>100</v>
       </c>
-      <c r="F86" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>181</v>
+      </c>
+      <c r="G86" t="s">
+        <v>181</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>40</v>
       </c>
       <c r="B87" t="s">
         <v>129</v>
       </c>
-      <c r="G87" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -2072,20 +2240,28 @@
       <c r="C88" t="s">
         <v>181</v>
       </c>
-      <c r="F88" t="s">
-        <v>181</v>
+      <c r="D88" t="s">
+        <v>181</v>
+      </c>
+      <c r="G88" t="s">
+        <v>181</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G88">
+  <autoFilter ref="A1:I88">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A2:G88">
-      <sortCondition ref="B1:B88"/>
-    </sortState>
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2094,13 +2270,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2116,10 +2292,15 @@
     <col min="9" max="9" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="12" max="12" width="10.88671875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="15" max="15" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>91</v>
       </c>
@@ -2153,8 +2334,23 @@
       <c r="K1" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2174,7 +2370,7 @@
         <v>66739628</v>
       </c>
       <c r="H2" s="3">
-        <f>IF(ISBLANK(G2),F2,F2/G2)</f>
+        <f t="shared" ref="H2:H33" si="0">IF(ISBLANK(G2),F2,F2/G2)</f>
         <v>66739628</v>
       </c>
       <c r="I2" s="3">
@@ -2186,44 +2382,76 @@
       <c r="K2" s="3">
         <v>45700000</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="3">
+        <f>VLOOKUP(A2,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>45700000</v>
+      </c>
+      <c r="N2" s="3">
+        <f>VLOOKUP(A2,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>45700000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C3" s="7">
-        <v>20527442.649999999</v>
-      </c>
-      <c r="D3" s="6">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2052744.2649999999</v>
+        <v>2124041.1490000002</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="F3" s="11">
-        <v>2052744.2649999999</v>
-      </c>
-      <c r="G3" s="4">
-        <v>4</v>
+        <v>2124041.1490000002</v>
       </c>
       <c r="H3" s="3">
         <f>IF(ISBLANK(G3),F3,F3/G3)</f>
-        <v>513186.06624999997</v>
+        <v>2124041.1490000002</v>
       </c>
       <c r="I3" s="3">
-        <v>22700000</v>
+        <v>46100000</v>
       </c>
       <c r="J3" s="3">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3">
-        <v>22700000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f>IF(H3=I3,"",1)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="L3" s="3">
+        <f>IF(K3=M3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <f>K3*0.75</f>
+        <v>7500000</v>
+      </c>
+      <c r="N3" s="3" t="str">
+        <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="O3" s="5">
+        <f>M3*0.75</f>
+        <v>5625000</v>
+      </c>
+      <c r="P3" s="3">
+        <f>O3*0.5</f>
+        <v>2812500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -2250,14 +2478,29 @@
         <v>19030173</v>
       </c>
       <c r="J4" s="3" t="str">
-        <f t="shared" ref="J3:J66" si="0">IF(H4=I4,"",1)</f>
+        <f>IF(H4=I4,"",1)</f>
         <v/>
       </c>
       <c r="K4" s="3">
         <v>19030173</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="3">
+        <f>IF(K4=M4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <f>K4+1.25</f>
+        <v>19030174.25</v>
+      </c>
+      <c r="N4" s="3">
+        <f>VLOOKUP(A4,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>19030174.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -2287,85 +2530,141 @@
         <v>63265</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H5=I5,"",1)</f>
         <v>1</v>
       </c>
       <c r="K5" s="3">
         <v>63265</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="3">
+        <f>IF(K5=M5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>63265</v>
+      </c>
+      <c r="N5" s="3">
+        <f>VLOOKUP(A5,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>63265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C6" s="7">
-        <v>16477555.609999999</v>
-      </c>
-      <c r="D6" s="6">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2353936.5157142854</v>
+        <v>1718757.3940000001</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="F6" s="11">
-        <v>2353936.5</v>
+        <v>1718757.3940000001</v>
       </c>
       <c r="G6" s="4">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="H6" s="3">
         <f>IF(ISBLANK(G6),F6,F6/G6)</f>
-        <v>470787.3</v>
+        <v>22916.765253333335</v>
       </c>
       <c r="I6" s="3">
-        <v>470787</v>
+        <v>36100000000</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="11">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>36100000000</v>
+      </c>
+      <c r="L6" s="3">
+        <f>IF(K6=M6,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <f>K6/100</f>
+        <v>361000000</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <f>VLOOKUP(A6,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>---</v>
+      </c>
+      <c r="O6" s="3">
+        <f>M6/5</f>
+        <v>72200000</v>
+      </c>
+      <c r="P6" s="3">
+        <f>O6*0.75</f>
+        <v>54150000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="7">
+        <v>16477555.609999999</v>
+      </c>
+      <c r="D7" s="6">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2353936.5157142854</v>
+      </c>
+      <c r="F7" s="11">
         <v>2353936.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="7">
-        <v>254421.22440000001</v>
-      </c>
-      <c r="D7" s="6">
-        <v>150</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1696.141496</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1696.14</v>
+      <c r="G7" s="4">
+        <v>5</v>
       </c>
       <c r="H7" s="3">
         <f>IF(ISBLANK(G7),F7,F7/G7)</f>
-        <v>1696.14</v>
+        <v>470787.3</v>
       </c>
       <c r="I7" s="3">
-        <v>1696.14</v>
-      </c>
-      <c r="J7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K7" s="3">
-        <v>1696.14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>470787</v>
+      </c>
+      <c r="J7" s="3">
+        <f>IF(H7=I7,"",1)</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
+        <v>2353936.5</v>
+      </c>
+      <c r="L7" s="3">
+        <f>IF(K7=M7,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <f>K7*0.75</f>
+        <v>1765452.375</v>
+      </c>
+      <c r="N7" s="3" t="str">
+        <f>VLOOKUP(A7,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="O7" s="3">
+        <f>M7*0.75</f>
+        <v>1324089.28125</v>
+      </c>
+      <c r="P7" s="3">
+        <f>O7*0.75</f>
+        <v>993066.9609375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -2395,14 +2694,28 @@
         <v>1000000000000</v>
       </c>
       <c r="J8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H8=I8,"",1)</f>
         <v/>
       </c>
       <c r="K8" s="3">
         <v>1000000000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="3">
+        <f>IF(K8=M8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2000000000000</v>
+      </c>
+      <c r="N8" s="3">
+        <f>VLOOKUP(A8,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2000000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -2432,14 +2745,29 @@
         <v>214151453</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H9=I9,"",1)</f>
         <v>1</v>
       </c>
       <c r="K9" s="11">
         <v>3212271805.0500002</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="3">
+        <f>IF(K9=M9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <f>K9*1.25</f>
+        <v>4015339756.3125</v>
+      </c>
+      <c r="N9" s="3">
+        <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <v>4015339756.3125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -2466,14 +2794,28 @@
         <v>2123.8950410000002</v>
       </c>
       <c r="J10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H10=I10,"",1)</f>
         <v/>
       </c>
       <c r="K10" s="3">
         <v>2123.8950410000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="3">
+        <f>IF(K10=M10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2123.8950410000002</v>
+      </c>
+      <c r="N10" s="3">
+        <f>VLOOKUP(A10,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>2123.8950410000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>41</v>
       </c>
@@ -2500,14 +2842,28 @@
         <v>74822.192989999996</v>
       </c>
       <c r="J11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H11=I11,"",1)</f>
         <v/>
       </c>
       <c r="K11" s="11">
         <v>74822.192989999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="3">
+        <f>IF(K11=M11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="11">
+        <v>74822.192989999996</v>
+      </c>
+      <c r="N11" s="3">
+        <f>VLOOKUP(A11,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <v>74822.192989999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>59</v>
       </c>
@@ -2537,14 +2893,28 @@
         <v>23</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H12=I12,"",1)</f>
         <v>1</v>
       </c>
       <c r="K12" s="3">
         <v>23.545910710000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="3">
+        <f>IF(K12=M12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3">
+        <f>VLOOKUP(A12,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2574,50 +2944,85 @@
         <v>51</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H13=I13,"",1)</f>
         <v>1</v>
       </c>
       <c r="K13" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="3">
+        <f>IF(K13=M13,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>100</v>
+      </c>
+      <c r="N13" s="3">
+        <f>VLOOKUP(A13,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C14" s="7">
-        <v>1718757.3940000001</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>193</v>
+        <v>352590040.69999999</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6">
+        <v>50370005.81428571</v>
       </c>
       <c r="F14" s="11">
-        <v>1718757.3940000001</v>
+        <v>50370005.799999997</v>
       </c>
       <c r="G14" s="4">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3">
         <f>IF(ISBLANK(G14),F14,F14/G14)</f>
-        <v>22916.765253333335</v>
+        <v>8395000.9666666668</v>
       </c>
       <c r="I14" s="3">
-        <v>36100000000</v>
+        <v>6330000</v>
       </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="3">
-        <v>36100000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f>I14/2</f>
+        <v>3165000</v>
+      </c>
+      <c r="L14" s="3">
+        <f>IF(K14=M14,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <f>K14*0.75</f>
+        <v>2373750</v>
+      </c>
+      <c r="N14" s="3" t="str">
+        <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="O14" s="3">
+        <f>M14*0.75</f>
+        <v>1780312.5</v>
+      </c>
+      <c r="P14" s="3">
+        <f>C14</f>
+        <v>352590040.69999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
@@ -2644,22 +3049,36 @@
         <v>15874.27808</v>
       </c>
       <c r="J15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H15=I15,"",1)</f>
         <v/>
       </c>
       <c r="K15" s="3">
         <v>15874.27808</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L15" s="3">
+        <f>IF(K15=M15,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>15874.27808</v>
+      </c>
+      <c r="N15" s="3">
+        <f>VLOOKUP(A15,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>15874.27808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C16" s="7">
-        <v>2124041.1490000002</v>
+        <v>129309.07709999999</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>193</v>
@@ -2668,24 +3087,47 @@
         <v>193</v>
       </c>
       <c r="F16" s="11">
-        <v>2124041.1490000002</v>
+        <v>129309</v>
+      </c>
+      <c r="G16" s="4">
+        <v>10</v>
       </c>
       <c r="H16" s="3">
         <f>IF(ISBLANK(G16),F16,F16/G16)</f>
-        <v>2124041.1490000002</v>
+        <v>12930.9</v>
       </c>
       <c r="I16" s="3">
-        <v>46100000</v>
+        <v>12930</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H16=I16,"",1)</f>
         <v>1</v>
       </c>
-      <c r="K16" s="5">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="3">
+        <v>12930.9</v>
+      </c>
+      <c r="L16" s="3">
+        <f>IF(K16=M16,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <f>K16*0.75</f>
+        <v>9698.1749999999993</v>
+      </c>
+      <c r="N16" s="3" t="str">
+        <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="O16" s="5">
+        <f>M16*0.75</f>
+        <v>7273.6312499999995</v>
+      </c>
+      <c r="P16" s="5">
+        <f>O16*0.75</f>
+        <v>5455.2234374999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -2715,51 +3157,82 @@
         <v>8700000</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H17=I17,"",1)</f>
         <v>1</v>
       </c>
       <c r="K17" s="5">
         <v>4000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="3">
+        <f>IF(K17=M17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="5">
+        <v>4000000</v>
+      </c>
+      <c r="N17" s="3">
+        <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C18" s="7">
-        <v>129309.07709999999</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>193</v>
+        <v>17230050.359999999</v>
+      </c>
+      <c r="D18" s="6">
+        <v>20</v>
+      </c>
+      <c r="E18" s="6">
+        <v>861502.51799999992</v>
       </c>
       <c r="F18" s="11">
-        <v>129309</v>
-      </c>
-      <c r="G18" s="4">
-        <v>10</v>
+        <v>861502.5</v>
       </c>
       <c r="H18" s="3">
         <f>IF(ISBLANK(G18),F18,F18/G18)</f>
-        <v>12930.9</v>
+        <v>861502.5</v>
       </c>
       <c r="I18" s="3">
-        <v>12930</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>861502.5</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f>IF(H18=I18,"",1)</f>
+        <v/>
       </c>
       <c r="K18" s="3">
-        <v>12930.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>861502.5</v>
+      </c>
+      <c r="L18" s="3">
+        <f>IF(K18=M18,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <f>K18*0.85</f>
+        <v>732277.125</v>
+      </c>
+      <c r="N18" s="3" t="str">
+        <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="O18" s="5">
+        <f>M18*0.75</f>
+        <v>549207.84375</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" ref="P18:P20" si="1">O18*0.75</f>
+        <v>411905.8828125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -2789,47 +3262,91 @@
         <v>189098</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H19=I19,"",1)</f>
         <v>1</v>
       </c>
       <c r="K19" s="3">
         <v>189098.12857142856</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="3">
+        <f>IF(K19=M19,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <f>K19*0.75</f>
+        <v>141823.59642857141</v>
+      </c>
+      <c r="N19" s="3" t="str">
+        <f>VLOOKUP(A19,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="O19" s="5">
+        <f>M19*0.75</f>
+        <v>106367.69732142857</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="1"/>
+        <v>79775.772991071426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C20" s="7">
-        <v>172649603.19999999</v>
+        <v>432544359.30000001</v>
       </c>
       <c r="D20" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E20" s="6">
-        <v>34529920.600000001</v>
+        <v>21627217.965</v>
       </c>
       <c r="F20" s="11">
-        <v>34529920</v>
+        <v>21627217</v>
+      </c>
+      <c r="G20" s="4">
+        <v>10</v>
       </c>
       <c r="H20" s="3">
         <f>IF(ISBLANK(G20),F20,F20/G20)</f>
-        <v>34529920</v>
+        <v>2162721.7000000002</v>
       </c>
       <c r="I20" s="3">
-        <v>104000000</v>
+        <v>2162721</v>
       </c>
       <c r="J20" s="3">
-        <v>2</v>
+        <f>IF(H20=I20,"",1)</f>
+        <v>1</v>
       </c>
       <c r="K20" s="3">
-        <v>104000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4325443.4000000004</v>
+      </c>
+      <c r="L20" s="3">
+        <f>IF(K20=M20,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <f>K20*0.75</f>
+        <v>3244082.5500000003</v>
+      </c>
+      <c r="N20" s="3" t="str">
+        <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="O20" s="5">
+        <f>M20*0.75</f>
+        <v>2433061.9125000001</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="1"/>
+        <v>1824796.4343750002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>187</v>
       </c>
@@ -2856,14 +3373,28 @@
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="J21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H21=I21,"",1)</f>
         <v/>
       </c>
       <c r="K21" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L21" s="3">
+        <f>IF(K21=M21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N21" s="3" t="e">
+        <f>VLOOKUP(A21,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>186</v>
       </c>
@@ -2890,14 +3421,28 @@
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="J22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H22=I22,"",1)</f>
         <v/>
       </c>
       <c r="K22" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="3">
+        <f>IF(K22=M22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N22" s="3" t="e">
+        <f>VLOOKUP(A22,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>62</v>
       </c>
@@ -2924,51 +3469,83 @@
         <v>149515.5</v>
       </c>
       <c r="J23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H23=I23,"",1)</f>
         <v/>
       </c>
       <c r="K23" s="3">
         <v>350000</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L23" s="3">
+        <f>IF(K23=M23,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <f>K23*0.75</f>
+        <v>262500</v>
+      </c>
+      <c r="N23" s="3">
+        <f>VLOOKUP(A23,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <f>M23*0.75</f>
+        <v>196875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C24" s="7">
-        <v>15150975.09</v>
+        <v>172649603.19999999</v>
       </c>
       <c r="D24" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E24" s="6">
-        <v>1893871.875</v>
+        <v>34529920.600000001</v>
       </c>
       <c r="F24" s="11">
-        <v>1893871.875</v>
-      </c>
-      <c r="G24" s="4">
-        <v>10</v>
+        <v>34529920</v>
       </c>
       <c r="H24" s="3">
         <f>IF(ISBLANK(G24),F24,F24/G24)</f>
-        <v>189387.1875</v>
+        <v>34529920</v>
       </c>
       <c r="I24" s="3">
-        <v>189387</v>
+        <v>104000000</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="3">
-        <v>378774.375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>104000000</v>
+      </c>
+      <c r="L24" s="3">
+        <f>IF(K24=M24,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <f>K24*0.85</f>
+        <v>88400000</v>
+      </c>
+      <c r="N24" s="3" t="str">
+        <f>VLOOKUP(A24,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="O24" s="5">
+        <f>M24*0.75</f>
+        <v>66300000</v>
+      </c>
+      <c r="P24" s="5">
+        <f>O24*0.75</f>
+        <v>49725000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>185</v>
       </c>
@@ -2995,14 +3572,28 @@
         <v>0.01</v>
       </c>
       <c r="J25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H25=I25,"",1)</f>
         <v/>
       </c>
       <c r="K25" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="3">
+        <f>IF(K25=M25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N25" s="3" t="e">
+        <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O25" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>184</v>
       </c>
@@ -3029,14 +3620,28 @@
         <v>0.01</v>
       </c>
       <c r="J26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H26=I26,"",1)</f>
         <v/>
       </c>
       <c r="K26" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L26" s="3">
+        <f>IF(K26=M26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N26" s="3" t="e">
+        <f>VLOOKUP(A26,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O26" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
@@ -3068,8 +3673,23 @@
       <c r="K27" s="3">
         <v>181000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L27" s="3">
+        <f>IF(K27=M27,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <f>K27*1.25</f>
+        <v>226250000</v>
+      </c>
+      <c r="N27" s="3">
+        <f>VLOOKUP(A27,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>226250000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>57</v>
       </c>
@@ -3099,14 +3719,28 @@
         <v>375</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H28=I28,"",1)</f>
         <v>1</v>
       </c>
       <c r="K28" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L28" s="3">
+        <f>IF(K28=M28,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>100</v>
+      </c>
+      <c r="N28" s="3">
+        <f>VLOOKUP(A28,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
@@ -3133,14 +3767,28 @@
         <v>4986608.142</v>
       </c>
       <c r="J29" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H29=I29,"",1)</f>
         <v/>
       </c>
       <c r="K29" s="3">
         <v>4986608.142</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L29" s="3">
+        <f>IF(K29=M29,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>4986608.142</v>
+      </c>
+      <c r="N29" s="3">
+        <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>4986608.142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
@@ -3170,51 +3818,84 @@
         <v>6976733</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H30=I30,"",1)</f>
         <v>1</v>
       </c>
       <c r="K30" s="3">
         <v>13953467.319999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L30" s="3">
+        <f>IF(K30=M30,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <f>K30*0.75</f>
+        <v>10465100.489999998</v>
+      </c>
+      <c r="N30" s="3">
+        <f>VLOOKUP(A30,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <f>M30*0.75</f>
+        <v>7848825.3674999988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C31" s="7">
-        <v>432544359.30000001</v>
+        <v>254421.22440000001</v>
       </c>
       <c r="D31" s="6">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E31" s="6">
-        <v>21627217.965</v>
+        <v>1696.141496</v>
       </c>
       <c r="F31" s="11">
-        <v>21627217</v>
-      </c>
-      <c r="G31" s="4">
-        <v>10</v>
+        <v>1696.14</v>
       </c>
       <c r="H31" s="3">
         <f>IF(ISBLANK(G31),F31,F31/G31)</f>
-        <v>2162721.7000000002</v>
+        <v>1696.14</v>
       </c>
       <c r="I31" s="3">
-        <v>2162721</v>
-      </c>
-      <c r="J31" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1696.14</v>
+      </c>
+      <c r="J31" s="3" t="str">
+        <f>IF(H31=I31,"",1)</f>
+        <v/>
       </c>
       <c r="K31" s="3">
-        <v>4325443.4000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1696.14</v>
+      </c>
+      <c r="L31" s="3">
+        <f>IF(K31=M31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <f>K31*0.75</f>
+        <v>1272.105</v>
+      </c>
+      <c r="N31" s="3" t="str">
+        <f>VLOOKUP(A31,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="O31" s="3">
+        <f>M31*0.75</f>
+        <v>954.07875000000001</v>
+      </c>
+      <c r="P31" s="5">
+        <f>O31*0.75</f>
+        <v>715.55906249999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>54</v>
       </c>
@@ -3244,14 +3925,28 @@
         <v>164351</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H32=I32,"",1)</f>
         <v>1</v>
       </c>
       <c r="K32" s="3">
         <v>328703</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L32" s="3">
+        <f>IF(K32=M32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>328703</v>
+      </c>
+      <c r="N32" s="3">
+        <f>VLOOKUP(A32,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>328703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>189</v>
       </c>
@@ -3278,14 +3973,28 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J33" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H33=I33,"",1)</f>
         <v/>
       </c>
       <c r="K33" s="3">
         <v>1.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L33" s="3">
+        <f>IF(K33=M33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="N33" s="3" t="e">
+        <f>VLOOKUP(A33,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>188</v>
       </c>
@@ -3312,14 +4021,28 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J34" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H34=I34,"",1)</f>
         <v/>
       </c>
       <c r="K34" s="3">
         <v>1.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L34" s="3">
+        <f>IF(K34=M34,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="N34" s="3" t="e">
+        <f>VLOOKUP(A34,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O34" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>35</v>
       </c>
@@ -3349,14 +4072,29 @@
         <v>611734</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H35=I35,"",1)</f>
         <v>1</v>
       </c>
       <c r="K35" s="3">
         <v>1411695.7132307691</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L35" s="3">
+        <f>IF(K35=M35,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <f>K35*0.85</f>
+        <v>1199941.3562461538</v>
+      </c>
+      <c r="N35" s="3">
+        <f>VLOOKUP(A35,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1199941.3562461538</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>29</v>
       </c>
@@ -3386,14 +4124,29 @@
         <v>21334</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H36=I36,"",1)</f>
         <v>1</v>
       </c>
       <c r="K36" s="3">
         <v>42669.26666666667</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L36" s="3">
+        <f>IF(K36=M36,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <f>K36*1.15</f>
+        <v>49069.656666666669</v>
+      </c>
+      <c r="N36" s="3">
+        <f>VLOOKUP(A36,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>49069.656666666669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
@@ -3423,14 +4176,29 @@
         <v>696941</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H37=I37,"",1)</f>
         <v>1</v>
       </c>
       <c r="K37" s="3">
         <v>1393882.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L37" s="3">
+        <f>IF(K37=M37,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <f>K37*1.25</f>
+        <v>1742353</v>
+      </c>
+      <c r="N37" s="3">
+        <f>VLOOKUP(A37,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <v>1742353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>48</v>
       </c>
@@ -3457,48 +4225,85 @@
         <v>110.9</v>
       </c>
       <c r="J38" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H38=I38,"",1)</f>
         <v/>
       </c>
       <c r="K38" s="3">
         <v>110.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L38" s="3">
+        <f>IF(K38=M38,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M38" s="3">
+        <v>110.9</v>
+      </c>
+      <c r="N38" s="3">
+        <f>VLOOKUP(A38,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>110.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="C39" s="7">
-        <v>17230050.359999999</v>
+        <v>15150975.09</v>
       </c>
       <c r="D39" s="6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E39" s="6">
-        <v>861502.51799999992</v>
+        <v>1893871.875</v>
       </c>
       <c r="F39" s="11">
-        <v>861502.5</v>
+        <v>1893871.875</v>
+      </c>
+      <c r="G39" s="4">
+        <v>10</v>
       </c>
       <c r="H39" s="3">
         <f>IF(ISBLANK(G39),F39,F39/G39)</f>
-        <v>861502.5</v>
+        <v>189387.1875</v>
       </c>
       <c r="I39" s="3">
-        <v>861502.5</v>
-      </c>
-      <c r="J39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>189387</v>
+      </c>
+      <c r="J39" s="3">
+        <f>IF(H39=I39,"",1)</f>
+        <v>1</v>
       </c>
       <c r="K39" s="3">
-        <v>861502.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>378774.375</v>
+      </c>
+      <c r="L39" s="3">
+        <f>IF(K39=M39,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <f>K39*0.85</f>
+        <v>321958.21875</v>
+      </c>
+      <c r="N39" s="3" t="str">
+        <f>VLOOKUP(A39,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="O39" s="5">
+        <f>M39*0.75</f>
+        <v>241468.6640625</v>
+      </c>
+      <c r="P39" s="5">
+        <f>O39*0.75</f>
+        <v>181101.498046875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -3525,14 +4330,28 @@
         <v>4273.9050960000004</v>
       </c>
       <c r="J40" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H40=I40,"",1)</f>
         <v/>
       </c>
       <c r="K40" s="3">
         <v>4273.9050960000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L40" s="3">
+        <f>IF(K40=M40,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
+        <v>4273.9050960000004</v>
+      </c>
+      <c r="N40" s="3">
+        <f>VLOOKUP(A40,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <v>4273.9050960000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>191</v>
       </c>
@@ -3559,14 +4378,28 @@
         <v>0.05</v>
       </c>
       <c r="J41" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H41=I41,"",1)</f>
         <v/>
       </c>
       <c r="K41" s="3">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L41" s="3">
+        <f>IF(K41=M41,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="N41" s="3" t="e">
+        <f>VLOOKUP(A41,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>190</v>
       </c>
@@ -3593,14 +4426,28 @@
         <v>0.05</v>
       </c>
       <c r="J42" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H42=I42,"",1)</f>
         <v/>
       </c>
       <c r="K42" s="3">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L42" s="3">
+        <f>IF(K42=M42,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="N42" s="3" t="e">
+        <f>VLOOKUP(A42,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>20</v>
       </c>
@@ -3627,14 +4474,28 @@
         <v>80210</v>
       </c>
       <c r="J43" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H43=I43,"",1)</f>
         <v/>
       </c>
       <c r="K43" s="3">
         <v>80210</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L43" s="3">
+        <f>IF(K43=M43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M43" s="3">
+        <v>80210</v>
+      </c>
+      <c r="N43" s="3">
+        <f>VLOOKUP(A43,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>80210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>56</v>
       </c>
@@ -3661,47 +4522,84 @@
         <v>28898.867849999999</v>
       </c>
       <c r="J44" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H44=I44,"",1)</f>
         <v/>
       </c>
       <c r="K44" s="3">
         <v>28898.867849999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L44" s="3">
+        <f>IF(K44=M44,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M44" s="3">
+        <v>28898.867849999999</v>
+      </c>
+      <c r="N44" s="3">
+        <f>VLOOKUP(A44,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>28898.867849999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C45" s="7">
-        <v>15779070.359999999</v>
+        <v>20527442.649999999</v>
       </c>
       <c r="D45" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E45" s="6">
-        <v>1314922.53</v>
+        <v>2052744.2649999999</v>
       </c>
       <c r="F45" s="11">
-        <v>1314922.53</v>
+        <v>2052744.2649999999</v>
+      </c>
+      <c r="G45" s="4">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <f>IF(ISBLANK(G45),F45,F45/G45)</f>
-        <v>1314922.53</v>
+        <v>513186.06624999997</v>
       </c>
       <c r="I45" s="3">
-        <v>27400000</v>
+        <v>22700000</v>
       </c>
       <c r="J45" s="3">
         <v>2</v>
       </c>
       <c r="K45" s="3">
-        <v>27400000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22700000</v>
+      </c>
+      <c r="L45" s="3">
+        <f>IF(K45=M45,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <f>K45*0.75</f>
+        <v>17025000</v>
+      </c>
+      <c r="N45" s="3" t="str">
+        <f>VLOOKUP(A45,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>--</v>
+      </c>
+      <c r="O45" s="3">
+        <f>M45*0.75</f>
+        <v>12768750</v>
+      </c>
+      <c r="P45" s="5">
+        <f>O45*0.75</f>
+        <v>9576562.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
@@ -3728,14 +4626,28 @@
         <v>6221.5131609999999</v>
       </c>
       <c r="J46" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H46=I46,"",1)</f>
         <v/>
       </c>
       <c r="K46" s="3">
         <v>6221.5131609999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L46" s="3">
+        <f>IF(K46=M46,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M46" s="3">
+        <v>6221.5131609999999</v>
+      </c>
+      <c r="N46" s="3">
+        <f>VLOOKUP(A46,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>6221.5131609999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>31</v>
       </c>
@@ -3762,14 +4674,29 @@
         <v>4142428.1669999999</v>
       </c>
       <c r="J47" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H47=I47,"",1)</f>
         <v/>
       </c>
       <c r="K47" s="3">
         <v>4142428.1669999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L47" s="3">
+        <f>IF(K47=M47,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <f>K47*0.85</f>
+        <v>3521063.9419499999</v>
+      </c>
+      <c r="N47" s="3">
+        <f>VLOOKUP(A47,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>3521063.9419499999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>58</v>
       </c>
@@ -3799,14 +4726,29 @@
         <v>26</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H48=I48,"",1)</f>
         <v>1</v>
       </c>
       <c r="K48" s="3">
         <v>26.804801994999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L48" s="3">
+        <f>IF(K48=M48,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <f>K48*0.75</f>
+        <v>20.10360149625</v>
+      </c>
+      <c r="N48" s="3">
+        <f>VLOOKUP(A48,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>20.10360149625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>47</v>
       </c>
@@ -3841,41 +4783,76 @@
       <c r="K49" s="3">
         <v>100000</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L49" s="3">
+        <f>IF(K49=M49,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <f>K49*0.75</f>
+        <v>75000</v>
+      </c>
+      <c r="N49" s="3">
+        <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C50" s="7">
-        <v>5700290.8640000001</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>193</v>
+        <v>15779070.359999999</v>
+      </c>
+      <c r="D50" s="6">
+        <v>12</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1314922.53</v>
       </c>
       <c r="F50" s="11">
-        <v>5700290.8640000001</v>
+        <v>1314922.53</v>
       </c>
       <c r="H50" s="3">
         <f>IF(ISBLANK(G50),F50,F50/G50)</f>
-        <v>5700290.8640000001</v>
+        <v>1314922.53</v>
       </c>
       <c r="I50" s="3">
-        <v>134000000</v>
+        <v>27400000</v>
       </c>
       <c r="J50" s="3">
         <v>2</v>
       </c>
       <c r="K50" s="3">
-        <v>134000000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>27400000</v>
+      </c>
+      <c r="L50" s="3">
+        <f>IF(K50=M50,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <f>K50/10</f>
+        <v>2740000</v>
+      </c>
+      <c r="N50" s="3" t="str">
+        <f>VLOOKUP(A50,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="O50" s="5">
+        <f>M50*0.75</f>
+        <v>2055000</v>
+      </c>
+      <c r="P50" s="3">
+        <f>C50</f>
+        <v>15779070.359999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -3902,14 +4879,28 @@
         <v>357460.29800000001</v>
       </c>
       <c r="J51" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H51=I51,"",1)</f>
         <v/>
       </c>
       <c r="K51" s="3">
         <v>357460.29800000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L51" s="3">
+        <f>IF(K51=M51,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M51" s="3">
+        <v>357460.29800000001</v>
+      </c>
+      <c r="N51" s="3">
+        <f>VLOOKUP(A51,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>357460.29800000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>27</v>
       </c>
@@ -3942,8 +4933,23 @@
       <c r="K52" s="3">
         <v>3943196.4866666668</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L52" s="3">
+        <f>IF(K52=M52,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <f>K52*1.25</f>
+        <v>4928995.6083333334</v>
+      </c>
+      <c r="N52" s="3">
+        <f>VLOOKUP(A52,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>4928995.6083333334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>28</v>
       </c>
@@ -3973,14 +4979,29 @@
         <v>48153936</v>
       </c>
       <c r="J53" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H53=I53,"",1)</f>
         <v/>
       </c>
       <c r="K53" s="3">
         <v>57784723.200000003</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L53" s="3">
+        <f>IF(K53=M53,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <f>K53*1.25</f>
+        <v>72230904</v>
+      </c>
+      <c r="N53" s="3">
+        <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>72230904</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>60</v>
       </c>
@@ -4007,88 +5028,138 @@
         <v>7496.955054</v>
       </c>
       <c r="J54" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H54=I54,"",1)</f>
         <v/>
       </c>
       <c r="K54" s="3">
         <v>7496.955054</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L54" s="3">
+        <f>IF(K54=M54,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M54" s="3">
+        <v>7496.955054</v>
+      </c>
+      <c r="N54" s="3">
+        <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>7496.955054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C55" s="7">
-        <v>358999.37920000002</v>
-      </c>
-      <c r="D55" s="6">
-        <v>12</v>
-      </c>
-      <c r="E55" s="6">
-        <v>29916.614166666666</v>
+        <v>5700290.8640000001</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="F55" s="11">
-        <v>29916.6</v>
-      </c>
-      <c r="G55" s="9">
-        <v>10</v>
+        <v>5700290.8640000001</v>
       </c>
       <c r="H55" s="3">
         <f>IF(ISBLANK(G55),F55,F55/G55)</f>
-        <v>2991.66</v>
+        <v>5700290.8640000001</v>
       </c>
       <c r="I55" s="3">
-        <v>2991</v>
+        <v>134000000</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55" s="3">
-        <v>2991.66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>134000000</v>
+      </c>
+      <c r="L55" s="3">
+        <f>IF(K55=M55,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
+        <f>K55*0.5</f>
+        <v>67000000</v>
+      </c>
+      <c r="N55" s="3" t="str">
+        <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>--</v>
+      </c>
+      <c r="O55" s="3">
+        <f>M55/2</f>
+        <v>33500000</v>
+      </c>
+      <c r="P55" s="3">
+        <f>O55*0.75</f>
+        <v>25125000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C56" s="7">
-        <v>352590040.69999999</v>
+        <v>358999.37920000002</v>
       </c>
       <c r="D56" s="6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E56" s="6">
-        <v>50370005.81428571</v>
+        <v>29916.614166666666</v>
       </c>
       <c r="F56" s="11">
-        <v>50370005.799999997</v>
-      </c>
-      <c r="G56" s="4">
-        <v>6</v>
+        <v>29916.6</v>
+      </c>
+      <c r="G56" s="9">
+        <v>10</v>
       </c>
       <c r="H56" s="3">
         <f>IF(ISBLANK(G56),F56,F56/G56)</f>
-        <v>8395000.9666666668</v>
+        <v>2991.66</v>
       </c>
       <c r="I56" s="3">
-        <v>6330000</v>
+        <v>2991</v>
       </c>
       <c r="J56" s="3">
+        <f>IF(H56=I56,"",1)</f>
         <v>1</v>
       </c>
       <c r="K56" s="3">
-        <f>I56/2</f>
-        <v>3165000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2991.66</v>
+      </c>
+      <c r="L56" s="3">
+        <f>IF(K56=M56,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <f>K56/2</f>
+        <v>1495.83</v>
+      </c>
+      <c r="N56" s="3" t="str">
+        <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="O56" s="3">
+        <f>M56*0.75</f>
+        <v>1121.8724999999999</v>
+      </c>
+      <c r="P56" s="3">
+        <f>O56*0.75</f>
+        <v>841.40437499999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>38</v>
       </c>
@@ -4118,14 +5189,28 @@
         <v>29180</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H57=I57,"",1)</f>
         <v>1</v>
       </c>
       <c r="K57" s="3">
         <v>58361.849450000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L57" s="3">
+        <f>IF(K57=M57,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M57" s="3">
+        <v>58361.849450000002</v>
+      </c>
+      <c r="N57" s="3">
+        <f>VLOOKUP(A57,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>58361.849450000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>15</v>
       </c>
@@ -4161,8 +5246,28 @@
         <f>I58/10</f>
         <v>5340000</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L58" s="3">
+        <f>IF(K58=M58,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <f>K58/2</f>
+        <v>2670000</v>
+      </c>
+      <c r="N58" s="3" t="str">
+        <f>VLOOKUP(A58,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>--</v>
+      </c>
+      <c r="O58" s="3">
+        <f>M58*0.5</f>
+        <v>1335000</v>
+      </c>
+      <c r="P58" s="3">
+        <f>O58*0.75</f>
+        <v>1001250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>39</v>
       </c>
@@ -4192,14 +5297,34 @@
         <v>17712</v>
       </c>
       <c r="J59" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H59=I59,"",1)</f>
         <v>1</v>
       </c>
       <c r="K59" s="3">
         <v>35425.880900000004</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L59" s="3">
+        <f>IF(K59=M59,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <f>K59/2</f>
+        <v>17712.940450000002</v>
+      </c>
+      <c r="N59" s="3" t="str">
+        <f>VLOOKUP(A59,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>--</v>
+      </c>
+      <c r="O59" s="3">
+        <f>M59/2</f>
+        <v>8856.4702250000009</v>
+      </c>
+      <c r="P59" s="3">
+        <f>O59*0.75</f>
+        <v>6642.3526687500007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>34</v>
       </c>
@@ -4235,8 +5360,28 @@
         <f>I60/10</f>
         <v>142000</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L60" s="3">
+        <f>IF(K60=M60,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <f>I60/5</f>
+        <v>284000</v>
+      </c>
+      <c r="N60" s="3" t="str">
+        <f>VLOOKUP(A60,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+</v>
+      </c>
+      <c r="O60" s="3">
+        <f>M60*1.5</f>
+        <v>426000</v>
+      </c>
+      <c r="P60" s="3">
+        <f>O60*1.5</f>
+        <v>639000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>61</v>
       </c>
@@ -4263,14 +5408,28 @@
         <v>71.004761549999998</v>
       </c>
       <c r="J61" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H61=I61,"",1)</f>
         <v/>
       </c>
       <c r="K61" s="3">
         <v>71.004761549999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L61" s="3">
+        <f>IF(K61=M61,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M61" s="3">
+        <v>71.004761549999998</v>
+      </c>
+      <c r="N61" s="3">
+        <f>VLOOKUP(A61,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>71.004761549999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>12</v>
       </c>
@@ -4306,8 +5465,23 @@
         <f>I62*1.5</f>
         <v>7530000</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L62" s="3">
+        <f>IF(K62=M62,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <f>K62*0.85</f>
+        <v>6400500</v>
+      </c>
+      <c r="N62" s="3">
+        <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>6400500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>14</v>
       </c>
@@ -4337,14 +5511,29 @@
         <v>439802</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H63=I63,"",1)</f>
         <v>1</v>
       </c>
       <c r="K63" s="3">
         <v>879605.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L63" s="3">
+        <f>IF(K63=M63,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <f>K63*0.85</f>
+        <v>747664.41999999993</v>
+      </c>
+      <c r="N63" s="3">
+        <f>VLOOKUP(A63,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>747664.41999999993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>16</v>
       </c>
@@ -4380,8 +5569,28 @@
         <f>I64/1.5</f>
         <v>21600000</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L64" s="3">
+        <f>IF(K64=M64,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <f>K64/1.5</f>
+        <v>14400000</v>
+      </c>
+      <c r="N64" s="3" t="str">
+        <f>VLOOKUP(A64,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>--</v>
+      </c>
+      <c r="O64" s="3">
+        <f>M64*0.75</f>
+        <v>10800000</v>
+      </c>
+      <c r="P64" s="3">
+        <f>O64/10</f>
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>52</v>
       </c>
@@ -4411,14 +5620,34 @@
         <v>42857</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="0"/>
+        <f>IF(H65=I65,"",1)</f>
         <v>1</v>
       </c>
       <c r="K65" s="3">
         <v>42857.142857142855</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L65" s="3">
+        <f>IF(K65=M65,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <f>K65*0.75</f>
+        <v>32142.857142857141</v>
+      </c>
+      <c r="N65" s="3" t="str">
+        <f>VLOOKUP(A65,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="O65" s="3">
+        <f>M65*0.75</f>
+        <v>24107.142857142855</v>
+      </c>
+      <c r="P65" s="3">
+        <f>O65*0.75</f>
+        <v>18080.357142857141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>17</v>
       </c>
@@ -4445,14 +5674,34 @@
         <v>2026568.5109999999</v>
       </c>
       <c r="J66" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H66=I66,"",1)</f>
         <v/>
       </c>
       <c r="K66" s="3">
         <v>2026568.5109999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L66" s="3">
+        <f>IF(K66=M66,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <f>K66*0.85</f>
+        <v>1722583.2343499998</v>
+      </c>
+      <c r="N66" s="3" t="str">
+        <f>VLOOKUP(A66,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="O66" s="3">
+        <f>M66*0.75</f>
+        <v>1291937.4257624999</v>
+      </c>
+      <c r="P66" s="3">
+        <f>O66*0.75</f>
+        <v>968953.06932187499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>40</v>
       </c>
@@ -4487,8 +5736,22 @@
       <c r="K67" s="3">
         <v>491000</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L67" s="3">
+        <f>IF(K67=M67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M67" s="3">
+        <v>491000</v>
+      </c>
+      <c r="N67" s="3">
+        <f>VLOOKUP(A67,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="3">
+        <v>491000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>44</v>
       </c>
@@ -4523,18 +5786,38 @@
       <c r="K68" s="3">
         <v>2925788</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L68" s="3">
+        <f>IF(K68=M68,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <f>K68*0.85</f>
+        <v>2486919.7999999998</v>
+      </c>
+      <c r="N68" s="3" t="str">
+        <f>VLOOKUP(A68,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="O68" s="3">
+        <f>M68*0.75</f>
+        <v>1865189.8499999999</v>
+      </c>
+      <c r="P68" s="3">
+        <f>O68*0.75</f>
+        <v>1398892.3875</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69"/>
       <c r="C69"/>
     </row>
-    <row r="70" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -4542,17 +5825,23 @@
       <c r="E71"/>
       <c r="F71" s="12"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B72"/>
       <c r="C72"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K68">
-    <filterColumn colId="9">
+  <autoFilter ref="A1:O68">
+    <filterColumn colId="13">
       <filters>
-        <filter val="1"/>
+        <filter val="-"/>
+        <filter val="--"/>
+        <filter val="---"/>
+        <filter val="+"/>
       </filters>
     </filterColumn>
+    <sortState ref="A3:O68">
+      <sortCondition ref="A1:A68"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Group Condition" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="212">
   <si>
     <t>Too High</t>
   </si>
@@ -643,18 +643,12 @@
     <t>-</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>Too High Early</t>
   </si>
   <si>
     <t>RemovePred5_tochange</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
     <t>RemovePred5_KDENR</t>
   </si>
   <si>
@@ -665,6 +659,12 @@
   </si>
   <si>
     <t>RemovePred6_Change</t>
+  </si>
+  <si>
+    <t>ORIG</t>
+  </si>
+  <si>
+    <t>RemovePred_KDENR</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1071,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,7 +1095,7 @@
         <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1127,21 +1127,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>103</v>
       </c>
-      <c r="C3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>204</v>
+      <c r="H3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1180,7 +1174,7 @@
         <v>181</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1194,7 +1188,7 @@
         <v>181</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1305,21 +1299,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>120</v>
       </c>
-      <c r="C17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" t="s">
-        <v>181</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>207</v>
+      <c r="H17" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1347,7 +1335,7 @@
         <v>181</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1422,7 +1410,7 @@
         <v>181</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1435,11 +1423,8 @@
       <c r="C26" t="s">
         <v>181</v>
       </c>
-      <c r="H26" t="s">
-        <v>181</v>
-      </c>
       <c r="I26" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1453,21 +1438,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>132</v>
       </c>
-      <c r="C28" t="s">
-        <v>181</v>
-      </c>
       <c r="H28" t="s">
         <v>181</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1484,7 +1463,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1520,7 +1499,7 @@
         <v>181</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1628,7 +1607,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1653,7 +1632,7 @@
         <v>181</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1678,7 +1657,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -1690,6 +1669,9 @@
       </c>
       <c r="G46" t="s">
         <v>181</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1761,7 +1743,7 @@
         <v>181</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1830,21 +1812,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>30</v>
       </c>
       <c r="B59" t="s">
         <v>118</v>
       </c>
-      <c r="C59" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" t="s">
-        <v>181</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>203</v>
+      <c r="H59" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1858,7 +1834,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -1868,8 +1844,8 @@
       <c r="E61" t="s">
         <v>181</v>
       </c>
-      <c r="I61" s="13" t="s">
-        <v>202</v>
+      <c r="G61" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1932,11 +1908,8 @@
       <c r="D66" t="s">
         <v>181</v>
       </c>
-      <c r="G66" t="s">
-        <v>181</v>
-      </c>
       <c r="I66" s="13" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2041,7 +2014,7 @@
         <v>181</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -2058,7 +2031,7 @@
         <v>181</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2072,24 +2045,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>15</v>
       </c>
       <c r="B78" t="s">
         <v>98</v>
       </c>
-      <c r="C78" t="s">
-        <v>181</v>
-      </c>
-      <c r="D78" t="s">
-        <v>181</v>
-      </c>
-      <c r="G78" t="s">
-        <v>181</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>204</v>
+      <c r="F78" t="s">
+        <v>181</v>
+      </c>
+      <c r="H78" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -2109,7 +2076,7 @@
         <v>181</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2137,7 +2104,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -2149,6 +2116,9 @@
       </c>
       <c r="G82" t="s">
         <v>181</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2165,21 +2135,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>16</v>
       </c>
       <c r="B84" t="s">
         <v>99</v>
       </c>
-      <c r="C84" t="s">
-        <v>181</v>
-      </c>
-      <c r="D84" t="s">
-        <v>181</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>204</v>
+      <c r="H84" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -2199,7 +2163,7 @@
         <v>181</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -2216,7 +2180,7 @@
         <v>181</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -2247,7 +2211,7 @@
         <v>181</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2257,10 +2221,8 @@
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="8">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="7">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2269,14 +2231,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U50" sqref="U50"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2297,10 +2258,11 @@
     <col min="14" max="14" width="8.88671875" style="3"/>
     <col min="15" max="15" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="3"/>
+    <col min="17" max="17" width="20.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>91</v>
       </c>
@@ -2335,22 +2297,25 @@
         <v>199</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2370,7 +2335,7 @@
         <v>66739628</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H33" si="0">IF(ISBLANK(G2),F2,F2/G2)</f>
+        <f t="shared" ref="H2" si="0">IF(ISBLANK(G2),F2,F2/G2)</f>
         <v>66739628</v>
       </c>
       <c r="I2" s="3">
@@ -2397,7 +2362,7 @@
         <v>45700000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -2417,7 +2382,7 @@
         <v>2124041.1490000002</v>
       </c>
       <c r="H3" s="3">
-        <f>IF(ISBLANK(G3),F3,F3/G3)</f>
+        <f t="shared" ref="H3:H34" si="1">IF(ISBLANK(G3),F3,F3/G3)</f>
         <v>2124041.1490000002</v>
       </c>
       <c r="I3" s="3">
@@ -2431,7 +2396,7 @@
         <v>10000000</v>
       </c>
       <c r="L3" s="3">
-        <f>IF(K3=M3,1,0)</f>
+        <f t="shared" ref="L3:L34" si="2">IF(K3=M3,1,0)</f>
         <v>0</v>
       </c>
       <c r="M3" s="5">
@@ -2440,7 +2405,7 @@
       </c>
       <c r="N3" s="3" t="str">
         <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>ORIG</v>
       </c>
       <c r="O3" s="5">
         <f>M3*0.75</f>
@@ -2450,8 +2415,12 @@
         <f>O3*0.5</f>
         <v>2812500</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q3" s="3">
+        <f>C3</f>
+        <v>2124041.1490000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -2471,7 +2440,7 @@
         <v>19030173</v>
       </c>
       <c r="H4" s="3">
-        <f>IF(ISBLANK(G4),F4,F4/G4)</f>
+        <f t="shared" si="1"/>
         <v>19030173</v>
       </c>
       <c r="I4" s="3">
@@ -2485,7 +2454,7 @@
         <v>19030173</v>
       </c>
       <c r="L4" s="3">
-        <f>IF(K4=M4,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M4" s="3">
@@ -2500,7 +2469,7 @@
         <v>19030174.25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -2523,7 +2492,7 @@
         <v>0.25</v>
       </c>
       <c r="H5" s="3">
-        <f>IF(ISBLANK(G5),F5,F5/G5)</f>
+        <f t="shared" si="1"/>
         <v>63265.246760000002</v>
       </c>
       <c r="I5" s="3">
@@ -2537,7 +2506,7 @@
         <v>63265</v>
       </c>
       <c r="L5" s="3">
-        <f>IF(K5=M5,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M5" s="3">
@@ -2551,7 +2520,7 @@
         <v>63265</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
@@ -2574,7 +2543,7 @@
         <v>75</v>
       </c>
       <c r="H6" s="3">
-        <f>IF(ISBLANK(G6),F6,F6/G6)</f>
+        <f t="shared" si="1"/>
         <v>22916.765253333335</v>
       </c>
       <c r="I6" s="3">
@@ -2587,16 +2556,16 @@
         <v>36100000000</v>
       </c>
       <c r="L6" s="3">
-        <f>IF(K6=M6,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M6" s="3">
         <f>K6/100</f>
         <v>361000000</v>
       </c>
-      <c r="N6" s="3" t="str">
+      <c r="N6" s="3">
         <f>VLOOKUP(A6,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>---</v>
+        <v>0</v>
       </c>
       <c r="O6" s="3">
         <f>M6/5</f>
@@ -2607,7 +2576,7 @@
         <v>54150000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2630,21 +2599,21 @@
         <v>5</v>
       </c>
       <c r="H7" s="3">
-        <f>IF(ISBLANK(G7),F7,F7/G7)</f>
+        <f t="shared" si="1"/>
         <v>470787.3</v>
       </c>
       <c r="I7" s="3">
         <v>470787</v>
       </c>
       <c r="J7" s="3">
-        <f>IF(H7=I7,"",1)</f>
+        <f t="shared" ref="J7:J13" si="3">IF(H7=I7,"",1)</f>
         <v>1</v>
       </c>
       <c r="K7" s="11">
         <v>2353936.5</v>
       </c>
       <c r="L7" s="3">
-        <f>IF(K7=M7,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M7" s="11">
@@ -2653,7 +2622,7 @@
       </c>
       <c r="N7" s="3" t="str">
         <f>VLOOKUP(A7,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>ORIG</v>
       </c>
       <c r="O7" s="3">
         <f>M7*0.75</f>
@@ -2663,8 +2632,12 @@
         <f>O7*0.75</f>
         <v>993066.9609375</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q7" s="3">
+        <f>C7</f>
+        <v>16477555.609999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -2687,21 +2660,21 @@
         <v>0.5</v>
       </c>
       <c r="H8" s="3">
-        <f>IF(ISBLANK(G8),F8,F8/G8)</f>
+        <f t="shared" si="1"/>
         <v>1000000000000</v>
       </c>
       <c r="I8" s="3">
         <v>1000000000000</v>
       </c>
       <c r="J8" s="3" t="str">
-        <f>IF(H8=I8,"",1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K8" s="3">
         <v>1000000000000</v>
       </c>
       <c r="L8" s="3">
-        <f>IF(K8=M8,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M8" s="3">
@@ -2715,7 +2688,7 @@
         <v>2000000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -2738,21 +2711,21 @@
         <v>15</v>
       </c>
       <c r="H9" s="3">
-        <f>IF(ISBLANK(G9),F9,F9/G9)</f>
+        <f t="shared" si="1"/>
         <v>214151453.67000002</v>
       </c>
       <c r="I9" s="3">
         <v>214151453</v>
       </c>
       <c r="J9" s="3">
-        <f>IF(H9=I9,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K9" s="11">
         <v>3212271805.0500002</v>
       </c>
       <c r="L9" s="3">
-        <f>IF(K9=M9,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="11">
@@ -2767,7 +2740,7 @@
         <v>4015339756.3125</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -2787,21 +2760,21 @@
         <v>2123.8950410000002</v>
       </c>
       <c r="H10" s="3">
-        <f>IF(ISBLANK(G10),F10,F10/G10)</f>
+        <f t="shared" si="1"/>
         <v>2123.8950410000002</v>
       </c>
       <c r="I10" s="3">
         <v>2123.8950410000002</v>
       </c>
       <c r="J10" s="3" t="str">
-        <f>IF(H10=I10,"",1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K10" s="3">
         <v>2123.8950410000002</v>
       </c>
       <c r="L10" s="3">
-        <f>IF(K10=M10,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M10" s="3">
@@ -2815,7 +2788,7 @@
         <v>2123.8950410000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>41</v>
       </c>
@@ -2835,21 +2808,21 @@
         <v>74822.192989999996</v>
       </c>
       <c r="H11" s="3">
-        <f>IF(ISBLANK(G11),F11,F11/G11)</f>
+        <f t="shared" si="1"/>
         <v>74822.192989999996</v>
       </c>
       <c r="I11" s="3">
         <v>74822.192989999996</v>
       </c>
       <c r="J11" s="3" t="str">
-        <f>IF(H11=I11,"",1)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K11" s="11">
         <v>74822.192989999996</v>
       </c>
       <c r="L11" s="3">
-        <f>IF(K11=M11,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M11" s="11">
@@ -2863,7 +2836,7 @@
         <v>74822.192989999996</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>59</v>
       </c>
@@ -2886,21 +2859,21 @@
         <v>10</v>
       </c>
       <c r="H12" s="3">
-        <f>IF(ISBLANK(G12),F12,F12/G12)</f>
+        <f t="shared" si="1"/>
         <v>23.545910710000001</v>
       </c>
       <c r="I12" s="3">
         <v>23</v>
       </c>
       <c r="J12" s="3">
-        <f>IF(H12=I12,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K12" s="3">
         <v>23.545910710000001</v>
       </c>
       <c r="L12" s="3">
-        <f>IF(K12=M12,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12" s="3">
@@ -2914,7 +2887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2937,21 +2910,21 @@
         <v>5</v>
       </c>
       <c r="H13" s="3">
-        <f>IF(ISBLANK(G13),F13,F13/G13)</f>
+        <f t="shared" si="1"/>
         <v>51.594000000000008</v>
       </c>
       <c r="I13" s="3">
         <v>51</v>
       </c>
       <c r="J13" s="3">
-        <f>IF(H13=I13,"",1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K13" s="3">
         <v>150</v>
       </c>
       <c r="L13" s="3">
-        <f>IF(K13=M13,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13" s="3">
@@ -2965,7 +2938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -2988,7 +2961,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="3">
-        <f>IF(ISBLANK(G14),F14,F14/G14)</f>
+        <f t="shared" si="1"/>
         <v>8395000.9666666668</v>
       </c>
       <c r="I14" s="3">
@@ -3002,7 +2975,7 @@
         <v>3165000</v>
       </c>
       <c r="L14" s="3">
-        <f>IF(K14=M14,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="3">
@@ -3011,7 +2984,7 @@
       </c>
       <c r="N14" s="3" t="str">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>ORIG</v>
       </c>
       <c r="O14" s="3">
         <f>M14*0.75</f>
@@ -3021,8 +2994,12 @@
         <f>C14</f>
         <v>352590040.69999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q14" s="3">
+        <f>C14</f>
+        <v>352590040.69999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
@@ -3042,21 +3019,21 @@
         <v>15874.27808</v>
       </c>
       <c r="H15" s="3">
-        <f>IF(ISBLANK(G15),F15,F15/G15)</f>
+        <f t="shared" si="1"/>
         <v>15874.27808</v>
       </c>
       <c r="I15" s="3">
         <v>15874.27808</v>
       </c>
       <c r="J15" s="3" t="str">
-        <f>IF(H15=I15,"",1)</f>
+        <f t="shared" ref="J15:J23" si="4">IF(H15=I15,"",1)</f>
         <v/>
       </c>
       <c r="K15" s="3">
         <v>15874.27808</v>
       </c>
       <c r="L15" s="3">
-        <f>IF(K15=M15,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M15" s="3">
@@ -3070,7 +3047,7 @@
         <v>15874.27808</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
@@ -3093,21 +3070,21 @@
         <v>10</v>
       </c>
       <c r="H16" s="3">
-        <f>IF(ISBLANK(G16),F16,F16/G16)</f>
+        <f t="shared" si="1"/>
         <v>12930.9</v>
       </c>
       <c r="I16" s="3">
         <v>12930</v>
       </c>
       <c r="J16" s="3">
-        <f>IF(H16=I16,"",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K16" s="3">
         <v>12930.9</v>
       </c>
       <c r="L16" s="3">
-        <f>IF(K16=M16,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="5">
@@ -3116,7 +3093,7 @@
       </c>
       <c r="N16" s="3" t="str">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>ORIG</v>
       </c>
       <c r="O16" s="5">
         <f>M16*0.75</f>
@@ -3126,8 +3103,12 @@
         <f>O16*0.75</f>
         <v>5455.2234374999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q16" s="3">
+        <f>C16</f>
+        <v>129309.07709999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
@@ -3150,21 +3131,21 @@
         <v>10</v>
       </c>
       <c r="H17" s="3">
-        <f>IF(ISBLANK(G17),F17,F17/G17)</f>
+        <f t="shared" si="1"/>
         <v>2199610.6069999998</v>
       </c>
       <c r="I17" s="3">
         <v>8700000</v>
       </c>
       <c r="J17" s="3">
-        <f>IF(H17=I17,"",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K17" s="5">
         <v>4000000</v>
       </c>
       <c r="L17" s="3">
-        <f>IF(K17=M17,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M17" s="5">
@@ -3178,7 +3159,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
@@ -3198,21 +3179,21 @@
         <v>861502.5</v>
       </c>
       <c r="H18" s="3">
-        <f>IF(ISBLANK(G18),F18,F18/G18)</f>
+        <f t="shared" si="1"/>
         <v>861502.5</v>
       </c>
       <c r="I18" s="3">
         <v>861502.5</v>
       </c>
       <c r="J18" s="3" t="str">
-        <f>IF(H18=I18,"",1)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K18" s="3">
         <v>861502.5</v>
       </c>
       <c r="L18" s="3">
-        <f>IF(K18=M18,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18" s="3">
@@ -3221,18 +3202,22 @@
       </c>
       <c r="N18" s="3" t="str">
         <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>ORIG</v>
       </c>
       <c r="O18" s="5">
         <f>M18*0.75</f>
         <v>549207.84375</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" ref="P18:P20" si="1">O18*0.75</f>
+        <f t="shared" ref="P18:P20" si="5">O18*0.75</f>
         <v>411905.8828125</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q18" s="3">
+        <f t="shared" ref="Q18:Q20" si="6">C18</f>
+        <v>17230050.359999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -3255,21 +3240,21 @@
         <v>7</v>
       </c>
       <c r="H19" s="3">
-        <f>IF(ISBLANK(G19),F19,F19/G19)</f>
+        <f t="shared" si="1"/>
         <v>189098.12857142856</v>
       </c>
       <c r="I19" s="3">
         <v>189098</v>
       </c>
       <c r="J19" s="3">
-        <f>IF(H19=I19,"",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K19" s="3">
         <v>189098.12857142856</v>
       </c>
       <c r="L19" s="3">
-        <f>IF(K19=M19,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M19" s="5">
@@ -3278,18 +3263,22 @@
       </c>
       <c r="N19" s="3" t="str">
         <f>VLOOKUP(A19,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>ORIG</v>
       </c>
       <c r="O19" s="5">
         <f>M19*0.75</f>
         <v>106367.69732142857</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>79775.772991071426</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q19" s="3">
+        <f t="shared" si="6"/>
+        <v>13236869.029999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -3312,21 +3301,21 @@
         <v>10</v>
       </c>
       <c r="H20" s="3">
-        <f>IF(ISBLANK(G20),F20,F20/G20)</f>
+        <f t="shared" si="1"/>
         <v>2162721.7000000002</v>
       </c>
       <c r="I20" s="3">
         <v>2162721</v>
       </c>
       <c r="J20" s="3">
-        <f>IF(H20=I20,"",1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K20" s="3">
         <v>4325443.4000000004</v>
       </c>
       <c r="L20" s="3">
-        <f>IF(K20=M20,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M20" s="3">
@@ -3335,18 +3324,22 @@
       </c>
       <c r="N20" s="3" t="str">
         <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>ORIG</v>
       </c>
       <c r="O20" s="5">
         <f>M20*0.75</f>
         <v>2433061.9125000001</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1824796.4343750002</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q20" s="3">
+        <f t="shared" si="6"/>
+        <v>432544359.30000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>187</v>
       </c>
@@ -3366,21 +3359,21 @@
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="H21" s="3">
-        <f>IF(ISBLANK(G21),F21,F21/G21)</f>
+        <f t="shared" si="1"/>
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="I21" s="3">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="J21" s="3" t="str">
-        <f>IF(H21=I21,"",1)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K21" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L21" s="3">
-        <f>IF(K21=M21,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M21" s="3">
@@ -3394,7 +3387,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>186</v>
       </c>
@@ -3414,21 +3407,21 @@
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="H22" s="3">
-        <f>IF(ISBLANK(G22),F22,F22/G22)</f>
+        <f t="shared" si="1"/>
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="I22" s="3">
         <v>3.3300000000000001E-3</v>
       </c>
       <c r="J22" s="3" t="str">
-        <f>IF(H22=I22,"",1)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K22" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L22" s="3">
-        <f>IF(K22=M22,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M22" s="3">
@@ -3442,7 +3435,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>62</v>
       </c>
@@ -3462,21 +3455,21 @@
         <v>149515.5</v>
       </c>
       <c r="H23" s="3">
-        <f>IF(ISBLANK(G23),F23,F23/G23)</f>
+        <f t="shared" si="1"/>
         <v>149515.5</v>
       </c>
       <c r="I23" s="3">
         <v>149515.5</v>
       </c>
       <c r="J23" s="3" t="str">
-        <f>IF(H23=I23,"",1)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K23" s="3">
         <v>350000</v>
       </c>
       <c r="L23" s="3">
-        <f>IF(K23=M23,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M23" s="3">
@@ -3492,7 +3485,7 @@
         <v>196875</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
@@ -3512,7 +3505,7 @@
         <v>34529920</v>
       </c>
       <c r="H24" s="3">
-        <f>IF(ISBLANK(G24),F24,F24/G24)</f>
+        <f t="shared" si="1"/>
         <v>34529920</v>
       </c>
       <c r="I24" s="3">
@@ -3525,16 +3518,16 @@
         <v>104000000</v>
       </c>
       <c r="L24" s="3">
-        <f>IF(K24=M24,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M24" s="3">
         <f>K24*0.85</f>
         <v>88400000</v>
       </c>
-      <c r="N24" s="3" t="str">
+      <c r="N24" s="3">
         <f>VLOOKUP(A24,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="O24" s="5">
         <f>M24*0.75</f>
@@ -3545,7 +3538,7 @@
         <v>49725000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>185</v>
       </c>
@@ -3565,7 +3558,7 @@
         <v>0.01</v>
       </c>
       <c r="H25" s="3">
-        <f>IF(ISBLANK(G25),F25,F25/G25)</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="I25" s="3">
@@ -3579,7 +3572,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L25" s="3">
-        <f>IF(K25=M25,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M25" s="3">
@@ -3593,7 +3586,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>184</v>
       </c>
@@ -3613,7 +3606,7 @@
         <v>0.01</v>
       </c>
       <c r="H26" s="3">
-        <f>IF(ISBLANK(G26),F26,F26/G26)</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="I26" s="3">
@@ -3627,7 +3620,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L26" s="3">
-        <f>IF(K26=M26,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M26" s="3">
@@ -3641,7 +3634,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
@@ -3661,7 +3654,7 @@
         <v>100000000</v>
       </c>
       <c r="H27" s="3">
-        <f>IF(ISBLANK(G27),F27,F27/G27)</f>
+        <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
       <c r="I27" s="3">
@@ -3674,7 +3667,7 @@
         <v>181000000</v>
       </c>
       <c r="L27" s="3">
-        <f>IF(K27=M27,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M27" s="3">
@@ -3689,7 +3682,7 @@
         <v>226250000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>57</v>
       </c>
@@ -3712,21 +3705,21 @@
         <v>2</v>
       </c>
       <c r="H28" s="3">
-        <f>IF(ISBLANK(G28),F28,F28/G28)</f>
+        <f t="shared" si="1"/>
         <v>374.91549774999999</v>
       </c>
       <c r="I28" s="3">
         <v>375</v>
       </c>
       <c r="J28" s="3">
-        <f>IF(H28=I28,"",1)</f>
+        <f t="shared" ref="J28:J44" si="7">IF(H28=I28,"",1)</f>
         <v>1</v>
       </c>
       <c r="K28" s="3">
         <v>150</v>
       </c>
       <c r="L28" s="3">
-        <f>IF(K28=M28,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M28" s="3">
@@ -3740,7 +3733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
@@ -3760,21 +3753,21 @@
         <v>4986608.142</v>
       </c>
       <c r="H29" s="3">
-        <f>IF(ISBLANK(G29),F29,F29/G29)</f>
+        <f t="shared" si="1"/>
         <v>4986608.142</v>
       </c>
       <c r="I29" s="3">
         <v>4986608.142</v>
       </c>
       <c r="J29" s="3" t="str">
-        <f>IF(H29=I29,"",1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K29" s="3">
         <v>4986608.142</v>
       </c>
       <c r="L29" s="3">
-        <f>IF(K29=M29,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M29" s="3">
@@ -3788,7 +3781,7 @@
         <v>4986608.142</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
@@ -3811,21 +3804,21 @@
         <v>5</v>
       </c>
       <c r="H30" s="3">
-        <f>IF(ISBLANK(G30),F30,F30/G30)</f>
+        <f t="shared" si="1"/>
         <v>6976733.6599999992</v>
       </c>
       <c r="I30" s="3">
         <v>6976733</v>
       </c>
       <c r="J30" s="3">
-        <f>IF(H30=I30,"",1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K30" s="3">
         <v>13953467.319999998</v>
       </c>
       <c r="L30" s="3">
-        <f>IF(K30=M30,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M30" s="3">
@@ -3841,7 +3834,7 @@
         <v>7848825.3674999988</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>9</v>
       </c>
@@ -3861,21 +3854,21 @@
         <v>1696.14</v>
       </c>
       <c r="H31" s="3">
-        <f>IF(ISBLANK(G31),F31,F31/G31)</f>
+        <f t="shared" si="1"/>
         <v>1696.14</v>
       </c>
       <c r="I31" s="3">
         <v>1696.14</v>
       </c>
       <c r="J31" s="3" t="str">
-        <f>IF(H31=I31,"",1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K31" s="3">
         <v>1696.14</v>
       </c>
       <c r="L31" s="3">
-        <f>IF(K31=M31,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M31" s="3">
@@ -3884,7 +3877,7 @@
       </c>
       <c r="N31" s="3" t="str">
         <f>VLOOKUP(A31,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>ORIG</v>
       </c>
       <c r="O31" s="3">
         <f>M31*0.75</f>
@@ -3894,8 +3887,12 @@
         <f>O31*0.75</f>
         <v>715.55906249999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q31" s="3">
+        <f>C31</f>
+        <v>254421.22440000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>54</v>
       </c>
@@ -3918,21 +3915,21 @@
         <v>5</v>
       </c>
       <c r="H32" s="3">
-        <f>IF(ISBLANK(G32),F32,F32/G32)</f>
+        <f t="shared" si="1"/>
         <v>164351.5</v>
       </c>
       <c r="I32" s="3">
         <v>164351</v>
       </c>
       <c r="J32" s="3">
-        <f>IF(H32=I32,"",1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K32" s="3">
         <v>328703</v>
       </c>
       <c r="L32" s="3">
-        <f>IF(K32=M32,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M32" s="3">
@@ -3946,7 +3943,7 @@
         <v>328703</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>189</v>
       </c>
@@ -3966,21 +3963,21 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H33" s="3">
-        <f>IF(ISBLANK(G33),F33,F33/G33)</f>
+        <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I33" s="3">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J33" s="3" t="str">
-        <f>IF(H33=I33,"",1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K33" s="3">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L33" s="3">
-        <f>IF(K33=M33,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M33" s="3">
@@ -3994,7 +3991,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>188</v>
       </c>
@@ -4014,21 +4011,21 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H34" s="3">
-        <f>IF(ISBLANK(G34),F34,F34/G34)</f>
+        <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I34" s="3">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J34" s="3" t="str">
-        <f>IF(H34=I34,"",1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K34" s="3">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="L34" s="3">
-        <f>IF(K34=M34,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M34" s="3">
@@ -4042,7 +4039,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>35</v>
       </c>
@@ -4065,36 +4062,40 @@
         <v>7.5</v>
       </c>
       <c r="H35" s="3">
-        <f>IF(ISBLANK(G35),F35,F35/G35)</f>
+        <f t="shared" ref="H35:H66" si="8">IF(ISBLANK(G35),F35,F35/G35)</f>
         <v>611734.80906666664</v>
       </c>
       <c r="I35" s="3">
         <v>611734</v>
       </c>
       <c r="J35" s="3">
-        <f>IF(H35=I35,"",1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K35" s="3">
         <v>1411695.7132307691</v>
       </c>
       <c r="L35" s="3">
-        <f>IF(K35=M35,1,0)</f>
+        <f t="shared" ref="L35:L66" si="9">IF(K35=M35,1,0)</f>
         <v>0</v>
       </c>
       <c r="M35" s="3">
         <f>K35*0.85</f>
         <v>1199941.3562461538</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="str">
         <f>VLOOKUP(A35,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>ORIG</v>
       </c>
       <c r="O35" s="3">
         <v>1199941.3562461538</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q35" s="3">
+        <f>C35</f>
+        <v>22940055.34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>29</v>
       </c>
@@ -4117,21 +4118,21 @@
         <v>6</v>
       </c>
       <c r="H36" s="3">
-        <f>IF(ISBLANK(G36),F36,F36/G36)</f>
+        <f t="shared" si="8"/>
         <v>21334.633333333335</v>
       </c>
       <c r="I36" s="3">
         <v>21334</v>
       </c>
       <c r="J36" s="3">
-        <f>IF(H36=I36,"",1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K36" s="3">
         <v>42669.26666666667</v>
       </c>
       <c r="L36" s="3">
-        <f>IF(K36=M36,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M36" s="3">
@@ -4146,7 +4147,7 @@
         <v>49069.656666666669</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
@@ -4169,21 +4170,21 @@
         <v>5</v>
       </c>
       <c r="H37" s="3">
-        <f>IF(ISBLANK(G37),F37,F37/G37)</f>
+        <f t="shared" si="8"/>
         <v>696941.2</v>
       </c>
       <c r="I37" s="3">
         <v>696941</v>
       </c>
       <c r="J37" s="3">
-        <f>IF(H37=I37,"",1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K37" s="3">
         <v>1393882.4</v>
       </c>
       <c r="L37" s="3">
-        <f>IF(K37=M37,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M37" s="3">
@@ -4198,7 +4199,7 @@
         <v>1742353</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>48</v>
       </c>
@@ -4218,21 +4219,21 @@
         <v>110.9</v>
       </c>
       <c r="H38" s="3">
-        <f>IF(ISBLANK(G38),F38,F38/G38)</f>
+        <f t="shared" si="8"/>
         <v>110.9</v>
       </c>
       <c r="I38" s="3">
         <v>110.9</v>
       </c>
       <c r="J38" s="3" t="str">
-        <f>IF(H38=I38,"",1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K38" s="3">
         <v>110.9</v>
       </c>
       <c r="L38" s="3">
-        <f>IF(K38=M38,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M38" s="3">
@@ -4246,7 +4247,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>53</v>
       </c>
@@ -4269,21 +4270,21 @@
         <v>10</v>
       </c>
       <c r="H39" s="3">
-        <f>IF(ISBLANK(G39),F39,F39/G39)</f>
+        <f t="shared" si="8"/>
         <v>189387.1875</v>
       </c>
       <c r="I39" s="3">
         <v>189387</v>
       </c>
       <c r="J39" s="3">
-        <f>IF(H39=I39,"",1)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K39" s="3">
         <v>378774.375</v>
       </c>
       <c r="L39" s="3">
-        <f>IF(K39=M39,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M39" s="3">
@@ -4292,7 +4293,7 @@
       </c>
       <c r="N39" s="3" t="str">
         <f>VLOOKUP(A39,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>ORIG</v>
       </c>
       <c r="O39" s="5">
         <f>M39*0.75</f>
@@ -4302,8 +4303,12 @@
         <f>O39*0.75</f>
         <v>181101.498046875</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q39" s="3">
+        <f>C39</f>
+        <v>15150975.09</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -4323,21 +4328,21 @@
         <v>4273.9050960000004</v>
       </c>
       <c r="H40" s="3">
-        <f>IF(ISBLANK(G40),F40,F40/G40)</f>
+        <f t="shared" si="8"/>
         <v>4273.9050960000004</v>
       </c>
       <c r="I40" s="3">
         <v>4273.9050960000004</v>
       </c>
       <c r="J40" s="3" t="str">
-        <f>IF(H40=I40,"",1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K40" s="3">
         <v>4273.9050960000004</v>
       </c>
       <c r="L40" s="3">
-        <f>IF(K40=M40,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M40" s="3">
@@ -4351,7 +4356,7 @@
         <v>4273.9050960000004</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>191</v>
       </c>
@@ -4371,21 +4376,21 @@
         <v>0.05</v>
       </c>
       <c r="H41" s="3">
-        <f>IF(ISBLANK(G41),F41,F41/G41)</f>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="I41" s="3">
         <v>0.05</v>
       </c>
       <c r="J41" s="3" t="str">
-        <f>IF(H41=I41,"",1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K41" s="3">
         <v>0.05</v>
       </c>
       <c r="L41" s="3">
-        <f>IF(K41=M41,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M41" s="3">
@@ -4399,7 +4404,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>190</v>
       </c>
@@ -4419,21 +4424,21 @@
         <v>0.05</v>
       </c>
       <c r="H42" s="3">
-        <f>IF(ISBLANK(G42),F42,F42/G42)</f>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="I42" s="3">
         <v>0.05</v>
       </c>
       <c r="J42" s="3" t="str">
-        <f>IF(H42=I42,"",1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K42" s="3">
         <v>0.05</v>
       </c>
       <c r="L42" s="3">
-        <f>IF(K42=M42,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M42" s="3">
@@ -4447,7 +4452,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>20</v>
       </c>
@@ -4467,21 +4472,21 @@
         <v>80210</v>
       </c>
       <c r="H43" s="3">
-        <f>IF(ISBLANK(G43),F43,F43/G43)</f>
+        <f t="shared" si="8"/>
         <v>80210</v>
       </c>
       <c r="I43" s="3">
         <v>80210</v>
       </c>
       <c r="J43" s="3" t="str">
-        <f>IF(H43=I43,"",1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K43" s="3">
         <v>80210</v>
       </c>
       <c r="L43" s="3">
-        <f>IF(K43=M43,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M43" s="3">
@@ -4495,7 +4500,7 @@
         <v>80210</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>56</v>
       </c>
@@ -4515,21 +4520,21 @@
         <v>28898.867849999999</v>
       </c>
       <c r="H44" s="3">
-        <f>IF(ISBLANK(G44),F44,F44/G44)</f>
+        <f t="shared" si="8"/>
         <v>28898.867849999999</v>
       </c>
       <c r="I44" s="3">
         <v>28898.867849999999</v>
       </c>
       <c r="J44" s="3" t="str">
-        <f>IF(H44=I44,"",1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K44" s="3">
         <v>28898.867849999999</v>
       </c>
       <c r="L44" s="3">
-        <f>IF(K44=M44,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M44" s="3">
@@ -4543,7 +4548,7 @@
         <v>28898.867849999999</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>5</v>
       </c>
@@ -4566,7 +4571,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="3">
-        <f>IF(ISBLANK(G45),F45,F45/G45)</f>
+        <f t="shared" si="8"/>
         <v>513186.06624999997</v>
       </c>
       <c r="I45" s="3">
@@ -4579,16 +4584,16 @@
         <v>22700000</v>
       </c>
       <c r="L45" s="3">
-        <f>IF(K45=M45,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M45" s="3">
         <f>K45*0.75</f>
         <v>17025000</v>
       </c>
-      <c r="N45" s="3" t="str">
+      <c r="N45" s="3">
         <f>VLOOKUP(A45,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>--</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <f>M45*0.75</f>
@@ -4599,7 +4604,7 @@
         <v>9576562.5</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
@@ -4619,7 +4624,7 @@
         <v>6221.5131609999999</v>
       </c>
       <c r="H46" s="3">
-        <f>IF(ISBLANK(G46),F46,F46/G46)</f>
+        <f t="shared" si="8"/>
         <v>6221.5131609999999</v>
       </c>
       <c r="I46" s="3">
@@ -4633,7 +4638,7 @@
         <v>6221.5131609999999</v>
       </c>
       <c r="L46" s="3">
-        <f>IF(K46=M46,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M46" s="3">
@@ -4647,7 +4652,7 @@
         <v>6221.5131609999999</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>31</v>
       </c>
@@ -4667,7 +4672,7 @@
         <v>4142428.1669999999</v>
       </c>
       <c r="H47" s="3">
-        <f>IF(ISBLANK(G47),F47,F47/G47)</f>
+        <f t="shared" si="8"/>
         <v>4142428.1669999999</v>
       </c>
       <c r="I47" s="3">
@@ -4681,7 +4686,7 @@
         <v>4142428.1669999999</v>
       </c>
       <c r="L47" s="3">
-        <f>IF(K47=M47,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M47" s="3">
@@ -4696,7 +4701,7 @@
         <v>3521063.9419499999</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>58</v>
       </c>
@@ -4719,7 +4724,7 @@
         <v>2</v>
       </c>
       <c r="H48" s="3">
-        <f>IF(ISBLANK(G48),F48,F48/G48)</f>
+        <f t="shared" si="8"/>
         <v>26.804801994999998</v>
       </c>
       <c r="I48" s="3">
@@ -4733,7 +4738,7 @@
         <v>26.804801994999998</v>
       </c>
       <c r="L48" s="3">
-        <f>IF(K48=M48,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M48" s="3">
@@ -4748,7 +4753,7 @@
         <v>20.10360149625</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>47</v>
       </c>
@@ -4771,7 +4776,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="3">
-        <f>IF(ISBLANK(G49),F49,F49/G49)</f>
+        <f t="shared" si="8"/>
         <v>1113.668496</v>
       </c>
       <c r="I49" s="3">
@@ -4784,7 +4789,7 @@
         <v>100000</v>
       </c>
       <c r="L49" s="3">
-        <f>IF(K49=M49,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M49" s="3">
@@ -4799,7 +4804,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>30</v>
       </c>
@@ -4819,7 +4824,7 @@
         <v>1314922.53</v>
       </c>
       <c r="H50" s="3">
-        <f>IF(ISBLANK(G50),F50,F50/G50)</f>
+        <f t="shared" si="8"/>
         <v>1314922.53</v>
       </c>
       <c r="I50" s="3">
@@ -4832,16 +4837,16 @@
         <v>27400000</v>
       </c>
       <c r="L50" s="3">
-        <f>IF(K50=M50,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M50" s="3">
         <f>K50/10</f>
         <v>2740000</v>
       </c>
-      <c r="N50" s="3" t="str">
+      <c r="N50" s="3">
         <f>VLOOKUP(A50,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="O50" s="5">
         <f>M50*0.75</f>
@@ -4852,7 +4857,7 @@
         <v>15779070.359999999</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -4872,7 +4877,7 @@
         <v>357460.29800000001</v>
       </c>
       <c r="H51" s="3">
-        <f>IF(ISBLANK(G51),F51,F51/G51)</f>
+        <f t="shared" si="8"/>
         <v>357460.29800000001</v>
       </c>
       <c r="I51" s="3">
@@ -4886,7 +4891,7 @@
         <v>357460.29800000001</v>
       </c>
       <c r="L51" s="3">
-        <f>IF(K51=M51,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M51" s="3">
@@ -4900,7 +4905,7 @@
         <v>357460.29800000001</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>27</v>
       </c>
@@ -4920,7 +4925,7 @@
         <v>2957397.3650000002</v>
       </c>
       <c r="H52" s="3">
-        <f>IF(ISBLANK(G52),F52,F52/G52)</f>
+        <f t="shared" si="8"/>
         <v>2957397.3650000002</v>
       </c>
       <c r="I52" s="3">
@@ -4934,7 +4939,7 @@
         <v>3943196.4866666668</v>
       </c>
       <c r="L52" s="3">
-        <f>IF(K52=M52,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M52" s="3">
@@ -4949,7 +4954,7 @@
         <v>4928995.6083333334</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>28</v>
       </c>
@@ -4972,7 +4977,7 @@
         <v>1.5</v>
       </c>
       <c r="H53" s="3">
-        <f>IF(ISBLANK(G53),F53,F53/G53)</f>
+        <f t="shared" si="8"/>
         <v>48153936</v>
       </c>
       <c r="I53" s="3">
@@ -4986,7 +4991,7 @@
         <v>57784723.200000003</v>
       </c>
       <c r="L53" s="3">
-        <f>IF(K53=M53,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M53" s="3">
@@ -5001,7 +5006,7 @@
         <v>72230904</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>60</v>
       </c>
@@ -5021,7 +5026,7 @@
         <v>7496.955054</v>
       </c>
       <c r="H54" s="3">
-        <f>IF(ISBLANK(G54),F54,F54/G54)</f>
+        <f t="shared" si="8"/>
         <v>7496.955054</v>
       </c>
       <c r="I54" s="3">
@@ -5035,7 +5040,7 @@
         <v>7496.955054</v>
       </c>
       <c r="L54" s="3">
-        <f>IF(K54=M54,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M54" s="3">
@@ -5049,7 +5054,7 @@
         <v>7496.955054</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>33</v>
       </c>
@@ -5069,7 +5074,7 @@
         <v>5700290.8640000001</v>
       </c>
       <c r="H55" s="3">
-        <f>IF(ISBLANK(G55),F55,F55/G55)</f>
+        <f t="shared" si="8"/>
         <v>5700290.8640000001</v>
       </c>
       <c r="I55" s="3">
@@ -5082,7 +5087,7 @@
         <v>134000000</v>
       </c>
       <c r="L55" s="3">
-        <f>IF(K55=M55,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M55" s="3">
@@ -5091,7 +5096,7 @@
       </c>
       <c r="N55" s="3" t="str">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>--</v>
+        <v>ORIG</v>
       </c>
       <c r="O55" s="3">
         <f>M55/2</f>
@@ -5101,8 +5106,12 @@
         <f>O55*0.75</f>
         <v>25125000</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q55" s="3">
+        <f t="shared" ref="Q55:Q56" si="10">C55</f>
+        <v>5700290.8640000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>46</v>
       </c>
@@ -5125,7 +5134,7 @@
         <v>10</v>
       </c>
       <c r="H56" s="3">
-        <f>IF(ISBLANK(G56),F56,F56/G56)</f>
+        <f t="shared" si="8"/>
         <v>2991.66</v>
       </c>
       <c r="I56" s="3">
@@ -5139,7 +5148,7 @@
         <v>2991.66</v>
       </c>
       <c r="L56" s="3">
-        <f>IF(K56=M56,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M56" s="3">
@@ -5148,7 +5157,7 @@
       </c>
       <c r="N56" s="3" t="str">
         <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>ORIG</v>
       </c>
       <c r="O56" s="3">
         <f>M56*0.75</f>
@@ -5158,8 +5167,12 @@
         <f>O56*0.75</f>
         <v>841.40437499999996</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q56" s="3">
+        <f t="shared" si="10"/>
+        <v>358999.37920000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>38</v>
       </c>
@@ -5182,7 +5195,7 @@
         <v>8</v>
       </c>
       <c r="H57" s="3">
-        <f>IF(ISBLANK(G57),F57,F57/G57)</f>
+        <f t="shared" si="8"/>
         <v>29180.924725000001</v>
       </c>
       <c r="I57" s="3">
@@ -5196,7 +5209,7 @@
         <v>58361.849450000002</v>
       </c>
       <c r="L57" s="3">
-        <f>IF(K57=M57,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M57" s="3">
@@ -5210,7 +5223,7 @@
         <v>58361.849450000002</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>15</v>
       </c>
@@ -5233,7 +5246,7 @@
         <v>7.5</v>
       </c>
       <c r="H58" s="3">
-        <f>IF(ISBLANK(G58),F58,F58/G58)</f>
+        <f t="shared" si="8"/>
         <v>28098.719999999998</v>
       </c>
       <c r="I58" s="3">
@@ -5247,16 +5260,16 @@
         <v>5340000</v>
       </c>
       <c r="L58" s="3">
-        <f>IF(K58=M58,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M58" s="3">
         <f>K58/2</f>
         <v>2670000</v>
       </c>
-      <c r="N58" s="3" t="str">
+      <c r="N58" s="3">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>--</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <f>M58*0.5</f>
@@ -5267,7 +5280,7 @@
         <v>1001250</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>39</v>
       </c>
@@ -5290,7 +5303,7 @@
         <v>10</v>
       </c>
       <c r="H59" s="3">
-        <f>IF(ISBLANK(G59),F59,F59/G59)</f>
+        <f t="shared" si="8"/>
         <v>17712.940450000002</v>
       </c>
       <c r="I59" s="3">
@@ -5304,7 +5317,7 @@
         <v>35425.880900000004</v>
       </c>
       <c r="L59" s="3">
-        <f>IF(K59=M59,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M59" s="3">
@@ -5313,7 +5326,7 @@
       </c>
       <c r="N59" s="3" t="str">
         <f>VLOOKUP(A59,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>--</v>
+        <v>ORIG</v>
       </c>
       <c r="O59" s="3">
         <f>M59/2</f>
@@ -5323,8 +5336,12 @@
         <f>O59*0.75</f>
         <v>6642.3526687500007</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q59" s="3">
+        <f>C59</f>
+        <v>177129.4045</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>34</v>
       </c>
@@ -5347,7 +5364,7 @@
         <v>0.2</v>
       </c>
       <c r="H60" s="3">
-        <f>IF(ISBLANK(G60),F60,F60/G60)</f>
+        <f t="shared" si="8"/>
         <v>20480</v>
       </c>
       <c r="I60" s="3">
@@ -5361,7 +5378,7 @@
         <v>142000</v>
       </c>
       <c r="L60" s="3">
-        <f>IF(K60=M60,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M60" s="3">
@@ -5381,7 +5398,7 @@
         <v>639000</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>61</v>
       </c>
@@ -5401,7 +5418,7 @@
         <v>71.004761549999998</v>
       </c>
       <c r="H61" s="3">
-        <f>IF(ISBLANK(G61),F61,F61/G61)</f>
+        <f t="shared" si="8"/>
         <v>71.004761549999998</v>
       </c>
       <c r="I61" s="3">
@@ -5415,7 +5432,7 @@
         <v>71.004761549999998</v>
       </c>
       <c r="L61" s="3">
-        <f>IF(K61=M61,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M61" s="3">
@@ -5429,7 +5446,7 @@
         <v>71.004761549999998</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>12</v>
       </c>
@@ -5452,7 +5469,7 @@
         <v>10</v>
       </c>
       <c r="H62" s="3">
-        <f>IF(ISBLANK(G62),F62,F62/G62)</f>
+        <f t="shared" si="8"/>
         <v>5202018.7369999997</v>
       </c>
       <c r="I62" s="3">
@@ -5466,22 +5483,26 @@
         <v>7530000</v>
       </c>
       <c r="L62" s="3">
-        <f>IF(K62=M62,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M62" s="3">
         <f>K62*0.85</f>
         <v>6400500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="str">
         <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>ORIG</v>
       </c>
       <c r="O62" s="3">
         <v>6400500</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q62" s="3">
+        <f>C62</f>
+        <v>52020187.369999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>14</v>
       </c>
@@ -5504,7 +5525,7 @@
         <v>5</v>
       </c>
       <c r="H63" s="3">
-        <f>IF(ISBLANK(G63),F63,F63/G63)</f>
+        <f t="shared" si="8"/>
         <v>439802.6</v>
       </c>
       <c r="I63" s="3">
@@ -5518,7 +5539,7 @@
         <v>879605.2</v>
       </c>
       <c r="L63" s="3">
-        <f>IF(K63=M63,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M63" s="3">
@@ -5533,7 +5554,7 @@
         <v>747664.41999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>16</v>
       </c>
@@ -5556,7 +5577,7 @@
         <v>15</v>
       </c>
       <c r="H64" s="3">
-        <f>IF(ISBLANK(G64),F64,F64/G64)</f>
+        <f t="shared" si="8"/>
         <v>249251.73559999999</v>
       </c>
       <c r="I64" s="3">
@@ -5570,16 +5591,16 @@
         <v>21600000</v>
       </c>
       <c r="L64" s="3">
-        <f>IF(K64=M64,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M64" s="3">
         <f>K64/1.5</f>
         <v>14400000</v>
       </c>
-      <c r="N64" s="3" t="str">
+      <c r="N64" s="3">
         <f>VLOOKUP(A64,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>--</v>
+        <v>0</v>
       </c>
       <c r="O64" s="3">
         <f>M64*0.75</f>
@@ -5590,7 +5611,7 @@
         <v>1080000</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>52</v>
       </c>
@@ -5613,7 +5634,7 @@
         <v>7</v>
       </c>
       <c r="H65" s="3">
-        <f>IF(ISBLANK(G65),F65,F65/G65)</f>
+        <f t="shared" si="8"/>
         <v>42857.142857142855</v>
       </c>
       <c r="I65" s="3">
@@ -5627,7 +5648,7 @@
         <v>42857.142857142855</v>
       </c>
       <c r="L65" s="3">
-        <f>IF(K65=M65,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M65" s="3">
@@ -5636,7 +5657,7 @@
       </c>
       <c r="N65" s="3" t="str">
         <f>VLOOKUP(A65,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>ORIG</v>
       </c>
       <c r="O65" s="3">
         <f>M65*0.75</f>
@@ -5646,8 +5667,12 @@
         <f>O65*0.75</f>
         <v>18080.357142857141</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q65" s="3">
+        <f t="shared" ref="Q65:Q66" si="11">C65</f>
+        <v>97071048.260000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>17</v>
       </c>
@@ -5667,7 +5692,7 @@
         <v>2026568.5109999999</v>
       </c>
       <c r="H66" s="3">
-        <f>IF(ISBLANK(G66),F66,F66/G66)</f>
+        <f t="shared" si="8"/>
         <v>2026568.5109999999</v>
       </c>
       <c r="I66" s="3">
@@ -5681,7 +5706,7 @@
         <v>2026568.5109999999</v>
       </c>
       <c r="L66" s="3">
-        <f>IF(K66=M66,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M66" s="3">
@@ -5690,7 +5715,7 @@
       </c>
       <c r="N66" s="3" t="str">
         <f>VLOOKUP(A66,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>ORIG</v>
       </c>
       <c r="O66" s="3">
         <f>M66*0.75</f>
@@ -5700,8 +5725,12 @@
         <f>O66*0.75</f>
         <v>968953.06932187499</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q66" s="3">
+        <f t="shared" si="11"/>
+        <v>20265685.109999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>40</v>
       </c>
@@ -5724,7 +5753,7 @@
         <v>10</v>
       </c>
       <c r="H67" s="3">
-        <f>IF(ISBLANK(G67),F67,F67/G67)</f>
+        <f t="shared" ref="H67:H98" si="12">IF(ISBLANK(G67),F67,F67/G67)</f>
         <v>298370.68709999998</v>
       </c>
       <c r="I67" s="3">
@@ -5737,7 +5766,7 @@
         <v>491000</v>
       </c>
       <c r="L67" s="3">
-        <f>IF(K67=M67,1,0)</f>
+        <f t="shared" ref="L67:L98" si="13">IF(K67=M67,1,0)</f>
         <v>1</v>
       </c>
       <c r="M67" s="3">
@@ -5751,7 +5780,7 @@
         <v>491000</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>44</v>
       </c>
@@ -5774,7 +5803,7 @@
         <v>7</v>
       </c>
       <c r="H68" s="3">
-        <f>IF(ISBLANK(G68),F68,F68/G68)</f>
+        <f t="shared" si="12"/>
         <v>2925788</v>
       </c>
       <c r="I68" s="3">
@@ -5787,7 +5816,7 @@
         <v>2925788</v>
       </c>
       <c r="L68" s="3">
-        <f>IF(K68=M68,1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M68" s="3">
@@ -5796,7 +5825,7 @@
       </c>
       <c r="N68" s="3" t="str">
         <f>VLOOKUP(A68,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>ORIG</v>
       </c>
       <c r="O68" s="3">
         <f>M68*0.75</f>
@@ -5806,18 +5835,22 @@
         <f>O68*0.75</f>
         <v>1398892.3875</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q68" s="3">
+        <f>C68</f>
+        <v>204805160.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69"/>
       <c r="C69"/>
     </row>
-    <row r="70" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -5825,24 +5858,12 @@
       <c r="E71"/>
       <c r="F71" s="12"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B72"/>
       <c r="C72"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O68">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="-"/>
-        <filter val="--"/>
-        <filter val="---"/>
-        <filter val="+"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A3:O68">
-      <sortCondition ref="A1:A68"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:O68"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="189">
   <si>
     <t>Too Low</t>
   </si>
@@ -577,30 +577,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>LSQj</t>
-  </si>
-  <si>
-    <t>LSQa</t>
-  </si>
-  <si>
-    <t>ISQj</t>
-  </si>
-  <si>
-    <t>ISQa</t>
-  </si>
-  <si>
-    <t>NSHj</t>
-  </si>
-  <si>
-    <t>NSHa</t>
-  </si>
-  <si>
-    <t>OSHj</t>
-  </si>
-  <si>
-    <t>OSHa</t>
-  </si>
-  <si>
     <t>KDENR_Orig</t>
   </si>
   <si>
@@ -614,6 +590,12 @@
   </si>
   <si>
     <t>Too High Late</t>
+  </si>
+  <si>
+    <t>Change_Instructions</t>
+  </si>
+  <si>
+    <t>ReducePred9_DKENR</t>
   </si>
 </sst>
 </file>
@@ -1015,12 +997,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,10 +1025,10 @@
         <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1062,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1098,7 +1079,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1110,7 +1091,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1142,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1160,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1194,7 +1175,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1212,7 +1193,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1227,7 +1208,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1242,7 +1223,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1257,7 +1238,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1269,7 +1250,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1320,7 +1301,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1332,7 +1313,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1347,7 +1328,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1362,7 +1343,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -1377,7 +1358,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1389,7 +1370,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1401,7 +1382,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -1449,7 +1430,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -1464,7 +1445,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1494,7 +1475,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1506,7 +1487,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -1536,7 +1517,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1551,7 +1532,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1566,7 +1547,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1584,7 +1565,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1596,7 +1577,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -1611,7 +1592,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -1623,7 +1604,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1638,7 +1619,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -1653,7 +1634,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1665,7 +1646,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1698,7 +1679,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1713,7 +1694,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -1740,7 +1721,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -1755,7 +1736,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1770,7 +1751,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -1785,7 +1766,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1797,7 +1778,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -1827,7 +1808,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -1839,7 +1820,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -1851,7 +1832,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1863,7 +1844,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -1875,7 +1856,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -1887,7 +1868,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1899,7 +1880,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -1911,7 +1892,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -1923,7 +1904,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -1938,7 +1919,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -1953,7 +1934,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -1965,7 +1946,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -1980,7 +1961,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -2010,7 +1991,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -2025,7 +2006,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>54</v>
       </c>
@@ -2037,7 +2018,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -2052,7 +2033,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -2064,7 +2045,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -2076,7 +2057,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2091,7 +2072,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -2106,7 +2087,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -2154,7 +2135,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -2208,7 +2189,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -2223,7 +2204,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -2235,7 +2216,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -2247,7 +2228,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -2262,7 +2243,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -2310,7 +2291,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -2341,29 +2322,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I88">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I88"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P72"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2371,12 +2344,12 @@
     <col min="1" max="1" width="8.88671875" style="3"/>
     <col min="2" max="2" width="17.21875" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" style="3" customWidth="1"/>
@@ -2396,10 +2369,16 @@
         <v>181</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2412,11 +2391,17 @@
       <c r="C2" s="7">
         <v>1001094433</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="7" t="str">
+        <f>IF(VLOOKUP(A2,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45700000</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -2426,14 +2411,20 @@
       <c r="C3" s="7">
         <v>2124041.1490000002</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="11"/>
+      <c r="D3" s="7" t="str">
+        <f>IF(VLOOKUP(A3,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E3" s="6">
+        <v>2124041.1490000002</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11"/>
       <c r="K3" s="5"/>
       <c r="M3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -2443,11 +2434,17 @@
       <c r="C4" s="7">
         <v>114181041.2</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="7" t="str">
+        <f>IF(VLOOKUP(A4,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E4" s="6">
+        <v>19030174.25</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -2457,9 +2454,15 @@
       <c r="C5" s="7">
         <v>15816.31169</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="7" t="str">
+        <f>IF(VLOOKUP(A5,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E5" s="6">
+        <v>175816.31169</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
@@ -2471,9 +2474,15 @@
       <c r="C6" s="7">
         <v>1718757.3940000001</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="11"/>
+      <c r="D6" s="7" t="str">
+        <f>IF(VLOOKUP(A6,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1718757.3940000001</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
@@ -2485,13 +2494,19 @@
       <c r="C7" s="7">
         <v>16477555.609999999</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="7" t="str">
+        <f>IF(VLOOKUP(A7,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E7" s="6">
+        <v>993066.96089999995</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="11"/>
       <c r="K7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -2501,11 +2516,17 @@
       <c r="C8" s="8">
         <v>229000000000</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="7" t="str">
+        <f>IF(VLOOKUP(A8,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E8" s="6">
+        <v>2000000000000</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -2515,14 +2536,20 @@
       <c r="C9" s="7">
         <v>32122718.550000001</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="11"/>
+      <c r="D9" s="7" t="str">
+        <f>IF(VLOOKUP(A9,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E9" s="6">
+        <v>321227180.55000001</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="11"/>
       <c r="K9" s="11"/>
       <c r="M9" s="11"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -2532,11 +2559,17 @@
       <c r="C10" s="7">
         <v>2123.8950410000002</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="7" t="str">
+        <f>IF(VLOOKUP(A10,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E10" s="6">
+        <v>2123.8950410000002</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -2546,14 +2579,20 @@
       <c r="C11" s="7">
         <v>74822.192989999996</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="11"/>
+      <c r="D11" s="7" t="str">
+        <f>IF(VLOOKUP(A11,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E11" s="6">
+        <v>74822.192989999996</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="11"/>
       <c r="K11" s="11"/>
       <c r="M11" s="11"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
@@ -2563,9 +2602,15 @@
       <c r="C12" s="7">
         <v>235.45910710000001</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="11"/>
+      <c r="D12" s="7" t="str">
+        <f>IF(VLOOKUP(A12,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
@@ -2577,9 +2622,15 @@
       <c r="C13" s="7">
         <v>25797.24295</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="11"/>
+      <c r="D13" s="7" t="str">
+        <f>IF(VLOOKUP(A13,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E13" s="6">
+        <v>100</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
@@ -2591,11 +2642,17 @@
       <c r="C14" s="7">
         <v>352590040.69999999</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="7" t="str">
+        <f>IF(VLOOKUP(A14,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E14" s="6">
+        <v>176000000</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
@@ -2605,9 +2662,15 @@
       <c r="C15" s="7">
         <v>15874.27808</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="11"/>
+      <c r="D15" s="7" t="str">
+        <f>IF(VLOOKUP(A15,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E15" s="6">
+        <v>15874.27808</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
@@ -2619,14 +2682,20 @@
       <c r="C16" s="7">
         <v>129309.07709999999</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="11"/>
+      <c r="D16" s="7" t="str">
+        <f>IF(VLOOKUP(A16,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E16" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="11"/>
       <c r="M16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -2636,9 +2705,15 @@
       <c r="C17" s="7">
         <v>21996106.07</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="11"/>
+      <c r="D17" s="7" t="str">
+        <f>IF(VLOOKUP(A17,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E17" s="6">
+        <v>4000000</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="11"/>
       <c r="K17" s="5"/>
       <c r="M17" s="5"/>
       <c r="O17" s="5"/>
@@ -2653,9 +2728,15 @@
       <c r="C18" s="7">
         <v>17230050.359999999</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="11"/>
+      <c r="D18" s="7" t="str">
+        <f>IF(VLOOKUP(A18,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E18" s="6">
+        <v>8500000</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="11"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
@@ -2669,9 +2750,15 @@
       <c r="C19" s="7">
         <v>13236869.029999999</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="11"/>
+      <c r="D19" s="7" t="str">
+        <f>IF(VLOOKUP(A19,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E19" s="6">
+        <v>6500000</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="11"/>
       <c r="M19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -2686,15 +2773,21 @@
       <c r="C20" s="7">
         <v>432544359.30000001</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="11"/>
+      <c r="D20" s="7" t="str">
+        <f>IF(VLOOKUP(A20,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2430000</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="11"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>152</v>
@@ -2702,702 +2795,930 @@
       <c r="C21" s="7">
         <v>0.05</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="7" t="str">
+        <f>IF(VLOOKUP(A21,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C22" s="7">
+        <v>747577.53830000001</v>
+      </c>
+      <c r="D22" s="7" t="str">
+        <f>IF(VLOOKUP(A22,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E22" s="6">
+        <v>197000</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="7">
+        <v>172649603.19999999</v>
+      </c>
+      <c r="D23" s="7" t="str">
+        <f>IF(VLOOKUP(A23,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E23" s="6">
+        <v>49700000</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="11"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="7">
         <v>0.05</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="7">
-        <v>747577.53830000001</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="11"/>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="7">
-        <v>172649603.19999999</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="11"/>
+      <c r="D24" s="7" t="str">
+        <f>IF(VLOOKUP(A24,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E24" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="11"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="C25" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>932233758.39999998</v>
+      </c>
+      <c r="D25" s="7" t="str">
+        <f>IF(VLOOKUP(A25,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E25" s="6">
+        <v>532233758.39999998</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C26" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>749.83099549999997</v>
+      </c>
+      <c r="D26" s="7" t="str">
+        <f>IF(VLOOKUP(A26,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E26" s="6">
+        <v>100</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C27" s="7">
-        <v>932233758.39999998</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4986608.142</v>
+      </c>
+      <c r="D27" s="7" t="str">
+        <f>IF(VLOOKUP(A27,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E27" s="6">
+        <v>4986608.142</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C28" s="7">
-        <v>749.83099549999997</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="11"/>
+        <v>174418341.5</v>
+      </c>
+      <c r="D28" s="7" t="str">
+        <f>IF(VLOOKUP(A28,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E28" s="6">
+        <v>7850000</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C29" s="7">
-        <v>4986608.142</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>254421.22440000001</v>
+      </c>
+      <c r="D29" s="7" t="str">
+        <f>IF(VLOOKUP(A29,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E29" s="6">
+        <v>150000</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C30" s="7">
-        <v>174418341.5</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="11"/>
+        <v>4108787.665</v>
+      </c>
+      <c r="D30" s="7" t="str">
+        <f>IF(VLOOKUP(A30,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E30" s="6">
+        <v>328703</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="11"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="C31" s="7">
-        <v>254421.22440000001</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="11"/>
+        <v>0.05</v>
+      </c>
+      <c r="D31" s="7" t="str">
+        <f>IF(VLOOKUP(A31,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E31" s="6">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="11"/>
       <c r="P31" s="5"/>
     </row>
     <row r="32" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C32" s="7">
-        <v>4108787.665</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22940055.34</v>
+      </c>
+      <c r="D32" s="7" t="str">
+        <f>IF(VLOOKUP(A32,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E32" s="6">
+        <v>22940055.34</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="C33" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>19201175.25</v>
+      </c>
+      <c r="D33" s="7" t="str">
+        <f>IF(VLOOKUP(A33,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E33" s="6">
+        <v>49069.656669999997</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="C34" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>34847060.600000001</v>
+      </c>
+      <c r="D34" s="7" t="str">
+        <f>IF(VLOOKUP(A34,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E34" s="6">
+        <v>1742353</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C35" s="7">
-        <v>22940055.34</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="11"/>
+        <v>554.64984700000002</v>
+      </c>
+      <c r="D35" s="7" t="str">
+        <f>IF(VLOOKUP(A35,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E35" s="6">
+        <v>110.9</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C36" s="7">
-        <v>19201175.25</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15150975.09</v>
+      </c>
+      <c r="D36" s="7" t="str">
+        <f>IF(VLOOKUP(A36,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E36" s="6">
+        <v>15150975.09</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="C37" s="7">
-        <v>34847060.600000001</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4273.9050960000004</v>
+      </c>
+      <c r="D37" s="7" t="str">
+        <f>IF(VLOOKUP(A37,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E37" s="6">
+        <v>4273.9050960000004</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="C38" s="7">
-        <v>554.64984700000002</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.05</v>
+      </c>
+      <c r="D38" s="7" t="str">
+        <f>IF(VLOOKUP(A38,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E38" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="C39" s="7">
-        <v>15150975.09</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="11"/>
+        <v>401050.08909999998</v>
+      </c>
+      <c r="D39" s="7" t="str">
+        <f>IF(VLOOKUP(A39,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E39" s="6">
+        <v>201050.08910000001</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="11"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C40" s="7">
-        <v>4273.9050960000004</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="11"/>
+        <v>28898.867849999999</v>
+      </c>
+      <c r="D40" s="7" t="str">
+        <f>IF(VLOOKUP(A40,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E40" s="6">
+        <v>28898.867849999999</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>189</v>
+        <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="C41" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20527442.649999999</v>
+      </c>
+      <c r="D41" s="7" t="str">
+        <f>IF(VLOOKUP(A41,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E41" s="6">
+        <v>6384375</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C42" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6221.5131609999999</v>
+      </c>
+      <c r="D42" s="7" t="str">
+        <f>IF(VLOOKUP(A42,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E42" s="6">
+        <v>6221.5131609999999</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C43" s="7">
-        <v>401050.08909999998</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24854569.199999999</v>
+      </c>
+      <c r="D43" s="7" t="str">
+        <f>IF(VLOOKUP(A43,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E43" s="6">
+        <v>3521063.9419999998</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C44" s="7">
-        <v>28898.867849999999</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>53.609603989999997</v>
+      </c>
+      <c r="D44" s="7" t="str">
+        <f>IF(VLOOKUP(A44,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E44" s="6">
+        <v>20</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="C45" s="7">
-        <v>20527442.649999999</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="11"/>
+        <v>16705.027440000002</v>
+      </c>
+      <c r="D45" s="7" t="str">
+        <f>IF(VLOOKUP(A45,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E45" s="6">
+        <v>75000</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="11"/>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C46" s="7">
-        <v>6221.5131609999999</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15779070.359999999</v>
+      </c>
+      <c r="D46" s="7" t="str">
+        <f>IF(VLOOKUP(A46,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E46" s="6">
+        <v>1540000</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C47" s="7">
-        <v>24854569.199999999</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10723808.939999999</v>
+      </c>
+      <c r="D47" s="7" t="str">
+        <f>IF(VLOOKUP(A47,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E47" s="6">
+        <v>357460.29800000001</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C48" s="7">
-        <v>53.609603989999997</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2957397.3650000002</v>
+      </c>
+      <c r="D48" s="7" t="str">
+        <f>IF(VLOOKUP(A48,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E48" s="6">
+        <v>4928995.608</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C49" s="7">
-        <v>16705.027440000002</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>361154520.60000002</v>
+      </c>
+      <c r="D49" s="7" t="str">
+        <f>IF(VLOOKUP(A49,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E49" s="6">
+        <v>72230904</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C50" s="7">
-        <v>15779070.359999999</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="11"/>
+        <v>7496.955054</v>
+      </c>
+      <c r="D50" s="7" t="str">
+        <f>IF(VLOOKUP(A50,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E50" s="6">
+        <v>7496.955054</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="11"/>
       <c r="O50" s="5"/>
     </row>
     <row r="51" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C51" s="7">
-        <v>10723808.939999999</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="11"/>
+        <v>5700290.8640000001</v>
+      </c>
+      <c r="D51" s="7" t="str">
+        <f>IF(VLOOKUP(A51,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E51" s="6">
+        <v>5700290.8640000001</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C52" s="7">
-        <v>2957397.3650000002</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>358999.37920000002</v>
+      </c>
+      <c r="D52" s="7" t="str">
+        <f>IF(VLOOKUP(A52,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E52" s="6">
+        <v>250000</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C53" s="7">
-        <v>361154520.60000002</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="11"/>
+        <v>233447.39780000001</v>
+      </c>
+      <c r="D53" s="7" t="str">
+        <f>IF(VLOOKUP(A53,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E53" s="6">
+        <v>58361.849450000002</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="C54" s="7">
-        <v>7496.955054</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="11"/>
+        <v>1053704.304</v>
+      </c>
+      <c r="D54" s="7" t="str">
+        <f>IF(VLOOKUP(A54,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1001250</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C55" s="7">
-        <v>5700290.8640000001</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>177129.4045</v>
+      </c>
+      <c r="D55" s="7" t="str">
+        <f>IF(VLOOKUP(A55,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E55" s="6">
+        <v>125000</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C56" s="7">
-        <v>358999.37920000002</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40960.04507</v>
+      </c>
+      <c r="D56" s="7" t="str">
+        <f>IF(VLOOKUP(A56,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E56" s="6">
+        <v>639000</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C57" s="7">
-        <v>233447.39780000001</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>71.004761549999998</v>
+      </c>
+      <c r="D57" s="7" t="str">
+        <f>IF(VLOOKUP(A57,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E57" s="6">
+        <v>71.004761549999998</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C58" s="7">
-        <v>1053704.304</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>52020187.369999997</v>
+      </c>
+      <c r="D58" s="7" t="str">
+        <f>IF(VLOOKUP(A58,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E58" s="6">
+        <v>52020187.369999997</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C59" s="7">
-        <v>177129.4045</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14975339.800000001</v>
+      </c>
+      <c r="D59" s="7" t="str">
+        <f>IF(VLOOKUP(A59,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E59" s="6">
+        <v>747664.42</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C60" s="7">
-        <v>40960.04507</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="11"/>
+        <v>3738776.034</v>
+      </c>
+      <c r="D60" s="7" t="str">
+        <f>IF(VLOOKUP(A60,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E60" s="6">
+        <v>1080000</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C61" s="7">
-        <v>71.004761549999998</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="11"/>
+        <v>97071048.260000005</v>
+      </c>
+      <c r="D61" s="7" t="str">
+        <f>IF(VLOOKUP(A61,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E61" s="6">
+        <v>60071048.259999998</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C62" s="7">
-        <v>52020187.369999997</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="11"/>
-    </row>
-    <row r="63" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20265685.109999999</v>
+      </c>
+      <c r="D62" s="7" t="str">
+        <f>IF(VLOOKUP(A62,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E62" s="6">
+        <v>10265685.109999999</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C63" s="7">
-        <v>14975339.800000001</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="11"/>
+        <v>2983706.8709999998</v>
+      </c>
+      <c r="D63" s="7" t="str">
+        <f>IF(VLOOKUP(A63,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v/>
+      </c>
+      <c r="E63" s="6">
+        <v>491000</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C64" s="7">
-        <v>3738776.034</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="7">
-        <v>97071048.260000005</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="11"/>
-    </row>
-    <row r="66" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="7">
-        <v>20265685.109999999</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="11"/>
-    </row>
-    <row r="67" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="7">
-        <v>2983706.8709999998</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="11"/>
-    </row>
-    <row r="68" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" s="7">
         <v>204805160.5</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="11"/>
-    </row>
-    <row r="69" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-      <c r="B69"/>
-      <c r="C69"/>
-    </row>
-    <row r="70" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
-      <c r="B70"/>
-      <c r="C70"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71" s="12"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B72"/>
-      <c r="C72"/>
+      <c r="D64" s="7" t="str">
+        <f>IF(VLOOKUP(A64,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <v>-</v>
+      </c>
+      <c r="E64" s="6">
+        <v>150805160.5</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F71"/>
+      <c r="G71" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O68"/>
+  <autoFilter ref="A1:O68">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Group Condition" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="193">
   <si>
     <t>Too Low</t>
   </si>
@@ -596,6 +596,18 @@
   </si>
   <si>
     <t>ReducePred9_DKENR</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ORIG</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -997,11 +1009,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,40 +1059,37 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" t="s">
-        <v>180</v>
+      <c r="G2" t="s">
+        <v>189</v>
       </c>
       <c r="H2" t="str">
         <f>IF(COUNTIF(C2:G2,"X")=0,"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>102</v>
       </c>
-      <c r="C3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" t="s">
-        <v>180</v>
-      </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="0">IF(COUNTIF(C3:G3,"X")=0,"X","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1091,7 +1101,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1109,19 +1119,16 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>114</v>
       </c>
-      <c r="C6" t="s">
-        <v>180</v>
-      </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1141,26 +1148,23 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
       </c>
-      <c r="F8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" t="s">
-        <v>180</v>
-      </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1175,16 +1179,13 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>124</v>
       </c>
-      <c r="F10" t="s">
-        <v>180</v>
-      </c>
       <c r="G10" t="s">
         <v>180</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1223,22 +1224,19 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>147</v>
       </c>
-      <c r="D13" t="s">
-        <v>180</v>
-      </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1250,7 +1248,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1265,25 +1263,19 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>106</v>
       </c>
-      <c r="C16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" t="s">
-        <v>180</v>
-      </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1300,8 +1292,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1313,7 +1308,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1328,7 +1323,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1343,7 +1338,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -1357,8 +1352,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1370,7 +1368,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1382,7 +1380,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -1394,7 +1392,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1411,26 +1409,23 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>100</v>
       </c>
-      <c r="C26" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" t="s">
-        <v>180</v>
-      </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -1445,7 +1440,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1457,7 +1452,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -1474,8 +1469,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1487,7 +1485,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -1499,25 +1497,19 @@
         <v>X</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>141</v>
       </c>
-      <c r="C32" t="s">
-        <v>180</v>
-      </c>
-      <c r="D32" t="s">
-        <v>180</v>
-      </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1532,7 +1524,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1546,8 +1538,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1565,7 +1560,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1577,22 +1572,19 @@
         <v>X</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>145</v>
       </c>
-      <c r="D37" t="s">
-        <v>180</v>
-      </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -1604,7 +1596,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1618,8 +1610,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -1633,8 +1628,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1646,7 +1644,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1661,16 +1659,13 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>111</v>
       </c>
-      <c r="C43" t="s">
-        <v>180</v>
-      </c>
       <c r="G43" t="s">
         <v>180</v>
       </c>
@@ -1679,7 +1674,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1694,7 +1689,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -1706,22 +1701,19 @@
         <v>X</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>34</v>
       </c>
       <c r="B46" t="s">
         <v>123</v>
       </c>
-      <c r="C46" t="s">
-        <v>180</v>
-      </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -1736,7 +1728,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1751,7 +1743,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -1766,7 +1758,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1778,7 +1770,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -1790,25 +1782,19 @@
         <v>X</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="C52" t="s">
-        <v>180</v>
-      </c>
-      <c r="D52" t="s">
-        <v>180</v>
-      </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -1820,7 +1806,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -1832,7 +1818,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1844,7 +1830,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -1856,7 +1842,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -1868,7 +1854,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1880,7 +1866,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -1892,7 +1878,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -1904,7 +1890,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -1919,7 +1905,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -1934,7 +1920,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -1946,22 +1932,19 @@
         <v>X</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>57</v>
       </c>
       <c r="B64" t="s">
         <v>146</v>
       </c>
-      <c r="D64" t="s">
-        <v>180</v>
-      </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -1973,16 +1956,13 @@
         <v>X</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>32</v>
       </c>
       <c r="B66" t="s">
         <v>120</v>
       </c>
-      <c r="C66" t="s">
-        <v>180</v>
-      </c>
       <c r="G66" t="s">
         <v>180</v>
       </c>
@@ -1991,7 +1971,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -2006,7 +1986,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>54</v>
       </c>
@@ -2018,7 +1998,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -2033,7 +2013,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -2045,7 +2025,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -2057,7 +2037,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2072,7 +2052,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -2087,7 +2067,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -2098,8 +2078,11 @@
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>45</v>
       </c>
@@ -2116,8 +2099,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -2134,8 +2120,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -2150,7 +2139,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -2167,8 +2156,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -2188,8 +2180,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -2203,8 +2198,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -2216,7 +2214,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -2228,7 +2226,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -2243,7 +2241,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -2255,43 +2253,31 @@
         <v>X</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>51</v>
       </c>
       <c r="B85" t="s">
         <v>140</v>
       </c>
-      <c r="C85" t="s">
-        <v>180</v>
-      </c>
-      <c r="D85" t="s">
-        <v>180</v>
-      </c>
       <c r="H85" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
       <c r="B86" t="s">
         <v>99</v>
       </c>
-      <c r="C86" t="s">
-        <v>180</v>
-      </c>
-      <c r="D86" t="s">
-        <v>180</v>
-      </c>
       <c r="H86" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -2303,26 +2289,26 @@
         <v>X</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>43</v>
       </c>
       <c r="B88" t="s">
         <v>132</v>
       </c>
-      <c r="C88" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" t="s">
-        <v>180</v>
-      </c>
       <c r="H88" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>X</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I88"/>
+  <autoFilter ref="A1:I88">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2332,11 +2318,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2392,13 +2378,15 @@
         <v>1001094433</v>
       </c>
       <c r="D2" s="7" t="str">
-        <f>IF(VLOOKUP(A2,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v>-</v>
+        <f>VLOOKUP(A2,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+</v>
       </c>
       <c r="E2" s="6">
         <v>45700000</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7">
+        <v>1001094433</v>
+      </c>
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2411,9 +2399,9 @@
       <c r="C3" s="7">
         <v>2124041.1490000002</v>
       </c>
-      <c r="D3" s="7" t="str">
-        <f>IF(VLOOKUP(A3,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D3" s="7">
+        <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E3" s="6">
         <v>2124041.1490000002</v>
@@ -2434,9 +2422,9 @@
       <c r="C4" s="7">
         <v>114181041.2</v>
       </c>
-      <c r="D4" s="7" t="str">
-        <f>IF(VLOOKUP(A4,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D4" s="7">
+        <f>VLOOKUP(A4,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E4" s="6">
         <v>19030174.25</v>
@@ -2454,9 +2442,9 @@
       <c r="C5" s="7">
         <v>15816.31169</v>
       </c>
-      <c r="D5" s="7" t="str">
-        <f>IF(VLOOKUP(A5,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D5" s="7">
+        <f>VLOOKUP(A5,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E5" s="6">
         <v>175816.31169</v>
@@ -2475,16 +2463,19 @@
         <v>1718757.3940000001</v>
       </c>
       <c r="D6" s="7" t="str">
-        <f>IF(VLOOKUP(A6,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <f>VLOOKUP(A6,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>-</v>
       </c>
       <c r="E6" s="6">
         <v>1718757.3940000001</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6">
+        <f>E6*0.5</f>
+        <v>859378.69700000004</v>
+      </c>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -2494,9 +2485,9 @@
       <c r="C7" s="7">
         <v>16477555.609999999</v>
       </c>
-      <c r="D7" s="7" t="str">
-        <f>IF(VLOOKUP(A7,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v>-</v>
+      <c r="D7" s="7">
+        <f>VLOOKUP(A7,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E7" s="6">
         <v>993066.96089999995</v>
@@ -2516,9 +2507,9 @@
       <c r="C8" s="8">
         <v>229000000000</v>
       </c>
-      <c r="D8" s="7" t="str">
-        <f>IF(VLOOKUP(A8,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D8" s="7">
+        <f>VLOOKUP(A8,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E8" s="6">
         <v>2000000000000</v>
@@ -2536,9 +2527,9 @@
       <c r="C9" s="7">
         <v>32122718.550000001</v>
       </c>
-      <c r="D9" s="7" t="str">
-        <f>IF(VLOOKUP(A9,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D9" s="7">
+        <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E9" s="6">
         <v>321227180.55000001</v>
@@ -2559,9 +2550,9 @@
       <c r="C10" s="7">
         <v>2123.8950410000002</v>
       </c>
-      <c r="D10" s="7" t="str">
-        <f>IF(VLOOKUP(A10,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D10" s="7">
+        <f>VLOOKUP(A10,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E10" s="6">
         <v>2123.8950410000002</v>
@@ -2579,9 +2570,9 @@
       <c r="C11" s="7">
         <v>74822.192989999996</v>
       </c>
-      <c r="D11" s="7" t="str">
-        <f>IF(VLOOKUP(A11,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D11" s="7">
+        <f>VLOOKUP(A11,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E11" s="6">
         <v>74822.192989999996</v>
@@ -2602,9 +2593,9 @@
       <c r="C12" s="7">
         <v>235.45910710000001</v>
       </c>
-      <c r="D12" s="7" t="str">
-        <f>IF(VLOOKUP(A12,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D12" s="7">
+        <f>VLOOKUP(A12,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
         <v>10</v>
@@ -2612,7 +2603,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -2622,9 +2613,9 @@
       <c r="C13" s="7">
         <v>25797.24295</v>
       </c>
-      <c r="D13" s="7" t="str">
-        <f>IF(VLOOKUP(A13,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v>-</v>
+      <c r="D13" s="7">
+        <f>VLOOKUP(A13,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E13" s="6">
         <v>100</v>
@@ -2643,13 +2634,16 @@
         <v>352590040.69999999</v>
       </c>
       <c r="D14" s="7" t="str">
-        <f>IF(VLOOKUP(A14,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>-</v>
       </c>
       <c r="E14" s="6">
         <v>176000000</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="7">
+        <f>E14*0.75</f>
+        <v>132000000</v>
+      </c>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2662,9 +2656,9 @@
       <c r="C15" s="7">
         <v>15874.27808</v>
       </c>
-      <c r="D15" s="7" t="str">
-        <f>IF(VLOOKUP(A15,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D15" s="7">
+        <f>VLOOKUP(A15,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E15" s="6">
         <v>15874.27808</v>
@@ -2683,13 +2677,16 @@
         <v>129309.07709999999</v>
       </c>
       <c r="D16" s="7" t="str">
-        <f>IF(VLOOKUP(A16,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>-</v>
       </c>
       <c r="E16" s="6">
         <v>100000</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6">
+        <f>E16*0.75</f>
+        <v>75000</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="M16" s="5"/>
       <c r="O16" s="5"/>
@@ -2705,9 +2702,9 @@
       <c r="C17" s="7">
         <v>21996106.07</v>
       </c>
-      <c r="D17" s="7" t="str">
-        <f>IF(VLOOKUP(A17,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D17" s="7">
+        <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E17" s="6">
         <v>4000000</v>
@@ -2718,7 +2715,7 @@
       <c r="M17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
@@ -2728,9 +2725,9 @@
       <c r="C18" s="7">
         <v>17230050.359999999</v>
       </c>
-      <c r="D18" s="7" t="str">
-        <f>IF(VLOOKUP(A18,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v>-</v>
+      <c r="D18" s="7">
+        <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E18" s="6">
         <v>8500000</v>
@@ -2740,7 +2737,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
@@ -2750,9 +2747,9 @@
       <c r="C19" s="7">
         <v>13236869.029999999</v>
       </c>
-      <c r="D19" s="7" t="str">
-        <f>IF(VLOOKUP(A19,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v>-</v>
+      <c r="D19" s="7">
+        <f>VLOOKUP(A19,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E19" s="6">
         <v>6500000</v>
@@ -2763,7 +2760,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -2773,9 +2770,9 @@
       <c r="C20" s="7">
         <v>432544359.30000001</v>
       </c>
-      <c r="D20" s="7" t="str">
-        <f>IF(VLOOKUP(A20,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v>-</v>
+      <c r="D20" s="7">
+        <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E20" s="6">
         <v>2430000</v>
@@ -2796,13 +2793,16 @@
         <v>0.05</v>
       </c>
       <c r="D21" s="7" t="str">
-        <f>IF(VLOOKUP(A21,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <f>VLOOKUP(A21,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>-</v>
       </c>
       <c r="E21" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6">
+        <f>0.02</f>
+        <v>0.02</v>
+      </c>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2815,9 +2815,9 @@
       <c r="C22" s="7">
         <v>747577.53830000001</v>
       </c>
-      <c r="D22" s="7" t="str">
-        <f>IF(VLOOKUP(A22,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D22" s="7">
+        <f>VLOOKUP(A22,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E22" s="6">
         <v>197000</v>
@@ -2835,9 +2835,9 @@
       <c r="C23" s="7">
         <v>172649603.19999999</v>
       </c>
-      <c r="D23" s="7" t="str">
-        <f>IF(VLOOKUP(A23,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D23" s="7">
+        <f>VLOOKUP(A23,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E23" s="6">
         <v>49700000</v>
@@ -2846,7 +2846,7 @@
       <c r="G23" s="11"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>62</v>
       </c>
@@ -2857,13 +2857,15 @@
         <v>0.05</v>
       </c>
       <c r="D24" s="7" t="str">
-        <f>IF(VLOOKUP(A24,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+        <f>VLOOKUP(A24,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-</v>
       </c>
       <c r="E24" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="6">
+        <v>0.02</v>
+      </c>
       <c r="G24" s="11"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -2878,9 +2880,9 @@
       <c r="C25" s="7">
         <v>932233758.39999998</v>
       </c>
-      <c r="D25" s="7" t="str">
-        <f>IF(VLOOKUP(A25,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D25" s="7">
+        <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E25" s="6">
         <v>532233758.39999998</v>
@@ -2898,9 +2900,9 @@
       <c r="C26" s="7">
         <v>749.83099549999997</v>
       </c>
-      <c r="D26" s="7" t="str">
-        <f>IF(VLOOKUP(A26,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D26" s="7">
+        <f>VLOOKUP(A26,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E26" s="6">
         <v>100</v>
@@ -2918,9 +2920,9 @@
       <c r="C27" s="7">
         <v>4986608.142</v>
       </c>
-      <c r="D27" s="7" t="str">
-        <f>IF(VLOOKUP(A27,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D27" s="7">
+        <f>VLOOKUP(A27,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E27" s="6">
         <v>4986608.142</v>
@@ -2938,9 +2940,9 @@
       <c r="C28" s="7">
         <v>174418341.5</v>
       </c>
-      <c r="D28" s="7" t="str">
-        <f>IF(VLOOKUP(A28,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D28" s="7">
+        <f>VLOOKUP(A28,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E28" s="6">
         <v>7850000</v>
@@ -2959,13 +2961,15 @@
         <v>254421.22440000001</v>
       </c>
       <c r="D29" s="7" t="str">
-        <f>IF(VLOOKUP(A29,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>-</v>
       </c>
       <c r="E29" s="6">
         <v>150000</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="6">
+        <v>100000</v>
+      </c>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2978,9 +2982,9 @@
       <c r="C30" s="7">
         <v>4108787.665</v>
       </c>
-      <c r="D30" s="7" t="str">
-        <f>IF(VLOOKUP(A30,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D30" s="7">
+        <f>VLOOKUP(A30,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E30" s="6">
         <v>328703</v>
@@ -2999,9 +3003,9 @@
       <c r="C31" s="7">
         <v>0.05</v>
       </c>
-      <c r="D31" s="7" t="str">
-        <f>IF(VLOOKUP(A31,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D31" s="7">
+        <f>VLOOKUP(A31,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E31" s="6">
         <v>1.2500000000000001E-2</v>
@@ -3010,7 +3014,7 @@
       <c r="G31" s="11"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
@@ -3020,9 +3024,9 @@
       <c r="C32" s="7">
         <v>22940055.34</v>
       </c>
-      <c r="D32" s="7" t="str">
-        <f>IF(VLOOKUP(A32,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v>-</v>
+      <c r="D32" s="7">
+        <f>VLOOKUP(A32,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E32" s="6">
         <v>22940055.34</v>
@@ -3040,9 +3044,9 @@
       <c r="C33" s="7">
         <v>19201175.25</v>
       </c>
-      <c r="D33" s="7" t="str">
-        <f>IF(VLOOKUP(A33,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D33" s="7">
+        <f>VLOOKUP(A33,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E33" s="6">
         <v>49069.656669999997</v>
@@ -3060,9 +3064,9 @@
       <c r="C34" s="7">
         <v>34847060.600000001</v>
       </c>
-      <c r="D34" s="7" t="str">
-        <f>IF(VLOOKUP(A34,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D34" s="7">
+        <f>VLOOKUP(A34,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E34" s="6">
         <v>1742353</v>
@@ -3080,9 +3084,9 @@
       <c r="C35" s="7">
         <v>554.64984700000002</v>
       </c>
-      <c r="D35" s="7" t="str">
-        <f>IF(VLOOKUP(A35,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D35" s="7">
+        <f>VLOOKUP(A35,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E35" s="6">
         <v>110.9</v>
@@ -3090,7 +3094,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -3100,9 +3104,9 @@
       <c r="C36" s="7">
         <v>15150975.09</v>
       </c>
-      <c r="D36" s="7" t="str">
-        <f>IF(VLOOKUP(A36,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v>-</v>
+      <c r="D36" s="7">
+        <f>VLOOKUP(A36,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E36" s="6">
         <v>15150975.09</v>
@@ -3120,9 +3124,9 @@
       <c r="C37" s="7">
         <v>4273.9050960000004</v>
       </c>
-      <c r="D37" s="7" t="str">
-        <f>IF(VLOOKUP(A37,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D37" s="7">
+        <f>VLOOKUP(A37,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E37" s="6">
         <v>4273.9050960000004</v>
@@ -3140,9 +3144,9 @@
       <c r="C38" s="7">
         <v>0.05</v>
       </c>
-      <c r="D38" s="7" t="str">
-        <f>IF(VLOOKUP(A38,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D38" s="7">
+        <f>VLOOKUP(A38,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E38" s="6">
         <v>0.05</v>
@@ -3160,9 +3164,9 @@
       <c r="C39" s="7">
         <v>401050.08909999998</v>
       </c>
-      <c r="D39" s="7" t="str">
-        <f>IF(VLOOKUP(A39,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D39" s="7">
+        <f>VLOOKUP(A39,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E39" s="6">
         <v>201050.08910000001</v>
@@ -3182,9 +3186,9 @@
       <c r="C40" s="7">
         <v>28898.867849999999</v>
       </c>
-      <c r="D40" s="7" t="str">
-        <f>IF(VLOOKUP(A40,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D40" s="7">
+        <f>VLOOKUP(A40,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E40" s="6">
         <v>28898.867849999999</v>
@@ -3192,7 +3196,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>4</v>
       </c>
@@ -3202,9 +3206,9 @@
       <c r="C41" s="7">
         <v>20527442.649999999</v>
       </c>
-      <c r="D41" s="7" t="str">
-        <f>IF(VLOOKUP(A41,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v>-</v>
+      <c r="D41" s="7">
+        <f>VLOOKUP(A41,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E41" s="6">
         <v>6384375</v>
@@ -3222,9 +3226,9 @@
       <c r="C42" s="7">
         <v>6221.5131609999999</v>
       </c>
-      <c r="D42" s="7" t="str">
-        <f>IF(VLOOKUP(A42,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D42" s="7">
+        <f>VLOOKUP(A42,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E42" s="6">
         <v>6221.5131609999999</v>
@@ -3242,9 +3246,9 @@
       <c r="C43" s="7">
         <v>24854569.199999999</v>
       </c>
-      <c r="D43" s="7" t="str">
-        <f>IF(VLOOKUP(A43,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D43" s="7">
+        <f>VLOOKUP(A43,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E43" s="6">
         <v>3521063.9419999998</v>
@@ -3262,9 +3266,9 @@
       <c r="C44" s="7">
         <v>53.609603989999997</v>
       </c>
-      <c r="D44" s="7" t="str">
-        <f>IF(VLOOKUP(A44,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D44" s="7">
+        <f>VLOOKUP(A44,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E44" s="6">
         <v>20</v>
@@ -3282,9 +3286,9 @@
       <c r="C45" s="7">
         <v>16705.027440000002</v>
       </c>
-      <c r="D45" s="7" t="str">
-        <f>IF(VLOOKUP(A45,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D45" s="7">
+        <f>VLOOKUP(A45,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E45" s="6">
         <v>75000</v>
@@ -3303,9 +3307,9 @@
       <c r="C46" s="7">
         <v>15779070.359999999</v>
       </c>
-      <c r="D46" s="7" t="str">
-        <f>IF(VLOOKUP(A46,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D46" s="7">
+        <f>VLOOKUP(A46,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E46" s="6">
         <v>1540000</v>
@@ -3323,9 +3327,9 @@
       <c r="C47" s="7">
         <v>10723808.939999999</v>
       </c>
-      <c r="D47" s="7" t="str">
-        <f>IF(VLOOKUP(A47,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D47" s="7">
+        <f>VLOOKUP(A47,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E47" s="6">
         <v>357460.29800000001</v>
@@ -3343,9 +3347,9 @@
       <c r="C48" s="7">
         <v>2957397.3650000002</v>
       </c>
-      <c r="D48" s="7" t="str">
-        <f>IF(VLOOKUP(A48,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D48" s="7">
+        <f>VLOOKUP(A48,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E48" s="6">
         <v>4928995.608</v>
@@ -3363,9 +3367,9 @@
       <c r="C49" s="7">
         <v>361154520.60000002</v>
       </c>
-      <c r="D49" s="7" t="str">
-        <f>IF(VLOOKUP(A49,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D49" s="7">
+        <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E49" s="6">
         <v>72230904</v>
@@ -3373,7 +3377,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>59</v>
       </c>
@@ -3384,17 +3388,19 @@
         <v>7496.955054</v>
       </c>
       <c r="D50" s="7" t="str">
-        <f>IF(VLOOKUP(A50,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+        <f>VLOOKUP(A50,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>ORIG</v>
       </c>
       <c r="E50" s="6">
         <v>7496.955054</v>
       </c>
-      <c r="F50" s="6"/>
+      <c r="F50" s="6">
+        <v>10000</v>
+      </c>
       <c r="G50" s="11"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>32</v>
       </c>
@@ -3404,9 +3410,9 @@
       <c r="C51" s="7">
         <v>5700290.8640000001</v>
       </c>
-      <c r="D51" s="7" t="str">
-        <f>IF(VLOOKUP(A51,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v>-</v>
+      <c r="D51" s="7">
+        <f>VLOOKUP(A51,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E51" s="6">
         <v>5700290.8640000001</v>
@@ -3425,13 +3431,15 @@
         <v>358999.37920000002</v>
       </c>
       <c r="D52" s="7" t="str">
-        <f>IF(VLOOKUP(A52,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <f>VLOOKUP(A52,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>-</v>
       </c>
       <c r="E52" s="6">
         <v>250000</v>
       </c>
-      <c r="F52" s="6"/>
+      <c r="F52" s="6">
+        <v>200000</v>
+      </c>
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3444,9 +3452,9 @@
       <c r="C53" s="7">
         <v>233447.39780000001</v>
       </c>
-      <c r="D53" s="7" t="str">
-        <f>IF(VLOOKUP(A53,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D53" s="7">
+        <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E53" s="6">
         <v>58361.849450000002</v>
@@ -3465,13 +3473,15 @@
         <v>1053704.304</v>
       </c>
       <c r="D54" s="7" t="str">
-        <f>IF(VLOOKUP(A54,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>-</v>
       </c>
       <c r="E54" s="6">
         <v>1001250</v>
       </c>
-      <c r="F54" s="6"/>
+      <c r="F54" s="6">
+        <v>750000</v>
+      </c>
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3485,16 +3495,18 @@
         <v>177129.4045</v>
       </c>
       <c r="D55" s="7" t="str">
-        <f>IF(VLOOKUP(A55,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
+        <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>-</v>
       </c>
       <c r="E55" s="6">
         <v>125000</v>
       </c>
-      <c r="F55" s="6"/>
+      <c r="F55" s="6">
+        <v>100000</v>
+      </c>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>33</v>
       </c>
@@ -3505,13 +3517,15 @@
         <v>40960.04507</v>
       </c>
       <c r="D56" s="7" t="str">
-        <f>IF(VLOOKUP(A56,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+        <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+</v>
       </c>
       <c r="E56" s="6">
         <v>639000</v>
       </c>
-      <c r="F56" s="6"/>
+      <c r="F56" s="6">
+        <v>1000000</v>
+      </c>
       <c r="G56" s="11"/>
       <c r="H56" s="9"/>
     </row>
@@ -3525,9 +3539,9 @@
       <c r="C57" s="7">
         <v>71.004761549999998</v>
       </c>
-      <c r="D57" s="7" t="str">
-        <f>IF(VLOOKUP(A57,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D57" s="7">
+        <f>VLOOKUP(A57,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E57" s="6">
         <v>71.004761549999998</v>
@@ -3545,9 +3559,9 @@
       <c r="C58" s="7">
         <v>52020187.369999997</v>
       </c>
-      <c r="D58" s="7" t="str">
-        <f>IF(VLOOKUP(A58,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D58" s="7">
+        <f>VLOOKUP(A58,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E58" s="6">
         <v>52020187.369999997</v>
@@ -3565,9 +3579,9 @@
       <c r="C59" s="7">
         <v>14975339.800000001</v>
       </c>
-      <c r="D59" s="7" t="str">
-        <f>IF(VLOOKUP(A59,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D59" s="7">
+        <f>VLOOKUP(A59,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E59" s="6">
         <v>747664.42</v>
@@ -3585,9 +3599,9 @@
       <c r="C60" s="7">
         <v>3738776.034</v>
       </c>
-      <c r="D60" s="7" t="str">
-        <f>IF(VLOOKUP(A60,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D60" s="7">
+        <f>VLOOKUP(A60,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E60" s="6">
         <v>1080000</v>
@@ -3595,7 +3609,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>51</v>
       </c>
@@ -3605,9 +3619,9 @@
       <c r="C61" s="7">
         <v>97071048.260000005</v>
       </c>
-      <c r="D61" s="7" t="str">
-        <f>IF(VLOOKUP(A61,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v>-</v>
+      <c r="D61" s="7">
+        <f>VLOOKUP(A61,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E61" s="6">
         <v>60071048.259999998</v>
@@ -3615,7 +3629,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>16</v>
       </c>
@@ -3625,9 +3639,9 @@
       <c r="C62" s="7">
         <v>20265685.109999999</v>
       </c>
-      <c r="D62" s="7" t="str">
-        <f>IF(VLOOKUP(A62,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v>-</v>
+      <c r="D62" s="7">
+        <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E62" s="6">
         <v>10265685.109999999</v>
@@ -3645,9 +3659,9 @@
       <c r="C63" s="7">
         <v>2983706.8709999998</v>
       </c>
-      <c r="D63" s="7" t="str">
-        <f>IF(VLOOKUP(A63,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v/>
+      <c r="D63" s="7">
+        <f>VLOOKUP(A63,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E63" s="6">
         <v>491000</v>
@@ -3655,7 +3669,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>43</v>
       </c>
@@ -3665,9 +3679,9 @@
       <c r="C64" s="7">
         <v>204805160.5</v>
       </c>
-      <c r="D64" s="7" t="str">
-        <f>IF(VLOOKUP(A64,'Group Condition'!$A$2:$C$88,3,FALSE)="X","-","")</f>
-        <v>-</v>
+      <c r="D64" s="7">
+        <f>VLOOKUP(A64,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="E64" s="6">
         <v>150805160.5</v>
@@ -3714,9 +3728,11 @@
   </sheetData>
   <autoFilter ref="A1:O68">
     <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+      <filters>
+        <filter val="-"/>
+        <filter val="+"/>
+        <filter val="ORIG"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -9,14 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Group Condition" sheetId="1" r:id="rId1"/>
     <sheet name="Recruitment_Log" sheetId="3" r:id="rId2"/>
+    <sheet name="mL-Log" sheetId="4" r:id="rId3"/>
+    <sheet name="mQ-log" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Group Condition'!$A$1:$I$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'mL-Log'!$A$1:$G$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'mQ-log'!$A$1:$G$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Recruitment_Log!$A$1:$O$68</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="208">
   <si>
     <t>Too Low</t>
   </si>
@@ -598,16 +602,61 @@
     <t>ReducePred9_DKENR</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>ORIG</t>
-  </si>
-  <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>REVERT</t>
+  </si>
+  <si>
+    <t>PRED</t>
+  </si>
+  <si>
+    <t>-/MORT</t>
+  </si>
+  <si>
+    <t>MORT</t>
+  </si>
+  <si>
+    <t>+/MORT</t>
+  </si>
+  <si>
+    <t>REVERT/-MORT</t>
+  </si>
+  <si>
+    <t>+/-MORT</t>
+  </si>
+  <si>
+    <t>-/+MORT</t>
+  </si>
+  <si>
+    <t>-/+M,ORT</t>
+  </si>
+  <si>
+    <t>-/PRED/MORT</t>
+  </si>
+  <si>
+    <t>-MORT/PRED</t>
+  </si>
+  <si>
+    <t>DIET</t>
+  </si>
+  <si>
+    <t>DIET/-MORT</t>
+  </si>
+  <si>
+    <t>orig_mL1</t>
+  </si>
+  <si>
+    <t>orig_mL2</t>
+  </si>
+  <si>
+    <t>ReducePred10_DKENR</t>
+  </si>
+  <si>
+    <t>ReducePred10_mL1</t>
+  </si>
+  <si>
+    <t>ReducePred10_mL2</t>
   </si>
 </sst>
 </file>
@@ -696,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -729,6 +778,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,9 +1062,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,7 +1109,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1067,41 +1117,46 @@
         <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H2" t="str">
         <f>IF(COUNTIF(C2:G2,"X")=0,"X","")</f>
         <v/>
       </c>
       <c r="I2" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>102</v>
       </c>
+      <c r="G3" t="s">
+        <v>180</v>
+      </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="0">IF(COUNTIF(C3:G3,"X")=0,"X","")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>110</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1119,16 +1174,22 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>114</v>
       </c>
+      <c r="G6" t="s">
+        <v>180</v>
+      </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1149,7 +1210,7 @@
         <v/>
       </c>
       <c r="I7" s="13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1164,7 +1225,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1178,8 +1239,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1193,8 +1257,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1208,8 +1275,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1224,31 +1294,40 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>147</v>
       </c>
+      <c r="C13" t="s">
+        <v>180</v>
+      </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>167</v>
       </c>
+      <c r="E14" t="s">
+        <v>180</v>
+      </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1275,7 +1354,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1293,7 +1372,7 @@
         <v/>
       </c>
       <c r="I17" s="13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1308,7 +1387,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1322,8 +1401,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1337,8 +1419,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -1353,19 +1438,22 @@
         <v/>
       </c>
       <c r="I21" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>75</v>
       </c>
       <c r="B22" t="s">
         <v>164</v>
       </c>
+      <c r="D22" t="s">
+        <v>180</v>
+      </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1380,19 +1468,22 @@
         <v>X</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>81</v>
       </c>
       <c r="B24" t="s">
         <v>170</v>
       </c>
+      <c r="D24" t="s">
+        <v>180</v>
+      </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1410,7 +1501,7 @@
         <v/>
       </c>
       <c r="I25" s="13" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1425,7 +1516,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -1440,16 +1531,22 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>131</v>
       </c>
+      <c r="E28" t="s">
+        <v>180</v>
+      </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1469,20 +1566,26 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I29" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>150</v>
       </c>
+      <c r="C30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" t="s">
+        <v>180</v>
+      </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1516,12 +1619,9 @@
       <c r="B33" t="s">
         <v>158</v>
       </c>
-      <c r="G33" t="s">
-        <v>180</v>
-      </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1531,6 +1631,9 @@
       <c r="B34" t="s">
         <v>151</v>
       </c>
+      <c r="C34" t="s">
+        <v>180</v>
+      </c>
       <c r="D34" t="s">
         <v>180</v>
       </c>
@@ -1538,11 +1641,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1559,6 +1659,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="I35" s="13" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -1572,16 +1675,25 @@
         <v>X</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>145</v>
       </c>
+      <c r="C37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" t="s">
+        <v>180</v>
+      </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1596,7 +1708,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1611,10 +1723,10 @@
         <v/>
       </c>
       <c r="I39" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -1629,7 +1741,7 @@
         <v/>
       </c>
       <c r="I40" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1651,15 +1763,12 @@
       <c r="B42" t="s">
         <v>130</v>
       </c>
-      <c r="G42" t="s">
-        <v>180</v>
-      </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -1673,6 +1782,9 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="I43" s="13" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -1681,12 +1793,9 @@
       <c r="B44" t="s">
         <v>142</v>
       </c>
-      <c r="G44" t="s">
-        <v>180</v>
-      </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
     </row>
     <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1701,19 +1810,25 @@
         <v>X</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>34</v>
       </c>
       <c r="B46" t="s">
         <v>123</v>
       </c>
+      <c r="D46" t="s">
+        <v>180</v>
+      </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -1735,15 +1850,12 @@
       <c r="B48" t="s">
         <v>116</v>
       </c>
-      <c r="G48" t="s">
-        <v>180</v>
-      </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -1758,7 +1870,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1770,7 +1882,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -1782,19 +1894,25 @@
         <v>X</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
       </c>
+      <c r="D52" t="s">
+        <v>180</v>
+      </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -1806,7 +1924,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -1818,7 +1936,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1830,7 +1948,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -1842,7 +1960,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -1854,19 +1972,25 @@
         <v>X</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>144</v>
       </c>
+      <c r="E58" t="s">
+        <v>180</v>
+      </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -1878,7 +2002,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -1890,7 +2014,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -1904,23 +2028,23 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>30</v>
       </c>
       <c r="B62" t="s">
         <v>118</v>
       </c>
-      <c r="G62" t="s">
-        <v>180</v>
-      </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -1932,31 +2056,43 @@
         <v>X</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>57</v>
       </c>
       <c r="B64" t="s">
         <v>146</v>
       </c>
+      <c r="D64" t="s">
+        <v>180</v>
+      </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>46</v>
       </c>
       <c r="B65" t="s">
         <v>135</v>
       </c>
+      <c r="D65" t="s">
+        <v>180</v>
+      </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -1970,8 +2106,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I66" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -1986,16 +2125,22 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>54</v>
       </c>
       <c r="B68" t="s">
         <v>143</v>
       </c>
+      <c r="E68" t="s">
+        <v>180</v>
+      </c>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v/>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -2025,19 +2170,28 @@
         <v>X</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>26</v>
       </c>
       <c r="B71" t="s">
         <v>113</v>
       </c>
+      <c r="C71" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" t="s">
+        <v>180</v>
+      </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2052,7 +2206,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -2066,20 +2220,26 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I73" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>59</v>
       </c>
       <c r="B74" t="s">
         <v>148</v>
       </c>
+      <c r="E74" t="s">
+        <v>180</v>
+      </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I74" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -2100,7 +2260,7 @@
         <v/>
       </c>
       <c r="I75" s="13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -2121,10 +2281,10 @@
         <v/>
       </c>
       <c r="I76" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -2138,8 +2298,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I77" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -2157,7 +2320,7 @@
         <v/>
       </c>
       <c r="I78" s="13" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -2181,10 +2344,10 @@
         <v/>
       </c>
       <c r="I79" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -2199,10 +2362,10 @@
         <v/>
       </c>
       <c r="I80" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -2213,20 +2376,29 @@
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I81" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
       <c r="B82" t="s">
         <v>94</v>
       </c>
+      <c r="G82" t="s">
+        <v>180</v>
+      </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -2240,20 +2412,29 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I83" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
       <c r="B84" t="s">
         <v>98</v>
       </c>
+      <c r="G84" t="s">
+        <v>180</v>
+      </c>
       <c r="H84" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -2265,19 +2446,25 @@
         <v>X</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
       <c r="B86" t="s">
         <v>99</v>
       </c>
+      <c r="G86" t="s">
+        <v>180</v>
+      </c>
       <c r="H86" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -2289,7 +2476,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -2303,10 +2490,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I88">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="7">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2318,11 +2503,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2366,6 +2551,9 @@
       <c r="F1" s="3" t="s">
         <v>188</v>
       </c>
+      <c r="G1" s="10" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -2379,7 +2567,7 @@
       </c>
       <c r="D2" s="7" t="str">
         <f>VLOOKUP(A2,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+</v>
+        <v>+/-MORT</v>
       </c>
       <c r="E2" s="6">
         <v>45700000</v>
@@ -2387,9 +2575,12 @@
       <c r="F2" s="7">
         <v>1001094433</v>
       </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="11">
+        <f>F2*1.25</f>
+        <v>1251368041.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -2399,20 +2590,23 @@
       <c r="C3" s="7">
         <v>2124041.1490000002</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="7" t="str">
         <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>+/-MORT</v>
       </c>
       <c r="E3" s="6">
         <v>2124041.1490000002</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
+      <c r="G3" s="11">
+        <f>E3*1.25</f>
+        <v>2655051.4362500003</v>
+      </c>
       <c r="K3" s="5"/>
       <c r="M3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -2422,15 +2616,17 @@
       <c r="C4" s="7">
         <v>114181041.2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="7" t="str">
         <f>VLOOKUP(A4,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>+</v>
       </c>
       <c r="E4" s="6">
         <v>19030174.25</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="7">
+        <v>114181041.2</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -2464,7 +2660,7 @@
       </c>
       <c r="D6" s="7" t="str">
         <f>VLOOKUP(A6,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>-/MORT</v>
       </c>
       <c r="E6" s="6">
         <v>1718757.3940000001</v>
@@ -2473,9 +2669,11 @@
         <f>E6*0.5</f>
         <v>859378.69700000004</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="11">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -2485,15 +2683,18 @@
       <c r="C7" s="7">
         <v>16477555.609999999</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="7" t="str">
         <f>VLOOKUP(A7,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>+/-MORT</v>
       </c>
       <c r="E7" s="6">
         <v>993066.96089999995</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="7">
+        <f>C7*0.75</f>
+        <v>12358166.7075</v>
+      </c>
       <c r="K7" s="11"/>
       <c r="M7" s="11"/>
     </row>
@@ -2527,9 +2728,9 @@
       <c r="C9" s="7">
         <v>32122718.550000001</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="7" t="str">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>PRED</v>
       </c>
       <c r="E9" s="6">
         <v>321227180.55000001</v>
@@ -2550,9 +2751,9 @@
       <c r="C10" s="7">
         <v>2123.8950410000002</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="7" t="str">
         <f>VLOOKUP(A10,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>DIET</v>
       </c>
       <c r="E10" s="6">
         <v>2123.8950410000002</v>
@@ -2570,9 +2771,9 @@
       <c r="C11" s="7">
         <v>74822.192989999996</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="7" t="str">
         <f>VLOOKUP(A11,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>DIET/-MORT</v>
       </c>
       <c r="E11" s="6">
         <v>74822.192989999996</v>
@@ -2583,7 +2784,7 @@
       <c r="M11" s="11"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
@@ -2593,15 +2794,17 @@
       <c r="C12" s="7">
         <v>235.45910710000001</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="7" t="str">
         <f>VLOOKUP(A12,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>REVERT</v>
       </c>
       <c r="E12" s="6">
         <v>10</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11">
+        <v>235</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
@@ -2635,7 +2838,7 @@
       </c>
       <c r="D14" s="7" t="str">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>-/+M,ORT</v>
       </c>
       <c r="E14" s="6">
         <v>176000000</v>
@@ -2644,7 +2847,9 @@
         <f>E14*0.75</f>
         <v>132000000</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="6">
+        <v>176000000</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
@@ -2678,7 +2883,7 @@
       </c>
       <c r="D16" s="7" t="str">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>+/MORT</v>
       </c>
       <c r="E16" s="6">
         <v>100000</v>
@@ -2687,12 +2892,14 @@
         <f>E16*0.75</f>
         <v>75000</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="6">
+        <v>100000</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -2702,20 +2909,22 @@
       <c r="C17" s="7">
         <v>21996106.07</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="7" t="str">
         <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>+/-MORT</v>
       </c>
       <c r="E17" s="6">
         <v>4000000</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="11">
+        <v>10000000</v>
+      </c>
       <c r="K17" s="5"/>
       <c r="M17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
@@ -2725,15 +2934,17 @@
       <c r="C18" s="7">
         <v>17230050.359999999</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="7" t="str">
         <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>-/MORT</v>
       </c>
       <c r="E18" s="6">
         <v>8500000</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="11">
+        <v>10000000</v>
+      </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
@@ -2770,9 +2981,9 @@
       <c r="C20" s="7">
         <v>432544359.30000001</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="7" t="str">
         <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>MORT</v>
       </c>
       <c r="E20" s="6">
         <v>2430000</v>
@@ -2782,7 +2993,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -2792,9 +3003,9 @@
       <c r="C21" s="7">
         <v>0.05</v>
       </c>
-      <c r="D21" s="7" t="str">
+      <c r="D21" s="7">
         <f>VLOOKUP(A21,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="E21" s="6">
         <v>3.5000000000000003E-2</v>
@@ -2805,7 +3016,7 @@
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>61</v>
       </c>
@@ -2815,17 +3026,19 @@
       <c r="C22" s="7">
         <v>747577.53830000001</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="7" t="str">
         <f>VLOOKUP(A22,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>-/+MORT</v>
       </c>
       <c r="E22" s="6">
         <v>197000</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="11">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>42</v>
       </c>
@@ -2835,18 +3048,20 @@
       <c r="C23" s="7">
         <v>172649603.19999999</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="7" t="str">
         <f>VLOOKUP(A23,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>+/-MORT</v>
       </c>
       <c r="E23" s="6">
         <v>49700000</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="11">
+        <v>100000000</v>
+      </c>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>62</v>
       </c>
@@ -2856,9 +3071,9 @@
       <c r="C24" s="7">
         <v>0.05</v>
       </c>
-      <c r="D24" s="7" t="str">
+      <c r="D24" s="7">
         <f>VLOOKUP(A24,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="E24" s="6">
         <v>3.5000000000000003E-2</v>
@@ -2880,9 +3095,9 @@
       <c r="C25" s="7">
         <v>932233758.39999998</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="7" t="str">
         <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>PRED</v>
       </c>
       <c r="E25" s="6">
         <v>532233758.39999998</v>
@@ -2890,7 +3105,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
@@ -2900,15 +3115,17 @@
       <c r="C26" s="7">
         <v>749.83099549999997</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="7" t="str">
         <f>VLOOKUP(A26,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>REVERT</v>
       </c>
       <c r="E26" s="6">
         <v>100</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="7">
+        <v>749.83099549999997</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
@@ -2962,7 +3179,7 @@
       </c>
       <c r="D29" s="7" t="str">
         <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>-/+MORT</v>
       </c>
       <c r="E29" s="6">
         <v>150000</v>
@@ -2970,7 +3187,9 @@
       <c r="F29" s="6">
         <v>100000</v>
       </c>
-      <c r="G29" s="11"/>
+      <c r="G29" s="11">
+        <v>200000</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
@@ -3024,9 +3243,9 @@
       <c r="C32" s="7">
         <v>22940055.34</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="7" t="str">
         <f>VLOOKUP(A32,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>-/MORT</v>
       </c>
       <c r="E32" s="6">
         <v>22940055.34</v>
@@ -3186,9 +3405,9 @@
       <c r="C40" s="7">
         <v>28898.867849999999</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="7" t="str">
         <f>VLOOKUP(A40,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>REVERT</v>
       </c>
       <c r="E40" s="6">
         <v>28898.867849999999</v>
@@ -3256,7 +3475,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>57</v>
       </c>
@@ -3266,17 +3485,19 @@
       <c r="C44" s="7">
         <v>53.609603989999997</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="7" t="str">
         <f>VLOOKUP(A44,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>REVERT</v>
       </c>
       <c r="E44" s="6">
         <v>20</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -3286,15 +3507,17 @@
       <c r="C45" s="7">
         <v>16705.027440000002</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="7" t="str">
         <f>VLOOKUP(A45,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>-/+MORT</v>
       </c>
       <c r="E45" s="6">
         <v>75000</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="11"/>
+      <c r="G45" s="7">
+        <v>16705.027440000002</v>
+      </c>
       <c r="P45" s="5"/>
     </row>
     <row r="46" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3317,7 +3540,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>54</v>
       </c>
@@ -3327,17 +3550,19 @@
       <c r="C47" s="7">
         <v>10723808.939999999</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="7" t="str">
         <f>VLOOKUP(A47,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>REVERT/-MORT</v>
       </c>
       <c r="E47" s="6">
         <v>357460.29800000001</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="7">
+        <v>10723808.939999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>26</v>
       </c>
@@ -3347,17 +3572,19 @@
       <c r="C48" s="7">
         <v>2957397.3650000002</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="7" t="str">
         <f>VLOOKUP(A48,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>-/+MORT</v>
       </c>
       <c r="E48" s="6">
         <v>4928995.608</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G48" s="7">
+        <v>2957397.3650000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>27</v>
       </c>
@@ -3367,15 +3594,17 @@
       <c r="C49" s="7">
         <v>361154520.60000002</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="7" t="str">
         <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>+/-MORT</v>
       </c>
       <c r="E49" s="6">
         <v>72230904</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="11"/>
+      <c r="G49" s="7">
+        <v>361154520.60000002</v>
+      </c>
     </row>
     <row r="50" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
@@ -3389,7 +3618,7 @@
       </c>
       <c r="D50" s="7" t="str">
         <f>VLOOKUP(A50,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>ORIG</v>
+        <v>REVERT</v>
       </c>
       <c r="E50" s="6">
         <v>7496.955054</v>
@@ -3397,7 +3626,9 @@
       <c r="F50" s="6">
         <v>10000</v>
       </c>
-      <c r="G50" s="11"/>
+      <c r="G50" s="7">
+        <v>7496.955054</v>
+      </c>
       <c r="O50" s="5"/>
     </row>
     <row r="51" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3410,9 +3641,9 @@
       <c r="C51" s="7">
         <v>5700290.8640000001</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="7" t="str">
         <f>VLOOKUP(A51,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>MORT</v>
       </c>
       <c r="E51" s="6">
         <v>5700290.8640000001</v>
@@ -3432,7 +3663,7 @@
       </c>
       <c r="D52" s="7" t="str">
         <f>VLOOKUP(A52,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>-/+MORT</v>
       </c>
       <c r="E52" s="6">
         <v>250000</v>
@@ -3440,9 +3671,11 @@
       <c r="F52" s="6">
         <v>200000</v>
       </c>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="6">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>37</v>
       </c>
@@ -3452,15 +3685,17 @@
       <c r="C53" s="7">
         <v>233447.39780000001</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="7" t="str">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>+/-MORT</v>
       </c>
       <c r="E53" s="6">
         <v>58361.849450000002</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="11"/>
+      <c r="G53" s="7">
+        <v>233447.39780000001</v>
+      </c>
     </row>
     <row r="54" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
@@ -3474,7 +3709,7 @@
       </c>
       <c r="D54" s="7" t="str">
         <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>-/PRED/MORT</v>
       </c>
       <c r="E54" s="6">
         <v>1001250</v>
@@ -3482,7 +3717,9 @@
       <c r="F54" s="6">
         <v>750000</v>
       </c>
-      <c r="G54" s="11"/>
+      <c r="G54" s="7">
+        <v>1053704.304</v>
+      </c>
     </row>
     <row r="55" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
@@ -3496,7 +3733,7 @@
       </c>
       <c r="D55" s="7" t="str">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-</v>
+        <v>-/+MORT</v>
       </c>
       <c r="E55" s="6">
         <v>125000</v>
@@ -3504,7 +3741,9 @@
       <c r="F55" s="6">
         <v>100000</v>
       </c>
-      <c r="G55" s="11"/>
+      <c r="G55" s="11">
+        <v>150000</v>
+      </c>
     </row>
     <row r="56" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
@@ -3518,7 +3757,7 @@
       </c>
       <c r="D56" s="7" t="str">
         <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+</v>
+        <v>-MORT/PRED</v>
       </c>
       <c r="E56" s="6">
         <v>639000</v>
@@ -3526,7 +3765,9 @@
       <c r="F56" s="6">
         <v>1000000</v>
       </c>
-      <c r="G56" s="11"/>
+      <c r="G56" s="7">
+        <v>40960.04507</v>
+      </c>
       <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3539,9 +3780,9 @@
       <c r="C57" s="7">
         <v>71.004761549999998</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="7" t="str">
         <f>VLOOKUP(A57,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>REVERT</v>
       </c>
       <c r="E57" s="6">
         <v>71.004761549999998</v>
@@ -3559,9 +3800,9 @@
       <c r="C58" s="7">
         <v>52020187.369999997</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="7" t="str">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>+/-MORT</v>
       </c>
       <c r="E58" s="6">
         <v>52020187.369999997</v>
@@ -3569,7 +3810,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>13</v>
       </c>
@@ -3579,17 +3820,19 @@
       <c r="C59" s="7">
         <v>14975339.800000001</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="7" t="str">
         <f>VLOOKUP(A59,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>+/-MORT</v>
       </c>
       <c r="E59" s="6">
         <v>747664.42</v>
       </c>
       <c r="F59" s="6"/>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G59" s="11">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>15</v>
       </c>
@@ -3599,15 +3842,17 @@
       <c r="C60" s="7">
         <v>3738776.034</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="7" t="str">
         <f>VLOOKUP(A60,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>+/-MORT</v>
       </c>
       <c r="E60" s="6">
         <v>1080000</v>
       </c>
       <c r="F60" s="6"/>
-      <c r="G60" s="11"/>
+      <c r="G60" s="11">
+        <v>2000000</v>
+      </c>
     </row>
     <row r="61" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
@@ -3629,7 +3874,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>16</v>
       </c>
@@ -3639,15 +3884,17 @@
       <c r="C62" s="7">
         <v>20265685.109999999</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="7" t="str">
         <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>+/-MORT</v>
       </c>
       <c r="E62" s="6">
         <v>10265685.109999999</v>
       </c>
       <c r="F62" s="6"/>
-      <c r="G62" s="11"/>
+      <c r="G62" s="11">
+        <v>15000000</v>
+      </c>
     </row>
     <row r="63" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
@@ -3729,13 +3976,2639 @@
   <autoFilter ref="A1:O68">
     <filterColumn colId="3">
       <filters>
-        <filter val="-"/>
+        <filter val="-/+M,ORT"/>
+        <filter val="-/+MORT"/>
+        <filter val="-/MORT"/>
+        <filter val="-/PRED/MORT"/>
         <filter val="+"/>
-        <filter val="ORIG"/>
+        <filter val="+/MORT"/>
+        <filter val="+/-MORT"/>
+        <filter val="DIET"/>
+        <filter val="DIET/-MORT"/>
+        <filter val="MORT"/>
+        <filter val="-MORT/PRED"/>
+        <filter val="PRED"/>
+        <filter val="REVERT"/>
+        <filter val="REVERT/-MORT"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="str">
+        <f>VLOOKUP(A2,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4">
+        <v>7.9999999999999998E-12</v>
+      </c>
+      <c r="D4">
+        <v>7.9999999999999998E-12</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f>VLOOKUP(A4,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <f>VLOOKUP(A5,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f>VLOOKUP(A6,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/MORT</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7">
+        <v>8.2499999999999999E-11</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f>VLOOKUP(A7,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1E-13</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <f>VLOOKUP(A8,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9">
+        <v>9E-13</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>PRED</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f>VLOOKUP(A10,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>DIET</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f>VLOOKUP(A11,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>DIET/-MORT</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12">
+        <v>1.0999999999999999E-8</v>
+      </c>
+      <c r="D12">
+        <v>1.0999999999999999E-8</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f>VLOOKUP(A12,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>REVERT</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <f>VLOOKUP(A13,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/+M,ORT</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <f>VLOOKUP(A15,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/MORT</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17">
+        <v>7.9999999999999998E-12</v>
+      </c>
+      <c r="D17">
+        <v>7.9999999999999998E-12</v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="str">
+        <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/MORT</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <f>VLOOKUP(A19,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="str">
+        <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>MORT</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D21">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E21" s="7">
+        <f>VLOOKUP(A21,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="str">
+        <f>VLOOKUP(A22,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/+MORT</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="str">
+        <f>VLOOKUP(A23,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D24">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E24" s="7">
+        <f>VLOOKUP(A24,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="str">
+        <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>PRED</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="D26">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="E26" s="7" t="str">
+        <f>VLOOKUP(A26,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>REVERT</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27">
+        <v>6.9999999999999997E-7</v>
+      </c>
+      <c r="D27">
+        <v>6.9999999999999997E-7</v>
+      </c>
+      <c r="E27" s="7">
+        <f>VLOOKUP(A27,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <f>VLOOKUP(A28,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="str">
+        <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/+MORT</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30">
+        <v>1E-10</v>
+      </c>
+      <c r="D30">
+        <v>1E-10</v>
+      </c>
+      <c r="E30" s="7">
+        <f>VLOOKUP(A30,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31">
+        <v>6.7499999999999997E-6</v>
+      </c>
+      <c r="D31">
+        <v>6.7499999999999997E-6</v>
+      </c>
+      <c r="E31" s="7">
+        <f>VLOOKUP(A31,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="str">
+        <f>VLOOKUP(A32,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/MORT</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <f>VLOOKUP(A33,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34">
+        <v>7.9999999999999998E-12</v>
+      </c>
+      <c r="D34">
+        <v>7.9999999999999998E-12</v>
+      </c>
+      <c r="E34" s="7">
+        <f>VLOOKUP(A34,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <f>VLOOKUP(A35,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36">
+        <v>1E-10</v>
+      </c>
+      <c r="D36">
+        <v>1E-10</v>
+      </c>
+      <c r="E36" s="7">
+        <f>VLOOKUP(A36,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7">
+        <f>VLOOKUP(A37,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38">
+        <v>6.7499999999999997E-6</v>
+      </c>
+      <c r="D38">
+        <v>6.7499999999999997E-6</v>
+      </c>
+      <c r="E38" s="7">
+        <f>VLOOKUP(A38,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7">
+        <f>VLOOKUP(A39,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40">
+        <v>8.9999999999999996E-7</v>
+      </c>
+      <c r="D40">
+        <v>8.9999999999999996E-7</v>
+      </c>
+      <c r="E40" s="7" t="str">
+        <f>VLOOKUP(A40,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>REVERT</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <f>VLOOKUP(A41,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <f>VLOOKUP(A42,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <f>VLOOKUP(A43,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44">
+        <v>1.0999999999999999E-8</v>
+      </c>
+      <c r="D44">
+        <v>1.0999999999999999E-8</v>
+      </c>
+      <c r="E44" s="7" t="str">
+        <f>VLOOKUP(A44,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>REVERT</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7" t="str">
+        <f>VLOOKUP(A45,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/+MORT</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7">
+        <f>VLOOKUP(A46,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="7" t="str">
+        <f>VLOOKUP(A47,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>REVERT/-MORT</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48">
+        <v>9E-13</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" s="7" t="str">
+        <f>VLOOKUP(A48,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/+MORT</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7" t="str">
+        <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50">
+        <v>2E-8</v>
+      </c>
+      <c r="D50">
+        <v>2E-8</v>
+      </c>
+      <c r="E50" s="7" t="str">
+        <f>VLOOKUP(A50,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>REVERT</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7" t="str">
+        <f>VLOOKUP(A51,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>MORT</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" s="7" t="str">
+        <f>VLOOKUP(A52,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/+MORT</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7" t="str">
+        <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7" t="str">
+        <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/PRED/MORT</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" s="7" t="str">
+        <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/+MORT</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" s="7" t="str">
+        <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-MORT/PRED</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57">
+        <v>2E-8</v>
+      </c>
+      <c r="D57">
+        <v>2E-8</v>
+      </c>
+      <c r="E57" s="7" t="str">
+        <f>VLOOKUP(A57,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>REVERT</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58">
+        <v>3.8000000000000001E-9</v>
+      </c>
+      <c r="D58">
+        <v>3.8000000000000001E-9</v>
+      </c>
+      <c r="E58" s="7" t="str">
+        <f>VLOOKUP(A58,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" s="7" t="str">
+        <f>VLOOKUP(A59,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" s="7" t="str">
+        <f>VLOOKUP(A60,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61">
+        <v>1E-10</v>
+      </c>
+      <c r="D61">
+        <v>1E-10</v>
+      </c>
+      <c r="E61" s="7">
+        <f>VLOOKUP(A61,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" s="7" t="str">
+        <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="7">
+        <f>VLOOKUP(A63,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64">
+        <v>5.0000000000000004E-19</v>
+      </c>
+      <c r="D64">
+        <v>5.0000000000000004E-19</v>
+      </c>
+      <c r="E64" s="7">
+        <f>VLOOKUP(A64,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G64"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45:XFD45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D2">
+        <v>3E-10</v>
+      </c>
+      <c r="E2" s="7" t="str">
+        <f>VLOOKUP(A2,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+      <c r="F2">
+        <f>C2*0.75</f>
+        <v>2.25E-13</v>
+      </c>
+      <c r="G2" s="14">
+        <f>D2*0.75</f>
+        <v>2.25E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>9.25E-13</v>
+      </c>
+      <c r="D3">
+        <v>1.8E-9</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+      <c r="F3">
+        <f>C3*0.75</f>
+        <v>6.9374999999999995E-13</v>
+      </c>
+      <c r="G3" s="14">
+        <f>D3*0.75</f>
+        <v>1.3500000000000001E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4">
+        <v>2.25E-11</v>
+      </c>
+      <c r="D4">
+        <v>1.8E-10</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f>VLOOKUP(A4,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="D5">
+        <v>2E-8</v>
+      </c>
+      <c r="E5" s="7">
+        <f>VLOOKUP(A5,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D6">
+        <v>3E-10</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f>VLOOKUP(A6,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/MORT</v>
+      </c>
+      <c r="F6">
+        <f>C6*1.25</f>
+        <v>3.7499999999999997E-13</v>
+      </c>
+      <c r="G6" s="14">
+        <f>D6*1.25</f>
+        <v>3.75E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7">
+        <v>1.5E-11</v>
+      </c>
+      <c r="D7">
+        <v>7.8999999999999996E-9</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f>VLOOKUP(A7,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+      <c r="F7">
+        <f>C7*0.75</f>
+        <v>1.125E-11</v>
+      </c>
+      <c r="G7" s="14">
+        <f>D7*0.75</f>
+        <v>5.9250000000000001E-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <v>1E-14</v>
+      </c>
+      <c r="D8">
+        <v>1E-14</v>
+      </c>
+      <c r="E8" s="7">
+        <f>VLOOKUP(A8,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9">
+        <v>1E-14</v>
+      </c>
+      <c r="D9">
+        <v>8.0000000000000002E-13</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>PRED</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1.4999999999999999E-14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D10">
+        <v>3E-10</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f>VLOOKUP(A10,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>DIET</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D11">
+        <v>3E-10</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f>VLOOKUP(A11,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>DIET/-MORT</v>
+      </c>
+      <c r="G11" s="14">
+        <v>3E-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12">
+        <v>1.5E-6</v>
+      </c>
+      <c r="D12">
+        <v>3.15E-5</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f>VLOOKUP(A12,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>REVERT</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="D13">
+        <v>2E-8</v>
+      </c>
+      <c r="E13" s="7">
+        <f>VLOOKUP(A13,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14">
+        <v>1E-14</v>
+      </c>
+      <c r="D14">
+        <v>1E-13</v>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/+M,ORT</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1E-13</v>
+      </c>
+      <c r="G14" s="14">
+        <v>2.0000000000000001E-13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15">
+        <v>1E-8</v>
+      </c>
+      <c r="D15">
+        <v>4.4999999999999999E-8</v>
+      </c>
+      <c r="E15" s="7">
+        <f>VLOOKUP(A15,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D16">
+        <v>3E-10</v>
+      </c>
+      <c r="E16" s="7" t="str">
+        <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/MORT</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1E-13</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1E-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17">
+        <v>2.25E-11</v>
+      </c>
+      <c r="D17">
+        <v>1.8E-10</v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+      <c r="F17">
+        <f>C17*0.5</f>
+        <v>1.125E-11</v>
+      </c>
+      <c r="G17" s="14">
+        <f>D17*0.5</f>
+        <v>8.9999999999999999E-11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18">
+        <v>5.1999999999999996E-10</v>
+      </c>
+      <c r="D18">
+        <v>3.2000000000000001E-9</v>
+      </c>
+      <c r="E18" s="7" t="str">
+        <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/MORT</v>
+      </c>
+      <c r="F18">
+        <f>C18*1.25</f>
+        <v>6.4999999999999993E-10</v>
+      </c>
+      <c r="G18" s="14">
+        <f>D18*1.25</f>
+        <v>4.0000000000000002E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>5.1999999999999996E-10</v>
+      </c>
+      <c r="D19">
+        <v>3.2000000000000001E-9</v>
+      </c>
+      <c r="E19" s="7">
+        <f>VLOOKUP(A19,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="D20">
+        <v>8.5E-9</v>
+      </c>
+      <c r="E20" s="7" t="str">
+        <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>MORT</v>
+      </c>
+      <c r="F20">
+        <f>C20*0.5</f>
+        <v>1.25E-11</v>
+      </c>
+      <c r="G20" s="14">
+        <f>D20*0.5</f>
+        <v>4.25E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21">
+        <v>1.47E-3</v>
+      </c>
+      <c r="D21">
+        <v>1.7600000000000001E-3</v>
+      </c>
+      <c r="E21" s="7">
+        <f>VLOOKUP(A21,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D22">
+        <v>3E-10</v>
+      </c>
+      <c r="E22" s="7" t="str">
+        <f>VLOOKUP(A22,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/+MORT</v>
+      </c>
+      <c r="F22">
+        <f>C22*1.5</f>
+        <v>4.5E-13</v>
+      </c>
+      <c r="G22" s="14">
+        <f>D22*1.5</f>
+        <v>4.5E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23">
+        <v>2.6499999999999999E-11</v>
+      </c>
+      <c r="D23">
+        <v>4.0000000000000002E-9</v>
+      </c>
+      <c r="E23" s="7" t="str">
+        <f>VLOOKUP(A23,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+      <c r="F23">
+        <f>C23*0.75</f>
+        <v>1.9874999999999999E-11</v>
+      </c>
+      <c r="G23" s="14">
+        <f>D23*0.75</f>
+        <v>3.0000000000000004E-9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24">
+        <v>1.47E-3</v>
+      </c>
+      <c r="D24">
+        <v>1.7600000000000001E-3</v>
+      </c>
+      <c r="E24" s="7">
+        <f>VLOOKUP(A24,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25">
+        <v>1E-14</v>
+      </c>
+      <c r="D25">
+        <v>2.4999999999999998E-12</v>
+      </c>
+      <c r="E25" s="7" t="str">
+        <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>PRED</v>
+      </c>
+      <c r="F25">
+        <f>C25*1.25</f>
+        <v>1.25E-14</v>
+      </c>
+      <c r="G25" s="14">
+        <f>D25*1.25</f>
+        <v>3.1249999999999997E-12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26">
+        <v>5.5000000000000003E-7</v>
+      </c>
+      <c r="D26">
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="E26" s="7" t="str">
+        <f>VLOOKUP(A26,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>REVERT</v>
+      </c>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27">
+        <v>4.0000000000000002E-9</v>
+      </c>
+      <c r="D27">
+        <v>4.4999999999999998E-9</v>
+      </c>
+      <c r="E27" s="7">
+        <f>VLOOKUP(A27,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D28">
+        <v>3E-10</v>
+      </c>
+      <c r="E28" s="7">
+        <f>VLOOKUP(A28,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29">
+        <v>5.1999999999999996E-10</v>
+      </c>
+      <c r="D29">
+        <v>3.2000000000000001E-9</v>
+      </c>
+      <c r="E29" s="7" t="str">
+        <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/+MORT</v>
+      </c>
+      <c r="F29">
+        <f>C29*1.5</f>
+        <v>7.7999999999999999E-10</v>
+      </c>
+      <c r="G29" s="14">
+        <f>D29*1.5</f>
+        <v>4.8E-9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30">
+        <v>5.0000000000000003E-10</v>
+      </c>
+      <c r="D30">
+        <v>2.5000000000000001E-9</v>
+      </c>
+      <c r="E30" s="7">
+        <f>VLOOKUP(A30,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31">
+        <v>1.7700000000000001E-3</v>
+      </c>
+      <c r="D31">
+        <v>1.7700000000000001E-3</v>
+      </c>
+      <c r="E31" s="7">
+        <f>VLOOKUP(A31,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D32">
+        <v>3E-10</v>
+      </c>
+      <c r="E32" s="7" t="str">
+        <f>VLOOKUP(A32,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/MORT</v>
+      </c>
+      <c r="F32">
+        <f>C32*1.5</f>
+        <v>4.5E-13</v>
+      </c>
+      <c r="G32" s="14">
+        <f>D32*1.5</f>
+        <v>4.5E-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D33">
+        <v>3E-10</v>
+      </c>
+      <c r="E33" s="7">
+        <f>VLOOKUP(A33,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34">
+        <v>2.25E-11</v>
+      </c>
+      <c r="D34">
+        <v>1.8E-10</v>
+      </c>
+      <c r="E34" s="7">
+        <f>VLOOKUP(A34,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35">
+        <v>4.9999999999999999E-13</v>
+      </c>
+      <c r="D35">
+        <v>3.4999999999999998E-10</v>
+      </c>
+      <c r="E35" s="7">
+        <f>VLOOKUP(A35,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36">
+        <v>5.0000000000000003E-10</v>
+      </c>
+      <c r="D36">
+        <v>2.5000000000000001E-9</v>
+      </c>
+      <c r="E36" s="7">
+        <f>VLOOKUP(A36,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37">
+        <v>1E-8</v>
+      </c>
+      <c r="D37">
+        <v>4.4999999999999999E-8</v>
+      </c>
+      <c r="E37" s="7">
+        <f>VLOOKUP(A37,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38">
+        <v>1.7700000000000001E-3</v>
+      </c>
+      <c r="D38">
+        <v>1.7700000000000001E-3</v>
+      </c>
+      <c r="E38" s="7">
+        <f>VLOOKUP(A38,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="D39">
+        <v>2E-8</v>
+      </c>
+      <c r="E39" s="7">
+        <f>VLOOKUP(A39,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40">
+        <v>1.4999999999999999E-7</v>
+      </c>
+      <c r="D40">
+        <v>6.8999999999999996E-7</v>
+      </c>
+      <c r="E40" s="7" t="str">
+        <f>VLOOKUP(A40,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>REVERT</v>
+      </c>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41">
+        <v>5.1999999999999996E-10</v>
+      </c>
+      <c r="D41">
+        <v>3.2000000000000001E-9</v>
+      </c>
+      <c r="E41" s="7">
+        <f>VLOOKUP(A41,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42">
+        <v>1E-8</v>
+      </c>
+      <c r="D42">
+        <v>4.4999999999999999E-8</v>
+      </c>
+      <c r="E42" s="7">
+        <f>VLOOKUP(A42,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D43">
+        <v>3E-10</v>
+      </c>
+      <c r="E43" s="7">
+        <f>VLOOKUP(A43,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44">
+        <v>1.5E-6</v>
+      </c>
+      <c r="D44">
+        <v>3.15E-5</v>
+      </c>
+      <c r="E44" s="7" t="str">
+        <f>VLOOKUP(A44,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>REVERT</v>
+      </c>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45">
+        <v>4.9999999999999999E-13</v>
+      </c>
+      <c r="D45">
+        <v>3.4999999999999998E-10</v>
+      </c>
+      <c r="E45" s="7" t="str">
+        <f>VLOOKUP(A45,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/+MORT</v>
+      </c>
+      <c r="F45">
+        <f>C45*1.5</f>
+        <v>7.5000000000000004E-13</v>
+      </c>
+      <c r="G45" s="14">
+        <f>D45*1.5</f>
+        <v>5.2499999999999994E-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D46">
+        <v>3E-10</v>
+      </c>
+      <c r="E46" s="7">
+        <f>VLOOKUP(A46,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47">
+        <v>4.3000000000000001E-7</v>
+      </c>
+      <c r="D47">
+        <v>1.3E-6</v>
+      </c>
+      <c r="E47" s="7" t="str">
+        <f>VLOOKUP(A47,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>REVERT/-MORT</v>
+      </c>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48">
+        <v>1E-14</v>
+      </c>
+      <c r="D48">
+        <v>8.0000000000000002E-13</v>
+      </c>
+      <c r="E48" s="7" t="str">
+        <f>VLOOKUP(A48,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/+MORT</v>
+      </c>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49">
+        <v>1.5E-11</v>
+      </c>
+      <c r="D49">
+        <v>2.6000000000000001E-9</v>
+      </c>
+      <c r="E49" s="7" t="str">
+        <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50">
+        <v>4.5000000000000001E-6</v>
+      </c>
+      <c r="D50">
+        <v>1.5E-5</v>
+      </c>
+      <c r="E50" s="7" t="str">
+        <f>VLOOKUP(A50,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>REVERT</v>
+      </c>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D51">
+        <v>3E-10</v>
+      </c>
+      <c r="E51" s="7" t="str">
+        <f>VLOOKUP(A51,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>MORT</v>
+      </c>
+      <c r="F51">
+        <f>C51*0.75</f>
+        <v>2.25E-13</v>
+      </c>
+      <c r="G51" s="14">
+        <f>D51*0.75</f>
+        <v>2.25E-10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52">
+        <v>4.9999999999999999E-13</v>
+      </c>
+      <c r="D52">
+        <v>3.4999999999999998E-10</v>
+      </c>
+      <c r="E52" s="7" t="str">
+        <f>VLOOKUP(A52,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/+MORT</v>
+      </c>
+      <c r="F52">
+        <f>C52*1.5</f>
+        <v>7.5000000000000004E-13</v>
+      </c>
+      <c r="G52" s="14">
+        <f>D52*1.5</f>
+        <v>5.2499999999999994E-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D53">
+        <v>3E-10</v>
+      </c>
+      <c r="E53" s="7" t="str">
+        <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54">
+        <v>5.1999999999999996E-10</v>
+      </c>
+      <c r="D54">
+        <v>3.2000000000000001E-9</v>
+      </c>
+      <c r="E54" s="7" t="str">
+        <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/PRED/MORT</v>
+      </c>
+      <c r="F54">
+        <f>C54*1.25</f>
+        <v>6.4999999999999993E-10</v>
+      </c>
+      <c r="G54" s="14">
+        <f>D54*1.25</f>
+        <v>4.0000000000000002E-9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D55">
+        <v>3E-10</v>
+      </c>
+      <c r="E55" s="7" t="str">
+        <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-/+MORT</v>
+      </c>
+      <c r="F55">
+        <f>C55*2</f>
+        <v>5.9999999999999997E-13</v>
+      </c>
+      <c r="G55" s="14">
+        <f>D55*2</f>
+        <v>6E-10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D56">
+        <v>3E-10</v>
+      </c>
+      <c r="E56" s="7" t="str">
+        <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>-MORT/PRED</v>
+      </c>
+      <c r="F56">
+        <f>C56/2</f>
+        <v>1.4999999999999999E-13</v>
+      </c>
+      <c r="G56" s="14">
+        <f>D56/2</f>
+        <v>1.5E-10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57">
+        <v>4.5000000000000001E-6</v>
+      </c>
+      <c r="D57">
+        <v>1.5E-5</v>
+      </c>
+      <c r="E57" s="7" t="str">
+        <f>VLOOKUP(A57,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>REVERT</v>
+      </c>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58">
+        <v>2.7499999999999998E-9</v>
+      </c>
+      <c r="D58">
+        <v>3.7499999999999998E-8</v>
+      </c>
+      <c r="E58" s="7" t="str">
+        <f>VLOOKUP(A58,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+      <c r="F58" s="14">
+        <v>1E-10</v>
+      </c>
+      <c r="G58" s="14">
+        <v>1.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59">
+        <v>5.1999999999999996E-10</v>
+      </c>
+      <c r="D59">
+        <v>3.2000000000000001E-9</v>
+      </c>
+      <c r="E59" s="7" t="str">
+        <f>VLOOKUP(A59,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+      <c r="F59">
+        <f>C59*0.5</f>
+        <v>2.5999999999999998E-10</v>
+      </c>
+      <c r="G59" s="14">
+        <f>D59*0.5</f>
+        <v>1.6000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60">
+        <v>5.1999999999999996E-10</v>
+      </c>
+      <c r="D60">
+        <v>3.2000000000000001E-9</v>
+      </c>
+      <c r="E60" s="7" t="str">
+        <f>VLOOKUP(A60,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+      <c r="F60">
+        <f>C60*0.5</f>
+        <v>2.5999999999999998E-10</v>
+      </c>
+      <c r="G60" s="14">
+        <f>D60*0.5</f>
+        <v>1.6000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61">
+        <v>5.0000000000000003E-10</v>
+      </c>
+      <c r="D61">
+        <v>2.5000000000000001E-9</v>
+      </c>
+      <c r="E61" s="7">
+        <f>VLOOKUP(A61,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62">
+        <v>5.1999999999999996E-10</v>
+      </c>
+      <c r="D62">
+        <v>3.2000000000000001E-9</v>
+      </c>
+      <c r="E62" s="7" t="str">
+        <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>+/-MORT</v>
+      </c>
+      <c r="F62">
+        <f>C62*0.5</f>
+        <v>2.5999999999999998E-10</v>
+      </c>
+      <c r="G62" s="14">
+        <f>D62*0.5</f>
+        <v>1.6000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="D63">
+        <v>3E-10</v>
+      </c>
+      <c r="E63" s="7">
+        <f>VLOOKUP(A63,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="D64">
+        <v>1.9000000000000001E-9</v>
+      </c>
+      <c r="E64" s="7">
+        <f>VLOOKUP(A64,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G64"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G64">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Group Condition" sheetId="1" r:id="rId1"/>
-    <sheet name="Recruitment_Log" sheetId="3" r:id="rId2"/>
-    <sheet name="mL-Log" sheetId="4" r:id="rId3"/>
-    <sheet name="mQ-log" sheetId="5" r:id="rId4"/>
+    <sheet name="Crash Diagnosis" sheetId="6" r:id="rId2"/>
+    <sheet name="Recruitment_Log" sheetId="3" r:id="rId3"/>
+    <sheet name="mL-Log" sheetId="4" r:id="rId4"/>
+    <sheet name="mQ-log" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Crash Diagnosis'!$A$1:$J$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Group Condition'!$A$1:$I$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'mL-Log'!$A$1:$G$64</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'mQ-log'!$A$1:$G$64</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Recruitment_Log!$A$1:$O$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'mL-Log'!$A$1:$G$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'mQ-log'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Recruitment_Log!$A$1:$O$68</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="288">
   <si>
     <t>Too Low</t>
   </si>
@@ -602,48 +604,6 @@
     <t>ReducePred9_DKENR</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>REVERT</t>
-  </si>
-  <si>
-    <t>PRED</t>
-  </si>
-  <si>
-    <t>-/MORT</t>
-  </si>
-  <si>
-    <t>MORT</t>
-  </si>
-  <si>
-    <t>+/MORT</t>
-  </si>
-  <si>
-    <t>REVERT/-MORT</t>
-  </si>
-  <si>
-    <t>+/-MORT</t>
-  </si>
-  <si>
-    <t>-/+MORT</t>
-  </si>
-  <si>
-    <t>-/+M,ORT</t>
-  </si>
-  <si>
-    <t>-/PRED/MORT</t>
-  </si>
-  <si>
-    <t>-MORT/PRED</t>
-  </si>
-  <si>
-    <t>DIET</t>
-  </si>
-  <si>
-    <t>DIET/-MORT</t>
-  </si>
-  <si>
     <t>orig_mL1</t>
   </si>
   <si>
@@ -657,6 +617,288 @@
   </si>
   <si>
     <t>ReducePred10_mL2</t>
+  </si>
+  <si>
+    <t>Crash Time</t>
+  </si>
+  <si>
+    <t>Recruitment</t>
+  </si>
+  <si>
+    <t>Prey</t>
+  </si>
+  <si>
+    <t>Predators</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Cause</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>LOB, BO, BD</t>
+  </si>
+  <si>
+    <t>SHK, YTF</t>
+  </si>
+  <si>
+    <t>Crashes?</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>HER, BD, BC</t>
+  </si>
+  <si>
+    <t>DOG, SHK</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>ZM, ZS</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>5-9 Crashing</t>
+  </si>
+  <si>
+    <t>LSQ, OSH, ZL</t>
+  </si>
+  <si>
+    <t>DOG, HAL, SSH</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>BD, QHG, CLA, OSH</t>
+  </si>
+  <si>
+    <t>WHK, YTF, OPT</t>
+  </si>
+  <si>
+    <t>OPT?, WHK?</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>ZM,ZS, down kdenr, up mum</t>
+  </si>
+  <si>
+    <t>Declines in adults yr 20</t>
+  </si>
+  <si>
+    <t>LOB, BD, LSQ, BFF</t>
+  </si>
+  <si>
+    <t>BD, LSQ, LOB, BFF</t>
+  </si>
+  <si>
+    <t>BLF, WOL</t>
+  </si>
+  <si>
+    <t>BFF, BD, LSQ, ISQ</t>
+  </si>
+  <si>
+    <t>down MAK</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>OSH, PL, ZL, ZS, ZM</t>
+  </si>
+  <si>
+    <t>LOB, POL, ZL, SHK, WSK</t>
+  </si>
+  <si>
+    <t>BLF, YTF</t>
+  </si>
+  <si>
+    <t>BFF, WOL, and BLF Cannibalism, DRM up</t>
+  </si>
+  <si>
+    <t>down WSK, LOB, down growth</t>
+  </si>
+  <si>
+    <t>down growth</t>
+  </si>
+  <si>
+    <t>OSH, ZG, DR, ZM, NSH, ZL</t>
+  </si>
+  <si>
+    <t>ZL,POL,DOG</t>
+  </si>
+  <si>
+    <t>down DOG,  down cannibalism</t>
+  </si>
+  <si>
+    <t>limited growth past 6-9</t>
+  </si>
+  <si>
+    <t>ZG, OSH,NSH</t>
+  </si>
+  <si>
+    <t>SHK, WHK</t>
+  </si>
+  <si>
+    <t>recruits too high, increase growth</t>
+  </si>
+  <si>
+    <t>ZS, PL, DL</t>
+  </si>
+  <si>
+    <t>ZL, HER</t>
+  </si>
+  <si>
+    <t>down ZL, ZM</t>
+  </si>
+  <si>
+    <t>down ZL</t>
+  </si>
+  <si>
+    <t>PS, ZS</t>
+  </si>
+  <si>
+    <t>ZL, ZM, HER</t>
+  </si>
+  <si>
+    <t>LOB, BD</t>
+  </si>
+  <si>
+    <t>DOG, WOL</t>
+  </si>
+  <si>
+    <t>down DOG, up recruit</t>
+  </si>
+  <si>
+    <t>QHG, LOB, BO, BC</t>
+  </si>
+  <si>
+    <t>LOB, DOG, BC</t>
+  </si>
+  <si>
+    <t>up growth, decrease LOB coupling</t>
+  </si>
+  <si>
+    <t>QHG, CLA, BD</t>
+  </si>
+  <si>
+    <t>Up CLA, QHG</t>
+  </si>
+  <si>
+    <t>BD, FDF, QHG, LOB</t>
+  </si>
+  <si>
+    <t>YTF, SHK</t>
+  </si>
+  <si>
+    <t>down BD</t>
+  </si>
+  <si>
+    <t>BC,BFF,BD</t>
+  </si>
+  <si>
+    <t>SHK, BLF, DOG</t>
+  </si>
+  <si>
+    <t>down DOG</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>DOG,SK</t>
+  </si>
+  <si>
+    <t>down SK, DOG</t>
+  </si>
+  <si>
+    <t>BC, BD, LOB</t>
+  </si>
+  <si>
+    <t>BLF, SHK</t>
+  </si>
+  <si>
+    <t>down BLF, up HER</t>
+  </si>
+  <si>
+    <t>Prey, growth up</t>
+  </si>
+  <si>
+    <t>ReducePred11</t>
+  </si>
+  <si>
+    <t>mum 2x,</t>
+  </si>
+  <si>
+    <t>DOG KDENR 1/2</t>
+  </si>
+  <si>
+    <t>KDENR/2, zoo from Puget</t>
+  </si>
+  <si>
+    <t>ReducePred11_mq1</t>
+  </si>
+  <si>
+    <t>ReducePred11_mq2</t>
+  </si>
+  <si>
+    <t>up OPT_mq,</t>
+  </si>
+  <si>
+    <t>1/2 mum_bsb, 2x bsb_mq</t>
+  </si>
+  <si>
+    <t>BLF cannibalism 0.0001, revert orig mQ</t>
+  </si>
+  <si>
+    <t>LOB cannibalism to 0.0001</t>
+  </si>
+  <si>
+    <t>mum_DRM x1/2, revert drm_mq</t>
+  </si>
+  <si>
+    <t>DOG_mq x2, ZG cannibalism 0.0001</t>
+  </si>
+  <si>
+    <t>mum_MAK x.2</t>
+  </si>
+  <si>
+    <t>Revert GOO KDENR</t>
+  </si>
+  <si>
+    <t>Revert mum_RCB</t>
+  </si>
+  <si>
+    <t>mum_HER x2</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>+mort</t>
+  </si>
+  <si>
+    <t>-reduce mum/C</t>
+  </si>
+  <si>
+    <t>ReducePred10</t>
+  </si>
+  <si>
+    <t>RedicePred11</t>
   </si>
 </sst>
 </file>
@@ -745,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -779,6 +1021,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1059,12 +1310,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,9 +1373,6 @@
         <f>IF(COUNTIF(C2:G2,"X")=0,"X","")</f>
         <v/>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1138,7 +1385,7 @@
         <v>180</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="0">IF(COUNTIF(C3:G3,"X")=0,"X","")</f>
+        <f>IF(COUNTIF(C3:G3,"X")=0,"X","")</f>
         <v/>
       </c>
     </row>
@@ -1149,11 +1396,9 @@
       <c r="B4" t="s">
         <v>110</v>
       </c>
-      <c r="E4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>189</v>
+      <c r="H4" t="str">
+        <f>IF(COUNTIF(C4:G4,"X")=0,"X","")</f>
+        <v>X</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1170,7 +1415,7 @@
         <v>180</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H5:H7" si="0">IF(COUNTIF(C5:G5,"X")=0,"X","")</f>
         <v/>
       </c>
     </row>
@@ -1181,15 +1426,9 @@
       <c r="B6" t="s">
         <v>114</v>
       </c>
-      <c r="G6" t="s">
-        <v>180</v>
-      </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>196</v>
+        <v>X</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1210,10 +1449,10 @@
         <v/>
       </c>
       <c r="I7" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1221,7 +1460,7 @@
         <v>93</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H3:H66" si="1">IF(COUNTIF(C8:G8,"X")=0,"X","")</f>
         <v>X</v>
       </c>
     </row>
@@ -1236,11 +1475,11 @@
         <v>180</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I9" s="13" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1254,11 +1493,8 @@
         <v>180</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1272,11 +1508,8 @@
         <v>180</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1290,7 +1523,7 @@
         <v>180</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1305,11 +1538,8 @@
         <v>180</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1323,7 +1553,7 @@
         <v>180</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1338,11 +1568,11 @@
         <v>180</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1350,11 +1580,11 @@
         <v>106</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1368,14 +1598,11 @@
         <v>180</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C17:G17,"X")=0,"X","")</f>
         <v/>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1383,11 +1610,11 @@
         <v>137</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1398,14 +1625,11 @@
         <v>180</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1416,14 +1640,11 @@
         <v>180</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -1434,14 +1655,11 @@
         <v>180</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1452,11 +1670,11 @@
         <v>180</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1464,11 +1682,11 @@
         <v>169</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -1479,11 +1697,11 @@
         <v>180</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1497,14 +1715,11 @@
         <v>180</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1512,11 +1727,11 @@
         <v>100</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -1527,11 +1742,11 @@
         <v>180</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1542,14 +1757,11 @@
         <v>180</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -1563,11 +1775,11 @@
         <v>180</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1581,14 +1793,11 @@
         <v>180</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -1596,11 +1805,11 @@
         <v>177</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -1608,11 +1817,11 @@
         <v>141</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1620,29 +1829,23 @@
         <v>158</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
       <c r="B34" t="s">
         <v>151</v>
       </c>
-      <c r="C34" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" t="s">
-        <v>180</v>
-      </c>
       <c r="H34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1656,14 +1859,11 @@
         <v>180</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1671,11 +1871,11 @@
         <v>165</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -1689,14 +1889,11 @@
         <v>180</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C37:G37,"X")=0,"X","")</f>
         <v/>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -1704,11 +1901,11 @@
         <v>176</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1719,14 +1916,11 @@
         <v>180</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I39" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -1737,14 +1931,11 @@
         <v>180</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I40" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1752,11 +1943,11 @@
         <v>107</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1764,29 +1955,23 @@
         <v>130</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>111</v>
       </c>
-      <c r="G43" t="s">
-        <v>180</v>
-      </c>
       <c r="H43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <f>IF(COUNTIF(C43:G43,"X")=0,"X","")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1794,11 +1979,11 @@
         <v>142</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -1806,29 +1991,23 @@
         <v>161</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>34</v>
       </c>
       <c r="B46" t="s">
         <v>123</v>
       </c>
-      <c r="D46" t="s">
-        <v>180</v>
-      </c>
       <c r="H46" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -1839,11 +2018,11 @@
         <v>180</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1851,7 +2030,7 @@
         <v>116</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
@@ -1866,11 +2045,11 @@
         <v>180</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C49:G49,"X")=0,"X","")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1878,11 +2057,11 @@
         <v>109</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -1890,7 +2069,7 @@
         <v>136</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
@@ -1905,14 +2084,14 @@
         <v>180</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C52:G52,"X")=0,"X","")</f>
         <v/>
       </c>
       <c r="I52" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -1920,11 +2099,11 @@
         <v>139</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -1932,11 +2111,11 @@
         <v>162</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1944,11 +2123,11 @@
         <v>105</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -1956,11 +2135,11 @@
         <v>174</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -1968,7 +2147,7 @@
         <v>171</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
@@ -1979,18 +2158,15 @@
       <c r="B58" t="s">
         <v>144</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>180</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C58:G58,"X")=0,"X","")</f>
         <v/>
       </c>
-      <c r="I58" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -1998,11 +2174,11 @@
         <v>117</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2010,7 +2186,7 @@
         <v>138</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
@@ -2021,18 +2197,21 @@
       <c r="B61" t="s">
         <v>159</v>
       </c>
+      <c r="C61" t="s">
+        <v>180</v>
+      </c>
       <c r="G61" t="s">
         <v>180</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C61:G61,"X")=0,"X","")</f>
         <v/>
       </c>
       <c r="I61" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -2040,11 +2219,11 @@
         <v>118</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -2052,7 +2231,7 @@
         <v>178</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
@@ -2067,14 +2246,11 @@
         <v>180</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I64" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -2085,14 +2261,11 @@
         <v>180</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I65" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -2103,14 +2276,11 @@
         <v>180</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I66" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -2121,11 +2291,11 @@
         <v>180</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H88" si="1">IF(COUNTIF(C67:G67,"X")=0,"X","")</f>
+        <f t="shared" ref="H67:H69" si="2">IF(COUNTIF(C67:G67,"X")=0,"X","")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>54</v>
       </c>
@@ -2136,14 +2306,11 @@
         <v>180</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I68" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -2154,11 +2321,11 @@
         <v>180</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -2166,32 +2333,23 @@
         <v>175</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H67:H88" si="3">IF(COUNTIF(C70:G70,"X")=0,"X","")</f>
         <v>X</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>26</v>
       </c>
       <c r="B71" t="s">
         <v>113</v>
       </c>
-      <c r="C71" t="s">
-        <v>180</v>
-      </c>
-      <c r="D71" t="s">
-        <v>180</v>
-      </c>
       <c r="H71" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2202,47 +2360,38 @@
         <v>180</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>27</v>
       </c>
       <c r="B73" t="s">
         <v>115</v>
       </c>
-      <c r="G73" t="s">
-        <v>180</v>
-      </c>
       <c r="H73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>59</v>
       </c>
       <c r="B74" t="s">
         <v>148</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>180</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I74" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>45</v>
       </c>
@@ -2256,14 +2405,11 @@
         <v>180</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I75" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -2277,32 +2423,29 @@
         <v>180</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I76" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>37</v>
       </c>
       <c r="B77" t="s">
         <v>126</v>
       </c>
+      <c r="C77" t="s">
+        <v>180</v>
+      </c>
       <c r="G77" t="s">
         <v>180</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I77" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -2316,14 +2459,11 @@
         <v>180</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I78" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -2340,14 +2480,11 @@
         <v>180</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I79" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -2358,14 +2495,11 @@
         <v>180</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I80" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -2373,98 +2507,74 @@
         <v>149</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="I81" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
       <c r="B82" t="s">
         <v>94</v>
       </c>
-      <c r="G82" t="s">
-        <v>180</v>
-      </c>
       <c r="H82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>13</v>
       </c>
       <c r="B83" t="s">
         <v>96</v>
       </c>
-      <c r="G83" t="s">
-        <v>180</v>
-      </c>
       <c r="H83" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
       <c r="B84" t="s">
         <v>98</v>
       </c>
-      <c r="G84" t="s">
-        <v>180</v>
-      </c>
       <c r="H84" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>51</v>
       </c>
       <c r="B85" t="s">
         <v>140</v>
       </c>
+      <c r="D85" t="s">
+        <v>180</v>
+      </c>
       <c r="H85" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
       <c r="B86" t="s">
         <v>99</v>
       </c>
-      <c r="G86" t="s">
-        <v>180</v>
-      </c>
       <c r="H86" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <f>IF(COUNTIF(C86:G86,"X")=0,"X","")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -2472,11 +2582,11 @@
         <v>128</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>X</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -2484,16 +2594,12 @@
         <v>132</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>X</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I88">
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I88"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2501,13 +2607,1620 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
+  <dimension ref="A1:M88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(A2,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(A3,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP(A7,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <f>VLOOKUP(A8,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(A9,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(A10,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I10" t="s">
+        <v>212</v>
+      </c>
+      <c r="J10" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(A11,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J11" t="s">
+        <v>216</v>
+      </c>
+      <c r="L11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(A12,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(A13,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14">
+        <f>VLOOKUP(A14,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="str">
+        <f>VLOOKUP(A15,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16">
+        <f>VLOOKUP(A16,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="str">
+        <f>VLOOKUP(A17,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D17">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" t="s">
+        <v>202</v>
+      </c>
+      <c r="J17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" t="s">
+        <v>219</v>
+      </c>
+      <c r="L17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18">
+        <f>VLOOKUP(A18,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP(A19,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" t="s">
+        <v>221</v>
+      </c>
+      <c r="I19" t="s">
+        <v>222</v>
+      </c>
+      <c r="J19" t="s">
+        <v>229</v>
+      </c>
+      <c r="L19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(A20,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP(A21,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" t="s">
+        <v>225</v>
+      </c>
+      <c r="H21" t="s">
+        <v>226</v>
+      </c>
+      <c r="I21" t="s">
+        <v>227</v>
+      </c>
+      <c r="J21" t="s">
+        <v>230</v>
+      </c>
+      <c r="L21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22">
+        <f>VLOOKUP(A22,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23">
+        <f>VLOOKUP(A23,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24">
+        <f>VLOOKUP(A24,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="str">
+        <f>VLOOKUP(A25,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s">
+        <v>228</v>
+      </c>
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <f>VLOOKUP(A26,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" t="str">
+        <f>VLOOKUP(A27,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D27">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H27" t="s">
+        <v>232</v>
+      </c>
+      <c r="I27" t="s">
+        <v>233</v>
+      </c>
+      <c r="J27" t="s">
+        <v>234</v>
+      </c>
+      <c r="L27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28">
+        <f>VLOOKUP(A28,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29">
+        <f>VLOOKUP(A29,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30">
+        <f>VLOOKUP(A30,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31">
+        <f>VLOOKUP(A31,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32">
+        <f>VLOOKUP(A32,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33">
+        <f>VLOOKUP(A33,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34">
+        <f>VLOOKUP(A34,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="str">
+        <f>VLOOKUP(A35,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D35">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H35" t="s">
+        <v>236</v>
+      </c>
+      <c r="I35" t="s">
+        <v>237</v>
+      </c>
+      <c r="J35" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36">
+        <f>VLOOKUP(A36,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37">
+        <f>VLOOKUP(A37,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38">
+        <f>VLOOKUP(A38,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" t="str">
+        <f>VLOOKUP(A39,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" t="s">
+        <v>225</v>
+      </c>
+      <c r="H39" t="s">
+        <v>239</v>
+      </c>
+      <c r="I39" t="s">
+        <v>240</v>
+      </c>
+      <c r="J39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="str">
+        <f>VLOOKUP(A40,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" t="s">
+        <v>225</v>
+      </c>
+      <c r="G40" t="s">
+        <v>225</v>
+      </c>
+      <c r="H40" t="s">
+        <v>243</v>
+      </c>
+      <c r="I40" t="s">
+        <v>244</v>
+      </c>
+      <c r="J40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41">
+        <f>VLOOKUP(A41,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42">
+        <f>VLOOKUP(A42,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43">
+        <f>VLOOKUP(A43,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>200</v>
+      </c>
+      <c r="F43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G43" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" t="s">
+        <v>245</v>
+      </c>
+      <c r="I43" t="s">
+        <v>246</v>
+      </c>
+      <c r="J43" t="s">
+        <v>247</v>
+      </c>
+      <c r="L43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44">
+        <f>VLOOKUP(A44,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45">
+        <f>VLOOKUP(A45,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46">
+        <f>VLOOKUP(A46,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" t="str">
+        <f>VLOOKUP(A47,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48">
+        <f>VLOOKUP(A48,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" t="str">
+        <f>VLOOKUP(A49,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50">
+        <f>VLOOKUP(A50,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51">
+        <f>VLOOKUP(A51,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52">
+        <f>VLOOKUP(A52,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53">
+        <f>VLOOKUP(A53,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54">
+        <f>VLOOKUP(A54,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55">
+        <f>VLOOKUP(A55,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56">
+        <f>VLOOKUP(A56,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57">
+        <f>VLOOKUP(A57,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" t="str">
+        <f>VLOOKUP(A58,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59">
+        <f>VLOOKUP(A59,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60">
+        <f>VLOOKUP(A60,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" t="str">
+        <f>VLOOKUP(A61,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>225</v>
+      </c>
+      <c r="F61" t="s">
+        <v>225</v>
+      </c>
+      <c r="G61" t="s">
+        <v>225</v>
+      </c>
+      <c r="H61" t="s">
+        <v>248</v>
+      </c>
+      <c r="I61" t="s">
+        <v>249</v>
+      </c>
+      <c r="J61" t="s">
+        <v>250</v>
+      </c>
+      <c r="L61" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62">
+        <f>VLOOKUP(A62,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63">
+        <f>VLOOKUP(A63,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64">
+        <f>VLOOKUP(A64,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65">
+        <f>VLOOKUP(A65,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="str">
+        <f>VLOOKUP(A66,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D66">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" t="s">
+        <v>200</v>
+      </c>
+      <c r="G66" t="s">
+        <v>204</v>
+      </c>
+      <c r="H66" t="s">
+        <v>251</v>
+      </c>
+      <c r="I66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J66" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" t="str">
+        <f>VLOOKUP(A67,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68">
+        <f>VLOOKUP(A68,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69">
+        <f>VLOOKUP(A69,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70">
+        <f>VLOOKUP(A70,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71">
+        <f>VLOOKUP(A71,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" t="str">
+        <f>VLOOKUP(A72,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73">
+        <f>VLOOKUP(A73,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" t="str">
+        <f>VLOOKUP(A74,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75">
+        <f>VLOOKUP(A75,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76">
+        <f>VLOOKUP(A76,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" t="str">
+        <f>VLOOKUP(A77,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D77">
+        <v>35</v>
+      </c>
+      <c r="E77" t="s">
+        <v>204</v>
+      </c>
+      <c r="F77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G77" t="s">
+        <v>207</v>
+      </c>
+      <c r="H77" t="s">
+        <v>253</v>
+      </c>
+      <c r="I77" t="s">
+        <v>254</v>
+      </c>
+      <c r="J77" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" t="str">
+        <f>VLOOKUP(A78,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
+        <v>204</v>
+      </c>
+      <c r="F78" t="s">
+        <v>207</v>
+      </c>
+      <c r="G78" t="s">
+        <v>207</v>
+      </c>
+      <c r="H78" t="s">
+        <v>256</v>
+      </c>
+      <c r="I78" t="s">
+        <v>257</v>
+      </c>
+      <c r="J78" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="str">
+        <f>VLOOKUP(A80,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>X</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>204</v>
+      </c>
+      <c r="F80" t="s">
+        <v>204</v>
+      </c>
+      <c r="G80" t="s">
+        <v>259</v>
+      </c>
+      <c r="H80" t="s">
+        <v>245</v>
+      </c>
+      <c r="I80" t="s">
+        <v>260</v>
+      </c>
+      <c r="J80" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>60</v>
+      </c>
+      <c r="B81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81">
+        <f>VLOOKUP(A81,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82">
+        <f>VLOOKUP(A82,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83">
+        <f>VLOOKUP(A83,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>19</v>
+      </c>
+      <c r="E83" t="s">
+        <v>204</v>
+      </c>
+      <c r="F83" t="s">
+        <v>200</v>
+      </c>
+      <c r="G83" t="s">
+        <v>204</v>
+      </c>
+      <c r="H83" t="s">
+        <v>262</v>
+      </c>
+      <c r="I83" t="s">
+        <v>263</v>
+      </c>
+      <c r="J83" t="s">
+        <v>264</v>
+      </c>
+      <c r="L83" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84">
+        <f>VLOOKUP(A84,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85">
+        <f>VLOOKUP(A85,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86">
+        <f>VLOOKUP(A86,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87">
+        <f>VLOOKUP(A87,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88">
+        <f>VLOOKUP(A88,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J88">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="X"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2552,688 +4265,694 @@
         <v>188</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>205</v>
+        <v>191</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C2" s="7">
-        <v>1001094433</v>
-      </c>
-      <c r="D2" s="7" t="str">
+        <v>114181041.2</v>
+      </c>
+      <c r="D2" s="7">
         <f>VLOOKUP(A2,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="E2" s="6">
-        <v>45700000</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1001094433</v>
-      </c>
-      <c r="G2" s="11">
-        <f>F2*1.25</f>
-        <v>1251368041.25</v>
+        <v>19030174.25</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="17">
+        <v>114181041.2</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C3" s="7">
-        <v>2124041.1490000002</v>
-      </c>
-      <c r="D3" s="7" t="str">
+        <v>15816.31169</v>
+      </c>
+      <c r="D3" s="7">
         <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>2124041.1490000002</v>
+        <v>175816.31169</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="11">
-        <f>E3*1.25</f>
-        <v>2655051.4362500003</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C4" s="7">
-        <v>114181041.2</v>
-      </c>
-      <c r="D4" s="7" t="str">
+        <v>25797.24295</v>
+      </c>
+      <c r="D4" s="7">
         <f>VLOOKUP(A4,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+</v>
+        <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>19030174.25</v>
+        <v>100</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="7">
-        <v>114181041.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C5" s="7">
-        <v>15816.31169</v>
+        <v>2124041.1490000002</v>
       </c>
       <c r="D5" s="7">
         <f>VLOOKUP(A5,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>175816.31169</v>
+        <v>2124041.1490000002</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11">
+        <f>E5*1.25</f>
+        <v>2655051.4362500003</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C6" s="7">
-        <v>1718757.3940000001</v>
-      </c>
-      <c r="D6" s="7" t="str">
+        <v>15874.27808</v>
+      </c>
+      <c r="D6" s="7">
         <f>VLOOKUP(A6,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/MORT</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>1718757.3940000001</v>
-      </c>
-      <c r="F6" s="6">
-        <f>E6*0.5</f>
-        <v>859378.69700000004</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1000000</v>
-      </c>
+        <v>15874.27808</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C7" s="7">
-        <v>16477555.609999999</v>
-      </c>
-      <c r="D7" s="7" t="str">
+        <v>34847060.600000001</v>
+      </c>
+      <c r="D7" s="7">
         <f>VLOOKUP(A7,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>993066.96089999995</v>
+        <v>1742353</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="7">
-        <f>C7*0.75</f>
-        <v>12358166.7075</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="8">
-        <v>229000000000</v>
+        <v>119</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1718757.3940000001</v>
       </c>
       <c r="D8" s="7">
         <f>VLOOKUP(A8,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>2000000000000</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1718757.3940000001</v>
+      </c>
+      <c r="F8" s="6">
+        <f>E8*0.5</f>
+        <v>859378.69700000004</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C9" s="7">
-        <v>32122718.550000001</v>
-      </c>
-      <c r="D9" s="7" t="str">
+        <v>21996106.07</v>
+      </c>
+      <c r="D9" s="7">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>PRED</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6">
-        <v>321227180.55000001</v>
+        <v>4000000</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="C10" s="7">
-        <v>2123.8950410000002</v>
-      </c>
-      <c r="D10" s="7" t="str">
+        <v>235.45910710000001</v>
+      </c>
+      <c r="D10" s="7">
         <f>VLOOKUP(A10,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>DIET</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6">
-        <v>2123.8950410000002</v>
+        <v>10</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C11" s="7">
-        <v>74822.192989999996</v>
-      </c>
-      <c r="D11" s="7" t="str">
+        <v>16477555.609999999</v>
+      </c>
+      <c r="D11" s="7">
         <f>VLOOKUP(A11,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>DIET/-MORT</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6">
-        <v>74822.192989999996</v>
+        <v>993066.96089999995</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="17">
+        <f>C11*0.75</f>
+        <v>12358166.7075</v>
+      </c>
       <c r="K11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C12" s="7">
-        <v>235.45910710000001</v>
-      </c>
-      <c r="D12" s="7" t="str">
+        <v>352590040.69999999</v>
+      </c>
+      <c r="D12" s="7">
         <f>VLOOKUP(A12,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="11">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>176000000</v>
+      </c>
+      <c r="F12" s="7">
+        <f>E12*0.75</f>
+        <v>132000000</v>
+      </c>
+      <c r="G12" s="15">
+        <v>176000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C13" s="7">
-        <v>25797.24295</v>
+        <v>129309.07709999999</v>
       </c>
       <c r="D13" s="7">
         <f>VLOOKUP(A13,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E13" s="6">
-        <v>100</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="11"/>
+        <v>100000</v>
+      </c>
+      <c r="F13" s="6">
+        <f>E13*0.75</f>
+        <v>75000</v>
+      </c>
+      <c r="G13" s="15">
+        <v>100000</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C14" s="7">
-        <v>352590040.69999999</v>
-      </c>
-      <c r="D14" s="7" t="str">
+        <v>554.64984700000002</v>
+      </c>
+      <c r="D14" s="7">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+M,ORT</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6">
-        <v>176000000</v>
-      </c>
-      <c r="F14" s="7">
-        <f>E14*0.75</f>
-        <v>132000000</v>
-      </c>
-      <c r="G14" s="6">
-        <v>176000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>110.9</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C15" s="7">
-        <v>15874.27808</v>
+        <v>2957397.3650000002</v>
       </c>
       <c r="D15" s="7">
         <f>VLOOKUP(A15,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>15874.27808</v>
+        <v>4928995.608</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="17">
+        <v>2957397.3650000002</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C16" s="7">
-        <v>129309.07709999999</v>
-      </c>
-      <c r="D16" s="7" t="str">
+        <v>174418341.5</v>
+      </c>
+      <c r="D16" s="7">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/MORT</v>
+        <v>0</v>
       </c>
       <c r="E16" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F16" s="6">
-        <f>E16*0.75</f>
-        <v>75000</v>
-      </c>
-      <c r="G16" s="6">
-        <v>100000</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="O16" s="5"/>
+        <v>7850000</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="16"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C17" s="7">
-        <v>21996106.07</v>
+        <v>17230050.359999999</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>+mort</v>
       </c>
       <c r="E17" s="6">
-        <v>4000000</v>
+        <v>8500000</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="11">
         <v>10000000</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="M17" s="5"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C18" s="7">
-        <v>17230050.359999999</v>
-      </c>
-      <c r="D18" s="7" t="str">
+        <v>13236869.029999999</v>
+      </c>
+      <c r="D18" s="7">
         <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/MORT</v>
+        <v>0</v>
       </c>
       <c r="E18" s="6">
-        <v>8500000</v>
+        <v>6500000</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="11">
-        <v>10000000</v>
-      </c>
+      <c r="G18" s="11"/>
+      <c r="M18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C19" s="7">
-        <v>13236869.029999999</v>
+        <v>432544359.30000001</v>
       </c>
       <c r="D19" s="7">
         <f>VLOOKUP(A19,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E19" s="6">
-        <v>6500000</v>
+        <v>2430000</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="11"/>
-      <c r="M19" s="5"/>
+      <c r="H19" s="7">
+        <v>432544359.30000001</v>
+      </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C20" s="7">
-        <v>432544359.30000001</v>
-      </c>
-      <c r="D20" s="7" t="str">
+        <v>172649603.19999999</v>
+      </c>
+      <c r="D20" s="7">
         <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>MORT</v>
+        <v>0</v>
       </c>
       <c r="E20" s="6">
-        <v>2430000</v>
+        <v>49700000</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="11">
+        <v>100000000</v>
+      </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="7">
+        <v>254421.22440000001</v>
+      </c>
+      <c r="D21" s="7" t="str">
+        <f>VLOOKUP(A21,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>--</v>
+      </c>
+      <c r="E21" s="6">
+        <v>150000</v>
+      </c>
+      <c r="F21" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G21" s="11">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="8">
+        <v>229000000000</v>
+      </c>
+      <c r="D22" s="7">
+        <f>VLOOKUP(A22,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2000000000000</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="7">
+        <v>747577.53830000001</v>
+      </c>
+      <c r="D23" s="7">
+        <f>VLOOKUP(A23,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>197000</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="11">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C24" s="7">
         <v>0.05</v>
       </c>
-      <c r="D21" s="7">
-        <f>VLOOKUP(A21,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D24" s="7">
+        <f>VLOOKUP(A24,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F24" s="6">
         <f>0.02</f>
         <v>0.02</v>
       </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="7">
-        <v>747577.53830000001</v>
-      </c>
-      <c r="D22" s="7" t="str">
-        <f>VLOOKUP(A22,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
-      </c>
-      <c r="E22" s="6">
-        <v>197000</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="11">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="7">
-        <v>172649603.19999999</v>
-      </c>
-      <c r="D23" s="7" t="str">
-        <f>VLOOKUP(A23,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
-      </c>
-      <c r="E23" s="6">
-        <v>49700000</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="11">
-        <v>100000000</v>
-      </c>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="D24" s="7">
-        <f>VLOOKUP(A24,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.02</v>
-      </c>
       <c r="G24" s="11"/>
-      <c r="O24" s="5"/>
+      <c r="H24" s="4">
+        <v>0.01</v>
+      </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="C25" s="7">
-        <v>932233758.39999998</v>
-      </c>
-      <c r="D25" s="7" t="str">
+        <v>15150975.09</v>
+      </c>
+      <c r="D25" s="7">
         <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>PRED</v>
+        <v>0</v>
       </c>
       <c r="E25" s="6">
-        <v>532233758.39999998</v>
+        <v>15150975.09</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C26" s="7">
-        <v>749.83099549999997</v>
-      </c>
-      <c r="D26" s="7" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="D26" s="7">
         <f>VLOOKUP(A26,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
       <c r="E26" s="6">
-        <v>100</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7">
-        <v>749.83099549999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C27" s="7">
-        <v>4986608.142</v>
+        <v>932233758.39999998</v>
       </c>
       <c r="D27" s="7">
         <f>VLOOKUP(A27,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E27" s="6">
-        <v>4986608.142</v>
+        <v>532233758.39999998</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C28" s="7">
-        <v>174418341.5</v>
-      </c>
-      <c r="D28" s="7">
+        <v>32122718.550000001</v>
+      </c>
+      <c r="D28" s="7" t="str">
         <f>VLOOKUP(A28,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>++</v>
       </c>
       <c r="E28" s="6">
-        <v>7850000</v>
+        <v>321227180.55000001</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="11"/>
+      <c r="H28" s="7">
+        <v>32122718.550000001</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C29" s="7">
-        <v>254421.22440000001</v>
-      </c>
-      <c r="D29" s="7" t="str">
+        <v>4986608.142</v>
+      </c>
+      <c r="D29" s="7">
         <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>0</v>
       </c>
       <c r="E29" s="6">
-        <v>150000</v>
-      </c>
-      <c r="F29" s="6">
-        <v>100000</v>
-      </c>
-      <c r="G29" s="11">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4986608.142</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C30" s="7">
-        <v>4108787.665</v>
+        <v>0.05</v>
       </c>
       <c r="D30" s="7">
         <f>VLOOKUP(A30,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E30" s="6">
-        <v>328703</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="11"/>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="C31" s="7">
-        <v>0.05</v>
+        <v>19201175.25</v>
       </c>
       <c r="D31" s="7">
         <f>VLOOKUP(A31,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E31" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>49069.656669999997</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="11"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
@@ -3243,9 +4962,9 @@
       <c r="C32" s="7">
         <v>22940055.34</v>
       </c>
-      <c r="D32" s="7" t="str">
+      <c r="D32" s="7">
         <f>VLOOKUP(A32,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/MORT</v>
+        <v>0</v>
       </c>
       <c r="E32" s="6">
         <v>22940055.34</v>
@@ -3253,544 +4972,553 @@
       <c r="F32" s="6"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="C33" s="7">
-        <v>19201175.25</v>
+        <v>0.05</v>
       </c>
       <c r="D33" s="7">
         <f>VLOOKUP(A33,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E33" s="6">
-        <v>49069.656669999997</v>
+        <v>0.05</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C34" s="7">
-        <v>34847060.600000001</v>
+        <v>28898.867849999999</v>
       </c>
       <c r="D34" s="7">
         <f>VLOOKUP(A34,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E34" s="6">
-        <v>1742353</v>
+        <v>28898.867849999999</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C35" s="7">
-        <v>554.64984700000002</v>
+        <v>20527442.649999999</v>
       </c>
       <c r="D35" s="7">
         <f>VLOOKUP(A35,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E35" s="6">
-        <v>110.9</v>
+        <v>6384375</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C36" s="7">
-        <v>15150975.09</v>
+        <v>15779070.359999999</v>
       </c>
       <c r="D36" s="7">
         <f>VLOOKUP(A36,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E36" s="6">
-        <v>15150975.09</v>
+        <v>1540000</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="7">
-        <v>4273.9050960000004</v>
+        <v>6221.5131609999999</v>
       </c>
       <c r="D37" s="7">
         <f>VLOOKUP(A37,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E37" s="6">
-        <v>4273.9050960000004</v>
+        <v>6221.5131609999999</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C38" s="7">
-        <v>0.05</v>
+        <v>4273.9050960000004</v>
       </c>
       <c r="D38" s="7">
         <f>VLOOKUP(A38,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E38" s="6">
-        <v>0.05</v>
+        <v>4273.9050960000004</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C39" s="7">
-        <v>401050.08909999998</v>
+        <v>1001094433</v>
       </c>
       <c r="D39" s="7">
         <f>VLOOKUP(A39,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E39" s="6">
-        <v>201050.08910000001</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="11"/>
-      <c r="O39" s="5"/>
+        <v>45700000</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1001094433</v>
+      </c>
+      <c r="G39" s="11">
+        <f>F39*1.25</f>
+        <v>1251368041.25</v>
+      </c>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C40" s="7">
-        <v>28898.867849999999</v>
-      </c>
-      <c r="D40" s="7" t="str">
+        <v>749.83099549999997</v>
+      </c>
+      <c r="D40" s="7">
         <f>VLOOKUP(A40,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
       <c r="E40" s="6">
-        <v>28898.867849999999</v>
+        <v>100</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="17">
+        <v>749.83099549999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C41" s="7">
-        <v>20527442.649999999</v>
+        <v>24854569.199999999</v>
       </c>
       <c r="D41" s="7">
         <f>VLOOKUP(A41,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E41" s="6">
-        <v>6384375</v>
+        <v>3521063.9419999998</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C42" s="7">
-        <v>6221.5131609999999</v>
+        <v>53.609603989999997</v>
       </c>
       <c r="D42" s="7">
         <f>VLOOKUP(A42,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E42" s="6">
-        <v>6221.5131609999999</v>
+        <v>20</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C43" s="7">
-        <v>24854569.199999999</v>
+        <v>2123.8950410000002</v>
       </c>
       <c r="D43" s="7">
         <f>VLOOKUP(A43,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E43" s="6">
-        <v>3521063.9419999998</v>
+        <v>2123.8950410000002</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C44" s="7">
-        <v>53.609603989999997</v>
-      </c>
-      <c r="D44" s="7" t="str">
+        <v>10723808.939999999</v>
+      </c>
+      <c r="D44" s="7">
         <f>VLOOKUP(A44,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
       <c r="E44" s="6">
-        <v>20</v>
+        <v>357460.29800000001</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="11">
-        <v>53</v>
+      <c r="G44" s="17">
+        <v>10723808.939999999</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C45" s="7">
-        <v>16705.027440000002</v>
-      </c>
-      <c r="D45" s="7" t="str">
+        <v>5700290.8640000001</v>
+      </c>
+      <c r="D45" s="7">
         <f>VLOOKUP(A45,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>0</v>
       </c>
       <c r="E45" s="6">
-        <v>75000</v>
+        <v>5700290.8640000001</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="7">
-        <v>16705.027440000002</v>
-      </c>
+      <c r="G45" s="16"/>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="1:16" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C46" s="7">
-        <v>15779070.359999999</v>
+        <v>74822.192989999996</v>
       </c>
       <c r="D46" s="7">
         <f>VLOOKUP(A46,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E46" s="6">
-        <v>1540000</v>
+        <v>74822.192989999996</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="O46" s="11"/>
     </row>
     <row r="47" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C47" s="7">
-        <v>10723808.939999999</v>
-      </c>
-      <c r="D47" s="7" t="str">
+        <v>361154520.60000002</v>
+      </c>
+      <c r="D47" s="7">
         <f>VLOOKUP(A47,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT/-MORT</v>
+        <v>0</v>
       </c>
       <c r="E47" s="6">
-        <v>357460.29800000001</v>
+        <v>72230904</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="7">
-        <v>10723808.939999999</v>
+        <v>361154520.60000002</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C48" s="7">
-        <v>2957397.3650000002</v>
-      </c>
-      <c r="D48" s="7" t="str">
+        <v>4108787.665</v>
+      </c>
+      <c r="D48" s="7">
         <f>VLOOKUP(A48,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>0</v>
       </c>
       <c r="E48" s="6">
-        <v>4928995.608</v>
+        <v>328703</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="7">
-        <v>2957397.3650000002</v>
-      </c>
+      <c r="G48" s="16"/>
+      <c r="O48" s="5"/>
     </row>
     <row r="49" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C49" s="7">
-        <v>361154520.60000002</v>
-      </c>
-      <c r="D49" s="7" t="str">
+        <v>358999.37920000002</v>
+      </c>
+      <c r="D49" s="7">
         <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="E49" s="6">
-        <v>72230904</v>
-      </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="7">
-        <v>361154520.60000002</v>
+        <v>250000</v>
+      </c>
+      <c r="F49" s="6">
+        <v>200000</v>
+      </c>
+      <c r="G49" s="6">
+        <v>250000</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C50" s="7">
-        <v>7496.955054</v>
-      </c>
-      <c r="D50" s="7" t="str">
+        <v>16705.027440000002</v>
+      </c>
+      <c r="D50" s="7">
         <f>VLOOKUP(A50,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
       <c r="E50" s="6">
-        <v>7496.955054</v>
-      </c>
-      <c r="F50" s="6">
-        <v>10000</v>
-      </c>
+        <v>75000</v>
+      </c>
+      <c r="F50" s="6"/>
       <c r="G50" s="7">
-        <v>7496.955054</v>
-      </c>
-      <c r="O50" s="5"/>
-    </row>
-    <row r="51" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16705.027440000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C51" s="7">
-        <v>5700290.8640000001</v>
-      </c>
-      <c r="D51" s="7" t="str">
+        <v>233447.39780000001</v>
+      </c>
+      <c r="D51" s="7">
         <f>VLOOKUP(A51,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>MORT</v>
+        <v>0</v>
       </c>
       <c r="E51" s="6">
-        <v>5700290.8640000001</v>
+        <v>58361.849450000002</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="11"/>
+      <c r="G51" s="17">
+        <v>233447.39780000001</v>
+      </c>
     </row>
     <row r="52" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="C52" s="7">
-        <v>358999.37920000002</v>
-      </c>
-      <c r="D52" s="7" t="str">
+        <v>1053704.304</v>
+      </c>
+      <c r="D52" s="7">
         <f>VLOOKUP(A52,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>0</v>
       </c>
       <c r="E52" s="6">
-        <v>250000</v>
+        <v>1001250</v>
       </c>
       <c r="F52" s="6">
-        <v>200000</v>
-      </c>
-      <c r="G52" s="6">
-        <v>250000</v>
+        <v>750000</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1053704.304</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C53" s="7">
-        <v>233447.39780000001</v>
-      </c>
-      <c r="D53" s="7" t="str">
+        <v>7496.955054</v>
+      </c>
+      <c r="D53" s="7">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="E53" s="6">
-        <v>58361.849450000002</v>
-      </c>
-      <c r="F53" s="6"/>
+        <v>7496.955054</v>
+      </c>
+      <c r="F53" s="6">
+        <v>10000</v>
+      </c>
       <c r="G53" s="7">
-        <v>233447.39780000001</v>
-      </c>
+        <v>7496.955054</v>
+      </c>
+      <c r="O53" s="5"/>
     </row>
     <row r="54" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C54" s="7">
-        <v>1053704.304</v>
-      </c>
-      <c r="D54" s="7" t="str">
+        <v>177129.4045</v>
+      </c>
+      <c r="D54" s="7">
         <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/PRED/MORT</v>
+        <v>0</v>
       </c>
       <c r="E54" s="6">
-        <v>1001250</v>
+        <v>125000</v>
       </c>
       <c r="F54" s="6">
-        <v>750000</v>
-      </c>
-      <c r="G54" s="7">
-        <v>1053704.304</v>
+        <v>100000</v>
+      </c>
+      <c r="G54" s="16">
+        <v>150000</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C55" s="7">
-        <v>177129.4045</v>
-      </c>
-      <c r="D55" s="7" t="str">
+        <v>401050.08909999998</v>
+      </c>
+      <c r="D55" s="7">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>0</v>
       </c>
       <c r="E55" s="6">
-        <v>125000</v>
-      </c>
-      <c r="F55" s="6">
-        <v>100000</v>
-      </c>
-      <c r="G55" s="11">
-        <v>150000</v>
-      </c>
+        <v>201050.08910000001</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="11"/>
+      <c r="O55" s="5"/>
     </row>
     <row r="56" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="7">
+        <v>71.004761549999998</v>
+      </c>
+      <c r="D56" s="7">
+        <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>71.004761549999998</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="16"/>
+    </row>
+    <row r="57" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C57" s="7">
         <v>40960.04507</v>
       </c>
-      <c r="D56" s="7" t="str">
-        <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-MORT/PRED</v>
-      </c>
-      <c r="E56" s="6">
+      <c r="D57" s="7">
+        <f>VLOOKUP(A57,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
         <v>639000</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F57" s="6">
         <v>1000000</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G57" s="17">
         <v>40960.04507</v>
       </c>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="7">
-        <v>71.004761549999998</v>
-      </c>
-      <c r="D57" s="7" t="str">
-        <f>VLOOKUP(A57,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
-      </c>
-      <c r="E57" s="6">
-        <v>71.004761549999998</v>
-      </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
@@ -3800,9 +5528,9 @@
       <c r="C58" s="7">
         <v>52020187.369999997</v>
       </c>
-      <c r="D58" s="7" t="str">
+      <c r="D58" s="7">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="E58" s="6">
         <v>52020187.369999997</v>
@@ -3812,111 +5540,111 @@
     </row>
     <row r="59" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C59" s="7">
-        <v>14975339.800000001</v>
-      </c>
-      <c r="D59" s="7" t="str">
+        <v>3738776.034</v>
+      </c>
+      <c r="D59" s="7">
         <f>VLOOKUP(A59,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="E59" s="6">
-        <v>747664.42</v>
+        <v>1080000</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="11">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C60" s="7">
-        <v>3738776.034</v>
-      </c>
-      <c r="D60" s="7" t="str">
+        <v>2983706.8709999998</v>
+      </c>
+      <c r="D60" s="7">
         <f>VLOOKUP(A60,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="E60" s="6">
-        <v>1080000</v>
+        <v>491000</v>
       </c>
       <c r="F60" s="6"/>
-      <c r="G60" s="11">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="C61" s="7">
-        <v>97071048.260000005</v>
+        <v>14975339.800000001</v>
       </c>
       <c r="D61" s="7">
         <f>VLOOKUP(A61,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E61" s="6">
-        <v>60071048.259999998</v>
+        <v>747664.42</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="11"/>
+      <c r="G61" s="11">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="62" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="7">
+        <v>97071048.260000005</v>
+      </c>
+      <c r="D62" s="7">
+        <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <v>60071048.259999998</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C63" s="7">
         <v>20265685.109999999</v>
-      </c>
-      <c r="D62" s="7" t="str">
-        <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
-      </c>
-      <c r="E62" s="6">
-        <v>10265685.109999999</v>
-      </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="11">
-        <v>15000000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="7">
-        <v>2983706.8709999998</v>
       </c>
       <c r="D63" s="7">
         <f>VLOOKUP(A63,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E63" s="6">
-        <v>491000</v>
+        <v>10265685.109999999</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="1:15" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G63" s="11">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>43</v>
       </c>
@@ -3936,7 +5664,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -3944,7 +5672,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="11"/>
     </row>
-    <row r="66" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -3952,7 +5680,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -3961,7 +5689,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -3974,44 +5702,24 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O68">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="-/+M,ORT"/>
-        <filter val="-/+MORT"/>
-        <filter val="-/MORT"/>
-        <filter val="-/PRED/MORT"/>
-        <filter val="+"/>
-        <filter val="+/MORT"/>
-        <filter val="+/-MORT"/>
-        <filter val="DIET"/>
-        <filter val="DIET/-MORT"/>
-        <filter val="MORT"/>
-        <filter val="-MORT/PRED"/>
-        <filter val="PRED"/>
-        <filter val="REVERT"/>
-        <filter val="REVERT/-MORT"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
+    <sortState ref="A2:O68">
+      <sortCondition ref="A1:A68"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4030,19 +5738,19 @@
         <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
         <v>184</v>
       </c>
       <c r="F1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4058,9 +5766,9 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="str">
+      <c r="E2" s="7">
         <f>VLOOKUP(A2,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4076,9 +5784,9 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="str">
+      <c r="E3" s="7">
         <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4094,9 +5802,9 @@
       <c r="D4">
         <v>7.9999999999999998E-12</v>
       </c>
-      <c r="E4" s="7" t="str">
+      <c r="E4" s="7">
         <f>VLOOKUP(A4,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4130,9 +5838,9 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="str">
+      <c r="E6" s="7">
         <f>VLOOKUP(A6,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4148,9 +5856,9 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="str">
+      <c r="E7" s="7">
         <f>VLOOKUP(A7,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="F7" s="14">
         <v>1E-13</v>
@@ -4190,7 +5898,7 @@
       </c>
       <c r="E9" s="7" t="str">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>PRED</v>
+        <v>++</v>
       </c>
       <c r="F9" s="14">
         <v>1.0000000000000001E-15</v>
@@ -4210,9 +5918,9 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="E10" s="7">
         <f>VLOOKUP(A10,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>DIET</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4228,9 +5936,9 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="7" t="str">
+      <c r="E11" s="7">
         <f>VLOOKUP(A11,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>DIET/-MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4246,9 +5954,9 @@
       <c r="D12">
         <v>1.0999999999999999E-8</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="7">
         <f>VLOOKUP(A12,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4282,9 +5990,9 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="7" t="str">
+      <c r="E14" s="7">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+M,ORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4318,9 +6026,9 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="7" t="str">
+      <c r="E16" s="7">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4336,9 +6044,9 @@
       <c r="D17">
         <v>7.9999999999999998E-12</v>
       </c>
-      <c r="E17" s="7" t="str">
+      <c r="E17" s="7">
         <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4356,7 +6064,7 @@
       </c>
       <c r="E18" s="7" t="str">
         <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/MORT</v>
+        <v>+mort</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4390,9 +6098,9 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="str">
+      <c r="E20" s="7">
         <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4426,9 +6134,9 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="7" t="str">
+      <c r="E22" s="7">
         <f>VLOOKUP(A22,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4444,9 +6152,9 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="7" t="str">
+      <c r="E23" s="7">
         <f>VLOOKUP(A23,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4480,9 +6188,9 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="7" t="str">
+      <c r="E25" s="7">
         <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>PRED</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4498,9 +6206,9 @@
       <c r="D26">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="E26" s="7" t="str">
+      <c r="E26" s="7">
         <f>VLOOKUP(A26,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4554,7 +6262,7 @@
       </c>
       <c r="E29" s="7" t="str">
         <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>--</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4606,9 +6314,9 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="7" t="str">
+      <c r="E32" s="7">
         <f>VLOOKUP(A32,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4750,9 +6458,9 @@
       <c r="D40">
         <v>8.9999999999999996E-7</v>
       </c>
-      <c r="E40" s="7" t="str">
+      <c r="E40" s="7">
         <f>VLOOKUP(A40,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4822,9 +6530,9 @@
       <c r="D44">
         <v>1.0999999999999999E-8</v>
       </c>
-      <c r="E44" s="7" t="str">
+      <c r="E44" s="7">
         <f>VLOOKUP(A44,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4840,9 +6548,9 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" s="7" t="str">
+      <c r="E45" s="7">
         <f>VLOOKUP(A45,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4876,9 +6584,9 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" s="7" t="str">
+      <c r="E47" s="7">
         <f>VLOOKUP(A47,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT/-MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4894,9 +6602,9 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" s="7" t="str">
+      <c r="E48" s="7">
         <f>VLOOKUP(A48,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4912,9 +6620,9 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="7" t="str">
+      <c r="E49" s="7">
         <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4930,9 +6638,9 @@
       <c r="D50">
         <v>2E-8</v>
       </c>
-      <c r="E50" s="7" t="str">
+      <c r="E50" s="7">
         <f>VLOOKUP(A50,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4948,9 +6656,9 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" s="7" t="str">
+      <c r="E51" s="7">
         <f>VLOOKUP(A51,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4966,9 +6674,9 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="7" t="str">
+      <c r="E52" s="7">
         <f>VLOOKUP(A52,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4984,9 +6692,9 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" s="7" t="str">
+      <c r="E53" s="7">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5002,9 +6710,9 @@
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" s="7" t="str">
+      <c r="E54" s="7">
         <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/PRED/MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5020,9 +6728,9 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" s="7" t="str">
+      <c r="E55" s="7">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5038,9 +6746,9 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" s="7" t="str">
+      <c r="E56" s="7">
         <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-MORT/PRED</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5056,9 +6764,9 @@
       <c r="D57">
         <v>2E-8</v>
       </c>
-      <c r="E57" s="7" t="str">
+      <c r="E57" s="7">
         <f>VLOOKUP(A57,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5074,9 +6782,9 @@
       <c r="D58">
         <v>3.8000000000000001E-9</v>
       </c>
-      <c r="E58" s="7" t="str">
+      <c r="E58" s="7">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5092,9 +6800,9 @@
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59" s="7" t="str">
+      <c r="E59" s="7">
         <f>VLOOKUP(A59,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5110,9 +6818,9 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60" s="7" t="str">
+      <c r="E60" s="7">
         <f>VLOOKUP(A60,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5146,9 +6854,9 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62" s="7" t="str">
+      <c r="E62" s="7">
         <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5193,16 +6901,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45:XFD45"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5215,7 +6922,7 @@
     <col min="7" max="7" width="17.33203125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>90</v>
       </c>
@@ -5223,22 +6930,28 @@
         <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s">
         <v>184</v>
       </c>
       <c r="F1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+      <c r="H1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -5251,9 +6964,9 @@
       <c r="D2">
         <v>3E-10</v>
       </c>
-      <c r="E2" s="7" t="str">
+      <c r="E2" s="7">
         <f>VLOOKUP(A2,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>C2*0.75</f>
@@ -5264,33 +6977,26 @@
         <v>2.25E-10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C3">
-        <v>9.25E-13</v>
+        <v>5.1999999999999996E-10</v>
       </c>
       <c r="D3">
-        <v>1.8E-9</v>
-      </c>
-      <c r="E3" s="7" t="str">
+        <v>3.2000000000000001E-9</v>
+      </c>
+      <c r="E3" s="7">
         <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
-      </c>
-      <c r="F3">
-        <f>C3*0.75</f>
-        <v>6.9374999999999995E-13</v>
-      </c>
-      <c r="G3" s="14">
-        <f>D3*0.75</f>
-        <v>1.3500000000000001E-9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -5303,13 +7009,13 @@
       <c r="D4">
         <v>1.8E-10</v>
       </c>
-      <c r="E4" s="7" t="str">
+      <c r="E4" s="7">
         <f>VLOOKUP(A4,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+</v>
+        <v>0</v>
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -5328,59 +7034,59 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C6">
-        <v>2.9999999999999998E-13</v>
+        <v>1.5E-11</v>
       </c>
       <c r="D6">
-        <v>3E-10</v>
-      </c>
-      <c r="E6" s="7" t="str">
+        <v>7.8999999999999996E-9</v>
+      </c>
+      <c r="E6" s="7">
         <f>VLOOKUP(A6,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/MORT</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f>C6*1.25</f>
-        <v>3.7499999999999997E-13</v>
+        <f>C6*0.75</f>
+        <v>1.125E-11</v>
       </c>
       <c r="G6" s="14">
-        <f>D6*1.25</f>
-        <v>3.75E-10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <f>D6*0.75</f>
+        <v>5.9250000000000001E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C7">
-        <v>1.5E-11</v>
+        <v>5.1999999999999996E-10</v>
       </c>
       <c r="D7">
-        <v>7.8999999999999996E-9</v>
+        <v>3.2000000000000001E-9</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>VLOOKUP(A7,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>--</v>
       </c>
       <c r="F7">
-        <f>C7*0.75</f>
-        <v>1.125E-11</v>
+        <f>C7*1.5</f>
+        <v>7.7999999999999999E-10</v>
       </c>
       <c r="G7" s="14">
-        <f>D7*0.75</f>
-        <v>5.9250000000000001E-9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f>D7*1.5</f>
+        <v>4.8E-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -5399,7 +7105,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -5414,13 +7120,13 @@
       </c>
       <c r="E9" s="7" t="str">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>PRED</v>
+        <v>++</v>
       </c>
       <c r="F9" s="14">
         <v>1.4999999999999999E-14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -5433,13 +7139,13 @@
       <c r="D10">
         <v>3E-10</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="E10" s="7">
         <f>VLOOKUP(A10,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>DIET</v>
+        <v>0</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -5452,15 +7158,15 @@
       <c r="D11">
         <v>3E-10</v>
       </c>
-      <c r="E11" s="7" t="str">
+      <c r="E11" s="7">
         <f>VLOOKUP(A11,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>DIET/-MORT</v>
+        <v>0</v>
       </c>
       <c r="G11" s="14">
         <v>3E-11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
@@ -5473,13 +7179,13 @@
       <c r="D12">
         <v>3.15E-5</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="7">
         <f>VLOOKUP(A12,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -5498,31 +7204,39 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C14">
-        <v>1E-14</v>
+        <v>2.9999999999999998E-13</v>
       </c>
       <c r="D14">
-        <v>1E-13</v>
-      </c>
-      <c r="E14" s="7" t="str">
+        <v>3E-10</v>
+      </c>
+      <c r="E14" s="7">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+M,ORT</v>
-      </c>
-      <c r="F14" s="14">
-        <v>1E-13</v>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>C14*1.25</f>
+        <v>3.7499999999999997E-13</v>
       </c>
       <c r="G14" s="14">
-        <v>2.0000000000000001E-13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f>D14*1.25</f>
+        <v>3.75E-10</v>
+      </c>
+      <c r="H14" s="14">
+        <v>7.0000000000000005E-13</v>
+      </c>
+      <c r="I14" s="14">
+        <v>6.9999999999999996E-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
@@ -5541,31 +7255,39 @@
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C16">
-        <v>2.9999999999999998E-13</v>
+        <v>9.25E-13</v>
       </c>
       <c r="D16">
-        <v>3E-10</v>
-      </c>
-      <c r="E16" s="7" t="str">
+        <v>1.8E-9</v>
+      </c>
+      <c r="E16" s="7">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/MORT</v>
-      </c>
-      <c r="F16" s="14">
-        <v>1E-13</v>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>C16*0.75</f>
+        <v>6.9374999999999995E-13</v>
       </c>
       <c r="G16" s="14">
-        <v>1E-10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <f>D16*0.75</f>
+        <v>1.3500000000000001E-9</v>
+      </c>
+      <c r="H16" s="14">
+        <v>9.25E-13</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1.8E-9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -5578,9 +7300,9 @@
       <c r="D17">
         <v>1.8E-10</v>
       </c>
-      <c r="E17" s="7" t="str">
+      <c r="E17" s="7">
         <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <f>C17*0.5</f>
@@ -5591,33 +7313,37 @@
         <v>8.9999999999999999E-11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C18">
-        <v>5.1999999999999996E-10</v>
+        <v>2.9999999999999998E-13</v>
       </c>
       <c r="D18">
-        <v>3.2000000000000001E-9</v>
-      </c>
-      <c r="E18" s="7" t="str">
+        <v>3E-10</v>
+      </c>
+      <c r="E18" s="7">
         <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/MORT</v>
-      </c>
-      <c r="F18">
-        <f>C18*1.25</f>
-        <v>6.4999999999999993E-10</v>
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1E-13</v>
       </c>
       <c r="G18" s="14">
-        <f>D18*1.25</f>
-        <v>4.0000000000000002E-9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1E-10</v>
+      </c>
+      <c r="H18" s="14">
+        <v>2.9999999999999998E-13</v>
+      </c>
+      <c r="I18" s="14">
+        <v>3E-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
@@ -5636,33 +7362,33 @@
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C20">
-        <v>2.5000000000000001E-11</v>
+        <v>2.6499999999999999E-11</v>
       </c>
       <c r="D20">
-        <v>8.5E-9</v>
-      </c>
-      <c r="E20" s="7" t="str">
+        <v>4.0000000000000002E-9</v>
+      </c>
+      <c r="E20" s="7">
         <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>MORT</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <f>C20*0.5</f>
-        <v>1.25E-11</v>
+        <f>C20*0.75</f>
+        <v>1.9874999999999999E-11</v>
       </c>
       <c r="G20" s="14">
-        <f>D20*0.5</f>
-        <v>4.25E-9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f>D20*0.75</f>
+        <v>3.0000000000000004E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -5681,7 +7407,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>61</v>
       </c>
@@ -5694,9 +7420,9 @@
       <c r="D22">
         <v>3E-10</v>
       </c>
-      <c r="E22" s="7" t="str">
+      <c r="E22" s="7">
         <f>VLOOKUP(A22,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <f>C22*1.5</f>
@@ -5706,34 +7432,33 @@
         <f>D22*1.5</f>
         <v>4.5E-10</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="14">
+        <v>5.9999999999999997E-13</v>
+      </c>
+      <c r="I22" s="14">
+        <v>6E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C23">
-        <v>2.6499999999999999E-11</v>
+        <v>5.0000000000000003E-10</v>
       </c>
       <c r="D23">
-        <v>4.0000000000000002E-9</v>
-      </c>
-      <c r="E23" s="7" t="str">
+        <v>2.5000000000000001E-9</v>
+      </c>
+      <c r="E23" s="7">
         <f>VLOOKUP(A23,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
-      </c>
-      <c r="F23">
-        <f>C23*0.75</f>
-        <v>1.9874999999999999E-11</v>
-      </c>
-      <c r="G23" s="14">
-        <f>D23*0.75</f>
-        <v>3.0000000000000004E-9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>62</v>
       </c>
@@ -5752,7 +7477,7 @@
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
@@ -5765,9 +7490,9 @@
       <c r="D25">
         <v>2.4999999999999998E-12</v>
       </c>
-      <c r="E25" s="7" t="str">
+      <c r="E25" s="7">
         <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>PRED</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <f>C25*1.25</f>
@@ -5778,7 +7503,7 @@
         <v>3.1249999999999997E-12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
@@ -5791,13 +7516,13 @@
       <c r="D26">
         <v>2.4999999999999999E-7</v>
       </c>
-      <c r="E26" s="7" t="str">
+      <c r="E26" s="7">
         <f>VLOOKUP(A26,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>21</v>
       </c>
@@ -5816,7 +7541,7 @@
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>41</v>
       </c>
@@ -5835,33 +7560,33 @@
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C29">
-        <v>5.1999999999999996E-10</v>
+        <v>2.5000000000000001E-11</v>
       </c>
       <c r="D29">
-        <v>3.2000000000000001E-9</v>
-      </c>
-      <c r="E29" s="7" t="str">
+        <v>8.5E-9</v>
+      </c>
+      <c r="E29" s="7">
         <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <f>C29*1.5</f>
-        <v>7.7999999999999999E-10</v>
+        <f>C29*0.5</f>
+        <v>1.25E-11</v>
       </c>
       <c r="G29" s="14">
-        <f>D29*1.5</f>
-        <v>4.8E-9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f>D29*0.5</f>
+        <v>4.25E-9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
@@ -5880,7 +7605,7 @@
       </c>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>72</v>
       </c>
@@ -5899,7 +7624,7 @@
       </c>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
@@ -5912,9 +7637,9 @@
       <c r="D32">
         <v>3E-10</v>
       </c>
-      <c r="E32" s="7" t="str">
+      <c r="E32" s="7">
         <f>VLOOKUP(A32,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/MORT</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <f>C32*1.5</f>
@@ -5924,8 +7649,14 @@
         <f>D32*1.5</f>
         <v>4.5E-10</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H32" s="14">
+        <v>5.9999999999999997E-13</v>
+      </c>
+      <c r="I32" s="14">
+        <v>5.9999999999999997E-13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>28</v>
       </c>
@@ -5944,7 +7675,7 @@
       </c>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>23</v>
       </c>
@@ -5963,7 +7694,7 @@
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>47</v>
       </c>
@@ -5982,26 +7713,33 @@
       </c>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="C36">
-        <v>5.0000000000000003E-10</v>
+        <v>5.1999999999999996E-10</v>
       </c>
       <c r="D36">
-        <v>2.5000000000000001E-9</v>
-      </c>
-      <c r="E36" s="7">
+        <v>3.2000000000000001E-9</v>
+      </c>
+      <c r="E36" s="7" t="str">
         <f>VLOOKUP(A36,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>+mort</v>
+      </c>
+      <c r="F36">
+        <f>C36*1.25</f>
+        <v>6.4999999999999993E-10</v>
+      </c>
+      <c r="G36" s="14">
+        <f>D36*1.25</f>
+        <v>4.0000000000000002E-9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>50</v>
       </c>
@@ -6020,7 +7758,7 @@
       </c>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>73</v>
       </c>
@@ -6039,7 +7777,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>19</v>
       </c>
@@ -6058,7 +7796,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>55</v>
       </c>
@@ -6071,24 +7809,24 @@
       <c r="D40">
         <v>6.8999999999999996E-7</v>
       </c>
-      <c r="E40" s="7" t="str">
+      <c r="E40" s="7">
         <f>VLOOKUP(A40,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C41">
-        <v>5.1999999999999996E-10</v>
+        <v>2.9999999999999998E-13</v>
       </c>
       <c r="D41">
-        <v>3.2000000000000001E-9</v>
+        <v>3E-10</v>
       </c>
       <c r="E41" s="7">
         <f>VLOOKUP(A41,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
@@ -6096,7 +7834,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>49</v>
       </c>
@@ -6115,7 +7853,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>30</v>
       </c>
@@ -6134,7 +7872,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>57</v>
       </c>
@@ -6147,9 +7885,9 @@
       <c r="D44">
         <v>3.15E-5</v>
       </c>
-      <c r="E44" s="7" t="str">
+      <c r="E44" s="7">
         <f>VLOOKUP(A44,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
       <c r="G44"/>
     </row>
@@ -6166,9 +7904,9 @@
       <c r="D45">
         <v>3.4999999999999998E-10</v>
       </c>
-      <c r="E45" s="7" t="str">
+      <c r="E45" s="7">
         <f>VLOOKUP(A45,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <f>C45*1.5</f>
@@ -6179,12 +7917,12 @@
         <v>5.2499999999999994E-10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C46">
         <v>2.9999999999999998E-13</v>
@@ -6196,9 +7934,16 @@
         <f>VLOOKUP(A46,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G46"/>
-    </row>
-    <row r="47" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <f>C46*0.75</f>
+        <v>2.25E-13</v>
+      </c>
+      <c r="G46" s="14">
+        <f>D46*0.75</f>
+        <v>2.25E-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>54</v>
       </c>
@@ -6211,13 +7956,13 @@
       <c r="D47">
         <v>1.3E-6</v>
       </c>
-      <c r="E47" s="7" t="str">
+      <c r="E47" s="7">
         <f>VLOOKUP(A47,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT/-MORT</v>
+        <v>0</v>
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>26</v>
       </c>
@@ -6230,13 +7975,13 @@
       <c r="D48">
         <v>8.0000000000000002E-13</v>
       </c>
-      <c r="E48" s="7" t="str">
+      <c r="E48" s="7">
         <f>VLOOKUP(A48,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>0</v>
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>27</v>
       </c>
@@ -6249,13 +7994,13 @@
       <c r="D49">
         <v>2.6000000000000001E-9</v>
       </c>
-      <c r="E49" s="7" t="str">
+      <c r="E49" s="7">
         <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>59</v>
       </c>
@@ -6268,65 +8013,69 @@
       <c r="D50">
         <v>1.5E-5</v>
       </c>
-      <c r="E50" s="7" t="str">
+      <c r="E50" s="7">
         <f>VLOOKUP(A50,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C51">
-        <v>2.9999999999999998E-13</v>
+        <v>4.9999999999999999E-13</v>
       </c>
       <c r="D51">
-        <v>3E-10</v>
-      </c>
-      <c r="E51" s="7" t="str">
+        <v>3.4999999999999998E-10</v>
+      </c>
+      <c r="E51" s="7">
         <f>VLOOKUP(A51,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>MORT</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <f>C51*0.75</f>
-        <v>2.25E-13</v>
+        <f>C51*1.5</f>
+        <v>7.5000000000000004E-13</v>
       </c>
       <c r="G51" s="14">
-        <f>D51*0.75</f>
-        <v>2.25E-10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <f>D51*1.5</f>
+        <v>5.2499999999999994E-10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52">
-        <v>4.9999999999999999E-13</v>
+        <v>1E-14</v>
       </c>
       <c r="D52">
-        <v>3.4999999999999998E-10</v>
-      </c>
-      <c r="E52" s="7" t="str">
+        <v>1E-13</v>
+      </c>
+      <c r="E52" s="7">
         <f>VLOOKUP(A52,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
-      </c>
-      <c r="F52">
-        <f>C52*1.5</f>
-        <v>7.5000000000000004E-13</v>
+        <v>0</v>
+      </c>
+      <c r="F52" s="14">
+        <v>1E-13</v>
       </c>
       <c r="G52" s="14">
-        <f>D52*1.5</f>
-        <v>5.2499999999999994E-10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.0000000000000001E-13</v>
+      </c>
+      <c r="H52" s="14">
+        <v>2.0000000000000001E-13</v>
+      </c>
+      <c r="I52" s="14">
+        <v>4.0000000000000001E-13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>37</v>
       </c>
@@ -6339,13 +8088,13 @@
       <c r="D53">
         <v>3E-10</v>
       </c>
-      <c r="E53" s="7" t="str">
+      <c r="E53" s="7">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>14</v>
       </c>
@@ -6358,9 +8107,9 @@
       <c r="D54">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E54" s="7" t="str">
+      <c r="E54" s="7">
         <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/PRED/MORT</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <f>C54*1.25</f>
@@ -6371,7 +8120,7 @@
         <v>4.0000000000000002E-9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>38</v>
       </c>
@@ -6384,9 +8133,9 @@
       <c r="D55">
         <v>3E-10</v>
       </c>
-      <c r="E55" s="7" t="str">
+      <c r="E55" s="7">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-/+MORT</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <f>C55*2</f>
@@ -6397,7 +8146,7 @@
         <v>6E-10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>33</v>
       </c>
@@ -6410,9 +8159,9 @@
       <c r="D56">
         <v>3E-10</v>
       </c>
-      <c r="E56" s="7" t="str">
+      <c r="E56" s="7">
         <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>-MORT/PRED</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <f>C56/2</f>
@@ -6423,7 +8172,7 @@
         <v>1.5E-10</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>60</v>
       </c>
@@ -6436,13 +8185,13 @@
       <c r="D57">
         <v>1.5E-5</v>
       </c>
-      <c r="E57" s="7" t="str">
+      <c r="E57" s="7">
         <f>VLOOKUP(A57,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>REVERT</v>
+        <v>0</v>
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
@@ -6455,9 +8204,9 @@
       <c r="D58">
         <v>3.7499999999999998E-8</v>
       </c>
-      <c r="E58" s="7" t="str">
+      <c r="E58" s="7">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="F58" s="14">
         <v>1E-10</v>
@@ -6466,7 +8215,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>13</v>
       </c>
@@ -6479,9 +8228,9 @@
       <c r="D59">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E59" s="7" t="str">
+      <c r="E59" s="7">
         <f>VLOOKUP(A59,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <f>C59*0.5</f>
@@ -6492,7 +8241,7 @@
         <v>1.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>15</v>
       </c>
@@ -6505,9 +8254,9 @@
       <c r="D60">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E60" s="7" t="str">
+      <c r="E60" s="7">
         <f>VLOOKUP(A60,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <f>C60*0.5</f>
@@ -6518,7 +8267,7 @@
         <v>1.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>51</v>
       </c>
@@ -6537,7 +8286,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>16</v>
       </c>
@@ -6550,9 +8299,9 @@
       <c r="D62">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E62" s="7" t="str">
+      <c r="E62" s="7">
         <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+/-MORT</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <f>C62*0.5</f>
@@ -6563,7 +8312,7 @@
         <v>1.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>39</v>
       </c>
@@ -6582,7 +8331,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>43</v>
       </c>
@@ -6602,12 +8351,10 @@
       <c r="G64"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G64">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="A1:I1">
+    <sortState ref="A2:I64">
+      <sortCondition ref="B1"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" tabRatio="853"/>
   </bookViews>
   <sheets>
     <sheet name="Group Condition" sheetId="1" r:id="rId1"/>
-    <sheet name="Crash Diagnosis" sheetId="6" r:id="rId2"/>
-    <sheet name="Recruitment_Log" sheetId="3" r:id="rId3"/>
-    <sheet name="mL-Log" sheetId="4" r:id="rId4"/>
-    <sheet name="mQ-log" sheetId="5" r:id="rId5"/>
+    <sheet name="Notes Log" sheetId="7" r:id="rId2"/>
+    <sheet name="Crash Diagnosis" sheetId="6" r:id="rId3"/>
+    <sheet name="Recruitment_Log" sheetId="3" r:id="rId4"/>
+    <sheet name="mL-Log" sheetId="4" r:id="rId5"/>
+    <sheet name="mQ-log" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Crash Diagnosis'!$A$1:$J$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Crash Diagnosis'!$A$1:$J$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Group Condition'!$A$1:$I$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'mL-Log'!$A$1:$G$64</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'mQ-log'!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Recruitment_Log!$A$1:$O$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'mL-Log'!$A$1:$G$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'mQ-log'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Notes Log'!$A$1:$E$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Recruitment_Log!$A$1:$O$68</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="373">
   <si>
     <t>Too Low</t>
   </si>
@@ -652,12 +654,6 @@
     <t>normal</t>
   </si>
   <si>
-    <t>HER, BD, BC</t>
-  </si>
-  <si>
-    <t>DOG, SHK</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
@@ -676,24 +672,15 @@
     <t>DOG, HAL, SSH</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>BD, QHG, CLA, OSH</t>
   </si>
   <si>
     <t>WHK, YTF, OPT</t>
   </si>
   <si>
-    <t>OPT?, WHK?</t>
-  </si>
-  <si>
     <t>Growth</t>
   </si>
   <si>
-    <t>ZM,ZS, down kdenr, up mum</t>
-  </si>
-  <si>
     <t>Declines in adults yr 20</t>
   </si>
   <si>
@@ -709,9 +696,6 @@
     <t>BFF, BD, LSQ, ISQ</t>
   </si>
   <si>
-    <t>down MAK</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -724,24 +708,12 @@
     <t>BLF, YTF</t>
   </si>
   <si>
-    <t>BFF, WOL, and BLF Cannibalism, DRM up</t>
-  </si>
-  <si>
-    <t>down WSK, LOB, down growth</t>
-  </si>
-  <si>
-    <t>down growth</t>
-  </si>
-  <si>
     <t>OSH, ZG, DR, ZM, NSH, ZL</t>
   </si>
   <si>
     <t>ZL,POL,DOG</t>
   </si>
   <si>
-    <t>down DOG,  down cannibalism</t>
-  </si>
-  <si>
     <t>limited growth past 6-9</t>
   </si>
   <si>
@@ -751,21 +723,12 @@
     <t>SHK, WHK</t>
   </si>
   <si>
-    <t>recruits too high, increase growth</t>
-  </si>
-  <si>
     <t>ZS, PL, DL</t>
   </si>
   <si>
     <t>ZL, HER</t>
   </si>
   <si>
-    <t>down ZL, ZM</t>
-  </si>
-  <si>
-    <t>down ZL</t>
-  </si>
-  <si>
     <t>PS, ZS</t>
   </si>
   <si>
@@ -793,36 +756,24 @@
     <t>QHG, CLA, BD</t>
   </si>
   <si>
-    <t>Up CLA, QHG</t>
-  </si>
-  <si>
     <t>BD, FDF, QHG, LOB</t>
   </si>
   <si>
     <t>YTF, SHK</t>
   </si>
   <si>
-    <t>down BD</t>
-  </si>
-  <si>
     <t>BC,BFF,BD</t>
   </si>
   <si>
     <t>SHK, BLF, DOG</t>
   </si>
   <si>
-    <t>down DOG</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
     <t>DOG,SK</t>
   </si>
   <si>
-    <t>down SK, DOG</t>
-  </si>
-  <si>
     <t>BC, BD, LOB</t>
   </si>
   <si>
@@ -832,9 +783,6 @@
     <t>down BLF, up HER</t>
   </si>
   <si>
-    <t>Prey, growth up</t>
-  </si>
-  <si>
     <t>ReducePred11</t>
   </si>
   <si>
@@ -847,12 +795,6 @@
     <t>KDENR/2, zoo from Puget</t>
   </si>
   <si>
-    <t>ReducePred11_mq1</t>
-  </si>
-  <si>
-    <t>ReducePred11_mq2</t>
-  </si>
-  <si>
     <t>up OPT_mq,</t>
   </si>
   <si>
@@ -883,22 +825,337 @@
     <t>mum_HER x2</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>++</t>
-  </si>
-  <si>
-    <t>+mort</t>
-  </si>
-  <si>
-    <t>-reduce mum/C</t>
-  </si>
-  <si>
     <t>ReducePred10</t>
   </si>
   <si>
     <t>RedicePred11</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>HER, BD, RCB</t>
+  </si>
+  <si>
+    <t>WOL, SHK, GOO</t>
+  </si>
+  <si>
+    <t>down pprey SHK, YTF; down mQ, up mum</t>
+  </si>
+  <si>
+    <t>up KDENR, up mum</t>
+  </si>
+  <si>
+    <t>up zoo, up mum</t>
+  </si>
+  <si>
+    <t>up kdenr, down mum</t>
+  </si>
+  <si>
+    <t>ReducePred10b_mq1</t>
+  </si>
+  <si>
+    <t>ReducePred10b_mq2</t>
+  </si>
+  <si>
+    <t>ReducePred11_mQ1</t>
+  </si>
+  <si>
+    <t>ReducePred10b</t>
+  </si>
+  <si>
+    <t>decrease early</t>
+  </si>
+  <si>
+    <t>crashes early</t>
+  </si>
+  <si>
+    <t>decrease late, still high</t>
+  </si>
+  <si>
+    <t>no change, revert</t>
+  </si>
+  <si>
+    <t>worse, revert</t>
+  </si>
+  <si>
+    <t>better start, still crash</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>delayed crash, too high</t>
+  </si>
+  <si>
+    <t>higher start, revert</t>
+  </si>
+  <si>
+    <t>high start, revert</t>
+  </si>
+  <si>
+    <t>worse, mum way up</t>
+  </si>
+  <si>
+    <t>lower start</t>
+  </si>
+  <si>
+    <t>higher start</t>
+  </si>
+  <si>
+    <t>reduce early</t>
+  </si>
+  <si>
+    <t>no change, mum way up</t>
+  </si>
+  <si>
+    <t>too low, revert?</t>
+  </si>
+  <si>
+    <t>Too high, revert</t>
+  </si>
+  <si>
+    <t>worse revert</t>
+  </si>
+  <si>
+    <t>somewhere in middle mum/C</t>
+  </si>
+  <si>
+    <t>too high, revert</t>
+  </si>
+  <si>
+    <t>lower start, crashes earlier</t>
+  </si>
+  <si>
+    <t>somewhere in middle</t>
+  </si>
+  <si>
+    <t>somwhere in middle</t>
+  </si>
+  <si>
+    <t>too low, revert</t>
+  </si>
+  <si>
+    <t>higher, revert</t>
+  </si>
+  <si>
+    <t>casues crash</t>
+  </si>
+  <si>
+    <t>maybe worse</t>
+  </si>
+  <si>
+    <t>Change Notes</t>
+  </si>
+  <si>
+    <t>ReducePred12</t>
+  </si>
+  <si>
+    <t>mum_RED x2, down RED_mQ</t>
+  </si>
+  <si>
+    <t>ReducePred11_Change</t>
+  </si>
+  <si>
+    <t>ReducePred12_Notes</t>
+  </si>
+  <si>
+    <t>up KDENR, mum_PLA x2</t>
+  </si>
+  <si>
+    <t>SHK and PLA pred high, up KDENR x2</t>
+  </si>
+  <si>
+    <t>mum_HAL x1/2, up HAL_mQ</t>
+  </si>
+  <si>
+    <t>mum_DRM x1/2, up DRM_mQ</t>
+  </si>
+  <si>
+    <t>mum_SSH x1/2, up SSH_mQ</t>
+  </si>
+  <si>
+    <t>mum_DOG x1/2, up DOG_mQ</t>
+  </si>
+  <si>
+    <t>mum_STB x1/2, up STB_mQ</t>
+  </si>
+  <si>
+    <t>mum_HER x2, mQ = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEN_mQ = 0, MEN_mL = 0 </t>
+  </si>
+  <si>
+    <t>up KDENR</t>
+  </si>
+  <si>
+    <t>pPREY HER:ZM 0.02, HER:ZS 0.01; up E_HER; up mum_HER, up KDENR x1.5</t>
+  </si>
+  <si>
+    <t>KDENR x10</t>
+  </si>
+  <si>
+    <t>down SDF_mQ, mum_SDF x0.75</t>
+  </si>
+  <si>
+    <t>up mum_SDF</t>
+  </si>
+  <si>
+    <t>mum_BSB x1/2, up BSB_mQ and BSB_mL</t>
+  </si>
+  <si>
+    <t>down BLF:BLF WOL:BLF , up BLF_mQ</t>
+  </si>
+  <si>
+    <t>down RCB</t>
+  </si>
+  <si>
+    <t>down mum_BLF 6-9</t>
+  </si>
+  <si>
+    <t>down mum_BUT 6-9</t>
+  </si>
+  <si>
+    <t>up mum_ZL</t>
+  </si>
+  <si>
+    <t>up mum_ZS</t>
+  </si>
+  <si>
+    <t>down mum_HAD 5-9, up KDENR, down pPREY HAD:HAD</t>
+  </si>
+  <si>
+    <t>down KDENR_LSQ 25%, down mum_LSQ 25%</t>
+  </si>
+  <si>
+    <t>down MAK_mL, MAK_mQ</t>
+  </si>
+  <si>
+    <t>KDENR_MAK orig, up MAK_mQ</t>
+  </si>
+  <si>
+    <t>up mum_ZM, ZM_mL and ZM_mQ = 0</t>
+  </si>
+  <si>
+    <t>up mum_ZM x2</t>
+  </si>
+  <si>
+    <t>up mum_ZS x2</t>
+  </si>
+  <si>
+    <t>down MAK:MPF, up mum_MPF x1.5</t>
+  </si>
+  <si>
+    <t>down pPREY GOO:GOO, down GOO_mQ</t>
+  </si>
+  <si>
+    <t>down mum_SK 6-9</t>
+  </si>
+  <si>
+    <t>down mum_SSH, up SSH_mQ</t>
+  </si>
+  <si>
+    <t>down mum_OHK 6-9</t>
+  </si>
+  <si>
+    <t>down mum_RHK 6-9</t>
+  </si>
+  <si>
+    <t>down mum_POL 6-9, up POL_mQ</t>
+  </si>
+  <si>
+    <t>up mum_OSH, up OSH_mQ</t>
+  </si>
+  <si>
+    <t>mum 0.01, C 0.005</t>
+  </si>
+  <si>
+    <t>C_RCB 0.006, mum_RCB 0.035</t>
+  </si>
+  <si>
+    <t>down pPREY SCU:CLA, SCU:QHG</t>
+  </si>
+  <si>
+    <t>SB_mQ 1E-15</t>
+  </si>
+  <si>
+    <t>up SB_mQ</t>
+  </si>
+  <si>
+    <t>upKDENR x10, down pPREY SHK:SHK</t>
+  </si>
+  <si>
+    <t>down mum_DOG 5-9, up DOG_mQ</t>
+  </si>
+  <si>
+    <t>down mum_SUF, up KDENR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">up KDENR x10 </t>
+  </si>
+  <si>
+    <t>down pPREY YTF:TAU, down mum_TAU, up TAU_mQ</t>
+  </si>
+  <si>
+    <t>up mum_TYL x2, up KDENR</t>
+  </si>
+  <si>
+    <t>down mum_TYL x0.75, up TYL_mQ</t>
+  </si>
+  <si>
+    <t>down mum_WTF 6-9</t>
+  </si>
+  <si>
+    <t>down mum_WOL 6-9</t>
+  </si>
+  <si>
+    <t>down mum_WHK 6-9, up WHK_mQ</t>
+  </si>
+  <si>
+    <t>down mum_WIF 5-9, up WIF_mQ</t>
+  </si>
+  <si>
+    <t>down mum_WSK x1/2</t>
+  </si>
+  <si>
+    <t>down mum_WSK 6-9, down KDENR</t>
+  </si>
+  <si>
+    <t>up RED_mQ</t>
+  </si>
+  <si>
+    <t>ReducePred11_mQ2</t>
+  </si>
+  <si>
+    <t>ReducePred12_mQ1</t>
+  </si>
+  <si>
+    <t>ReducePred12_mQ2</t>
+  </si>
+  <si>
+    <t>down mum_HAL x1/2, up HAL_mQ</t>
+  </si>
+  <si>
+    <t>pPREY MAK:MEN=0.01, KDENR x2</t>
+  </si>
+  <si>
+    <t>down mum_BSB, up BSB_mQ</t>
+  </si>
+  <si>
+    <t>up mum_ZL, down LOB,</t>
+  </si>
+  <si>
+    <t>down mum_FDF *.75, up KDENR_FDF</t>
+  </si>
+  <si>
+    <t>down mum_OPT*1/2, up OPT_mQ</t>
+  </si>
+  <si>
+    <t>down mum_DSH 3-9, up DSH_mQ</t>
+  </si>
+  <si>
+    <t>typo in mum_STB 8</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1030,6 +1287,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1312,9 +1570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,12 +1624,15 @@
       <c r="B2" t="s">
         <v>122</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C2" t="s">
         <v>180</v>
       </c>
       <c r="H2" t="str">
-        <f>IF(COUNTIF(C2:G2,"X")=0,"X","")</f>
+        <f t="shared" ref="H2:H32" si="0">IF(OR(COUNTIF(C2:G2,"X")=0,COUNTIF(C2:G2,"B")&lt;&gt;0),"X","")</f>
         <v/>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1385,8 +1646,11 @@
         <v>180</v>
       </c>
       <c r="H3" t="str">
-        <f>IF(COUNTIF(C3:G3,"X")=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1397,7 +1661,7 @@
         <v>110</v>
       </c>
       <c r="H4" t="str">
-        <f>IF(COUNTIF(C4:G4,"X")=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
     </row>
@@ -1415,7 +1679,7 @@
         <v>180</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H7" si="0">IF(COUNTIF(C5:G5,"X")=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1449,7 +1713,7 @@
         <v/>
       </c>
       <c r="I7" s="13" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1460,8 +1724,11 @@
         <v>93</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" ref="H3:H66" si="1">IF(COUNTIF(C8:G8,"X")=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1475,11 +1742,11 @@
         <v>180</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I9" s="13" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1493,8 +1760,11 @@
         <v>180</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1508,8 +1778,11 @@
         <v>180</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1520,11 +1793,11 @@
         <v>155</v>
       </c>
       <c r="G12" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1538,7 +1811,7 @@
         <v>180</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1549,12 +1822,15 @@
       <c r="B14" t="s">
         <v>167</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>180</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1565,11 +1841,11 @@
         <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1580,11 +1856,11 @@
         <v>106</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1594,15 +1870,21 @@
       <c r="C17" t="s">
         <v>180</v>
       </c>
+      <c r="D17" t="s">
+        <v>180</v>
+      </c>
       <c r="G17" t="s">
         <v>180</v>
       </c>
       <c r="H17" t="str">
-        <f>IF(COUNTIF(C17:G17,"X")=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1610,26 +1892,32 @@
         <v>137</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>95</v>
       </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
       <c r="G19" t="s">
         <v>180</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1640,11 +1928,14 @@
         <v>180</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -1655,26 +1946,26 @@
         <v>180</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>75</v>
       </c>
       <c r="B22" t="s">
         <v>164</v>
       </c>
-      <c r="D22" t="s">
-        <v>180</v>
-      </c>
       <c r="H22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1682,26 +1973,23 @@
         <v>169</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>81</v>
       </c>
       <c r="B24" t="s">
         <v>170</v>
       </c>
-      <c r="D24" t="s">
-        <v>180</v>
-      </c>
       <c r="H24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1715,11 +2003,14 @@
         <v>180</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1727,26 +2018,26 @@
         <v>100</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
       <c r="B27" t="s">
         <v>168</v>
       </c>
-      <c r="G27" t="s">
+      <c r="E27" t="s">
         <v>180</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1757,47 +2048,38 @@
         <v>180</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
       <c r="B29" t="s">
         <v>152</v>
       </c>
-      <c r="C29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" t="s">
-        <v>180</v>
-      </c>
       <c r="H29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>150</v>
       </c>
-      <c r="C30" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" t="s">
-        <v>180</v>
-      </c>
       <c r="H30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -1805,11 +2087,11 @@
         <v>177</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -1817,35 +2099,47 @@
         <v>141</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>158</v>
       </c>
+      <c r="C33" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" t="s">
+        <v>264</v>
+      </c>
       <c r="H33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(C33:G33,"X")=0,COUNTIF(C33:G33,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
       <c r="B34" t="s">
         <v>151</v>
       </c>
+      <c r="C34" t="s">
+        <v>180</v>
+      </c>
       <c r="H34" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H34:H88" si="1">IF(OR(COUNTIF(C34:G34,"X")=0,COUNTIF(C34:G34,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1862,8 +2156,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1875,7 +2172,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -1889,11 +2186,11 @@
         <v>180</v>
       </c>
       <c r="H37" t="str">
-        <f>IF(COUNTIF(C37:G37,"X")=0,"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -1905,7 +2202,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1919,8 +2216,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -1934,20 +2234,29 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
       <c r="B41" t="s">
         <v>107</v>
       </c>
+      <c r="E41" t="s">
+        <v>180</v>
+      </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1958,32 +2267,50 @@
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>111</v>
       </c>
+      <c r="C43" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" t="s">
+        <v>180</v>
+      </c>
       <c r="H43" t="str">
-        <f>IF(COUNTIF(C43:G43,"X")=0,"X","")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
       <c r="B44" t="s">
         <v>142</v>
       </c>
+      <c r="C44" t="s">
+        <v>180</v>
+      </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -1995,19 +2322,25 @@
         <v>X</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>34</v>
       </c>
       <c r="B46" t="s">
         <v>123</v>
       </c>
+      <c r="C46" t="s">
+        <v>180</v>
+      </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -2015,23 +2348,29 @@
         <v>154</v>
       </c>
       <c r="G47" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>28</v>
       </c>
       <c r="B48" t="s">
         <v>116</v>
       </c>
+      <c r="C48" t="s">
+        <v>180</v>
+      </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v/>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2042,11 +2381,11 @@
         <v>156</v>
       </c>
       <c r="G49" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="H49" t="str">
-        <f>IF(COUNTIF(C49:G49,"X")=0,"X","")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>X</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2056,9 +2395,15 @@
       <c r="B50" t="s">
         <v>109</v>
       </c>
+      <c r="C50" t="s">
+        <v>180</v>
+      </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v/>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2068,9 +2413,15 @@
       <c r="B51" t="s">
         <v>136</v>
       </c>
+      <c r="C51" t="s">
+        <v>180</v>
+      </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v/>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2080,15 +2431,9 @@
       <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="D52" t="s">
-        <v>180</v>
-      </c>
       <c r="H52" t="str">
-        <f>IF(COUNTIF(C52:G52,"X")=0,"X","")</f>
-        <v/>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>284</v>
+        <f t="shared" si="1"/>
+        <v>X</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -2110,9 +2455,15 @@
       <c r="B54" t="s">
         <v>162</v>
       </c>
+      <c r="E54" t="s">
+        <v>180</v>
+      </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v/>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2162,7 +2513,7 @@
         <v>180</v>
       </c>
       <c r="H58" t="str">
-        <f>IF(COUNTIF(C58:G58,"X")=0,"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2173,9 +2524,15 @@
       <c r="B59" t="s">
         <v>117</v>
       </c>
+      <c r="C59" t="s">
+        <v>180</v>
+      </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v/>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -2197,18 +2554,15 @@
       <c r="B61" t="s">
         <v>159</v>
       </c>
-      <c r="C61" t="s">
-        <v>180</v>
-      </c>
       <c r="G61" t="s">
         <v>180</v>
       </c>
       <c r="H61" t="str">
-        <f>IF(COUNTIF(C61:G61,"X")=0,"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I61" s="13" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -2218,9 +2572,15 @@
       <c r="B62" t="s">
         <v>118</v>
       </c>
+      <c r="C62" t="s">
+        <v>180</v>
+      </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
+        <v/>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -2250,12 +2610,15 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>46</v>
       </c>
       <c r="B65" t="s">
         <v>135</v>
+      </c>
+      <c r="C65" t="s">
+        <v>180</v>
       </c>
       <c r="D65" t="s">
         <v>180</v>
@@ -2264,8 +2627,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -2279,8 +2645,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -2288,29 +2657,35 @@
         <v>153</v>
       </c>
       <c r="G67" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H69" si="2">IF(COUNTIF(C67:G67,"X")=0,"X","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>54</v>
       </c>
       <c r="B68" t="s">
         <v>143</v>
       </c>
-      <c r="E68" t="s">
+      <c r="C68" t="s">
         <v>180</v>
       </c>
+      <c r="D68" t="s">
+        <v>180</v>
+      </c>
       <c r="H68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -2321,11 +2696,11 @@
         <v>180</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -2333,23 +2708,29 @@
         <v>175</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" ref="H67:H88" si="3">IF(COUNTIF(C70:G70,"X")=0,"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>26</v>
       </c>
       <c r="B71" t="s">
         <v>113</v>
       </c>
+      <c r="E71" t="s">
+        <v>180</v>
+      </c>
       <c r="H71" t="str">
-        <f t="shared" si="3"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2360,23 +2741,29 @@
         <v>180</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>27</v>
       </c>
       <c r="B73" t="s">
         <v>115</v>
       </c>
+      <c r="F73" t="s">
+        <v>180</v>
+      </c>
       <c r="H73" t="str">
-        <f t="shared" si="3"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -2387,29 +2774,23 @@
         <v>180</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>45</v>
       </c>
       <c r="B75" t="s">
         <v>134</v>
       </c>
-      <c r="C75" t="s">
-        <v>180</v>
-      </c>
-      <c r="D75" t="s">
-        <v>180</v>
-      </c>
       <c r="H75" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -2423,47 +2804,50 @@
         <v>180</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>37</v>
       </c>
       <c r="B77" t="s">
         <v>126</v>
       </c>
-      <c r="C77" t="s">
-        <v>180</v>
-      </c>
       <c r="G77" t="s">
         <v>180</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>14</v>
       </c>
       <c r="B78" t="s">
         <v>97</v>
       </c>
-      <c r="C78" t="s">
-        <v>180</v>
-      </c>
       <c r="G78" t="s">
         <v>180</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -2480,26 +2864,38 @@
         <v>180</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>33</v>
       </c>
       <c r="B80" t="s">
         <v>121</v>
       </c>
+      <c r="C80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" t="s">
+        <v>180</v>
+      </c>
       <c r="G80" t="s">
         <v>180</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -2507,23 +2903,32 @@
         <v>149</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
       <c r="B82" t="s">
         <v>94</v>
       </c>
+      <c r="C82" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" t="s">
+        <v>180</v>
+      </c>
       <c r="H82" t="str">
-        <f t="shared" si="3"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -2531,23 +2936,29 @@
         <v>96</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
       <c r="B84" t="s">
         <v>98</v>
       </c>
+      <c r="C84" t="s">
+        <v>180</v>
+      </c>
       <c r="H84" t="str">
-        <f t="shared" si="3"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -2558,35 +2969,50 @@
         <v>180</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
       <c r="B86" t="s">
         <v>99</v>
       </c>
+      <c r="C86" t="s">
+        <v>180</v>
+      </c>
       <c r="H86" t="str">
-        <f>IF(COUNTIF(C86:G86,"X")=0,"X","")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
       <c r="B87" t="s">
         <v>128</v>
       </c>
+      <c r="C87" t="s">
+        <v>180</v>
+      </c>
       <c r="H87" t="str">
-        <f t="shared" si="3"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -2594,7 +3020,7 @@
         <v>132</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
     </row>
@@ -2607,13 +3033,1329 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
+  <dimension ref="A1:E88"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="62.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(A2,'Group Condition'!A2:I88,9,FALSE)</f>
+        <v>decrease early</v>
+      </c>
+      <c r="D2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(A3,'Group Condition'!A3:I89,9,FALSE)</f>
+        <v>crashes early</v>
+      </c>
+      <c r="D3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP(A4,'Group Condition'!A4:I90,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP(A5,'Group Condition'!A5:I91,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP(A6,'Group Condition'!A6:I92,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(A7,'Group Condition'!A7:I93,9,FALSE)</f>
+        <v>decrease late, still high</v>
+      </c>
+      <c r="D7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(A8,'Group Condition'!A8:I94,9,FALSE)</f>
+        <v>no change, revert</v>
+      </c>
+      <c r="D8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(A9,'Group Condition'!A9:I95,9,FALSE)</f>
+        <v>no change, revert</v>
+      </c>
+      <c r="D9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(A10,'Group Condition'!A10:I96,9,FALSE)</f>
+        <v>worse, revert</v>
+      </c>
+      <c r="D10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(A11,'Group Condition'!A11:I97,9,FALSE)</f>
+        <v>better start, still crash</v>
+      </c>
+      <c r="D11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12">
+        <f>VLOOKUP(A12,'Group Condition'!A12:I98,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(A13,'Group Condition'!A13:I99,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP(A14,'Group Condition'!A14:I100,9,FALSE)</f>
+        <v>worse</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP(A15,'Group Condition'!A15:I101,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16">
+        <f>VLOOKUP(A16,'Group Condition'!A16:I102,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="str">
+        <f>VLOOKUP(A17,'Group Condition'!A17:I103,9,FALSE)</f>
+        <v>delayed crash, too high</v>
+      </c>
+      <c r="D17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18">
+        <f>VLOOKUP(A18,'Group Condition'!A18:I104,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP(A19,'Group Condition'!A19:I105,9,FALSE)</f>
+        <v>higher start, revert</v>
+      </c>
+      <c r="D19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(A20,'Group Condition'!A20:I106,9,FALSE)</f>
+        <v>high start, revert</v>
+      </c>
+      <c r="D20" t="s">
+        <v>323</v>
+      </c>
+      <c r="E20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP(A21,'Group Condition'!A21:I107,9,FALSE)</f>
+        <v>worse, mum way up</v>
+      </c>
+      <c r="D21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22">
+        <f>VLOOKUP(A22,'Group Condition'!A22:I108,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23">
+        <f>VLOOKUP(A23,'Group Condition'!A23:I109,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24">
+        <f>VLOOKUP(A24,'Group Condition'!A24:I110,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="str">
+        <f>VLOOKUP(A25,'Group Condition'!A25:I111,9,FALSE)</f>
+        <v>lower start</v>
+      </c>
+      <c r="D25" t="s">
+        <v>310</v>
+      </c>
+      <c r="E25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <f>VLOOKUP(A26,'Group Condition'!A26:I112,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27">
+        <f>VLOOKUP(A27,'Group Condition'!A27:I113,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="str">
+        <f>VLOOKUP(A28,'Group Condition'!A28:I114,9,FALSE)</f>
+        <v>higher start</v>
+      </c>
+      <c r="E28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29">
+        <f>VLOOKUP(A29,'Group Condition'!A29:I115,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30">
+        <f>VLOOKUP(A30,'Group Condition'!A30:I116,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31">
+        <f>VLOOKUP(A31,'Group Condition'!A31:I117,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32">
+        <f>VLOOKUP(A32,'Group Condition'!A32:I118,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33">
+        <f>VLOOKUP(A33,'Group Condition'!A33:I119,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" t="str">
+        <f>VLOOKUP(A34,'Group Condition'!A34:I120,9,FALSE)</f>
+        <v>reduce early</v>
+      </c>
+      <c r="E34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="str">
+        <f>VLOOKUP(A35,'Group Condition'!A35:I121,9,FALSE)</f>
+        <v>no change, revert</v>
+      </c>
+      <c r="D35" t="s">
+        <v>330</v>
+      </c>
+      <c r="E35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36">
+        <f>VLOOKUP(A36,'Group Condition'!A36:I122,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37">
+        <f>VLOOKUP(A37,'Group Condition'!A37:I123,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38">
+        <f>VLOOKUP(A38,'Group Condition'!A38:I124,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" t="str">
+        <f>VLOOKUP(A39,'Group Condition'!A39:I125,9,FALSE)</f>
+        <v>no change, mum way up</v>
+      </c>
+      <c r="D39" t="s">
+        <v>332</v>
+      </c>
+      <c r="E39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="str">
+        <f>VLOOKUP(A40,'Group Condition'!A40:I126,9,FALSE)</f>
+        <v>no change, mum way up</v>
+      </c>
+      <c r="D40" t="s">
+        <v>327</v>
+      </c>
+      <c r="E40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="str">
+        <f>VLOOKUP(A41,'Group Condition'!A41:I127,9,FALSE)</f>
+        <v>too low, revert?</v>
+      </c>
+      <c r="E41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" t="str">
+        <f>VLOOKUP(A42,'Group Condition'!A42:I128,9,FALSE)</f>
+        <v>Too high, revert</v>
+      </c>
+      <c r="E42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="str">
+        <f>VLOOKUP(A43,'Group Condition'!A43:I129,9,FALSE)</f>
+        <v>worse, revert</v>
+      </c>
+      <c r="E43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" t="str">
+        <f>VLOOKUP(A44,'Group Condition'!A44:I130,9,FALSE)</f>
+        <v>worse, revert</v>
+      </c>
+      <c r="E44" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45">
+        <f>VLOOKUP(A45,'Group Condition'!A45:I131,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="str">
+        <f>VLOOKUP(A46,'Group Condition'!A46:I132,9,FALSE)</f>
+        <v>worse, revert</v>
+      </c>
+      <c r="E46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47">
+        <f>VLOOKUP(A47,'Group Condition'!A47:I133,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="str">
+        <f>VLOOKUP(A48,'Group Condition'!A48:I134,9,FALSE)</f>
+        <v>worse, revert</v>
+      </c>
+      <c r="E48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49">
+        <f>VLOOKUP(A49,'Group Condition'!A49:I135,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="str">
+        <f>VLOOKUP(A50,'Group Condition'!A50:I136,9,FALSE)</f>
+        <v>worse, revert</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" t="str">
+        <f>VLOOKUP(A51,'Group Condition'!A51:I137,9,FALSE)</f>
+        <v>worse, revert</v>
+      </c>
+      <c r="E51" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52">
+        <f>VLOOKUP(A52,'Group Condition'!A52:I138,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53">
+        <f>VLOOKUP(A53,'Group Condition'!A53:I139,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" t="str">
+        <f>VLOOKUP(A54,'Group Condition'!A54:I140,9,FALSE)</f>
+        <v>crashes early</v>
+      </c>
+      <c r="E54" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55">
+        <f>VLOOKUP(A55,'Group Condition'!A55:I141,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56">
+        <f>VLOOKUP(A56,'Group Condition'!A56:I142,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57">
+        <f>VLOOKUP(A57,'Group Condition'!A57:I143,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58">
+        <f>VLOOKUP(A58,'Group Condition'!A58:I144,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="str">
+        <f>VLOOKUP(A59,'Group Condition'!A59:I145,9,FALSE)</f>
+        <v>worse revert</v>
+      </c>
+      <c r="E59" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60">
+        <f>VLOOKUP(A60,'Group Condition'!A60:I146,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" t="str">
+        <f>VLOOKUP(A61,'Group Condition'!A61:I147,9,FALSE)</f>
+        <v>somewhere in middle mum/C</v>
+      </c>
+      <c r="D61" t="s">
+        <v>343</v>
+      </c>
+      <c r="E61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="str">
+        <f>VLOOKUP(A62,'Group Condition'!A62:I148,9,FALSE)</f>
+        <v>Too high, revert</v>
+      </c>
+      <c r="E62" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63">
+        <f>VLOOKUP(A63,'Group Condition'!A63:I149,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64">
+        <f>VLOOKUP(A64,'Group Condition'!A64:I150,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" t="str">
+        <f>VLOOKUP(A65,'Group Condition'!A65:I151,9,FALSE)</f>
+        <v>too high, revert</v>
+      </c>
+      <c r="D65" t="s">
+        <v>311</v>
+      </c>
+      <c r="E65" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="str">
+        <f>VLOOKUP(A66,'Group Condition'!A66:I152,9,FALSE)</f>
+        <v>lower start, crashes earlier</v>
+      </c>
+      <c r="D66" t="s">
+        <v>345</v>
+      </c>
+      <c r="E66" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67">
+        <f>VLOOKUP(A67,'Group Condition'!A67:I153,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="str">
+        <f>VLOOKUP(A68,'Group Condition'!A68:I154,9,FALSE)</f>
+        <v>somewhere in middle</v>
+      </c>
+      <c r="D68" t="s">
+        <v>346</v>
+      </c>
+      <c r="E68" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69">
+        <f>VLOOKUP(A69,'Group Condition'!A69:I155,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70">
+        <f>VLOOKUP(A70,'Group Condition'!A70:I156,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="str">
+        <f>VLOOKUP(A71,'Group Condition'!A71:I157,9,FALSE)</f>
+        <v>somwhere in middle</v>
+      </c>
+      <c r="E71" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72">
+        <f>VLOOKUP(A72,'Group Condition'!A72:I158,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" t="str">
+        <f>VLOOKUP(A73,'Group Condition'!A73:I159,9,FALSE)</f>
+        <v>too low, revert</v>
+      </c>
+      <c r="E73" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74">
+        <f>VLOOKUP(A74,'Group Condition'!A74:I160,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75">
+        <f>VLOOKUP(A75,'Group Condition'!A75:I161,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" t="str">
+        <f>VLOOKUP(A76,'Group Condition'!A76:I162,9,FALSE)</f>
+        <v>no change, revert</v>
+      </c>
+      <c r="D76" t="s">
+        <v>312</v>
+      </c>
+      <c r="E76" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" t="str">
+        <f>VLOOKUP(A77,'Group Condition'!A77:I163,9,FALSE)</f>
+        <v>higher, revert</v>
+      </c>
+      <c r="D77" t="s">
+        <v>313</v>
+      </c>
+      <c r="E77" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" t="str">
+        <f>VLOOKUP(A78,'Group Condition'!A78:I164,9,FALSE)</f>
+        <v>worse, revert</v>
+      </c>
+      <c r="D78" t="s">
+        <v>350</v>
+      </c>
+      <c r="E78" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" t="str">
+        <f>VLOOKUP(A79,'Group Condition'!A79:I165,9,FALSE)</f>
+        <v>casues crash</v>
+      </c>
+      <c r="E79" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="str">
+        <f>VLOOKUP(A80,'Group Condition'!A80:I166,9,FALSE)</f>
+        <v>somewhere in middle</v>
+      </c>
+      <c r="D80" t="s">
+        <v>353</v>
+      </c>
+      <c r="E80" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>60</v>
+      </c>
+      <c r="B81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81">
+        <f>VLOOKUP(A81,'Group Condition'!A81:I167,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" t="str">
+        <f>VLOOKUP(A82,'Group Condition'!A82:I168,9,FALSE)</f>
+        <v>worse revert</v>
+      </c>
+      <c r="E82" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83">
+        <f>VLOOKUP(A83,'Group Condition'!A83:I169,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" t="str">
+        <f>VLOOKUP(A84,'Group Condition'!A84:I170,9,FALSE)</f>
+        <v>worse, revert</v>
+      </c>
+      <c r="E84" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" t="str">
+        <f>VLOOKUP(A85,'Group Condition'!A85:I171,9,FALSE)</f>
+        <v>maybe worse</v>
+      </c>
+      <c r="D85" t="s">
+        <v>359</v>
+      </c>
+      <c r="E85" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" t="str">
+        <f>VLOOKUP(A86,'Group Condition'!A86:I172,9,FALSE)</f>
+        <v>worse, revert</v>
+      </c>
+      <c r="E86" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" t="str">
+        <f>VLOOKUP(A87,'Group Condition'!A87:I173,9,FALSE)</f>
+        <v>worse, revert</v>
+      </c>
+      <c r="E87" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88">
+        <f>VLOOKUP(A88,'Group Condition'!A88:I174,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E88">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="better start, still crash"/>
+        <filter val="casues crash"/>
+        <filter val="crashes early"/>
+        <filter val="decrease early"/>
+        <filter val="decrease late, still high"/>
+        <filter val="delayed crash, too high"/>
+        <filter val="high start, revert"/>
+        <filter val="higher start"/>
+        <filter val="higher start, revert"/>
+        <filter val="higher, revert"/>
+        <filter val="lower start"/>
+        <filter val="lower start, crashes earlier"/>
+        <filter val="maybe worse"/>
+        <filter val="no change, mum way up"/>
+        <filter val="no change, revert"/>
+        <filter val="reduce early"/>
+        <filter val="somewhere in middle"/>
+        <filter val="somewhere in middle mum/C"/>
+        <filter val="somwhere in middle"/>
+        <filter val="Too high, revert"/>
+        <filter val="too low, revert"/>
+        <filter val="too low, revert?"/>
+        <filter val="worse"/>
+        <filter val="worse revert"/>
+        <filter val="worse, mum way up"/>
+        <filter val="worse, revert"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2628,6 +4370,8 @@
     <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.109375" customWidth="1"/>
     <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -2650,7 +4394,7 @@
         <v>198</v>
       </c>
       <c r="G1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H1" t="s">
         <v>196</v>
@@ -2662,13 +4406,13 @@
         <v>199</v>
       </c>
       <c r="K1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L1" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="M1" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2678,15 +4422,15 @@
       <c r="B2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
         <f>VLOOKUP(A2,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>200</v>
@@ -2701,10 +4445,10 @@
         <v>202</v>
       </c>
       <c r="J2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L2" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2731,16 +4475,16 @@
         <v>204</v>
       </c>
       <c r="H3" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="I3" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="L3" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -2818,7 +4562,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F9" t="s">
         <v>200</v>
@@ -2827,16 +4571,16 @@
         <v>200</v>
       </c>
       <c r="H9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="L9" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2857,22 +4601,22 @@
         <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G10" t="s">
         <v>204</v>
       </c>
       <c r="H10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J10" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="K10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2899,19 +4643,16 @@
         <v>204</v>
       </c>
       <c r="H11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I11" t="s">
-        <v>215</v>
-      </c>
-      <c r="J11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -2920,7 +4661,7 @@
       </c>
       <c r="C12" t="str">
         <f>VLOOKUP(A12,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>X</v>
+        <v>B</v>
       </c>
     </row>
     <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -2942,12 +4683,12 @@
       <c r="B14" t="s">
         <v>167</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="str">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -2956,7 +4697,7 @@
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP(A15,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>X</v>
+        <v>B</v>
       </c>
     </row>
     <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
@@ -2989,25 +4730,22 @@
         <v>204</v>
       </c>
       <c r="F17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G17" t="s">
         <v>204</v>
       </c>
       <c r="H17" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I17" t="s">
         <v>202</v>
       </c>
-      <c r="J17" t="s">
-        <v>69</v>
-      </c>
       <c r="K17" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L17" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -3046,16 +4784,13 @@
         <v>204</v>
       </c>
       <c r="H19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I19" t="s">
-        <v>222</v>
-      </c>
-      <c r="J19" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3076,22 +4811,19 @@
         <v>204</v>
       </c>
       <c r="F20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G20" t="s">
         <v>204</v>
       </c>
       <c r="H20" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
       </c>
-      <c r="J20" t="s">
-        <v>224</v>
-      </c>
       <c r="L20" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3109,25 +4841,22 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H21" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I21" t="s">
-        <v>227</v>
-      </c>
-      <c r="J21" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -3184,7 +4913,7 @@
         <v>204</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
         <v>204</v>
@@ -3193,13 +4922,10 @@
         <v>78</v>
       </c>
       <c r="I25" t="s">
-        <v>228</v>
-      </c>
-      <c r="J25" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -3221,33 +4947,30 @@
       <c r="B27" t="s">
         <v>168</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27">
         <f>VLOOKUP(A27,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H27" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
-      </c>
-      <c r="J27" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -3317,9 +5040,9 @@
       <c r="B33" t="s">
         <v>158</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="str">
         <f>VLOOKUP(A33,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>0</v>
+        <v>B</v>
       </c>
     </row>
     <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -3349,25 +5072,22 @@
         <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G35" t="s">
         <v>200</v>
       </c>
       <c r="H35" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="I35" t="s">
-        <v>237</v>
-      </c>
-      <c r="J35" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="K35" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -3421,22 +5141,19 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F39" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G39" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H39" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I39" t="s">
-        <v>240</v>
-      </c>
-      <c r="J39" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -3454,22 +5171,19 @@
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F40" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G40" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H40" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="I40" t="s">
-        <v>244</v>
-      </c>
-      <c r="J40" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -3503,9 +5217,9 @@
       <c r="B43" t="s">
         <v>111</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="str">
         <f>VLOOKUP(A43,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -3520,16 +5234,16 @@
         <v>204</v>
       </c>
       <c r="H43" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="I43" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="J43" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="L43" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -3568,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -3577,7 +5291,7 @@
       </c>
       <c r="C47" t="str">
         <f>VLOOKUP(A47,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>X</v>
+        <v>B</v>
       </c>
     </row>
     <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -3592,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -3601,7 +5315,7 @@
       </c>
       <c r="C49" t="str">
         <f>VLOOKUP(A49,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>X</v>
+        <v>B</v>
       </c>
     </row>
     <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -3736,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -3751,25 +5465,25 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F61" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G61" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H61" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="I61" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="J61" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="L61" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -3808,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -3820,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -3844,16 +5558,13 @@
         <v>204</v>
       </c>
       <c r="H66" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="I66" t="s">
         <v>202</v>
       </c>
-      <c r="J66" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -3862,10 +5573,10 @@
       </c>
       <c r="C67" t="str">
         <f>VLOOKUP(A67,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>54</v>
       </c>
@@ -3877,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -3889,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -3901,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -3913,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3925,7 +5636,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -3937,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -3949,7 +5660,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>45</v>
       </c>
@@ -3961,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -3973,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -3991,22 +5702,19 @@
         <v>204</v>
       </c>
       <c r="F77" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G77" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="I77" t="s">
-        <v>254</v>
-      </c>
-      <c r="J77" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -4024,22 +5732,19 @@
         <v>204</v>
       </c>
       <c r="F78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H78" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I78" t="s">
-        <v>257</v>
-      </c>
-      <c r="J78" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -4047,7 +5752,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -4068,16 +5773,13 @@
         <v>204</v>
       </c>
       <c r="G80" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H80" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="I80" t="s">
-        <v>260</v>
-      </c>
-      <c r="J80" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -4128,16 +5830,16 @@
         <v>204</v>
       </c>
       <c r="H83" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="I83" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="J83" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="L83" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -4212,15 +5914,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49:G49"/>
+      <selection pane="bottomRight" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4268,417 +5970,440 @@
         <v>191</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>266</v>
+        <v>274</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C2" s="7">
-        <v>114181041.2</v>
-      </c>
-      <c r="D2" s="7">
+        <v>1001094433</v>
+      </c>
+      <c r="D2" s="7" t="str">
         <f>VLOOKUP(A2,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>decrease early</v>
       </c>
       <c r="E2" s="6">
-        <v>19030174.25</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="17">
-        <v>114181041.2</v>
+        <v>45700000</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1001094433</v>
+      </c>
+      <c r="G2" s="11">
+        <f>F2*1.25</f>
+        <v>1251368041.25</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="7">
-        <v>15816.31169</v>
-      </c>
-      <c r="D3" s="7">
+        <v>20527442.649999999</v>
+      </c>
+      <c r="D3" s="7" t="str">
         <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>crashes early</v>
       </c>
       <c r="E3" s="6">
-        <v>175816.31169</v>
+        <v>6384375</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
+      <c r="J3" s="3">
+        <v>10000000</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C4" s="7">
-        <v>25797.24295</v>
+        <v>114181041.2</v>
       </c>
       <c r="D4" s="7">
         <f>VLOOKUP(A4,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>100</v>
+        <v>19030174.25</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="7">
+        <v>114181041.2</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C5" s="7">
-        <v>2124041.1490000002</v>
+        <v>15816.31169</v>
       </c>
       <c r="D5" s="7">
         <f>VLOOKUP(A5,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>2124041.1490000002</v>
+        <v>175816.31169</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="11">
-        <f>E5*1.25</f>
-        <v>2655051.4362500003</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C6" s="7">
-        <v>15874.27808</v>
+        <v>16477555.609999999</v>
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP(A6,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>15874.27808</v>
+        <v>993066.96089999995</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="17">
+        <f>C6*0.75</f>
+        <v>12358166.7075</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C7" s="7">
-        <v>34847060.600000001</v>
-      </c>
-      <c r="D7" s="7">
+        <v>254421.22440000001</v>
+      </c>
+      <c r="D7" s="7" t="str">
         <f>VLOOKUP(A7,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>decrease late, still high</v>
       </c>
       <c r="E7" s="6">
-        <v>1742353</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="16"/>
+        <v>150000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="16">
+        <v>200000</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1718757.3940000001</v>
-      </c>
-      <c r="D8" s="7">
+        <v>93</v>
+      </c>
+      <c r="C8" s="8">
+        <v>229000000000</v>
+      </c>
+      <c r="D8" s="7" t="str">
         <f>VLOOKUP(A8,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>no change, revert</v>
       </c>
       <c r="E8" s="6">
-        <v>1718757.3940000001</v>
-      </c>
-      <c r="F8" s="6">
-        <f>E8*0.5</f>
-        <v>859378.69700000004</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1000000</v>
-      </c>
+        <v>2000000000000</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C9" s="7">
-        <v>21996106.07</v>
-      </c>
-      <c r="D9" s="7">
+        <v>32122718.550000001</v>
+      </c>
+      <c r="D9" s="7" t="str">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>no change, revert</v>
       </c>
       <c r="E9" s="6">
-        <v>4000000</v>
+        <v>321227180.55000001</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="11">
-        <v>10000000</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="17">
+        <v>32122718.550000001</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C10" s="7">
-        <v>235.45910710000001</v>
-      </c>
-      <c r="D10" s="7">
+        <v>2123.8950410000002</v>
+      </c>
+      <c r="D10" s="7" t="str">
         <f>VLOOKUP(A10,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="E10" s="6">
-        <v>10</v>
+        <v>2123.8950410000002</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="11">
-        <v>235</v>
+      <c r="G10" s="11"/>
+      <c r="I10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>50000</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C11" s="7">
-        <v>16477555.609999999</v>
-      </c>
-      <c r="D11" s="7">
+        <v>74822.192989999996</v>
+      </c>
+      <c r="D11" s="7" t="str">
         <f>VLOOKUP(A11,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>better start, still crash</v>
       </c>
       <c r="E11" s="6">
-        <v>993066.96089999995</v>
+        <v>74822.192989999996</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="17">
-        <f>C11*0.75</f>
-        <v>12358166.7075</v>
-      </c>
+      <c r="G11" s="11"/>
       <c r="K11" s="11"/>
       <c r="M11" s="11"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C12" s="7">
-        <v>352590040.69999999</v>
+        <v>235.45910710000001</v>
       </c>
       <c r="D12" s="7">
         <f>VLOOKUP(A12,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>176000000</v>
-      </c>
-      <c r="F12" s="7">
-        <f>E12*0.75</f>
-        <v>132000000</v>
-      </c>
-      <c r="G12" s="15">
-        <v>176000000</v>
+        <v>10</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="11">
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C13" s="7">
-        <v>129309.07709999999</v>
+        <v>25797.24295</v>
       </c>
       <c r="D13" s="7">
         <f>VLOOKUP(A13,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E13" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F13" s="6">
-        <f>E13*0.75</f>
-        <v>75000</v>
-      </c>
-      <c r="G13" s="15">
-        <v>100000</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="O13" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C14" s="7">
-        <v>554.64984700000002</v>
-      </c>
-      <c r="D14" s="7">
+        <v>1718757.3940000001</v>
+      </c>
+      <c r="D14" s="7" t="str">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>delayed crash, too high</v>
       </c>
       <c r="E14" s="6">
-        <v>110.9</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="16"/>
+        <v>1718757.3940000001</v>
+      </c>
+      <c r="F14" s="6">
+        <f>E14*0.5</f>
+        <v>859378.69700000004</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C15" s="7">
-        <v>2957397.3650000002</v>
+        <v>15874.27808</v>
       </c>
       <c r="D15" s="7">
         <f>VLOOKUP(A15,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>4928995.608</v>
+        <v>15874.27808</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="17">
-        <v>2957397.3650000002</v>
-      </c>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C16" s="7">
-        <v>174418341.5</v>
-      </c>
-      <c r="D16" s="7">
+        <v>2124041.1490000002</v>
+      </c>
+      <c r="D16" s="7" t="str">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>higher start, revert</v>
       </c>
       <c r="E16" s="6">
-        <v>7850000</v>
+        <v>2124041.1490000002</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="16">
+        <f>E16*1.25</f>
+        <v>2655051.4362500003</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C17" s="7">
-        <v>17230050.359999999</v>
+        <v>21996106.07</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+mort</v>
+        <v>high start, revert</v>
       </c>
       <c r="E17" s="6">
-        <v>8500000</v>
+        <v>4000000</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="11">
         <v>10000000</v>
       </c>
+      <c r="K17" s="5"/>
+      <c r="M17" s="5"/>
       <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C18" s="7">
-        <v>13236869.029999999</v>
-      </c>
-      <c r="D18" s="7">
+        <v>129309.07709999999</v>
+      </c>
+      <c r="D18" s="7" t="str">
         <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>lower start</v>
       </c>
       <c r="E18" s="6">
-        <v>6500000</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="11"/>
+        <v>100000</v>
+      </c>
+      <c r="F18" s="6">
+        <f>E18*0.75</f>
+        <v>75000</v>
+      </c>
+      <c r="G18" s="15">
+        <v>100000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1000000</v>
+      </c>
       <c r="M18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C19" s="7">
-        <v>432544359.30000001</v>
+        <v>13236869.029999999</v>
       </c>
       <c r="D19" s="7">
         <f>VLOOKUP(A19,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E19" s="6">
-        <v>2430000</v>
+        <v>6500000</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="7">
-        <v>432544359.30000001</v>
-      </c>
+      <c r="H19" s="18"/>
+      <c r="M19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
@@ -4692,9 +6417,9 @@
       <c r="C20" s="7">
         <v>172649603.19999999</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="7" t="str">
         <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>higher start</v>
       </c>
       <c r="E20" s="6">
         <v>49700000</v>
@@ -4703,250 +6428,254 @@
       <c r="G20" s="11">
         <v>100000000</v>
       </c>
+      <c r="J20" s="3">
+        <v>150000000</v>
+      </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="C21" s="7">
-        <v>254421.22440000001</v>
-      </c>
-      <c r="D21" s="7" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="7">
         <f>VLOOKUP(A21,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>--</v>
+        <v>0</v>
       </c>
       <c r="E21" s="6">
-        <v>150000</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F21" s="6">
-        <v>100000</v>
-      </c>
-      <c r="G21" s="11">
-        <v>200000</v>
+        <f>0.02</f>
+        <v>0.02</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="8">
-        <v>229000000000</v>
+        <v>150</v>
+      </c>
+      <c r="C22" s="7">
+        <v>747577.53830000001</v>
       </c>
       <c r="D22" s="7">
         <f>VLOOKUP(A22,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E22" s="6">
-        <v>2000000000000</v>
+        <v>197000</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="11">
+        <v>500000</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C23" s="7">
-        <v>747577.53830000001</v>
+        <v>15150975.09</v>
       </c>
       <c r="D23" s="7">
         <f>VLOOKUP(A23,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E23" s="6">
-        <v>197000</v>
+        <v>15150975.09</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="11">
-        <v>500000</v>
-      </c>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" s="7">
         <v>0.05</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="7" t="str">
         <f>VLOOKUP(A24,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>reduce early</v>
       </c>
       <c r="E24" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="F24" s="6">
-        <f>0.02</f>
         <v>0.02</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="4">
         <v>0.01</v>
       </c>
+      <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C25" s="7">
-        <v>15150975.09</v>
-      </c>
-      <c r="D25" s="7">
+        <v>932233758.39999998</v>
+      </c>
+      <c r="D25" s="7" t="str">
         <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>no change, revert</v>
       </c>
       <c r="E25" s="6">
-        <v>15150975.09</v>
+        <v>532233758.39999998</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="11"/>
+      <c r="J25" s="7">
+        <v>932233758.39999998</v>
+      </c>
     </row>
     <row r="26" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C26" s="7">
-        <v>0.05</v>
+        <v>749.83099549999997</v>
       </c>
       <c r="D26" s="7">
         <f>VLOOKUP(A26,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E26" s="6">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="O26" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7">
+        <v>749.83099549999997</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C27" s="7">
-        <v>932233758.39999998</v>
-      </c>
-      <c r="D27" s="7">
+        <v>4986608.142</v>
+      </c>
+      <c r="D27" s="7" t="str">
         <f>VLOOKUP(A27,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>too low, revert?</v>
       </c>
       <c r="E27" s="6">
-        <v>532233758.39999998</v>
+        <v>4986608.142</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C28" s="7">
-        <v>32122718.550000001</v>
+        <v>174418341.5</v>
       </c>
       <c r="D28" s="7" t="str">
         <f>VLOOKUP(A28,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>++</v>
+        <v>Too high, revert</v>
       </c>
       <c r="E28" s="6">
-        <v>321227180.55000001</v>
+        <v>7850000</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="7">
-        <v>32122718.550000001</v>
-      </c>
-      <c r="K28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="O28" s="11"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C29" s="7">
-        <v>4986608.142</v>
-      </c>
-      <c r="D29" s="7">
+        <v>432544359.30000001</v>
+      </c>
+      <c r="D29" s="7" t="str">
         <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="E29" s="6">
-        <v>4986608.142</v>
+        <v>2430000</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="11"/>
+      <c r="H29" s="17">
+        <v>432544359.30000001</v>
+      </c>
+      <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C30" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="D30" s="7">
+        <v>4108787.665</v>
+      </c>
+      <c r="D30" s="7" t="str">
         <f>VLOOKUP(A30,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="E30" s="6">
-        <v>1.2500000000000001E-2</v>
+        <v>328703</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="11"/>
+      <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="C31" s="7">
-        <v>19201175.25</v>
+        <v>0.05</v>
       </c>
       <c r="D31" s="7">
         <f>VLOOKUP(A31,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E31" s="6">
-        <v>49069.656669999997</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="11"/>
@@ -4962,9 +6691,9 @@
       <c r="C32" s="7">
         <v>22940055.34</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="7" t="str">
         <f>VLOOKUP(A32,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="E32" s="6">
         <v>22940055.34</v>
@@ -4974,549 +6703,570 @@
     </row>
     <row r="33" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="C33" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="D33" s="7">
+        <v>19201175.25</v>
+      </c>
+      <c r="D33" s="7" t="str">
         <f>VLOOKUP(A33,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="E33" s="6">
-        <v>0.05</v>
+        <v>49069.656669999997</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C34" s="7">
-        <v>28898.867849999999</v>
-      </c>
-      <c r="D34" s="7">
+        <v>34847060.600000001</v>
+      </c>
+      <c r="D34" s="7" t="str">
         <f>VLOOKUP(A34,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="E34" s="6">
-        <v>28898.867849999999</v>
+        <v>1742353</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C35" s="7">
-        <v>20527442.649999999</v>
-      </c>
-      <c r="D35" s="7">
+        <v>554.64984700000002</v>
+      </c>
+      <c r="D35" s="7" t="str">
         <f>VLOOKUP(A35,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="E35" s="6">
-        <v>6384375</v>
+        <v>110.9</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C36" s="7">
-        <v>15779070.359999999</v>
+        <v>17230050.359999999</v>
       </c>
       <c r="D36" s="7">
         <f>VLOOKUP(A36,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E36" s="6">
-        <v>1540000</v>
+        <v>8500000</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C37" s="7">
-        <v>6221.5131609999999</v>
+        <v>4273.9050960000004</v>
       </c>
       <c r="D37" s="7">
         <f>VLOOKUP(A37,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E37" s="6">
-        <v>6221.5131609999999</v>
+        <v>4273.9050960000004</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C38" s="7">
-        <v>4273.9050960000004</v>
-      </c>
-      <c r="D38" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="D38" s="7" t="str">
         <f>VLOOKUP(A38,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>crashes early</v>
       </c>
       <c r="E38" s="6">
-        <v>4273.9050960000004</v>
+        <v>0.05</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C39" s="7">
-        <v>1001094433</v>
+        <v>401050.08909999998</v>
       </c>
       <c r="D39" s="7">
         <f>VLOOKUP(A39,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E39" s="6">
-        <v>45700000</v>
-      </c>
-      <c r="F39" s="7">
-        <v>1001094433</v>
-      </c>
-      <c r="G39" s="11">
-        <f>F39*1.25</f>
-        <v>1251368041.25</v>
-      </c>
+        <v>201050.08910000001</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="11"/>
+      <c r="O39" s="5"/>
       <c r="P39" s="5"/>
     </row>
     <row r="40" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="7">
-        <v>749.83099549999997</v>
+        <v>28898.867849999999</v>
       </c>
       <c r="D40" s="7">
         <f>VLOOKUP(A40,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E40" s="6">
-        <v>100</v>
+        <v>28898.867849999999</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="17">
-        <v>749.83099549999997</v>
-      </c>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" s="7">
-        <v>24854569.199999999</v>
-      </c>
-      <c r="D41" s="7">
+        <v>15779070.359999999</v>
+      </c>
+      <c r="D41" s="7" t="str">
         <f>VLOOKUP(A41,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse revert</v>
       </c>
       <c r="E41" s="6">
-        <v>3521063.9419999998</v>
+        <v>1540000</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C42" s="7">
-        <v>53.609603989999997</v>
+        <v>6221.5131609999999</v>
       </c>
       <c r="D42" s="7">
         <f>VLOOKUP(A42,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E42" s="6">
-        <v>20</v>
+        <v>6221.5131609999999</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="11">
-        <v>53</v>
-      </c>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C43" s="7">
-        <v>2123.8950410000002</v>
-      </c>
-      <c r="D43" s="7">
+        <v>24854569.199999999</v>
+      </c>
+      <c r="D43" s="7" t="str">
         <f>VLOOKUP(A43,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>Too high, revert</v>
       </c>
       <c r="E43" s="6">
-        <v>2123.8950410000002</v>
+        <v>3521063.9419999998</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C44" s="7">
-        <v>10723808.939999999</v>
+        <v>53.609603989999997</v>
       </c>
       <c r="D44" s="7">
         <f>VLOOKUP(A44,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E44" s="6">
-        <v>357460.29800000001</v>
+        <v>20</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="17">
-        <v>10723808.939999999</v>
+      <c r="G44" s="11">
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C45" s="7">
-        <v>5700290.8640000001</v>
-      </c>
-      <c r="D45" s="7">
+        <v>16705.027440000002</v>
+      </c>
+      <c r="D45" s="7" t="str">
         <f>VLOOKUP(A45,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>too high, revert</v>
       </c>
       <c r="E45" s="6">
-        <v>5700290.8640000001</v>
+        <v>75000</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="16"/>
+      <c r="G45" s="7">
+        <v>16705.027440000002</v>
+      </c>
       <c r="P45" s="5"/>
     </row>
     <row r="46" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C46" s="7">
-        <v>74822.192989999996</v>
-      </c>
-      <c r="D46" s="7">
+        <v>5700290.8640000001</v>
+      </c>
+      <c r="D46" s="7" t="str">
         <f>VLOOKUP(A46,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>lower start, crashes earlier</v>
       </c>
       <c r="E46" s="6">
-        <v>74822.192989999996</v>
+        <v>5700290.8640000001</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="O46" s="11"/>
+      <c r="J46" s="3">
+        <f>C46*1.5</f>
+        <v>8550436.2960000001</v>
+      </c>
     </row>
     <row r="47" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="C47" s="7">
-        <v>361154520.60000002</v>
-      </c>
-      <c r="D47" s="7">
+        <v>10723808.939999999</v>
+      </c>
+      <c r="D47" s="7" t="str">
         <f>VLOOKUP(A47,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>somewhere in middle</v>
       </c>
       <c r="E47" s="6">
-        <v>72230904</v>
+        <v>357460.29800000001</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="7">
-        <v>361154520.60000002</v>
+        <v>10723808.939999999</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C48" s="7">
-        <v>4108787.665</v>
-      </c>
-      <c r="D48" s="7">
+        <v>2957397.3650000002</v>
+      </c>
+      <c r="D48" s="7" t="str">
         <f>VLOOKUP(A48,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>somwhere in middle</v>
       </c>
       <c r="E48" s="6">
-        <v>328703</v>
+        <v>4928995.608</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="16"/>
-      <c r="O48" s="5"/>
+      <c r="G48" s="7">
+        <v>2957397.3650000002</v>
+      </c>
+      <c r="J48" s="3">
+        <f>G48*1.5</f>
+        <v>4436096.0475000003</v>
+      </c>
     </row>
     <row r="49" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C49" s="7">
-        <v>358999.37920000002</v>
-      </c>
-      <c r="D49" s="7">
+        <v>361154520.60000002</v>
+      </c>
+      <c r="D49" s="7" t="str">
         <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>too low, revert</v>
       </c>
       <c r="E49" s="6">
-        <v>250000</v>
-      </c>
-      <c r="F49" s="6">
-        <v>200000</v>
-      </c>
-      <c r="G49" s="6">
-        <v>250000</v>
+        <v>72230904</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="7">
+        <v>361154520.60000002</v>
+      </c>
+      <c r="J49" s="7">
+        <f>C49*5</f>
+        <v>1805772603</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C50" s="7">
-        <v>16705.027440000002</v>
+        <v>7496.955054</v>
       </c>
       <c r="D50" s="7">
         <f>VLOOKUP(A50,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E50" s="6">
-        <v>75000</v>
-      </c>
-      <c r="F50" s="6"/>
+        <v>7496.955054</v>
+      </c>
+      <c r="F50" s="6">
+        <v>10000</v>
+      </c>
       <c r="G50" s="7">
-        <v>16705.027440000002</v>
-      </c>
+        <v>7496.955054</v>
+      </c>
+      <c r="O50" s="5"/>
     </row>
     <row r="51" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C51" s="7">
-        <v>233447.39780000001</v>
+        <v>358999.37920000002</v>
       </c>
       <c r="D51" s="7">
         <f>VLOOKUP(A51,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E51" s="6">
-        <v>58361.849450000002</v>
-      </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="17">
-        <v>233447.39780000001</v>
+        <v>250000</v>
+      </c>
+      <c r="F51" s="6">
+        <v>200000</v>
+      </c>
+      <c r="G51" s="15">
+        <v>250000</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C52" s="7">
-        <v>1053704.304</v>
-      </c>
-      <c r="D52" s="7">
+        <v>352590040.69999999</v>
+      </c>
+      <c r="D52" s="7" t="str">
         <f>VLOOKUP(A52,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>no change, revert</v>
       </c>
       <c r="E52" s="6">
-        <v>1001250</v>
-      </c>
-      <c r="F52" s="6">
-        <v>750000</v>
-      </c>
-      <c r="G52" s="7">
-        <v>1053704.304</v>
+        <v>176000000</v>
+      </c>
+      <c r="F52" s="7">
+        <f>E52*0.75</f>
+        <v>132000000</v>
+      </c>
+      <c r="G52" s="6">
+        <v>176000000</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C53" s="7">
-        <v>7496.955054</v>
-      </c>
-      <c r="D53" s="7">
+        <v>233447.39780000001</v>
+      </c>
+      <c r="D53" s="7" t="str">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>higher, revert</v>
       </c>
       <c r="E53" s="6">
-        <v>7496.955054</v>
-      </c>
-      <c r="F53" s="6">
-        <v>10000</v>
-      </c>
+        <v>58361.849450000002</v>
+      </c>
+      <c r="F53" s="6"/>
       <c r="G53" s="7">
-        <v>7496.955054</v>
-      </c>
-      <c r="O53" s="5"/>
+        <v>233447.39780000001</v>
+      </c>
     </row>
     <row r="54" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C54" s="7">
-        <v>177129.4045</v>
-      </c>
-      <c r="D54" s="7">
+        <v>1053704.304</v>
+      </c>
+      <c r="D54" s="7" t="str">
         <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="E54" s="6">
-        <v>125000</v>
+        <v>1001250</v>
       </c>
       <c r="F54" s="6">
-        <v>100000</v>
-      </c>
-      <c r="G54" s="16">
-        <v>150000</v>
+        <v>750000</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1053704.304</v>
+      </c>
+      <c r="I54" s="3">
+        <f>G54*1.25</f>
+        <v>1317130.3799999999</v>
+      </c>
+      <c r="J54" s="5">
+        <v>10000000</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C55" s="7">
-        <v>401050.08909999998</v>
-      </c>
-      <c r="D55" s="7">
+        <v>177129.4045</v>
+      </c>
+      <c r="D55" s="7" t="str">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>casues crash</v>
       </c>
       <c r="E55" s="6">
-        <v>201050.08910000001</v>
-      </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="11"/>
-      <c r="O55" s="5"/>
+        <v>125000</v>
+      </c>
+      <c r="F55" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G55" s="11">
+        <v>150000</v>
+      </c>
     </row>
     <row r="56" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C56" s="7">
-        <v>71.004761549999998</v>
-      </c>
-      <c r="D56" s="7">
+        <v>40960.04507</v>
+      </c>
+      <c r="D56" s="7" t="str">
         <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>somewhere in middle</v>
       </c>
       <c r="E56" s="6">
-        <v>71.004761549999998</v>
-      </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="16"/>
+        <v>639000</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="G56" s="7">
+        <v>40960.04507</v>
+      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="3">
+        <v>80000</v>
+      </c>
     </row>
     <row r="57" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C57" s="7">
-        <v>40960.04507</v>
+        <v>71.004761549999998</v>
       </c>
       <c r="D57" s="7">
         <f>VLOOKUP(A57,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E57" s="6">
-        <v>639000</v>
-      </c>
-      <c r="F57" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="G57" s="17">
-        <v>40960.04507</v>
-      </c>
-      <c r="H57" s="9"/>
+        <v>71.004761549999998</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
@@ -5528,9 +7278,9 @@
       <c r="C58" s="7">
         <v>52020187.369999997</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="7" t="str">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse revert</v>
       </c>
       <c r="E58" s="6">
         <v>52020187.369999997</v>
@@ -5540,109 +7290,112 @@
     </row>
     <row r="59" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C59" s="7">
-        <v>3738776.034</v>
+        <v>14975339.800000001</v>
       </c>
       <c r="D59" s="7">
         <f>VLOOKUP(A59,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E59" s="6">
-        <v>1080000</v>
+        <v>747664.42</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="11">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C60" s="7">
-        <v>2983706.8709999998</v>
-      </c>
-      <c r="D60" s="7">
+        <v>3738776.034</v>
+      </c>
+      <c r="D60" s="7" t="str">
         <f>VLOOKUP(A60,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="E60" s="6">
-        <v>491000</v>
+        <v>1080000</v>
       </c>
       <c r="F60" s="6"/>
-      <c r="G60" s="11"/>
+      <c r="G60" s="11">
+        <v>2000000</v>
+      </c>
     </row>
     <row r="61" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="C61" s="7">
-        <v>14975339.800000001</v>
-      </c>
-      <c r="D61" s="7">
+        <v>97071048.260000005</v>
+      </c>
+      <c r="D61" s="7" t="str">
         <f>VLOOKUP(A61,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>maybe worse</v>
       </c>
       <c r="E61" s="6">
-        <v>747664.42</v>
+        <v>60071048.259999998</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="11">
-        <v>1000000</v>
+      <c r="G61" s="11"/>
+      <c r="J61" s="3">
+        <v>40071048.259999998</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="C62" s="7">
-        <v>97071048.260000005</v>
-      </c>
-      <c r="D62" s="7">
+        <v>20265685.109999999</v>
+      </c>
+      <c r="D62" s="7" t="str">
         <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="E62" s="6">
-        <v>60071048.259999998</v>
+        <v>10265685.109999999</v>
       </c>
       <c r="F62" s="6"/>
-      <c r="G62" s="11"/>
+      <c r="G62" s="11">
+        <v>15000000</v>
+      </c>
     </row>
     <row r="63" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C63" s="7">
-        <v>20265685.109999999</v>
-      </c>
-      <c r="D63" s="7">
+        <v>2983706.8709999998</v>
+      </c>
+      <c r="D63" s="7" t="str">
         <f>VLOOKUP(A63,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="E63" s="6">
-        <v>10265685.109999999</v>
+        <v>491000</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="11">
-        <v>15000000</v>
-      </c>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
@@ -5703,7 +7456,7 @@
   </sheetData>
   <autoFilter ref="A1:O68">
     <sortState ref="A2:O68">
-      <sortCondition ref="A1:A68"/>
+      <sortCondition ref="B1:B68"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5711,15 +7464,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D64"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5730,7 +7483,7 @@
     <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>90</v>
       </c>
@@ -5752,8 +7505,14 @@
       <c r="G1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -5766,12 +7525,12 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="7" t="str">
         <f>VLOOKUP(A2,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>decrease early</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -5784,12 +7543,12 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="7" t="str">
         <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>higher start, revert</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -5807,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -5825,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
@@ -5838,12 +7597,12 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="7" t="str">
         <f>VLOOKUP(A6,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>delayed crash, too high</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -5865,7 +7624,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -5878,12 +7637,12 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="7" t="str">
         <f>VLOOKUP(A8,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>no change, revert</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -5898,14 +7657,20 @@
       </c>
       <c r="E9" s="7" t="str">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>++</v>
+        <v>no change, revert</v>
       </c>
       <c r="F9" s="14">
         <v>1.0000000000000001E-15</v>
       </c>
       <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -5918,12 +7683,12 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="7" t="str">
         <f>VLOOKUP(A10,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>worse, revert</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -5936,12 +7701,12 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="7" t="str">
         <f>VLOOKUP(A11,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>better start, still crash</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
@@ -5959,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -5977,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -5990,12 +7755,12 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="7" t="str">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>no change, revert</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
@@ -6013,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
@@ -6026,9 +7791,9 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="7" t="str">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>lower start</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6044,9 +7809,9 @@
       <c r="D17">
         <v>7.9999999999999998E-12</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="7" t="str">
         <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>high start, revert</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6062,9 +7827,9 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="7" t="str">
+      <c r="E18" s="7">
         <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+mort</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6098,9 +7863,9 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="7" t="str">
         <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6152,9 +7917,9 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="7" t="str">
         <f>VLOOKUP(A23,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>higher start</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6170,9 +7935,9 @@
       <c r="D24">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="7" t="str">
         <f>VLOOKUP(A24,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>reduce early</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6188,9 +7953,9 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="7" t="str">
         <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>no change, revert</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6224,9 +7989,9 @@
       <c r="D27">
         <v>6.9999999999999997E-7</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="7" t="str">
         <f>VLOOKUP(A27,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>too low, revert?</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6242,9 +8007,9 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="7" t="str">
         <f>VLOOKUP(A28,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>Too high, revert</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6262,7 +8027,7 @@
       </c>
       <c r="E29" s="7" t="str">
         <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>--</v>
+        <v>decrease late, still high</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6278,9 +8043,9 @@
       <c r="D30">
         <v>1E-10</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="7" t="str">
         <f>VLOOKUP(A30,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6314,9 +8079,9 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="7" t="str">
         <f>VLOOKUP(A32,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6332,9 +8097,9 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="7" t="str">
         <f>VLOOKUP(A33,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6350,9 +8115,9 @@
       <c r="D34">
         <v>7.9999999999999998E-12</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="7" t="str">
         <f>VLOOKUP(A34,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6368,9 +8133,9 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="7" t="str">
         <f>VLOOKUP(A35,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6422,9 +8187,9 @@
       <c r="D38">
         <v>6.7499999999999997E-6</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="7" t="str">
         <f>VLOOKUP(A38,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>crashes early</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6476,9 +8241,9 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="7" t="str">
         <f>VLOOKUP(A41,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>crashes early</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6512,9 +8277,9 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="7" t="str">
         <f>VLOOKUP(A43,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>Too high, revert</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6548,9 +8313,9 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="7" t="str">
         <f>VLOOKUP(A45,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>too high, revert</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6566,9 +8331,9 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="7" t="str">
         <f>VLOOKUP(A46,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse revert</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6584,9 +8349,9 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="7" t="str">
         <f>VLOOKUP(A47,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>somewhere in middle</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6602,9 +8367,9 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="7" t="str">
         <f>VLOOKUP(A48,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>somwhere in middle</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6620,9 +8385,9 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="7" t="str">
         <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>too low, revert</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6656,9 +8421,9 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="7" t="str">
         <f>VLOOKUP(A51,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>lower start, crashes earlier</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6692,9 +8457,9 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="7" t="str">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>higher, revert</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6710,9 +8475,9 @@
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="7" t="str">
         <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6728,9 +8493,9 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="7" t="str">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>casues crash</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6746,9 +8511,9 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="7" t="str">
         <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>somewhere in middle</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6782,9 +8547,9 @@
       <c r="D58">
         <v>3.8000000000000001E-9</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="7" t="str">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse revert</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6818,9 +8583,9 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="7" t="str">
         <f>VLOOKUP(A60,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6836,9 +8601,9 @@
       <c r="D61">
         <v>1E-10</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="7" t="str">
         <f>VLOOKUP(A61,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>maybe worse</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6854,9 +8619,9 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="7" t="str">
         <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6872,9 +8637,9 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="7" t="str">
         <f>VLOOKUP(A63,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6901,28 +8666,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>90</v>
       </c>
@@ -6945,13 +8712,25 @@
         <v>193</v>
       </c>
       <c r="H1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+      <c r="J1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -6964,9 +8743,9 @@
       <c r="D2">
         <v>3E-10</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="7" t="str">
         <f>VLOOKUP(A2,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>decrease early</v>
       </c>
       <c r="F2">
         <f>C2*0.75</f>
@@ -6976,8 +8755,20 @@
         <f>D2*0.75</f>
         <v>2.25E-10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="14">
+        <v>1E-13</v>
+      </c>
+      <c r="K2" s="14">
+        <v>1E-10</v>
+      </c>
+      <c r="L2" s="14">
+        <v>1.4999999999999999E-13</v>
+      </c>
+      <c r="M2" s="14">
+        <v>1.5E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -6990,13 +8781,13 @@
       <c r="D3">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="7" t="str">
         <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>crashes early</v>
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -7015,7 +8806,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -7034,7 +8825,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -7060,7 +8851,7 @@
         <v>5.9250000000000001E-9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -7075,7 +8866,7 @@
       </c>
       <c r="E7" s="7" t="str">
         <f>VLOOKUP(A7,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>--</v>
+        <v>decrease late, still high</v>
       </c>
       <c r="F7">
         <f>C7*1.5</f>
@@ -7085,8 +8876,22 @@
         <f>D7*1.5</f>
         <v>4.8E-9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <f>F7*2</f>
+        <v>1.56E-9</v>
+      </c>
+      <c r="K7" s="14">
+        <f>G7*2</f>
+        <v>9.5999999999999999E-9</v>
+      </c>
+      <c r="L7" s="14">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="M7" s="14">
+        <v>1.5E-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -7099,13 +8904,19 @@
       <c r="D8">
         <v>1E-14</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="7" t="str">
         <f>VLOOKUP(A8,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>no change, revert</v>
       </c>
       <c r="G8"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -7120,13 +8931,19 @@
       </c>
       <c r="E9" s="7" t="str">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>++</v>
+        <v>no change, revert</v>
       </c>
       <c r="F9" s="14">
         <v>1.4999999999999999E-14</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -7139,13 +8956,13 @@
       <c r="D10">
         <v>3E-10</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="7" t="str">
         <f>VLOOKUP(A10,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -7158,15 +8975,21 @@
       <c r="D11">
         <v>3E-10</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="7" t="str">
         <f>VLOOKUP(A11,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>better start, still crash</v>
       </c>
       <c r="G11" s="14">
         <v>3E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="14">
+        <v>1E-13</v>
+      </c>
+      <c r="K11" s="14">
+        <v>1E-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
@@ -7185,7 +9008,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -7204,7 +9027,7 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -7217,9 +9040,9 @@
       <c r="D14">
         <v>3E-10</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="7" t="str">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>delayed crash, too high</v>
       </c>
       <c r="F14">
         <f>C14*1.25</f>
@@ -7235,8 +9058,20 @@
       <c r="I14" s="14">
         <v>6.9999999999999996E-10</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="14">
+        <v>7.0000000000000005E-13</v>
+      </c>
+      <c r="K14" s="14">
+        <v>6.9999999999999996E-10</v>
+      </c>
+      <c r="L14" s="14">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="M14" s="14">
+        <v>1.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
@@ -7255,7 +9090,7 @@
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
@@ -7268,9 +9103,9 @@
       <c r="D16">
         <v>1.8E-9</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="7" t="str">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>higher start, revert</v>
       </c>
       <c r="F16">
         <f>C16*0.75</f>
@@ -7286,8 +9121,18 @@
       <c r="I16" s="14">
         <v>1.8E-9</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="14">
+        <f>H16*1.5</f>
+        <v>1.3874999999999999E-12</v>
+      </c>
+      <c r="K16" s="14">
+        <f>I16*1.5</f>
+        <v>2.7000000000000002E-9</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -7300,9 +9145,9 @@
       <c r="D17">
         <v>1.8E-10</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="7" t="str">
         <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>high start, revert</v>
       </c>
       <c r="F17">
         <f>C17*0.5</f>
@@ -7313,7 +9158,7 @@
         <v>8.9999999999999999E-11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -7326,9 +9171,9 @@
       <c r="D18">
         <v>3E-10</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="7" t="str">
         <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>lower start</v>
       </c>
       <c r="F18" s="14">
         <v>1E-13</v>
@@ -7342,8 +9187,14 @@
       <c r="I18" s="14">
         <v>3E-10</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="14">
+        <v>5.9999999999999997E-13</v>
+      </c>
+      <c r="K18" s="14">
+        <v>6E-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
@@ -7362,7 +9213,7 @@
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>42</v>
       </c>
@@ -7375,9 +9226,9 @@
       <c r="D20">
         <v>4.0000000000000002E-9</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="7" t="str">
         <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>higher start</v>
       </c>
       <c r="F20">
         <f>C20*0.75</f>
@@ -7388,7 +9239,7 @@
         <v>3.0000000000000004E-9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -7407,7 +9258,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>61</v>
       </c>
@@ -7438,8 +9289,14 @@
       <c r="I22" s="14">
         <v>6E-10</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="14">
+        <v>9E-13</v>
+      </c>
+      <c r="K22" s="14">
+        <v>8.9999999999999999E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>52</v>
       </c>
@@ -7458,7 +9315,7 @@
       </c>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>62</v>
       </c>
@@ -7471,13 +9328,13 @@
       <c r="D24">
         <v>1.7600000000000001E-3</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="7" t="str">
         <f>VLOOKUP(A24,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>reduce early</v>
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
@@ -7490,9 +9347,9 @@
       <c r="D25">
         <v>2.4999999999999998E-12</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="7" t="str">
         <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>no change, revert</v>
       </c>
       <c r="F25">
         <f>C25*1.25</f>
@@ -7502,8 +9359,14 @@
         <f>D25*1.25</f>
         <v>3.1249999999999997E-12</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J25" s="14">
+        <v>1E-14</v>
+      </c>
+      <c r="K25" s="14">
+        <v>1E-13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
@@ -7522,7 +9385,7 @@
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>21</v>
       </c>
@@ -7535,13 +9398,13 @@
       <c r="D27">
         <v>4.4999999999999998E-9</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="7" t="str">
         <f>VLOOKUP(A27,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>too low, revert?</v>
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>41</v>
       </c>
@@ -7554,13 +9417,13 @@
       <c r="D28">
         <v>3E-10</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="7" t="str">
         <f>VLOOKUP(A28,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>Too high, revert</v>
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -7573,9 +9436,9 @@
       <c r="D29">
         <v>8.5E-9</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="7" t="str">
         <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="F29">
         <f>C29*0.5</f>
@@ -7585,8 +9448,14 @@
         <f>D29*0.5</f>
         <v>4.25E-9</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J29" s="14">
+        <v>4.9999999999999997E-12</v>
+      </c>
+      <c r="K29" s="14">
+        <v>1E-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
@@ -7599,13 +9468,13 @@
       <c r="D30">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="7" t="str">
         <f>VLOOKUP(A30,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>72</v>
       </c>
@@ -7624,7 +9493,7 @@
       </c>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
@@ -7637,9 +9506,9 @@
       <c r="D32">
         <v>3E-10</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="7" t="str">
         <f>VLOOKUP(A32,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="F32">
         <f>C32*1.5</f>
@@ -7655,8 +9524,14 @@
       <c r="I32" s="14">
         <v>5.9999999999999997E-13</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J32" s="14">
+        <v>9E-13</v>
+      </c>
+      <c r="K32" s="14">
+        <v>9E-13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>28</v>
       </c>
@@ -7669,13 +9544,13 @@
       <c r="D33">
         <v>3E-10</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="7" t="str">
         <f>VLOOKUP(A33,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>23</v>
       </c>
@@ -7688,13 +9563,13 @@
       <c r="D34">
         <v>1.8E-10</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="7" t="str">
         <f>VLOOKUP(A34,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>47</v>
       </c>
@@ -7707,13 +9582,19 @@
       <c r="D35">
         <v>3.4999999999999998E-10</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="7" t="str">
         <f>VLOOKUP(A35,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L35" s="14">
+        <v>7.0000000000000005E-13</v>
+      </c>
+      <c r="M35" s="14">
+        <v>5.0000000000000003E-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>18</v>
       </c>
@@ -7726,9 +9607,9 @@
       <c r="D36">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E36" s="7" t="str">
+      <c r="E36" s="7">
         <f>VLOOKUP(A36,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>+mort</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <f>C36*1.25</f>
@@ -7738,8 +9619,14 @@
         <f>D36*1.25</f>
         <v>4.0000000000000002E-9</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J36" s="14">
+        <v>8.9999999999999999E-10</v>
+      </c>
+      <c r="K36" s="14">
+        <v>8.0000000000000005E-9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>50</v>
       </c>
@@ -7758,7 +9645,7 @@
       </c>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>73</v>
       </c>
@@ -7771,13 +9658,19 @@
       <c r="D38">
         <v>1.7700000000000001E-3</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="7" t="str">
         <f>VLOOKUP(A38,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>crashes early</v>
       </c>
       <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L38">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M38">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>19</v>
       </c>
@@ -7796,7 +9689,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>55</v>
       </c>
@@ -7815,7 +9708,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
@@ -7828,13 +9721,19 @@
       <c r="D41">
         <v>3E-10</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="7" t="str">
         <f>VLOOKUP(A41,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse revert</v>
       </c>
       <c r="G41"/>
-    </row>
-    <row r="42" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L41" s="14">
+        <v>4.9999999999999999E-13</v>
+      </c>
+      <c r="M41" s="14">
+        <v>5.0000000000000003E-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>49</v>
       </c>
@@ -7853,7 +9752,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>30</v>
       </c>
@@ -7866,13 +9765,13 @@
       <c r="D43">
         <v>3E-10</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="7" t="str">
         <f>VLOOKUP(A43,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>Too high, revert</v>
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>57</v>
       </c>
@@ -7891,7 +9790,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -7904,9 +9803,9 @@
       <c r="D45">
         <v>3.4999999999999998E-10</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="7" t="str">
         <f>VLOOKUP(A45,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>too high, revert</v>
       </c>
       <c r="F45">
         <f>C45*1.5</f>
@@ -7916,8 +9815,20 @@
         <f>D45*1.5</f>
         <v>5.2499999999999994E-10</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J45" s="14">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="K45" s="14">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="L45" s="14">
+        <v>2E-12</v>
+      </c>
+      <c r="M45" s="14">
+        <v>2.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>32</v>
       </c>
@@ -7930,9 +9841,9 @@
       <c r="D46">
         <v>3E-10</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="7" t="str">
         <f>VLOOKUP(A46,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>lower start, crashes earlier</v>
       </c>
       <c r="F46">
         <f>C46*0.75</f>
@@ -7943,7 +9854,7 @@
         <v>2.25E-10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>54</v>
       </c>
@@ -7956,13 +9867,25 @@
       <c r="D47">
         <v>1.3E-6</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="7" t="str">
         <f>VLOOKUP(A47,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>somewhere in middle</v>
       </c>
       <c r="G47"/>
-    </row>
-    <row r="48" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J47" s="14">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="K47" s="14">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="L47" s="14">
+        <v>1E-8</v>
+      </c>
+      <c r="M47" s="14">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>26</v>
       </c>
@@ -7975,13 +9898,13 @@
       <c r="D48">
         <v>8.0000000000000002E-13</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="7" t="str">
         <f>VLOOKUP(A48,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>somwhere in middle</v>
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>27</v>
       </c>
@@ -7994,13 +9917,13 @@
       <c r="D49">
         <v>2.6000000000000001E-9</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="7" t="str">
         <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>too low, revert</v>
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>59</v>
       </c>
@@ -8019,7 +9942,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>45</v>
       </c>
@@ -8044,8 +9967,14 @@
         <f>D51*1.5</f>
         <v>5.2499999999999994E-10</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J51" s="14">
+        <v>9E-13</v>
+      </c>
+      <c r="K51" s="14">
+        <v>8.9999999999999999E-10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>44</v>
       </c>
@@ -8058,9 +9987,9 @@
       <c r="D52">
         <v>1E-13</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="7" t="str">
         <f>VLOOKUP(A52,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>no change, revert</v>
       </c>
       <c r="F52" s="14">
         <v>1E-13</v>
@@ -8074,8 +10003,20 @@
       <c r="I52" s="14">
         <v>4.0000000000000001E-13</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J52" s="14">
+        <v>4.0000000000000001E-13</v>
+      </c>
+      <c r="K52" s="14">
+        <v>5.9999999999999997E-13</v>
+      </c>
+      <c r="L52" s="14">
+        <v>8.0000000000000002E-13</v>
+      </c>
+      <c r="M52" s="14">
+        <v>1.1999999999999999E-12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>37</v>
       </c>
@@ -8088,13 +10029,19 @@
       <c r="D53">
         <v>3E-10</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="7" t="str">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>higher, revert</v>
       </c>
       <c r="G53"/>
-    </row>
-    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J53" s="14">
+        <v>5.9999999999999997E-13</v>
+      </c>
+      <c r="K53" s="14">
+        <v>6E-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>14</v>
       </c>
@@ -8107,9 +10054,9 @@
       <c r="D54">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="7" t="str">
         <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="F54">
         <f>C54*1.25</f>
@@ -8120,7 +10067,7 @@
         <v>4.0000000000000002E-9</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>38</v>
       </c>
@@ -8133,9 +10080,9 @@
       <c r="D55">
         <v>3E-10</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="7" t="str">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>casues crash</v>
       </c>
       <c r="F55">
         <f>C55*2</f>
@@ -8145,8 +10092,14 @@
         <f>D55*2</f>
         <v>6E-10</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J55" s="14">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="K55" s="14">
+        <v>1.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>33</v>
       </c>
@@ -8159,9 +10112,9 @@
       <c r="D56">
         <v>3E-10</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="7" t="str">
         <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>somewhere in middle</v>
       </c>
       <c r="F56">
         <f>C56/2</f>
@@ -8171,8 +10124,14 @@
         <f>D56/2</f>
         <v>1.5E-10</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J56" s="14">
+        <v>2.0000000000000001E-13</v>
+      </c>
+      <c r="K56" s="14">
+        <v>2.0000000000000001E-10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>60</v>
       </c>
@@ -8191,7 +10150,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
@@ -8204,9 +10163,9 @@
       <c r="D58">
         <v>3.7499999999999998E-8</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="7" t="str">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse revert</v>
       </c>
       <c r="F58" s="14">
         <v>1E-10</v>
@@ -8214,8 +10173,14 @@
       <c r="G58" s="14">
         <v>1.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J58" s="14">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="K58" s="14">
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>13</v>
       </c>
@@ -8241,7 +10206,7 @@
         <v>1.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>15</v>
       </c>
@@ -8254,9 +10219,9 @@
       <c r="D60">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="7" t="str">
         <f>VLOOKUP(A60,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="F60">
         <f>C60*0.5</f>
@@ -8266,8 +10231,14 @@
         <f>D60*0.5</f>
         <v>1.6000000000000001E-9</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J60" s="14">
+        <v>3.4999999999999998E-10</v>
+      </c>
+      <c r="K60" s="14">
+        <v>2.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>51</v>
       </c>
@@ -8280,13 +10251,13 @@
       <c r="D61">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="7" t="str">
         <f>VLOOKUP(A61,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>maybe worse</v>
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>16</v>
       </c>
@@ -8299,9 +10270,9 @@
       <c r="D62">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="7" t="str">
         <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="F62">
         <f>C62*0.5</f>
@@ -8312,7 +10283,7 @@
         <v>1.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>39</v>
       </c>
@@ -8325,13 +10296,13 @@
       <c r="D63">
         <v>3E-10</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="7" t="str">
         <f>VLOOKUP(A63,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, revert</v>
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>43</v>
       </c>

--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" tabRatio="853"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" tabRatio="853" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Group Condition" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="386">
   <si>
     <t>Too Low</t>
   </si>
@@ -864,87 +864,6 @@
     <t>ReducePred10b</t>
   </si>
   <si>
-    <t>decrease early</t>
-  </si>
-  <si>
-    <t>crashes early</t>
-  </si>
-  <si>
-    <t>decrease late, still high</t>
-  </si>
-  <si>
-    <t>no change, revert</t>
-  </si>
-  <si>
-    <t>worse, revert</t>
-  </si>
-  <si>
-    <t>better start, still crash</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>delayed crash, too high</t>
-  </si>
-  <si>
-    <t>higher start, revert</t>
-  </si>
-  <si>
-    <t>high start, revert</t>
-  </si>
-  <si>
-    <t>worse, mum way up</t>
-  </si>
-  <si>
-    <t>lower start</t>
-  </si>
-  <si>
-    <t>higher start</t>
-  </si>
-  <si>
-    <t>reduce early</t>
-  </si>
-  <si>
-    <t>no change, mum way up</t>
-  </si>
-  <si>
-    <t>too low, revert?</t>
-  </si>
-  <si>
-    <t>Too high, revert</t>
-  </si>
-  <si>
-    <t>worse revert</t>
-  </si>
-  <si>
-    <t>somewhere in middle mum/C</t>
-  </si>
-  <si>
-    <t>too high, revert</t>
-  </si>
-  <si>
-    <t>lower start, crashes earlier</t>
-  </si>
-  <si>
-    <t>somewhere in middle</t>
-  </si>
-  <si>
-    <t>somwhere in middle</t>
-  </si>
-  <si>
-    <t>too low, revert</t>
-  </si>
-  <si>
-    <t>higher, revert</t>
-  </si>
-  <si>
-    <t>casues crash</t>
-  </si>
-  <si>
-    <t>maybe worse</t>
-  </si>
-  <si>
     <t>Change Notes</t>
   </si>
   <si>
@@ -1156,6 +1075,126 @@
   </si>
   <si>
     <t>typo in mum_STB 8</t>
+  </si>
+  <si>
+    <t>ReducePred13_Notes</t>
+  </si>
+  <si>
+    <t>up KDENR x5, up mum_PLA</t>
+  </si>
+  <si>
+    <t>up KDENR x10, up mum_SAL x2</t>
+  </si>
+  <si>
+    <t>up KDENR,  down SDF_mQ (0?)</t>
+  </si>
+  <si>
+    <t>down mum_BSB x1/2,  up KDENR</t>
+  </si>
+  <si>
+    <t>mum_ZL x10, down pPREY LOB:ZL</t>
+  </si>
+  <si>
+    <t>down HAD_mQ (to zero)</t>
+  </si>
+  <si>
+    <t>down MAK_mQ</t>
+  </si>
+  <si>
+    <t>mum_ZM x10m, pPREY HER:ZM x1/10</t>
+  </si>
+  <si>
+    <t>mum_ZS x10, pPREY HER:ZS x1/10</t>
+  </si>
+  <si>
+    <t>down pPREY MAK:MPF, up mum_MPF x1.5</t>
+  </si>
+  <si>
+    <t>up KDENRx1.1, up mum_NSHx1.1</t>
+  </si>
+  <si>
+    <t>up KDENR x1.1, up mum_OSH x1.1</t>
+  </si>
+  <si>
+    <t>mum_RCB 0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">up KDENR, down SCU_mQ </t>
+  </si>
+  <si>
+    <t>down mum_TYLx2/3, up TYL_mQ</t>
+  </si>
+  <si>
+    <t>ReducePred13</t>
+  </si>
+  <si>
+    <t>ReducePred13_mQ1</t>
+  </si>
+  <si>
+    <t>ReducePred13_mQ2</t>
+  </si>
+  <si>
+    <t>down mum_HAL 6-10 x1/2, up HAL_mQ</t>
+  </si>
+  <si>
+    <t>mum_MEN x5, KDENRx10</t>
+  </si>
+  <si>
+    <t>KDENR x10, down mum_DRM x1/2 2-4, up mum_DRM x1.5 (5-10)</t>
+  </si>
+  <si>
+    <t>down pPREY DOG:ZG, up mum_ZG (1)</t>
+  </si>
+  <si>
+    <t>down mum_GOO 4-10 (x1/2)</t>
+  </si>
+  <si>
+    <t>down mum_SK x1/2 4-10</t>
+  </si>
+  <si>
+    <t>down mum_OPT x.75 6-10</t>
+  </si>
+  <si>
+    <t>down mum_OHK x1/2 6-10</t>
+  </si>
+  <si>
+    <t>down mum_DSH x1/2,  up DSH_mQ</t>
+  </si>
+  <si>
+    <t>down mum_POL 3-6</t>
+  </si>
+  <si>
+    <t>down mum_RHK 3-6</t>
+  </si>
+  <si>
+    <t>down mum_SSH 3-10, up SSH_mQ</t>
+  </si>
+  <si>
+    <t>up KDENRx3, up mum_FDE x2</t>
+  </si>
+  <si>
+    <t>down mum_SMO 2-10 x.75,  up SMO_mQ</t>
+  </si>
+  <si>
+    <t>down mum_DOG 3-10 x1/2</t>
+  </si>
+  <si>
+    <t>down mum_STB 4-10 x1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">down SUF_mQ, up mum_SUF x2 </t>
+  </si>
+  <si>
+    <t>down mum_TAU 4-6, up KDENR</t>
+  </si>
+  <si>
+    <t>down mum_WIF 1-6 x1/2</t>
+  </si>
+  <si>
+    <t>down mum_WTF 3-6 x1/2</t>
+  </si>
+  <si>
+    <t>down mum_WOL 3-6 x1/2, 7-10x.75</t>
   </si>
 </sst>
 </file>
@@ -1568,11 +1607,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1624,15 +1664,9 @@
       <c r="B2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" t="s">
-        <v>180</v>
-      </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H32" si="0">IF(OR(COUNTIF(C2:G2,"X")=0,COUNTIF(C2:G2,"B")&lt;&gt;0),"X","")</f>
-        <v/>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>275</v>
+        <v>X</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1649,9 +1683,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1712,9 +1743,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1727,9 +1755,6 @@
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1745,9 +1770,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1763,9 +1785,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1781,11 +1800,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1829,11 +1845,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1860,7 +1873,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1880,11 +1893,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1896,7 +1906,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1913,11 +1923,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1931,11 +1938,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -1949,11 +1953,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -1989,7 +1990,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2006,11 +2007,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -2022,7 +2020,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -2037,7 +2035,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2051,11 +2049,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -2067,7 +2062,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2079,7 +2074,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -2091,7 +2086,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -2103,7 +2098,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -2121,46 +2116,34 @@
         <v>X</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
       <c r="B34" t="s">
         <v>151</v>
       </c>
-      <c r="C34" t="s">
-        <v>180</v>
-      </c>
       <c r="H34" t="str">
         <f t="shared" ref="H34:H88" si="1">IF(OR(COUNTIF(C34:G34,"X")=0,COUNTIF(C34:G34,"B")&lt;&gt;0),"X","")</f>
-        <v/>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>92</v>
       </c>
-      <c r="E35" t="s">
-        <v>180</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="C35" t="s">
         <v>180</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2172,7 +2155,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -2190,55 +2173,52 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
       <c r="B38" t="s">
         <v>176</v>
       </c>
+      <c r="E38" t="s">
+        <v>180</v>
+      </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
       <c r="B39" t="s">
         <v>172</v>
       </c>
-      <c r="G39" t="s">
+      <c r="E39" t="s">
         <v>180</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I39" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
       <c r="B40" t="s">
         <v>173</v>
       </c>
-      <c r="G40" t="s">
+      <c r="E40" t="s">
         <v>180</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I40" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2252,11 +2232,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I41" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2267,11 +2244,8 @@
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -2279,20 +2253,14 @@
         <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
-      </c>
-      <c r="G43" t="s">
         <v>180</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2306,23 +2274,23 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I44" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>72</v>
       </c>
       <c r="B45" t="s">
         <v>161</v>
       </c>
+      <c r="E45" t="s">
+        <v>180</v>
+      </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2336,11 +2304,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I46" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -2355,7 +2320,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -2369,11 +2334,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I48" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -2388,25 +2350,19 @@
         <v>X</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
         <v>109</v>
       </c>
-      <c r="C50" t="s">
-        <v>180</v>
-      </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -2420,11 +2376,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I51" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -2436,7 +2389,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2448,7 +2401,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -2462,11 +2415,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I54" s="13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2478,7 +2428,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -2490,7 +2440,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -2502,7 +2452,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2517,7 +2467,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -2531,11 +2481,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I59" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2547,7 +2494,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -2561,11 +2508,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I61" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -2579,11 +2523,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I62" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -2595,7 +2536,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -2610,7 +2551,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -2618,20 +2559,14 @@
         <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
-      </c>
-      <c r="D65" t="s">
         <v>180</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I65" s="13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -2645,11 +2580,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I66" s="13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -2664,28 +2596,19 @@
         <v>X</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>54</v>
       </c>
       <c r="B68" t="s">
         <v>143</v>
       </c>
-      <c r="C68" t="s">
-        <v>180</v>
-      </c>
-      <c r="D68" t="s">
-        <v>180</v>
-      </c>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -2700,7 +2623,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -2712,7 +2635,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -2726,11 +2649,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I71" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2745,25 +2665,19 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>27</v>
       </c>
       <c r="B73" t="s">
         <v>115</v>
       </c>
-      <c r="F73" t="s">
-        <v>180</v>
-      </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -2778,19 +2692,22 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>45</v>
       </c>
       <c r="B75" t="s">
         <v>134</v>
       </c>
+      <c r="C75" t="s">
+        <v>180</v>
+      </c>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -2798,20 +2715,14 @@
         <v>133</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
-      </c>
-      <c r="D76" t="s">
         <v>180</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I76" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -2825,11 +2736,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I77" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -2843,11 +2751,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I78" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -2855,9 +2760,6 @@
         <v>127</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
-      </c>
-      <c r="D79" t="s">
         <v>180</v>
       </c>
       <c r="G79" t="s">
@@ -2867,11 +2769,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I79" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -2891,11 +2790,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I80" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -2907,28 +2803,19 @@
         <v>X</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
       <c r="B82" t="s">
         <v>94</v>
       </c>
-      <c r="C82" t="s">
-        <v>180</v>
-      </c>
-      <c r="D82" t="s">
-        <v>180</v>
-      </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -2940,7 +2827,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -2954,29 +2841,20 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I84" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>51</v>
       </c>
       <c r="B85" t="s">
         <v>140</v>
       </c>
-      <c r="D85" t="s">
-        <v>180</v>
-      </c>
       <c r="H85" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -2990,11 +2868,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I86" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -3008,11 +2883,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I87" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -3025,7 +2897,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I88"/>
+  <autoFilter ref="A1:I88">
+    <filterColumn colId="6">
+      <filters blank="1">
+        <filter val="X"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3033,21 +2911,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -3055,16 +2937,19 @@
         <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="D1" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="E1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="F1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3072,17 +2957,17 @@
         <v>122</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(A2,'Group Condition'!A2:I88,9,FALSE)</f>
-        <v>decrease early</v>
+        <f>VLOOKUP(A2,'Group Condition'!A2:I88,8,FALSE)</f>
+        <v>X</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3090,53 +2975,59 @@
         <v>102</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(A3,'Group Condition'!A3:I89,9,FALSE)</f>
-        <v>crashes early</v>
+        <f>VLOOKUP(A3,'Group Condition'!A3:I89,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="F3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>110</v>
       </c>
-      <c r="C4">
-        <f>VLOOKUP(A4,'Group Condition'!A4:I90,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C4" t="str">
+        <f>VLOOKUP(A4,'Group Condition'!A4:I90,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>104</v>
       </c>
-      <c r="C5">
-        <f>VLOOKUP(A5,'Group Condition'!A5:I91,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C5" t="str">
+        <f>VLOOKUP(A5,'Group Condition'!A5:I91,8,FALSE)</f>
+        <v/>
+      </c>
+      <c r="F5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>114</v>
       </c>
-      <c r="C6">
-        <f>VLOOKUP(A6,'Group Condition'!A6:I92,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="str">
+        <f>VLOOKUP(A6,'Group Condition'!A6:I92,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3144,17 +3035,20 @@
         <v>101</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(A7,'Group Condition'!A7:I93,9,FALSE)</f>
-        <v>decrease late, still high</v>
+        <f>VLOOKUP(A7,'Group Condition'!A7:I93,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D7" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="E7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3162,17 +3056,17 @@
         <v>93</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(A8,'Group Condition'!A8:I94,9,FALSE)</f>
-        <v>no change, revert</v>
+        <f>VLOOKUP(A8,'Group Condition'!A8:I94,8,FALSE)</f>
+        <v>X</v>
       </c>
       <c r="D8" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -3180,17 +3074,20 @@
         <v>112</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(A9,'Group Condition'!A9:I95,9,FALSE)</f>
-        <v>no change, revert</v>
+        <f>VLOOKUP(A9,'Group Condition'!A9:I95,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D9" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="E9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F9" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3198,17 +3095,20 @@
         <v>124</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(A10,'Group Condition'!A10:I96,9,FALSE)</f>
-        <v>worse, revert</v>
+        <f>VLOOKUP(A10,'Group Condition'!A10:I96,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D10" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="E10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="F10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -3216,41 +3116,44 @@
         <v>129</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(A11,'Group Condition'!A11:I97,9,FALSE)</f>
-        <v>better start, still crash</v>
+        <f>VLOOKUP(A11,'Group Condition'!A11:I97,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D11" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="E11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="F11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>155</v>
       </c>
-      <c r="C12">
-        <f>VLOOKUP(A12,'Group Condition'!A12:I98,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C12" t="str">
+        <f>VLOOKUP(A12,'Group Condition'!A12:I98,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>147</v>
       </c>
-      <c r="C13">
-        <f>VLOOKUP(A13,'Group Condition'!A13:I99,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="str">
+        <f>VLOOKUP(A13,'Group Condition'!A13:I99,8,FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -3258,35 +3161,35 @@
         <v>167</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(A14,'Group Condition'!A14:I100,9,FALSE)</f>
-        <v>worse</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(A14,'Group Condition'!A14:I100,8,FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>68</v>
       </c>
       <c r="B15" t="s">
         <v>157</v>
       </c>
-      <c r="C15">
-        <f>VLOOKUP(A15,'Group Condition'!A15:I101,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C15" t="str">
+        <f>VLOOKUP(A15,'Group Condition'!A15:I101,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>106</v>
       </c>
-      <c r="C16">
-        <f>VLOOKUP(A16,'Group Condition'!A16:I102,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" t="str">
+        <f>VLOOKUP(A16,'Group Condition'!A16:I102,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3294,29 +3197,32 @@
         <v>119</v>
       </c>
       <c r="C17" t="str">
-        <f>VLOOKUP(A17,'Group Condition'!A17:I103,9,FALSE)</f>
-        <v>delayed crash, too high</v>
+        <f>VLOOKUP(A17,'Group Condition'!A17:I103,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D17" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="E17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+      <c r="F17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>137</v>
       </c>
-      <c r="C18">
-        <f>VLOOKUP(A18,'Group Condition'!A18:I104,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C18" t="str">
+        <f>VLOOKUP(A18,'Group Condition'!A18:I104,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3324,17 +3230,20 @@
         <v>95</v>
       </c>
       <c r="C19" t="str">
-        <f>VLOOKUP(A19,'Group Condition'!A19:I105,9,FALSE)</f>
-        <v>higher start, revert</v>
+        <f>VLOOKUP(A19,'Group Condition'!A19:I105,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D19" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="E19" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="F19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -3342,17 +3251,20 @@
         <v>108</v>
       </c>
       <c r="C20" t="str">
-        <f>VLOOKUP(A20,'Group Condition'!A20:I106,9,FALSE)</f>
-        <v>high start, revert</v>
+        <f>VLOOKUP(A20,'Group Condition'!A20:I106,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D20" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="E20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="F20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -3360,53 +3272,56 @@
         <v>163</v>
       </c>
       <c r="C21" t="str">
-        <f>VLOOKUP(A21,'Group Condition'!A21:I107,9,FALSE)</f>
-        <v>worse, mum way up</v>
+        <f>VLOOKUP(A21,'Group Condition'!A21:I107,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D21" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="E21" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+      <c r="F21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>75</v>
       </c>
       <c r="B22" t="s">
         <v>164</v>
       </c>
-      <c r="C22">
-        <f>VLOOKUP(A22,'Group Condition'!A22:I108,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C22" t="str">
+        <f>VLOOKUP(A22,'Group Condition'!A22:I108,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
       <c r="B23" t="s">
         <v>169</v>
       </c>
-      <c r="C23">
-        <f>VLOOKUP(A23,'Group Condition'!A23:I109,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C23" t="str">
+        <f>VLOOKUP(A23,'Group Condition'!A23:I109,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>81</v>
       </c>
       <c r="B24" t="s">
         <v>170</v>
       </c>
-      <c r="C24">
-        <f>VLOOKUP(A24,'Group Condition'!A24:I110,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="str">
+        <f>VLOOKUP(A24,'Group Condition'!A24:I110,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3414,41 +3329,47 @@
         <v>125</v>
       </c>
       <c r="C25" t="str">
-        <f>VLOOKUP(A25,'Group Condition'!A25:I111,9,FALSE)</f>
-        <v>lower start</v>
+        <f>VLOOKUP(A25,'Group Condition'!A25:I111,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D25" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="E25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="F25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>100</v>
       </c>
-      <c r="C26">
-        <f>VLOOKUP(A26,'Group Condition'!A26:I112,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C26" t="str">
+        <f>VLOOKUP(A26,'Group Condition'!A26:I112,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
       <c r="B27" t="s">
         <v>168</v>
       </c>
-      <c r="C27">
-        <f>VLOOKUP(A27,'Group Condition'!A27:I113,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" t="str">
+        <f>VLOOKUP(A27,'Group Condition'!A27:I113,8,FALSE)</f>
+        <v/>
+      </c>
+      <c r="F27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3456,74 +3377,77 @@
         <v>131</v>
       </c>
       <c r="C28" t="str">
-        <f>VLOOKUP(A28,'Group Condition'!A28:I114,9,FALSE)</f>
-        <v>higher start</v>
+        <f>VLOOKUP(A28,'Group Condition'!A28:I114,8,FALSE)</f>
+        <v/>
       </c>
       <c r="E28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+      <c r="F28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
       <c r="B29" t="s">
         <v>152</v>
       </c>
-      <c r="C29">
-        <f>VLOOKUP(A29,'Group Condition'!A29:I115,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C29" t="str">
+        <f>VLOOKUP(A29,'Group Condition'!A29:I115,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>150</v>
       </c>
-      <c r="C30">
-        <f>VLOOKUP(A30,'Group Condition'!A30:I116,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C30" t="str">
+        <f>VLOOKUP(A30,'Group Condition'!A30:I116,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>88</v>
       </c>
       <c r="B31" t="s">
         <v>177</v>
       </c>
-      <c r="C31">
-        <f>VLOOKUP(A31,'Group Condition'!A31:I117,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C31" t="str">
+        <f>VLOOKUP(A31,'Group Condition'!A31:I117,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>141</v>
       </c>
-      <c r="C32">
-        <f>VLOOKUP(A32,'Group Condition'!A32:I118,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C32" t="str">
+        <f>VLOOKUP(A32,'Group Condition'!A32:I118,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>158</v>
       </c>
-      <c r="C33">
-        <f>VLOOKUP(A33,'Group Condition'!A33:I119,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="str">
+        <f>VLOOKUP(A33,'Group Condition'!A33:I119,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -3531,14 +3455,14 @@
         <v>151</v>
       </c>
       <c r="C34" t="str">
-        <f>VLOOKUP(A34,'Group Condition'!A34:I120,9,FALSE)</f>
-        <v>reduce early</v>
+        <f>VLOOKUP(A34,'Group Condition'!A34:I120,8,FALSE)</f>
+        <v>X</v>
       </c>
       <c r="E34" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -3546,53 +3470,56 @@
         <v>92</v>
       </c>
       <c r="C35" t="str">
-        <f>VLOOKUP(A35,'Group Condition'!A35:I121,9,FALSE)</f>
-        <v>no change, revert</v>
+        <f>VLOOKUP(A35,'Group Condition'!A35:I121,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D35" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="E35" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+      <c r="F35" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
       <c r="B36" t="s">
         <v>165</v>
       </c>
-      <c r="C36">
-        <f>VLOOKUP(A36,'Group Condition'!A36:I122,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C36" t="str">
+        <f>VLOOKUP(A36,'Group Condition'!A36:I122,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>145</v>
       </c>
-      <c r="C37">
-        <f>VLOOKUP(A37,'Group Condition'!A37:I123,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C37" t="str">
+        <f>VLOOKUP(A37,'Group Condition'!A37:I123,8,FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
       <c r="B38" t="s">
         <v>176</v>
       </c>
-      <c r="C38">
-        <f>VLOOKUP(A38,'Group Condition'!A38:I124,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" t="str">
+        <f>VLOOKUP(A38,'Group Condition'!A38:I124,8,FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -3600,17 +3527,20 @@
         <v>172</v>
       </c>
       <c r="C39" t="str">
-        <f>VLOOKUP(A39,'Group Condition'!A39:I125,9,FALSE)</f>
-        <v>no change, mum way up</v>
+        <f>VLOOKUP(A39,'Group Condition'!A39:I125,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D39" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="E39" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="F39" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -3618,17 +3548,20 @@
         <v>173</v>
       </c>
       <c r="C40" t="str">
-        <f>VLOOKUP(A40,'Group Condition'!A40:I126,9,FALSE)</f>
-        <v>no change, mum way up</v>
+        <f>VLOOKUP(A40,'Group Condition'!A40:I126,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D40" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="E40" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+      <c r="F40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -3636,14 +3569,17 @@
         <v>107</v>
       </c>
       <c r="C41" t="str">
-        <f>VLOOKUP(A41,'Group Condition'!A41:I127,9,FALSE)</f>
-        <v>too low, revert?</v>
+        <f>VLOOKUP(A41,'Group Condition'!A41:I127,8,FALSE)</f>
+        <v/>
       </c>
       <c r="E41" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="F41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3651,14 +3587,14 @@
         <v>130</v>
       </c>
       <c r="C42" t="str">
-        <f>VLOOKUP(A42,'Group Condition'!A42:I128,9,FALSE)</f>
-        <v>Too high, revert</v>
+        <f>VLOOKUP(A42,'Group Condition'!A42:I128,8,FALSE)</f>
+        <v>X</v>
       </c>
       <c r="E42" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -3666,14 +3602,17 @@
         <v>111</v>
       </c>
       <c r="C43" t="str">
-        <f>VLOOKUP(A43,'Group Condition'!A43:I129,9,FALSE)</f>
-        <v>worse, revert</v>
+        <f>VLOOKUP(A43,'Group Condition'!A43:I129,8,FALSE)</f>
+        <v/>
       </c>
       <c r="E43" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+      <c r="F43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3681,26 +3620,32 @@
         <v>142</v>
       </c>
       <c r="C44" t="str">
-        <f>VLOOKUP(A44,'Group Condition'!A44:I130,9,FALSE)</f>
-        <v>worse, revert</v>
+        <f>VLOOKUP(A44,'Group Condition'!A44:I130,8,FALSE)</f>
+        <v/>
       </c>
       <c r="E44" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="F44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>72</v>
       </c>
       <c r="B45" t="s">
         <v>161</v>
       </c>
-      <c r="C45">
-        <f>VLOOKUP(A45,'Group Condition'!A45:I131,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C45" t="str">
+        <f>VLOOKUP(A45,'Group Condition'!A45:I131,8,FALSE)</f>
+        <v/>
+      </c>
+      <c r="F45" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -3708,26 +3653,29 @@
         <v>123</v>
       </c>
       <c r="C46" t="str">
-        <f>VLOOKUP(A46,'Group Condition'!A46:I132,9,FALSE)</f>
-        <v>worse, revert</v>
+        <f>VLOOKUP(A46,'Group Condition'!A46:I132,8,FALSE)</f>
+        <v/>
       </c>
       <c r="E46" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+      <c r="F46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>65</v>
       </c>
       <c r="B47" t="s">
         <v>154</v>
       </c>
-      <c r="C47">
-        <f>VLOOKUP(A47,'Group Condition'!A47:I133,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" t="str">
+        <f>VLOOKUP(A47,'Group Condition'!A47:I133,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -3735,26 +3683,29 @@
         <v>116</v>
       </c>
       <c r="C48" t="str">
-        <f>VLOOKUP(A48,'Group Condition'!A48:I134,9,FALSE)</f>
-        <v>worse, revert</v>
+        <f>VLOOKUP(A48,'Group Condition'!A48:I134,8,FALSE)</f>
+        <v/>
       </c>
       <c r="E48" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="F48" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>67</v>
       </c>
       <c r="B49" t="s">
         <v>156</v>
       </c>
-      <c r="C49">
-        <f>VLOOKUP(A49,'Group Condition'!A49:I135,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C49" t="str">
+        <f>VLOOKUP(A49,'Group Condition'!A49:I135,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -3762,11 +3713,11 @@
         <v>109</v>
       </c>
       <c r="C50" t="str">
-        <f>VLOOKUP(A50,'Group Condition'!A50:I136,9,FALSE)</f>
-        <v>worse, revert</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <f>VLOOKUP(A50,'Group Condition'!A50:I136,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -3774,38 +3725,41 @@
         <v>136</v>
       </c>
       <c r="C51" t="str">
-        <f>VLOOKUP(A51,'Group Condition'!A51:I137,9,FALSE)</f>
-        <v>worse, revert</v>
+        <f>VLOOKUP(A51,'Group Condition'!A51:I137,8,FALSE)</f>
+        <v/>
       </c>
       <c r="E51" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+      <c r="F51" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="C52">
-        <f>VLOOKUP(A52,'Group Condition'!A52:I138,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C52" t="str">
+        <f>VLOOKUP(A52,'Group Condition'!A52:I138,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>139</v>
       </c>
-      <c r="C53">
-        <f>VLOOKUP(A53,'Group Condition'!A53:I139,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C53" t="str">
+        <f>VLOOKUP(A53,'Group Condition'!A53:I139,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -3813,62 +3767,65 @@
         <v>162</v>
       </c>
       <c r="C54" t="str">
-        <f>VLOOKUP(A54,'Group Condition'!A54:I140,9,FALSE)</f>
-        <v>crashes early</v>
+        <f>VLOOKUP(A54,'Group Condition'!A54:I140,8,FALSE)</f>
+        <v/>
       </c>
       <c r="E54" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="F54" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
       <c r="B55" t="s">
         <v>105</v>
       </c>
-      <c r="C55">
-        <f>VLOOKUP(A55,'Group Condition'!A55:I141,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C55" t="str">
+        <f>VLOOKUP(A55,'Group Condition'!A55:I141,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>85</v>
       </c>
       <c r="B56" t="s">
         <v>174</v>
       </c>
-      <c r="C56">
-        <f>VLOOKUP(A56,'Group Condition'!A56:I142,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C56" t="str">
+        <f>VLOOKUP(A56,'Group Condition'!A56:I142,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>82</v>
       </c>
       <c r="B57" t="s">
         <v>171</v>
       </c>
-      <c r="C57">
-        <f>VLOOKUP(A57,'Group Condition'!A57:I143,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C57" t="str">
+        <f>VLOOKUP(A57,'Group Condition'!A57:I143,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>144</v>
       </c>
-      <c r="C58">
-        <f>VLOOKUP(A58,'Group Condition'!A58:I144,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C58" t="str">
+        <f>VLOOKUP(A58,'Group Condition'!A58:I144,8,FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -3876,26 +3833,29 @@
         <v>117</v>
       </c>
       <c r="C59" t="str">
-        <f>VLOOKUP(A59,'Group Condition'!A59:I145,9,FALSE)</f>
-        <v>worse revert</v>
+        <f>VLOOKUP(A59,'Group Condition'!A59:I145,8,FALSE)</f>
+        <v/>
       </c>
       <c r="E59" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="F59" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
       <c r="B60" t="s">
         <v>138</v>
       </c>
-      <c r="C60">
-        <f>VLOOKUP(A60,'Group Condition'!A60:I146,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C60" t="str">
+        <f>VLOOKUP(A60,'Group Condition'!A60:I146,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -3903,17 +3863,20 @@
         <v>159</v>
       </c>
       <c r="C61" t="str">
-        <f>VLOOKUP(A61,'Group Condition'!A61:I147,9,FALSE)</f>
-        <v>somewhere in middle mum/C</v>
+        <f>VLOOKUP(A61,'Group Condition'!A61:I147,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D61" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="E61" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="F61" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -3921,38 +3884,41 @@
         <v>118</v>
       </c>
       <c r="C62" t="str">
-        <f>VLOOKUP(A62,'Group Condition'!A62:I148,9,FALSE)</f>
-        <v>Too high, revert</v>
+        <f>VLOOKUP(A62,'Group Condition'!A62:I148,8,FALSE)</f>
+        <v/>
       </c>
       <c r="E62" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="F62" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>89</v>
       </c>
       <c r="B63" t="s">
         <v>178</v>
       </c>
-      <c r="C63">
-        <f>VLOOKUP(A63,'Group Condition'!A63:I149,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C63" t="str">
+        <f>VLOOKUP(A63,'Group Condition'!A63:I149,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>57</v>
       </c>
       <c r="B64" t="s">
         <v>146</v>
       </c>
-      <c r="C64">
-        <f>VLOOKUP(A64,'Group Condition'!A64:I150,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C64" t="str">
+        <f>VLOOKUP(A64,'Group Condition'!A64:I150,8,FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -3960,17 +3926,20 @@
         <v>135</v>
       </c>
       <c r="C65" t="str">
-        <f>VLOOKUP(A65,'Group Condition'!A65:I151,9,FALSE)</f>
-        <v>too high, revert</v>
+        <f>VLOOKUP(A65,'Group Condition'!A65:I151,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D65" t="s">
+        <v>284</v>
+      </c>
+      <c r="E65" t="s">
         <v>311</v>
       </c>
-      <c r="E65" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -3978,29 +3947,32 @@
         <v>120</v>
       </c>
       <c r="C66" t="str">
-        <f>VLOOKUP(A66,'Group Condition'!A66:I152,9,FALSE)</f>
-        <v>lower start, crashes earlier</v>
+        <f>VLOOKUP(A66,'Group Condition'!A66:I152,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D66" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="E66" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+      <c r="F66" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
       <c r="B67" t="s">
         <v>153</v>
       </c>
-      <c r="C67">
-        <f>VLOOKUP(A67,'Group Condition'!A67:I153,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C67" t="str">
+        <f>VLOOKUP(A67,'Group Condition'!A67:I153,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>54</v>
       </c>
@@ -4008,41 +3980,41 @@
         <v>143</v>
       </c>
       <c r="C68" t="str">
-        <f>VLOOKUP(A68,'Group Condition'!A68:I154,9,FALSE)</f>
-        <v>somewhere in middle</v>
+        <f>VLOOKUP(A68,'Group Condition'!A68:I154,8,FALSE)</f>
+        <v>X</v>
       </c>
       <c r="D68" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="E68" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
         <v>166</v>
       </c>
-      <c r="C69">
-        <f>VLOOKUP(A69,'Group Condition'!A69:I155,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C69" t="str">
+        <f>VLOOKUP(A69,'Group Condition'!A69:I155,8,FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>86</v>
       </c>
       <c r="B70" t="s">
         <v>175</v>
       </c>
-      <c r="C70">
-        <f>VLOOKUP(A70,'Group Condition'!A70:I156,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C70" t="str">
+        <f>VLOOKUP(A70,'Group Condition'!A70:I156,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -4050,26 +4022,29 @@
         <v>113</v>
       </c>
       <c r="C71" t="str">
-        <f>VLOOKUP(A71,'Group Condition'!A71:I157,9,FALSE)</f>
-        <v>somwhere in middle</v>
+        <f>VLOOKUP(A71,'Group Condition'!A71:I157,8,FALSE)</f>
+        <v/>
       </c>
       <c r="E71" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+      <c r="F71" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>160</v>
       </c>
-      <c r="C72">
-        <f>VLOOKUP(A72,'Group Condition'!A72:I158,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C72" t="str">
+        <f>VLOOKUP(A72,'Group Condition'!A72:I158,8,FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -4077,38 +4052,41 @@
         <v>115</v>
       </c>
       <c r="C73" t="str">
-        <f>VLOOKUP(A73,'Group Condition'!A73:I159,9,FALSE)</f>
-        <v>too low, revert</v>
+        <f>VLOOKUP(A73,'Group Condition'!A73:I159,8,FALSE)</f>
+        <v>X</v>
       </c>
       <c r="E73" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>59</v>
       </c>
       <c r="B74" t="s">
         <v>148</v>
       </c>
-      <c r="C74">
-        <f>VLOOKUP(A74,'Group Condition'!A74:I160,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C74" t="str">
+        <f>VLOOKUP(A74,'Group Condition'!A74:I160,8,FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>45</v>
       </c>
       <c r="B75" t="s">
         <v>134</v>
       </c>
-      <c r="C75">
-        <f>VLOOKUP(A75,'Group Condition'!A75:I161,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C75" t="str">
+        <f>VLOOKUP(A75,'Group Condition'!A75:I161,8,FALSE)</f>
+        <v/>
+      </c>
+      <c r="F75" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -4116,17 +4094,20 @@
         <v>133</v>
       </c>
       <c r="C76" t="str">
-        <f>VLOOKUP(A76,'Group Condition'!A76:I162,9,FALSE)</f>
-        <v>no change, revert</v>
+        <f>VLOOKUP(A76,'Group Condition'!A76:I162,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D76" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="E76" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="F76" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -4134,17 +4115,20 @@
         <v>126</v>
       </c>
       <c r="C77" t="str">
-        <f>VLOOKUP(A77,'Group Condition'!A77:I163,9,FALSE)</f>
-        <v>higher, revert</v>
+        <f>VLOOKUP(A77,'Group Condition'!A77:I163,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D77" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="E77" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="F77" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -4152,17 +4136,20 @@
         <v>97</v>
       </c>
       <c r="C78" t="str">
-        <f>VLOOKUP(A78,'Group Condition'!A78:I164,9,FALSE)</f>
-        <v>worse, revert</v>
+        <f>VLOOKUP(A78,'Group Condition'!A78:I164,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D78" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="E78" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="F78" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -4170,14 +4157,17 @@
         <v>127</v>
       </c>
       <c r="C79" t="str">
-        <f>VLOOKUP(A79,'Group Condition'!A79:I165,9,FALSE)</f>
-        <v>casues crash</v>
+        <f>VLOOKUP(A79,'Group Condition'!A79:I165,8,FALSE)</f>
+        <v/>
       </c>
       <c r="E79" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="F79" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -4185,29 +4175,32 @@
         <v>121</v>
       </c>
       <c r="C80" t="str">
-        <f>VLOOKUP(A80,'Group Condition'!A80:I166,9,FALSE)</f>
-        <v>somewhere in middle</v>
+        <f>VLOOKUP(A80,'Group Condition'!A80:I166,8,FALSE)</f>
+        <v/>
       </c>
       <c r="D80" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="E80" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="F80" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>60</v>
       </c>
       <c r="B81" t="s">
         <v>149</v>
       </c>
-      <c r="C81">
-        <f>VLOOKUP(A81,'Group Condition'!A81:I167,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C81" t="str">
+        <f>VLOOKUP(A81,'Group Condition'!A81:I167,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -4215,26 +4208,26 @@
         <v>94</v>
       </c>
       <c r="C82" t="str">
-        <f>VLOOKUP(A82,'Group Condition'!A82:I168,9,FALSE)</f>
-        <v>worse revert</v>
+        <f>VLOOKUP(A82,'Group Condition'!A82:I168,8,FALSE)</f>
+        <v>X</v>
       </c>
       <c r="E82" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>13</v>
       </c>
       <c r="B83" t="s">
         <v>96</v>
       </c>
-      <c r="C83">
-        <f>VLOOKUP(A83,'Group Condition'!A83:I169,9,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C83" t="str">
+        <f>VLOOKUP(A83,'Group Condition'!A83:I169,8,FALSE)</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -4242,14 +4235,17 @@
         <v>98</v>
       </c>
       <c r="C84" t="str">
-        <f>VLOOKUP(A84,'Group Condition'!A84:I170,9,FALSE)</f>
-        <v>worse, revert</v>
+        <f>VLOOKUP(A84,'Group Condition'!A84:I170,8,FALSE)</f>
+        <v/>
       </c>
       <c r="E84" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="F84" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -4257,17 +4253,17 @@
         <v>140</v>
       </c>
       <c r="C85" t="str">
-        <f>VLOOKUP(A85,'Group Condition'!A85:I171,9,FALSE)</f>
-        <v>maybe worse</v>
+        <f>VLOOKUP(A85,'Group Condition'!A85:I171,8,FALSE)</f>
+        <v>X</v>
       </c>
       <c r="D85" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="E85" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -4275,14 +4271,17 @@
         <v>99</v>
       </c>
       <c r="C86" t="str">
-        <f>VLOOKUP(A86,'Group Condition'!A86:I172,9,FALSE)</f>
-        <v>worse, revert</v>
+        <f>VLOOKUP(A86,'Group Condition'!A86:I172,8,FALSE)</f>
+        <v/>
       </c>
       <c r="E86" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+      <c r="F86" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -4290,56 +4289,32 @@
         <v>128</v>
       </c>
       <c r="C87" t="str">
-        <f>VLOOKUP(A87,'Group Condition'!A87:I173,9,FALSE)</f>
-        <v>worse, revert</v>
+        <f>VLOOKUP(A87,'Group Condition'!A87:I173,8,FALSE)</f>
+        <v/>
       </c>
       <c r="E87" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="F87" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>43</v>
       </c>
       <c r="B88" t="s">
         <v>132</v>
       </c>
-      <c r="C88">
-        <f>VLOOKUP(A88,'Group Condition'!A88:I174,9,FALSE)</f>
-        <v>0</v>
+      <c r="C88" t="str">
+        <f>VLOOKUP(A88,'Group Condition'!A88:I174,8,FALSE)</f>
+        <v>X</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E88">
     <filterColumn colId="2">
-      <filters>
-        <filter val="better start, still crash"/>
-        <filter val="casues crash"/>
-        <filter val="crashes early"/>
-        <filter val="decrease early"/>
-        <filter val="decrease late, still high"/>
-        <filter val="delayed crash, too high"/>
-        <filter val="high start, revert"/>
-        <filter val="higher start"/>
-        <filter val="higher start, revert"/>
-        <filter val="higher, revert"/>
-        <filter val="lower start"/>
-        <filter val="lower start, crashes earlier"/>
-        <filter val="maybe worse"/>
-        <filter val="no change, mum way up"/>
-        <filter val="no change, revert"/>
-        <filter val="reduce early"/>
-        <filter val="somewhere in middle"/>
-        <filter val="somewhere in middle mum/C"/>
-        <filter val="somwhere in middle"/>
-        <filter val="Too high, revert"/>
-        <filter val="too low, revert"/>
-        <filter val="too low, revert?"/>
-        <filter val="worse"/>
-        <filter val="worse revert"/>
-        <filter val="worse, mum way up"/>
-        <filter val="worse, revert"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4355,7 +4330,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5064,9 +5039,9 @@
       <c r="B35" t="s">
         <v>92</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35">
         <f>VLOOKUP(A35,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>28</v>
@@ -5133,9 +5108,9 @@
       <c r="B39" t="s">
         <v>172</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39">
         <f>VLOOKUP(A39,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -5163,9 +5138,9 @@
       <c r="B40" t="s">
         <v>173</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40">
         <f>VLOOKUP(A40,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -5217,9 +5192,9 @@
       <c r="B43" t="s">
         <v>111</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43">
         <f>VLOOKUP(A43,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -5919,10 +5894,10 @@
   <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J60" sqref="J60"/>
+      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5976,7 +5951,10 @@
         <v>248</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>303</v>
+        <v>276</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5989,9 +5967,9 @@
       <c r="C2" s="7">
         <v>1001094433</v>
       </c>
-      <c r="D2" s="7" t="str">
+      <c r="D2" s="7">
         <f>VLOOKUP(A2,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>decrease early</v>
+        <v>0</v>
       </c>
       <c r="E2" s="6">
         <v>45700000</v>
@@ -6014,9 +5992,9 @@
       <c r="C3" s="7">
         <v>20527442.649999999</v>
       </c>
-      <c r="D3" s="7" t="str">
+      <c r="D3" s="7">
         <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>crashes early</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6">
         <v>6384375</v>
@@ -6026,6 +6004,10 @@
       <c r="J3" s="3">
         <v>10000000</v>
       </c>
+      <c r="K3" s="3">
+        <f>J3*5</f>
+        <v>50000000</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
@@ -6068,6 +6050,10 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="11"/>
+      <c r="K5" s="3">
+        <f>C5*5</f>
+        <v>79081.558449999997</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
@@ -6104,9 +6090,9 @@
       <c r="C7" s="7">
         <v>254421.22440000001</v>
       </c>
-      <c r="D7" s="7" t="str">
+      <c r="D7" s="7">
         <f>VLOOKUP(A7,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>decrease late, still high</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6">
         <v>150000</v>
@@ -6128,9 +6114,9 @@
       <c r="C8" s="8">
         <v>229000000000</v>
       </c>
-      <c r="D8" s="7" t="str">
+      <c r="D8" s="7">
         <f>VLOOKUP(A8,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>no change, revert</v>
+        <v>0</v>
       </c>
       <c r="E8" s="6">
         <v>2000000000000</v>
@@ -6148,9 +6134,9 @@
       <c r="C9" s="7">
         <v>32122718.550000001</v>
       </c>
-      <c r="D9" s="7" t="str">
+      <c r="D9" s="7">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>no change, revert</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6">
         <v>321227180.55000001</v>
@@ -6160,7 +6146,12 @@
       <c r="H9" s="17">
         <v>32122718.550000001</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="J9" s="3">
+        <v>124245436</v>
+      </c>
+      <c r="K9" s="11">
+        <v>12424654360</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="O9" s="11"/>
     </row>
@@ -6174,9 +6165,9 @@
       <c r="C10" s="7">
         <v>2123.8950410000002</v>
       </c>
-      <c r="D10" s="7" t="str">
+      <c r="D10" s="7">
         <f>VLOOKUP(A10,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6">
         <v>2123.8950410000002</v>
@@ -6189,6 +6180,10 @@
       <c r="J10" s="3">
         <v>50000</v>
       </c>
+      <c r="K10" s="3">
+        <f>J10*10</f>
+        <v>500000</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
@@ -6200,16 +6195,18 @@
       <c r="C11" s="7">
         <v>74822.192989999996</v>
       </c>
-      <c r="D11" s="7" t="str">
+      <c r="D11" s="7">
         <f>VLOOKUP(A11,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>better start, still crash</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6">
         <v>74822.192989999996</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="11">
+        <v>748220</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="O11" s="11"/>
     </row>
@@ -6265,9 +6262,9 @@
       <c r="C14" s="7">
         <v>1718757.3940000001</v>
       </c>
-      <c r="D14" s="7" t="str">
+      <c r="D14" s="7">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>delayed crash, too high</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6">
         <v>1718757.3940000001</v>
@@ -6279,6 +6276,9 @@
       <c r="G14" s="16">
         <v>1000000</v>
       </c>
+      <c r="K14" s="3">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
@@ -6310,9 +6310,9 @@
       <c r="C16" s="7">
         <v>2124041.1490000002</v>
       </c>
-      <c r="D16" s="7" t="str">
+      <c r="D16" s="7">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>higher start, revert</v>
+        <v>0</v>
       </c>
       <c r="E16" s="6">
         <v>2124041.1490000002</v>
@@ -6322,7 +6322,9 @@
         <f>E16*1.25</f>
         <v>2655051.4362500003</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="5">
+        <v>4000000</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -6337,9 +6339,9 @@
       <c r="C17" s="7">
         <v>21996106.07</v>
       </c>
-      <c r="D17" s="7" t="str">
+      <c r="D17" s="7">
         <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>high start, revert</v>
+        <v>0</v>
       </c>
       <c r="E17" s="6">
         <v>4000000</v>
@@ -6348,7 +6350,10 @@
       <c r="G17" s="11">
         <v>10000000</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="5">
+        <f>C17*0.75</f>
+        <v>16497079.5525</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="O17" s="5"/>
     </row>
@@ -6362,9 +6367,9 @@
       <c r="C18" s="7">
         <v>129309.07709999999</v>
       </c>
-      <c r="D18" s="7" t="str">
+      <c r="D18" s="7">
         <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>lower start</v>
+        <v>0</v>
       </c>
       <c r="E18" s="6">
         <v>100000</v>
@@ -6378,6 +6383,10 @@
       </c>
       <c r="J18" s="3">
         <v>1000000</v>
+      </c>
+      <c r="K18" s="3">
+        <f>J18*10</f>
+        <v>10000000</v>
       </c>
       <c r="M18" s="5"/>
       <c r="O18" s="5"/>
@@ -6417,9 +6426,9 @@
       <c r="C20" s="7">
         <v>172649603.19999999</v>
       </c>
-      <c r="D20" s="7" t="str">
+      <c r="D20" s="7">
         <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>higher start</v>
+        <v>0</v>
       </c>
       <c r="E20" s="6">
         <v>49700000</v>
@@ -6512,9 +6521,9 @@
       <c r="C24" s="7">
         <v>0.05</v>
       </c>
-      <c r="D24" s="7" t="str">
+      <c r="D24" s="7">
         <f>VLOOKUP(A24,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>reduce early</v>
+        <v>0</v>
       </c>
       <c r="E24" s="6">
         <v>3.5000000000000003E-2</v>
@@ -6539,9 +6548,9 @@
       <c r="C25" s="7">
         <v>932233758.39999998</v>
       </c>
-      <c r="D25" s="7" t="str">
+      <c r="D25" s="7">
         <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>no change, revert</v>
+        <v>0</v>
       </c>
       <c r="E25" s="6">
         <v>532233758.39999998</v>
@@ -6584,9 +6593,9 @@
       <c r="C27" s="7">
         <v>4986608.142</v>
       </c>
-      <c r="D27" s="7" t="str">
+      <c r="D27" s="7">
         <f>VLOOKUP(A27,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>too low, revert?</v>
+        <v>0</v>
       </c>
       <c r="E27" s="6">
         <v>4986608.142</v>
@@ -6604,9 +6613,9 @@
       <c r="C28" s="7">
         <v>174418341.5</v>
       </c>
-      <c r="D28" s="7" t="str">
+      <c r="D28" s="7">
         <f>VLOOKUP(A28,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>Too high, revert</v>
+        <v>0</v>
       </c>
       <c r="E28" s="6">
         <v>7850000</v>
@@ -6625,9 +6634,9 @@
       <c r="C29" s="7">
         <v>432544359.30000001</v>
       </c>
-      <c r="D29" s="7" t="str">
+      <c r="D29" s="7">
         <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="E29" s="6">
         <v>2430000</v>
@@ -6649,9 +6658,9 @@
       <c r="C30" s="7">
         <v>4108787.665</v>
       </c>
-      <c r="D30" s="7" t="str">
+      <c r="D30" s="7">
         <f>VLOOKUP(A30,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="E30" s="6">
         <v>328703</v>
@@ -6691,9 +6700,9 @@
       <c r="C32" s="7">
         <v>22940055.34</v>
       </c>
-      <c r="D32" s="7" t="str">
+      <c r="D32" s="7">
         <f>VLOOKUP(A32,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="E32" s="6">
         <v>22940055.34</v>
@@ -6711,9 +6720,9 @@
       <c r="C33" s="7">
         <v>19201175.25</v>
       </c>
-      <c r="D33" s="7" t="str">
+      <c r="D33" s="7">
         <f>VLOOKUP(A33,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="E33" s="6">
         <v>49069.656669999997</v>
@@ -6731,9 +6740,9 @@
       <c r="C34" s="7">
         <v>34847060.600000001</v>
       </c>
-      <c r="D34" s="7" t="str">
+      <c r="D34" s="7">
         <f>VLOOKUP(A34,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="E34" s="6">
         <v>1742353</v>
@@ -6751,9 +6760,9 @@
       <c r="C35" s="7">
         <v>554.64984700000002</v>
       </c>
-      <c r="D35" s="7" t="str">
+      <c r="D35" s="7">
         <f>VLOOKUP(A35,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="E35" s="6">
         <v>110.9</v>
@@ -6814,9 +6823,9 @@
       <c r="C38" s="7">
         <v>0.05</v>
       </c>
-      <c r="D38" s="7" t="str">
+      <c r="D38" s="7">
         <f>VLOOKUP(A38,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>crashes early</v>
+        <v>0</v>
       </c>
       <c r="E38" s="6">
         <v>0.05</v>
@@ -6876,9 +6885,9 @@
       <c r="C41" s="7">
         <v>15779070.359999999</v>
       </c>
-      <c r="D41" s="7" t="str">
+      <c r="D41" s="7">
         <f>VLOOKUP(A41,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse revert</v>
+        <v>0</v>
       </c>
       <c r="E41" s="6">
         <v>1540000</v>
@@ -6916,9 +6925,9 @@
       <c r="C43" s="7">
         <v>24854569.199999999</v>
       </c>
-      <c r="D43" s="7" t="str">
+      <c r="D43" s="7">
         <f>VLOOKUP(A43,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>Too high, revert</v>
+        <v>0</v>
       </c>
       <c r="E43" s="6">
         <v>3521063.9419999998</v>
@@ -6958,9 +6967,9 @@
       <c r="C45" s="7">
         <v>16705.027440000002</v>
       </c>
-      <c r="D45" s="7" t="str">
+      <c r="D45" s="7">
         <f>VLOOKUP(A45,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>too high, revert</v>
+        <v>0</v>
       </c>
       <c r="E45" s="6">
         <v>75000</v>
@@ -6981,9 +6990,9 @@
       <c r="C46" s="7">
         <v>5700290.8640000001</v>
       </c>
-      <c r="D46" s="7" t="str">
+      <c r="D46" s="7">
         <f>VLOOKUP(A46,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>lower start, crashes earlier</v>
+        <v>0</v>
       </c>
       <c r="E46" s="6">
         <v>5700290.8640000001</v>
@@ -6994,6 +7003,9 @@
         <f>C46*1.5</f>
         <v>8550436.2960000001</v>
       </c>
+      <c r="K46" s="5">
+        <v>10000000</v>
+      </c>
     </row>
     <row r="47" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
@@ -7005,9 +7017,9 @@
       <c r="C47" s="7">
         <v>10723808.939999999</v>
       </c>
-      <c r="D47" s="7" t="str">
+      <c r="D47" s="7">
         <f>VLOOKUP(A47,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>somewhere in middle</v>
+        <v>0</v>
       </c>
       <c r="E47" s="6">
         <v>357460.29800000001</v>
@@ -7027,9 +7039,9 @@
       <c r="C48" s="7">
         <v>2957397.3650000002</v>
       </c>
-      <c r="D48" s="7" t="str">
+      <c r="D48" s="7">
         <f>VLOOKUP(A48,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>somwhere in middle</v>
+        <v>0</v>
       </c>
       <c r="E48" s="6">
         <v>4928995.608</v>
@@ -7042,6 +7054,10 @@
         <f>G48*1.5</f>
         <v>4436096.0475000003</v>
       </c>
+      <c r="K48" s="3">
+        <f>J48*3</f>
+        <v>13308288.142500002</v>
+      </c>
     </row>
     <row r="49" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
@@ -7053,9 +7069,9 @@
       <c r="C49" s="7">
         <v>361154520.60000002</v>
       </c>
-      <c r="D49" s="7" t="str">
+      <c r="D49" s="7">
         <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>too low, revert</v>
+        <v>0</v>
       </c>
       <c r="E49" s="6">
         <v>72230904</v>
@@ -7128,9 +7144,9 @@
       <c r="C52" s="7">
         <v>352590040.69999999</v>
       </c>
-      <c r="D52" s="7" t="str">
+      <c r="D52" s="7">
         <f>VLOOKUP(A52,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>no change, revert</v>
+        <v>0</v>
       </c>
       <c r="E52" s="6">
         <v>176000000</v>
@@ -7153,9 +7169,9 @@
       <c r="C53" s="7">
         <v>233447.39780000001</v>
       </c>
-      <c r="D53" s="7" t="str">
+      <c r="D53" s="7">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>higher, revert</v>
+        <v>0</v>
       </c>
       <c r="E53" s="6">
         <v>58361.849450000002</v>
@@ -7175,9 +7191,9 @@
       <c r="C54" s="7">
         <v>1053704.304</v>
       </c>
-      <c r="D54" s="7" t="str">
+      <c r="D54" s="7">
         <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="E54" s="6">
         <v>1001250</v>
@@ -7206,9 +7222,9 @@
       <c r="C55" s="7">
         <v>177129.4045</v>
       </c>
-      <c r="D55" s="7" t="str">
+      <c r="D55" s="7">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>casues crash</v>
+        <v>0</v>
       </c>
       <c r="E55" s="6">
         <v>125000</v>
@@ -7218,6 +7234,10 @@
       </c>
       <c r="G55" s="11">
         <v>150000</v>
+      </c>
+      <c r="K55" s="3">
+        <f>G55*2</f>
+        <v>300000</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7230,9 +7250,9 @@
       <c r="C56" s="7">
         <v>40960.04507</v>
       </c>
-      <c r="D56" s="7" t="str">
+      <c r="D56" s="7">
         <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>somewhere in middle</v>
+        <v>0</v>
       </c>
       <c r="E56" s="6">
         <v>639000</v>
@@ -7278,9 +7298,9 @@
       <c r="C58" s="7">
         <v>52020187.369999997</v>
       </c>
-      <c r="D58" s="7" t="str">
+      <c r="D58" s="7">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse revert</v>
+        <v>0</v>
       </c>
       <c r="E58" s="6">
         <v>52020187.369999997</v>
@@ -7320,9 +7340,9 @@
       <c r="C60" s="7">
         <v>3738776.034</v>
       </c>
-      <c r="D60" s="7" t="str">
+      <c r="D60" s="7">
         <f>VLOOKUP(A60,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="E60" s="6">
         <v>1080000</v>
@@ -7342,9 +7362,9 @@
       <c r="C61" s="7">
         <v>97071048.260000005</v>
       </c>
-      <c r="D61" s="7" t="str">
+      <c r="D61" s="7">
         <f>VLOOKUP(A61,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>maybe worse</v>
+        <v>0</v>
       </c>
       <c r="E61" s="6">
         <v>60071048.259999998</v>
@@ -7365,9 +7385,9 @@
       <c r="C62" s="7">
         <v>20265685.109999999</v>
       </c>
-      <c r="D62" s="7" t="str">
+      <c r="D62" s="7">
         <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="E62" s="6">
         <v>10265685.109999999</v>
@@ -7387,9 +7407,9 @@
       <c r="C63" s="7">
         <v>2983706.8709999998</v>
       </c>
-      <c r="D63" s="7" t="str">
+      <c r="D63" s="7">
         <f>VLOOKUP(A63,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="E63" s="6">
         <v>491000</v>
@@ -7525,9 +7545,9 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="str">
+      <c r="E2" s="7">
         <f>VLOOKUP(A2,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>decrease early</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7543,9 +7563,9 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="str">
+      <c r="E3" s="7">
         <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>higher start, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7597,9 +7617,9 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="str">
+      <c r="E6" s="7">
         <f>VLOOKUP(A6,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>delayed crash, too high</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7637,9 +7657,9 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="str">
+      <c r="E8" s="7">
         <f>VLOOKUP(A8,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>no change, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7655,9 +7675,9 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="E9" s="7">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>no change, revert</v>
+        <v>0</v>
       </c>
       <c r="F9" s="14">
         <v>1.0000000000000001E-15</v>
@@ -7683,9 +7703,9 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="E10" s="7">
         <f>VLOOKUP(A10,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7701,9 +7721,9 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="7" t="str">
+      <c r="E11" s="7">
         <f>VLOOKUP(A11,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>better start, still crash</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7755,9 +7775,9 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="7" t="str">
+      <c r="E14" s="7">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>no change, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7791,9 +7811,9 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="7" t="str">
+      <c r="E16" s="7">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>lower start</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7809,9 +7829,9 @@
       <c r="D17">
         <v>7.9999999999999998E-12</v>
       </c>
-      <c r="E17" s="7" t="str">
+      <c r="E17" s="7">
         <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>high start, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7863,9 +7883,9 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="str">
+      <c r="E20" s="7">
         <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7917,9 +7937,9 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="7" t="str">
+      <c r="E23" s="7">
         <f>VLOOKUP(A23,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>higher start</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7935,9 +7955,9 @@
       <c r="D24">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E24" s="7" t="str">
+      <c r="E24" s="7">
         <f>VLOOKUP(A24,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>reduce early</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7953,9 +7973,9 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="7" t="str">
+      <c r="E25" s="7">
         <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>no change, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7989,9 +8009,9 @@
       <c r="D27">
         <v>6.9999999999999997E-7</v>
       </c>
-      <c r="E27" s="7" t="str">
+      <c r="E27" s="7">
         <f>VLOOKUP(A27,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>too low, revert?</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8007,9 +8027,9 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="7" t="str">
+      <c r="E28" s="7">
         <f>VLOOKUP(A28,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>Too high, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8025,9 +8045,9 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="7" t="str">
+      <c r="E29" s="7">
         <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>decrease late, still high</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8043,9 +8063,9 @@
       <c r="D30">
         <v>1E-10</v>
       </c>
-      <c r="E30" s="7" t="str">
+      <c r="E30" s="7">
         <f>VLOOKUP(A30,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8079,9 +8099,9 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="7" t="str">
+      <c r="E32" s="7">
         <f>VLOOKUP(A32,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8097,9 +8117,9 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="7" t="str">
+      <c r="E33" s="7">
         <f>VLOOKUP(A33,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8115,9 +8135,9 @@
       <c r="D34">
         <v>7.9999999999999998E-12</v>
       </c>
-      <c r="E34" s="7" t="str">
+      <c r="E34" s="7">
         <f>VLOOKUP(A34,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8133,9 +8153,9 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="7" t="str">
+      <c r="E35" s="7">
         <f>VLOOKUP(A35,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8187,9 +8207,9 @@
       <c r="D38">
         <v>6.7499999999999997E-6</v>
       </c>
-      <c r="E38" s="7" t="str">
+      <c r="E38" s="7">
         <f>VLOOKUP(A38,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>crashes early</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8241,9 +8261,9 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" s="7" t="str">
+      <c r="E41" s="7">
         <f>VLOOKUP(A41,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>crashes early</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8277,9 +8297,9 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" s="7" t="str">
+      <c r="E43" s="7">
         <f>VLOOKUP(A43,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>Too high, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8313,9 +8333,9 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" s="7" t="str">
+      <c r="E45" s="7">
         <f>VLOOKUP(A45,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>too high, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8331,9 +8351,9 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" s="7" t="str">
+      <c r="E46" s="7">
         <f>VLOOKUP(A46,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8349,9 +8369,9 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" s="7" t="str">
+      <c r="E47" s="7">
         <f>VLOOKUP(A47,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>somewhere in middle</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8367,9 +8387,9 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" s="7" t="str">
+      <c r="E48" s="7">
         <f>VLOOKUP(A48,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>somwhere in middle</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8385,9 +8405,9 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" s="7" t="str">
+      <c r="E49" s="7">
         <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>too low, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8421,9 +8441,9 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" s="7" t="str">
+      <c r="E51" s="7">
         <f>VLOOKUP(A51,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>lower start, crashes earlier</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8457,9 +8477,9 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" s="7" t="str">
+      <c r="E53" s="7">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>higher, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8475,9 +8495,9 @@
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" s="7" t="str">
+      <c r="E54" s="7">
         <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8493,9 +8513,9 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" s="7" t="str">
+      <c r="E55" s="7">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>casues crash</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8511,9 +8531,9 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" s="7" t="str">
+      <c r="E56" s="7">
         <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>somewhere in middle</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8547,9 +8567,9 @@
       <c r="D58">
         <v>3.8000000000000001E-9</v>
       </c>
-      <c r="E58" s="7" t="str">
+      <c r="E58" s="7">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8583,9 +8603,9 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60" s="7" t="str">
+      <c r="E60" s="7">
         <f>VLOOKUP(A60,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8601,9 +8621,9 @@
       <c r="D61">
         <v>1E-10</v>
       </c>
-      <c r="E61" s="7" t="str">
+      <c r="E61" s="7">
         <f>VLOOKUP(A61,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>maybe worse</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8619,9 +8639,9 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62" s="7" t="str">
+      <c r="E62" s="7">
         <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8637,9 +8657,9 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" s="7" t="str">
+      <c r="E63" s="7">
         <f>VLOOKUP(A63,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8668,13 +8688,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J61" sqref="J61"/>
+      <selection pane="bottomRight" activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8689,7 +8709,7 @@
     <col min="9" max="9" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>90</v>
       </c>
@@ -8721,16 +8741,22 @@
         <v>273</v>
       </c>
       <c r="K1" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="L1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1" t="s">
         <v>363</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -8743,9 +8769,9 @@
       <c r="D2">
         <v>3E-10</v>
       </c>
-      <c r="E2" s="7" t="str">
+      <c r="E2" s="7">
         <f>VLOOKUP(A2,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>decrease early</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>C2*0.75</f>
@@ -8768,7 +8794,7 @@
         <v>1.5E-10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -8781,13 +8807,13 @@
       <c r="D3">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E3" s="7" t="str">
+      <c r="E3" s="7">
         <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>crashes early</v>
+        <v>0</v>
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -8806,7 +8832,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -8825,7 +8851,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -8851,7 +8877,7 @@
         <v>5.9250000000000001E-9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -8864,9 +8890,9 @@
       <c r="D7">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E7" s="7" t="str">
+      <c r="E7" s="7">
         <f>VLOOKUP(A7,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>decrease late, still high</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f>C7*1.5</f>
@@ -8888,10 +8914,16 @@
         <v>5.0000000000000001E-9</v>
       </c>
       <c r="M7" s="14">
-        <v>1.5E-9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="N7" s="14">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="O7" s="14">
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -8904,9 +8936,9 @@
       <c r="D8">
         <v>1E-14</v>
       </c>
-      <c r="E8" s="7" t="str">
+      <c r="E8" s="7">
         <f>VLOOKUP(A8,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>no change, revert</v>
+        <v>0</v>
       </c>
       <c r="G8"/>
       <c r="J8">
@@ -8916,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
@@ -8929,9 +8961,9 @@
       <c r="D9">
         <v>8.0000000000000002E-13</v>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="E9" s="7">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>no change, revert</v>
+        <v>0</v>
       </c>
       <c r="F9" s="14">
         <v>1.4999999999999999E-14</v>
@@ -8943,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
@@ -8956,13 +8988,13 @@
       <c r="D10">
         <v>3E-10</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="E10" s="7">
         <f>VLOOKUP(A10,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -8975,9 +9007,9 @@
       <c r="D11">
         <v>3E-10</v>
       </c>
-      <c r="E11" s="7" t="str">
+      <c r="E11" s="7">
         <f>VLOOKUP(A11,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>better start, still crash</v>
+        <v>0</v>
       </c>
       <c r="G11" s="14">
         <v>3E-11</v>
@@ -8988,8 +9020,14 @@
       <c r="K11" s="14">
         <v>1E-10</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N11" s="14">
+        <v>1E-14</v>
+      </c>
+      <c r="O11" s="14">
+        <v>9.9999999999999994E-12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
@@ -9008,7 +9046,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -9027,7 +9065,7 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -9040,9 +9078,9 @@
       <c r="D14">
         <v>3E-10</v>
       </c>
-      <c r="E14" s="7" t="str">
+      <c r="E14" s="7">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>delayed crash, too high</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <f>C14*1.25</f>
@@ -9071,7 +9109,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>48</v>
       </c>
@@ -9090,7 +9128,7 @@
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
@@ -9103,9 +9141,9 @@
       <c r="D16">
         <v>1.8E-9</v>
       </c>
-      <c r="E16" s="7" t="str">
+      <c r="E16" s="7">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>higher start, revert</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <f>C16*0.75</f>
@@ -9132,7 +9170,7 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -9145,9 +9183,9 @@
       <c r="D17">
         <v>1.8E-10</v>
       </c>
-      <c r="E17" s="7" t="str">
+      <c r="E17" s="7">
         <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>high start, revert</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <f>C17*0.5</f>
@@ -9158,7 +9196,7 @@
         <v>8.9999999999999999E-11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -9171,9 +9209,9 @@
       <c r="D18">
         <v>3E-10</v>
       </c>
-      <c r="E18" s="7" t="str">
+      <c r="E18" s="7">
         <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>lower start</v>
+        <v>0</v>
       </c>
       <c r="F18" s="14">
         <v>1E-13</v>
@@ -9194,7 +9232,7 @@
         <v>6E-10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
@@ -9213,7 +9251,7 @@
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>42</v>
       </c>
@@ -9226,9 +9264,9 @@
       <c r="D20">
         <v>4.0000000000000002E-9</v>
       </c>
-      <c r="E20" s="7" t="str">
+      <c r="E20" s="7">
         <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>higher start</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <f>C20*0.75</f>
@@ -9238,8 +9276,14 @@
         <f>D20*0.75</f>
         <v>3.0000000000000004E-9</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N20" s="14">
+        <v>2.0000000000000001E-13</v>
+      </c>
+      <c r="O20" s="14">
+        <v>3E-11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>63</v>
       </c>
@@ -9258,7 +9302,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>61</v>
       </c>
@@ -9296,7 +9340,7 @@
         <v>8.9999999999999999E-10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>52</v>
       </c>
@@ -9315,7 +9359,7 @@
       </c>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>62</v>
       </c>
@@ -9328,13 +9372,13 @@
       <c r="D24">
         <v>1.7600000000000001E-3</v>
       </c>
-      <c r="E24" s="7" t="str">
+      <c r="E24" s="7">
         <f>VLOOKUP(A24,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>reduce early</v>
+        <v>0</v>
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
@@ -9347,9 +9391,9 @@
       <c r="D25">
         <v>2.4999999999999998E-12</v>
       </c>
-      <c r="E25" s="7" t="str">
+      <c r="E25" s="7">
         <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>no change, revert</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <f>C25*1.25</f>
@@ -9365,8 +9409,14 @@
       <c r="K25" s="14">
         <v>1E-13</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N25" s="14">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="O25" s="14">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
@@ -9385,7 +9435,7 @@
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>21</v>
       </c>
@@ -9398,13 +9448,13 @@
       <c r="D27">
         <v>4.4999999999999998E-9</v>
       </c>
-      <c r="E27" s="7" t="str">
+      <c r="E27" s="7">
         <f>VLOOKUP(A27,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>too low, revert?</v>
+        <v>0</v>
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>41</v>
       </c>
@@ -9417,13 +9467,13 @@
       <c r="D28">
         <v>3E-10</v>
       </c>
-      <c r="E28" s="7" t="str">
+      <c r="E28" s="7">
         <f>VLOOKUP(A28,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>Too high, revert</v>
+        <v>0</v>
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -9436,9 +9486,9 @@
       <c r="D29">
         <v>8.5E-9</v>
       </c>
-      <c r="E29" s="7" t="str">
+      <c r="E29" s="7">
         <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <f>C29*0.5</f>
@@ -9455,7 +9505,7 @@
         <v>1E-10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
@@ -9468,13 +9518,13 @@
       <c r="D30">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="E30" s="7" t="str">
+      <c r="E30" s="7">
         <f>VLOOKUP(A30,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>72</v>
       </c>
@@ -9493,7 +9543,7 @@
       </c>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
@@ -9506,9 +9556,9 @@
       <c r="D32">
         <v>3E-10</v>
       </c>
-      <c r="E32" s="7" t="str">
+      <c r="E32" s="7">
         <f>VLOOKUP(A32,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <f>C32*1.5</f>
@@ -9531,7 +9581,7 @@
         <v>9E-13</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>28</v>
       </c>
@@ -9544,13 +9594,13 @@
       <c r="D33">
         <v>3E-10</v>
       </c>
-      <c r="E33" s="7" t="str">
+      <c r="E33" s="7">
         <f>VLOOKUP(A33,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>23</v>
       </c>
@@ -9563,13 +9613,13 @@
       <c r="D34">
         <v>1.8E-10</v>
       </c>
-      <c r="E34" s="7" t="str">
+      <c r="E34" s="7">
         <f>VLOOKUP(A34,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>47</v>
       </c>
@@ -9582,9 +9632,9 @@
       <c r="D35">
         <v>3.4999999999999998E-10</v>
       </c>
-      <c r="E35" s="7" t="str">
+      <c r="E35" s="7">
         <f>VLOOKUP(A35,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="G35"/>
       <c r="L35" s="14">
@@ -9593,8 +9643,14 @@
       <c r="M35" s="14">
         <v>5.0000000000000003E-10</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N35" s="14">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="O35" s="14">
+        <v>1.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>18</v>
       </c>
@@ -9626,7 +9682,7 @@
         <v>8.0000000000000005E-9</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>50</v>
       </c>
@@ -9645,7 +9701,7 @@
       </c>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>73</v>
       </c>
@@ -9658,9 +9714,9 @@
       <c r="D38">
         <v>1.7700000000000001E-3</v>
       </c>
-      <c r="E38" s="7" t="str">
+      <c r="E38" s="7">
         <f>VLOOKUP(A38,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>crashes early</v>
+        <v>0</v>
       </c>
       <c r="G38"/>
       <c r="L38">
@@ -9670,7 +9726,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>19</v>
       </c>
@@ -9689,7 +9745,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>55</v>
       </c>
@@ -9708,7 +9764,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
@@ -9721,9 +9777,9 @@
       <c r="D41">
         <v>3E-10</v>
       </c>
-      <c r="E41" s="7" t="str">
+      <c r="E41" s="7">
         <f>VLOOKUP(A41,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse revert</v>
+        <v>0</v>
       </c>
       <c r="G41"/>
       <c r="L41" s="14">
@@ -9733,7 +9789,7 @@
         <v>5.0000000000000003E-10</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>49</v>
       </c>
@@ -9752,7 +9808,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>30</v>
       </c>
@@ -9765,13 +9821,13 @@
       <c r="D43">
         <v>3E-10</v>
       </c>
-      <c r="E43" s="7" t="str">
+      <c r="E43" s="7">
         <f>VLOOKUP(A43,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>Too high, revert</v>
+        <v>0</v>
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>57</v>
       </c>
@@ -9790,7 +9846,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -9803,9 +9859,9 @@
       <c r="D45">
         <v>3.4999999999999998E-10</v>
       </c>
-      <c r="E45" s="7" t="str">
+      <c r="E45" s="7">
         <f>VLOOKUP(A45,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>too high, revert</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <f>C45*1.5</f>
@@ -9827,8 +9883,14 @@
       <c r="M45" s="14">
         <v>2.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N45" s="14">
+        <v>3.9999999999999999E-12</v>
+      </c>
+      <c r="O45" s="14">
+        <v>4.0000000000000002E-9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>32</v>
       </c>
@@ -9841,9 +9903,9 @@
       <c r="D46">
         <v>3E-10</v>
       </c>
-      <c r="E46" s="7" t="str">
+      <c r="E46" s="7">
         <f>VLOOKUP(A46,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>lower start, crashes earlier</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <f>C46*0.75</f>
@@ -9854,7 +9916,7 @@
         <v>2.25E-10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>54</v>
       </c>
@@ -9867,9 +9929,9 @@
       <c r="D47">
         <v>1.3E-6</v>
       </c>
-      <c r="E47" s="7" t="str">
+      <c r="E47" s="7">
         <f>VLOOKUP(A47,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>somewhere in middle</v>
+        <v>0</v>
       </c>
       <c r="G47"/>
       <c r="J47" s="14">
@@ -9885,7 +9947,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>26</v>
       </c>
@@ -9898,13 +9960,13 @@
       <c r="D48">
         <v>8.0000000000000002E-13</v>
       </c>
-      <c r="E48" s="7" t="str">
+      <c r="E48" s="7">
         <f>VLOOKUP(A48,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>somwhere in middle</v>
+        <v>0</v>
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>27</v>
       </c>
@@ -9917,13 +9979,13 @@
       <c r="D49">
         <v>2.6000000000000001E-9</v>
       </c>
-      <c r="E49" s="7" t="str">
+      <c r="E49" s="7">
         <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>too low, revert</v>
+        <v>0</v>
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>59</v>
       </c>
@@ -9942,7 +10004,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>45</v>
       </c>
@@ -9973,8 +10035,14 @@
       <c r="K51" s="14">
         <v>8.9999999999999999E-10</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N51" s="14">
+        <v>1.5000000000000001E-12</v>
+      </c>
+      <c r="O51" s="14">
+        <v>1.5E-9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>44</v>
       </c>
@@ -9987,9 +10055,9 @@
       <c r="D52">
         <v>1E-13</v>
       </c>
-      <c r="E52" s="7" t="str">
+      <c r="E52" s="7">
         <f>VLOOKUP(A52,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>no change, revert</v>
+        <v>0</v>
       </c>
       <c r="F52" s="14">
         <v>1E-13</v>
@@ -10016,7 +10084,7 @@
         <v>1.1999999999999999E-12</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>37</v>
       </c>
@@ -10029,9 +10097,9 @@
       <c r="D53">
         <v>3E-10</v>
       </c>
-      <c r="E53" s="7" t="str">
+      <c r="E53" s="7">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>higher, revert</v>
+        <v>0</v>
       </c>
       <c r="G53"/>
       <c r="J53" s="14">
@@ -10041,7 +10109,7 @@
         <v>6E-10</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>14</v>
       </c>
@@ -10054,9 +10122,9 @@
       <c r="D54">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E54" s="7" t="str">
+      <c r="E54" s="7">
         <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <f>C54*1.25</f>
@@ -10066,8 +10134,14 @@
         <f>D54*1.25</f>
         <v>4.0000000000000002E-9</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N54" s="14">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="O54" s="14">
+        <v>1E-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>38</v>
       </c>
@@ -10080,9 +10154,9 @@
       <c r="D55">
         <v>3E-10</v>
       </c>
-      <c r="E55" s="7" t="str">
+      <c r="E55" s="7">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>casues crash</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <f>C55*2</f>
@@ -10099,7 +10173,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>33</v>
       </c>
@@ -10112,9 +10186,9 @@
       <c r="D56">
         <v>3E-10</v>
       </c>
-      <c r="E56" s="7" t="str">
+      <c r="E56" s="7">
         <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>somewhere in middle</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <f>C56/2</f>
@@ -10130,8 +10204,14 @@
       <c r="K56" s="14">
         <v>2.0000000000000001E-10</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N56" s="14">
+        <v>2.4999999999999999E-13</v>
+      </c>
+      <c r="O56" s="14">
+        <v>2.5000000000000002E-10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>60</v>
       </c>
@@ -10150,7 +10230,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
@@ -10163,9 +10243,9 @@
       <c r="D58">
         <v>3.7499999999999998E-8</v>
       </c>
-      <c r="E58" s="7" t="str">
+      <c r="E58" s="7">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse revert</v>
+        <v>0</v>
       </c>
       <c r="F58" s="14">
         <v>1E-10</v>
@@ -10180,7 +10260,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>13</v>
       </c>
@@ -10206,7 +10286,7 @@
         <v>1.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>15</v>
       </c>
@@ -10219,9 +10299,9 @@
       <c r="D60">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E60" s="7" t="str">
+      <c r="E60" s="7">
         <f>VLOOKUP(A60,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <f>C60*0.5</f>
@@ -10238,7 +10318,7 @@
         <v>2.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>51</v>
       </c>
@@ -10251,13 +10331,13 @@
       <c r="D61">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="E61" s="7" t="str">
+      <c r="E61" s="7">
         <f>VLOOKUP(A61,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>maybe worse</v>
+        <v>0</v>
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>16</v>
       </c>
@@ -10270,9 +10350,9 @@
       <c r="D62">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E62" s="7" t="str">
+      <c r="E62" s="7">
         <f>VLOOKUP(A62,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <f>C62*0.5</f>
@@ -10283,7 +10363,7 @@
         <v>1.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>39</v>
       </c>
@@ -10296,13 +10376,13 @@
       <c r="D63">
         <v>3E-10</v>
       </c>
-      <c r="E63" s="7" t="str">
+      <c r="E63" s="7">
         <f>VLOOKUP(A63,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>worse, revert</v>
+        <v>0</v>
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>43</v>
       </c>

--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" tabRatio="853" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" tabRatio="853"/>
   </bookViews>
   <sheets>
     <sheet name="Group Condition" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,18 @@
     <sheet name="Recruitment_Log" sheetId="3" r:id="rId4"/>
     <sheet name="mL-Log" sheetId="4" r:id="rId5"/>
     <sheet name="mQ-log" sheetId="5" r:id="rId6"/>
+    <sheet name="Init Scalar " sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Crash Diagnosis'!$A$1:$J$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Group Condition'!$A$1:$I$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Group Condition'!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'mL-Log'!$A$1:$G$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'mQ-log'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Notes Log'!$A$1:$E$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Recruitment_Log!$A$1:$O$68</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="411">
   <si>
     <t>Too Low</t>
   </si>
@@ -1195,6 +1197,81 @@
   </si>
   <si>
     <t>down mum_WOL 3-6 x1/2, 7-10x.75</t>
+  </si>
+  <si>
+    <t>improves at end</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>worse (too high)</t>
+  </si>
+  <si>
+    <t>closer, still crashes</t>
+  </si>
+  <si>
+    <t>no change</t>
+  </si>
+  <si>
+    <t>higher start and end</t>
+  </si>
+  <si>
+    <t>worse, higher</t>
+  </si>
+  <si>
+    <t>too high</t>
+  </si>
+  <si>
+    <t>too high start</t>
+  </si>
+  <si>
+    <t>higher start</t>
+  </si>
+  <si>
+    <t>lower but crashes</t>
+  </si>
+  <si>
+    <t>Stable but crashes</t>
+  </si>
+  <si>
+    <t>No change</t>
+  </si>
+  <si>
+    <t>crashes (between)</t>
+  </si>
+  <si>
+    <t>Change w/o Fishing</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Change w/o Init Scalar 1</t>
+  </si>
+  <si>
+    <t>+-</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Init Scalar</t>
+  </si>
+  <si>
+    <t>Init Scalar 11022020</t>
   </si>
 </sst>
 </file>
@@ -1607,12 +1684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1624,11 +1702,13 @@
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="13"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -1656,1253 +1736,1908 @@
       <c r="I1" s="13" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>401</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="L1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H32" si="0">IF(OR(COUNTIF(C2:G2,"X")=0,COUNTIF(C2:G2,"B")&lt;&gt;0),"X","")</f>
+        <f>IF(OR(COUNTIF(C2:G2,"X")=0,COUNTIF(C2:G2,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K2" s="13">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>VLOOKUP(A2,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" t="str">
+        <f>IF(OR(COUNTIF(C3:G3,"X")=0,COUNTIF(C3:G3,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L3">
+        <f>VLOOKUP(A3,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1000.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" t="s">
         <v>180</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" si="0"/>
+      <c r="H4" t="str">
+        <f>IF(OR(COUNTIF(C4:G4,"X")=0,COUNTIF(C4:G4,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
+      <c r="K4" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L4">
+        <f>VLOOKUP(A4,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" t="str">
+        <f>IF(OR(COUNTIF(C5:G5,"X")=0,COUNTIF(C5:G5,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="K5" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="L5">
+        <f>VLOOKUP(A5,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>4.8259999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" t="str">
+        <f>IF(OR(COUNTIF(C6:G6,"X")=0,COUNTIF(C6:G6,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="L6">
+        <f>VLOOKUP(A6,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>104</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>180</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>180</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
+      <c r="H7" t="str">
+        <f>IF(OR(COUNTIF(C7:G7,"X")=0,COUNTIF(C7:G7,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
+      <c r="I7" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="J7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L7">
+        <f>VLOOKUP(A7,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8" t="str">
+        <f>IF(OR(COUNTIF(C8:G8,"X")=0,COUNTIF(C8:G8,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="L8">
+        <f>VLOOKUP(A8,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="str">
+        <f>IF(OR(COUNTIF(C9:G9,"X")=0,COUNTIF(C9:G9,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="J9" t="s">
+        <v>402</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L9">
+        <f>VLOOKUP(A9,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
         <v>180</v>
-      </c>
-      <c r="D7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>124</v>
       </c>
       <c r="G10" t="s">
         <v>180</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(C10:G10,"X")=0,COUNTIF(C10:G10,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="J10" t="s">
+        <v>402</v>
+      </c>
+      <c r="L10">
+        <f>VLOOKUP(A10,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" t="str">
+        <f>IF(OR(COUNTIF(C11:G11,"X")=0,COUNTIF(C11:G11,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="J11" t="s">
+        <v>402</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L11">
+        <f>VLOOKUP(A11,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" t="s">
         <v>180</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
+      <c r="H12" t="str">
+        <f>IF(OR(COUNTIF(C12:G12,"X")=0,COUNTIF(C12:G12,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" t="s">
-        <v>264</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
+      <c r="L12">
+        <f>VLOOKUP(A12,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" t="str">
+        <f>IF(OR(COUNTIF(C13:G13,"X")=0,COUNTIF(C13:G13,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="K13" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L13">
+        <f>VLOOKUP(A13,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" t="str">
+        <f>IF(OR(COUNTIF(C14:G14,"X")=0,COUNTIF(C14:G14,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L14">
+        <f>VLOOKUP(A14,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" t="str">
+        <f>IF(OR(COUNTIF(C15:G15,"X")=0,COUNTIF(C15:G15,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="J15" t="s">
+        <v>402</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L15">
+        <f>VLOOKUP(A15,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" t="str">
+        <f>IF(OR(COUNTIF(C16:G16,"X")=0,COUNTIF(C16:G16,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="J16" t="s">
+        <v>402</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L16">
+        <f>VLOOKUP(A16,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>147</v>
-      </c>
-      <c r="C13" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" t="s">
-        <v>264</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>119</v>
       </c>
       <c r="C17" t="s">
         <v>180</v>
       </c>
-      <c r="D17" t="s">
+      <c r="H17" t="str">
+        <f>IF(OR(COUNTIF(C17:G17,"X")=0,COUNTIF(C17:G17,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L17">
+        <f>VLOOKUP(A17,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H18" t="str">
+        <f>IF(OR(COUNTIF(C18:G18,"X")=0,COUNTIF(C18:G18,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="L18">
+        <f>VLOOKUP(A18,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" t="str">
+        <f>IF(OR(COUNTIF(C19:G19,"X")=0,COUNTIF(C19:G19,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L19">
+        <f>VLOOKUP(A19,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" t="str">
+        <f>IF(OR(COUNTIF(C20:G20,"X")=0,COUNTIF(C20:G20,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L20">
+        <f>VLOOKUP(A20,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" t="str">
+        <f>IF(OR(COUNTIF(C21:G21,"X")=0,COUNTIF(C21:G21,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="L21">
+        <f>VLOOKUP(A21,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" t="str">
+        <f>IF(OR(COUNTIF(C22:G22,"X")=0,COUNTIF(C22:G22,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L22">
+        <f>VLOOKUP(A22,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" t="str">
+        <f>IF(OR(COUNTIF(C23:G23,"X")=0,COUNTIF(C23:G23,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="L23">
+        <f>VLOOKUP(A23,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
         <v>180</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G24" t="s">
         <v>180</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
+      <c r="H24" t="str">
+        <f>IF(OR(COUNTIF(C24:G24,"X")=0,COUNTIF(C24:G24,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>137</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
+      <c r="I24" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="J24" t="s">
+        <v>402</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L24">
+        <f>VLOOKUP(A24,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" t="str">
+        <f>IF(OR(COUNTIF(C25:G25,"X")=0,COUNTIF(C25:G25,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="K25" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L25">
+        <f>VLOOKUP(A25,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" t="str">
+        <f>IF(OR(COUNTIF(C26:G26,"X")=0,COUNTIF(C26:G26,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="J26" t="s">
+        <v>402</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L26">
+        <f>VLOOKUP(A26,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" t="s">
         <v>180</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H27" t="str">
+        <f>IF(OR(COUNTIF(C27:G27,"X")=0,COUNTIF(C27:G27,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="L27">
+        <f>VLOOKUP(A27,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" t="str">
+        <f>IF(OR(COUNTIF(C28:G28,"X")=0,COUNTIF(C28:G28,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L28">
+        <f>VLOOKUP(A28,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" t="str">
+        <f>IF(OR(COUNTIF(C29:G29,"X")=0,COUNTIF(C29:G29,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L29">
+        <f>VLOOKUP(A29,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
         <v>180</v>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
+      <c r="G30" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" t="str">
+        <f>IF(OR(COUNTIF(C30:G30,"X")=0,COUNTIF(C30:G30,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="I30" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L30">
+        <f>VLOOKUP(A30,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
         <v>180</v>
       </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
+      <c r="H31" t="str">
+        <f>IF(OR(COUNTIF(C31:G31,"X")=0,COUNTIF(C31:G31,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="I31" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L31">
+        <f>VLOOKUP(A31,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
         <v>180</v>
       </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
+      <c r="D32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" t="str">
+        <f>IF(OR(COUNTIF(C32:G32,"X")=0,COUNTIF(C32:G32,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>164</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>169</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>170</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" t="s">
-        <v>180</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" t="s">
-        <v>180</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" t="s">
-        <v>180</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>150</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" t="s">
-        <v>177</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" t="s">
-        <v>141</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L32">
+        <f>VLOOKUP(A32,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" t="s">
-        <v>180</v>
-      </c>
-      <c r="G33" t="s">
-        <v>264</v>
+        <v>93</v>
       </c>
       <c r="H33" t="str">
         <f>IF(OR(COUNTIF(C33:G33,"X")=0,COUNTIF(C33:G33,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>402</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L33">
+        <f>VLOOKUP(A33,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>373.37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" t="str">
+        <f>IF(OR(COUNTIF(C34:G34,"X")=0,COUNTIF(C34:G34,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L34">
+        <f>VLOOKUP(A34,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" t="str">
+        <f>IF(OR(COUNTIF(C35:G35,"X")=0,COUNTIF(C35:G35,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L35">
+        <f>VLOOKUP(A35,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" t="s">
+        <v>264</v>
+      </c>
+      <c r="H36" t="str">
+        <f>IF(OR(COUNTIF(C36:G36,"X")=0,COUNTIF(C36:G36,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L36">
+        <f>VLOOKUP(A36,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" t="str">
+        <f>IF(OR(COUNTIF(C37:G37,"X")=0,COUNTIF(C37:G37,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L37">
+        <f>VLOOKUP(A37,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>62</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>151</v>
       </c>
-      <c r="H34" t="str">
-        <f t="shared" ref="H34:H88" si="1">IF(OR(COUNTIF(C34:G34,"X")=0,COUNTIF(C34:G34,"B")&lt;&gt;0),"X","")</f>
+      <c r="H38" t="str">
+        <f>IF(OR(COUNTIF(C38:G38,"X")=0,COUNTIF(C38:G38,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="K38" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L38">
+        <f>VLOOKUP(A38,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39" t="str">
+        <f>IF(OR(COUNTIF(C39:G39,"X")=0,COUNTIF(C39:G39,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="L39">
+        <f>VLOOKUP(A39,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>10</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B40" t="s">
         <v>92</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C40" t="s">
         <v>180</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="1"/>
+      <c r="G40" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" t="str">
+        <f>IF(OR(COUNTIF(C40:G40,"X")=0,COUNTIF(C40:G40,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" t="s">
-        <v>165</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="I40" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="J40" t="s">
+        <v>402</v>
+      </c>
+      <c r="L40">
+        <f>VLOOKUP(A40,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" t="s">
         <v>180</v>
       </c>
-      <c r="D37" t="s">
+      <c r="H41" t="str">
+        <f>IF(OR(COUNTIF(C41:G41,"X")=0,COUNTIF(C41:G41,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="J41" t="s">
+        <v>402</v>
+      </c>
+      <c r="L41">
+        <f>VLOOKUP(A41,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
         <v>180</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" si="1"/>
+      <c r="H42" t="str">
+        <f>IF(OR(COUNTIF(C42:G42,"X")=0,COUNTIF(C42:G42,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" t="s">
-        <v>176</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="K42" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L42">
+        <f>VLOOKUP(A42,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" t="s">
         <v>180</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="1"/>
+      <c r="H43" t="str">
+        <f>IF(OR(COUNTIF(C43:G43,"X")=0,COUNTIF(C43:G43,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" t="s">
-        <v>180</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" t="s">
-        <v>180</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" t="s">
-        <v>180</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>130</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" t="s">
-        <v>180</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <f>VLOOKUP(A43,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
         <v>180</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(C44:G44,"X")=0,COUNTIF(C44:G44,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K44" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L44">
+        <f>VLOOKUP(A44,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
-      </c>
-      <c r="E45" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" t="str">
+        <f>IF(OR(COUNTIF(C45:G45,"X")=0,COUNTIF(C45:G45,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L45">
+        <f>VLOOKUP(A45,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" t="s">
         <v>180</v>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" si="1"/>
+      <c r="H46" t="str">
+        <f>IF(OR(COUNTIF(C46:G46,"X")=0,COUNTIF(C46:G46,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" t="s">
-        <v>180</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <f>VLOOKUP(A46,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" t="s">
-        <v>264</v>
+        <v>174</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(C47:G47,"X")=0,COUNTIF(C47:G47,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K47" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L47">
+        <f>VLOOKUP(A47,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
         <v>180</v>
       </c>
+      <c r="G48" t="s">
+        <v>180</v>
+      </c>
       <c r="H48" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(C48:G48,"X")=0,COUNTIF(C48:G48,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K48" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="L48">
+        <f>VLOOKUP(A48,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
-      </c>
-      <c r="G49" t="s">
-        <v>264</v>
+        <v>169</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(C49:G49,"X")=0,COUNTIF(C49:G49,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <f>VLOOKUP(A49,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="G50" t="s">
+        <v>180</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <f>IF(OR(COUNTIF(C50:G50,"X")=0,COUNTIF(C50:G50,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="J50" t="s">
+        <v>402</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L50">
+        <f>VLOOKUP(A50,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
         <v>180</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(C51:G51,"X")=0,COUNTIF(C51:G51,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K51" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L51">
+        <f>VLOOKUP(A51,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(C52:G52,"X")=0,COUNTIF(C52:G52,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J52" t="s">
+        <v>402</v>
+      </c>
+      <c r="L52">
+        <f>VLOOKUP(A52,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+      <c r="H53" t="str">
+        <f>IF(OR(COUNTIF(C53:G53,"X")=0,COUNTIF(C53:G53,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="L53">
+        <f>VLOOKUP(A53,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>50</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>139</v>
       </c>
-      <c r="H53" t="str">
-        <f t="shared" si="1"/>
+      <c r="H54" t="str">
+        <f>IF(OR(COUNTIF(C54:G54,"X")=0,COUNTIF(C54:G54,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" t="s">
-        <v>162</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="J54" t="s">
+        <v>402</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L54">
+        <f>VLOOKUP(A54,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G55" t="s">
+        <v>264</v>
+      </c>
+      <c r="H55" t="str">
+        <f>IF(OR(COUNTIF(C55:G55,"X")=0,COUNTIF(C55:G55,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="L55">
+        <f>VLOOKUP(A55,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" t="s">
         <v>180</v>
       </c>
-      <c r="H54" t="str">
-        <f t="shared" si="1"/>
+      <c r="H56" t="str">
+        <f>IF(OR(COUNTIF(C56:G56,"X")=0,COUNTIF(C56:G56,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" t="s">
-        <v>105</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="1"/>
+      <c r="L56">
+        <f>VLOOKUP(A56,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="H57" t="str">
+        <f>IF(OR(COUNTIF(C57:G57,"X")=0,COUNTIF(C57:G57,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" t="s">
-        <v>174</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" t="s">
-        <v>171</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K57" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L57">
+        <f>VLOOKUP(A57,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
-      </c>
-      <c r="G58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" t="s">
         <v>180</v>
       </c>
+      <c r="D58" t="s">
+        <v>180</v>
+      </c>
       <c r="H58" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(C58:G58,"X")=0,COUNTIF(C58:G58,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L58">
+        <f>VLOOKUP(A58,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
         <v>180</v>
       </c>
+      <c r="G59" t="s">
+        <v>180</v>
+      </c>
       <c r="H59" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(C59:G59,"X")=0,COUNTIF(C59:G59,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L59">
+        <f>VLOOKUP(A59,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>146</v>
+      </c>
+      <c r="D60" t="s">
+        <v>180</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <f>IF(OR(COUNTIF(C60:G60,"X")=0,COUNTIF(C60:G60,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L60">
+        <f>VLOOKUP(A60,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="G61" t="s">
         <v>180</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(C61:G61,"X")=0,COUNTIF(C61:G61,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J61" t="s">
+        <v>402</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L61">
+        <f>VLOOKUP(A61,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H62" t="str">
+        <f>IF(OR(COUNTIF(C62:G62,"X")=0,COUNTIF(C62:G62,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L62">
+        <f>VLOOKUP(A62,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="G63" t="s">
+        <v>264</v>
+      </c>
+      <c r="H63" t="str">
+        <f>IF(OR(COUNTIF(C63:G63,"X")=0,COUNTIF(C63:G63,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="L63">
+        <f>VLOOKUP(A63,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64" t="s">
         <v>180</v>
       </c>
-      <c r="H62" t="str">
-        <f t="shared" si="1"/>
+      <c r="H64" t="str">
+        <f>IF(OR(COUNTIF(C64:G64,"X")=0,COUNTIF(C64:G64,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63" t="s">
-        <v>178</v>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" si="1"/>
+      <c r="J64" t="s">
+        <v>402</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L64">
+        <f>VLOOKUP(A64,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" t="s">
+        <v>180</v>
+      </c>
+      <c r="H65" t="str">
+        <f>IF(OR(COUNTIF(C65:G65,"X")=0,COUNTIF(C65:G65,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="J65" t="s">
+        <v>402</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L65">
+        <f>VLOOKUP(A65,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" t="s">
+        <v>180</v>
+      </c>
+      <c r="H66" t="str">
+        <f>IF(OR(COUNTIF(C66:G66,"X")=0,COUNTIF(C66:G66,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="L66">
+        <f>VLOOKUP(A66,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+      <c r="H67" t="str">
+        <f>IF(OR(COUNTIF(C67:G67,"X")=0,COUNTIF(C67:G67,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" t="s">
-        <v>146</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="J67" t="s">
+        <v>402</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L67">
+        <f>VLOOKUP(A67,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="s">
         <v>180</v>
       </c>
-      <c r="H64" t="str">
-        <f t="shared" si="1"/>
+      <c r="H68" t="str">
+        <f>IF(OR(COUNTIF(C68:G68,"X")=0,COUNTIF(C68:G68,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="K68" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L68">
+        <f>VLOOKUP(A68,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="H69" t="str">
+        <f>IF(OR(COUNTIF(C69:G69,"X")=0,COUNTIF(C69:G69,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L69">
+        <f>VLOOKUP(A69,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>46</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B70" t="s">
         <v>135</v>
       </c>
-      <c r="C65" t="s">
+      <c r="H70" t="str">
+        <f>IF(OR(COUNTIF(C70:G70,"X")=0,COUNTIF(C70:G70,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L70">
+        <f>VLOOKUP(A70,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" t="s">
         <v>180</v>
       </c>
-      <c r="H65" t="str">
-        <f t="shared" si="1"/>
+      <c r="G71" t="s">
+        <v>180</v>
+      </c>
+      <c r="H71" t="str">
+        <f>IF(OR(COUNTIF(C71:G71,"X")=0,COUNTIF(C71:G71,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>32</v>
-      </c>
-      <c r="B66" t="s">
-        <v>120</v>
-      </c>
-      <c r="G66" t="s">
-        <v>180</v>
-      </c>
-      <c r="H66" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" t="s">
-        <v>153</v>
-      </c>
-      <c r="G67" t="s">
-        <v>264</v>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" t="s">
-        <v>143</v>
-      </c>
-      <c r="H68" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" t="s">
-        <v>166</v>
-      </c>
-      <c r="D69" t="s">
-        <v>180</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" t="s">
-        <v>175</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>26</v>
-      </c>
-      <c r="B71" t="s">
-        <v>113</v>
-      </c>
-      <c r="E71" t="s">
-        <v>180</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="J71" t="s">
+        <v>402</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L71">
+        <f>VLOOKUP(A71,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="G72" t="s">
         <v>180</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(C72:G72,"X")=0,COUNTIF(C72:G72,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="J72" t="s">
+        <v>402</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L72">
+        <f>VLOOKUP(A72,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>148</v>
+      </c>
+      <c r="G73" t="s">
+        <v>180</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <f>IF(OR(COUNTIF(C73:G73,"X")=0,COUNTIF(C73:G73,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L73">
+        <f>VLOOKUP(A73,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>127</v>
+      </c>
+      <c r="C74" t="s">
+        <v>180</v>
       </c>
       <c r="G74" t="s">
         <v>180</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(C74:G74,"X")=0,COUNTIF(C74:G74,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="J74" t="s">
+        <v>402</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L74">
+        <f>VLOOKUP(A74,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <f>IF(OR(COUNTIF(C75:G75,"X")=0,COUNTIF(C75:G75,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="J75" t="s">
+        <v>402</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L75">
+        <f>VLOOKUP(A75,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <f>IF(OR(COUNTIF(C76:G76,"X")=0,COUNTIF(C76:G76,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L76">
+        <f>VLOOKUP(A76,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G77" t="s">
         <v>180</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(C77:G77,"X")=0,COUNTIF(C77:G77,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="J77" t="s">
+        <v>402</v>
+      </c>
+      <c r="L77">
+        <f>VLOOKUP(A77,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G78" t="s">
         <v>180</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(C78:G78,"X")=0,COUNTIF(C78:G78,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K78" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="L78">
+        <f>VLOOKUP(A78,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
         <v>180</v>
       </c>
-      <c r="G79" t="s">
-        <v>180</v>
-      </c>
       <c r="H79" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(C79:G79,"X")=0,COUNTIF(C79:G79,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K79" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L79">
+        <f>VLOOKUP(A79,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
         <v>180</v>
       </c>
-      <c r="D80" t="s">
+      <c r="H80" t="str">
+        <f>IF(OR(COUNTIF(C80:G80,"X")=0,COUNTIF(C80:G80,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L80">
+        <f>VLOOKUP(A80,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>96</v>
+      </c>
+      <c r="H81" t="str">
+        <f>IF(OR(COUNTIF(C81:G81,"X")=0,COUNTIF(C81:G81,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K81" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L81">
+        <f>VLOOKUP(A81,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" t="s">
+        <v>140</v>
+      </c>
+      <c r="H82" t="str">
+        <f>IF(OR(COUNTIF(C82:G82,"X")=0,COUNTIF(C82:G82,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L82">
+        <f>VLOOKUP(A82,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>99</v>
+      </c>
+      <c r="G83" t="s">
         <v>180</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H83" t="str">
+        <f>IF(OR(COUNTIF(C83:G83,"X")=0,COUNTIF(C83:G83,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L83">
+        <f>VLOOKUP(A83,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" t="s">
+        <v>132</v>
+      </c>
+      <c r="H84" t="str">
+        <f>IF(OR(COUNTIF(C84:G84,"X")=0,COUNTIF(C84:G84,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L84">
+        <f>VLOOKUP(A84,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+      <c r="E85" t="s">
         <v>180</v>
       </c>
-      <c r="H80" t="str">
-        <f t="shared" si="1"/>
+      <c r="H85" t="str">
+        <f>IF(OR(COUNTIF(C85:G85,"X")=0,COUNTIF(C85:G85,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>60</v>
-      </c>
-      <c r="B81" t="s">
-        <v>149</v>
-      </c>
-      <c r="H81" t="str">
-        <f t="shared" si="1"/>
+      <c r="K85" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L85">
+        <f>VLOOKUP(A85,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" t="s">
+        <v>163</v>
+      </c>
+      <c r="G86" t="s">
+        <v>180</v>
+      </c>
+      <c r="H86" t="str">
+        <f>IF(OR(COUNTIF(C86:G86,"X")=0,COUNTIF(C86:G86,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="L86">
+        <f>VLOOKUP(A86,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>172</v>
+      </c>
+      <c r="E87" t="s">
+        <v>180</v>
+      </c>
+      <c r="H87" t="str">
+        <f>IF(OR(COUNTIF(C87:G87,"X")=0,COUNTIF(C87:G87,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="K87" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L87">
+        <f>VLOOKUP(A87,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+      <c r="H88" t="str">
+        <f>IF(OR(COUNTIF(C88:G88,"X")=0,COUNTIF(C88:G88,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" t="s">
-        <v>94</v>
-      </c>
-      <c r="H82" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" t="s">
-        <v>96</v>
-      </c>
-      <c r="H83" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" t="s">
-        <v>98</v>
-      </c>
-      <c r="C84" t="s">
-        <v>180</v>
-      </c>
-      <c r="H84" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>51</v>
-      </c>
-      <c r="B85" t="s">
-        <v>140</v>
-      </c>
-      <c r="H85" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>16</v>
-      </c>
-      <c r="B86" t="s">
-        <v>99</v>
-      </c>
-      <c r="C86" t="s">
-        <v>180</v>
-      </c>
-      <c r="H86" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>39</v>
-      </c>
-      <c r="B87" t="s">
-        <v>128</v>
-      </c>
-      <c r="C87" t="s">
-        <v>180</v>
-      </c>
-      <c r="H87" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>43</v>
-      </c>
-      <c r="B88" t="s">
-        <v>132</v>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
+      <c r="K88" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="L88">
+        <f>VLOOKUP(A88,'Init Scalar '!$A$2:$B$90,2,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I88">
-    <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="X"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:K1">
+    <sortState ref="A2:K88">
+      <sortCondition ref="A1"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2913,11 +3648,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F89" sqref="F89"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2995,9 +3730,9 @@
       <c r="B4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" t="e">
         <f>VLOOKUP(A4,'Group Condition'!A4:I90,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3160,9 +3895,9 @@
       <c r="B14" t="s">
         <v>167</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" t="e">
         <f>VLOOKUP(A14,'Group Condition'!A14:I100,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -3172,9 +3907,9 @@
       <c r="B15" t="s">
         <v>157</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" t="e">
         <f>VLOOKUP(A15,'Group Condition'!A15:I101,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -3184,9 +3919,9 @@
       <c r="B16" t="s">
         <v>106</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" t="e">
         <f>VLOOKUP(A16,'Group Condition'!A16:I102,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3196,9 +3931,9 @@
       <c r="B17" t="s">
         <v>119</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" t="e">
         <f>VLOOKUP(A17,'Group Condition'!A17:I103,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D17" t="s">
         <v>294</v>
@@ -3217,9 +3952,9 @@
       <c r="B18" t="s">
         <v>137</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" t="e">
         <f>VLOOKUP(A18,'Group Condition'!A18:I104,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3229,9 +3964,9 @@
       <c r="B19" t="s">
         <v>95</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" t="e">
         <f>VLOOKUP(A19,'Group Condition'!A19:I105,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D19" t="s">
         <v>295</v>
@@ -3250,9 +3985,9 @@
       <c r="B20" t="s">
         <v>108</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" t="e">
         <f>VLOOKUP(A20,'Group Condition'!A20:I106,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D20" t="s">
         <v>296</v>
@@ -3292,9 +4027,9 @@
       <c r="B22" t="s">
         <v>164</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" t="e">
         <f>VLOOKUP(A22,'Group Condition'!A22:I108,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -3316,9 +4051,9 @@
       <c r="B24" t="s">
         <v>170</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" t="e">
         <f>VLOOKUP(A24,'Group Condition'!A24:I110,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3328,9 +4063,9 @@
       <c r="B25" t="s">
         <v>125</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" t="e">
         <f>VLOOKUP(A25,'Group Condition'!A25:I111,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D25" t="s">
         <v>283</v>
@@ -3418,9 +4153,9 @@
       <c r="B31" t="s">
         <v>177</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31" t="e">
         <f>VLOOKUP(A31,'Group Condition'!A31:I117,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -3514,9 +4249,9 @@
       <c r="B38" t="s">
         <v>176</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38" t="e">
         <f>VLOOKUP(A38,'Group Condition'!A38:I124,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -3549,7 +4284,7 @@
       </c>
       <c r="C40" t="str">
         <f>VLOOKUP(A40,'Group Condition'!A40:I126,8,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="D40" t="s">
         <v>300</v>
@@ -3586,9 +4321,9 @@
       <c r="B42" t="s">
         <v>130</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42" t="e">
         <f>VLOOKUP(A42,'Group Condition'!A42:I128,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
       <c r="E42" t="s">
         <v>342</v>
@@ -3601,9 +4336,9 @@
       <c r="B43" t="s">
         <v>111</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43" t="e">
         <f>VLOOKUP(A43,'Group Condition'!A43:I129,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="E43" t="s">
         <v>309</v>
@@ -3637,9 +4372,9 @@
       <c r="B45" t="s">
         <v>161</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45" t="e">
         <f>VLOOKUP(A45,'Group Condition'!A45:I131,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F45" t="s">
         <v>357</v>
@@ -3652,9 +4387,9 @@
       <c r="B46" t="s">
         <v>123</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46" t="e">
         <f>VLOOKUP(A46,'Group Condition'!A46:I132,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="E46" t="s">
         <v>343</v>
@@ -3682,9 +4417,9 @@
       <c r="B48" t="s">
         <v>116</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C48" t="e">
         <f>VLOOKUP(A48,'Group Condition'!A48:I134,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="E48" t="s">
         <v>312</v>
@@ -3700,9 +4435,9 @@
       <c r="B49" t="s">
         <v>156</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49" t="e">
         <f>VLOOKUP(A49,'Group Condition'!A49:I135,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -3712,9 +4447,9 @@
       <c r="B50" t="s">
         <v>109</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C50" t="e">
         <f>VLOOKUP(A50,'Group Condition'!A50:I136,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3724,9 +4459,9 @@
       <c r="B51" t="s">
         <v>136</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C51" t="e">
         <f>VLOOKUP(A51,'Group Condition'!A51:I137,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="E51" t="s">
         <v>344</v>
@@ -3742,9 +4477,9 @@
       <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C52" t="e">
         <f>VLOOKUP(A52,'Group Condition'!A52:I138,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -3766,9 +4501,9 @@
       <c r="B54" t="s">
         <v>162</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C54" t="e">
         <f>VLOOKUP(A54,'Group Condition'!A54:I140,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="E54" t="s">
         <v>315</v>
@@ -3796,9 +4531,9 @@
       <c r="B56" t="s">
         <v>174</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C56" t="e">
         <f>VLOOKUP(A56,'Group Condition'!A56:I142,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -3808,9 +4543,9 @@
       <c r="B57" t="s">
         <v>171</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C57" t="e">
         <f>VLOOKUP(A57,'Group Condition'!A57:I143,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3820,9 +4555,9 @@
       <c r="B58" t="s">
         <v>144</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C58" t="e">
         <f>VLOOKUP(A58,'Group Condition'!A58:I144,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3832,9 +4567,9 @@
       <c r="B59" t="s">
         <v>117</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C59" t="e">
         <f>VLOOKUP(A59,'Group Condition'!A59:I145,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="E59" t="s">
         <v>314</v>
@@ -3850,9 +4585,9 @@
       <c r="B60" t="s">
         <v>138</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C60" t="e">
         <f>VLOOKUP(A60,'Group Condition'!A60:I146,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3862,9 +4597,9 @@
       <c r="B61" t="s">
         <v>159</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C61" t="e">
         <f>VLOOKUP(A61,'Group Condition'!A61:I147,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D61" t="s">
         <v>316</v>
@@ -3883,9 +4618,9 @@
       <c r="B62" t="s">
         <v>118</v>
       </c>
-      <c r="C62" t="str">
+      <c r="C62" t="e">
         <f>VLOOKUP(A62,'Group Condition'!A62:I148,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="E62" t="s">
         <v>313</v>
@@ -3901,9 +4636,9 @@
       <c r="B63" t="s">
         <v>178</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C63" t="e">
         <f>VLOOKUP(A63,'Group Condition'!A63:I149,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3913,9 +4648,9 @@
       <c r="B64" t="s">
         <v>146</v>
       </c>
-      <c r="C64" t="str">
+      <c r="C64" t="e">
         <f>VLOOKUP(A64,'Group Condition'!A64:I150,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3927,7 +4662,7 @@
       </c>
       <c r="C65" t="str">
         <f>VLOOKUP(A65,'Group Condition'!A65:I151,8,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="D65" t="s">
         <v>284</v>
@@ -3946,9 +4681,9 @@
       <c r="B66" t="s">
         <v>120</v>
       </c>
-      <c r="C66" t="str">
+      <c r="C66" t="e">
         <f>VLOOKUP(A66,'Group Condition'!A66:I152,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D66" t="s">
         <v>318</v>
@@ -3967,9 +4702,9 @@
       <c r="B67" t="s">
         <v>153</v>
       </c>
-      <c r="C67" t="str">
+      <c r="C67" t="e">
         <f>VLOOKUP(A67,'Group Condition'!A67:I153,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -3979,9 +4714,9 @@
       <c r="B68" t="s">
         <v>143</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C68" t="e">
         <f>VLOOKUP(A68,'Group Condition'!A68:I154,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
       <c r="D68" t="s">
         <v>319</v>
@@ -3997,9 +4732,9 @@
       <c r="B69" t="s">
         <v>166</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C69" t="e">
         <f>VLOOKUP(A69,'Group Condition'!A69:I155,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4009,9 +4744,9 @@
       <c r="B70" t="s">
         <v>175</v>
       </c>
-      <c r="C70" t="str">
+      <c r="C70" t="e">
         <f>VLOOKUP(A70,'Group Condition'!A70:I156,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -4021,9 +4756,9 @@
       <c r="B71" t="s">
         <v>113</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C71" t="e">
         <f>VLOOKUP(A71,'Group Condition'!A71:I157,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="E71" t="s">
         <v>289</v>
@@ -4039,9 +4774,9 @@
       <c r="B72" t="s">
         <v>160</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C72" t="e">
         <f>VLOOKUP(A72,'Group Condition'!A72:I158,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4051,9 +4786,9 @@
       <c r="B73" t="s">
         <v>115</v>
       </c>
-      <c r="C73" t="str">
+      <c r="C73" t="e">
         <f>VLOOKUP(A73,'Group Condition'!A73:I159,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
       <c r="E73" t="s">
         <v>321</v>
@@ -4066,9 +4801,9 @@
       <c r="B74" t="s">
         <v>148</v>
       </c>
-      <c r="C74" t="str">
+      <c r="C74" t="e">
         <f>VLOOKUP(A74,'Group Condition'!A74:I160,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -4078,9 +4813,9 @@
       <c r="B75" t="s">
         <v>134</v>
       </c>
-      <c r="C75" t="str">
+      <c r="C75" t="e">
         <f>VLOOKUP(A75,'Group Condition'!A75:I161,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="F75" t="s">
         <v>378</v>
@@ -4093,9 +4828,9 @@
       <c r="B76" t="s">
         <v>133</v>
       </c>
-      <c r="C76" t="str">
+      <c r="C76" t="e">
         <f>VLOOKUP(A76,'Group Condition'!A76:I162,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D76" t="s">
         <v>285</v>
@@ -4114,9 +4849,9 @@
       <c r="B77" t="s">
         <v>126</v>
       </c>
-      <c r="C77" t="str">
+      <c r="C77" t="e">
         <f>VLOOKUP(A77,'Group Condition'!A77:I163,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D77" t="s">
         <v>286</v>
@@ -4135,9 +4870,9 @@
       <c r="B78" t="s">
         <v>97</v>
       </c>
-      <c r="C78" t="str">
+      <c r="C78" t="e">
         <f>VLOOKUP(A78,'Group Condition'!A78:I164,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D78" t="s">
         <v>323</v>
@@ -4156,9 +4891,9 @@
       <c r="B79" t="s">
         <v>127</v>
       </c>
-      <c r="C79" t="str">
+      <c r="C79" t="e">
         <f>VLOOKUP(A79,'Group Condition'!A79:I165,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="E79" t="s">
         <v>325</v>
@@ -4174,9 +4909,9 @@
       <c r="B80" t="s">
         <v>121</v>
       </c>
-      <c r="C80" t="str">
+      <c r="C80" t="e">
         <f>VLOOKUP(A80,'Group Condition'!A80:I166,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="D80" t="s">
         <v>326</v>
@@ -4195,9 +4930,9 @@
       <c r="B81" t="s">
         <v>149</v>
       </c>
-      <c r="C81" t="str">
+      <c r="C81" t="e">
         <f>VLOOKUP(A81,'Group Condition'!A81:I167,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -4207,9 +4942,9 @@
       <c r="B82" t="s">
         <v>94</v>
       </c>
-      <c r="C82" t="str">
+      <c r="C82" t="e">
         <f>VLOOKUP(A82,'Group Condition'!A82:I168,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
       <c r="E82" t="s">
         <v>330</v>
@@ -4222,9 +4957,9 @@
       <c r="B83" t="s">
         <v>96</v>
       </c>
-      <c r="C83" t="str">
+      <c r="C83" t="e">
         <f>VLOOKUP(A83,'Group Condition'!A83:I169,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -4234,9 +4969,9 @@
       <c r="B84" t="s">
         <v>98</v>
       </c>
-      <c r="C84" t="str">
+      <c r="C84" t="e">
         <f>VLOOKUP(A84,'Group Condition'!A84:I170,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="E84" t="s">
         <v>331</v>
@@ -4252,9 +4987,9 @@
       <c r="B85" t="s">
         <v>140</v>
       </c>
-      <c r="C85" t="str">
+      <c r="C85" t="e">
         <f>VLOOKUP(A85,'Group Condition'!A85:I171,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
       <c r="D85" t="s">
         <v>332</v>
@@ -4270,9 +5005,9 @@
       <c r="B86" t="s">
         <v>99</v>
       </c>
-      <c r="C86" t="str">
+      <c r="C86" t="e">
         <f>VLOOKUP(A86,'Group Condition'!A86:I172,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="E86" t="s">
         <v>328</v>
@@ -4288,9 +5023,9 @@
       <c r="B87" t="s">
         <v>128</v>
       </c>
-      <c r="C87" t="str">
+      <c r="C87" t="e">
         <f>VLOOKUP(A87,'Group Condition'!A87:I173,8,FALSE)</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="E87" t="s">
         <v>329</v>
@@ -4306,9 +5041,9 @@
       <c r="B88" t="s">
         <v>132</v>
       </c>
-      <c r="C88" t="str">
+      <c r="C88" t="e">
         <f>VLOOKUP(A88,'Group Condition'!A88:I174,8,FALSE)</f>
-        <v>X</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -4601,9 +5336,9 @@
       <c r="B11" t="s">
         <v>129</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11">
         <f>VLOOKUP(A11,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>25</v>
@@ -5039,9 +5774,9 @@
       <c r="B35" t="s">
         <v>92</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="str">
         <f>VLOOKUP(A35,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="D35">
         <v>28</v>
@@ -5180,9 +5915,9 @@
       <c r="B42" t="s">
         <v>130</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="str">
         <f>VLOOKUP(A42,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -5192,9 +5927,9 @@
       <c r="B43" t="s">
         <v>111</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="str">
         <f>VLOOKUP(A43,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -5240,9 +5975,9 @@
       <c r="B45" t="s">
         <v>161</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="str">
         <f>VLOOKUP(A45,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -5348,9 +6083,9 @@
       <c r="B54" t="s">
         <v>162</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="str">
         <f>VLOOKUP(A54,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -5468,9 +6203,9 @@
       <c r="B62" t="s">
         <v>118</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="str">
         <f>VLOOKUP(A62,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -5776,9 +6511,9 @@
       <c r="B82" t="s">
         <v>94</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="str">
         <f>VLOOKUP(A82,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -5848,9 +6583,9 @@
       <c r="B86" t="s">
         <v>99</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="str">
         <f>VLOOKUP(A86,'Group Condition'!$A$2:$H$88,7,FALSE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -5992,9 +6727,9 @@
       <c r="C3" s="7">
         <v>20527442.649999999</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="7" t="str">
         <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>improves at end</v>
       </c>
       <c r="E3" s="6">
         <v>6384375</v>
@@ -6041,9 +6776,9 @@
       <c r="C5" s="7">
         <v>15816.31169</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="7" t="str">
         <f>VLOOKUP(A5,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse</v>
       </c>
       <c r="E5" s="6">
         <v>175816.31169</v>
@@ -6090,9 +6825,9 @@
       <c r="C7" s="7">
         <v>254421.22440000001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="7" t="str">
         <f>VLOOKUP(A7,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>better</v>
       </c>
       <c r="E7" s="6">
         <v>150000</v>
@@ -6134,9 +6869,9 @@
       <c r="C9" s="7">
         <v>32122718.550000001</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="7" t="str">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse (too high)</v>
       </c>
       <c r="E9" s="6">
         <v>321227180.55000001</v>
@@ -6262,9 +6997,9 @@
       <c r="C14" s="7">
         <v>1718757.3940000001</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="7" t="str">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>closer, still crashes</v>
       </c>
       <c r="E14" s="6">
         <v>1718757.3940000001</v>
@@ -6310,9 +7045,9 @@
       <c r="C16" s="7">
         <v>2124041.1490000002</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="7" t="str">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>no change</v>
       </c>
       <c r="E16" s="6">
         <v>2124041.1490000002</v>
@@ -6339,9 +7074,9 @@
       <c r="C17" s="7">
         <v>21996106.07</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="7" t="str">
         <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>higher start and end</v>
       </c>
       <c r="E17" s="6">
         <v>4000000</v>
@@ -6367,9 +7102,9 @@
       <c r="C18" s="7">
         <v>129309.07709999999</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="7" t="str">
         <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, higher</v>
       </c>
       <c r="E18" s="6">
         <v>100000</v>
@@ -6426,9 +7161,9 @@
       <c r="C20" s="7">
         <v>172649603.19999999</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="7" t="str">
         <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>too high</v>
       </c>
       <c r="E20" s="6">
         <v>49700000</v>
@@ -6548,9 +7283,9 @@
       <c r="C25" s="7">
         <v>932233758.39999998</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="7" t="str">
         <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>too high start</v>
       </c>
       <c r="E25" s="6">
         <v>532233758.39999998</v>
@@ -6634,9 +7369,9 @@
       <c r="C29" s="7">
         <v>432544359.30000001</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="7" t="str">
         <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>higher start</v>
       </c>
       <c r="E29" s="6">
         <v>2430000</v>
@@ -7169,9 +7904,9 @@
       <c r="C53" s="7">
         <v>233447.39780000001</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="7" t="str">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>lower but crashes</v>
       </c>
       <c r="E53" s="6">
         <v>58361.849450000002</v>
@@ -7191,9 +7926,9 @@
       <c r="C54" s="7">
         <v>1053704.304</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="7" t="str">
         <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>Stable but crashes</v>
       </c>
       <c r="E54" s="6">
         <v>1001250</v>
@@ -7222,9 +7957,9 @@
       <c r="C55" s="7">
         <v>177129.4045</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="7" t="str">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>No change</v>
       </c>
       <c r="E55" s="6">
         <v>125000</v>
@@ -7250,9 +7985,9 @@
       <c r="C56" s="7">
         <v>40960.04507</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="7" t="str">
         <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>crashes (between)</v>
       </c>
       <c r="E56" s="6">
         <v>639000</v>
@@ -7563,9 +8298,9 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="7" t="str">
         <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>no change</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7599,9 +8334,9 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="7" t="str">
         <f>VLOOKUP(A5,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7617,9 +8352,9 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="7" t="str">
         <f>VLOOKUP(A6,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>closer, still crashes</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7675,9 +8410,9 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="7" t="str">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse (too high)</v>
       </c>
       <c r="F9" s="14">
         <v>1.0000000000000001E-15</v>
@@ -7811,9 +8546,9 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="7" t="str">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, higher</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7829,9 +8564,9 @@
       <c r="D17">
         <v>7.9999999999999998E-12</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="7" t="str">
         <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>higher start and end</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7883,9 +8618,9 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="7" t="str">
         <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>higher start</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7937,9 +8672,9 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="7" t="str">
         <f>VLOOKUP(A23,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>too high</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7973,9 +8708,9 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="7" t="str">
         <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>too high start</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8045,9 +8780,9 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="7" t="str">
         <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>better</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8261,9 +8996,9 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="7" t="str">
         <f>VLOOKUP(A41,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>improves at end</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8477,9 +9212,9 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="7" t="str">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>lower but crashes</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8495,9 +9230,9 @@
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="7" t="str">
         <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>Stable but crashes</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8513,9 +9248,9 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="7" t="str">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>No change</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8531,9 +9266,9 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="7" t="str">
         <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>crashes (between)</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8807,9 +9542,9 @@
       <c r="D3">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="7" t="str">
         <f>VLOOKUP(A3,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>improves at end</v>
       </c>
       <c r="G3"/>
     </row>
@@ -8845,9 +9580,9 @@
       <c r="D5">
         <v>2E-8</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="7" t="str">
         <f>VLOOKUP(A5,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse</v>
       </c>
       <c r="G5"/>
     </row>
@@ -8890,9 +9625,9 @@
       <c r="D7">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="7" t="str">
         <f>VLOOKUP(A7,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>better</v>
       </c>
       <c r="F7">
         <f>C7*1.5</f>
@@ -8961,9 +9696,9 @@
       <c r="D9">
         <v>8.0000000000000002E-13</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="7" t="str">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse (too high)</v>
       </c>
       <c r="F9" s="14">
         <v>1.4999999999999999E-14</v>
@@ -9078,9 +9813,9 @@
       <c r="D14">
         <v>3E-10</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="7" t="str">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>closer, still crashes</v>
       </c>
       <c r="F14">
         <f>C14*1.25</f>
@@ -9141,9 +9876,9 @@
       <c r="D16">
         <v>1.8E-9</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="7" t="str">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>no change</v>
       </c>
       <c r="F16">
         <f>C16*0.75</f>
@@ -9183,9 +9918,9 @@
       <c r="D17">
         <v>1.8E-10</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="7" t="str">
         <f>VLOOKUP(A17,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>higher start and end</v>
       </c>
       <c r="F17">
         <f>C17*0.5</f>
@@ -9209,9 +9944,9 @@
       <c r="D18">
         <v>3E-10</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="7" t="str">
         <f>VLOOKUP(A18,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>worse, higher</v>
       </c>
       <c r="F18" s="14">
         <v>1E-13</v>
@@ -9264,9 +9999,9 @@
       <c r="D20">
         <v>4.0000000000000002E-9</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="7" t="str">
         <f>VLOOKUP(A20,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>too high</v>
       </c>
       <c r="F20">
         <f>C20*0.75</f>
@@ -9391,9 +10126,9 @@
       <c r="D25">
         <v>2.4999999999999998E-12</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="7" t="str">
         <f>VLOOKUP(A25,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>too high start</v>
       </c>
       <c r="F25">
         <f>C25*1.25</f>
@@ -9486,9 +10221,9 @@
       <c r="D29">
         <v>8.5E-9</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="7" t="str">
         <f>VLOOKUP(A29,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>higher start</v>
       </c>
       <c r="F29">
         <f>C29*0.5</f>
@@ -10097,9 +10832,9 @@
       <c r="D53">
         <v>3E-10</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="7" t="str">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>lower but crashes</v>
       </c>
       <c r="G53"/>
       <c r="J53" s="14">
@@ -10122,9 +10857,9 @@
       <c r="D54">
         <v>3.2000000000000001E-9</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="7" t="str">
         <f>VLOOKUP(A54,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>Stable but crashes</v>
       </c>
       <c r="F54">
         <f>C54*1.25</f>
@@ -10154,9 +10889,9 @@
       <c r="D55">
         <v>3E-10</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="7" t="str">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>No change</v>
       </c>
       <c r="F55">
         <f>C55*2</f>
@@ -10186,9 +10921,9 @@
       <c r="D56">
         <v>3E-10</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="7" t="str">
         <f>VLOOKUP(A56,'Group Condition'!$A$2:$I$88,9,FALSE)</f>
-        <v>0</v>
+        <v>crashes (between)</v>
       </c>
       <c r="F56">
         <f>C56/2</f>
@@ -10409,4 +11144,742 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>373.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>4.8259999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>407</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>1000.68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>408</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -22,14 +22,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Crash Diagnosis'!$A$1:$J$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Group Condition'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Group Condition'!$A$1:$K$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'mL-Log'!$A$1:$G$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'mQ-log'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Notes Log'!$A$1:$E$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Recruitment_Log!$A$1:$O$68</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1684,13 +1683,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1746,7 +1746,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>110</v>
       </c>
       <c r="H2" t="str">
-        <f>IF(OR(COUNTIF(C2:G2,"X")=0,COUNTIF(C2:G2,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" ref="H2:H33" si="0">IF(OR(COUNTIF(C2:G2,"X")=0,COUNTIF(C2:G2,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K2" s="13">
@@ -1765,7 +1765,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>175</v>
       </c>
       <c r="H3" t="str">
-        <f>IF(OR(COUNTIF(C3:G3,"X")=0,COUNTIF(C3:G3,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="K3" s="13" t="s">
@@ -1784,7 +1784,7 @@
         <v>1000.68</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>180</v>
       </c>
       <c r="H4" t="str">
-        <f>IF(OR(COUNTIF(C4:G4,"X")=0,COUNTIF(C4:G4,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K4" s="13" t="s">
@@ -1806,7 +1806,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>164</v>
       </c>
       <c r="H5" t="str">
-        <f>IF(OR(COUNTIF(C5:G5,"X")=0,COUNTIF(C5:G5,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="K5" s="13" t="s">
@@ -1825,7 +1825,7 @@
         <v>4.8259999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>264</v>
       </c>
       <c r="H6" t="str">
-        <f>IF(OR(COUNTIF(C6:G6,"X")=0,COUNTIF(C6:G6,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="L6">
@@ -1858,7 +1858,7 @@
         <v>180</v>
       </c>
       <c r="H7" t="str">
-        <f>IF(OR(COUNTIF(C7:G7,"X")=0,COUNTIF(C7:G7,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I7" s="13" t="s">
@@ -1875,7 +1875,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>264</v>
       </c>
       <c r="H8" t="str">
-        <f>IF(OR(COUNTIF(C8:G8,"X")=0,COUNTIF(C8:G8,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="L8">
@@ -1902,7 +1902,7 @@
         <v>106</v>
       </c>
       <c r="H9" t="str">
-        <f>IF(OR(COUNTIF(C9:G9,"X")=0,COUNTIF(C9:G9,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="J9" t="s">
@@ -1930,7 +1930,7 @@
         <v>180</v>
       </c>
       <c r="H10" t="str">
-        <f>IF(OR(COUNTIF(C10:G10,"X")=0,COUNTIF(C10:G10,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I10" s="13" t="s">
@@ -1952,7 +1952,7 @@
         <v>137</v>
       </c>
       <c r="H11" t="str">
-        <f>IF(OR(COUNTIF(C11:G11,"X")=0,COUNTIF(C11:G11,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="J11" t="s">
@@ -1966,7 +1966,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>180</v>
       </c>
       <c r="H12" t="str">
-        <f>IF(OR(COUNTIF(C12:G12,"X")=0,COUNTIF(C12:G12,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L12">
@@ -1985,7 +1985,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>176</v>
       </c>
       <c r="H13" t="str">
-        <f>IF(OR(COUNTIF(C13:G13,"X")=0,COUNTIF(C13:G13,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="K13" s="13" t="s">
@@ -2004,7 +2004,7 @@
         <v>49.42</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>109</v>
       </c>
       <c r="H14" t="str">
-        <f>IF(OR(COUNTIF(C14:G14,"X")=0,COUNTIF(C14:G14,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="K14" s="13" t="s">
@@ -2037,7 +2037,7 @@
         <v>180</v>
       </c>
       <c r="H15" t="str">
-        <f>IF(OR(COUNTIF(C15:G15,"X")=0,COUNTIF(C15:G15,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I15" s="13" t="s">
@@ -2068,7 +2068,7 @@
         <v>180</v>
       </c>
       <c r="H16" t="str">
-        <f>IF(OR(COUNTIF(C16:G16,"X")=0,COUNTIF(C16:G16,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I16" s="13" t="s">
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>180</v>
       </c>
       <c r="H17" t="str">
-        <f>IF(OR(COUNTIF(C17:G17,"X")=0,COUNTIF(C17:G17,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K17" s="13" t="s">
@@ -2107,7 +2107,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>264</v>
       </c>
       <c r="H18" t="str">
-        <f>IF(OR(COUNTIF(C18:G18,"X")=0,COUNTIF(C18:G18,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="L18">
@@ -2126,7 +2126,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>114</v>
       </c>
       <c r="H19" t="str">
-        <f>IF(OR(COUNTIF(C19:G19,"X")=0,COUNTIF(C19:G19,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="K19" s="13" t="s">
@@ -2145,7 +2145,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>170</v>
       </c>
       <c r="H20" t="str">
-        <f>IF(OR(COUNTIF(C20:G20,"X")=0,COUNTIF(C20:G20,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="K20" s="13" t="s">
@@ -2164,7 +2164,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>177</v>
       </c>
       <c r="H21" t="str">
-        <f>IF(OR(COUNTIF(C21:G21,"X")=0,COUNTIF(C21:G21,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="L21">
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>133</v>
       </c>
       <c r="H22" t="str">
-        <f>IF(OR(COUNTIF(C22:G22,"X")=0,COUNTIF(C22:G22,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="K22" s="13" t="s">
@@ -2199,7 +2199,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>178</v>
       </c>
       <c r="H23" t="str">
-        <f>IF(OR(COUNTIF(C23:G23,"X")=0,COUNTIF(C23:G23,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="L23">
@@ -2229,7 +2229,7 @@
         <v>180</v>
       </c>
       <c r="H24" t="str">
-        <f>IF(OR(COUNTIF(C24:G24,"X")=0,COUNTIF(C24:G24,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I24" s="13" t="s">
@@ -2246,7 +2246,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>136</v>
       </c>
       <c r="H25" t="str">
-        <f>IF(OR(COUNTIF(C25:G25,"X")=0,COUNTIF(C25:G25,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="K25" s="13" t="s">
@@ -2273,7 +2273,7 @@
         <v>113</v>
       </c>
       <c r="H26" t="str">
-        <f>IF(OR(COUNTIF(C26:G26,"X")=0,COUNTIF(C26:G26,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="J26" t="s">
@@ -2287,7 +2287,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>180</v>
       </c>
       <c r="H27" t="str">
-        <f>IF(OR(COUNTIF(C27:G27,"X")=0,COUNTIF(C27:G27,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L27">
@@ -2306,7 +2306,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>103</v>
       </c>
       <c r="H28" t="str">
-        <f>IF(OR(COUNTIF(C28:G28,"X")=0,COUNTIF(C28:G28,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="K28" s="13" t="s">
@@ -2325,7 +2325,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>100</v>
       </c>
       <c r="H29" t="str">
-        <f>IF(OR(COUNTIF(C29:G29,"X")=0,COUNTIF(C29:G29,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="K29" s="13" t="s">
@@ -2344,7 +2344,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>180</v>
       </c>
       <c r="H30" t="str">
-        <f>IF(OR(COUNTIF(C30:G30,"X")=0,COUNTIF(C30:G30,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I30" s="13" t="s">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>180</v>
       </c>
       <c r="H31" t="str">
-        <f>IF(OR(COUNTIF(C31:G31,"X")=0,COUNTIF(C31:G31,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I31" s="13" t="s">
@@ -2397,7 +2397,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>180</v>
       </c>
       <c r="H32" t="str">
-        <f>IF(OR(COUNTIF(C32:G32,"X")=0,COUNTIF(C32:G32,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I32" s="13" t="s">
@@ -2433,7 +2433,7 @@
         <v>93</v>
       </c>
       <c r="H33" t="str">
-        <f>IF(OR(COUNTIF(C33:G33,"X")=0,COUNTIF(C33:G33,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="J33" t="s">
@@ -2447,7 +2447,7 @@
         <v>373.37</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>150</v>
       </c>
       <c r="H34" t="str">
-        <f>IF(OR(COUNTIF(C34:G34,"X")=0,COUNTIF(C34:G34,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" ref="H34:H65" si="1">IF(OR(COUNTIF(C34:G34,"X")=0,COUNTIF(C34:G34,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K34" s="13" t="s">
@@ -2466,7 +2466,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>152</v>
       </c>
       <c r="H35" t="str">
-        <f>IF(OR(COUNTIF(C35:G35,"X")=0,COUNTIF(C35:G35,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K35" s="13" t="s">
@@ -2485,7 +2485,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>264</v>
       </c>
       <c r="H36" t="str">
-        <f>IF(OR(COUNTIF(C36:G36,"X")=0,COUNTIF(C36:G36,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K36" s="13" t="s">
@@ -2510,7 +2510,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>141</v>
       </c>
       <c r="H37" t="str">
-        <f>IF(OR(COUNTIF(C37:G37,"X")=0,COUNTIF(C37:G37,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K37" s="13" t="s">
@@ -2529,7 +2529,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>151</v>
       </c>
       <c r="H38" t="str">
-        <f>IF(OR(COUNTIF(C38:G38,"X")=0,COUNTIF(C38:G38,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K38" s="13" t="s">
@@ -2548,7 +2548,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>165</v>
       </c>
       <c r="H39" t="str">
-        <f>IF(OR(COUNTIF(C39:G39,"X")=0,COUNTIF(C39:G39,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="L39">
@@ -2578,7 +2578,7 @@
         <v>180</v>
       </c>
       <c r="H40" t="str">
-        <f>IF(OR(COUNTIF(C40:G40,"X")=0,COUNTIF(C40:G40,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I40" s="13" t="s">
@@ -2603,7 +2603,7 @@
         <v>180</v>
       </c>
       <c r="H41" t="str">
-        <f>IF(OR(COUNTIF(C41:G41,"X")=0,COUNTIF(C41:G41,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I41" s="13" t="s">
@@ -2617,7 +2617,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>180</v>
       </c>
       <c r="H42" t="str">
-        <f>IF(OR(COUNTIF(C42:G42,"X")=0,COUNTIF(C42:G42,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K42" s="13" t="s">
@@ -2639,7 +2639,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>180</v>
       </c>
       <c r="H43" t="str">
-        <f>IF(OR(COUNTIF(C43:G43,"X")=0,COUNTIF(C43:G43,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L43">
@@ -2658,7 +2658,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>180</v>
       </c>
       <c r="H44" t="str">
-        <f>IF(OR(COUNTIF(C44:G44,"X")=0,COUNTIF(C44:G44,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K44" s="13" t="s">
@@ -2680,7 +2680,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>123</v>
       </c>
       <c r="H45" t="str">
-        <f>IF(OR(COUNTIF(C45:G45,"X")=0,COUNTIF(C45:G45,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K45" s="13" t="s">
@@ -2699,7 +2699,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>180</v>
       </c>
       <c r="H46" t="str">
-        <f>IF(OR(COUNTIF(C46:G46,"X")=0,COUNTIF(C46:G46,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L46">
@@ -2718,7 +2718,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>174</v>
       </c>
       <c r="H47" t="str">
-        <f>IF(OR(COUNTIF(C47:G47,"X")=0,COUNTIF(C47:G47,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K47" s="13" t="s">
@@ -2737,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>180</v>
       </c>
       <c r="H48" t="str">
-        <f>IF(OR(COUNTIF(C48:G48,"X")=0,COUNTIF(C48:G48,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K48" s="13" t="s">
@@ -2762,7 +2762,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>169</v>
       </c>
       <c r="H49" t="str">
-        <f>IF(OR(COUNTIF(C49:G49,"X")=0,COUNTIF(C49:G49,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="L49">
@@ -2789,7 +2789,7 @@
         <v>180</v>
       </c>
       <c r="H50" t="str">
-        <f>IF(OR(COUNTIF(C50:G50,"X")=0,COUNTIF(C50:G50,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I50" s="13" t="s">
@@ -2806,7 +2806,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>180</v>
       </c>
       <c r="H51" t="str">
-        <f>IF(OR(COUNTIF(C51:G51,"X")=0,COUNTIF(C51:G51,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K51" s="13" t="s">
@@ -2836,7 +2836,7 @@
         <v>138</v>
       </c>
       <c r="H52" t="str">
-        <f>IF(OR(COUNTIF(C52:G52,"X")=0,COUNTIF(C52:G52,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="J52" t="s">
@@ -2847,7 +2847,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>171</v>
       </c>
       <c r="H53" t="str">
-        <f>IF(OR(COUNTIF(C53:G53,"X")=0,COUNTIF(C53:G53,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="L53">
@@ -2871,7 +2871,7 @@
         <v>139</v>
       </c>
       <c r="H54" t="str">
-        <f>IF(OR(COUNTIF(C54:G54,"X")=0,COUNTIF(C54:G54,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="J54" t="s">
@@ -2885,7 +2885,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>264</v>
       </c>
       <c r="H55" t="str">
-        <f>IF(OR(COUNTIF(C55:G55,"X")=0,COUNTIF(C55:G55,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="L55">
@@ -2904,7 +2904,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>180</v>
       </c>
       <c r="H56" t="str">
-        <f>IF(OR(COUNTIF(C56:G56,"X")=0,COUNTIF(C56:G56,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L56">
@@ -2923,7 +2923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>122</v>
       </c>
       <c r="H57" t="str">
-        <f>IF(OR(COUNTIF(C57:G57,"X")=0,COUNTIF(C57:G57,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K57" s="13" t="s">
@@ -2942,7 +2942,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>180</v>
       </c>
       <c r="H58" t="str">
-        <f>IF(OR(COUNTIF(C58:G58,"X")=0,COUNTIF(C58:G58,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L58">
@@ -2964,7 +2964,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>180</v>
       </c>
       <c r="H59" t="str">
-        <f>IF(OR(COUNTIF(C59:G59,"X")=0,COUNTIF(C59:G59,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L59">
@@ -2986,7 +2986,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>180</v>
       </c>
       <c r="H60" t="str">
-        <f>IF(OR(COUNTIF(C60:G60,"X")=0,COUNTIF(C60:G60,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K60" s="13" t="s">
@@ -3019,7 +3019,7 @@
         <v>180</v>
       </c>
       <c r="H61" t="str">
-        <f>IF(OR(COUNTIF(C61:G61,"X")=0,COUNTIF(C61:G61,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J61" t="s">
@@ -3033,7 +3033,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>143</v>
       </c>
       <c r="H62" t="str">
-        <f>IF(OR(COUNTIF(C62:G62,"X")=0,COUNTIF(C62:G62,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K62" s="13" t="s">
@@ -3052,7 +3052,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>264</v>
       </c>
       <c r="H63" t="str">
-        <f>IF(OR(COUNTIF(C63:G63,"X")=0,COUNTIF(C63:G63,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="L63">
@@ -3082,7 +3082,7 @@
         <v>180</v>
       </c>
       <c r="H64" t="str">
-        <f>IF(OR(COUNTIF(C64:G64,"X")=0,COUNTIF(C64:G64,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J64" t="s">
@@ -3107,7 +3107,7 @@
         <v>180</v>
       </c>
       <c r="H65" t="str">
-        <f>IF(OR(COUNTIF(C65:G65,"X")=0,COUNTIF(C65:G65,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J65" t="s">
@@ -3121,7 +3121,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>180</v>
       </c>
       <c r="H66" t="str">
-        <f>IF(OR(COUNTIF(C66:G66,"X")=0,COUNTIF(C66:G66,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" ref="H66:H97" si="2">IF(OR(COUNTIF(C66:G66,"X")=0,COUNTIF(C66:G66,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="K66" s="13" t="s">
@@ -3151,7 +3151,7 @@
         <v>115</v>
       </c>
       <c r="H67" t="str">
-        <f>IF(OR(COUNTIF(C67:G67,"X")=0,COUNTIF(C67:G67,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="J67" t="s">
@@ -3165,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>180</v>
       </c>
       <c r="H68" t="str">
-        <f>IF(OR(COUNTIF(C68:G68,"X")=0,COUNTIF(C68:G68,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K68" s="13" t="s">
@@ -3187,7 +3187,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>45</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>134</v>
       </c>
       <c r="H69" t="str">
-        <f>IF(OR(COUNTIF(C69:G69,"X")=0,COUNTIF(C69:G69,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="K69" s="13" t="s">
@@ -3206,7 +3206,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>46</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>135</v>
       </c>
       <c r="H70" t="str">
-        <f>IF(OR(COUNTIF(C70:G70,"X")=0,COUNTIF(C70:G70,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="K70" s="13" t="s">
@@ -3239,7 +3239,7 @@
         <v>180</v>
       </c>
       <c r="H71" t="str">
-        <f>IF(OR(COUNTIF(C71:G71,"X")=0,COUNTIF(C71:G71,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I71" s="13" t="s">
@@ -3267,7 +3267,7 @@
         <v>180</v>
       </c>
       <c r="H72" t="str">
-        <f>IF(OR(COUNTIF(C72:G72,"X")=0,COUNTIF(C72:G72,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I72" s="13" t="s">
@@ -3284,7 +3284,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>59</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>180</v>
       </c>
       <c r="H73" t="str">
-        <f>IF(OR(COUNTIF(C73:G73,"X")=0,COUNTIF(C73:G73,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K73" s="13" t="s">
@@ -3320,7 +3320,7 @@
         <v>180</v>
       </c>
       <c r="H74" t="str">
-        <f>IF(OR(COUNTIF(C74:G74,"X")=0,COUNTIF(C74:G74,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I74" s="13" t="s">
@@ -3345,7 +3345,7 @@
         <v>105</v>
       </c>
       <c r="H75" t="str">
-        <f>IF(OR(COUNTIF(C75:G75,"X")=0,COUNTIF(C75:G75,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="J75" t="s">
@@ -3359,7 +3359,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>149</v>
       </c>
       <c r="H76" t="str">
-        <f>IF(OR(COUNTIF(C76:G76,"X")=0,COUNTIF(C76:G76,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="K76" s="13" t="s">
@@ -3389,7 +3389,7 @@
         <v>180</v>
       </c>
       <c r="H77" t="str">
-        <f>IF(OR(COUNTIF(C77:G77,"X")=0,COUNTIF(C77:G77,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I77" s="13" t="s">
@@ -3403,7 +3403,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>180</v>
       </c>
       <c r="H78" t="str">
-        <f>IF(OR(COUNTIF(C78:G78,"X")=0,COUNTIF(C78:G78,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K78" s="13" t="s">
@@ -3425,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>180</v>
       </c>
       <c r="H79" t="str">
-        <f>IF(OR(COUNTIF(C79:G79,"X")=0,COUNTIF(C79:G79,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K79" s="13" t="s">
@@ -3447,7 +3447,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>180</v>
       </c>
       <c r="H80" t="str">
-        <f>IF(OR(COUNTIF(C80:G80,"X")=0,COUNTIF(C80:G80,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K80" s="13" t="s">
@@ -3469,7 +3469,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>96</v>
       </c>
       <c r="H81" t="str">
-        <f>IF(OR(COUNTIF(C81:G81,"X")=0,COUNTIF(C81:G81,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="K81" s="13" t="s">
@@ -3488,7 +3488,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>140</v>
       </c>
       <c r="H82" t="str">
-        <f>IF(OR(COUNTIF(C82:G82,"X")=0,COUNTIF(C82:G82,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="K82" s="13" t="s">
@@ -3507,7 +3507,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>180</v>
       </c>
       <c r="H83" t="str">
-        <f>IF(OR(COUNTIF(C83:G83,"X")=0,COUNTIF(C83:G83,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K83" s="13" t="s">
@@ -3529,7 +3529,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>43</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>132</v>
       </c>
       <c r="H84" t="str">
-        <f>IF(OR(COUNTIF(C84:G84,"X")=0,COUNTIF(C84:G84,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="K84" s="13" t="s">
@@ -3548,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>180</v>
       </c>
       <c r="H85" t="str">
-        <f>IF(OR(COUNTIF(C85:G85,"X")=0,COUNTIF(C85:G85,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K85" s="13" t="s">
@@ -3570,7 +3570,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>180</v>
       </c>
       <c r="H86" t="str">
-        <f>IF(OR(COUNTIF(C86:G86,"X")=0,COUNTIF(C86:G86,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K86" s="13" t="s">
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>180</v>
       </c>
       <c r="H87" t="str">
-        <f>IF(OR(COUNTIF(C87:G87,"X")=0,COUNTIF(C87:G87,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K87" s="13" t="s">
@@ -3614,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>173</v>
       </c>
       <c r="H88" t="str">
-        <f>IF(OR(COUNTIF(C88:G88,"X")=0,COUNTIF(C88:G88,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="K88" s="13" t="s">
@@ -3634,7 +3634,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1">
+  <autoFilter ref="A1:K88">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A2:K88">
       <sortCondition ref="A1"/>
     </sortState>

--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" tabRatio="853"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" tabRatio="853" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Group Condition" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="mL-Log" sheetId="4" r:id="rId5"/>
     <sheet name="mQ-log" sheetId="5" r:id="rId6"/>
     <sheet name="Init Scalar " sheetId="8" r:id="rId7"/>
+    <sheet name="Catch Source Comparison" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Crash Diagnosis'!$A$1:$J$88</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="418">
   <si>
     <t>Too Low</t>
   </si>
@@ -1271,6 +1272,27 @@
   </si>
   <si>
     <t>Init Scalar 11022020</t>
+  </si>
+  <si>
+    <t>Init_Scalar_4</t>
+  </si>
+  <si>
+    <t>Init_Scalar_5</t>
+  </si>
+  <si>
+    <t>CatchTS = AtlOutput</t>
+  </si>
+  <si>
+    <t>Comland_StatArea</t>
+  </si>
+  <si>
+    <t>Comland_EPU</t>
+  </si>
+  <si>
+    <t>CatchTs</t>
+  </si>
+  <si>
+    <t>StockSmart</t>
   </si>
 </sst>
 </file>
@@ -1683,14 +1705,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J67" sqref="J67"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1746,7 +1767,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1765,7 +1786,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1784,7 +1805,7 @@
         <v>1000.68</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1806,7 +1827,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1825,7 +1846,7 @@
         <v>4.8259999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1875,7 +1896,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1966,7 +1987,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -1985,7 +2006,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -2004,7 +2025,7 @@
         <v>49.42</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2085,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -2107,7 +2128,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -2126,7 +2147,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2145,7 +2166,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2164,7 +2185,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -2180,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2199,7 +2220,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -2246,7 +2267,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2287,7 +2308,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2306,7 +2327,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2325,7 +2346,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2344,7 +2365,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2372,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2397,7 +2418,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2447,7 +2468,7 @@
         <v>373.37</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2466,7 +2487,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2485,7 +2506,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -2510,7 +2531,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2529,7 +2550,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -2548,7 +2569,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2617,7 +2638,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2639,7 +2660,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -2658,7 +2679,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -2680,7 +2701,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2699,7 +2720,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -2718,7 +2739,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -2737,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2762,7 +2783,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -2806,7 +2827,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -2847,7 +2868,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -2885,7 +2906,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2904,7 +2925,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -2923,7 +2944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -2942,7 +2963,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2964,7 +2985,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -2986,7 +3007,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -3033,7 +3054,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -3052,7 +3073,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -3121,7 +3142,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -3132,7 +3153,7 @@
         <v>180</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" ref="H66:H97" si="2">IF(OR(COUNTIF(C66:G66,"X")=0,COUNTIF(C66:G66,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" ref="H66:H88" si="2">IF(OR(COUNTIF(C66:G66,"X")=0,COUNTIF(C66:G66,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="K66" s="13" t="s">
@@ -3165,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -3187,7 +3208,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>45</v>
       </c>
@@ -3206,7 +3227,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>46</v>
       </c>
@@ -3284,7 +3305,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>59</v>
       </c>
@@ -3359,7 +3380,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -3403,7 +3424,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3425,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -3447,7 +3468,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -3469,7 +3490,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -3488,7 +3509,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -3507,7 +3528,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -3529,7 +3550,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>43</v>
       </c>
@@ -3548,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -3570,7 +3591,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -3592,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -3614,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -3634,16 +3655,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K88">
-    <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A2:K88">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:K88"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11153,735 +11165,1764 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
       <c r="B1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
         <v>2.93</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1.77544266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
         <v>373.37</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>373.37</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.31174581600000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.66820709099999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1.4523414320000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1.3269028430000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14">
+        <v>5.3441969130000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4.1104557350000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.55648017100000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>2.04</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1.067441501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>2.85</v>
+      </c>
+      <c r="D11" s="14">
+        <v>4.897454776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1.734532237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0.11</v>
+      </c>
+      <c r="D13" s="14">
+        <v>9.2582215999999995E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15">
         <v>3.42</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>3.42</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.98502571500000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1.166763038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="14">
+        <v>10.59455635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="14">
+        <v>12.655736539999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>0.06</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.200456201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>0.91</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2.509585521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.370574297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" s="14">
+        <v>6.0137649999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>0.15</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.49969355199999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>2.38</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1.9313962140000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.64901503699999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26">
         <v>1.57</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1.57</v>
+      </c>
+      <c r="D26" s="14">
+        <v>2.2123829700000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.57444281500000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1.98</v>
+      </c>
+      <c r="D28" s="14">
+        <v>2.2832205289999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" s="14">
+        <v>5.3406900369999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30">
         <v>2.0699999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" s="14">
+        <v>12.28103226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" s="14">
+        <v>2.064022891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
         <v>17.12</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>60</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1.140491208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>2.41</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0.20993762999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
         <v>3.9999999999999998E-6</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34" s="14">
+        <v>3.6347599999999997E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" s="14">
+        <v>256.822384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
         <v>8.9999999999999998E-4</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1.45415E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" s="14">
+        <v>0.83665756199999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>3.05</v>
+      </c>
+      <c r="D38" s="14">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D39" s="14">
+        <v>3.29617E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>0.7</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0.32278096899999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>1.65</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0.86555037700000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0.43036434899999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>2.9</v>
+      </c>
+      <c r="D43" s="14">
+        <v>5.0645310009999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>1.67</v>
+      </c>
+      <c r="D44" s="14">
+        <v>2.1778619460000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>0.03</v>
+      </c>
+      <c r="D45" s="14">
+        <v>2.4522464000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>1E-3</v>
+      </c>
+      <c r="D46" s="14">
+        <v>7.9351247999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>1.7</v>
+      </c>
+      <c r="D47" s="14">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>0.62</v>
+      </c>
+      <c r="D48" s="14">
+        <v>1.603811203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>0.46</v>
+      </c>
+      <c r="D49" s="14">
+        <v>4.6585337119999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>3.15</v>
+      </c>
+      <c r="D50" s="14">
+        <v>2.178169526</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51">
         <v>2.16</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>2.16</v>
+      </c>
+      <c r="D51" s="14">
+        <v>1.203088275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>2.82</v>
+      </c>
+      <c r="D52" s="14">
+        <v>0.37477792500000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53">
         <v>3.17</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>3.17</v>
+      </c>
+      <c r="D53" s="14">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>0.2</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>0.69</v>
+      </c>
+      <c r="D55" s="14">
+        <v>5.2602177680000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>0.31</v>
+      </c>
+      <c r="D56" s="14">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>1.36</v>
+      </c>
+      <c r="D57" s="14">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>2.08</v>
+      </c>
+      <c r="D58" s="14">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>0.02</v>
+      </c>
+      <c r="D59" s="14">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D60" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>1.98</v>
+      </c>
+      <c r="D61" s="14">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>2.31</v>
+      </c>
+      <c r="D62" s="14">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>0.79</v>
+      </c>
+      <c r="D64" s="14">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>0.15</v>
+      </c>
+      <c r="D65" s="14">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>0.16</v>
+      </c>
+      <c r="D66" s="14">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>1.22</v>
+      </c>
+      <c r="D67" s="14">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>3.5</v>
+      </c>
+      <c r="D68" s="14">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>0.9</v>
+      </c>
+      <c r="D70" s="14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>2.19</v>
+      </c>
+      <c r="D71" s="14">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>1.48</v>
+      </c>
+      <c r="D72" s="14">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74">
         <v>4.8259999999999996</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>4.8259999999999996</v>
+      </c>
+      <c r="D74" s="14">
+        <v>4.8259999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>407</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>77</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>78</v>
       </c>
       <c r="B78">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>0.41</v>
+      </c>
+      <c r="D78" s="14">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
       <c r="B79">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>0.61</v>
+      </c>
+      <c r="D79" s="14">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>80</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>81</v>
       </c>
       <c r="B81">
         <v>7.84</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>7.84</v>
+      </c>
+      <c r="D81" s="14">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>82</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>83</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>84</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>85</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>86</v>
       </c>
       <c r="B86">
         <v>1000.68</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>1000.68</v>
+      </c>
+      <c r="D86" s="14">
+        <v>1000.68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>87</v>
       </c>
       <c r="B87">
         <v>49.42</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>49.42</v>
+      </c>
+      <c r="D87" s="14">
+        <v>49.42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>88</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>89</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>408</v>
       </c>
       <c r="B90">
         <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" tabRatio="853" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" tabRatio="853" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Group Condition" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Crash Diagnosis'!$A$1:$L$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Group Condition'!$A$1:$K$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Group Diagnostic'!$A$1:$Q$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Group Diagnostic'!$A$1:$P$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Init Scalar Revert'!$A$2:$J$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'mL-Log'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'mQ-log'!$A$1:$Y$1</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="448">
   <si>
     <t>Too Low</t>
   </si>
@@ -1281,12 +1281,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>pPREY, prey</t>
-  </si>
-  <si>
-    <t>pPREY, pred</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -1384,6 +1378,21 @@
   </si>
   <si>
     <t>New_Init_CatchTS_5 mQ2</t>
+  </si>
+  <si>
+    <t>up init x10</t>
+  </si>
+  <si>
+    <t>lower early mum, higher later mum</t>
+  </si>
+  <si>
+    <t>lower later mum (5-10</t>
+  </si>
+  <si>
+    <t>lower mum older (7-10)</t>
+  </si>
+  <si>
+    <t>lower mum (6-10)</t>
   </si>
 </sst>
 </file>
@@ -9336,7 +9345,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9346,7 +9355,7 @@
     <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="23" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="22" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" style="24" bestFit="1" customWidth="1"/>
@@ -9412,7 +9421,7 @@
         <v/>
       </c>
       <c r="J2" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K2">
         <f>VLOOKUP(A2,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9544,7 +9553,7 @@
         <v/>
       </c>
       <c r="J7" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K7">
         <f>VLOOKUP(A7,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9589,19 +9598,16 @@
       <c r="C9" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>180</v>
-      </c>
       <c r="H9" s="22" t="str">
         <f>VLOOKUP(A9,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I9" s="24" t="str">
         <f>IF(OR(COUNTIF(D9:G9,"X")=0,COUNTIF(D9:G9,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K9">
         <f>VLOOKUP(A9,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9622,9 +9628,7 @@
       <c r="E10" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>180</v>
-      </c>
+      <c r="F10" s="29"/>
       <c r="H10" s="22" t="str">
         <f>VLOOKUP(A10,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
@@ -9634,7 +9638,7 @@
         <v/>
       </c>
       <c r="J10" s="13" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K10">
         <f>VLOOKUP(A10,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9664,7 +9668,7 @@
         <v/>
       </c>
       <c r="J11" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K11">
         <f>VLOOKUP(A11,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9693,9 +9697,6 @@
         <f>IF(OR(COUNTIF(D12:G12,"X")=0,COUNTIF(D12:G12,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>432</v>
-      </c>
       <c r="K12">
         <f>VLOOKUP(A12,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>0.9</v>
@@ -9745,7 +9746,7 @@
         <v>X</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K14">
         <f>VLOOKUP(A14,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9775,7 +9776,7 @@
         <v/>
       </c>
       <c r="J15" s="13" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K15">
         <f>VLOOKUP(A15,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9883,7 +9884,7 @@
         <v>X</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="K19">
         <f>VLOOKUP(A19,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9909,9 +9910,6 @@
         <f>IF(OR(COUNTIF(D20:G20,"X")=0,COUNTIF(D20:G20,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>431</v>
-      </c>
       <c r="K20">
         <f>VLOOKUP(A20,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>7.84</v>
@@ -9960,9 +9958,6 @@
         <f>IF(OR(COUNTIF(D22:G22,"X")=0,COUNTIF(D22:G22,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>431</v>
-      </c>
       <c r="K22">
         <f>VLOOKUP(A22,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>25.449904530000001</v>
@@ -10015,7 +10010,7 @@
         <v/>
       </c>
       <c r="J24" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K24">
         <f>VLOOKUP(A24,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10057,13 +10052,19 @@
       <c r="C26" t="s">
         <v>113</v>
       </c>
+      <c r="E26" s="23" t="s">
+        <v>180</v>
+      </c>
       <c r="H26" s="22" t="str">
         <f>VLOOKUP(A26,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I26" s="24" t="str">
         <f>IF(OR(COUNTIF(D26:G26,"X")=0,COUNTIF(D26:G26,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <v/>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K26">
         <f>VLOOKUP(A26,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10089,6 +10090,9 @@
         <f>IF(OR(COUNTIF(D27:G27,"X")=0,COUNTIF(D27:G27,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
+      <c r="J27" s="13" t="s">
+        <v>431</v>
+      </c>
       <c r="K27">
         <f>VLOOKUP(A27,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>1.844462681</v>
@@ -10141,7 +10145,7 @@
         <v/>
       </c>
       <c r="J29" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K29">
         <f>VLOOKUP(A29,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10171,7 +10175,7 @@
         <v/>
       </c>
       <c r="J30" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K30">
         <f>VLOOKUP(A30,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10201,7 +10205,7 @@
         <v/>
       </c>
       <c r="J31" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K31">
         <f>VLOOKUP(A31,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10231,7 +10235,7 @@
         <v/>
       </c>
       <c r="J32" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K32">
         <f>VLOOKUP(A32,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10260,6 +10264,9 @@
         <f>IF(OR(COUNTIF(D33:G33,"X")=0,COUNTIF(D33:G33,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
+      <c r="J33" s="13" t="s">
+        <v>430</v>
+      </c>
       <c r="K33">
         <f>VLOOKUP(A33,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>15.58729078</v>
@@ -10276,19 +10283,16 @@
       <c r="C34" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="22" t="s">
-        <v>180</v>
-      </c>
       <c r="H34" s="22" t="str">
         <f>VLOOKUP(A34,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I34" s="24" t="str">
         <f>IF(OR(COUNTIF(D34:G34,"X")=0,COUNTIF(D34:G34,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K34">
         <f>VLOOKUP(A34,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10314,9 +10318,6 @@
         <f>IF(OR(COUNTIF(D35:G35,"X")=0,COUNTIF(D35:G35,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-      <c r="J35" s="13" t="s">
-        <v>431</v>
-      </c>
       <c r="K35">
         <f>VLOOKUP(A35,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>2.31</v>
@@ -10363,16 +10364,16 @@
       <c r="C37" t="s">
         <v>141</v>
       </c>
+      <c r="E37" s="23" t="s">
+        <v>180</v>
+      </c>
       <c r="H37" s="22" t="str">
         <f>VLOOKUP(A37,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I37" s="24" t="str">
         <f>IF(OR(COUNTIF(D37:G37,"X")=0,COUNTIF(D37:G37,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>433</v>
+        <v/>
       </c>
       <c r="K37">
         <f>VLOOKUP(A37,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10450,7 +10451,7 @@
         <v/>
       </c>
       <c r="J40" s="13" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K40">
         <f>VLOOKUP(A40,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10480,7 +10481,7 @@
         <v/>
       </c>
       <c r="J41" s="13" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K41">
         <f>VLOOKUP(A41,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10510,7 +10511,7 @@
         <v/>
       </c>
       <c r="J42" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K42">
         <f>VLOOKUP(A42,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10561,7 +10562,7 @@
         <v>X</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K44">
         <f>VLOOKUP(A44,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10579,16 +10580,19 @@
       <c r="C45" t="s">
         <v>123</v>
       </c>
+      <c r="E45" s="23" t="s">
+        <v>180</v>
+      </c>
       <c r="H45" s="22" t="str">
         <f>VLOOKUP(A45,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I45" s="24" t="str">
         <f>IF(OR(COUNTIF(D45:G45,"X")=0,COUNTIF(D45:G45,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J45" s="13" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K45">
         <f>VLOOKUP(A45,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10714,7 +10718,7 @@
         <v/>
       </c>
       <c r="J50" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K50">
         <f>VLOOKUP(A50,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10732,19 +10736,16 @@
       <c r="C51" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="H51" s="22" t="str">
         <f>VLOOKUP(A51,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I51" s="24" t="str">
         <f>IF(OR(COUNTIF(D51:G51,"X")=0,COUNTIF(D51:G51,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K51">
         <f>VLOOKUP(A51,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10870,7 +10871,7 @@
         <v>X</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K56">
         <f>VLOOKUP(A56,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10896,9 +10897,6 @@
         <f>IF(OR(COUNTIF(D57:G57,"X")=0,COUNTIF(D57:G57,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-      <c r="J57" s="13" t="s">
-        <v>431</v>
-      </c>
       <c r="K57">
         <f>VLOOKUP(A57,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>3.4146443350000002</v>
@@ -10915,19 +10913,16 @@
       <c r="C58" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="22" t="s">
-        <v>180</v>
-      </c>
       <c r="H58" s="22" t="str">
         <f>VLOOKUP(A58,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I58" s="24" t="str">
         <f>IF(OR(COUNTIF(D58:G58,"X")=0,COUNTIF(D58:G58,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K58">
         <f>VLOOKUP(A58,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10996,9 +10991,6 @@
       <c r="E61" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G61" s="24" t="s">
-        <v>180</v>
-      </c>
       <c r="H61" s="22" t="str">
         <f>VLOOKUP(A61,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
@@ -11008,7 +11000,7 @@
         <v/>
       </c>
       <c r="J61" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K61">
         <f>VLOOKUP(A61,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11026,19 +11018,16 @@
       <c r="C62" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="22" t="s">
-        <v>180</v>
-      </c>
       <c r="H62" s="22" t="str">
         <f>VLOOKUP(A62,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I62" s="24" t="str">
         <f>IF(OR(COUNTIF(D62:G62,"X")=0,COUNTIF(D62:G62,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="K62">
         <f>VLOOKUP(A62,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11095,7 +11084,7 @@
         <v/>
       </c>
       <c r="J64" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K64">
         <f>VLOOKUP(A64,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11125,7 +11114,7 @@
         <v/>
       </c>
       <c r="J65" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K65">
         <f>VLOOKUP(A65,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11154,6 +11143,9 @@
         <f>IF(OR(COUNTIF(D66:G66,"X")=0,COUNTIF(D66:G66,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
+      <c r="J66" s="13" t="s">
+        <v>430</v>
+      </c>
       <c r="K66">
         <f>VLOOKUP(A66,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>1</v>
@@ -11182,7 +11174,7 @@
         <v/>
       </c>
       <c r="J67" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K67">
         <f>VLOOKUP(A67,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11208,9 +11200,6 @@
         <f>IF(OR(COUNTIF(D68:G68,"X")=0,COUNTIF(D68:G68,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-      <c r="J68" s="13" t="s">
-        <v>433</v>
-      </c>
       <c r="K68">
         <f>VLOOKUP(A68,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>2.6026244799999998</v>
@@ -11259,9 +11248,6 @@
         <f>IF(OR(COUNTIF(D70:G70,"X")=0,COUNTIF(D70:G70,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-      <c r="J70" s="13" t="s">
-        <v>431</v>
-      </c>
       <c r="K70">
         <f>VLOOKUP(A70,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>0.123228464</v>
@@ -11290,7 +11276,7 @@
         <v/>
       </c>
       <c r="J71" s="13" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K71">
         <f>VLOOKUP(A71,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11320,7 +11306,7 @@
         <v/>
       </c>
       <c r="J72" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K72">
         <f>VLOOKUP(A72,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11338,16 +11324,16 @@
       <c r="C73" t="s">
         <v>148</v>
       </c>
+      <c r="E73" s="23" t="s">
+        <v>180</v>
+      </c>
       <c r="H73" s="22" t="str">
         <f>VLOOKUP(A73,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I73" s="24" t="str">
         <f>IF(OR(COUNTIF(D73:G73,"X")=0,COUNTIF(D73:G73,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="J73" s="13" t="s">
-        <v>431</v>
+        <v/>
       </c>
       <c r="K73">
         <f>VLOOKUP(A73,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11377,7 +11363,7 @@
         <v/>
       </c>
       <c r="J74" s="13" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="K74">
         <f>VLOOKUP(A74,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11403,9 +11389,6 @@
         <f>IF(OR(COUNTIF(D75:G75,"X")=0,COUNTIF(D75:G75,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
-      <c r="J75" s="13" t="s">
-        <v>431</v>
-      </c>
       <c r="K75">
         <f>VLOOKUP(A75,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>5.6287183719999998</v>
@@ -11458,7 +11441,7 @@
         <v/>
       </c>
       <c r="J77" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K77">
         <f>VLOOKUP(A77,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11487,6 +11470,9 @@
         <f>IF(OR(COUNTIF(D78:G78,"X")=0,COUNTIF(D78:G78,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
+      <c r="J78" s="13" t="s">
+        <v>430</v>
+      </c>
       <c r="K78">
         <f>VLOOKUP(A78,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>4.7056837390000004</v>
@@ -11511,6 +11497,9 @@
         <f>IF(OR(COUNTIF(D79:G79,"X")=0,COUNTIF(D79:G79,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
+      <c r="J79" s="13" t="s">
+        <v>429</v>
+      </c>
       <c r="K79">
         <f>VLOOKUP(A79,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>15.394965300000001</v>
@@ -11535,6 +11524,9 @@
         <f>IF(OR(COUNTIF(D80:G80,"X")=0,COUNTIF(D80:G80,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
+      <c r="J80" s="13" t="s">
+        <v>429</v>
+      </c>
       <c r="K80">
         <f>VLOOKUP(A80,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>3.05</v>
@@ -11551,13 +11543,19 @@
       <c r="C81" t="s">
         <v>96</v>
       </c>
+      <c r="E81" s="23" t="s">
+        <v>180</v>
+      </c>
       <c r="H81" s="22" t="str">
         <f>VLOOKUP(A81,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I81" s="24" t="str">
         <f>IF(OR(COUNTIF(D81:G81,"X")=0,COUNTIF(D81:G81,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <v/>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K81">
         <f>VLOOKUP(A81,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11575,19 +11573,16 @@
       <c r="C82" t="s">
         <v>140</v>
       </c>
-      <c r="E82" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="H82" s="22" t="str">
         <f>VLOOKUP(A82,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I82" s="24" t="str">
         <f>IF(OR(COUNTIF(D82:G82,"X")=0,COUNTIF(D82:G82,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K82">
         <f>VLOOKUP(A82,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11605,19 +11600,16 @@
       <c r="C83" t="s">
         <v>99</v>
       </c>
-      <c r="E83" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="H83" s="22" t="str">
         <f>VLOOKUP(A83,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I83" s="24" t="str">
         <f>IF(OR(COUNTIF(D83:G83,"X")=0,COUNTIF(D83:G83,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K83">
         <f>VLOOKUP(A83,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11643,6 +11635,9 @@
         <f>IF(OR(COUNTIF(D84:G84,"X")=0,COUNTIF(D84:G84,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
+      <c r="J84" s="13" t="s">
+        <v>429</v>
+      </c>
       <c r="K84">
         <f>VLOOKUP(A84,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>1.611851495</v>
@@ -11670,6 +11665,9 @@
         <f>IF(OR(COUNTIF(D85:G85,"X")=0,COUNTIF(D85:G85,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
+      <c r="J85" s="13" t="s">
+        <v>430</v>
+      </c>
       <c r="K85">
         <f>VLOOKUP(A85,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
         <v>0.61</v>
@@ -11696,6 +11694,9 @@
       <c r="I86" s="24" t="str">
         <f>IF(OR(COUNTIF(D86:G86,"X")=0,COUNTIF(D86:G86,"B")&lt;&gt;0),"X","")</f>
         <v/>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>430</v>
       </c>
       <c r="K86">
         <f>VLOOKUP(A86,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -13431,9 +13432,9 @@
       <c r="C10" t="s">
         <v>124</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10">
         <f>VLOOKUP(A10,'Group Condition'!$A$2:$I$88,7,FALSE)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>22</v>
@@ -14758,13 +14759,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="4" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2:J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14774,15 +14775,15 @@
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="34" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="34" customWidth="1"/>
-    <col min="10" max="16" width="12.21875" style="13" customWidth="1"/>
-    <col min="17" max="17" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" style="34" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="34" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="34" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="34" hidden="1" customWidth="1"/>
+    <col min="10" max="15" width="12.21875" style="13" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -14820,60 +14821,60 @@
         <v>401</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="P1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(F2="X","H",IF(G2="X","L",IF(H2="X","C","G")))</f>
+        <v>L</v>
+      </c>
+      <c r="E2" s="34" t="str">
+        <f>IF('Group Condition'!J50="","",'Group Condition'!J50)</f>
+        <v>no change</v>
+      </c>
+      <c r="F2" s="34">
+        <f>'Group Condition'!D50</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="34" t="str">
+        <f>'Group Condition'!E50</f>
+        <v>X</v>
+      </c>
+      <c r="H2" s="34">
+        <f>'Group Condition'!G50</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="34" t="str">
+        <f>'Group Condition'!I50</f>
+        <v/>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D33" si="0">IF(F2="X","H",IF(G2="X","L",IF(H2="X","C","G")))</f>
-        <v>L</v>
-      </c>
-      <c r="E2" s="34" t="str">
-        <f>IF('Group Condition'!J2="","",'Group Condition'!J2)</f>
-        <v>better</v>
-      </c>
-      <c r="F2" s="34">
-        <f>'Group Condition'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="34" t="str">
-        <f>'Group Condition'!E2</f>
-        <v>X</v>
-      </c>
-      <c r="H2" s="34">
-        <f>'Group Condition'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="34" t="str">
-        <f>'Group Condition'!I2</f>
-        <v/>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -14884,7 +14885,7 @@
         <v>175</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F3="X","H",IF(G3="X","L",IF(H3="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E3" s="34" t="str">
@@ -14913,9 +14914,8 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3"/>
-    </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>167</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F4="X","H",IF(G4="X","L",IF(H4="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E4" s="34" t="str">
@@ -14949,11 +14949,11 @@
         <f>'Group Condition'!I4</f>
         <v/>
       </c>
-      <c r="Q4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>164</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F5="X","H",IF(G5="X","L",IF(H5="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E5" s="34" t="str">
@@ -14993,12 +14993,11 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -15009,7 +15008,7 @@
         <v>156</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F6="X","H",IF(G6="X","L",IF(H6="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E6" s="34" t="str">
@@ -15032,59 +15031,55 @@
         <f>'Group Condition'!I6</f>
         <v/>
       </c>
-      <c r="Q6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
+        <f>IF(F7="X","H",IF(G7="X","L",IF(H7="X","C","G")))</f>
+        <v>L</v>
       </c>
       <c r="E7" s="34" t="str">
-        <f>IF('Group Condition'!J7="","",'Group Condition'!J7)</f>
-        <v>better</v>
-      </c>
-      <c r="F7" s="34" t="str">
-        <f>'Group Condition'!D7</f>
-        <v>X</v>
-      </c>
-      <c r="G7" s="34">
-        <f>'Group Condition'!E7</f>
-        <v>0</v>
+        <f>IF('Group Condition'!J2="","",'Group Condition'!J2)</f>
+        <v>no change</v>
+      </c>
+      <c r="F7" s="34">
+        <f>'Group Condition'!D2</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="34" t="str">
+        <f>'Group Condition'!E2</f>
+        <v>X</v>
       </c>
       <c r="H7" s="34">
-        <f>'Group Condition'!G7</f>
+        <f>'Group Condition'!G2</f>
         <v>0</v>
       </c>
       <c r="I7" s="34" t="str">
-        <f>'Group Condition'!I7</f>
-        <v/>
-      </c>
-      <c r="J7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-    </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I2</f>
+        <v/>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -15095,7 +15090,7 @@
         <v>157</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F8="X","H",IF(G8="X","L",IF(H8="X","C","G")))</f>
         <v>C</v>
       </c>
       <c r="E8" s="34" t="str">
@@ -15118,11 +15113,11 @@
         <f>'Group Condition'!I8</f>
         <v/>
       </c>
-      <c r="Q8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -15133,16 +15128,16 @@
         <v>106</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
+        <f>IF(F9="X","H",IF(G9="X","L",IF(H9="X","C","G")))</f>
+        <v>G</v>
       </c>
       <c r="E9" s="34" t="str">
         <f>IF('Group Condition'!J9="","",'Group Condition'!J9)</f>
         <v>better</v>
       </c>
-      <c r="F9" s="34" t="str">
+      <c r="F9" s="34">
         <f>'Group Condition'!D9</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G9" s="34">
         <f>'Group Condition'!E9</f>
@@ -15154,108 +15149,108 @@
       </c>
       <c r="I9" s="34" t="str">
         <f>'Group Condition'!I9</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J9"/>
-      <c r="K9" t="s">
-        <v>412</v>
-      </c>
-      <c r="L9" t="s">
-        <v>412</v>
-      </c>
+      <c r="K9"/>
+      <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>L</v>
+        <f>IF(F10="X","H",IF(G10="X","L",IF(H10="X","C","G")))</f>
+        <v>H</v>
       </c>
       <c r="E10" s="34" t="str">
-        <f>IF('Group Condition'!J10="","",'Group Condition'!J10)</f>
-        <v>no change</v>
-      </c>
-      <c r="F10" s="34">
-        <f>'Group Condition'!D10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="34" t="str">
-        <f>'Group Condition'!E10</f>
-        <v>X</v>
+        <f>IF('Group Condition'!J7="","",'Group Condition'!J7)</f>
+        <v>better</v>
+      </c>
+      <c r="F10" s="34" t="str">
+        <f>'Group Condition'!D7</f>
+        <v>X</v>
+      </c>
+      <c r="G10" s="34">
+        <f>'Group Condition'!E7</f>
+        <v>0</v>
       </c>
       <c r="H10" s="34">
-        <f>'Group Condition'!G10</f>
+        <f>'Group Condition'!G7</f>
         <v>0</v>
       </c>
       <c r="I10" s="34" t="str">
-        <f>'Group Condition'!I10</f>
-        <v/>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I7</f>
+        <v/>
+      </c>
+      <c r="J10" t="s">
+        <v>411</v>
+      </c>
+      <c r="K10" t="s">
+        <v>410</v>
+      </c>
+      <c r="L10" t="s">
+        <v>410</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F11="X","H",IF(G11="X","L",IF(H11="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E11" s="34" t="str">
-        <f>IF('Group Condition'!J11="","",'Group Condition'!J11)</f>
+        <f>IF('Group Condition'!J32="","",'Group Condition'!J32)</f>
         <v>better</v>
       </c>
       <c r="F11" s="34" t="str">
-        <f>'Group Condition'!D11</f>
+        <f>'Group Condition'!D32</f>
         <v>X</v>
       </c>
       <c r="G11" s="34">
-        <f>'Group Condition'!E11</f>
+        <f>'Group Condition'!E32</f>
         <v>0</v>
       </c>
       <c r="H11" s="34">
-        <f>'Group Condition'!G11</f>
+        <f>'Group Condition'!G32</f>
         <v>0</v>
       </c>
       <c r="I11" s="34" t="str">
-        <f>'Group Condition'!I11</f>
+        <f>'Group Condition'!I32</f>
         <v/>
       </c>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11" t="s">
-        <v>412</v>
-      </c>
+      <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -15266,12 +15261,12 @@
         <v>160</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F12="X","H",IF(G12="X","L",IF(H12="X","C","G")))</f>
         <v>C</v>
       </c>
       <c r="E12" s="34" t="str">
         <f>IF('Group Condition'!J12="","",'Group Condition'!J12)</f>
-        <v>no change</v>
+        <v/>
       </c>
       <c r="F12" s="34">
         <f>'Group Condition'!D12</f>
@@ -15289,11 +15284,11 @@
         <f>'Group Condition'!I12</f>
         <v/>
       </c>
-      <c r="Q12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -15304,7 +15299,7 @@
         <v>176</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F13="X","H",IF(G13="X","L",IF(H13="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E13" s="34" t="str">
@@ -15333,9 +15328,8 @@
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
-      <c r="P13"/>
-    </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -15346,7 +15340,7 @@
         <v>109</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F14="X","H",IF(G14="X","L",IF(H14="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="F14" s="34">
@@ -15366,86 +15360,101 @@
         <v>X</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
+        <f>IF(F15="X","H",IF(G15="X","L",IF(H15="X","C","G")))</f>
+        <v>L</v>
       </c>
       <c r="E15" s="34" t="str">
-        <f>IF('Group Condition'!J15="","",'Group Condition'!J15)</f>
+        <f>IF('Group Condition'!J33="","",'Group Condition'!J33)</f>
+        <v>no change</v>
+      </c>
+      <c r="F15" s="34">
+        <f>'Group Condition'!D33</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="34" t="str">
+        <f>'Group Condition'!E33</f>
+        <v>X</v>
+      </c>
+      <c r="H15" s="34">
+        <f>'Group Condition'!G33</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="34" t="str">
+        <f>'Group Condition'!I33</f>
+        <v/>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="P15" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="str">
+        <f>IF(F16="X","H",IF(G16="X","L",IF(H16="X","C","G")))</f>
+        <v>C</v>
+      </c>
+      <c r="E16" s="34" t="str">
+        <f>IF('Group Condition'!J41="","",'Group Condition'!J41)</f>
         <v>better</v>
       </c>
-      <c r="F15" s="34" t="str">
-        <f>'Group Condition'!D15</f>
-        <v>X</v>
-      </c>
-      <c r="G15" s="34">
-        <f>'Group Condition'!E15</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="34">
-        <f>'Group Condition'!G15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="34" t="str">
-        <f>'Group Condition'!I15</f>
-        <v/>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>L</v>
-      </c>
-      <c r="E16" s="34" t="str">
-        <f>IF('Group Condition'!J16="","",'Group Condition'!J16)</f>
-        <v>better</v>
-      </c>
       <c r="F16" s="34">
-        <f>'Group Condition'!D16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="34" t="str">
-        <f>'Group Condition'!E16</f>
-        <v>X</v>
-      </c>
-      <c r="H16" s="34">
-        <f>'Group Condition'!G16</f>
-        <v>0</v>
+        <f>'Group Condition'!D41</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="34">
+        <f>'Group Condition'!E41</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="34" t="str">
+        <f>'Group Condition'!G41</f>
+        <v>X</v>
       </c>
       <c r="I16" s="34" t="str">
-        <f>'Group Condition'!I16</f>
-        <v/>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I41</f>
+        <v/>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -15456,7 +15465,7 @@
         <v>147</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F17="X","H",IF(G17="X","L",IF(H17="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E17" s="34" t="str">
@@ -15480,7 +15489,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -15491,7 +15500,7 @@
         <v>155</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F18="X","H",IF(G18="X","L",IF(H18="X","C","G")))</f>
         <v>C</v>
       </c>
       <c r="E18" s="34" t="str">
@@ -15514,11 +15523,11 @@
         <f>'Group Condition'!I18</f>
         <v/>
       </c>
-      <c r="Q18" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -15529,12 +15538,12 @@
         <v>114</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F19="X","H",IF(G19="X","L",IF(H19="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E19" s="34" t="str">
         <f>IF('Group Condition'!J19="","",'Group Condition'!J19)</f>
-        <v>invert</v>
+        <v>better</v>
       </c>
       <c r="F19" s="34">
         <f>'Group Condition'!D19</f>
@@ -15553,7 +15562,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -15564,12 +15573,12 @@
         <v>170</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F20="X","H",IF(G20="X","L",IF(H20="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E20" s="34" t="str">
         <f>IF('Group Condition'!J20="","",'Group Condition'!J20)</f>
-        <v>better</v>
+        <v/>
       </c>
       <c r="F20" s="34">
         <f>'Group Condition'!D20</f>
@@ -15593,9 +15602,8 @@
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
-      <c r="P20"/>
-    </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -15606,7 +15614,7 @@
         <v>177</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F21="X","H",IF(G21="X","L",IF(H21="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E21" s="34" t="str">
@@ -15635,9 +15643,8 @@
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21"/>
-    </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -15648,12 +15655,12 @@
         <v>133</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F22="X","H",IF(G22="X","L",IF(H22="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E22" s="34" t="str">
         <f>IF('Group Condition'!J22="","",'Group Condition'!J22)</f>
-        <v>better</v>
+        <v/>
       </c>
       <c r="F22" s="34">
         <f>'Group Condition'!D22</f>
@@ -15677,9 +15684,8 @@
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
-      <c r="P22"/>
-    </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -15690,7 +15696,7 @@
         <v>178</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F23="X","H",IF(G23="X","L",IF(H23="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E23" s="34" t="str">
@@ -15719,53 +15725,49 @@
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
-      <c r="P23"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F24="X","H",IF(G24="X","L",IF(H24="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E24" s="34" t="str">
-        <f>IF('Group Condition'!J24="","",'Group Condition'!J24)</f>
+        <f>IF('Group Condition'!J61="","",'Group Condition'!J61)</f>
         <v>worse</v>
       </c>
       <c r="F24" s="34">
-        <f>'Group Condition'!D24</f>
+        <f>'Group Condition'!D61</f>
         <v>0</v>
       </c>
       <c r="G24" s="34" t="str">
-        <f>'Group Condition'!E24</f>
+        <f>'Group Condition'!E61</f>
         <v>X</v>
       </c>
       <c r="H24" s="34">
-        <f>'Group Condition'!G24</f>
+        <f>'Group Condition'!G61</f>
         <v>0</v>
       </c>
       <c r="I24" s="34" t="str">
-        <f>'Group Condition'!I24</f>
+        <f>'Group Condition'!I61</f>
         <v/>
       </c>
       <c r="L24" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -15776,7 +15778,7 @@
         <v>136</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F25="X","H",IF(G25="X","L",IF(H25="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E25" s="34" t="str">
@@ -15805,40 +15807,52 @@
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
-      <c r="P25"/>
-    </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B26">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>G</v>
-      </c>
-      <c r="F26" s="34">
-        <f>'Group Condition'!D26</f>
-        <v>0</v>
+        <f>IF(F26="X","H",IF(G26="X","L",IF(H26="X","C","G")))</f>
+        <v>H</v>
+      </c>
+      <c r="E26" s="34" t="str">
+        <f>IF('Group Condition'!J65="","",'Group Condition'!J65)</f>
+        <v>better</v>
+      </c>
+      <c r="F26" s="34" t="str">
+        <f>'Group Condition'!D65</f>
+        <v>X</v>
       </c>
       <c r="G26" s="34">
-        <f>'Group Condition'!E26</f>
+        <f>'Group Condition'!E65</f>
         <v>0</v>
       </c>
       <c r="H26" s="34">
-        <f>'Group Condition'!G26</f>
+        <f>'Group Condition'!G65</f>
         <v>0</v>
       </c>
       <c r="I26" s="34" t="str">
-        <f>'Group Condition'!I26</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I65</f>
+        <v/>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -15849,12 +15863,12 @@
         <v>130</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F27="X","H",IF(G27="X","L",IF(H27="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E27" s="34" t="str">
         <f>IF('Group Condition'!J27="","",'Group Condition'!J27)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F27" s="34">
         <f>'Group Condition'!D27</f>
@@ -15878,9 +15892,8 @@
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
-      <c r="P27"/>
-    </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -15891,7 +15904,7 @@
         <v>103</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F28="X","H",IF(G28="X","L",IF(H28="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="F28" s="34">
@@ -15916,212 +15929,229 @@
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
-      <c r="P28"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="str">
+        <f>IF(F29="X","H",IF(G29="X","L",IF(H29="X","C","G")))</f>
+        <v>H</v>
+      </c>
+      <c r="E29" s="34" t="str">
+        <f>IF('Group Condition'!J15="","",'Group Condition'!J15)</f>
+        <v>invert</v>
+      </c>
+      <c r="F29" s="34" t="str">
+        <f>'Group Condition'!D15</f>
+        <v>X</v>
+      </c>
+      <c r="G29" s="34">
+        <f>'Group Condition'!E15</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="34">
+        <f>'Group Condition'!G15</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="34" t="str">
+        <f>'Group Condition'!I15</f>
+        <v/>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="P29" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="str">
+        <f>IF(F30="X","H",IF(G30="X","L",IF(H30="X","C","G")))</f>
+        <v>H</v>
+      </c>
+      <c r="E30" s="34" t="str">
+        <f>IF('Group Condition'!J11="","",'Group Condition'!J11)</f>
+        <v>better</v>
+      </c>
+      <c r="F30" s="34" t="str">
+        <f>'Group Condition'!D11</f>
+        <v>X</v>
+      </c>
+      <c r="G30" s="34">
+        <f>'Group Condition'!E11</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="34">
+        <f>'Group Condition'!G11</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="34" t="str">
+        <f>'Group Condition'!I11</f>
+        <v/>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30" t="s">
+        <v>410</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30" t="s">
+        <v>411</v>
+      </c>
+      <c r="P30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="str">
+        <f>IF(F31="X","H",IF(G31="X","L",IF(H31="X","C","G")))</f>
+        <v>L</v>
+      </c>
+      <c r="E31" s="34" t="str">
+        <f>IF('Group Condition'!J10="","",'Group Condition'!J10)</f>
+        <v>better</v>
+      </c>
+      <c r="F31" s="34">
+        <f>'Group Condition'!D10</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="34" t="str">
+        <f>'Group Condition'!E10</f>
+        <v>X</v>
+      </c>
+      <c r="H31" s="34">
+        <f>'Group Condition'!G10</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="34" t="str">
+        <f>'Group Condition'!I10</f>
+        <v/>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
         <v>17</v>
       </c>
-      <c r="B29">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" t="str">
+        <f>IF(F32="X","H",IF(G32="X","L",IF(H32="X","C","G")))</f>
         <v>L</v>
       </c>
-      <c r="E29" s="34" t="str">
-        <f>IF('Group Condition'!J29="","",'Group Condition'!J29)</f>
-        <v>better</v>
-      </c>
-      <c r="F29" s="34">
-        <f>'Group Condition'!D29</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="34" t="str">
-        <f>'Group Condition'!E29</f>
-        <v>X</v>
-      </c>
-      <c r="H29" s="34">
-        <f>'Group Condition'!G29</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="34" t="str">
-        <f>'Group Condition'!I29</f>
-        <v/>
-      </c>
-      <c r="J29" t="s">
-        <v>412</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30">
-        <v>20</v>
-      </c>
-      <c r="C30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>C</v>
-      </c>
-      <c r="E30" s="34" t="str">
-        <f>IF('Group Condition'!J30="","",'Group Condition'!J30)</f>
+      <c r="E32" s="34" t="str">
+        <f>IF('Group Condition'!J16="","",'Group Condition'!J16)</f>
         <v>worse</v>
       </c>
-      <c r="F30" s="34">
-        <f>'Group Condition'!D30</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="34">
-        <f>'Group Condition'!E30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="34" t="str">
-        <f>'Group Condition'!G30</f>
-        <v>X</v>
-      </c>
-      <c r="I30" s="34" t="str">
-        <f>'Group Condition'!I30</f>
-        <v/>
-      </c>
-      <c r="P30" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
+      <c r="F32" s="34">
+        <f>'Group Condition'!D16</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="34" t="str">
+        <f>'Group Condition'!E16</f>
+        <v>X</v>
+      </c>
+      <c r="H32" s="34">
+        <f>'Group Condition'!G16</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="34" t="str">
+        <f>'Group Condition'!I16</f>
+        <v/>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" t="str">
+        <f>IF(F33="X","H",IF(G33="X","L",IF(H33="X","C","G")))</f>
         <v>L</v>
       </c>
-      <c r="F31" s="34">
-        <f>'Group Condition'!D31</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="34" t="str">
-        <f>'Group Condition'!E31</f>
-        <v>X</v>
-      </c>
-      <c r="H31" s="34">
-        <f>'Group Condition'!G31</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="34" t="str">
-        <f>'Group Condition'!I31</f>
-        <v/>
-      </c>
-      <c r="P31" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="E32" s="34" t="str">
-        <f>IF('Group Condition'!J32="","",'Group Condition'!J32)</f>
-        <v>better</v>
-      </c>
-      <c r="F32" s="34" t="str">
-        <f>'Group Condition'!D32</f>
-        <v>X</v>
-      </c>
-      <c r="G32" s="34">
-        <f>'Group Condition'!E32</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="34">
-        <f>'Group Condition'!G32</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="34" t="str">
-        <f>'Group Condition'!I32</f>
-        <v/>
-      </c>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>L</v>
-      </c>
       <c r="E33" s="34" t="str">
-        <f>IF('Group Condition'!J33="","",'Group Condition'!J33)</f>
-        <v/>
+        <f>IF('Group Condition'!J86="","",'Group Condition'!J86)</f>
+        <v>no change</v>
       </c>
       <c r="F33" s="34">
-        <f>'Group Condition'!D33</f>
+        <f>'Group Condition'!D86</f>
         <v>0</v>
       </c>
       <c r="G33" s="34" t="str">
-        <f>'Group Condition'!E33</f>
+        <f>'Group Condition'!E86</f>
         <v>X</v>
       </c>
       <c r="H33" s="34">
-        <f>'Group Condition'!G33</f>
+        <f>'Group Condition'!G86</f>
         <v>0</v>
       </c>
       <c r="I33" s="34" t="str">
-        <f>'Group Condition'!I33</f>
-        <v/>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I86</f>
+        <v/>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -16132,16 +16162,16 @@
         <v>150</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D65" si="1">IF(F34="X","H",IF(G34="X","L",IF(H34="X","C","G")))</f>
-        <v>H</v>
+        <f>IF(F34="X","H",IF(G34="X","L",IF(H34="X","C","G")))</f>
+        <v>G</v>
       </c>
       <c r="E34" s="34" t="str">
         <f>IF('Group Condition'!J34="","",'Group Condition'!J34)</f>
         <v>better</v>
       </c>
-      <c r="F34" s="34" t="str">
+      <c r="F34" s="34">
         <f>'Group Condition'!D34</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G34" s="34">
         <f>'Group Condition'!E34</f>
@@ -16153,7 +16183,7 @@
       </c>
       <c r="I34" s="34" t="str">
         <f>'Group Condition'!I34</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
@@ -16161,11 +16191,8 @@
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
-      <c r="P34" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -16176,12 +16203,12 @@
         <v>152</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F35="X","H",IF(G35="X","L",IF(H35="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E35" s="34" t="str">
         <f>IF('Group Condition'!J35="","",'Group Condition'!J35)</f>
-        <v>better</v>
+        <v/>
       </c>
       <c r="F35" s="34">
         <f>'Group Condition'!D35</f>
@@ -16199,17 +16226,14 @@
         <f>'Group Condition'!I35</f>
         <v>X</v>
       </c>
-      <c r="J35" t="s">
-        <v>413</v>
-      </c>
+      <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
-      <c r="P35"/>
-    </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -16220,7 +16244,7 @@
         <v>158</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F36="X","H",IF(G36="X","L",IF(H36="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E36" s="34" t="str">
@@ -16249,47 +16273,55 @@
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P36" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v>G</v>
+        <f>IF(F37="X","H",IF(G37="X","L",IF(H37="X","C","G")))</f>
+        <v>L</v>
       </c>
       <c r="E37" s="34" t="str">
-        <f>IF('Group Condition'!J37="","",'Group Condition'!J37)</f>
+        <f>IF('Group Condition'!J24="","",'Group Condition'!J24)</f>
         <v>worse</v>
       </c>
       <c r="F37" s="34">
-        <f>'Group Condition'!D37</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="34">
-        <f>'Group Condition'!E37</f>
-        <v>0</v>
+        <f>'Group Condition'!D24</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="34" t="str">
+        <f>'Group Condition'!E24</f>
+        <v>X</v>
       </c>
       <c r="H37" s="34">
-        <f>'Group Condition'!G37</f>
+        <f>'Group Condition'!G24</f>
         <v>0</v>
       </c>
       <c r="I37" s="34" t="str">
-        <f>'Group Condition'!I37</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I24</f>
+        <v/>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -16300,7 +16332,7 @@
         <v>151</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F38="X","H",IF(G38="X","L",IF(H38="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E38" s="34" t="str">
@@ -16329,9 +16361,8 @@
       <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
-      <c r="P38"/>
-    </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -16342,7 +16373,7 @@
         <v>165</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F39="X","H",IF(G39="X","L",IF(H39="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E39" s="34" t="str">
@@ -16371,138 +16402,134 @@
       <c r="M39"/>
       <c r="N39"/>
       <c r="O39"/>
-      <c r="P39"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F40="X","H",IF(G40="X","L",IF(H40="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E40" s="34" t="str">
-        <f>IF('Group Condition'!J40="","",'Group Condition'!J40)</f>
-        <v>no change</v>
+        <f>IF('Group Condition'!J29="","",'Group Condition'!J29)</f>
+        <v>better</v>
       </c>
       <c r="F40" s="34">
-        <f>'Group Condition'!D40</f>
+        <f>'Group Condition'!D29</f>
         <v>0</v>
       </c>
       <c r="G40" s="34" t="str">
-        <f>'Group Condition'!E40</f>
+        <f>'Group Condition'!E29</f>
         <v>X</v>
       </c>
       <c r="H40" s="34">
-        <f>'Group Condition'!G40</f>
+        <f>'Group Condition'!G29</f>
         <v>0</v>
       </c>
       <c r="I40" s="34" t="str">
-        <f>'Group Condition'!I40</f>
-        <v/>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>412</v>
+        <f>'Group Condition'!I29</f>
+        <v/>
+      </c>
+      <c r="J40" t="s">
+        <v>410</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>423</v>
       </c>
       <c r="M40" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="O40" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N40"/>
+      <c r="O40" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B41">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
+        <f>IF(F41="X","H",IF(G41="X","L",IF(H41="X","C","G")))</f>
+        <v>L</v>
       </c>
       <c r="E41" s="34" t="str">
-        <f>IF('Group Condition'!J41="","",'Group Condition'!J41)</f>
+        <f>IF('Group Condition'!J85="","",'Group Condition'!J85)</f>
         <v>no change</v>
       </c>
       <c r="F41" s="34">
-        <f>'Group Condition'!D41</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="34">
-        <f>'Group Condition'!E41</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="34" t="str">
-        <f>'Group Condition'!G41</f>
-        <v>X</v>
+        <f>'Group Condition'!D85</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="34" t="str">
+        <f>'Group Condition'!E85</f>
+        <v>X</v>
+      </c>
+      <c r="H41" s="34">
+        <f>'Group Condition'!G85</f>
+        <v>0</v>
       </c>
       <c r="I41" s="34" t="str">
-        <f>'Group Condition'!I41</f>
-        <v/>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>241</v>
+        <f>'Group Condition'!I85</f>
+        <v/>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F42="X","H",IF(G42="X","L",IF(H42="X","C","G")))</f>
         <v>L</v>
       </c>
-      <c r="E42" s="34" t="str">
-        <f>IF('Group Condition'!J42="","",'Group Condition'!J42)</f>
-        <v>better</v>
-      </c>
       <c r="F42" s="34">
-        <f>'Group Condition'!D42</f>
+        <f>'Group Condition'!D31</f>
         <v>0</v>
       </c>
       <c r="G42" s="34" t="str">
-        <f>'Group Condition'!E42</f>
+        <f>'Group Condition'!E31</f>
         <v>X</v>
       </c>
       <c r="H42" s="34">
-        <f>'Group Condition'!G42</f>
+        <f>'Group Condition'!G31</f>
         <v>0</v>
       </c>
       <c r="I42" s="34" t="str">
-        <f>'Group Condition'!I42</f>
-        <v/>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="M42" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="P42" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I31</f>
+        <v/>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="O42" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -16513,7 +16540,7 @@
         <v>161</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F43="X","H",IF(G43="X","L",IF(H43="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E43" s="34" t="str">
@@ -16542,9 +16569,8 @@
       <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
-      <c r="P43"/>
-    </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -16555,7 +16581,7 @@
         <v>116</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F44="X","H",IF(G44="X","L",IF(H44="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E44" s="34" t="str">
@@ -16584,51 +16610,46 @@
       <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
-      <c r="P44"/>
-    </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B45">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="1"/>
-        <v>G</v>
+        <f>IF(F45="X","H",IF(G45="X","L",IF(H45="X","C","G")))</f>
+        <v>L</v>
       </c>
       <c r="E45" s="34" t="str">
-        <f>IF('Group Condition'!J45="","",'Group Condition'!J45)</f>
-        <v>better</v>
+        <f>IF('Group Condition'!J37="","",'Group Condition'!J37)</f>
+        <v/>
       </c>
       <c r="F45" s="34">
-        <f>'Group Condition'!D45</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="34">
-        <f>'Group Condition'!E45</f>
-        <v>0</v>
+        <f>'Group Condition'!D37</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="34" t="str">
+        <f>'Group Condition'!E37</f>
+        <v>X</v>
       </c>
       <c r="H45" s="34">
-        <f>'Group Condition'!G45</f>
+        <f>'Group Condition'!G37</f>
         <v>0</v>
       </c>
       <c r="I45" s="34" t="str">
-        <f>'Group Condition'!I45</f>
-        <v>X</v>
-      </c>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-    </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I37</f>
+        <v/>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -16639,7 +16660,7 @@
         <v>162</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F46="X","H",IF(G46="X","L",IF(H46="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E46" s="34" t="str">
@@ -16668,9 +16689,8 @@
       <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
-      <c r="P46"/>
-    </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -16681,7 +16701,7 @@
         <v>174</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F47="X","H",IF(G47="X","L",IF(H47="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E47" s="34" t="str">
@@ -16710,9 +16730,8 @@
       <c r="M47"/>
       <c r="N47"/>
       <c r="O47"/>
-      <c r="P47"/>
-    </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -16723,7 +16742,7 @@
         <v>144</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F48="X","H",IF(G48="X","L",IF(H48="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E48" s="34" t="str">
@@ -16747,7 +16766,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -16758,7 +16777,7 @@
         <v>169</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F49="X","H",IF(G49="X","L",IF(H49="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E49" s="34" t="str">
@@ -16786,48 +16805,56 @@
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49" s="30"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O49" s="30"/>
+    </row>
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F50="X","H",IF(G50="X","L",IF(H50="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E50" s="34" t="str">
-        <f>IF('Group Condition'!J50="","",'Group Condition'!J50)</f>
-        <v>worse</v>
+        <f>IF('Group Condition'!J40="","",'Group Condition'!J40)</f>
+        <v>better</v>
       </c>
       <c r="F50" s="34">
-        <f>'Group Condition'!D50</f>
+        <f>'Group Condition'!D40</f>
         <v>0</v>
       </c>
       <c r="G50" s="34" t="str">
-        <f>'Group Condition'!E50</f>
+        <f>'Group Condition'!E40</f>
         <v>X</v>
       </c>
       <c r="H50" s="34">
-        <f>'Group Condition'!G50</f>
+        <f>'Group Condition'!G40</f>
         <v>0</v>
       </c>
       <c r="I50" s="34" t="str">
-        <f>'Group Condition'!I50</f>
-        <v/>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I40</f>
+        <v/>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -16838,20 +16865,20 @@
         <v>117</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="1"/>
-        <v>L</v>
+        <f>IF(F51="X","H",IF(G51="X","L",IF(H51="X","C","G")))</f>
+        <v>G</v>
       </c>
       <c r="E51" s="34" t="str">
         <f>IF('Group Condition'!J51="","",'Group Condition'!J51)</f>
-        <v>no change</v>
+        <v>better</v>
       </c>
       <c r="F51" s="34">
         <f>'Group Condition'!D51</f>
         <v>0</v>
       </c>
-      <c r="G51" s="34" t="str">
+      <c r="G51" s="34">
         <f>'Group Condition'!E51</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H51" s="34">
         <f>'Group Condition'!G51</f>
@@ -16859,21 +16886,14 @@
       </c>
       <c r="I51" s="34" t="str">
         <f>'Group Condition'!I51</f>
-        <v/>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>412</v>
+        <v>X</v>
       </c>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -16884,7 +16904,7 @@
         <v>138</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F52="X","H",IF(G52="X","L",IF(H52="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E52" s="34" t="str">
@@ -16913,9 +16933,8 @@
       <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
-      <c r="P52"/>
-    </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -16926,7 +16945,7 @@
         <v>171</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F53="X","H",IF(G53="X","L",IF(H53="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E53" s="34" t="str">
@@ -16955,9 +16974,8 @@
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
-      <c r="P53"/>
-    </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -16968,7 +16986,7 @@
         <v>139</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F54="X","H",IF(G54="X","L",IF(H54="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E54" s="34" t="str">
@@ -16995,9 +17013,8 @@
       <c r="K54"/>
       <c r="M54"/>
       <c r="N54"/>
-      <c r="O54"/>
-    </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -17008,7 +17025,7 @@
         <v>154</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F55="X","H",IF(G55="X","L",IF(H55="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E55" s="34" t="str">
@@ -17031,11 +17048,11 @@
         <f>'Group Condition'!I55</f>
         <v/>
       </c>
-      <c r="Q55" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -17046,12 +17063,12 @@
         <v>159</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F56="X","H",IF(G56="X","L",IF(H56="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E56" s="34" t="str">
         <f>IF('Group Condition'!J56="","",'Group Condition'!J56)</f>
-        <v>better</v>
+        <v>invert</v>
       </c>
       <c r="F56" s="34">
         <f>'Group Condition'!D56</f>
@@ -17075,12 +17092,11 @@
       <c r="M56"/>
       <c r="N56"/>
       <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P56" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -17091,12 +17107,12 @@
         <v>122</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F57="X","H",IF(G57="X","L",IF(H57="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E57" s="34" t="str">
         <f>IF('Group Condition'!J57="","",'Group Condition'!J57)</f>
-        <v>better</v>
+        <v/>
       </c>
       <c r="F57" s="34">
         <f>'Group Condition'!D57</f>
@@ -17120,9 +17136,8 @@
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57"/>
-      <c r="P57"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -17133,16 +17148,16 @@
         <v>145</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="1"/>
-        <v>H</v>
+        <f>IF(F58="X","H",IF(G58="X","L",IF(H58="X","C","G")))</f>
+        <v>G</v>
       </c>
       <c r="E58" s="34" t="str">
         <f>IF('Group Condition'!J58="","",'Group Condition'!J58)</f>
         <v>better</v>
       </c>
-      <c r="F58" s="34" t="str">
+      <c r="F58" s="34">
         <f>'Group Condition'!D58</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G58" s="34">
         <f>'Group Condition'!E58</f>
@@ -17154,21 +17169,16 @@
       </c>
       <c r="I58" s="34" t="str">
         <f>'Group Condition'!I58</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J58"/>
-      <c r="K58" t="s">
-        <v>412</v>
-      </c>
-      <c r="L58" t="s">
-        <v>412</v>
-      </c>
+      <c r="K58"/>
+      <c r="L58"/>
       <c r="M58"/>
       <c r="N58"/>
       <c r="O58"/>
-      <c r="P58"/>
-    </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -17179,7 +17189,7 @@
         <v>118</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F59="X","H",IF(G59="X","L",IF(H59="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E59" s="34" t="str">
@@ -17208,9 +17218,8 @@
       <c r="M59"/>
       <c r="N59"/>
       <c r="O59"/>
-      <c r="P59"/>
-    </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -17221,7 +17230,7 @@
         <v>146</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F60="X","H",IF(G60="X","L",IF(H60="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E60" s="34" t="str">
@@ -17250,47 +17259,49 @@
       <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
-      <c r="P60"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B61">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F61="X","H",IF(G61="X","L",IF(H61="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E61" s="34" t="str">
-        <f>IF('Group Condition'!J61="","",'Group Condition'!J61)</f>
-        <v>no change</v>
+        <f>IF('Group Condition'!J87="","",'Group Condition'!J87)</f>
+        <v>worse</v>
       </c>
       <c r="F61" s="34">
-        <f>'Group Condition'!D61</f>
+        <f>'Group Condition'!D87</f>
         <v>0</v>
       </c>
       <c r="G61" s="34" t="str">
-        <f>'Group Condition'!E61</f>
-        <v>X</v>
-      </c>
-      <c r="H61" s="34" t="str">
-        <f>'Group Condition'!G61</f>
-        <v>X</v>
+        <f>'Group Condition'!E87</f>
+        <v>X</v>
+      </c>
+      <c r="H61" s="34">
+        <f>'Group Condition'!G87</f>
+        <v>0</v>
       </c>
       <c r="I61" s="34" t="str">
-        <f>'Group Condition'!I61</f>
-        <v/>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I87</f>
+        <v/>
+      </c>
+      <c r="N61" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="O61" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -17301,16 +17312,16 @@
         <v>143</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="1"/>
-        <v>H</v>
+        <f>IF(F62="X","H",IF(G62="X","L",IF(H62="X","C","G")))</f>
+        <v>G</v>
       </c>
       <c r="E62" s="34" t="str">
         <f>IF('Group Condition'!J62="","",'Group Condition'!J62)</f>
-        <v>invert</v>
-      </c>
-      <c r="F62" s="34" t="str">
+        <v>better</v>
+      </c>
+      <c r="F62" s="34">
         <f>'Group Condition'!D62</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G62" s="34">
         <f>'Group Condition'!E62</f>
@@ -17322,16 +17333,10 @@
       </c>
       <c r="I62" s="34" t="str">
         <f>'Group Condition'!I62</f>
-        <v/>
-      </c>
-      <c r="L62" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="M62" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -17342,7 +17347,7 @@
         <v>153</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F63="X","H",IF(G63="X","L",IF(H63="X","C","G")))</f>
         <v>C</v>
       </c>
       <c r="E63" s="34" t="str">
@@ -17365,170 +17370,190 @@
         <f>'Group Condition'!I63</f>
         <v/>
       </c>
-      <c r="Q63" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P63" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B64">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F64="X","H",IF(G64="X","L",IF(H64="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E64" s="34" t="str">
-        <f>IF('Group Condition'!J64="","",'Group Condition'!J64)</f>
+        <f>IF('Group Condition'!J42="","",'Group Condition'!J42)</f>
         <v>better</v>
       </c>
       <c r="F64" s="34">
-        <f>'Group Condition'!D64</f>
+        <f>'Group Condition'!D42</f>
         <v>0</v>
       </c>
       <c r="G64" s="34" t="str">
-        <f>'Group Condition'!E64</f>
+        <f>'Group Condition'!E42</f>
         <v>X</v>
       </c>
       <c r="H64" s="34">
-        <f>'Group Condition'!G64</f>
+        <f>'Group Condition'!G42</f>
         <v>0</v>
       </c>
       <c r="I64" s="34" t="str">
-        <f>'Group Condition'!I64</f>
+        <f>'Group Condition'!I42</f>
         <v/>
       </c>
       <c r="J64" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>423</v>
       </c>
       <c r="M64" s="13" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O64" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B65">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="1"/>
-        <v>H</v>
+        <f>IF(F65="X","H",IF(G65="X","L",IF(H65="X","C","G")))</f>
+        <v>C</v>
       </c>
       <c r="E65" s="34" t="str">
-        <f>IF('Group Condition'!J65="","",'Group Condition'!J65)</f>
-        <v>better</v>
-      </c>
-      <c r="F65" s="34" t="str">
-        <f>'Group Condition'!D65</f>
-        <v>X</v>
+        <f>IF('Group Condition'!J30="","",'Group Condition'!J30)</f>
+        <v>no change</v>
+      </c>
+      <c r="F65" s="34">
+        <f>'Group Condition'!D30</f>
+        <v>0</v>
       </c>
       <c r="G65" s="34">
-        <f>'Group Condition'!E65</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="34">
-        <f>'Group Condition'!G65</f>
-        <v>0</v>
+        <f>'Group Condition'!E30</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="34" t="str">
+        <f>'Group Condition'!G30</f>
+        <v>X</v>
       </c>
       <c r="I65" s="34" t="str">
-        <f>'Group Condition'!I65</f>
+        <f>'Group Condition'!I30</f>
         <v/>
       </c>
       <c r="L65" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="O65" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B66">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" ref="D66:D88" si="2">IF(F66="X","H",IF(G66="X","L",IF(H66="X","C","G")))</f>
-        <v>C</v>
+        <f>IF(F66="X","H",IF(G66="X","L",IF(H66="X","C","G")))</f>
+        <v>L</v>
       </c>
       <c r="E66" s="34" t="str">
-        <f>IF('Group Condition'!J66="","",'Group Condition'!J66)</f>
-        <v/>
+        <f>IF('Group Condition'!J45="","",'Group Condition'!J45)</f>
+        <v>invert</v>
       </c>
       <c r="F66" s="34">
-        <f>'Group Condition'!D66</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="34">
-        <f>'Group Condition'!E66</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="34" t="str">
-        <f>'Group Condition'!G66</f>
-        <v>X</v>
+        <f>'Group Condition'!D45</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="34" t="str">
+        <f>'Group Condition'!E45</f>
+        <v>X</v>
+      </c>
+      <c r="H66" s="34">
+        <f>'Group Condition'!G45</f>
+        <v>0</v>
       </c>
       <c r="I66" s="34" t="str">
-        <f>'Group Condition'!I66</f>
-        <v/>
-      </c>
-      <c r="P66" s="13" t="s">
-        <v>412</v>
-      </c>
+        <f>'Group Condition'!I45</f>
+        <v/>
+      </c>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B67">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F67="X","H",IF(G67="X","L",IF(H67="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E67" s="34" t="str">
-        <f>IF('Group Condition'!J67="","",'Group Condition'!J67)</f>
-        <v>worse</v>
+        <f>IF('Group Condition'!J64="","",'Group Condition'!J64)</f>
+        <v>no change</v>
       </c>
       <c r="F67" s="34">
-        <f>'Group Condition'!D67</f>
+        <f>'Group Condition'!D64</f>
         <v>0</v>
       </c>
       <c r="G67" s="34" t="str">
-        <f>'Group Condition'!E67</f>
+        <f>'Group Condition'!E64</f>
         <v>X</v>
       </c>
       <c r="H67" s="34">
-        <f>'Group Condition'!G67</f>
+        <f>'Group Condition'!G64</f>
         <v>0</v>
       </c>
       <c r="I67" s="34" t="str">
-        <f>'Group Condition'!I67</f>
-        <v/>
-      </c>
-      <c r="J67" t="s">
-        <v>412</v>
-      </c>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67"/>
-      <c r="P67"/>
+        <f>'Group Condition'!I64</f>
+        <v/>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="O67" s="13" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
@@ -17541,12 +17566,12 @@
         <v>142</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F68="X","H",IF(G68="X","L",IF(H68="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E68" s="34" t="str">
         <f>IF('Group Condition'!J68="","",'Group Condition'!J68)</f>
-        <v>worse</v>
+        <v/>
       </c>
       <c r="F68" s="34">
         <f>'Group Condition'!D68</f>
@@ -17570,7 +17595,6 @@
       <c r="M68"/>
       <c r="N68"/>
       <c r="O68"/>
-      <c r="P68"/>
     </row>
     <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -17583,7 +17607,7 @@
         <v>134</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F69="X","H",IF(G69="X","L",IF(H69="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E69" s="34" t="str">
@@ -17612,7 +17636,6 @@
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69"/>
-      <c r="P69"/>
     </row>
     <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -17625,12 +17648,12 @@
         <v>135</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F70="X","H",IF(G70="X","L",IF(H70="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E70" s="34" t="str">
         <f>IF('Group Condition'!J70="","",'Group Condition'!J70)</f>
-        <v>better</v>
+        <v/>
       </c>
       <c r="F70" s="34">
         <f>'Group Condition'!D70</f>
@@ -17654,164 +17677,166 @@
       <c r="M70"/>
       <c r="N70"/>
       <c r="O70"/>
-      <c r="P70"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="2"/>
-        <v>H</v>
+        <f>IF(F71="X","H",IF(G71="X","L",IF(H71="X","C","G")))</f>
+        <v>C</v>
       </c>
       <c r="E71" s="34" t="str">
-        <f>IF('Group Condition'!J71="","",'Group Condition'!J71)</f>
-        <v>worse</v>
-      </c>
-      <c r="F71" s="34" t="str">
-        <f>'Group Condition'!D71</f>
-        <v>X</v>
+        <f>IF('Group Condition'!J66="","",'Group Condition'!J66)</f>
+        <v>no change</v>
+      </c>
+      <c r="F71" s="34">
+        <f>'Group Condition'!D66</f>
+        <v>0</v>
       </c>
       <c r="G71" s="34">
-        <f>'Group Condition'!E71</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="34">
-        <f>'Group Condition'!G71</f>
-        <v>0</v>
+        <f>'Group Condition'!E66</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="34" t="str">
+        <f>'Group Condition'!G66</f>
+        <v>X</v>
       </c>
       <c r="I71" s="34" t="str">
-        <f>'Group Condition'!I71</f>
-        <v/>
-      </c>
-      <c r="L71" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="M71" s="13" t="s">
-        <v>241</v>
+        <f>'Group Condition'!I66</f>
+        <v/>
+      </c>
+      <c r="O71" s="13" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="E72" s="34" t="str">
-        <f>IF('Group Condition'!J72="","",'Group Condition'!J72)</f>
-        <v>better</v>
+        <f>IF(F72="X","H",IF(G72="X","L",IF(H72="X","C","G")))</f>
+        <v>L</v>
       </c>
       <c r="F72" s="34">
-        <f>'Group Condition'!D72</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="34">
-        <f>'Group Condition'!E72</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="34" t="str">
-        <f>'Group Condition'!G72</f>
-        <v>X</v>
+        <f>'Group Condition'!D26</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="34" t="str">
+        <f>'Group Condition'!E26</f>
+        <v>X</v>
+      </c>
+      <c r="H72" s="34">
+        <f>'Group Condition'!G26</f>
+        <v>0</v>
       </c>
       <c r="I72" s="34" t="str">
-        <f>'Group Condition'!I72</f>
-        <v/>
-      </c>
-      <c r="M72" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="O72" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I26</f>
+        <v/>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" t="str">
+        <f>IF(F73="X","H",IF(G73="X","L",IF(H73="X","C","G")))</f>
+        <v>L</v>
+      </c>
+      <c r="E73" s="34" t="str">
+        <f>IF('Group Condition'!J67="","",'Group Condition'!J67)</f>
+        <v>no change</v>
+      </c>
+      <c r="F73" s="34">
+        <f>'Group Condition'!D67</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="34" t="str">
+        <f>'Group Condition'!E67</f>
+        <v>X</v>
+      </c>
+      <c r="H73" s="34">
+        <f>'Group Condition'!G67</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="34" t="str">
+        <f>'Group Condition'!I67</f>
+        <v/>
+      </c>
+      <c r="J73" t="s">
+        <v>410</v>
+      </c>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>59</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>57</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>148</v>
       </c>
-      <c r="D73" t="str">
-        <f t="shared" si="2"/>
-        <v>G</v>
-      </c>
-      <c r="E73" s="34" t="str">
+      <c r="D74" t="str">
+        <f>IF(F74="X","H",IF(G74="X","L",IF(H74="X","C","G")))</f>
+        <v>L</v>
+      </c>
+      <c r="E74" s="34" t="str">
         <f>IF('Group Condition'!J73="","",'Group Condition'!J73)</f>
-        <v>better</v>
-      </c>
-      <c r="F73" s="34">
+        <v/>
+      </c>
+      <c r="F74" s="34">
         <f>'Group Condition'!D73</f>
         <v>0</v>
       </c>
-      <c r="G73" s="34">
+      <c r="G74" s="34" t="str">
         <f>'Group Condition'!E73</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="34">
+        <v>X</v>
+      </c>
+      <c r="H74" s="34">
         <f>'Group Condition'!G73</f>
         <v>0</v>
       </c>
-      <c r="I73" s="34" t="str">
+      <c r="I74" s="34" t="str">
         <f>'Group Condition'!I73</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74">
-        <v>36</v>
-      </c>
-      <c r="C74" t="s">
-        <v>127</v>
-      </c>
-      <c r="D74" t="str">
-        <f t="shared" si="2"/>
-        <v>L</v>
-      </c>
-      <c r="E74" s="34" t="str">
-        <f>IF('Group Condition'!J74="","",'Group Condition'!J74)</f>
-        <v>invert</v>
-      </c>
-      <c r="F74" s="34">
-        <f>'Group Condition'!D74</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="34" t="str">
-        <f>'Group Condition'!E74</f>
-        <v>X</v>
-      </c>
-      <c r="H74" s="34">
-        <f>'Group Condition'!G74</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="34" t="str">
-        <f>'Group Condition'!I74</f>
-        <v/>
-      </c>
-      <c r="L74" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="P74" s="13" t="s">
-        <v>413</v>
+        <v/>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="O74" s="13" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -17825,12 +17850,12 @@
         <v>105</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F75="X","H",IF(G75="X","L",IF(H75="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E75" s="34" t="str">
         <f>IF('Group Condition'!J75="","",'Group Condition'!J75)</f>
-        <v>better</v>
+        <v/>
       </c>
       <c r="F75" s="34">
         <f>'Group Condition'!D75</f>
@@ -17854,7 +17879,6 @@
       <c r="M75"/>
       <c r="N75"/>
       <c r="O75"/>
-      <c r="P75"/>
     </row>
     <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
@@ -17867,7 +17891,7 @@
         <v>149</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F76="X","H",IF(G76="X","L",IF(H76="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="F76" s="34">
@@ -17892,85 +17916,93 @@
       <c r="M76"/>
       <c r="N76"/>
       <c r="O76"/>
-      <c r="P76"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B77">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F77="X","H",IF(G77="X","L",IF(H77="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E77" s="34" t="str">
-        <f>IF('Group Condition'!J77="","",'Group Condition'!J77)</f>
+        <f>IF('Group Condition'!J71="","",'Group Condition'!J71)</f>
         <v>better</v>
       </c>
       <c r="F77" s="34" t="str">
-        <f>'Group Condition'!D77</f>
+        <f>'Group Condition'!D71</f>
         <v>X</v>
       </c>
       <c r="G77" s="34">
-        <f>'Group Condition'!E77</f>
+        <f>'Group Condition'!E71</f>
         <v>0</v>
       </c>
       <c r="H77" s="34">
-        <f>'Group Condition'!G77</f>
+        <f>'Group Condition'!G71</f>
         <v>0</v>
       </c>
       <c r="I77" s="34" t="str">
-        <f>'Group Condition'!I77</f>
+        <f>'Group Condition'!I71</f>
         <v/>
       </c>
       <c r="L77" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P77" s="13" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+      <c r="M77" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="2"/>
-        <v>L</v>
+        <f>IF(F78="X","H",IF(G78="X","L",IF(H78="X","C","G")))</f>
+        <v>C</v>
       </c>
       <c r="E78" s="34" t="str">
-        <f>IF('Group Condition'!J78="","",'Group Condition'!J78)</f>
-        <v/>
+        <f>IF('Group Condition'!J72="","",'Group Condition'!J72)</f>
+        <v>no change</v>
       </c>
       <c r="F78" s="34">
-        <f>'Group Condition'!D78</f>
-        <v>0</v>
-      </c>
-      <c r="G78" s="34" t="str">
-        <f>'Group Condition'!E78</f>
-        <v>X</v>
-      </c>
-      <c r="H78" s="34">
-        <f>'Group Condition'!G78</f>
-        <v>0</v>
+        <f>'Group Condition'!D72</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="34">
+        <f>'Group Condition'!E72</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="34" t="str">
+        <f>'Group Condition'!G72</f>
+        <v>X</v>
       </c>
       <c r="I78" s="34" t="str">
-        <f>'Group Condition'!I78</f>
-        <v/>
+        <f>'Group Condition'!I72</f>
+        <v/>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="O78" s="13" t="s">
+        <v>411</v>
       </c>
       <c r="P78" s="13" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -17984,12 +18016,12 @@
         <v>98</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F79="X","H",IF(G79="X","L",IF(H79="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E79" s="34" t="str">
         <f>IF('Group Condition'!J79="","",'Group Condition'!J79)</f>
-        <v/>
+        <v>better</v>
       </c>
       <c r="F79" s="34">
         <f>'Group Condition'!D79</f>
@@ -18019,12 +18051,12 @@
         <v>128</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F80="X","H",IF(G80="X","L",IF(H80="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E80" s="34" t="str">
         <f>IF('Group Condition'!J80="","",'Group Condition'!J80)</f>
-        <v/>
+        <v>better</v>
       </c>
       <c r="F80" s="34">
         <f>'Group Condition'!D80</f>
@@ -18048,48 +18080,52 @@
       <c r="M80"/>
       <c r="N80"/>
       <c r="O80"/>
-      <c r="P80"/>
     </row>
     <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="2"/>
-        <v>G</v>
+        <f>IF(F81="X","H",IF(G81="X","L",IF(H81="X","C","G")))</f>
+        <v>L</v>
       </c>
       <c r="E81" s="34" t="str">
-        <f>IF('Group Condition'!J81="","",'Group Condition'!J81)</f>
-        <v/>
+        <f>IF('Group Condition'!J74="","",'Group Condition'!J74)</f>
+        <v>no change</v>
       </c>
       <c r="F81" s="34">
-        <f>'Group Condition'!D81</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="34">
-        <f>'Group Condition'!E81</f>
-        <v>0</v>
+        <f>'Group Condition'!D74</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="34" t="str">
+        <f>'Group Condition'!E74</f>
+        <v>X</v>
       </c>
       <c r="H81" s="34">
-        <f>'Group Condition'!G81</f>
+        <f>'Group Condition'!G74</f>
         <v>0</v>
       </c>
       <c r="I81" s="34" t="str">
-        <f>'Group Condition'!I81</f>
-        <v>X</v>
-      </c>
-      <c r="J81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="O81"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I74</f>
+        <v/>
+      </c>
+      <c r="L81" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="N81" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="O81" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -18100,20 +18136,20 @@
         <v>140</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="2"/>
-        <v>L</v>
+        <f>IF(F82="X","H",IF(G82="X","L",IF(H82="X","C","G")))</f>
+        <v>G</v>
       </c>
       <c r="E82" s="34" t="str">
         <f>IF('Group Condition'!J82="","",'Group Condition'!J82)</f>
-        <v>worse</v>
+        <v>better</v>
       </c>
       <c r="F82" s="34">
         <f>'Group Condition'!D82</f>
         <v>0</v>
       </c>
-      <c r="G82" s="34" t="str">
+      <c r="G82" s="34">
         <f>'Group Condition'!E82</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H82" s="34">
         <f>'Group Condition'!G82</f>
@@ -18121,16 +18157,10 @@
       </c>
       <c r="I82" s="34" t="str">
         <f>'Group Condition'!I82</f>
-        <v/>
-      </c>
-      <c r="L82" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="P82" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -18141,20 +18171,20 @@
         <v>99</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="2"/>
-        <v>L</v>
+        <f>IF(F83="X","H",IF(G83="X","L",IF(H83="X","C","G")))</f>
+        <v>G</v>
       </c>
       <c r="E83" s="34" t="str">
         <f>IF('Group Condition'!J83="","",'Group Condition'!J83)</f>
-        <v>worse</v>
+        <v>better</v>
       </c>
       <c r="F83" s="34">
         <f>'Group Condition'!D83</f>
         <v>0</v>
       </c>
-      <c r="G83" s="34" t="str">
+      <c r="G83" s="34">
         <f>'Group Condition'!E83</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H83" s="34">
         <f>'Group Condition'!G83</f>
@@ -18162,10 +18192,7 @@
       </c>
       <c r="I83" s="34" t="str">
         <f>'Group Condition'!I83</f>
-        <v/>
-      </c>
-      <c r="L83" s="13" t="s">
-        <v>425</v>
+        <v>X</v>
       </c>
     </row>
     <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -18179,12 +18206,12 @@
         <v>132</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F84="X","H",IF(G84="X","L",IF(H84="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E84" s="34" t="str">
         <f>IF('Group Condition'!J84="","",'Group Condition'!J84)</f>
-        <v/>
+        <v>better</v>
       </c>
       <c r="F84" s="34">
         <f>'Group Condition'!D84</f>
@@ -18208,129 +18235,134 @@
       <c r="M84"/>
       <c r="N84"/>
       <c r="O84"/>
-      <c r="P84"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B85">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F85="X","H",IF(G85="X","L",IF(H85="X","C","G")))</f>
+        <v>H</v>
+      </c>
+      <c r="E85" s="34" t="str">
+        <f>IF('Group Condition'!J77="","",'Group Condition'!J77)</f>
+        <v>better</v>
+      </c>
+      <c r="F85" s="34" t="str">
+        <f>'Group Condition'!D77</f>
+        <v>X</v>
+      </c>
+      <c r="G85" s="34">
+        <f>'Group Condition'!E77</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="34">
+        <f>'Group Condition'!G77</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="34" t="str">
+        <f>'Group Condition'!I77</f>
+        <v/>
+      </c>
+      <c r="L85" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="O85" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="P85" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" t="str">
+        <f>IF(F86="X","H",IF(G86="X","L",IF(H86="X","C","G")))</f>
         <v>L</v>
       </c>
-      <c r="E85" s="34" t="str">
-        <f>IF('Group Condition'!J85="","",'Group Condition'!J85)</f>
-        <v/>
-      </c>
-      <c r="F85" s="34">
-        <f>'Group Condition'!D85</f>
-        <v>0</v>
-      </c>
-      <c r="G85" s="34" t="str">
-        <f>'Group Condition'!E85</f>
-        <v>X</v>
-      </c>
-      <c r="H85" s="34">
-        <f>'Group Condition'!G85</f>
-        <v>0</v>
-      </c>
-      <c r="I85" s="34" t="str">
-        <f>'Group Condition'!I85</f>
-        <v/>
-      </c>
-      <c r="O85" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P85" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>74</v>
-      </c>
-      <c r="B86">
-        <v>72</v>
-      </c>
-      <c r="C86" t="s">
-        <v>163</v>
-      </c>
-      <c r="D86" t="str">
-        <f t="shared" si="2"/>
+      <c r="E86" s="34" t="str">
+        <f>IF('Group Condition'!J78="","",'Group Condition'!J78)</f>
+        <v>no change</v>
+      </c>
+      <c r="F86" s="34">
+        <f>'Group Condition'!D78</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="34" t="str">
+        <f>'Group Condition'!E78</f>
+        <v>X</v>
+      </c>
+      <c r="H86" s="34">
+        <f>'Group Condition'!G78</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="34" t="str">
+        <f>'Group Condition'!I78</f>
+        <v/>
+      </c>
+      <c r="L86" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="O86" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" t="str">
+        <f>IF(F87="X","H",IF(G87="X","L",IF(H87="X","C","G")))</f>
         <v>L</v>
       </c>
-      <c r="E86" s="34" t="str">
-        <f>IF('Group Condition'!J86="","",'Group Condition'!J86)</f>
-        <v/>
-      </c>
-      <c r="F86" s="34">
-        <f>'Group Condition'!D86</f>
-        <v>0</v>
-      </c>
-      <c r="G86" s="34" t="str">
-        <f>'Group Condition'!E86</f>
-        <v>X</v>
-      </c>
-      <c r="H86" s="34">
-        <f>'Group Condition'!G86</f>
-        <v>0</v>
-      </c>
-      <c r="I86" s="34" t="str">
-        <f>'Group Condition'!I86</f>
-        <v/>
-      </c>
-      <c r="O86" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P86" s="13" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87">
-        <v>82</v>
-      </c>
-      <c r="C87" t="s">
-        <v>172</v>
-      </c>
-      <c r="D87" t="str">
-        <f t="shared" si="2"/>
-        <v>L</v>
-      </c>
       <c r="E87" s="34" t="str">
-        <f>IF('Group Condition'!J87="","",'Group Condition'!J87)</f>
-        <v>better</v>
+        <f>IF('Group Condition'!J81="","",'Group Condition'!J81)</f>
+        <v>worse</v>
       </c>
       <c r="F87" s="34">
-        <f>'Group Condition'!D87</f>
+        <f>'Group Condition'!D81</f>
         <v>0</v>
       </c>
       <c r="G87" s="34" t="str">
-        <f>'Group Condition'!E87</f>
+        <f>'Group Condition'!E81</f>
         <v>X</v>
       </c>
       <c r="H87" s="34">
-        <f>'Group Condition'!G87</f>
+        <f>'Group Condition'!G81</f>
         <v>0</v>
       </c>
       <c r="I87" s="34" t="str">
-        <f>'Group Condition'!I87</f>
-        <v/>
-      </c>
+        <f>'Group Condition'!I81</f>
+        <v/>
+      </c>
+      <c r="J87"/>
+      <c r="L87" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="M87"/>
+      <c r="N87"/>
       <c r="O87" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="P87" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -18344,12 +18376,12 @@
         <v>173</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D66:D88" si="0">IF(F88="X","H",IF(G88="X","L",IF(H88="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E88" s="34" t="str">
         <f>IF('Group Condition'!J88="","",'Group Condition'!J88)</f>
-        <v>better</v>
+        <v>worse</v>
       </c>
       <c r="F88" s="34">
         <f>'Group Condition'!D88</f>
@@ -18373,10 +18405,9 @@
       <c r="M88"/>
       <c r="N88"/>
       <c r="O88"/>
-      <c r="P88"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q88">
+  <autoFilter ref="A1:P88">
     <filterColumn colId="3">
       <filters>
         <filter val="C"/>
@@ -18384,9 +18415,17 @@
         <filter val="L"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="16">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="15">
       <filters blank="1"/>
     </filterColumn>
+    <sortState ref="A2:Q87">
+      <sortCondition ref="C1:C88"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18396,11 +18435,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="P14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="P13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S34" sqref="S34"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18470,19 +18509,19 @@
         <v>392</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -18681,7 +18720,7 @@
       </c>
       <c r="E6" s="7" t="str">
         <f>VLOOKUP(A6,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F6" s="6">
         <v>747664.42</v>
@@ -18807,7 +18846,7 @@
       </c>
       <c r="E9" s="7" t="str">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F9" s="6">
         <v>10265685.109999999</v>
@@ -19098,7 +19137,7 @@
       </c>
       <c r="E16" s="7" t="str">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F16" s="6">
         <v>100</v>
@@ -19415,7 +19454,7 @@
       </c>
       <c r="E23" s="7" t="str">
         <f>VLOOKUP(A23,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F23" s="6">
         <v>4928995.608</v>
@@ -19592,7 +19631,7 @@
       </c>
       <c r="E27" s="7" t="str">
         <f>VLOOKUP(A27,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F27" s="6">
         <v>1540000</v>
@@ -19860,7 +19899,7 @@
       </c>
       <c r="E33" s="7" t="str">
         <f>VLOOKUP(A33,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F33" s="6">
         <v>22940055.34</v>
@@ -20550,7 +20589,7 @@
       </c>
       <c r="E50" s="7" t="str">
         <f>VLOOKUP(A50,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F50" s="6">
         <v>60071048.259999998</v>
@@ -20592,7 +20631,7 @@
       </c>
       <c r="E51" s="7" t="str">
         <f>VLOOKUP(A51,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F51" s="6">
         <v>15150975.09</v>
@@ -20668,7 +20707,7 @@
       </c>
       <c r="E53" s="7" t="str">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F53" s="6">
         <v>357460.29800000001</v>
@@ -20748,7 +20787,7 @@
       </c>
       <c r="E55" s="7" t="str">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F55" s="6">
         <v>100</v>
@@ -20863,7 +20902,7 @@
       </c>
       <c r="E58" s="7" t="str">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F58" s="6">
         <v>7496.955054</v>
@@ -20942,7 +20981,7 @@
       </c>
       <c r="E60" s="7" t="str">
         <f>VLOOKUP(A60,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F60" s="6">
         <v>197000</v>
@@ -21253,34 +21292,34 @@
         <v>408</v>
       </c>
       <c r="N1" t="s">
+        <v>415</v>
+      </c>
+      <c r="O1" t="s">
+        <v>416</v>
+      </c>
+      <c r="P1" t="s">
         <v>417</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>418</v>
       </c>
-      <c r="P1" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>420</v>
-      </c>
       <c r="R1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="S1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="U1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="V1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="W1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -21476,7 +21515,7 @@
       </c>
       <c r="F6" s="7" t="str">
         <f>VLOOKUP(A6,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K6">
         <f>VLOOKUP(A6,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -21602,7 +21641,7 @@
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K9">
         <f>VLOOKUP(A9,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -21936,7 +21975,7 @@
       </c>
       <c r="F16" s="7" t="str">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K16">
         <f>VLOOKUP(A16,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -22292,7 +22331,7 @@
       </c>
       <c r="F23" s="7" t="str">
         <f>VLOOKUP(A23,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K23">
         <f>VLOOKUP(A23,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -22476,7 +22515,7 @@
       </c>
       <c r="F27" s="7" t="str">
         <f>VLOOKUP(A27,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K27">
         <f>VLOOKUP(A27,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -22728,7 +22767,7 @@
       </c>
       <c r="F33" s="7" t="str">
         <f>VLOOKUP(A33,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K33">
         <f>VLOOKUP(A33,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -23442,7 +23481,7 @@
       </c>
       <c r="F50" s="7" t="str">
         <f>VLOOKUP(A50,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K50">
         <f>VLOOKUP(A50,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -23484,7 +23523,7 @@
       </c>
       <c r="F51" s="7" t="str">
         <f>VLOOKUP(A51,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K51">
         <f>VLOOKUP(A51,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -23574,7 +23613,7 @@
       </c>
       <c r="F53" s="7" t="str">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K53">
         <f>VLOOKUP(A53,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -23658,7 +23697,7 @@
       </c>
       <c r="F55" s="7" t="str">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K55">
         <f>VLOOKUP(A55,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -23824,7 +23863,7 @@
       </c>
       <c r="F58" s="7" t="str">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K58">
         <f>VLOOKUP(A58,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -23908,7 +23947,7 @@
       </c>
       <c r="F60" s="7" t="str">
         <f>VLOOKUP(A60,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K60">
         <f>VLOOKUP(A60,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -24202,34 +24241,34 @@
         <v>408</v>
       </c>
       <c r="T1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="U1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="V1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="W1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="X1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Y1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Z1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AA1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AB1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AC1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -24526,7 +24565,7 @@
       </c>
       <c r="F6" s="7" t="str">
         <f>VLOOKUP(A6,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="G6">
         <f>D6*0.5</f>
@@ -24732,7 +24771,7 @@
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G9">
         <f>D9*0.5</f>
@@ -25164,7 +25203,7 @@
       </c>
       <c r="F16" s="7" t="str">
         <f>VLOOKUP(A16,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="H16"/>
       <c r="Q16">
@@ -25196,27 +25235,27 @@
         <v>4.0000000000000001E-8</v>
       </c>
       <c r="X16">
-        <f>V16*2</f>
+        <f t="shared" ref="X16:AC16" si="2">V16*2</f>
         <v>2E-8</v>
       </c>
       <c r="Y16">
-        <f>W16*2</f>
+        <f t="shared" si="2"/>
         <v>8.0000000000000002E-8</v>
       </c>
       <c r="Z16">
-        <f>X16*2</f>
+        <f t="shared" si="2"/>
         <v>4.0000000000000001E-8</v>
       </c>
       <c r="AA16">
-        <f>Y16*2</f>
+        <f t="shared" si="2"/>
         <v>1.6E-7</v>
       </c>
       <c r="AB16">
-        <f>Z16*2</f>
+        <f t="shared" si="2"/>
         <v>8.0000000000000002E-8</v>
       </c>
       <c r="AC16">
-        <f>AA16*2</f>
+        <f t="shared" si="2"/>
         <v>3.2000000000000001E-7</v>
       </c>
     </row>
@@ -25435,19 +25474,19 @@
         <v>1.8E-10</v>
       </c>
       <c r="V20">
-        <f t="shared" ref="V20:Y21" si="2">T20/2</f>
+        <f t="shared" ref="V20:Y21" si="3">T20/2</f>
         <v>1.125E-11</v>
       </c>
       <c r="W20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.9999999999999999E-11</v>
       </c>
       <c r="X20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.625E-12</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5E-11</v>
       </c>
       <c r="Z20">
@@ -25513,19 +25552,19 @@
         <v>8.5E-9</v>
       </c>
       <c r="V21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.25E-11</v>
       </c>
       <c r="W21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.25E-9</v>
       </c>
       <c r="X21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2500000000000002E-12</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.125E-9</v>
       </c>
     </row>
@@ -25605,7 +25644,7 @@
       </c>
       <c r="F23" s="7" t="str">
         <f>VLOOKUP(A23,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="H23"/>
       <c r="Q23">
@@ -25822,7 +25861,7 @@
       </c>
       <c r="F27" s="7" t="str">
         <f>VLOOKUP(A27,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="H27"/>
       <c r="M27" s="14">
@@ -26013,19 +26052,19 @@
         <v>3E-10</v>
       </c>
       <c r="V30">
-        <f t="shared" ref="V30:Y31" si="3">T30/2</f>
+        <f t="shared" ref="V30:Y31" si="4">T30/2</f>
         <v>1.4999999999999999E-13</v>
       </c>
       <c r="W30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5E-10</v>
       </c>
       <c r="X30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.4999999999999996E-14</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5E-11</v>
       </c>
       <c r="Z30">
@@ -26097,19 +26136,19 @@
         <v>3E-10</v>
       </c>
       <c r="V31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4999999999999999E-13</v>
       </c>
       <c r="W31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5E-10</v>
       </c>
       <c r="X31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.4999999999999996E-14</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5E-11</v>
       </c>
       <c r="Z31">
@@ -26208,7 +26247,7 @@
       </c>
       <c r="F33" s="7" t="str">
         <f>VLOOKUP(A33,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="G33">
         <f>D33*1.5</f>
@@ -26282,7 +26321,7 @@
         <v>3E-10</v>
       </c>
       <c r="S34">
-        <f t="shared" ref="S34:S64" si="4">IF(OR(Q34&lt;&gt;J34,R34&lt;&gt;K34),1,"")</f>
+        <f t="shared" ref="S34:S64" si="5">IF(OR(Q34&lt;&gt;J34,R34&lt;&gt;K34),1,"")</f>
         <v>1</v>
       </c>
       <c r="T34">
@@ -26294,11 +26333,11 @@
         <v>3E-10</v>
       </c>
       <c r="V34">
-        <f t="shared" ref="V34:W37" si="5">T34/2</f>
+        <f t="shared" ref="V34:W37" si="6">T34/2</f>
         <v>1.4999999999999999E-13</v>
       </c>
       <c r="W34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5E-10</v>
       </c>
     </row>
@@ -26350,7 +26389,7 @@
         <v>1E-10</v>
       </c>
       <c r="S35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T35">
@@ -26362,19 +26401,19 @@
         <v>3E-10</v>
       </c>
       <c r="V35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4999999999999999E-13</v>
       </c>
       <c r="W35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5E-10</v>
       </c>
       <c r="X35">
-        <f t="shared" ref="X35:Y37" si="6">V35/2</f>
+        <f t="shared" ref="X35:Y37" si="7">V35/2</f>
         <v>7.4999999999999996E-14</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5E-11</v>
       </c>
       <c r="Z35">
@@ -26427,7 +26466,7 @@
         <v>3E-10</v>
       </c>
       <c r="S36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T36">
@@ -26439,19 +26478,19 @@
         <v>3E-10</v>
       </c>
       <c r="V36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4999999999999999E-13</v>
       </c>
       <c r="W36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5E-10</v>
       </c>
       <c r="X36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.4999999999999996E-14</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5E-11</v>
       </c>
       <c r="Z36">
@@ -26511,7 +26550,7 @@
         <v>6E-10</v>
       </c>
       <c r="S37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T37">
@@ -26523,19 +26562,19 @@
         <v>3E-10</v>
       </c>
       <c r="V37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4999999999999999E-13</v>
       </c>
       <c r="W37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5E-10</v>
       </c>
       <c r="X37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.4999999999999996E-14</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.5E-11</v>
       </c>
       <c r="Z37">
@@ -26586,7 +26625,7 @@
         <v>3E-10</v>
       </c>
       <c r="S38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T38">
@@ -26659,7 +26698,7 @@
         <v>3E-10</v>
       </c>
       <c r="S39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T39">
@@ -26718,7 +26757,7 @@
         <v>3E-10</v>
       </c>
       <c r="S40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T40">
@@ -26774,7 +26813,7 @@
         <v>3E-9</v>
       </c>
       <c r="S41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T41">
@@ -26833,7 +26872,7 @@
         <v>1.9000000000000001E-9</v>
       </c>
       <c r="S42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T42">
@@ -26905,7 +26944,7 @@
         <v>2.0000000000000001E-13</v>
       </c>
       <c r="S43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T43">
@@ -26967,7 +27006,7 @@
         <v>5.2500000000000005E-10</v>
       </c>
       <c r="S44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T44">
@@ -27035,7 +27074,7 @@
         <v>5.2500000000000005E-10</v>
       </c>
       <c r="S45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T45">
@@ -27090,7 +27129,7 @@
         <v>3.4999999999999998E-10</v>
       </c>
       <c r="S46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T46">
@@ -27133,7 +27172,7 @@
         <v>4.4999999999999999E-8</v>
       </c>
       <c r="S47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T47">
@@ -27192,7 +27231,7 @@
         <v>4.4999999999999999E-8</v>
       </c>
       <c r="S48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T48">
@@ -27243,7 +27282,7 @@
         <v>4.4999999999999999E-8</v>
       </c>
       <c r="S49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T49">
@@ -27282,7 +27321,7 @@
       </c>
       <c r="F50" s="7" t="str">
         <f>VLOOKUP(A50,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="H50"/>
       <c r="Q50">
@@ -27294,7 +27333,7 @@
         <v>2.5000000000000001E-9</v>
       </c>
       <c r="S50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T50">
@@ -27339,7 +27378,7 @@
       </c>
       <c r="F51" s="7" t="str">
         <f>VLOOKUP(A51,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="H51"/>
       <c r="Q51">
@@ -27351,7 +27390,7 @@
         <v>2.5000000000000001E-9</v>
       </c>
       <c r="S51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T51">
@@ -27402,7 +27441,7 @@
         <v>2.5000000000000001E-9</v>
       </c>
       <c r="S52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T52">
@@ -27433,7 +27472,7 @@
       </c>
       <c r="F53" s="7" t="str">
         <f>VLOOKUP(A53,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="H53"/>
       <c r="K53" s="14">
@@ -27457,7 +27496,7 @@
         <v>1.3E-6</v>
       </c>
       <c r="S53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T53">
@@ -27528,7 +27567,7 @@
         <v>6.8999999999999996E-7</v>
       </c>
       <c r="S54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T54">
@@ -27567,7 +27606,7 @@
       </c>
       <c r="F55" s="7" t="str">
         <f>VLOOKUP(A55,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="H55"/>
       <c r="Q55">
@@ -27579,7 +27618,7 @@
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="S55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T55">
@@ -27591,27 +27630,27 @@
         <v>2.4999999999999999E-7</v>
       </c>
       <c r="V55">
-        <f t="shared" ref="V55:AA55" si="7">T55*2</f>
+        <f t="shared" ref="V55:AA55" si="8">T55*2</f>
         <v>1.1000000000000001E-6</v>
       </c>
       <c r="W55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="X55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2000000000000001E-6</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4000000000000002E-6</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="AB55">
@@ -27654,7 +27693,7 @@
         <v>3.15E-3</v>
       </c>
       <c r="S56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T56">
@@ -27697,7 +27736,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="S57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T57">
@@ -27709,19 +27748,19 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="V57">
-        <f t="shared" ref="V57:Y58" si="8">T57/2</f>
+        <f t="shared" ref="V57:Y58" si="9">T57/2</f>
         <v>1.25E-4</v>
       </c>
       <c r="W57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.2499999999999999E-3</v>
       </c>
       <c r="X57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.2500000000000001E-5</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.6249999999999999E-3</v>
       </c>
     </row>
@@ -27744,7 +27783,7 @@
       </c>
       <c r="F58" s="7" t="str">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="H58"/>
       <c r="Q58">
@@ -27756,7 +27795,7 @@
         <v>1.5E-5</v>
       </c>
       <c r="S58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T58">
@@ -27768,19 +27807,19 @@
         <v>1.5E-5</v>
       </c>
       <c r="V58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2500000000000001E-6</v>
       </c>
       <c r="W58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.5000000000000002E-6</v>
       </c>
       <c r="X58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.125E-6</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.7500000000000001E-6</v>
       </c>
       <c r="Z58">
@@ -27823,7 +27862,7 @@
         <v>1.5E-5</v>
       </c>
       <c r="S59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T59">
@@ -27854,7 +27893,7 @@
       </c>
       <c r="F60" s="7" t="str">
         <f>VLOOKUP(A60,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G60">
         <f>D60*1.5</f>
@@ -27885,7 +27924,7 @@
         <v>4.5E-10</v>
       </c>
       <c r="S60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T60">
@@ -27928,7 +27967,7 @@
         <v>1.7600000000000001E-3</v>
       </c>
       <c r="S61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T61">
@@ -27971,7 +28010,7 @@
         <v>1.7600000000000001E-3</v>
       </c>
       <c r="S62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T62">
@@ -28014,7 +28053,7 @@
         <v>1.7700000000000001E-3</v>
       </c>
       <c r="S63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T63">
@@ -28063,7 +28102,7 @@
         <v>1.7700000000000001E-3</v>
       </c>
       <c r="S64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T64">

--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" tabRatio="853" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" tabRatio="853" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Group Condition" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="446">
   <si>
     <t>Too Low</t>
   </si>
@@ -1380,19 +1380,13 @@
     <t>New_Init_CatchTS_5 mQ2</t>
   </si>
   <si>
-    <t>up init x10</t>
-  </si>
-  <si>
-    <t>lower early mum, higher later mum</t>
-  </si>
-  <si>
-    <t>lower later mum (5-10</t>
-  </si>
-  <si>
-    <t>lower mum older (7-10)</t>
-  </si>
-  <si>
-    <t>lower mum (6-10)</t>
+    <t>New_Init_CatchTS_6</t>
+  </si>
+  <si>
+    <t>New_Init_CatchTS_6 mQ1</t>
+  </si>
+  <si>
+    <t>New_Init_CatchTS_6 mQ2</t>
   </si>
 </sst>
 </file>
@@ -9345,7 +9339,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9417,11 +9411,11 @@
         <v>X</v>
       </c>
       <c r="I2" s="24" t="str">
-        <f>IF(OR(COUNTIF(D2:G2,"X")=0,COUNTIF(D2:G2,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" ref="I2:I33" si="0">IF(OR(COUNTIF(D2:G2,"X")=0,COUNTIF(D2:G2,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J2" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K2">
         <f>VLOOKUP(A2,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9444,8 +9438,11 @@
         <v/>
       </c>
       <c r="I3" s="24" t="str">
-        <f>IF(OR(COUNTIF(D3:G3,"X")=0,COUNTIF(D3:G3,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K3">
         <f>VLOOKUP(A3,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9471,8 +9468,11 @@
         <v/>
       </c>
       <c r="I4" s="24" t="str">
-        <f>IF(OR(COUNTIF(D4:G4,"X")=0,COUNTIF(D4:G4,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>437</v>
       </c>
       <c r="K4">
         <f>VLOOKUP(A4,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9490,13 +9490,19 @@
       <c r="C5" t="s">
         <v>164</v>
       </c>
+      <c r="E5" s="23" t="s">
+        <v>180</v>
+      </c>
       <c r="H5" s="22" t="str">
         <f>VLOOKUP(A5,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I5" s="24" t="str">
-        <f>IF(OR(COUNTIF(D5:G5,"X")=0,COUNTIF(D5:G5,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K5">
         <f>VLOOKUP(A5,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9522,8 +9528,11 @@
         <v/>
       </c>
       <c r="I6" s="24" t="str">
-        <f>IF(OR(COUNTIF(D6:G6,"X")=0,COUNTIF(D6:G6,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="K6">
         <f>VLOOKUP(A6,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9541,16 +9550,13 @@
       <c r="C7" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>180</v>
-      </c>
       <c r="H7" s="22" t="str">
         <f>VLOOKUP(A7,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I7" s="24" t="str">
-        <f>IF(OR(COUNTIF(D7:G7,"X")=0,COUNTIF(D7:G7,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>429</v>
@@ -9579,8 +9585,11 @@
         <v/>
       </c>
       <c r="I8" s="24" t="str">
-        <f>IF(OR(COUNTIF(D8:G8,"X")=0,COUNTIF(D8:G8,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="K8">
         <f>VLOOKUP(A8,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9603,11 +9612,11 @@
         <v>X</v>
       </c>
       <c r="I9" s="24" t="str">
-        <f>IF(OR(COUNTIF(D9:G9,"X")=0,COUNTIF(D9:G9,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K9">
         <f>VLOOKUP(A9,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9625,7 +9634,7 @@
       <c r="C10" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>180</v>
       </c>
       <c r="F10" s="29"/>
@@ -9634,11 +9643,11 @@
         <v>X</v>
       </c>
       <c r="I10" s="24" t="str">
-        <f>IF(OR(COUNTIF(D10:G10,"X")=0,COUNTIF(D10:G10,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J10" s="13" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="K10">
         <f>VLOOKUP(A10,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9664,11 +9673,11 @@
         <v/>
       </c>
       <c r="I11" s="24" t="str">
-        <f>IF(OR(COUNTIF(D11:G11,"X")=0,COUNTIF(D11:G11,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J11" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K11">
         <f>VLOOKUP(A11,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9694,8 +9703,11 @@
         <v/>
       </c>
       <c r="I12" s="24" t="str">
-        <f>IF(OR(COUNTIF(D12:G12,"X")=0,COUNTIF(D12:G12,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>437</v>
       </c>
       <c r="K12">
         <f>VLOOKUP(A12,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9713,13 +9725,19 @@
       <c r="C13" t="s">
         <v>176</v>
       </c>
+      <c r="E13" s="23" t="s">
+        <v>180</v>
+      </c>
       <c r="H13" s="22" t="str">
         <f>VLOOKUP(A13,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I13" s="24" t="str">
-        <f>IF(OR(COUNTIF(D13:G13,"X")=0,COUNTIF(D13:G13,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K13">
         <f>VLOOKUP(A13,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9742,11 +9760,11 @@
         <v>X</v>
       </c>
       <c r="I14" s="24" t="str">
-        <f>IF(OR(COUNTIF(D14:G14,"X")=0,COUNTIF(D14:G14,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K14">
         <f>VLOOKUP(A14,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9772,11 +9790,11 @@
         <v>X</v>
       </c>
       <c r="I15" s="24" t="str">
-        <f>IF(OR(COUNTIF(D15:G15,"X")=0,COUNTIF(D15:G15,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J15" s="13" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="K15">
         <f>VLOOKUP(A15,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9802,7 +9820,7 @@
         <v>X</v>
       </c>
       <c r="I16" s="24" t="str">
-        <f>IF(OR(COUNTIF(D16:G16,"X")=0,COUNTIF(D16:G16,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J16" s="13" t="s">
@@ -9829,7 +9847,7 @@
         <v/>
       </c>
       <c r="I17" s="24" t="str">
-        <f>IF(OR(COUNTIF(D17:G17,"X")=0,COUNTIF(D17:G17,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="K17">
@@ -9856,8 +9874,11 @@
         <v/>
       </c>
       <c r="I18" s="24" t="str">
-        <f>IF(OR(COUNTIF(D18:G18,"X")=0,COUNTIF(D18:G18,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>437</v>
       </c>
       <c r="K18">
         <f>VLOOKUP(A18,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9880,7 +9901,7 @@
         <v>X</v>
       </c>
       <c r="I19" s="24" t="str">
-        <f>IF(OR(COUNTIF(D19:G19,"X")=0,COUNTIF(D19:G19,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="J19" s="13" t="s">
@@ -9907,8 +9928,11 @@
         <v/>
       </c>
       <c r="I20" s="24" t="str">
-        <f>IF(OR(COUNTIF(D20:G20,"X")=0,COUNTIF(D20:G20,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="K20">
         <f>VLOOKUP(A20,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9931,7 +9955,7 @@
         <v/>
       </c>
       <c r="I21" s="24" t="str">
-        <f>IF(OR(COUNTIF(D21:G21,"X")=0,COUNTIF(D21:G21,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="K21">
@@ -9950,13 +9974,19 @@
       <c r="C22" t="s">
         <v>133</v>
       </c>
+      <c r="D22" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H22" s="22" t="str">
         <f>VLOOKUP(A22,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I22" s="24" t="str">
-        <f>IF(OR(COUNTIF(D22:G22,"X")=0,COUNTIF(D22:G22,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K22">
         <f>VLOOKUP(A22,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9979,7 +10009,7 @@
         <v/>
       </c>
       <c r="I23" s="24" t="str">
-        <f>IF(OR(COUNTIF(D23:G23,"X")=0,COUNTIF(D23:G23,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="K23">
@@ -9998,7 +10028,7 @@
       <c r="C24" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H24" s="22" t="str">
@@ -10006,7 +10036,7 @@
         <v>X</v>
       </c>
       <c r="I24" s="24" t="str">
-        <f>IF(OR(COUNTIF(D24:G24,"X")=0,COUNTIF(D24:G24,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J24" s="13" t="s">
@@ -10033,8 +10063,11 @@
         <v>X</v>
       </c>
       <c r="I25" s="24" t="str">
-        <f>IF(OR(COUNTIF(D25:G25,"X")=0,COUNTIF(D25:G25,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K25">
         <f>VLOOKUP(A25,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10060,7 +10093,7 @@
         <v>X</v>
       </c>
       <c r="I26" s="24" t="str">
-        <f>IF(OR(COUNTIF(D26:G26,"X")=0,COUNTIF(D26:G26,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J26" s="13" t="s">
@@ -10087,7 +10120,7 @@
         <v>X</v>
       </c>
       <c r="I27" s="24" t="str">
-        <f>IF(OR(COUNTIF(D27:G27,"X")=0,COUNTIF(D27:G27,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="J27" s="13" t="s">
@@ -10109,13 +10142,19 @@
       <c r="C28" t="s">
         <v>103</v>
       </c>
+      <c r="D28" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H28" s="22" t="str">
         <f>VLOOKUP(A28,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I28" s="24" t="str">
-        <f>IF(OR(COUNTIF(D28:G28,"X")=0,COUNTIF(D28:G28,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K28">
         <f>VLOOKUP(A28,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10133,16 +10172,13 @@
       <c r="C29" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="H29" s="22" t="str">
         <f>VLOOKUP(A29,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I29" s="24" t="str">
-        <f>IF(OR(COUNTIF(D29:G29,"X")=0,COUNTIF(D29:G29,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>X</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>429</v>
@@ -10163,6 +10199,9 @@
       <c r="C30" t="s">
         <v>111</v>
       </c>
+      <c r="D30" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="G30" s="24" t="s">
         <v>180</v>
       </c>
@@ -10171,11 +10210,11 @@
         <v>X</v>
       </c>
       <c r="I30" s="24" t="str">
-        <f>IF(OR(COUNTIF(D30:G30,"X")=0,COUNTIF(D30:G30,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J30" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K30">
         <f>VLOOKUP(A30,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10201,11 +10240,11 @@
         <v>X</v>
       </c>
       <c r="I31" s="24" t="str">
-        <f>IF(OR(COUNTIF(D31:G31,"X")=0,COUNTIF(D31:G31,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J31" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K31">
         <f>VLOOKUP(A31,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10231,7 +10270,7 @@
         <v>X</v>
       </c>
       <c r="I32" s="24" t="str">
-        <f>IF(OR(COUNTIF(D32:G32,"X")=0,COUNTIF(D32:G32,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J32" s="13" t="s">
@@ -10261,11 +10300,11 @@
         <v>X</v>
       </c>
       <c r="I33" s="24" t="str">
-        <f>IF(OR(COUNTIF(D33:G33,"X")=0,COUNTIF(D33:G33,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J33" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K33">
         <f>VLOOKUP(A33,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10288,7 +10327,7 @@
         <v/>
       </c>
       <c r="I34" s="24" t="str">
-        <f>IF(OR(COUNTIF(D34:G34,"X")=0,COUNTIF(D34:G34,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" ref="I34:I65" si="1">IF(OR(COUNTIF(D34:G34,"X")=0,COUNTIF(D34:G34,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="J34" s="13" t="s">
@@ -10315,7 +10354,7 @@
         <v/>
       </c>
       <c r="I35" s="24" t="str">
-        <f>IF(OR(COUNTIF(D35:G35,"X")=0,COUNTIF(D35:G35,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K35">
@@ -10334,9 +10373,6 @@
       <c r="C36" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="22" t="s">
-        <v>180</v>
-      </c>
       <c r="G36" s="24" t="s">
         <v>180</v>
       </c>
@@ -10345,8 +10381,11 @@
         <v/>
       </c>
       <c r="I36" s="24" t="str">
-        <f>IF(OR(COUNTIF(D36:G36,"X")=0,COUNTIF(D36:G36,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>437</v>
       </c>
       <c r="K36">
         <f>VLOOKUP(A36,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10372,8 +10411,11 @@
         <v>X</v>
       </c>
       <c r="I37" s="24" t="str">
-        <f>IF(OR(COUNTIF(D37:G37,"X")=0,COUNTIF(D37:G37,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="K37">
         <f>VLOOKUP(A37,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10396,7 +10438,7 @@
         <v/>
       </c>
       <c r="I38" s="24" t="str">
-        <f>IF(OR(COUNTIF(D38:G38,"X")=0,COUNTIF(D38:G38,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K38">
@@ -10420,7 +10462,7 @@
         <v/>
       </c>
       <c r="I39" s="24" t="str">
-        <f>IF(OR(COUNTIF(D39:G39,"X")=0,COUNTIF(D39:G39,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K39">
@@ -10447,11 +10489,11 @@
         <v>X</v>
       </c>
       <c r="I40" s="24" t="str">
-        <f>IF(OR(COUNTIF(D40:G40,"X")=0,COUNTIF(D40:G40,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J40" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K40">
         <f>VLOOKUP(A40,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10477,11 +10519,11 @@
         <v>X</v>
       </c>
       <c r="I41" s="24" t="str">
-        <f>IF(OR(COUNTIF(D41:G41,"X")=0,COUNTIF(D41:G41,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J41" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K41">
         <f>VLOOKUP(A41,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10507,11 +10549,11 @@
         <v>X</v>
       </c>
       <c r="I42" s="24" t="str">
-        <f>IF(OR(COUNTIF(D42:G42,"X")=0,COUNTIF(D42:G42,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J42" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K42">
         <f>VLOOKUP(A42,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10534,7 +10576,7 @@
         <v/>
       </c>
       <c r="I43" s="24" t="str">
-        <f>IF(OR(COUNTIF(D43:G43,"X")=0,COUNTIF(D43:G43,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K43">
@@ -10553,16 +10595,22 @@
       <c r="C44" t="s">
         <v>116</v>
       </c>
+      <c r="D44" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>180</v>
+      </c>
       <c r="H44" s="22" t="str">
         <f>VLOOKUP(A44,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I44" s="24" t="str">
-        <f>IF(OR(COUNTIF(D44:G44,"X")=0,COUNTIF(D44:G44,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J44" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K44">
         <f>VLOOKUP(A44,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10588,11 +10636,11 @@
         <v>X</v>
       </c>
       <c r="I45" s="24" t="str">
-        <f>IF(OR(COUNTIF(D45:G45,"X")=0,COUNTIF(D45:G45,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J45" s="13" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K45">
         <f>VLOOKUP(A45,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10615,7 +10663,7 @@
         <v/>
       </c>
       <c r="I46" s="24" t="str">
-        <f>IF(OR(COUNTIF(D46:G46,"X")=0,COUNTIF(D46:G46,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K46">
@@ -10639,8 +10687,11 @@
         <v/>
       </c>
       <c r="I47" s="24" t="str">
-        <f>IF(OR(COUNTIF(D47:G47,"X")=0,COUNTIF(D47:G47,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K47">
         <f>VLOOKUP(A47,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10663,7 +10714,7 @@
         <v/>
       </c>
       <c r="I48" s="24" t="str">
-        <f>IF(OR(COUNTIF(D48:G48,"X")=0,COUNTIF(D48:G48,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K48">
@@ -10687,7 +10738,7 @@
         <v/>
       </c>
       <c r="I49" s="24" t="str">
-        <f>IF(OR(COUNTIF(D49:G49,"X")=0,COUNTIF(D49:G49,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K49">
@@ -10706,7 +10757,7 @@
       <c r="C50" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="D50" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H50" s="22" t="str">
@@ -10714,11 +10765,11 @@
         <v>X</v>
       </c>
       <c r="I50" s="24" t="str">
-        <f>IF(OR(COUNTIF(D50:G50,"X")=0,COUNTIF(D50:G50,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J50" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K50">
         <f>VLOOKUP(A50,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10736,16 +10787,19 @@
       <c r="C51" t="s">
         <v>117</v>
       </c>
+      <c r="D51" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H51" s="22" t="str">
         <f>VLOOKUP(A51,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I51" s="24" t="str">
-        <f>IF(OR(COUNTIF(D51:G51,"X")=0,COUNTIF(D51:G51,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J51" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K51">
         <f>VLOOKUP(A51,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10768,7 +10822,7 @@
         <v>X</v>
       </c>
       <c r="I52" s="24" t="str">
-        <f>IF(OR(COUNTIF(D52:G52,"X")=0,COUNTIF(D52:G52,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K52">
@@ -10792,7 +10846,7 @@
         <v/>
       </c>
       <c r="I53" s="24" t="str">
-        <f>IF(OR(COUNTIF(D53:G53,"X")=0,COUNTIF(D53:G53,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K53">
@@ -10816,8 +10870,11 @@
         <v>X</v>
       </c>
       <c r="I54" s="24" t="str">
-        <f>IF(OR(COUNTIF(D54:G54,"X")=0,COUNTIF(D54:G54,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K54">
         <f>VLOOKUP(A54,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10843,8 +10900,11 @@
         <v/>
       </c>
       <c r="I55" s="24" t="str">
-        <f>IF(OR(COUNTIF(D55:G55,"X")=0,COUNTIF(D55:G55,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="K55">
         <f>VLOOKUP(A55,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10867,11 +10927,11 @@
         <v/>
       </c>
       <c r="I56" s="24" t="str">
-        <f>IF(OR(COUNTIF(D56:G56,"X")=0,COUNTIF(D56:G56,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K56">
         <f>VLOOKUP(A56,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10894,8 +10954,11 @@
         <v>X</v>
       </c>
       <c r="I57" s="24" t="str">
-        <f>IF(OR(COUNTIF(D57:G57,"X")=0,COUNTIF(D57:G57,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K57">
         <f>VLOOKUP(A57,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10918,11 +10981,11 @@
         <v>X</v>
       </c>
       <c r="I58" s="24" t="str">
-        <f>IF(OR(COUNTIF(D58:G58,"X")=0,COUNTIF(D58:G58,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K58">
         <f>VLOOKUP(A58,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10940,13 +11003,19 @@
       <c r="C59" t="s">
         <v>118</v>
       </c>
+      <c r="E59" s="23" t="s">
+        <v>180</v>
+      </c>
       <c r="H59" s="22" t="str">
         <f>VLOOKUP(A59,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I59" s="24" t="str">
-        <f>IF(OR(COUNTIF(D59:G59,"X")=0,COUNTIF(D59:G59,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K59">
         <f>VLOOKUP(A59,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10969,7 +11038,7 @@
         <v/>
       </c>
       <c r="I60" s="24" t="str">
-        <f>IF(OR(COUNTIF(D60:G60,"X")=0,COUNTIF(D60:G60,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="K60">
@@ -10996,11 +11065,11 @@
         <v>X</v>
       </c>
       <c r="I61" s="24" t="str">
-        <f>IF(OR(COUNTIF(D61:G61,"X")=0,COUNTIF(D61:G61,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J61" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K61">
         <f>VLOOKUP(A61,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11023,11 +11092,11 @@
         <v/>
       </c>
       <c r="I62" s="24" t="str">
-        <f>IF(OR(COUNTIF(D62:G62,"X")=0,COUNTIF(D62:G62,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K62">
         <f>VLOOKUP(A62,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11053,8 +11122,11 @@
         <v/>
       </c>
       <c r="I63" s="24" t="str">
-        <f>IF(OR(COUNTIF(D63:G63,"X")=0,COUNTIF(D63:G63,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="K63">
         <f>VLOOKUP(A63,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11072,7 +11144,7 @@
       <c r="C64" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="D64" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H64" s="22" t="str">
@@ -11080,11 +11152,11 @@
         <v>X</v>
       </c>
       <c r="I64" s="24" t="str">
-        <f>IF(OR(COUNTIF(D64:G64,"X")=0,COUNTIF(D64:G64,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J64" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K64">
         <f>VLOOKUP(A64,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11110,11 +11182,11 @@
         <v>X</v>
       </c>
       <c r="I65" s="24" t="str">
-        <f>IF(OR(COUNTIF(D65:G65,"X")=0,COUNTIF(D65:G65,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J65" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K65">
         <f>VLOOKUP(A65,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11140,11 +11212,8 @@
         <v/>
       </c>
       <c r="I66" s="24" t="str">
-        <f>IF(OR(COUNTIF(D66:G66,"X")=0,COUNTIF(D66:G66,"B")&lt;&gt;0),"X","")</f>
-        <v/>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>430</v>
+        <f t="shared" ref="I66:I88" si="2">IF(OR(COUNTIF(D66:G66,"X")=0,COUNTIF(D66:G66,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K66">
         <f>VLOOKUP(A66,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11170,11 +11239,11 @@
         <v>X</v>
       </c>
       <c r="I67" s="24" t="str">
-        <f>IF(OR(COUNTIF(D67:G67,"X")=0,COUNTIF(D67:G67,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J67" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K67">
         <f>VLOOKUP(A67,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11192,13 +11261,19 @@
       <c r="C68" t="s">
         <v>142</v>
       </c>
+      <c r="E68" s="29" t="s">
+        <v>180</v>
+      </c>
       <c r="H68" s="22" t="str">
         <f>VLOOKUP(A68,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I68" s="24" t="str">
-        <f>IF(OR(COUNTIF(D68:G68,"X")=0,COUNTIF(D68:G68,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K68">
         <f>VLOOKUP(A68,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11216,13 +11291,19 @@
       <c r="C69" t="s">
         <v>134</v>
       </c>
+      <c r="D69" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H69" s="22" t="str">
         <f>VLOOKUP(A69,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I69" s="24" t="str">
-        <f>IF(OR(COUNTIF(D69:G69,"X")=0,COUNTIF(D69:G69,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K69">
         <f>VLOOKUP(A69,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11245,8 +11326,11 @@
         <v>X</v>
       </c>
       <c r="I70" s="24" t="str">
-        <f>IF(OR(COUNTIF(D70:G70,"X")=0,COUNTIF(D70:G70,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v>X</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K70">
         <f>VLOOKUP(A70,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11272,11 +11356,11 @@
         <v>X</v>
       </c>
       <c r="I71" s="24" t="str">
-        <f>IF(OR(COUNTIF(D71:G71,"X")=0,COUNTIF(D71:G71,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J71" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K71">
         <f>VLOOKUP(A71,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11294,6 +11378,9 @@
       <c r="C72" t="s">
         <v>97</v>
       </c>
+      <c r="D72" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="G72" s="24" t="s">
         <v>180</v>
       </c>
@@ -11302,11 +11389,11 @@
         <v>X</v>
       </c>
       <c r="I72" s="24" t="str">
-        <f>IF(OR(COUNTIF(D72:G72,"X")=0,COUNTIF(D72:G72,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J72" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K72">
         <f>VLOOKUP(A72,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11332,7 +11419,7 @@
         <v/>
       </c>
       <c r="I73" s="24" t="str">
-        <f>IF(OR(COUNTIF(D73:G73,"X")=0,COUNTIF(D73:G73,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K73">
@@ -11351,6 +11438,9 @@
       <c r="C74" t="s">
         <v>127</v>
       </c>
+      <c r="D74" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="E74" s="23" t="s">
         <v>180</v>
       </c>
@@ -11359,11 +11449,11 @@
         <v>X</v>
       </c>
       <c r="I74" s="24" t="str">
-        <f>IF(OR(COUNTIF(D74:G74,"X")=0,COUNTIF(D74:G74,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J74" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K74">
         <f>VLOOKUP(A74,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11386,8 +11476,11 @@
         <v>X</v>
       </c>
       <c r="I75" s="24" t="str">
-        <f>IF(OR(COUNTIF(D75:G75,"X")=0,COUNTIF(D75:G75,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v>X</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K75">
         <f>VLOOKUP(A75,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11410,7 +11503,7 @@
         <v/>
       </c>
       <c r="I76" s="24" t="str">
-        <f>IF(OR(COUNTIF(D76:G76,"X")=0,COUNTIF(D76:G76,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v>X</v>
       </c>
       <c r="K76">
@@ -11437,7 +11530,7 @@
         <v>X</v>
       </c>
       <c r="I77" s="24" t="str">
-        <f>IF(OR(COUNTIF(D77:G77,"X")=0,COUNTIF(D77:G77,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J77" s="13" t="s">
@@ -11459,7 +11552,7 @@
       <c r="C78" t="s">
         <v>94</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="D78" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H78" s="22" t="str">
@@ -11467,11 +11560,11 @@
         <v>X</v>
       </c>
       <c r="I78" s="24" t="str">
-        <f>IF(OR(COUNTIF(D78:G78,"X")=0,COUNTIF(D78:G78,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J78" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K78">
         <f>VLOOKUP(A78,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11489,16 +11582,19 @@
       <c r="C79" t="s">
         <v>98</v>
       </c>
+      <c r="D79" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H79" s="22" t="str">
         <f>VLOOKUP(A79,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I79" s="24" t="str">
-        <f>IF(OR(COUNTIF(D79:G79,"X")=0,COUNTIF(D79:G79,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="J79" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K79">
         <f>VLOOKUP(A79,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11516,16 +11612,19 @@
       <c r="C80" t="s">
         <v>128</v>
       </c>
+      <c r="D80" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H80" s="22" t="str">
         <f>VLOOKUP(A80,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I80" s="24" t="str">
-        <f>IF(OR(COUNTIF(D80:G80,"X")=0,COUNTIF(D80:G80,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="J80" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K80">
         <f>VLOOKUP(A80,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11543,7 +11642,7 @@
       <c r="C81" t="s">
         <v>96</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="D81" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H81" s="22" t="str">
@@ -11551,7 +11650,7 @@
         <v>X</v>
       </c>
       <c r="I81" s="24" t="str">
-        <f>IF(OR(COUNTIF(D81:G81,"X")=0,COUNTIF(D81:G81,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J81" s="13" t="s">
@@ -11573,16 +11672,19 @@
       <c r="C82" t="s">
         <v>140</v>
       </c>
+      <c r="D82" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H82" s="22" t="str">
         <f>VLOOKUP(A82,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I82" s="24" t="str">
-        <f>IF(OR(COUNTIF(D82:G82,"X")=0,COUNTIF(D82:G82,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="J82" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K82">
         <f>VLOOKUP(A82,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11600,16 +11702,19 @@
       <c r="C83" t="s">
         <v>99</v>
       </c>
+      <c r="D83" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H83" s="22" t="str">
         <f>VLOOKUP(A83,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I83" s="24" t="str">
-        <f>IF(OR(COUNTIF(D83:G83,"X")=0,COUNTIF(D83:G83,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="J83" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K83">
         <f>VLOOKUP(A83,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11627,13 +11732,16 @@
       <c r="C84" t="s">
         <v>132</v>
       </c>
+      <c r="D84" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H84" s="22" t="str">
         <f>VLOOKUP(A84,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I84" s="24" t="str">
-        <f>IF(OR(COUNTIF(D84:G84,"X")=0,COUNTIF(D84:G84,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="J84" s="13" t="s">
         <v>429</v>
@@ -11662,11 +11770,11 @@
         <v/>
       </c>
       <c r="I85" s="24" t="str">
-        <f>IF(OR(COUNTIF(D85:G85,"X")=0,COUNTIF(D85:G85,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J85" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K85">
         <f>VLOOKUP(A85,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11692,7 +11800,7 @@
         <v/>
       </c>
       <c r="I86" s="24" t="str">
-        <f>IF(OR(COUNTIF(D86:G86,"X")=0,COUNTIF(D86:G86,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J86" s="13" t="s">
@@ -11722,11 +11830,11 @@
         <v/>
       </c>
       <c r="I87" s="24" t="str">
-        <f>IF(OR(COUNTIF(D87:G87,"X")=0,COUNTIF(D87:G87,"B")&lt;&gt;0),"X","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J87" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K87">
         <f>VLOOKUP(A87,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11744,13 +11852,16 @@
       <c r="C88" t="s">
         <v>173</v>
       </c>
+      <c r="E88" s="29" t="s">
+        <v>180</v>
+      </c>
       <c r="H88" s="22" t="str">
         <f>VLOOKUP(A88,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I88" s="24" t="str">
-        <f>IF(OR(COUNTIF(D88:G88,"X")=0,COUNTIF(D88:G88,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="J88" s="13" t="s">
         <v>431</v>
@@ -14761,11 +14872,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2:J73"/>
+      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14778,7 +14889,7 @@
     <col min="6" max="6" width="8.21875" style="34" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="8.109375" style="34" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" style="34" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="34" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="34" hidden="1" customWidth="1"/>
     <col min="10" max="15" width="12.21875" style="13" customWidth="1"/>
     <col min="16" max="16" width="12.21875" customWidth="1"/>
   </cols>
@@ -14833,41 +14944,47 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(F2="X","H",IF(G2="X","L",IF(H2="X","C","G")))</f>
+        <f t="shared" ref="D2:D33" si="0">IF(F2="X","H",IF(G2="X","L",IF(H2="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>IF('Group Condition'!J50="","",'Group Condition'!J50)</f>
+        <f>IF('Group Condition'!J40="","",'Group Condition'!J40)</f>
         <v>no change</v>
       </c>
       <c r="F2" s="34">
-        <f>'Group Condition'!D50</f>
+        <f>'Group Condition'!D40</f>
         <v>0</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>'Group Condition'!E50</f>
+        <f>'Group Condition'!E40</f>
         <v>X</v>
       </c>
       <c r="H2" s="34">
-        <f>'Group Condition'!G50</f>
+        <f>'Group Condition'!G40</f>
         <v>0</v>
       </c>
       <c r="I2" s="34" t="str">
-        <f>'Group Condition'!I50</f>
-        <v/>
-      </c>
-      <c r="J2" s="13" t="s">
+        <f>'Group Condition'!I40</f>
+        <v/>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>410</v>
       </c>
       <c r="O2" s="13" t="s">
@@ -14885,12 +15002,12 @@
         <v>175</v>
       </c>
       <c r="D3" t="str">
-        <f>IF(F3="X","H",IF(G3="X","L",IF(H3="X","C","G")))</f>
+        <f t="shared" si="0"/>
         <v>G</v>
       </c>
       <c r="E3" s="34" t="str">
         <f>IF('Group Condition'!J3="","",'Group Condition'!J3)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F3" s="34">
         <f>'Group Condition'!D3</f>
@@ -14926,12 +15043,12 @@
         <v>167</v>
       </c>
       <c r="D4" t="str">
-        <f>IF(F4="X","H",IF(G4="X","L",IF(H4="X","C","G")))</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="E4" s="34" t="str">
         <f>IF('Group Condition'!J4="","",'Group Condition'!J4)</f>
-        <v/>
+        <v>invert</v>
       </c>
       <c r="F4" s="34">
         <f>'Group Condition'!D4</f>
@@ -14964,20 +15081,20 @@
         <v>164</v>
       </c>
       <c r="D5" t="str">
-        <f>IF(F5="X","H",IF(G5="X","L",IF(H5="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="0"/>
+        <v>L</v>
       </c>
       <c r="E5" s="34" t="str">
         <f>IF('Group Condition'!J5="","",'Group Condition'!J5)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F5" s="34">
         <f>'Group Condition'!D5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="34" t="str">
         <f>'Group Condition'!E5</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H5" s="34">
         <f>'Group Condition'!G5</f>
@@ -14985,7 +15102,7 @@
       </c>
       <c r="I5" s="34" t="str">
         <f>'Group Condition'!I5</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -15008,12 +15125,12 @@
         <v>156</v>
       </c>
       <c r="D6" t="str">
-        <f>IF(F6="X","H",IF(G6="X","L",IF(H6="X","C","G")))</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="E6" s="34" t="str">
         <f>IF('Group Condition'!J6="","",'Group Condition'!J6)</f>
-        <v/>
+        <v>better</v>
       </c>
       <c r="F6" s="34">
         <f>'Group Condition'!D6</f>
@@ -15035,38 +15152,38 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D7" t="str">
-        <f>IF(F7="X","H",IF(G7="X","L",IF(H7="X","C","G")))</f>
+        <f t="shared" si="0"/>
         <v>L</v>
       </c>
       <c r="E7" s="34" t="str">
-        <f>IF('Group Condition'!J2="","",'Group Condition'!J2)</f>
-        <v>no change</v>
+        <f>IF('Group Condition'!J33="","",'Group Condition'!J33)</f>
+        <v>better</v>
       </c>
       <c r="F7" s="34">
-        <f>'Group Condition'!D2</f>
+        <f>'Group Condition'!D33</f>
         <v>0</v>
       </c>
       <c r="G7" s="34" t="str">
-        <f>'Group Condition'!E2</f>
+        <f>'Group Condition'!E33</f>
         <v>X</v>
       </c>
       <c r="H7" s="34">
-        <f>'Group Condition'!G2</f>
+        <f>'Group Condition'!G33</f>
         <v>0</v>
       </c>
       <c r="I7" s="34" t="str">
-        <f>'Group Condition'!I2</f>
+        <f>'Group Condition'!I33</f>
         <v/>
       </c>
       <c r="J7" s="13" t="s">
@@ -15090,12 +15207,12 @@
         <v>157</v>
       </c>
       <c r="D8" t="str">
-        <f>IF(F8="X","H",IF(G8="X","L",IF(H8="X","C","G")))</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="E8" s="34" t="str">
         <f>IF('Group Condition'!J8="","",'Group Condition'!J8)</f>
-        <v/>
+        <v>better</v>
       </c>
       <c r="F8" s="34">
         <f>'Group Condition'!D8</f>
@@ -15128,12 +15245,12 @@
         <v>106</v>
       </c>
       <c r="D9" t="str">
-        <f>IF(F9="X","H",IF(G9="X","L",IF(H9="X","C","G")))</f>
+        <f t="shared" si="0"/>
         <v>G</v>
       </c>
       <c r="E9" s="34" t="str">
         <f>IF('Group Condition'!J9="","",'Group Condition'!J9)</f>
-        <v>better</v>
+        <v>no change</v>
       </c>
       <c r="F9" s="34">
         <f>'Group Condition'!D9</f>
@@ -15160,54 +15277,46 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" t="str">
         <f>IF(F10="X","H",IF(G10="X","L",IF(H10="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E10" s="34" t="str">
-        <f>IF('Group Condition'!J7="","",'Group Condition'!J7)</f>
-        <v>better</v>
+        <f>IF('Group Condition'!J50="","",'Group Condition'!J50)</f>
+        <v>worse</v>
       </c>
       <c r="F10" s="34" t="str">
-        <f>'Group Condition'!D7</f>
+        <f>'Group Condition'!D50</f>
         <v>X</v>
       </c>
       <c r="G10" s="34">
-        <f>'Group Condition'!E7</f>
+        <f>'Group Condition'!E50</f>
         <v>0</v>
       </c>
       <c r="H10" s="34">
-        <f>'Group Condition'!G7</f>
+        <f>'Group Condition'!G50</f>
         <v>0</v>
       </c>
       <c r="I10" s="34" t="str">
-        <f>'Group Condition'!I7</f>
-        <v/>
-      </c>
-      <c r="J10" t="s">
-        <v>411</v>
-      </c>
-      <c r="K10" t="s">
+        <f>'Group Condition'!I50</f>
+        <v/>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -15266,7 +15375,7 @@
       </c>
       <c r="E12" s="34" t="str">
         <f>IF('Group Condition'!J12="","",'Group Condition'!J12)</f>
-        <v/>
+        <v>invert</v>
       </c>
       <c r="F12" s="34">
         <f>'Group Condition'!D12</f>
@@ -15300,19 +15409,19 @@
       </c>
       <c r="D13" t="str">
         <f>IF(F13="X","H",IF(G13="X","L",IF(H13="X","C","G")))</f>
-        <v>G</v>
+        <v>L</v>
       </c>
       <c r="E13" s="34" t="str">
         <f>IF('Group Condition'!J13="","",'Group Condition'!J13)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F13" s="34">
         <f>'Group Condition'!D13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="34" t="str">
         <f>'Group Condition'!E13</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H13" s="34">
         <f>'Group Condition'!G13</f>
@@ -15320,7 +15429,7 @@
       </c>
       <c r="I13" s="34" t="str">
         <f>'Group Condition'!I13</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J13"/>
       <c r="K13"/>
@@ -15362,96 +15471,87 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="D15" t="str">
         <f>IF(F15="X","H",IF(G15="X","L",IF(H15="X","C","G")))</f>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="E15" s="34" t="str">
-        <f>IF('Group Condition'!J33="","",'Group Condition'!J33)</f>
-        <v>no change</v>
-      </c>
-      <c r="F15" s="34">
-        <f>'Group Condition'!D33</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="34" t="str">
-        <f>'Group Condition'!E33</f>
+        <f>IF('Group Condition'!J65="","",'Group Condition'!J65)</f>
+        <v>worse</v>
+      </c>
+      <c r="F15" s="34" t="str">
+        <f>'Group Condition'!D65</f>
         <v>X</v>
       </c>
+      <c r="G15" s="34">
+        <f>'Group Condition'!E65</f>
+        <v>0</v>
+      </c>
       <c r="H15" s="34">
-        <f>'Group Condition'!G33</f>
+        <f>'Group Condition'!G65</f>
         <v>0</v>
       </c>
       <c r="I15" s="34" t="str">
-        <f>'Group Condition'!I33</f>
+        <f>'Group Condition'!I65</f>
         <v/>
       </c>
       <c r="J15" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="N15" s="13" t="s">
-        <v>410</v>
-      </c>
       <c r="O15" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="P15" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D16" t="str">
         <f>IF(F16="X","H",IF(G16="X","L",IF(H16="X","C","G")))</f>
-        <v>C</v>
+        <v>H</v>
       </c>
       <c r="E16" s="34" t="str">
-        <f>IF('Group Condition'!J41="","",'Group Condition'!J41)</f>
-        <v>better</v>
-      </c>
-      <c r="F16" s="34">
-        <f>'Group Condition'!D41</f>
-        <v>0</v>
+        <f>IF('Group Condition'!J15="","",'Group Condition'!J15)</f>
+        <v>no change</v>
+      </c>
+      <c r="F16" s="34" t="str">
+        <f>'Group Condition'!D15</f>
+        <v>X</v>
       </c>
       <c r="G16" s="34">
-        <f>'Group Condition'!E41</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="34" t="str">
-        <f>'Group Condition'!G41</f>
-        <v>X</v>
+        <f>'Group Condition'!E15</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="34">
+        <f>'Group Condition'!G15</f>
+        <v>0</v>
       </c>
       <c r="I16" s="34" t="str">
-        <f>'Group Condition'!I41</f>
+        <f>'Group Condition'!I15</f>
         <v/>
       </c>
       <c r="J16" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -15505,7 +15605,7 @@
       </c>
       <c r="E18" s="34" t="str">
         <f>IF('Group Condition'!J18="","",'Group Condition'!J18)</f>
-        <v/>
+        <v>invert</v>
       </c>
       <c r="F18" s="34">
         <f>'Group Condition'!D18</f>
@@ -15578,7 +15678,7 @@
       </c>
       <c r="E20" s="34" t="str">
         <f>IF('Group Condition'!J20="","",'Group Condition'!J20)</f>
-        <v/>
+        <v>better</v>
       </c>
       <c r="F20" s="34">
         <f>'Group Condition'!D20</f>
@@ -15644,46 +15744,50 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B22">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D22" t="str">
         <f>IF(F22="X","H",IF(G22="X","L",IF(H22="X","C","G")))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="E22" s="34" t="str">
-        <f>IF('Group Condition'!J22="","",'Group Condition'!J22)</f>
-        <v/>
-      </c>
-      <c r="F22" s="34">
-        <f>'Group Condition'!D22</f>
-        <v>0</v>
+        <f>IF('Group Condition'!J11="","",'Group Condition'!J11)</f>
+        <v>no change</v>
+      </c>
+      <c r="F22" s="34" t="str">
+        <f>'Group Condition'!D11</f>
+        <v>X</v>
       </c>
       <c r="G22" s="34">
-        <f>'Group Condition'!E22</f>
+        <f>'Group Condition'!E11</f>
         <v>0</v>
       </c>
       <c r="H22" s="34">
-        <f>'Group Condition'!G22</f>
+        <f>'Group Condition'!G11</f>
         <v>0</v>
       </c>
       <c r="I22" s="34" t="str">
-        <f>'Group Condition'!I22</f>
-        <v>X</v>
+        <f>'Group Condition'!I11</f>
+        <v/>
       </c>
       <c r="J22"/>
       <c r="K22"/>
-      <c r="L22"/>
+      <c r="L22" t="s">
+        <v>410</v>
+      </c>
       <c r="M22"/>
       <c r="N22"/>
-      <c r="O22"/>
+      <c r="O22" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -15728,44 +15832,41 @@
     </row>
     <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D24" t="str">
         <f>IF(F24="X","H",IF(G24="X","L",IF(H24="X","C","G")))</f>
-        <v>L</v>
+        <v>G</v>
       </c>
       <c r="E24" s="34" t="str">
-        <f>IF('Group Condition'!J61="","",'Group Condition'!J61)</f>
-        <v>worse</v>
+        <f>IF('Group Condition'!J29="","",'Group Condition'!J29)</f>
+        <v>better</v>
       </c>
       <c r="F24" s="34">
-        <f>'Group Condition'!D61</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="34" t="str">
-        <f>'Group Condition'!E61</f>
+        <f>'Group Condition'!D29</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="34">
+        <f>'Group Condition'!E29</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="34">
+        <f>'Group Condition'!G29</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="34" t="str">
+        <f>'Group Condition'!I29</f>
         <v>X</v>
       </c>
-      <c r="H24" s="34">
-        <f>'Group Condition'!G61</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="34" t="str">
-        <f>'Group Condition'!I61</f>
-        <v/>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>410</v>
-      </c>
+      <c r="J24"/>
+      <c r="N24"/>
+      <c r="O24"/>
     </row>
     <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -15783,7 +15884,7 @@
       </c>
       <c r="E25" s="34" t="str">
         <f>IF('Group Condition'!J25="","",'Group Condition'!J25)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F25" s="34">
         <f>'Group Condition'!D25</f>
@@ -15810,46 +15911,49 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="D26" t="str">
         <f>IF(F26="X","H",IF(G26="X","L",IF(H26="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E26" s="34" t="str">
-        <f>IF('Group Condition'!J65="","",'Group Condition'!J65)</f>
-        <v>better</v>
+        <f>IF('Group Condition'!J10="","",'Group Condition'!J10)</f>
+        <v>invert</v>
       </c>
       <c r="F26" s="34" t="str">
-        <f>'Group Condition'!D65</f>
+        <f>'Group Condition'!D10</f>
         <v>X</v>
       </c>
       <c r="G26" s="34">
-        <f>'Group Condition'!E65</f>
+        <f>'Group Condition'!E10</f>
         <v>0</v>
       </c>
       <c r="H26" s="34">
-        <f>'Group Condition'!G65</f>
+        <f>'Group Condition'!G10</f>
         <v>0</v>
       </c>
       <c r="I26" s="34" t="str">
-        <f>'Group Condition'!I65</f>
+        <f>'Group Condition'!I10</f>
         <v/>
       </c>
       <c r="J26" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L26" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="O26" s="13" t="s">
         <v>410</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -15893,259 +15997,258 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D28" t="str">
         <f>IF(F28="X","H",IF(G28="X","L",IF(H28="X","C","G")))</f>
-        <v>G</v>
-      </c>
-      <c r="F28" s="34">
-        <f>'Group Condition'!D28</f>
-        <v>0</v>
+        <v>H</v>
+      </c>
+      <c r="E28" s="34" t="str">
+        <f>IF('Group Condition'!J24="","",'Group Condition'!J24)</f>
+        <v>worse</v>
+      </c>
+      <c r="F28" s="34" t="str">
+        <f>'Group Condition'!D24</f>
+        <v>X</v>
       </c>
       <c r="G28" s="34">
-        <f>'Group Condition'!E28</f>
+        <f>'Group Condition'!E24</f>
         <v>0</v>
       </c>
       <c r="H28" s="34">
-        <f>'Group Condition'!G28</f>
+        <f>'Group Condition'!G24</f>
         <v>0</v>
       </c>
       <c r="I28" s="34" t="str">
-        <f>'Group Condition'!I28</f>
-        <v>X</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
+        <f>'Group Condition'!I24</f>
+        <v/>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D29" t="str">
         <f>IF(F29="X","H",IF(G29="X","L",IF(H29="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E29" s="34" t="str">
-        <f>IF('Group Condition'!J15="","",'Group Condition'!J15)</f>
-        <v>invert</v>
+        <f>IF('Group Condition'!J30="","",'Group Condition'!J30)</f>
+        <v>worse</v>
       </c>
       <c r="F29" s="34" t="str">
-        <f>'Group Condition'!D15</f>
+        <f>'Group Condition'!D30</f>
         <v>X</v>
       </c>
       <c r="G29" s="34">
-        <f>'Group Condition'!E15</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="34">
-        <f>'Group Condition'!G15</f>
-        <v>0</v>
+        <f>'Group Condition'!E30</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="34" t="str">
+        <f>'Group Condition'!G30</f>
+        <v>X</v>
       </c>
       <c r="I29" s="34" t="str">
-        <f>'Group Condition'!I15</f>
-        <v/>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>411</v>
+        <f>'Group Condition'!I30</f>
+        <v/>
       </c>
       <c r="L29" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="P29" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D30" t="str">
         <f>IF(F30="X","H",IF(G30="X","L",IF(H30="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E30" s="34" t="str">
-        <f>IF('Group Condition'!J11="","",'Group Condition'!J11)</f>
-        <v>better</v>
+        <f>IF('Group Condition'!J44="","",'Group Condition'!J44)</f>
+        <v>worse</v>
       </c>
       <c r="F30" s="34" t="str">
-        <f>'Group Condition'!D11</f>
+        <f>'Group Condition'!D44</f>
         <v>X</v>
       </c>
-      <c r="G30" s="34">
-        <f>'Group Condition'!E11</f>
-        <v>0</v>
+      <c r="G30" s="34" t="str">
+        <f>'Group Condition'!E44</f>
+        <v>X</v>
       </c>
       <c r="H30" s="34">
-        <f>'Group Condition'!G11</f>
+        <f>'Group Condition'!G44</f>
         <v>0</v>
       </c>
       <c r="I30" s="34" t="str">
-        <f>'Group Condition'!I11</f>
+        <f>'Group Condition'!I44</f>
         <v/>
       </c>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30" t="s">
-        <v>410</v>
-      </c>
+      <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
-      <c r="O30" t="s">
-        <v>411</v>
-      </c>
-      <c r="P30" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D31" t="str">
         <f>IF(F31="X","H",IF(G31="X","L",IF(H31="X","C","G")))</f>
-        <v>L</v>
+        <v>G</v>
       </c>
       <c r="E31" s="34" t="str">
-        <f>IF('Group Condition'!J10="","",'Group Condition'!J10)</f>
+        <f>IF('Group Condition'!J7="","",'Group Condition'!J7)</f>
         <v>better</v>
       </c>
       <c r="F31" s="34">
-        <f>'Group Condition'!D10</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="34" t="str">
-        <f>'Group Condition'!E10</f>
+        <f>'Group Condition'!D7</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="34">
+        <f>'Group Condition'!E7</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="34">
+        <f>'Group Condition'!G7</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="34" t="str">
+        <f>'Group Condition'!I7</f>
         <v>X</v>
       </c>
-      <c r="H31" s="34">
-        <f>'Group Condition'!G10</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="34" t="str">
-        <f>'Group Condition'!I10</f>
-        <v/>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>410</v>
-      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
     </row>
     <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" t="str">
         <f>IF(F32="X","H",IF(G32="X","L",IF(H32="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E32" s="34" t="str">
-        <f>IF('Group Condition'!J16="","",'Group Condition'!J16)</f>
+        <f>IF('Group Condition'!J42="","",'Group Condition'!J42)</f>
         <v>worse</v>
       </c>
       <c r="F32" s="34">
-        <f>'Group Condition'!D16</f>
+        <f>'Group Condition'!D42</f>
         <v>0</v>
       </c>
       <c r="G32" s="34" t="str">
-        <f>'Group Condition'!E16</f>
+        <f>'Group Condition'!E42</f>
         <v>X</v>
       </c>
       <c r="H32" s="34">
-        <f>'Group Condition'!G16</f>
+        <f>'Group Condition'!G42</f>
         <v>0</v>
       </c>
       <c r="I32" s="34" t="str">
-        <f>'Group Condition'!I16</f>
-        <v/>
+        <f>'Group Condition'!I42</f>
+        <v/>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="L32" s="13" t="s">
         <v>423</v>
       </c>
+      <c r="M32" s="13" t="s">
+        <v>241</v>
+      </c>
       <c r="O32" s="13" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="D33" t="str">
         <f>IF(F33="X","H",IF(G33="X","L",IF(H33="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E33" s="34" t="str">
-        <f>IF('Group Condition'!J86="","",'Group Condition'!J86)</f>
-        <v>no change</v>
+        <f>IF('Group Condition'!J16="","",'Group Condition'!J16)</f>
+        <v>worse</v>
       </c>
       <c r="F33" s="34">
-        <f>'Group Condition'!D86</f>
+        <f>'Group Condition'!D16</f>
         <v>0</v>
       </c>
       <c r="G33" s="34" t="str">
-        <f>'Group Condition'!E86</f>
+        <f>'Group Condition'!E16</f>
         <v>X</v>
       </c>
       <c r="H33" s="34">
-        <f>'Group Condition'!G86</f>
+        <f>'Group Condition'!G16</f>
         <v>0</v>
       </c>
       <c r="I33" s="34" t="str">
-        <f>'Group Condition'!I86</f>
-        <v/>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>410</v>
+        <f>'Group Condition'!I16</f>
+        <v/>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>423</v>
       </c>
       <c r="O33" s="13" t="s">
         <v>410</v>
@@ -16245,15 +16348,15 @@
       </c>
       <c r="D36" t="str">
         <f>IF(F36="X","H",IF(G36="X","L",IF(H36="X","C","G")))</f>
-        <v>H</v>
+        <v>C</v>
       </c>
       <c r="E36" s="34" t="str">
         <f>IF('Group Condition'!J36="","",'Group Condition'!J36)</f>
-        <v/>
-      </c>
-      <c r="F36" s="34" t="str">
+        <v>invert</v>
+      </c>
+      <c r="F36" s="34">
         <f>'Group Condition'!D36</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G36" s="34">
         <f>'Group Condition'!E36</f>
@@ -16279,43 +16382,43 @@
     </row>
     <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D37" t="str">
         <f>IF(F37="X","H",IF(G37="X","L",IF(H37="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E37" s="34" t="str">
-        <f>IF('Group Condition'!J24="","",'Group Condition'!J24)</f>
-        <v>worse</v>
+        <f>IF('Group Condition'!J2="","",'Group Condition'!J2)</f>
+        <v>better</v>
       </c>
       <c r="F37" s="34">
-        <f>'Group Condition'!D24</f>
+        <f>'Group Condition'!D2</f>
         <v>0</v>
       </c>
       <c r="G37" s="34" t="str">
-        <f>'Group Condition'!E24</f>
+        <f>'Group Condition'!E2</f>
         <v>X</v>
       </c>
       <c r="H37" s="34">
-        <f>'Group Condition'!G24</f>
+        <f>'Group Condition'!G2</f>
         <v>0</v>
       </c>
       <c r="I37" s="34" t="str">
-        <f>'Group Condition'!I24</f>
-        <v/>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>241</v>
+        <f>'Group Condition'!I2</f>
+        <v/>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="O37" s="13" t="s">
         <v>410</v>
@@ -16405,85 +16508,80 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D40" t="str">
         <f>IF(F40="X","H",IF(G40="X","L",IF(H40="X","C","G")))</f>
-        <v>L</v>
-      </c>
-      <c r="E40" s="34" t="str">
-        <f>IF('Group Condition'!J29="","",'Group Condition'!J29)</f>
-        <v>better</v>
-      </c>
-      <c r="F40" s="34">
-        <f>'Group Condition'!D29</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="34" t="str">
-        <f>'Group Condition'!E29</f>
+        <v>H</v>
+      </c>
+      <c r="F40" s="34" t="str">
+        <f>'Group Condition'!D28</f>
         <v>X</v>
       </c>
+      <c r="G40" s="34">
+        <f>'Group Condition'!E28</f>
+        <v>0</v>
+      </c>
       <c r="H40" s="34">
-        <f>'Group Condition'!G29</f>
+        <f>'Group Condition'!G28</f>
         <v>0</v>
       </c>
       <c r="I40" s="34" t="str">
-        <f>'Group Condition'!I29</f>
-        <v/>
-      </c>
-      <c r="J40" t="s">
-        <v>410</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="M40" s="13" t="s">
-        <v>241</v>
-      </c>
+        <f>'Group Condition'!I28</f>
+        <v/>
+      </c>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
       <c r="N40"/>
-      <c r="O40" t="s">
-        <v>410</v>
-      </c>
+      <c r="O40"/>
     </row>
     <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D41" t="str">
         <f>IF(F41="X","H",IF(G41="X","L",IF(H41="X","C","G")))</f>
-        <v>L</v>
+        <v>C</v>
       </c>
       <c r="E41" s="34" t="str">
-        <f>IF('Group Condition'!J85="","",'Group Condition'!J85)</f>
+        <f>IF('Group Condition'!J41="","",'Group Condition'!J41)</f>
         <v>no change</v>
       </c>
       <c r="F41" s="34">
-        <f>'Group Condition'!D85</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="34" t="str">
-        <f>'Group Condition'!E85</f>
+        <f>'Group Condition'!D41</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="34">
+        <f>'Group Condition'!E41</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="34" t="str">
+        <f>'Group Condition'!G41</f>
         <v>X</v>
       </c>
-      <c r="H41" s="34">
-        <f>'Group Condition'!G85</f>
-        <v>0</v>
-      </c>
       <c r="I41" s="34" t="str">
-        <f>'Group Condition'!I85</f>
-        <v/>
+        <f>'Group Condition'!I41</f>
+        <v/>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>241</v>
       </c>
       <c r="N41" s="13" t="s">
         <v>410</v>
@@ -16494,37 +16592,45 @@
     </row>
     <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D42" t="str">
         <f>IF(F42="X","H",IF(G42="X","L",IF(H42="X","C","G")))</f>
         <v>L</v>
       </c>
+      <c r="E42" s="34" t="str">
+        <f>IF('Group Condition'!J67="","",'Group Condition'!J67)</f>
+        <v>worse</v>
+      </c>
       <c r="F42" s="34">
-        <f>'Group Condition'!D31</f>
+        <f>'Group Condition'!D67</f>
         <v>0</v>
       </c>
       <c r="G42" s="34" t="str">
-        <f>'Group Condition'!E31</f>
+        <f>'Group Condition'!E67</f>
         <v>X</v>
       </c>
       <c r="H42" s="34">
-        <f>'Group Condition'!G31</f>
+        <f>'Group Condition'!G67</f>
         <v>0</v>
       </c>
       <c r="I42" s="34" t="str">
-        <f>'Group Condition'!I31</f>
-        <v/>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>423</v>
-      </c>
+        <f>'Group Condition'!I67</f>
+        <v/>
+      </c>
+      <c r="J42" t="s">
+        <v>410</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
       <c r="O42" s="13" t="s">
         <v>410</v>
       </c>
@@ -16570,46 +16676,44 @@
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B44">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D44" t="str">
         <f>IF(F44="X","H",IF(G44="X","L",IF(H44="X","C","G")))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="E44" s="34" t="str">
-        <f>IF('Group Condition'!J44="","",'Group Condition'!J44)</f>
-        <v>better</v>
-      </c>
-      <c r="F44" s="34">
-        <f>'Group Condition'!D44</f>
-        <v>0</v>
+        <f>IF('Group Condition'!J51="","",'Group Condition'!J51)</f>
+        <v>worse</v>
+      </c>
+      <c r="F44" s="34" t="str">
+        <f>'Group Condition'!D51</f>
+        <v>X</v>
       </c>
       <c r="G44" s="34">
-        <f>'Group Condition'!E44</f>
+        <f>'Group Condition'!E51</f>
         <v>0</v>
       </c>
       <c r="H44" s="34">
-        <f>'Group Condition'!G44</f>
+        <f>'Group Condition'!G51</f>
         <v>0</v>
       </c>
       <c r="I44" s="34" t="str">
-        <f>'Group Condition'!I44</f>
-        <v>X</v>
-      </c>
-      <c r="J44"/>
+        <f>'Group Condition'!I51</f>
+        <v/>
+      </c>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
-      <c r="O44"/>
     </row>
     <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -16627,7 +16731,7 @@
       </c>
       <c r="E45" s="34" t="str">
         <f>IF('Group Condition'!J37="","",'Group Condition'!J37)</f>
-        <v/>
+        <v>better</v>
       </c>
       <c r="F45" s="34">
         <f>'Group Condition'!D37</f>
@@ -16706,7 +16810,7 @@
       </c>
       <c r="E47" s="34" t="str">
         <f>IF('Group Condition'!J47="","",'Group Condition'!J47)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F47" s="34">
         <f>'Group Condition'!D47</f>
@@ -16807,39 +16911,42 @@
       <c r="N49"/>
       <c r="O49" s="30"/>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="D50" t="str">
         <f>IF(F50="X","H",IF(G50="X","L",IF(H50="X","C","G")))</f>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="E50" s="34" t="str">
-        <f>IF('Group Condition'!J40="","",'Group Condition'!J40)</f>
-        <v>better</v>
-      </c>
-      <c r="F50" s="34">
-        <f>'Group Condition'!D40</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="34" t="str">
-        <f>'Group Condition'!E40</f>
+        <f>IF('Group Condition'!J64="","",'Group Condition'!J64)</f>
+        <v>worse</v>
+      </c>
+      <c r="F50" s="34" t="str">
+        <f>'Group Condition'!D64</f>
         <v>X</v>
       </c>
+      <c r="G50" s="34">
+        <f>'Group Condition'!E64</f>
+        <v>0</v>
+      </c>
       <c r="H50" s="34">
-        <f>'Group Condition'!G40</f>
+        <f>'Group Condition'!G64</f>
         <v>0</v>
       </c>
       <c r="I50" s="34" t="str">
-        <f>'Group Condition'!I40</f>
-        <v/>
+        <f>'Group Condition'!I64</f>
+        <v/>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="L50" s="13" t="s">
         <v>423</v>
@@ -16847,51 +16954,50 @@
       <c r="M50" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="N50" s="13" t="s">
-        <v>410</v>
-      </c>
       <c r="O50" s="13" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B51">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D51" t="str">
         <f>IF(F51="X","H",IF(G51="X","L",IF(H51="X","C","G")))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="E51" s="34" t="str">
-        <f>IF('Group Condition'!J51="","",'Group Condition'!J51)</f>
-        <v>better</v>
-      </c>
-      <c r="F51" s="34">
-        <f>'Group Condition'!D51</f>
-        <v>0</v>
+        <f>IF('Group Condition'!J69="","",'Group Condition'!J69)</f>
+        <v>worse</v>
+      </c>
+      <c r="F51" s="34" t="str">
+        <f>'Group Condition'!D69</f>
+        <v>X</v>
       </c>
       <c r="G51" s="34">
-        <f>'Group Condition'!E51</f>
+        <f>'Group Condition'!E69</f>
         <v>0</v>
       </c>
       <c r="H51" s="34">
-        <f>'Group Condition'!G51</f>
+        <f>'Group Condition'!G69</f>
         <v>0</v>
       </c>
       <c r="I51" s="34" t="str">
-        <f>'Group Condition'!I51</f>
-        <v>X</v>
-      </c>
+        <f>'Group Condition'!I69</f>
+        <v/>
+      </c>
+      <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
+      <c r="O51"/>
     </row>
     <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -16991,7 +17097,7 @@
       </c>
       <c r="E54" s="34" t="str">
         <f>IF('Group Condition'!J54="","",'Group Condition'!J54)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F54" s="34">
         <f>'Group Condition'!D54</f>
@@ -17030,7 +17136,7 @@
       </c>
       <c r="E55" s="34" t="str">
         <f>IF('Group Condition'!J55="","",'Group Condition'!J55)</f>
-        <v/>
+        <v>better</v>
       </c>
       <c r="F55" s="34">
         <f>'Group Condition'!D55</f>
@@ -17068,7 +17174,7 @@
       </c>
       <c r="E56" s="34" t="str">
         <f>IF('Group Condition'!J56="","",'Group Condition'!J56)</f>
-        <v>invert</v>
+        <v>better</v>
       </c>
       <c r="F56" s="34">
         <f>'Group Condition'!D56</f>
@@ -17112,7 +17218,7 @@
       </c>
       <c r="E57" s="34" t="str">
         <f>IF('Group Condition'!J57="","",'Group Condition'!J57)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F57" s="34">
         <f>'Group Condition'!D57</f>
@@ -17153,7 +17259,7 @@
       </c>
       <c r="E58" s="34" t="str">
         <f>IF('Group Condition'!J58="","",'Group Condition'!J58)</f>
-        <v>better</v>
+        <v>no change</v>
       </c>
       <c r="F58" s="34">
         <f>'Group Condition'!D58</f>
@@ -17190,19 +17296,19 @@
       </c>
       <c r="D59" t="str">
         <f>IF(F59="X","H",IF(G59="X","L",IF(H59="X","C","G")))</f>
-        <v>G</v>
+        <v>L</v>
       </c>
       <c r="E59" s="34" t="str">
         <f>IF('Group Condition'!J59="","",'Group Condition'!J59)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F59" s="34">
         <f>'Group Condition'!D59</f>
         <v>0</v>
       </c>
-      <c r="G59" s="34">
+      <c r="G59" s="34" t="str">
         <f>'Group Condition'!E59</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H59" s="34">
         <f>'Group Condition'!G59</f>
@@ -17210,7 +17316,7 @@
       </c>
       <c r="I59" s="34" t="str">
         <f>'Group Condition'!I59</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J59"/>
       <c r="K59"/>
@@ -17260,46 +17366,46 @@
       <c r="N60"/>
       <c r="O60"/>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B61">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="D61" t="str">
         <f>IF(F61="X","H",IF(G61="X","L",IF(H61="X","C","G")))</f>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="E61" s="34" t="str">
-        <f>IF('Group Condition'!J87="","",'Group Condition'!J87)</f>
+        <f>IF('Group Condition'!J22="","",'Group Condition'!J22)</f>
         <v>worse</v>
       </c>
-      <c r="F61" s="34">
-        <f>'Group Condition'!D87</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="34" t="str">
-        <f>'Group Condition'!E87</f>
+      <c r="F61" s="34" t="str">
+        <f>'Group Condition'!D22</f>
         <v>X</v>
       </c>
+      <c r="G61" s="34">
+        <f>'Group Condition'!E22</f>
+        <v>0</v>
+      </c>
       <c r="H61" s="34">
-        <f>'Group Condition'!G87</f>
+        <f>'Group Condition'!G22</f>
         <v>0</v>
       </c>
       <c r="I61" s="34" t="str">
-        <f>'Group Condition'!I87</f>
-        <v/>
-      </c>
-      <c r="N61" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="O61" s="13" t="s">
-        <v>410</v>
-      </c>
+        <f>'Group Condition'!I22</f>
+        <v/>
+      </c>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
     </row>
     <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -17317,7 +17423,7 @@
       </c>
       <c r="E62" s="34" t="str">
         <f>IF('Group Condition'!J62="","",'Group Condition'!J62)</f>
-        <v>better</v>
+        <v>no change</v>
       </c>
       <c r="F62" s="34">
         <f>'Group Condition'!D62</f>
@@ -17352,7 +17458,7 @@
       </c>
       <c r="E63" s="34" t="str">
         <f>IF('Group Condition'!J63="","",'Group Condition'!J63)</f>
-        <v/>
+        <v>better</v>
       </c>
       <c r="F63" s="34">
         <f>'Group Condition'!D63</f>
@@ -17374,95 +17480,86 @@
         <v>412</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B64">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D64" t="str">
         <f>IF(F64="X","H",IF(G64="X","L",IF(H64="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E64" s="34" t="str">
-        <f>IF('Group Condition'!J42="","",'Group Condition'!J42)</f>
+        <f>IF('Group Condition'!J61="","",'Group Condition'!J61)</f>
         <v>better</v>
       </c>
       <c r="F64" s="34">
-        <f>'Group Condition'!D42</f>
+        <f>'Group Condition'!D61</f>
         <v>0</v>
       </c>
       <c r="G64" s="34" t="str">
-        <f>'Group Condition'!E42</f>
+        <f>'Group Condition'!E61</f>
         <v>X</v>
       </c>
       <c r="H64" s="34">
-        <f>'Group Condition'!G42</f>
+        <f>'Group Condition'!G61</f>
         <v>0</v>
       </c>
       <c r="I64" s="34" t="str">
-        <f>'Group Condition'!I42</f>
-        <v/>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>410</v>
+        <f>'Group Condition'!I61</f>
+        <v/>
       </c>
       <c r="L64" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="M64" s="13" t="s">
-        <v>241</v>
-      </c>
       <c r="O64" s="13" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B65">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D65" t="str">
         <f>IF(F65="X","H",IF(G65="X","L",IF(H65="X","C","G")))</f>
-        <v>C</v>
+        <v>H</v>
       </c>
       <c r="E65" s="34" t="str">
-        <f>IF('Group Condition'!J30="","",'Group Condition'!J30)</f>
-        <v>no change</v>
-      </c>
-      <c r="F65" s="34">
-        <f>'Group Condition'!D30</f>
-        <v>0</v>
+        <f>IF('Group Condition'!J71="","",'Group Condition'!J71)</f>
+        <v>worse</v>
+      </c>
+      <c r="F65" s="34" t="str">
+        <f>'Group Condition'!D71</f>
+        <v>X</v>
       </c>
       <c r="G65" s="34">
-        <f>'Group Condition'!E30</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="34" t="str">
-        <f>'Group Condition'!G30</f>
-        <v>X</v>
+        <f>'Group Condition'!E71</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="34">
+        <f>'Group Condition'!G71</f>
+        <v>0</v>
       </c>
       <c r="I65" s="34" t="str">
-        <f>'Group Condition'!I30</f>
+        <f>'Group Condition'!I71</f>
         <v/>
       </c>
       <c r="L65" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="N65" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="O65" s="13" t="s">
-        <v>410</v>
+      <c r="M65" s="13" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -17481,7 +17578,7 @@
       </c>
       <c r="E66" s="34" t="str">
         <f>IF('Group Condition'!J45="","",'Group Condition'!J45)</f>
-        <v>invert</v>
+        <v>worse</v>
       </c>
       <c r="F66" s="34">
         <f>'Group Condition'!D45</f>
@@ -17510,50 +17607,48 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B67">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D67" t="str">
         <f>IF(F67="X","H",IF(G67="X","L",IF(H67="X","C","G")))</f>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="E67" s="34" t="str">
-        <f>IF('Group Condition'!J64="","",'Group Condition'!J64)</f>
-        <v>no change</v>
-      </c>
-      <c r="F67" s="34">
-        <f>'Group Condition'!D64</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="34" t="str">
-        <f>'Group Condition'!E64</f>
+        <f>IF('Group Condition'!J72="","",'Group Condition'!J72)</f>
+        <v>worse</v>
+      </c>
+      <c r="F67" s="34" t="str">
+        <f>'Group Condition'!D72</f>
         <v>X</v>
       </c>
-      <c r="H67" s="34">
-        <f>'Group Condition'!G64</f>
-        <v>0</v>
+      <c r="G67" s="34">
+        <f>'Group Condition'!E72</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="34" t="str">
+        <f>'Group Condition'!G72</f>
+        <v>X</v>
       </c>
       <c r="I67" s="34" t="str">
-        <f>'Group Condition'!I64</f>
-        <v/>
-      </c>
-      <c r="J67" s="13" t="s">
+        <f>'Group Condition'!I72</f>
+        <v/>
+      </c>
+      <c r="L67" s="13" t="s">
         <v>410</v>
-      </c>
-      <c r="L67" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="M67" s="13" t="s">
         <v>241</v>
       </c>
       <c r="O67" s="13" t="s">
-        <v>410</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="P67" s="13"/>
     </row>
     <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
@@ -17567,19 +17662,19 @@
       </c>
       <c r="D68" t="str">
         <f>IF(F68="X","H",IF(G68="X","L",IF(H68="X","C","G")))</f>
-        <v>G</v>
+        <v>L</v>
       </c>
       <c r="E68" s="34" t="str">
         <f>IF('Group Condition'!J68="","",'Group Condition'!J68)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F68" s="34">
         <f>'Group Condition'!D68</f>
         <v>0</v>
       </c>
-      <c r="G68" s="34">
+      <c r="G68" s="34" t="str">
         <f>'Group Condition'!E68</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H68" s="34">
         <f>'Group Condition'!G68</f>
@@ -17587,7 +17682,7 @@
       </c>
       <c r="I68" s="34" t="str">
         <f>'Group Condition'!I68</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J68"/>
       <c r="K68"/>
@@ -17596,46 +17691,49 @@
       <c r="N68"/>
       <c r="O68"/>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B69">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D69" t="str">
         <f>IF(F69="X","H",IF(G69="X","L",IF(H69="X","C","G")))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="E69" s="34" t="str">
-        <f>IF('Group Condition'!J69="","",'Group Condition'!J69)</f>
-        <v/>
-      </c>
-      <c r="F69" s="34">
-        <f>'Group Condition'!D69</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="34">
-        <f>'Group Condition'!E69</f>
-        <v>0</v>
+        <f>IF('Group Condition'!J74="","",'Group Condition'!J74)</f>
+        <v>worse</v>
+      </c>
+      <c r="F69" s="34" t="str">
+        <f>'Group Condition'!D74</f>
+        <v>X</v>
+      </c>
+      <c r="G69" s="34" t="str">
+        <f>'Group Condition'!E74</f>
+        <v>X</v>
       </c>
       <c r="H69" s="34">
-        <f>'Group Condition'!G69</f>
+        <f>'Group Condition'!G74</f>
         <v>0</v>
       </c>
       <c r="I69" s="34" t="str">
-        <f>'Group Condition'!I69</f>
-        <v>X</v>
-      </c>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
+        <f>'Group Condition'!I74</f>
+        <v/>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="N69" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="O69" s="13" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -17653,7 +17751,7 @@
       </c>
       <c r="E70" s="34" t="str">
         <f>IF('Group Condition'!J70="","",'Group Condition'!J70)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F70" s="34">
         <f>'Group Condition'!D70</f>
@@ -17678,45 +17776,48 @@
       <c r="N70"/>
       <c r="O70"/>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B71">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="D71" t="str">
         <f>IF(F71="X","H",IF(G71="X","L",IF(H71="X","C","G")))</f>
-        <v>C</v>
+        <v>H</v>
       </c>
       <c r="E71" s="34" t="str">
-        <f>IF('Group Condition'!J66="","",'Group Condition'!J66)</f>
-        <v>no change</v>
-      </c>
-      <c r="F71" s="34">
-        <f>'Group Condition'!D66</f>
-        <v>0</v>
+        <f>IF('Group Condition'!J77="","",'Group Condition'!J77)</f>
+        <v>better</v>
+      </c>
+      <c r="F71" s="34" t="str">
+        <f>'Group Condition'!D77</f>
+        <v>X</v>
       </c>
       <c r="G71" s="34">
-        <f>'Group Condition'!E66</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="34" t="str">
-        <f>'Group Condition'!G66</f>
-        <v>X</v>
+        <f>'Group Condition'!E77</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="34">
+        <f>'Group Condition'!G77</f>
+        <v>0</v>
       </c>
       <c r="I71" s="34" t="str">
-        <f>'Group Condition'!I66</f>
-        <v/>
+        <f>'Group Condition'!I77</f>
+        <v/>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="O71" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -17753,87 +17854,79 @@
         <v>423</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B73">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D73" t="str">
         <f>IF(F73="X","H",IF(G73="X","L",IF(H73="X","C","G")))</f>
         <v>L</v>
       </c>
-      <c r="E73" s="34" t="str">
-        <f>IF('Group Condition'!J67="","",'Group Condition'!J67)</f>
-        <v>no change</v>
-      </c>
       <c r="F73" s="34">
-        <f>'Group Condition'!D67</f>
+        <f>'Group Condition'!D31</f>
         <v>0</v>
       </c>
       <c r="G73" s="34" t="str">
-        <f>'Group Condition'!E67</f>
+        <f>'Group Condition'!E31</f>
         <v>X</v>
       </c>
       <c r="H73" s="34">
-        <f>'Group Condition'!G67</f>
+        <f>'Group Condition'!G31</f>
         <v>0</v>
       </c>
       <c r="I73" s="34" t="str">
-        <f>'Group Condition'!I67</f>
-        <v/>
-      </c>
-      <c r="J73" t="s">
-        <v>410</v>
-      </c>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
+        <f>'Group Condition'!I31</f>
+        <v/>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>423</v>
+      </c>
       <c r="O73" s="13" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B74">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="D74" t="str">
         <f>IF(F74="X","H",IF(G74="X","L",IF(H74="X","C","G")))</f>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="E74" s="34" t="str">
-        <f>IF('Group Condition'!J73="","",'Group Condition'!J73)</f>
-        <v/>
-      </c>
-      <c r="F74" s="34">
-        <f>'Group Condition'!D73</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="34" t="str">
-        <f>'Group Condition'!E73</f>
+        <f>IF('Group Condition'!J78="","",'Group Condition'!J78)</f>
+        <v>worse</v>
+      </c>
+      <c r="F74" s="34" t="str">
+        <f>'Group Condition'!D78</f>
         <v>X</v>
       </c>
+      <c r="G74" s="34">
+        <f>'Group Condition'!E78</f>
+        <v>0</v>
+      </c>
       <c r="H74" s="34">
-        <f>'Group Condition'!G73</f>
+        <f>'Group Condition'!G78</f>
         <v>0</v>
       </c>
       <c r="I74" s="34" t="str">
-        <f>'Group Condition'!I73</f>
-        <v/>
-      </c>
-      <c r="M74" s="13" t="s">
-        <v>411</v>
+        <f>'Group Condition'!I78</f>
+        <v/>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>423</v>
       </c>
       <c r="O74" s="13" t="s">
         <v>410</v>
@@ -17855,7 +17948,7 @@
       </c>
       <c r="E75" s="34" t="str">
         <f>IF('Group Condition'!J75="","",'Group Condition'!J75)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F75" s="34">
         <f>'Group Condition'!D75</f>
@@ -17917,95 +18010,92 @@
       <c r="N76"/>
       <c r="O76"/>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B77">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D77" t="str">
         <f>IF(F77="X","H",IF(G77="X","L",IF(H77="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E77" s="34" t="str">
-        <f>IF('Group Condition'!J71="","",'Group Condition'!J71)</f>
-        <v>better</v>
+        <f>IF('Group Condition'!J81="","",'Group Condition'!J81)</f>
+        <v>worse</v>
       </c>
       <c r="F77" s="34" t="str">
-        <f>'Group Condition'!D71</f>
+        <f>'Group Condition'!D81</f>
         <v>X</v>
       </c>
       <c r="G77" s="34">
-        <f>'Group Condition'!E71</f>
+        <f>'Group Condition'!E81</f>
         <v>0</v>
       </c>
       <c r="H77" s="34">
-        <f>'Group Condition'!G71</f>
+        <f>'Group Condition'!G81</f>
         <v>0</v>
       </c>
       <c r="I77" s="34" t="str">
-        <f>'Group Condition'!I71</f>
-        <v/>
-      </c>
+        <f>'Group Condition'!I81</f>
+        <v/>
+      </c>
+      <c r="J77"/>
       <c r="L77" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77" s="13" t="s">
         <v>410</v>
-      </c>
-      <c r="M77" s="13" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="D78" t="str">
         <f>IF(F78="X","H",IF(G78="X","L",IF(H78="X","C","G")))</f>
-        <v>C</v>
+        <v>L</v>
       </c>
       <c r="E78" s="34" t="str">
-        <f>IF('Group Condition'!J72="","",'Group Condition'!J72)</f>
-        <v>no change</v>
+        <f>IF('Group Condition'!J73="","",'Group Condition'!J73)</f>
+        <v/>
       </c>
       <c r="F78" s="34">
-        <f>'Group Condition'!D72</f>
-        <v>0</v>
-      </c>
-      <c r="G78" s="34">
-        <f>'Group Condition'!E72</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="34" t="str">
-        <f>'Group Condition'!G72</f>
+        <f>'Group Condition'!D73</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="34" t="str">
+        <f>'Group Condition'!E73</f>
         <v>X</v>
       </c>
+      <c r="H78" s="34">
+        <f>'Group Condition'!G73</f>
+        <v>0</v>
+      </c>
       <c r="I78" s="34" t="str">
-        <f>'Group Condition'!I72</f>
-        <v/>
-      </c>
-      <c r="L78" s="13" t="s">
+        <f>'Group Condition'!I73</f>
+        <v/>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="O78" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="M78" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="O78" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="P78" s="13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -18017,15 +18107,15 @@
       </c>
       <c r="D79" t="str">
         <f>IF(F79="X","H",IF(G79="X","L",IF(H79="X","C","G")))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="E79" s="34" t="str">
         <f>IF('Group Condition'!J79="","",'Group Condition'!J79)</f>
-        <v>better</v>
-      </c>
-      <c r="F79" s="34">
+        <v>worse</v>
+      </c>
+      <c r="F79" s="34" t="str">
         <f>'Group Condition'!D79</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G79" s="34">
         <f>'Group Condition'!E79</f>
@@ -18037,165 +18127,162 @@
       </c>
       <c r="I79" s="34" t="str">
         <f>'Group Condition'!I79</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B80">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C80" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D80" t="str">
         <f>IF(F80="X","H",IF(G80="X","L",IF(H80="X","C","G")))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="E80" s="34" t="str">
-        <f>IF('Group Condition'!J80="","",'Group Condition'!J80)</f>
-        <v>better</v>
-      </c>
-      <c r="F80" s="34">
-        <f>'Group Condition'!D80</f>
-        <v>0</v>
+        <f>IF('Group Condition'!J82="","",'Group Condition'!J82)</f>
+        <v>worse</v>
+      </c>
+      <c r="F80" s="34" t="str">
+        <f>'Group Condition'!D82</f>
+        <v>X</v>
       </c>
       <c r="G80" s="34">
-        <f>'Group Condition'!E80</f>
+        <f>'Group Condition'!E82</f>
         <v>0</v>
       </c>
       <c r="H80" s="34">
-        <f>'Group Condition'!G80</f>
+        <f>'Group Condition'!G82</f>
         <v>0</v>
       </c>
       <c r="I80" s="34" t="str">
-        <f>'Group Condition'!I80</f>
-        <v>X</v>
-      </c>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
-    </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I82</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B81">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="D81" t="str">
         <f>IF(F81="X","H",IF(G81="X","L",IF(H81="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E81" s="34" t="str">
-        <f>IF('Group Condition'!J74="","",'Group Condition'!J74)</f>
+        <f>IF('Group Condition'!J86="","",'Group Condition'!J86)</f>
         <v>no change</v>
       </c>
       <c r="F81" s="34">
-        <f>'Group Condition'!D74</f>
+        <f>'Group Condition'!D86</f>
         <v>0</v>
       </c>
       <c r="G81" s="34" t="str">
-        <f>'Group Condition'!E74</f>
+        <f>'Group Condition'!E86</f>
         <v>X</v>
       </c>
       <c r="H81" s="34">
-        <f>'Group Condition'!G74</f>
+        <f>'Group Condition'!G86</f>
         <v>0</v>
       </c>
       <c r="I81" s="34" t="str">
-        <f>'Group Condition'!I74</f>
-        <v/>
-      </c>
-      <c r="L81" s="13" t="s">
-        <v>411</v>
+        <f>'Group Condition'!I86</f>
+        <v/>
       </c>
       <c r="N81" s="13" t="s">
         <v>410</v>
       </c>
       <c r="O81" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B82">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="D82" t="str">
         <f>IF(F82="X","H",IF(G82="X","L",IF(H82="X","C","G")))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="E82" s="34" t="str">
-        <f>IF('Group Condition'!J82="","",'Group Condition'!J82)</f>
-        <v>better</v>
-      </c>
-      <c r="F82" s="34">
-        <f>'Group Condition'!D82</f>
-        <v>0</v>
+        <f>IF('Group Condition'!J83="","",'Group Condition'!J83)</f>
+        <v>worse</v>
+      </c>
+      <c r="F82" s="34" t="str">
+        <f>'Group Condition'!D83</f>
+        <v>X</v>
       </c>
       <c r="G82" s="34">
-        <f>'Group Condition'!E82</f>
+        <f>'Group Condition'!E83</f>
         <v>0</v>
       </c>
       <c r="H82" s="34">
-        <f>'Group Condition'!G82</f>
+        <f>'Group Condition'!G83</f>
         <v>0</v>
       </c>
       <c r="I82" s="34" t="str">
-        <f>'Group Condition'!I82</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I83</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D83" t="str">
         <f>IF(F83="X","H",IF(G83="X","L",IF(H83="X","C","G")))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="E83" s="34" t="str">
-        <f>IF('Group Condition'!J83="","",'Group Condition'!J83)</f>
-        <v>better</v>
-      </c>
-      <c r="F83" s="34">
-        <f>'Group Condition'!D83</f>
-        <v>0</v>
+        <f>IF('Group Condition'!J80="","",'Group Condition'!J80)</f>
+        <v>worse</v>
+      </c>
+      <c r="F83" s="34" t="str">
+        <f>'Group Condition'!D80</f>
+        <v>X</v>
       </c>
       <c r="G83" s="34">
-        <f>'Group Condition'!E83</f>
+        <f>'Group Condition'!E80</f>
         <v>0</v>
       </c>
       <c r="H83" s="34">
-        <f>'Group Condition'!G83</f>
+        <f>'Group Condition'!G80</f>
         <v>0</v>
       </c>
       <c r="I83" s="34" t="str">
-        <f>'Group Condition'!I83</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I80</f>
+        <v/>
+      </c>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>43</v>
       </c>
@@ -18207,15 +18294,15 @@
       </c>
       <c r="D84" t="str">
         <f>IF(F84="X","H",IF(G84="X","L",IF(H84="X","C","G")))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="E84" s="34" t="str">
         <f>IF('Group Condition'!J84="","",'Group Condition'!J84)</f>
         <v>better</v>
       </c>
-      <c r="F84" s="34">
+      <c r="F84" s="34" t="str">
         <f>'Group Condition'!D84</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G84" s="34">
         <f>'Group Condition'!E84</f>
@@ -18227,7 +18314,7 @@
       </c>
       <c r="I84" s="34" t="str">
         <f>'Group Condition'!I84</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J84"/>
       <c r="K84"/>
@@ -18236,136 +18323,127 @@
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B85">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="D85" t="str">
-        <f>IF(F85="X","H",IF(G85="X","L",IF(H85="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" ref="D66:D87" si="1">IF(F85="X","H",IF(G85="X","L",IF(H85="X","C","G")))</f>
+        <v>C</v>
       </c>
       <c r="E85" s="34" t="str">
-        <f>IF('Group Condition'!J77="","",'Group Condition'!J77)</f>
+        <f>IF('Group Condition'!J66="","",'Group Condition'!J66)</f>
+        <v/>
+      </c>
+      <c r="F85" s="34">
+        <f>'Group Condition'!D66</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="34">
+        <f>'Group Condition'!E66</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="34" t="str">
+        <f>'Group Condition'!G66</f>
+        <v>X</v>
+      </c>
+      <c r="I85" s="34" t="str">
+        <f>'Group Condition'!I66</f>
+        <v/>
+      </c>
+      <c r="O85" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>L</v>
+      </c>
+      <c r="E86" s="34" t="str">
+        <f>IF('Group Condition'!J85="","",'Group Condition'!J85)</f>
         <v>better</v>
       </c>
-      <c r="F85" s="34" t="str">
-        <f>'Group Condition'!D77</f>
+      <c r="F86" s="34">
+        <f>'Group Condition'!D85</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="34" t="str">
+        <f>'Group Condition'!E85</f>
         <v>X</v>
       </c>
-      <c r="G85" s="34">
-        <f>'Group Condition'!E77</f>
-        <v>0</v>
-      </c>
-      <c r="H85" s="34">
-        <f>'Group Condition'!G77</f>
-        <v>0</v>
-      </c>
-      <c r="I85" s="34" t="str">
-        <f>'Group Condition'!I77</f>
-        <v/>
-      </c>
-      <c r="L85" s="13" t="s">
+      <c r="H86" s="34">
+        <f>'Group Condition'!G85</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="34" t="str">
+        <f>'Group Condition'!I85</f>
+        <v/>
+      </c>
+      <c r="N86" s="13" t="s">
         <v>410</v>
-      </c>
-      <c r="O85" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="P85" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86">
-        <v>3</v>
-      </c>
-      <c r="C86" t="s">
-        <v>94</v>
-      </c>
-      <c r="D86" t="str">
-        <f>IF(F86="X","H",IF(G86="X","L",IF(H86="X","C","G")))</f>
-        <v>L</v>
-      </c>
-      <c r="E86" s="34" t="str">
-        <f>IF('Group Condition'!J78="","",'Group Condition'!J78)</f>
-        <v>no change</v>
-      </c>
-      <c r="F86" s="34">
-        <f>'Group Condition'!D78</f>
-        <v>0</v>
-      </c>
-      <c r="G86" s="34" t="str">
-        <f>'Group Condition'!E78</f>
-        <v>X</v>
-      </c>
-      <c r="H86" s="34">
-        <f>'Group Condition'!G78</f>
-        <v>0</v>
-      </c>
-      <c r="I86" s="34" t="str">
-        <f>'Group Condition'!I78</f>
-        <v/>
-      </c>
-      <c r="L86" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="O86" s="13" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="D87" t="str">
-        <f>IF(F87="X","H",IF(G87="X","L",IF(H87="X","C","G")))</f>
+        <f t="shared" si="1"/>
         <v>L</v>
       </c>
       <c r="E87" s="34" t="str">
-        <f>IF('Group Condition'!J81="","",'Group Condition'!J81)</f>
-        <v>worse</v>
+        <f>IF('Group Condition'!J87="","",'Group Condition'!J87)</f>
+        <v>better</v>
       </c>
       <c r="F87" s="34">
-        <f>'Group Condition'!D81</f>
+        <f>'Group Condition'!D87</f>
         <v>0</v>
       </c>
       <c r="G87" s="34" t="str">
-        <f>'Group Condition'!E81</f>
+        <f>'Group Condition'!E87</f>
         <v>X</v>
       </c>
       <c r="H87" s="34">
-        <f>'Group Condition'!G81</f>
+        <f>'Group Condition'!G87</f>
         <v>0</v>
       </c>
       <c r="I87" s="34" t="str">
-        <f>'Group Condition'!I81</f>
-        <v/>
-      </c>
-      <c r="J87"/>
-      <c r="L87" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="M87"/>
-      <c r="N87"/>
+        <f>'Group Condition'!I87</f>
+        <v/>
+      </c>
+      <c r="N87" s="13" t="s">
+        <v>410</v>
+      </c>
       <c r="O87" s="13" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -18376,8 +18454,8 @@
         <v>173</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" ref="D66:D88" si="0">IF(F88="X","H",IF(G88="X","L",IF(H88="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" ref="D88" si="2">IF(F88="X","H",IF(G88="X","L",IF(H88="X","C","G")))</f>
+        <v>L</v>
       </c>
       <c r="E88" s="34" t="str">
         <f>IF('Group Condition'!J88="","",'Group Condition'!J88)</f>
@@ -18387,9 +18465,9 @@
         <f>'Group Condition'!D88</f>
         <v>0</v>
       </c>
-      <c r="G88" s="34">
+      <c r="G88" s="34" t="str">
         <f>'Group Condition'!E88</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H88" s="34">
         <f>'Group Condition'!G88</f>
@@ -18397,7 +18475,7 @@
       </c>
       <c r="I88" s="34" t="str">
         <f>'Group Condition'!I88</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J88"/>
       <c r="K88"/>
@@ -18410,20 +18488,10 @@
   <autoFilter ref="A1:P88">
     <filterColumn colId="3">
       <filters>
-        <filter val="C"/>
         <filter val="H"/>
-        <filter val="L"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="15">
-      <filters blank="1"/>
-    </filterColumn>
-    <sortState ref="A2:Q87">
+    <sortState ref="A10:P84">
       <sortCondition ref="C1:C88"/>
     </sortState>
   </autoFilter>
@@ -18433,13 +18501,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="P13" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="R14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18465,7 +18533,7 @@
     <col min="21" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>90</v>
       </c>
@@ -18523,8 +18591,11 @@
       <c r="S1" s="3" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T1" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -18566,7 +18637,7 @@
         <v>1864467516.8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -18604,8 +18675,12 @@
         <f>O3*1.5</f>
         <v>343500000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T3" s="5">
+        <f>S3*1.5</f>
+        <v>515250000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -18652,7 +18727,7 @@
         <v>468181683</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -18703,8 +18778,12 @@
         <f>R5*2</f>
         <v>173470000</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T5" s="5">
+        <f>S5*2</f>
+        <v>346940000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -18741,7 +18820,7 @@
         <v>14975339.800000001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -18790,7 +18869,7 @@
         <v>50731000</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -18806,7 +18885,7 @@
       </c>
       <c r="E8" s="7" t="str">
         <f>VLOOKUP(A8,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F8" s="6">
         <v>1080000</v>
@@ -18830,7 +18909,7 @@
         <v>13393000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -18846,7 +18925,7 @@
       </c>
       <c r="E9" s="7" t="str">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F9" s="6">
         <v>10265685.109999999</v>
@@ -18867,7 +18946,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -18883,7 +18962,7 @@
       </c>
       <c r="E10" s="7" t="str">
         <f>VLOOKUP(A10,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F10" s="6">
         <v>6500000</v>
@@ -18915,8 +18994,12 @@
         <f>R10*2</f>
         <v>2035369.7952000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T10" s="5">
+        <f>S10*2</f>
+        <v>4070739.5904000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -18955,7 +19038,7 @@
         <v>20527442.649999999</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
@@ -19003,8 +19086,12 @@
         <f>P12*2</f>
         <v>41860000</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T12" s="3">
+        <f>S12*2</f>
+        <v>83720000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -19020,7 +19107,7 @@
       </c>
       <c r="E13" s="7" t="str">
         <f>VLOOKUP(A13,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F13" s="6">
         <v>8500000</v>
@@ -19042,7 +19129,7 @@
       </c>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -19058,7 +19145,7 @@
       </c>
       <c r="E14" s="7" t="str">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F14" s="6">
         <v>175816.31169</v>
@@ -19084,8 +19171,12 @@
         <f>O14*0.75</f>
         <v>131862.2337675</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T14" s="3">
+        <f>S14/2</f>
+        <v>65931.116883750001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -19121,7 +19212,7 @@
       </c>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -19157,7 +19248,7 @@
       </c>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -19207,8 +19298,12 @@
         <f>R17*2</f>
         <v>79785730.272</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T17" s="3">
+        <f>S17*2</f>
+        <v>159571460.544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -19260,7 +19355,7 @@
       </c>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -19297,7 +19392,7 @@
       </c>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
@@ -19348,8 +19443,11 @@
         <f>R20*2</f>
         <v>228362082.40000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T20" s="5">
+        <v>2280000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
@@ -19392,7 +19490,7 @@
       </c>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
@@ -19437,8 +19535,12 @@
       </c>
       <c r="P22" s="11"/>
       <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T22" s="3">
+        <f>O22*2</f>
+        <v>64245437.100000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
@@ -19486,8 +19588,12 @@
         <f>O23*2</f>
         <v>5914794.7300000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T23" s="3">
+        <f>P23*2</f>
+        <v>11829589.460000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
@@ -19535,7 +19641,7 @@
       </c>
       <c r="S24" s="5"/>
     </row>
-    <row r="25" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
@@ -19580,7 +19686,7 @@
         <v>722309041.20000005</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>28</v>
       </c>
@@ -19596,7 +19702,7 @@
       </c>
       <c r="E26" s="7" t="str">
         <f>VLOOKUP(A26,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F26" s="6">
         <v>49069.656669999997</v>
@@ -19615,7 +19721,7 @@
         <v>16705.027440000002</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
@@ -19631,7 +19737,7 @@
       </c>
       <c r="E27" s="7" t="str">
         <f>VLOOKUP(A27,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F27" s="6">
         <v>1540000</v>
@@ -19654,7 +19760,7 @@
         <v>38402350.5</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
@@ -19670,7 +19776,7 @@
       </c>
       <c r="E28" s="7" t="str">
         <f>VLOOKUP(A28,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F28" s="6">
         <v>3521063.9419999998</v>
@@ -19690,7 +19796,7 @@
         <v>1540000</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>31</v>
       </c>
@@ -19742,8 +19848,11 @@
       <c r="R29" s="7">
         <v>1718757.3940000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T29" s="5">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>32</v>
       </c>
@@ -19794,8 +19903,12 @@
         <f>R30*2</f>
         <v>11400581.728</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T30" s="3">
+        <f>S30*2</f>
+        <v>22801163.456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>33</v>
       </c>
@@ -19843,7 +19956,7 @@
       </c>
       <c r="S31" s="5"/>
     </row>
-    <row r="32" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
@@ -19883,7 +19996,7 @@
         <v>40960.04507</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>34</v>
       </c>
@@ -19918,7 +20031,7 @@
         <v>1251368041</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
@@ -19973,7 +20086,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
@@ -20031,7 +20144,7 @@
         <v>129309.07709999999</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -20072,7 +20185,7 @@
         <v>258618.15419999999</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
@@ -20119,7 +20232,7 @@
         <v>466894.79560000001</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>39</v>
       </c>
@@ -20135,7 +20248,7 @@
       </c>
       <c r="E38" s="7" t="str">
         <f>VLOOKUP(A38,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F38" s="6">
         <v>491000</v>
@@ -20154,7 +20267,7 @@
         <v>177129.4045</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
@@ -20197,8 +20310,12 @@
       </c>
       <c r="R39" s="11"/>
       <c r="S39" s="5"/>
-    </row>
-    <row r="40" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T39" s="3">
+        <f>P39*0.75</f>
+        <v>736500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>41</v>
       </c>
@@ -20234,7 +20351,7 @@
         <v>74822.192989999996</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -20279,7 +20396,7 @@
       </c>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -20295,7 +20412,7 @@
       </c>
       <c r="E42" s="7" t="str">
         <f>VLOOKUP(A42,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F42" s="6">
         <v>150805160.5</v>
@@ -20314,7 +20431,7 @@
         <v>172649603.19999999</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -20330,7 +20447,7 @@
       </c>
       <c r="E43" s="7" t="str">
         <f>VLOOKUP(A43,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F43" s="6">
         <v>176000000</v>
@@ -20354,7 +20471,7 @@
         <v>150805160.5</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -20370,7 +20487,7 @@
       </c>
       <c r="E44" s="7" t="str">
         <f>VLOOKUP(A44,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F44" s="6">
         <v>250000</v>
@@ -20394,7 +20511,7 @@
         <v>352590040.69999999</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -20432,7 +20549,7 @@
       </c>
       <c r="S45" s="5"/>
     </row>
-    <row r="46" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -20467,7 +20584,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -20502,7 +20619,7 @@
         <v>15874.27808</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -20589,7 +20706,7 @@
       </c>
       <c r="E50" s="7" t="str">
         <f>VLOOKUP(A50,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F50" s="6">
         <v>60071048.259999998</v>
@@ -20671,7 +20788,7 @@
       </c>
       <c r="E52" s="7" t="str">
         <f>VLOOKUP(A52,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F52" s="6">
         <v>328703</v>
@@ -21599,7 +21716,7 @@
       </c>
       <c r="F8" s="7" t="str">
         <f>VLOOKUP(A8,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K8">
         <f>VLOOKUP(A8,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -21641,7 +21758,7 @@
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K9">
         <f>VLOOKUP(A9,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -21683,7 +21800,7 @@
       </c>
       <c r="F10" s="7" t="str">
         <f>VLOOKUP(A10,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K10">
         <f>VLOOKUP(A10,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -21809,7 +21926,7 @@
       </c>
       <c r="F13" s="7" t="str">
         <f>VLOOKUP(A13,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K13">
         <f>VLOOKUP(A13,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -21851,7 +21968,7 @@
       </c>
       <c r="F14" s="7" t="str">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K14">
         <f>VLOOKUP(A14,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -22473,7 +22590,7 @@
       </c>
       <c r="F26" s="7" t="str">
         <f>VLOOKUP(A26,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K26">
         <f>VLOOKUP(A26,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -22515,7 +22632,7 @@
       </c>
       <c r="F27" s="7" t="str">
         <f>VLOOKUP(A27,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K27">
         <f>VLOOKUP(A27,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -22557,7 +22674,7 @@
       </c>
       <c r="F28" s="7" t="str">
         <f>VLOOKUP(A28,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K28">
         <f>VLOOKUP(A28,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -22977,7 +23094,7 @@
       </c>
       <c r="F38" s="7" t="str">
         <f>VLOOKUP(A38,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K38">
         <f>VLOOKUP(A38,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -23145,7 +23262,7 @@
       </c>
       <c r="F42" s="7" t="str">
         <f>VLOOKUP(A42,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K42">
         <f>VLOOKUP(A42,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -23187,7 +23304,7 @@
       </c>
       <c r="F43" s="7" t="str">
         <f>VLOOKUP(A43,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K43">
         <f>VLOOKUP(A43,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -23229,7 +23346,7 @@
       </c>
       <c r="F44" s="7" t="str">
         <f>VLOOKUP(A44,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K44">
         <f>VLOOKUP(A44,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -23481,7 +23598,7 @@
       </c>
       <c r="F50" s="7" t="str">
         <f>VLOOKUP(A50,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K50">
         <f>VLOOKUP(A50,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -23571,7 +23688,7 @@
       </c>
       <c r="F52" s="7" t="str">
         <f>VLOOKUP(A52,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="K52">
         <f>VLOOKUP(A52,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -24150,13 +24267,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC64"/>
+  <dimension ref="A1:AE64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="Z38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AB32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB55" sqref="AB55:AC55"/>
+      <selection pane="bottomRight" activeCell="AD36" sqref="AD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24179,10 +24296,10 @@
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.21875" customWidth="1"/>
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>90</v>
       </c>
@@ -24270,8 +24387,14 @@
       <c r="AC1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -24355,7 +24478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -24410,7 +24533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -24479,8 +24602,14 @@
         <f>W4/2</f>
         <v>9.3749999999999996E-9</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -24545,8 +24674,14 @@
         <f>VLOOKUP($A5,[4]mQ!$A$1:$D$78,4,FALSE)</f>
         <v>1.8E-9</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -24603,8 +24738,14 @@
         <f>U6/2</f>
         <v>1.6000000000000001E-9</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -24682,7 +24823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -24701,7 +24842,7 @@
       </c>
       <c r="F8" s="7" t="str">
         <f>VLOOKUP(A8,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="G8">
         <f>D8*0.5</f>
@@ -24752,7 +24893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -24771,7 +24912,7 @@
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(A9,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="G9">
         <f>D9*0.5</f>
@@ -24816,7 +24957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -24835,7 +24976,7 @@
       </c>
       <c r="F10" s="7" t="str">
         <f>VLOOKUP(A10,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="H10"/>
       <c r="Q10">
@@ -24872,8 +25013,14 @@
       <c r="AA10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -24943,7 +25090,7 @@
         <v>3.2000000000000001E-9</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
@@ -24994,7 +25141,7 @@
         <v>1.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -25013,7 +25160,7 @@
       </c>
       <c r="F13" s="7" t="str">
         <f>VLOOKUP(A13,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="G13">
         <f>D13*1.25</f>
@@ -25050,7 +25197,7 @@
         <v>4.0000000000000002E-9</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -25069,7 +25216,7 @@
       </c>
       <c r="F14" s="7" t="str">
         <f>VLOOKUP(A14,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="H14"/>
       <c r="Q14">
@@ -25124,8 +25271,16 @@
         <f>AA14*2</f>
         <v>3.2000000000000001E-7</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD14">
+        <f>AB14*2</f>
+        <v>1.6E-7</v>
+      </c>
+      <c r="AE14">
+        <f>AC14*2</f>
+        <v>6.4000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -25184,7 +25339,7 @@
         <v>6.0000000000000008E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -25259,7 +25414,7 @@
         <v>3.2000000000000001E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -25323,8 +25478,14 @@
       <c r="AA17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -25387,8 +25548,14 @@
       <c r="AA18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -25431,7 +25598,7 @@
         <v>1.8E-10</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
@@ -25496,7 +25663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
@@ -25567,8 +25734,14 @@
         <f t="shared" si="3"/>
         <v>2.125E-9</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
@@ -25625,7 +25798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
@@ -25667,8 +25840,14 @@
         <f>VLOOKUP($A23,[4]mQ!$A$1:$D$78,4,FALSE)</f>
         <v>8.0000000000000002E-13</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
@@ -25740,7 +25919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
@@ -25783,7 +25962,7 @@
         <v>2.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>28</v>
       </c>
@@ -25802,7 +25981,7 @@
       </c>
       <c r="F26" s="7" t="str">
         <f>VLOOKUP(A26,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="H26"/>
       <c r="Q26">
@@ -25842,7 +26021,7 @@
         <v>1.2E-9</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
@@ -25861,7 +26040,7 @@
       </c>
       <c r="F27" s="7" t="str">
         <f>VLOOKUP(A27,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="H27"/>
       <c r="M27" s="14">
@@ -25891,7 +26070,7 @@
         <v>3E-10</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
@@ -25910,7 +26089,7 @@
       </c>
       <c r="F28" s="7" t="str">
         <f>VLOOKUP(A28,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="H28"/>
       <c r="Q28">
@@ -25934,7 +26113,7 @@
         <v>3E-10</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>31</v>
       </c>
@@ -26002,7 +26181,7 @@
         <v>3E-10</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>32</v>
       </c>
@@ -26073,8 +26252,14 @@
       <c r="AA30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>33</v>
       </c>
@@ -26166,7 +26351,7 @@
         <v>3E-10</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
@@ -26228,7 +26413,7 @@
         <v>2.25E-10</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>34</v>
       </c>
@@ -26289,8 +26474,14 @@
         <f>VLOOKUP($A33,[4]mQ!$A$1:$D$78,4,FALSE)</f>
         <v>3E-10</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
@@ -26340,8 +26531,14 @@
         <f t="shared" si="6"/>
         <v>1.5E-10</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
@@ -26428,8 +26625,14 @@
       <c r="AC35" s="14">
         <v>9.9999999999999994E-12</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD35" s="14">
+        <v>1E-14</v>
+      </c>
+      <c r="AE35" s="14">
+        <v>1E-14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -26505,8 +26708,14 @@
       <c r="AC36" s="14">
         <v>9.9999999999999994E-12</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD36" s="14">
+        <v>2.9999999999999998E-14</v>
+      </c>
+      <c r="AE36" s="14">
+        <v>3E-11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
@@ -26593,8 +26802,14 @@
         <f>AA37/2</f>
         <v>7.5E-11</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD37" s="14">
+        <v>7.4999999999999996E-14</v>
+      </c>
+      <c r="AE37" s="14">
+        <v>7.5E-12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>39</v>
       </c>
@@ -26613,7 +26828,7 @@
       </c>
       <c r="F38" s="7" t="str">
         <f>VLOOKUP(A38,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="H38"/>
       <c r="Q38">
@@ -26653,7 +26868,7 @@
         <v>3E-10</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
@@ -26725,8 +26940,16 @@
         <f>AA39*2</f>
         <v>1.2E-9</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD39">
+        <f>AB39*2</f>
+        <v>2.3999999999999999E-12</v>
+      </c>
+      <c r="AE39">
+        <f>AC39*2</f>
+        <v>2.4E-9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>41</v>
       </c>
@@ -26768,8 +26991,14 @@
         <f>VLOOKUP($A40,[4]mQ!$A$1:$D$78,4,FALSE)</f>
         <v>3E-10</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -26841,7 +27070,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
@@ -26860,7 +27089,7 @@
       </c>
       <c r="F42" s="7" t="str">
         <f>VLOOKUP(A42,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="H42"/>
       <c r="Q42">
@@ -26890,7 +27119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
@@ -26909,7 +27138,7 @@
       </c>
       <c r="F43" s="7" t="str">
         <f>VLOOKUP(A43,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="G43" s="14">
         <v>1E-13</v>
@@ -26956,7 +27185,7 @@
         <v>1E-13</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
@@ -26975,7 +27204,7 @@
       </c>
       <c r="F44" s="7" t="str">
         <f>VLOOKUP(A44,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="G44">
         <f>D44*1.5</f>
@@ -27018,7 +27247,7 @@
         <v>5.2500000000000005E-10</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -27086,7 +27315,7 @@
         <v>5.2500000000000005E-10</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
@@ -27141,7 +27370,7 @@
         <v>3.4999999999999998E-10</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -27200,7 +27429,7 @@
         <v>1.8E-7</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -27321,7 +27550,7 @@
       </c>
       <c r="F50" s="7" t="str">
         <f>VLOOKUP(A50,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="H50"/>
       <c r="Q50">
@@ -27429,7 +27658,7 @@
       </c>
       <c r="F52" s="7" t="str">
         <f>VLOOKUP(A52,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="H52"/>
       <c r="Q52">

--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" tabRatio="853" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" tabRatio="853"/>
   </bookViews>
   <sheets>
     <sheet name="Group Condition" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="446">
   <si>
     <t>Too Low</t>
   </si>
@@ -9335,11 +9335,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9394,198 +9394,195 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <f>VLOOKUP(A2,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="H2" s="22" t="str">
         <f>VLOOKUP(A2,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I2" s="24" t="str">
-        <f t="shared" ref="I2:I33" si="0">IF(OR(COUNTIF(D2:G2,"X")=0,COUNTIF(D2:G2,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <f>IF(OR(COUNTIF(D2:G2,"X")=0,COUNTIF(D2:G2,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K2">
         <f>VLOOKUP(A2,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>125.479276</v>
+        <v>3.4146443350000002</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <f>VLOOKUP(A3,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>102</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="H3" s="22" t="str">
         <f>VLOOKUP(A3,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I3" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D3:G3,"X")=0,COUNTIF(D3:G3,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="J3" s="13" t="s">
         <v>431</v>
       </c>
       <c r="K3">
         <f>VLOOKUP(A3,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1000.68</v>
+        <v>6.4963754189999996</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <f>VLOOKUP(A4,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>180</v>
       </c>
       <c r="H4" s="22" t="str">
         <f>VLOOKUP(A4,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I4" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(D4:G4,"X")=0,COUNTIF(D4:G4,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J4" s="13" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K4">
         <f>VLOOKUP(A4,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>0.41</v>
+        <v>125.479276</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <f>VLOOKUP(A5,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="H5" s="22" t="str">
         <f>VLOOKUP(A5,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I5" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D5:G5,"X")=0,COUNTIF(D5:G5,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K5">
         <f>VLOOKUP(A5,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>4.8259999999999996</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <f>VLOOKUP(A6,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="H6" s="22" t="str">
         <f>VLOOKUP(A6,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I6" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D6:G6,"X")=0,COUNTIF(D6:G6,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>429</v>
       </c>
       <c r="K6">
         <f>VLOOKUP(A6,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>0.16</v>
+        <v>13.60138179</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <f>VLOOKUP(A7,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>VLOOKUP(A7,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I7" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D7:G7,"X")=0,COUNTIF(D7:G7,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="J7" s="13" t="s">
         <v>429</v>
       </c>
       <c r="K7">
         <f>VLOOKUP(A7,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>0.27</v>
+        <v>24.610325509999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <f>VLOOKUP(A8,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>180</v>
       </c>
       <c r="H8" s="22" t="str">
         <f>VLOOKUP(A8,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I8" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(D8:G8,"X")=0,COUNTIF(D8:G8,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J8" s="13" t="s">
@@ -9593,107 +9590,109 @@
       </c>
       <c r="K8">
         <f>VLOOKUP(A8,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1.22</v>
+        <v>15.58729078</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <f>VLOOKUP(A9,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="H9" s="22" t="str">
         <f>VLOOKUP(A9,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I9" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D9:G9,"X")=0,COUNTIF(D9:G9,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="J9" s="13" t="s">
         <v>430</v>
       </c>
       <c r="K9">
         <f>VLOOKUP(A9,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>6.6672173600000004</v>
+        <v>0.120275307</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <f>VLOOKUP(A10,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="29"/>
       <c r="H10" s="22" t="str">
         <f>VLOOKUP(A10,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I10" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(D10:G10,"X")=0,COUNTIF(D10:G10,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J10" s="13" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K10">
         <f>VLOOKUP(A10,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>8.2990938990000007</v>
+        <v>2.07701E-4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <f>VLOOKUP(A11,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H11" s="22" t="str">
         <f>VLOOKUP(A11,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I11" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(D11:G11,"X")=0,COUNTIF(D11:G11,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J11" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K11">
         <f>VLOOKUP(A11,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1.7</v>
+        <v>1.88352E-4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <f>VLOOKUP(A12,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>180</v>
@@ -9703,7 +9702,7 @@
         <v/>
       </c>
       <c r="I12" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(D12:G12,"X")=0,COUNTIF(D12:G12,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J12" s="13" t="s">
@@ -9711,162 +9710,162 @@
       </c>
       <c r="K12">
         <f>VLOOKUP(A12,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>0.9</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <f>VLOOKUP(A13,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="H13" s="22" t="str">
         <f>VLOOKUP(A13,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I13" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D13:G13,"X")=0,COUNTIF(D13:G13,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K13">
         <f>VLOOKUP(A13,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>49.42</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B14">
         <f>VLOOKUP(A14,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>167</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="H14" s="22" t="str">
         <f>VLOOKUP(A14,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I14" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D14:G14,"X")=0,COUNTIF(D14:G14,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="J14" s="13" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="K14">
         <f>VLOOKUP(A14,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1.2528512570000001</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <f>VLOOKUP(A15,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>180</v>
       </c>
       <c r="H15" s="22" t="str">
         <f>VLOOKUP(A15,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I15" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(D15:G15,"X")=0,COUNTIF(D15:G15,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J15" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K15">
         <f>VLOOKUP(A15,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>36.832345089999997</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <f>VLOOKUP(A16,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="H16" s="22" t="str">
         <f>VLOOKUP(A16,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I16" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D16:G16,"X")=0,COUNTIF(D16:G16,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K16">
         <f>VLOOKUP(A16,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>72.318494520000002</v>
+        <v>6.6672173600000004</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <f>VLOOKUP(A17,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>119</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="H17" s="22" t="str">
         <f>VLOOKUP(A17,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I17" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D17:G17,"X")=0,COUNTIF(D17:G17,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>430</v>
       </c>
       <c r="K17">
         <f>VLOOKUP(A17,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1.36</v>
+        <v>36.832345089999997</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <f>VLOOKUP(A18,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H18" s="22" t="str">
@@ -9874,89 +9873,102 @@
         <v/>
       </c>
       <c r="I18" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(D18:G18,"X")=0,COUNTIF(D18:G18,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J18" s="13" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="K18">
         <f>VLOOKUP(A18,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>0.15</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <f>VLOOKUP(A19,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="29"/>
       <c r="H19" s="22" t="str">
         <f>VLOOKUP(A19,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I19" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D19:G19,"X")=0,COUNTIF(D19:G19,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="J19" s="13" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="K19">
         <f>VLOOKUP(A19,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>13.60138179</v>
+        <v>8.2990938990000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <f>VLOOKUP(A20,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>108</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="H20" s="22" t="str">
         <f>VLOOKUP(A20,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D20:G20,"X")=0,COUNTIF(D20:G20,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="J20" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K20">
         <f>VLOOKUP(A20,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>7.84</v>
+        <v>72.318494520000002</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <f>VLOOKUP(A21,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>163</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="H21" s="22" t="str">
         <f>VLOOKUP(A21,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I21" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D21:G21,"X")=0,COUNTIF(D21:G21,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>430</v>
       </c>
       <c r="K21">
         <f>VLOOKUP(A21,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9965,24 +9977,24 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B22">
         <f>VLOOKUP(A22,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>180</v>
       </c>
       <c r="H22" s="22" t="str">
         <f>VLOOKUP(A22,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I22" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(D22:G22,"X")=0,COUNTIF(D22:G22,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J22" s="13" t="s">
@@ -9990,26 +10002,26 @@
       </c>
       <c r="K22">
         <f>VLOOKUP(A22,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>25.449904530000001</v>
+        <v>4.8259999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B23">
         <f>VLOOKUP(A23,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H23" s="22" t="str">
         <f>VLOOKUP(A23,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I23" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(D23:G23,"X")=0,COUNTIF(D23:G23,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K23">
@@ -10019,130 +10031,130 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B24">
         <f>VLOOKUP(A24,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H24" s="22" t="str">
         <f>VLOOKUP(A24,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I24" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D24:G24,"X")=0,COUNTIF(D24:G24,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K24">
         <f>VLOOKUP(A24,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1712.1492270000001</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <f>VLOOKUP(A25,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>125</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="H25" s="22" t="str">
         <f>VLOOKUP(A25,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I25" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D25:G25,"X")=0,COUNTIF(D25:G25,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="J25" s="13" t="s">
         <v>431</v>
       </c>
       <c r="K25">
         <f>VLOOKUP(A25,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>0.45343570100000002</v>
+        <v>1712.1492270000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <f>VLOOKUP(A26,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="H26" s="22" t="str">
         <f>VLOOKUP(A26,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I26" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D26:G26,"X")=0,COUNTIF(D26:G26,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K26">
         <f>VLOOKUP(A26,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>2.8553917279999999</v>
+        <v>3.9979082419999998</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B27">
         <f>VLOOKUP(A27,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>168</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="H27" s="22" t="str">
         <f>VLOOKUP(A27,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I27" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D27:G27,"X")=0,COUNTIF(D27:G27,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="J27" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K27">
         <f>VLOOKUP(A27,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1.844462681</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <f>VLOOKUP(A28,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>180</v>
       </c>
       <c r="H28" s="22" t="str">
@@ -10150,7 +10162,7 @@
         <v>X</v>
       </c>
       <c r="I28" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(D28:G28,"X")=0,COUNTIF(D28:G28,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J28" s="13" t="s">
@@ -10158,111 +10170,96 @@
       </c>
       <c r="K28">
         <f>VLOOKUP(A28,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>0.34674987200000001</v>
+        <v>4.3494993800000001</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <f>VLOOKUP(A29,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="H29" s="22" t="str">
         <f>VLOOKUP(A29,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I29" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D29:G29,"X")=0,COUNTIF(D29:G29,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K29">
         <f>VLOOKUP(A29,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>3.9979082419999998</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <f>VLOOKUP(A30,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="H30" s="22" t="str">
         <f>VLOOKUP(A30,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I30" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D30:G30,"X")=0,COUNTIF(D30:G30,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K30">
         <f>VLOOKUP(A30,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1.8621823959999999</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B31">
         <f>VLOOKUP(A31,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H31" s="22" t="str">
         <f>VLOOKUP(A31,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I31" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D31:G31,"X")=0,COUNTIF(D31:G31,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K31">
         <f>VLOOKUP(A31,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>4.3494993800000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <f>VLOOKUP(A32,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>180</v>
       </c>
       <c r="H32" s="22" t="str">
@@ -10270,7 +10267,7 @@
         <v>X</v>
       </c>
       <c r="I32" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(D32:G32,"X")=0,COUNTIF(D32:G32,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J32" s="13" t="s">
@@ -10278,192 +10275,198 @@
       </c>
       <c r="K32">
         <f>VLOOKUP(A32,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>24.610325509999999</v>
+        <v>8.3547796870000006</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B33">
         <f>VLOOKUP(A33,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="24" t="s">
         <v>180</v>
       </c>
       <c r="H33" s="22" t="str">
         <f>VLOOKUP(A33,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I33" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(D33:G33,"X")=0,COUNTIF(D33:G33,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J33" s="13" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="K33">
         <f>VLOOKUP(A33,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>15.58729078</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34">
         <f>VLOOKUP(A34,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H34" s="22" t="str">
         <f>VLOOKUP(A34,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I34" s="24" t="str">
-        <f t="shared" ref="I34:I65" si="1">IF(OR(COUNTIF(D34:G34,"X")=0,COUNTIF(D34:G34,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D34:G34,"X")=0,COUNTIF(D34:G34,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K34">
         <f>VLOOKUP(A34,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <f>VLOOKUP(A35,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>92</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="H35" s="22" t="str">
         <f>VLOOKUP(A35,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I35" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D35:G35,"X")=0,COUNTIF(D35:G35,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>430</v>
       </c>
       <c r="K35">
         <f>VLOOKUP(A35,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>2.31</v>
+        <v>8.8772132989999992</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B36">
         <f>VLOOKUP(A36,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="H36" s="22" t="str">
         <f>VLOOKUP(A36,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I36" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>437</v>
+        <f>IF(OR(COUNTIF(D36:G36,"X")=0,COUNTIF(D36:G36,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K36">
         <f>VLOOKUP(A36,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B37">
         <f>VLOOKUP(A37,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H37" s="22" t="str">
         <f>VLOOKUP(A37,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I37" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D37:G37,"X")=0,COUNTIF(D37:G37,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K37">
         <f>VLOOKUP(A37,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>8.3547796870000006</v>
+        <v>30.058387249999999</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B38">
         <f>VLOOKUP(A38,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>176</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="H38" s="22" t="str">
         <f>VLOOKUP(A38,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I38" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D38:G38,"X")=0,COUNTIF(D38:G38,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K38">
         <f>VLOOKUP(A38,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1.98</v>
+        <v>49.42</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B39">
         <f>VLOOKUP(A39,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>172</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="H39" s="22" t="str">
         <f>VLOOKUP(A39,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I39" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D39:G39,"X")=0,COUNTIF(D39:G39,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="K39">
         <f>VLOOKUP(A39,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10472,46 +10475,46 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B40">
         <f>VLOOKUP(A40,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>180</v>
       </c>
       <c r="H40" s="22" t="str">
         <f>VLOOKUP(A40,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I40" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D40:G40,"X")=0,COUNTIF(D40:G40,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J40" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K40">
         <f>VLOOKUP(A40,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>8.8772132989999992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B41">
         <f>VLOOKUP(A41,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
-      </c>
-      <c r="G41" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>180</v>
       </c>
       <c r="H41" s="22" t="str">
@@ -10519,84 +10522,87 @@
         <v>X</v>
       </c>
       <c r="I41" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D41:G41,"X")=0,COUNTIF(D41:G41,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J41" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K41">
         <f>VLOOKUP(A41,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>0.120275307</v>
+        <v>60.540321980000002</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <f>VLOOKUP(A42,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="H42" s="22" t="str">
         <f>VLOOKUP(A42,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I42" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D42:G42,"X")=0,COUNTIF(D42:G42,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="J42" s="13" t="s">
         <v>431</v>
       </c>
       <c r="K42">
         <f>VLOOKUP(A42,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>60.540321980000002</v>
+        <v>1.844462681</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B43">
         <f>VLOOKUP(A43,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>111</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="H43" s="22" t="str">
         <f>VLOOKUP(A43,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I43" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D43:G43,"X")=0,COUNTIF(D43:G43,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K43">
         <f>VLOOKUP(A43,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>2.19</v>
+        <v>1.8621823959999999</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <f>VLOOKUP(A44,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="E44" s="29" t="s">
         <v>180</v>
@@ -10606,7 +10612,7 @@
         <v>X</v>
       </c>
       <c r="I44" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D44:G44,"X")=0,COUNTIF(D44:G44,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J44" s="13" t="s">
@@ -10614,396 +10620,403 @@
       </c>
       <c r="K44">
         <f>VLOOKUP(A44,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>15.580161759999999</v>
+        <v>2.6026244799999998</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B45">
         <f>VLOOKUP(A45,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="H45" s="22" t="str">
         <f>VLOOKUP(A45,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I45" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D45:G45,"X")=0,COUNTIF(D45:G45,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K45">
         <f>VLOOKUP(A45,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1.3995842030000001</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B46">
         <f>VLOOKUP(A46,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>123</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="H46" s="22" t="str">
         <f>VLOOKUP(A46,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I46" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D46:G46,"X")=0,COUNTIF(D46:G46,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K46">
         <f>VLOOKUP(A46,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1.48</v>
+        <v>1.3995842030000001</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B47">
         <f>VLOOKUP(A47,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>154</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="H47" s="22" t="str">
         <f>VLOOKUP(A47,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I47" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D47:G47,"X")=0,COUNTIF(D47:G47,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="J47" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K47">
         <f>VLOOKUP(A47,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B48">
         <f>VLOOKUP(A48,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" s="29"/>
       <c r="H48" s="22" t="str">
         <f>VLOOKUP(A48,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I48" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D48:G48,"X")=0,COUNTIF(D48:G48,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K48">
         <f>VLOOKUP(A48,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>0.2</v>
+        <v>15.580161759999999</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B49">
         <f>VLOOKUP(A49,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>156</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="H49" s="22" t="str">
         <f>VLOOKUP(A49,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I49" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D49:G49,"X")=0,COUNTIF(D49:G49,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="K49">
         <f>VLOOKUP(A49,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <f>VLOOKUP(A50,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="H50" s="22" t="str">
         <f>VLOOKUP(A50,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I50" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D50:G50,"X")=0,COUNTIF(D50:G50,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K50">
         <f>VLOOKUP(A50,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>6.4963754189999996</v>
+        <v>1.2528512570000001</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <f>VLOOKUP(A51,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="H51" s="22" t="str">
         <f>VLOOKUP(A51,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I51" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D51:G51,"X")=0,COUNTIF(D51:G51,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="J51" s="13" t="s">
         <v>431</v>
       </c>
       <c r="K51">
         <f>VLOOKUP(A51,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>4.0453719340000003</v>
+        <v>0.45343570100000002</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B52">
         <f>VLOOKUP(A52,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>103</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="H52" s="22" t="str">
         <f>VLOOKUP(A52,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I52" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D52:G52,"X")=0,COUNTIF(D52:G52,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K52">
         <f>VLOOKUP(A52,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>9.1646354429999999</v>
+        <v>0.34674987200000001</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B53">
         <f>VLOOKUP(A53,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="H53" s="22" t="str">
         <f>VLOOKUP(A53,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I53" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D53:G53,"X")=0,COUNTIF(D53:G53,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K53">
         <f>VLOOKUP(A53,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1</v>
+        <v>26.620192639999999</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B54">
         <f>VLOOKUP(A54,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="H54" s="22" t="str">
         <f>VLOOKUP(A54,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I54" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D54:G54,"X")=0,COUNTIF(D54:G54,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K54">
         <f>VLOOKUP(A54,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>26.620192639999999</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B55">
         <f>VLOOKUP(A55,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="H55" s="22" t="str">
         <f>VLOOKUP(A55,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I55" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D55:G55,"X")=0,COUNTIF(D55:G55,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K55">
         <f>VLOOKUP(A55,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>0.79</v>
+        <v>5.6287183719999998</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B56">
         <f>VLOOKUP(A56,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="H56" s="22" t="str">
         <f>VLOOKUP(A56,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I56" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D56:G56,"X")=0,COUNTIF(D56:G56,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K56">
         <f>VLOOKUP(A56,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B57">
         <f>VLOOKUP(A57,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="H57" s="22" t="str">
         <f>VLOOKUP(A57,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I57" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D57:G57,"X")=0,COUNTIF(D57:G57,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K57">
         <f>VLOOKUP(A57,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>3.4146443350000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58">
         <f>VLOOKUP(A58,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H58" s="22" t="str">
         <f>VLOOKUP(A58,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I58" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="J58" s="13" t="s">
-        <v>430</v>
+        <f>IF(OR(COUNTIF(D58:G58,"X")=0,COUNTIF(D58:G58,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K58">
         <f>VLOOKUP(A58,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>30.058387249999999</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <f>VLOOKUP(A59,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H59" s="22" t="str">
@@ -11011,7 +11024,7 @@
         <v>X</v>
       </c>
       <c r="I59" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D59:G59,"X")=0,COUNTIF(D59:G59,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J59" s="13" t="s">
@@ -11019,53 +11032,53 @@
       </c>
       <c r="K59">
         <f>VLOOKUP(A59,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>11.47346999</v>
+        <v>4.0453719340000003</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B60">
         <f>VLOOKUP(A60,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H60" s="22" t="str">
         <f>VLOOKUP(A60,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I60" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D60:G60,"X")=0,COUNTIF(D60:G60,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K60">
         <f>VLOOKUP(A60,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>0.31</v>
+        <v>9.1646354429999999</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <f>VLOOKUP(A61,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" s="24" t="s">
         <v>180</v>
       </c>
       <c r="H61" s="22" t="str">
         <f>VLOOKUP(A61,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I61" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D61:G61,"X")=0,COUNTIF(D61:G61,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J61" s="13" t="s">
@@ -11073,260 +11086,245 @@
       </c>
       <c r="K61">
         <f>VLOOKUP(A61,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>2.07701E-4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B62">
         <f>VLOOKUP(A62,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>118</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="H62" s="22" t="str">
         <f>VLOOKUP(A62,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I62" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D62:G62,"X")=0,COUNTIF(D62:G62,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="J62" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K62">
         <f>VLOOKUP(A62,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>3.17</v>
+        <v>11.47346999</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B63">
         <f>VLOOKUP(A63,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>153</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H63" s="22" t="str">
         <f>VLOOKUP(A63,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I63" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D63:G63,"X")=0,COUNTIF(D63:G63,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K63">
         <f>VLOOKUP(A63,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>0.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B64">
         <f>VLOOKUP(A64,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="H64" s="22" t="str">
         <f>VLOOKUP(A64,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I64" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D64:G64,"X")=0,COUNTIF(D64:G64,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K64">
         <f>VLOOKUP(A64,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>81.873548409999998</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B65">
         <f>VLOOKUP(A65,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="H65" s="22" t="str">
         <f>VLOOKUP(A65,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I65" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D65:G65,"X")=0,COUNTIF(D65:G65,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="J65" s="13" t="s">
         <v>431</v>
       </c>
       <c r="K65">
         <f>VLOOKUP(A65,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1.88352E-4</v>
+        <v>0.123228464</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="B66">
         <f>VLOOKUP(A66,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
-      </c>
-      <c r="G66" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H66" s="22" t="str">
         <f>VLOOKUP(A66,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I66" s="24" t="str">
-        <f t="shared" ref="I66:I88" si="2">IF(OR(COUNTIF(D66:G66,"X")=0,COUNTIF(D66:G66,"B")&lt;&gt;0),"X","")</f>
-        <v/>
+        <f>IF(OR(COUNTIF(D66:G66,"X")=0,COUNTIF(D66:G66,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K66">
         <f>VLOOKUP(A66,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1</v>
+        <v>81.873548409999998</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B67">
         <f>VLOOKUP(A67,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G67" s="24" t="s">
         <v>180</v>
       </c>
       <c r="H67" s="22" t="str">
         <f>VLOOKUP(A67,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I67" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COUNTIF(D67:G67,"X")=0,COUNTIF(D67:G67,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J67" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K67">
         <f>VLOOKUP(A67,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>4.5705284319999997</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B68">
         <f>VLOOKUP(A68,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="H68" s="22" t="str">
         <f>VLOOKUP(A68,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I68" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D68:G68,"X")=0,COUNTIF(D68:G68,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K68">
         <f>VLOOKUP(A68,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>2.6026244799999998</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B69">
         <f>VLOOKUP(A69,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
-      </c>
-      <c r="D69" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G69" s="24" t="s">
         <v>180</v>
       </c>
       <c r="H69" s="22" t="str">
         <f>VLOOKUP(A69,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I69" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D69:G69,"X")=0,COUNTIF(D69:G69,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K69">
         <f>VLOOKUP(A69,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>10.94402988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B70">
         <f>VLOOKUP(A70,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="H70" s="22" t="str">
         <f>VLOOKUP(A70,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I70" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COUNTIF(D70:G70,"X")=0,COUNTIF(D70:G70,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="J70" s="13" t="s">
@@ -11334,193 +11332,190 @@
       </c>
       <c r="K70">
         <f>VLOOKUP(A70,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>0.123228464</v>
+        <v>1000.68</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B71">
         <f>VLOOKUP(A71,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="H71" s="22" t="str">
         <f>VLOOKUP(A71,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I71" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D71:G71,"X")=0,COUNTIF(D71:G71,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="J71" s="13" t="s">
         <v>431</v>
       </c>
       <c r="K71">
         <f>VLOOKUP(A71,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>8.30943E-4</v>
+        <v>2.8553917279999999</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <f>VLOOKUP(A72,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="G72" s="24" t="s">
         <v>180</v>
       </c>
       <c r="H72" s="22" t="str">
         <f>VLOOKUP(A72,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I72" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COUNTIF(D72:G72,"X")=0,COUNTIF(D72:G72,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J72" s="13" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K72">
         <f>VLOOKUP(A72,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>26.855260869999999</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B73">
         <f>VLOOKUP(A73,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>180</v>
       </c>
       <c r="H73" s="22" t="str">
         <f>VLOOKUP(A73,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I73" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D73:G73,"X")=0,COUNTIF(D73:G73,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K73">
         <f>VLOOKUP(A73,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>2.08</v>
+        <v>4.5705284319999997</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B74">
         <f>VLOOKUP(A74,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C74" t="s">
-        <v>127</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="H74" s="22" t="str">
         <f>VLOOKUP(A74,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I74" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J74" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D74:G74,"X")=0,COUNTIF(D74:G74,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K74">
         <f>VLOOKUP(A74,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>5.5777170800000002</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B75">
         <f>VLOOKUP(A75,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>134</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="H75" s="22" t="str">
         <f>VLOOKUP(A75,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I75" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D75:G75,"X")=0,COUNTIF(D75:G75,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="J75" s="13" t="s">
         <v>431</v>
       </c>
       <c r="K75">
         <f>VLOOKUP(A75,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>5.6287183719999998</v>
+        <v>10.94402988</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B76">
         <f>VLOOKUP(A76,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>133</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="H76" s="22" t="str">
         <f>VLOOKUP(A76,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I76" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>X</v>
+        <f>IF(OR(COUNTIF(D76:G76,"X")=0,COUNTIF(D76:G76,"B")&lt;&gt;0),"X","")</f>
+        <v/>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="K76">
         <f>VLOOKUP(A76,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>0.02</v>
+        <v>25.449904530000001</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B77">
         <f>VLOOKUP(A77,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D77" s="22" t="s">
         <v>180</v>
@@ -11530,37 +11525,40 @@
         <v>X</v>
       </c>
       <c r="I77" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COUNTIF(D77:G77,"X")=0,COUNTIF(D77:G77,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J77" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K77">
         <f>VLOOKUP(A77,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>13.99337553</v>
+        <v>8.30943E-4</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B78">
         <f>VLOOKUP(A78,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D78" s="22" t="s">
         <v>180</v>
       </c>
+      <c r="G78" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="H78" s="22" t="str">
         <f>VLOOKUP(A78,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I78" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COUNTIF(D78:G78,"X")=0,COUNTIF(D78:G78,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J78" s="13" t="s">
@@ -11568,19 +11566,19 @@
       </c>
       <c r="K78">
         <f>VLOOKUP(A78,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>4.7056837390000004</v>
+        <v>26.855260869999999</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B79">
         <f>VLOOKUP(A79,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="D79" s="22" t="s">
         <v>180</v>
@@ -11590,7 +11588,7 @@
         <v>X</v>
       </c>
       <c r="I79" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COUNTIF(D79:G79,"X")=0,COUNTIF(D79:G79,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J79" s="13" t="s">
@@ -11598,79 +11596,73 @@
       </c>
       <c r="K79">
         <f>VLOOKUP(A79,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>15.394965300000001</v>
+        <v>5.5777170800000002</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B80">
         <f>VLOOKUP(A80,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C80" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D80" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H80" s="22" t="str">
         <f>VLOOKUP(A80,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I80" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COUNTIF(D80:G80,"X")=0,COUNTIF(D80:G80,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J80" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K80">
         <f>VLOOKUP(A80,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>3.05</v>
+        <v>13.99337553</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B81">
         <f>VLOOKUP(A81,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="H81" s="22" t="str">
         <f>VLOOKUP(A81,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I81" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J81" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D81:G81,"X")=0,COUNTIF(D81:G81,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K81">
         <f>VLOOKUP(A81,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>4.9696735710000004</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B82">
         <f>VLOOKUP(A82,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D82" s="22" t="s">
         <v>180</v>
@@ -11680,7 +11672,7 @@
         <v>X</v>
       </c>
       <c r="I82" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COUNTIF(D82:G82,"X")=0,COUNTIF(D82:G82,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J82" s="13" t="s">
@@ -11688,19 +11680,19 @@
       </c>
       <c r="K82">
         <f>VLOOKUP(A82,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>15.126177269999999</v>
+        <v>4.7056837390000004</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B83">
         <f>VLOOKUP(A83,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D83" s="22" t="s">
         <v>180</v>
@@ -11710,7 +11702,7 @@
         <v>X</v>
       </c>
       <c r="I83" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COUNTIF(D83:G83,"X")=0,COUNTIF(D83:G83,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J83" s="13" t="s">
@@ -11718,19 +11710,19 @@
       </c>
       <c r="K83">
         <f>VLOOKUP(A83,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>2.0841953969999998</v>
+        <v>4.9696735710000004</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B84">
         <f>VLOOKUP(A84,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="D84" s="22" t="s">
         <v>180</v>
@@ -11740,89 +11732,89 @@
         <v>X</v>
       </c>
       <c r="I84" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COUNTIF(D84:G84,"X")=0,COUNTIF(D84:G84,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J84" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K84">
         <f>VLOOKUP(A84,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1.611851495</v>
+        <v>15.394965300000001</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B85">
         <f>VLOOKUP(A85,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
-      </c>
-      <c r="E85" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H85" s="22" t="str">
         <f>VLOOKUP(A85,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I85" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COUNTIF(D85:G85,"X")=0,COUNTIF(D85:G85,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J85" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K85">
         <f>VLOOKUP(A85,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>0.61</v>
+        <v>15.126177269999999</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B86">
         <f>VLOOKUP(A86,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>163</v>
-      </c>
-      <c r="E86" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H86" s="22" t="str">
         <f>VLOOKUP(A86,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I86" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COUNTIF(D86:G86,"X")=0,COUNTIF(D86:G86,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J86" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K86">
         <f>VLOOKUP(A86,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1</v>
+        <v>2.0841953969999998</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B87">
         <f>VLOOKUP(A87,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
-      </c>
-      <c r="E87" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H87" s="22" t="str">
@@ -11830,51 +11822,51 @@
         <v/>
       </c>
       <c r="I87" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COUNTIF(D87:G87,"X")=0,COUNTIF(D87:G87,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J87" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K87">
         <f>VLOOKUP(A87,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B88">
         <f>VLOOKUP(A88,[1]new_init_scalar_1!$A$2:$C$90,3,FALSE)</f>
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
-      </c>
-      <c r="E88" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H88" s="22" t="str">
         <f>VLOOKUP(A88,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="I88" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COUNTIF(D88:G88,"X")=0,COUNTIF(D88:G88,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="J88" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K88">
         <f>VLOOKUP(A88,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
-        <v>1</v>
+        <v>1.611851495</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K88">
     <sortState ref="A2:K88">
-      <sortCondition ref="A1:A88"/>
+      <sortCondition ref="C1:C88"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11968,9 +11960,9 @@
       <c r="B4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="e">
+      <c r="C4" t="str">
         <f>VLOOKUP(A4,'Group Condition'!A4:K90,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -12133,9 +12125,9 @@
       <c r="B14" t="s">
         <v>167</v>
       </c>
-      <c r="C14" t="e">
+      <c r="C14" t="str">
         <f>VLOOKUP(A14,'Group Condition'!A14:K100,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -12145,9 +12137,9 @@
       <c r="B15" t="s">
         <v>157</v>
       </c>
-      <c r="C15" t="e">
+      <c r="C15" t="str">
         <f>VLOOKUP(A15,'Group Condition'!A15:K101,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -12157,9 +12149,9 @@
       <c r="B16" t="s">
         <v>106</v>
       </c>
-      <c r="C16" t="e">
+      <c r="C16" t="str">
         <f>VLOOKUP(A16,'Group Condition'!A16:K102,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -12169,9 +12161,9 @@
       <c r="B17" t="s">
         <v>119</v>
       </c>
-      <c r="C17" t="e">
+      <c r="C17" t="str">
         <f>VLOOKUP(A17,'Group Condition'!A17:K103,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="D17" t="s">
         <v>291</v>
@@ -12190,9 +12182,9 @@
       <c r="B18" t="s">
         <v>137</v>
       </c>
-      <c r="C18" t="e">
+      <c r="C18" t="str">
         <f>VLOOKUP(A18,'Group Condition'!A18:K104,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -12202,9 +12194,9 @@
       <c r="B19" t="s">
         <v>95</v>
       </c>
-      <c r="C19" t="e">
+      <c r="C19" t="str">
         <f>VLOOKUP(A19,'Group Condition'!A19:K105,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="D19" t="s">
         <v>292</v>
@@ -12223,9 +12215,9 @@
       <c r="B20" t="s">
         <v>108</v>
       </c>
-      <c r="C20" t="e">
+      <c r="C20" t="str">
         <f>VLOOKUP(A20,'Group Condition'!A20:K106,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="D20" t="s">
         <v>293</v>
@@ -12265,9 +12257,9 @@
       <c r="B22" t="s">
         <v>164</v>
       </c>
-      <c r="C22" t="e">
+      <c r="C22" t="str">
         <f>VLOOKUP(A22,'Group Condition'!A22:K108,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -12289,9 +12281,9 @@
       <c r="B24" t="s">
         <v>170</v>
       </c>
-      <c r="C24" t="e">
+      <c r="C24" t="str">
         <f>VLOOKUP(A24,'Group Condition'!A24:K110,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -12301,9 +12293,9 @@
       <c r="B25" t="s">
         <v>125</v>
       </c>
-      <c r="C25" t="e">
+      <c r="C25" t="str">
         <f>VLOOKUP(A25,'Group Condition'!A25:K111,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="D25" t="s">
         <v>280</v>
@@ -12391,9 +12383,9 @@
       <c r="B31" t="s">
         <v>177</v>
       </c>
-      <c r="C31" t="e">
+      <c r="C31" t="str">
         <f>VLOOKUP(A31,'Group Condition'!A31:K117,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -12487,9 +12479,9 @@
       <c r="B38" t="s">
         <v>176</v>
       </c>
-      <c r="C38" t="e">
+      <c r="C38" t="str">
         <f>VLOOKUP(A38,'Group Condition'!A38:K124,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -12559,9 +12551,9 @@
       <c r="B42" t="s">
         <v>130</v>
       </c>
-      <c r="C42" t="e">
+      <c r="C42" t="str">
         <f>VLOOKUP(A42,'Group Condition'!A42:K128,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="E42" t="s">
         <v>339</v>
@@ -12574,9 +12566,9 @@
       <c r="B43" t="s">
         <v>111</v>
       </c>
-      <c r="C43" t="e">
+      <c r="C43" t="str">
         <f>VLOOKUP(A43,'Group Condition'!A43:K129,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="E43" t="s">
         <v>306</v>
@@ -12610,9 +12602,9 @@
       <c r="B45" t="s">
         <v>161</v>
       </c>
-      <c r="C45" t="e">
+      <c r="C45" t="str">
         <f>VLOOKUP(A45,'Group Condition'!A45:K131,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="F45" t="s">
         <v>354</v>
@@ -12625,9 +12617,9 @@
       <c r="B46" t="s">
         <v>123</v>
       </c>
-      <c r="C46" t="e">
+      <c r="C46" t="str">
         <f>VLOOKUP(A46,'Group Condition'!A46:K132,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="E46" t="s">
         <v>340</v>
@@ -12655,9 +12647,9 @@
       <c r="B48" t="s">
         <v>116</v>
       </c>
-      <c r="C48" t="e">
+      <c r="C48" t="str">
         <f>VLOOKUP(A48,'Group Condition'!A48:K134,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="E48" t="s">
         <v>309</v>
@@ -12673,9 +12665,9 @@
       <c r="B49" t="s">
         <v>156</v>
       </c>
-      <c r="C49" t="e">
+      <c r="C49" t="str">
         <f>VLOOKUP(A49,'Group Condition'!A49:K135,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -12685,9 +12677,9 @@
       <c r="B50" t="s">
         <v>109</v>
       </c>
-      <c r="C50" t="e">
+      <c r="C50" t="str">
         <f>VLOOKUP(A50,'Group Condition'!A50:K136,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -12697,9 +12689,9 @@
       <c r="B51" t="s">
         <v>136</v>
       </c>
-      <c r="C51" t="e">
+      <c r="C51" t="str">
         <f>VLOOKUP(A51,'Group Condition'!A51:K137,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="E51" t="s">
         <v>341</v>
@@ -12715,9 +12707,9 @@
       <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="C52" t="e">
+      <c r="C52" t="str">
         <f>VLOOKUP(A52,'Group Condition'!A52:K138,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -12739,9 +12731,9 @@
       <c r="B54" t="s">
         <v>162</v>
       </c>
-      <c r="C54" t="e">
+      <c r="C54" t="str">
         <f>VLOOKUP(A54,'Group Condition'!A54:K140,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="E54" t="s">
         <v>312</v>
@@ -12769,9 +12761,9 @@
       <c r="B56" t="s">
         <v>174</v>
       </c>
-      <c r="C56" t="e">
+      <c r="C56" t="str">
         <f>VLOOKUP(A56,'Group Condition'!A56:K142,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -12781,9 +12773,9 @@
       <c r="B57" t="s">
         <v>171</v>
       </c>
-      <c r="C57" t="e">
+      <c r="C57" t="str">
         <f>VLOOKUP(A57,'Group Condition'!A57:K143,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -12793,9 +12785,9 @@
       <c r="B58" t="s">
         <v>144</v>
       </c>
-      <c r="C58" t="e">
+      <c r="C58" t="str">
         <f>VLOOKUP(A58,'Group Condition'!A58:K144,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -12805,9 +12797,9 @@
       <c r="B59" t="s">
         <v>117</v>
       </c>
-      <c r="C59" t="e">
+      <c r="C59" t="str">
         <f>VLOOKUP(A59,'Group Condition'!A59:K145,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="E59" t="s">
         <v>311</v>
@@ -12823,9 +12815,9 @@
       <c r="B60" t="s">
         <v>138</v>
       </c>
-      <c r="C60" t="e">
+      <c r="C60" t="str">
         <f>VLOOKUP(A60,'Group Condition'!A60:K146,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -12835,9 +12827,9 @@
       <c r="B61" t="s">
         <v>159</v>
       </c>
-      <c r="C61" t="e">
+      <c r="C61" t="str">
         <f>VLOOKUP(A61,'Group Condition'!A61:K147,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D61" t="s">
         <v>313</v>
@@ -12856,9 +12848,9 @@
       <c r="B62" t="s">
         <v>118</v>
       </c>
-      <c r="C62" t="e">
+      <c r="C62" t="str">
         <f>VLOOKUP(A62,'Group Condition'!A62:K148,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="E62" t="s">
         <v>310</v>
@@ -12874,9 +12866,9 @@
       <c r="B63" t="s">
         <v>178</v>
       </c>
-      <c r="C63" t="e">
+      <c r="C63" t="str">
         <f>VLOOKUP(A63,'Group Condition'!A63:K149,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -12886,9 +12878,9 @@
       <c r="B64" t="s">
         <v>146</v>
       </c>
-      <c r="C64" t="e">
+      <c r="C64" t="str">
         <f>VLOOKUP(A64,'Group Condition'!A64:K150,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -12919,9 +12911,9 @@
       <c r="B66" t="s">
         <v>120</v>
       </c>
-      <c r="C66" t="e">
+      <c r="C66" t="str">
         <f>VLOOKUP(A66,'Group Condition'!A66:K152,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="D66" t="s">
         <v>315</v>
@@ -12940,9 +12932,9 @@
       <c r="B67" t="s">
         <v>153</v>
       </c>
-      <c r="C67" t="e">
+      <c r="C67" t="str">
         <f>VLOOKUP(A67,'Group Condition'!A67:K153,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -12952,9 +12944,9 @@
       <c r="B68" t="s">
         <v>143</v>
       </c>
-      <c r="C68" t="e">
+      <c r="C68" t="str">
         <f>VLOOKUP(A68,'Group Condition'!A68:K154,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="D68" t="s">
         <v>316</v>
@@ -12970,9 +12962,9 @@
       <c r="B69" t="s">
         <v>166</v>
       </c>
-      <c r="C69" t="e">
+      <c r="C69" t="str">
         <f>VLOOKUP(A69,'Group Condition'!A69:K155,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -12982,9 +12974,9 @@
       <c r="B70" t="s">
         <v>175</v>
       </c>
-      <c r="C70" t="e">
+      <c r="C70" t="str">
         <f>VLOOKUP(A70,'Group Condition'!A70:K156,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -12994,9 +12986,9 @@
       <c r="B71" t="s">
         <v>113</v>
       </c>
-      <c r="C71" t="e">
+      <c r="C71" t="str">
         <f>VLOOKUP(A71,'Group Condition'!A71:K157,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="E71" t="s">
         <v>286</v>
@@ -13012,9 +13004,9 @@
       <c r="B72" t="s">
         <v>160</v>
       </c>
-      <c r="C72" t="e">
+      <c r="C72" t="str">
         <f>VLOOKUP(A72,'Group Condition'!A72:K158,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -13024,9 +13016,9 @@
       <c r="B73" t="s">
         <v>115</v>
       </c>
-      <c r="C73" t="e">
+      <c r="C73" t="str">
         <f>VLOOKUP(A73,'Group Condition'!A73:K159,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="E73" t="s">
         <v>318</v>
@@ -13039,9 +13031,9 @@
       <c r="B74" t="s">
         <v>148</v>
       </c>
-      <c r="C74" t="e">
+      <c r="C74" t="str">
         <f>VLOOKUP(A74,'Group Condition'!A74:K160,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -13051,9 +13043,9 @@
       <c r="B75" t="s">
         <v>134</v>
       </c>
-      <c r="C75" t="e">
+      <c r="C75" t="str">
         <f>VLOOKUP(A75,'Group Condition'!A75:K161,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="F75" t="s">
         <v>375</v>
@@ -13066,9 +13058,9 @@
       <c r="B76" t="s">
         <v>133</v>
       </c>
-      <c r="C76" t="e">
+      <c r="C76" t="str">
         <f>VLOOKUP(A76,'Group Condition'!A76:K162,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="D76" t="s">
         <v>282</v>
@@ -13087,9 +13079,9 @@
       <c r="B77" t="s">
         <v>126</v>
       </c>
-      <c r="C77" t="e">
+      <c r="C77" t="str">
         <f>VLOOKUP(A77,'Group Condition'!A77:K163,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="D77" t="s">
         <v>283</v>
@@ -13108,9 +13100,9 @@
       <c r="B78" t="s">
         <v>97</v>
       </c>
-      <c r="C78" t="e">
+      <c r="C78" t="str">
         <f>VLOOKUP(A78,'Group Condition'!A78:K164,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="D78" t="s">
         <v>320</v>
@@ -13129,9 +13121,9 @@
       <c r="B79" t="s">
         <v>127</v>
       </c>
-      <c r="C79" t="e">
+      <c r="C79" t="str">
         <f>VLOOKUP(A79,'Group Condition'!A79:K165,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="E79" t="s">
         <v>322</v>
@@ -13147,9 +13139,9 @@
       <c r="B80" t="s">
         <v>121</v>
       </c>
-      <c r="C80" t="e">
+      <c r="C80" t="str">
         <f>VLOOKUP(A80,'Group Condition'!A80:K166,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="D80" t="s">
         <v>323</v>
@@ -13168,9 +13160,9 @@
       <c r="B81" t="s">
         <v>149</v>
       </c>
-      <c r="C81" t="e">
+      <c r="C81" t="str">
         <f>VLOOKUP(A81,'Group Condition'!A81:K167,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -13180,9 +13172,9 @@
       <c r="B82" t="s">
         <v>94</v>
       </c>
-      <c r="C82" t="e">
+      <c r="C82" t="str">
         <f>VLOOKUP(A82,'Group Condition'!A82:K168,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="E82" t="s">
         <v>327</v>
@@ -13195,9 +13187,9 @@
       <c r="B83" t="s">
         <v>96</v>
       </c>
-      <c r="C83" t="e">
+      <c r="C83" t="str">
         <f>VLOOKUP(A83,'Group Condition'!A83:K169,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -13207,9 +13199,9 @@
       <c r="B84" t="s">
         <v>98</v>
       </c>
-      <c r="C84" t="e">
+      <c r="C84" t="str">
         <f>VLOOKUP(A84,'Group Condition'!A84:K170,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="E84" t="s">
         <v>328</v>
@@ -13225,9 +13217,9 @@
       <c r="B85" t="s">
         <v>140</v>
       </c>
-      <c r="C85" t="e">
+      <c r="C85" t="str">
         <f>VLOOKUP(A85,'Group Condition'!A85:K171,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="D85" t="s">
         <v>329</v>
@@ -13243,9 +13235,9 @@
       <c r="B86" t="s">
         <v>99</v>
       </c>
-      <c r="C86" t="e">
+      <c r="C86" t="str">
         <f>VLOOKUP(A86,'Group Condition'!A86:K172,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
       <c r="E86" t="s">
         <v>325</v>
@@ -13261,9 +13253,9 @@
       <c r="B87" t="s">
         <v>128</v>
       </c>
-      <c r="C87" t="e">
+      <c r="C87" t="str">
         <f>VLOOKUP(A87,'Group Condition'!A87:K173,8,FALSE)</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="E87" t="s">
         <v>326</v>
@@ -13279,9 +13271,9 @@
       <c r="B88" t="s">
         <v>132</v>
       </c>
-      <c r="C88" t="e">
+      <c r="C88" t="str">
         <f>VLOOKUP(A88,'Group Condition'!A88:K174,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>X</v>
       </c>
     </row>
   </sheetData>
@@ -13648,9 +13640,9 @@
       <c r="C15" t="s">
         <v>157</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15">
         <f>VLOOKUP(A15,'Group Condition'!$A$2:$I$88,7,FALSE)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -14266,9 +14258,9 @@
       <c r="C49" t="s">
         <v>156</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="str">
         <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,7,FALSE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
@@ -14410,9 +14402,9 @@
       <c r="C61" t="s">
         <v>159</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="str">
         <f>VLOOKUP(A61,'Group Condition'!$A$2:$I$88,7,FALSE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="F61">
         <v>7</v>
@@ -14872,7 +14864,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -14955,12 +14947,12 @@
         <v>92</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D33" si="0">IF(F2="X","H",IF(G2="X","L",IF(H2="X","C","G")))</f>
+        <f t="shared" ref="D2:D9" si="0">IF(F2="X","H",IF(G2="X","L",IF(H2="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E2" s="34" t="str">
         <f>IF('Group Condition'!J40="","",'Group Condition'!J40)</f>
-        <v>no change</v>
+        <v>worse</v>
       </c>
       <c r="F2" s="34">
         <f>'Group Condition'!D40</f>
@@ -15003,15 +14995,15 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="E3" s="34" t="str">
         <f>IF('Group Condition'!J3="","",'Group Condition'!J3)</f>
         <v>worse</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="34" t="str">
         <f>'Group Condition'!D3</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G3" s="34">
         <f>'Group Condition'!E3</f>
@@ -15023,7 +15015,7 @@
       </c>
       <c r="I3" s="34" t="str">
         <f>'Group Condition'!I3</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J3"/>
       <c r="K3"/>
@@ -15048,7 +15040,7 @@
       </c>
       <c r="E4" s="34" t="str">
         <f>IF('Group Condition'!J4="","",'Group Condition'!J4)</f>
-        <v>invert</v>
+        <v>better</v>
       </c>
       <c r="F4" s="34">
         <f>'Group Condition'!D4</f>
@@ -15082,19 +15074,19 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>L</v>
+        <v>G</v>
       </c>
       <c r="E5" s="34" t="str">
         <f>IF('Group Condition'!J5="","",'Group Condition'!J5)</f>
-        <v>worse</v>
+        <v>better</v>
       </c>
       <c r="F5" s="34">
         <f>'Group Condition'!D5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="34" t="str">
+      <c r="G5" s="34">
         <f>'Group Condition'!E5</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H5" s="34">
         <f>'Group Condition'!G5</f>
@@ -15102,7 +15094,7 @@
       </c>
       <c r="I5" s="34" t="str">
         <f>'Group Condition'!I5</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -15126,7 +15118,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>L</v>
+        <v>G</v>
       </c>
       <c r="E6" s="34" t="str">
         <f>IF('Group Condition'!J6="","",'Group Condition'!J6)</f>
@@ -15136,9 +15128,9 @@
         <f>'Group Condition'!D6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="34" t="str">
+      <c r="G6" s="34">
         <f>'Group Condition'!E6</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H6" s="34">
         <f>'Group Condition'!G6</f>
@@ -15146,7 +15138,7 @@
       </c>
       <c r="I6" s="34" t="str">
         <f>'Group Condition'!I6</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="P6" t="s">
         <v>412</v>
@@ -15164,23 +15156,23 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>L</v>
+        <v>C</v>
       </c>
       <c r="E7" s="34" t="str">
         <f>IF('Group Condition'!J33="","",'Group Condition'!J33)</f>
-        <v>better</v>
+        <v>invert</v>
       </c>
       <c r="F7" s="34">
         <f>'Group Condition'!D33</f>
         <v>0</v>
       </c>
-      <c r="G7" s="34" t="str">
+      <c r="G7" s="34">
         <f>'Group Condition'!E33</f>
-        <v>X</v>
-      </c>
-      <c r="H7" s="34">
+        <v>0</v>
+      </c>
+      <c r="H7" s="34" t="str">
         <f>'Group Condition'!G33</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="I7" s="34" t="str">
         <f>'Group Condition'!I33</f>
@@ -15208,7 +15200,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>L</v>
       </c>
       <c r="E8" s="34" t="str">
         <f>IF('Group Condition'!J8="","",'Group Condition'!J8)</f>
@@ -15218,13 +15210,13 @@
         <f>'Group Condition'!D8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="34" t="str">
         <f>'Group Condition'!E8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="34" t="str">
+        <v>X</v>
+      </c>
+      <c r="H8" s="34">
         <f>'Group Condition'!G8</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="I8" s="34" t="str">
         <f>'Group Condition'!I8</f>
@@ -15246,7 +15238,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="E9" s="34" t="str">
         <f>IF('Group Condition'!J9="","",'Group Condition'!J9)</f>
@@ -15260,13 +15252,13 @@
         <f>'Group Condition'!E9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="34" t="str">
         <f>'Group Condition'!G9</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="I9" s="34" t="str">
         <f>'Group Condition'!I9</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J9"/>
       <c r="K9"/>
@@ -15286,16 +15278,16 @@
         <v>102</v>
       </c>
       <c r="D10" t="str">
-        <f>IF(F10="X","H",IF(G10="X","L",IF(H10="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" ref="D10:D41" si="1">IF(F10="X","H",IF(G10="X","L",IF(H10="X","C","G")))</f>
+        <v>G</v>
       </c>
       <c r="E10" s="34" t="str">
         <f>IF('Group Condition'!J50="","",'Group Condition'!J50)</f>
-        <v>worse</v>
-      </c>
-      <c r="F10" s="34" t="str">
+        <v>no change</v>
+      </c>
+      <c r="F10" s="34">
         <f>'Group Condition'!D50</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G10" s="34">
         <f>'Group Condition'!E50</f>
@@ -15307,7 +15299,7 @@
       </c>
       <c r="I10" s="34" t="str">
         <f>'Group Condition'!I50</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>410</v>
@@ -15327,20 +15319,20 @@
         <v>101</v>
       </c>
       <c r="D11" t="str">
-        <f>IF(F11="X","H",IF(G11="X","L",IF(H11="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" si="1"/>
+        <v>L</v>
       </c>
       <c r="E11" s="34" t="str">
         <f>IF('Group Condition'!J32="","",'Group Condition'!J32)</f>
         <v>better</v>
       </c>
-      <c r="F11" s="34" t="str">
+      <c r="F11" s="34">
         <f>'Group Condition'!D32</f>
-        <v>X</v>
-      </c>
-      <c r="G11" s="34">
+        <v>0</v>
+      </c>
+      <c r="G11" s="34" t="str">
         <f>'Group Condition'!E32</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H11" s="34">
         <f>'Group Condition'!G32</f>
@@ -15370,7 +15362,7 @@
         <v>160</v>
       </c>
       <c r="D12" t="str">
-        <f>IF(F12="X","H",IF(G12="X","L",IF(H12="X","C","G")))</f>
+        <f t="shared" si="1"/>
         <v>C</v>
       </c>
       <c r="E12" s="34" t="str">
@@ -15408,20 +15400,20 @@
         <v>176</v>
       </c>
       <c r="D13" t="str">
-        <f>IF(F13="X","H",IF(G13="X","L",IF(H13="X","C","G")))</f>
-        <v>L</v>
+        <f t="shared" si="1"/>
+        <v>G</v>
       </c>
       <c r="E13" s="34" t="str">
         <f>IF('Group Condition'!J13="","",'Group Condition'!J13)</f>
-        <v>worse</v>
+        <v/>
       </c>
       <c r="F13" s="34">
         <f>'Group Condition'!D13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="34" t="str">
+      <c r="G13" s="34">
         <f>'Group Condition'!E13</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H13" s="34">
         <f>'Group Condition'!G13</f>
@@ -15429,7 +15421,7 @@
       </c>
       <c r="I13" s="34" t="str">
         <f>'Group Condition'!I13</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
@@ -15449,16 +15441,16 @@
         <v>109</v>
       </c>
       <c r="D14" t="str">
-        <f>IF(F14="X","H",IF(G14="X","L",IF(H14="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="1"/>
+        <v>L</v>
       </c>
       <c r="F14" s="34">
         <f>'Group Condition'!D14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="34" t="str">
         <f>'Group Condition'!E14</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H14" s="34">
         <f>'Group Condition'!G14</f>
@@ -15466,7 +15458,7 @@
       </c>
       <c r="I14" s="34" t="str">
         <f>'Group Condition'!I14</f>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -15480,16 +15472,16 @@
         <v>129</v>
       </c>
       <c r="D15" t="str">
-        <f>IF(F15="X","H",IF(G15="X","L",IF(H15="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" si="1"/>
+        <v>G</v>
       </c>
       <c r="E15" s="34" t="str">
         <f>IF('Group Condition'!J65="","",'Group Condition'!J65)</f>
         <v>worse</v>
       </c>
-      <c r="F15" s="34" t="str">
+      <c r="F15" s="34">
         <f>'Group Condition'!D65</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G15" s="34">
         <f>'Group Condition'!E65</f>
@@ -15501,7 +15493,7 @@
       </c>
       <c r="I15" s="34" t="str">
         <f>'Group Condition'!I65</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>411</v>
@@ -15524,20 +15516,20 @@
         <v>119</v>
       </c>
       <c r="D16" t="str">
-        <f>IF(F16="X","H",IF(G16="X","L",IF(H16="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" si="1"/>
+        <v>L</v>
       </c>
       <c r="E16" s="34" t="str">
         <f>IF('Group Condition'!J15="","",'Group Condition'!J15)</f>
-        <v>no change</v>
-      </c>
-      <c r="F16" s="34" t="str">
+        <v>better</v>
+      </c>
+      <c r="F16" s="34">
         <f>'Group Condition'!D15</f>
-        <v>X</v>
-      </c>
-      <c r="G16" s="34">
+        <v>0</v>
+      </c>
+      <c r="G16" s="34" t="str">
         <f>'Group Condition'!E15</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H16" s="34">
         <f>'Group Condition'!G15</f>
@@ -15565,16 +15557,16 @@
         <v>147</v>
       </c>
       <c r="D17" t="str">
-        <f>IF(F17="X","H",IF(G17="X","L",IF(H17="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="1"/>
+        <v>H</v>
       </c>
       <c r="E17" s="34" t="str">
         <f>IF('Group Condition'!J17="","",'Group Condition'!J17)</f>
-        <v/>
-      </c>
-      <c r="F17" s="34">
+        <v>no change</v>
+      </c>
+      <c r="F17" s="34" t="str">
         <f>'Group Condition'!D17</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G17" s="34">
         <f>'Group Condition'!E17</f>
@@ -15586,7 +15578,7 @@
       </c>
       <c r="I17" s="34" t="str">
         <f>'Group Condition'!I17</f>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -15600,24 +15592,24 @@
         <v>155</v>
       </c>
       <c r="D18" t="str">
-        <f>IF(F18="X","H",IF(G18="X","L",IF(H18="X","C","G")))</f>
-        <v>C</v>
+        <f t="shared" si="1"/>
+        <v>H</v>
       </c>
       <c r="E18" s="34" t="str">
         <f>IF('Group Condition'!J18="","",'Group Condition'!J18)</f>
-        <v>invert</v>
-      </c>
-      <c r="F18" s="34">
+        <v>no change</v>
+      </c>
+      <c r="F18" s="34" t="str">
         <f>'Group Condition'!D18</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G18" s="34">
         <f>'Group Condition'!E18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="34" t="str">
+      <c r="H18" s="34">
         <f>'Group Condition'!G18</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="I18" s="34" t="str">
         <f>'Group Condition'!I18</f>
@@ -15638,16 +15630,16 @@
         <v>114</v>
       </c>
       <c r="D19" t="str">
-        <f>IF(F19="X","H",IF(G19="X","L",IF(H19="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="1"/>
+        <v>H</v>
       </c>
       <c r="E19" s="34" t="str">
         <f>IF('Group Condition'!J19="","",'Group Condition'!J19)</f>
-        <v>better</v>
-      </c>
-      <c r="F19" s="34">
+        <v>invert</v>
+      </c>
+      <c r="F19" s="34" t="str">
         <f>'Group Condition'!D19</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G19" s="34">
         <f>'Group Condition'!E19</f>
@@ -15659,7 +15651,7 @@
       </c>
       <c r="I19" s="34" t="str">
         <f>'Group Condition'!I19</f>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -15673,20 +15665,20 @@
         <v>170</v>
       </c>
       <c r="D20" t="str">
-        <f>IF(F20="X","H",IF(G20="X","L",IF(H20="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="1"/>
+        <v>L</v>
       </c>
       <c r="E20" s="34" t="str">
         <f>IF('Group Condition'!J20="","",'Group Condition'!J20)</f>
-        <v>better</v>
+        <v>worse</v>
       </c>
       <c r="F20" s="34">
         <f>'Group Condition'!D20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="34" t="str">
         <f>'Group Condition'!E20</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H20" s="34">
         <f>'Group Condition'!G20</f>
@@ -15694,7 +15686,7 @@
       </c>
       <c r="I20" s="34" t="str">
         <f>'Group Condition'!I20</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -15714,20 +15706,20 @@
         <v>177</v>
       </c>
       <c r="D21" t="str">
-        <f>IF(F21="X","H",IF(G21="X","L",IF(H21="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="1"/>
+        <v>L</v>
       </c>
       <c r="E21" s="34" t="str">
         <f>IF('Group Condition'!J21="","",'Group Condition'!J21)</f>
-        <v/>
+        <v>no change</v>
       </c>
       <c r="F21" s="34">
         <f>'Group Condition'!D21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="34" t="str">
         <f>'Group Condition'!E21</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H21" s="34">
         <f>'Group Condition'!G21</f>
@@ -15735,7 +15727,7 @@
       </c>
       <c r="I21" s="34" t="str">
         <f>'Group Condition'!I21</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -15755,12 +15747,12 @@
         <v>137</v>
       </c>
       <c r="D22" t="str">
-        <f>IF(F22="X","H",IF(G22="X","L",IF(H22="X","C","G")))</f>
+        <f t="shared" si="1"/>
         <v>H</v>
       </c>
       <c r="E22" s="34" t="str">
         <f>IF('Group Condition'!J11="","",'Group Condition'!J11)</f>
-        <v>no change</v>
+        <v>worse</v>
       </c>
       <c r="F22" s="34" t="str">
         <f>'Group Condition'!D11</f>
@@ -15800,7 +15792,7 @@
         <v>178</v>
       </c>
       <c r="D23" t="str">
-        <f>IF(F23="X","H",IF(G23="X","L",IF(H23="X","C","G")))</f>
+        <f t="shared" si="1"/>
         <v>G</v>
       </c>
       <c r="E23" s="34" t="str">
@@ -15841,12 +15833,12 @@
         <v>100</v>
       </c>
       <c r="D24" t="str">
-        <f>IF(F24="X","H",IF(G24="X","L",IF(H24="X","C","G")))</f>
+        <f t="shared" si="1"/>
         <v>G</v>
       </c>
       <c r="E24" s="34" t="str">
         <f>IF('Group Condition'!J29="","",'Group Condition'!J29)</f>
-        <v>better</v>
+        <v/>
       </c>
       <c r="F24" s="34">
         <f>'Group Condition'!D29</f>
@@ -15879,16 +15871,16 @@
         <v>136</v>
       </c>
       <c r="D25" t="str">
-        <f>IF(F25="X","H",IF(G25="X","L",IF(H25="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="1"/>
+        <v>H</v>
       </c>
       <c r="E25" s="34" t="str">
         <f>IF('Group Condition'!J25="","",'Group Condition'!J25)</f>
         <v>worse</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="34" t="str">
         <f>'Group Condition'!D25</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G25" s="34">
         <f>'Group Condition'!E25</f>
@@ -15900,7 +15892,7 @@
       </c>
       <c r="I25" s="34" t="str">
         <f>'Group Condition'!I25</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -15920,20 +15912,20 @@
         <v>95</v>
       </c>
       <c r="D26" t="str">
-        <f>IF(F26="X","H",IF(G26="X","L",IF(H26="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" si="1"/>
+        <v>L</v>
       </c>
       <c r="E26" s="34" t="str">
         <f>IF('Group Condition'!J10="","",'Group Condition'!J10)</f>
-        <v>invert</v>
-      </c>
-      <c r="F26" s="34" t="str">
+        <v>better</v>
+      </c>
+      <c r="F26" s="34">
         <f>'Group Condition'!D10</f>
-        <v>X</v>
-      </c>
-      <c r="G26" s="34">
+        <v>0</v>
+      </c>
+      <c r="G26" s="34" t="str">
         <f>'Group Condition'!E10</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H26" s="34">
         <f>'Group Condition'!G10</f>
@@ -15967,20 +15959,20 @@
         <v>130</v>
       </c>
       <c r="D27" t="str">
-        <f>IF(F27="X","H",IF(G27="X","L",IF(H27="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="1"/>
+        <v>L</v>
       </c>
       <c r="E27" s="34" t="str">
         <f>IF('Group Condition'!J27="","",'Group Condition'!J27)</f>
-        <v>worse</v>
+        <v>better</v>
       </c>
       <c r="F27" s="34">
         <f>'Group Condition'!D27</f>
         <v>0</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="34" t="str">
         <f>'Group Condition'!E27</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H27" s="34">
         <f>'Group Condition'!G27</f>
@@ -15988,7 +15980,7 @@
       </c>
       <c r="I27" s="34" t="str">
         <f>'Group Condition'!I27</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -16008,16 +16000,16 @@
         <v>125</v>
       </c>
       <c r="D28" t="str">
-        <f>IF(F28="X","H",IF(G28="X","L",IF(H28="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" si="1"/>
+        <v>G</v>
       </c>
       <c r="E28" s="34" t="str">
         <f>IF('Group Condition'!J24="","",'Group Condition'!J24)</f>
-        <v>worse</v>
-      </c>
-      <c r="F28" s="34" t="str">
+        <v>better</v>
+      </c>
+      <c r="F28" s="34">
         <f>'Group Condition'!D24</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G28" s="34">
         <f>'Group Condition'!E24</f>
@@ -16029,7 +16021,7 @@
       </c>
       <c r="I28" s="34" t="str">
         <f>'Group Condition'!I24</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L28" s="13" t="s">
         <v>411</v>
@@ -16052,28 +16044,28 @@
         <v>111</v>
       </c>
       <c r="D29" t="str">
-        <f>IF(F29="X","H",IF(G29="X","L",IF(H29="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" si="1"/>
+        <v>G</v>
       </c>
       <c r="E29" s="34" t="str">
         <f>IF('Group Condition'!J30="","",'Group Condition'!J30)</f>
-        <v>worse</v>
-      </c>
-      <c r="F29" s="34" t="str">
+        <v>better</v>
+      </c>
+      <c r="F29" s="34">
         <f>'Group Condition'!D30</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G29" s="34">
         <f>'Group Condition'!E30</f>
         <v>0</v>
       </c>
-      <c r="H29" s="34" t="str">
+      <c r="H29" s="34">
         <f>'Group Condition'!G30</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="I29" s="34" t="str">
         <f>'Group Condition'!I30</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L29" s="13" t="s">
         <v>423</v>
@@ -16096,16 +16088,16 @@
         <v>116</v>
       </c>
       <c r="D30" t="str">
-        <f>IF(F30="X","H",IF(G30="X","L",IF(H30="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" si="1"/>
+        <v>L</v>
       </c>
       <c r="E30" s="34" t="str">
         <f>IF('Group Condition'!J44="","",'Group Condition'!J44)</f>
         <v>worse</v>
       </c>
-      <c r="F30" s="34" t="str">
+      <c r="F30" s="34">
         <f>'Group Condition'!D44</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G30" s="34" t="str">
         <f>'Group Condition'!E44</f>
@@ -16137,16 +16129,16 @@
         <v>104</v>
       </c>
       <c r="D31" t="str">
-        <f>IF(F31="X","H",IF(G31="X","L",IF(H31="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="1"/>
+        <v>H</v>
       </c>
       <c r="E31" s="34" t="str">
         <f>IF('Group Condition'!J7="","",'Group Condition'!J7)</f>
         <v>better</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="34" t="str">
         <f>'Group Condition'!D7</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G31" s="34">
         <f>'Group Condition'!E7</f>
@@ -16158,7 +16150,7 @@
       </c>
       <c r="I31" s="34" t="str">
         <f>'Group Condition'!I7</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J31"/>
       <c r="K31"/>
@@ -16177,8 +16169,8 @@
         <v>107</v>
       </c>
       <c r="D32" t="str">
-        <f>IF(F32="X","H",IF(G32="X","L",IF(H32="X","C","G")))</f>
-        <v>L</v>
+        <f t="shared" si="1"/>
+        <v>G</v>
       </c>
       <c r="E32" s="34" t="str">
         <f>IF('Group Condition'!J42="","",'Group Condition'!J42)</f>
@@ -16188,9 +16180,9 @@
         <f>'Group Condition'!D42</f>
         <v>0</v>
       </c>
-      <c r="G32" s="34" t="str">
+      <c r="G32" s="34">
         <f>'Group Condition'!E42</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H32" s="34">
         <f>'Group Condition'!G42</f>
@@ -16198,7 +16190,7 @@
       </c>
       <c r="I32" s="34" t="str">
         <f>'Group Condition'!I42</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>410</v>
@@ -16224,20 +16216,20 @@
         <v>108</v>
       </c>
       <c r="D33" t="str">
-        <f>IF(F33="X","H",IF(G33="X","L",IF(H33="X","C","G")))</f>
-        <v>L</v>
+        <f t="shared" si="1"/>
+        <v>G</v>
       </c>
       <c r="E33" s="34" t="str">
         <f>IF('Group Condition'!J16="","",'Group Condition'!J16)</f>
-        <v>worse</v>
+        <v>no change</v>
       </c>
       <c r="F33" s="34">
         <f>'Group Condition'!D16</f>
         <v>0</v>
       </c>
-      <c r="G33" s="34" t="str">
+      <c r="G33" s="34">
         <f>'Group Condition'!E16</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H33" s="34">
         <f>'Group Condition'!G16</f>
@@ -16245,7 +16237,7 @@
       </c>
       <c r="I33" s="34" t="str">
         <f>'Group Condition'!I16</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L33" s="13" t="s">
         <v>423</v>
@@ -16265,12 +16257,12 @@
         <v>150</v>
       </c>
       <c r="D34" t="str">
-        <f>IF(F34="X","H",IF(G34="X","L",IF(H34="X","C","G")))</f>
+        <f t="shared" si="1"/>
         <v>G</v>
       </c>
       <c r="E34" s="34" t="str">
         <f>IF('Group Condition'!J34="","",'Group Condition'!J34)</f>
-        <v>better</v>
+        <v/>
       </c>
       <c r="F34" s="34">
         <f>'Group Condition'!D34</f>
@@ -16306,20 +16298,20 @@
         <v>152</v>
       </c>
       <c r="D35" t="str">
-        <f>IF(F35="X","H",IF(G35="X","L",IF(H35="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="1"/>
+        <v>L</v>
       </c>
       <c r="E35" s="34" t="str">
         <f>IF('Group Condition'!J35="","",'Group Condition'!J35)</f>
-        <v/>
+        <v>no change</v>
       </c>
       <c r="F35" s="34">
         <f>'Group Condition'!D35</f>
         <v>0</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="34" t="str">
         <f>'Group Condition'!E35</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H35" s="34">
         <f>'Group Condition'!G35</f>
@@ -16327,7 +16319,7 @@
       </c>
       <c r="I35" s="34" t="str">
         <f>'Group Condition'!I35</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J35"/>
       <c r="K35"/>
@@ -16347,12 +16339,12 @@
         <v>158</v>
       </c>
       <c r="D36" t="str">
-        <f>IF(F36="X","H",IF(G36="X","L",IF(H36="X","C","G")))</f>
-        <v>C</v>
+        <f t="shared" si="1"/>
+        <v>G</v>
       </c>
       <c r="E36" s="34" t="str">
         <f>IF('Group Condition'!J36="","",'Group Condition'!J36)</f>
-        <v>invert</v>
+        <v/>
       </c>
       <c r="F36" s="34">
         <f>'Group Condition'!D36</f>
@@ -16362,13 +16354,13 @@
         <f>'Group Condition'!E36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="34" t="str">
+      <c r="H36" s="34">
         <f>'Group Condition'!G36</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="I36" s="34" t="str">
         <f>'Group Condition'!I36</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
@@ -16391,20 +16383,20 @@
         <v>110</v>
       </c>
       <c r="D37" t="str">
-        <f>IF(F37="X","H",IF(G37="X","L",IF(H37="X","C","G")))</f>
-        <v>L</v>
+        <f t="shared" si="1"/>
+        <v>G</v>
       </c>
       <c r="E37" s="34" t="str">
         <f>IF('Group Condition'!J2="","",'Group Condition'!J2)</f>
-        <v>better</v>
+        <v>worse</v>
       </c>
       <c r="F37" s="34">
         <f>'Group Condition'!D2</f>
         <v>0</v>
       </c>
-      <c r="G37" s="34" t="str">
+      <c r="G37" s="34">
         <f>'Group Condition'!E2</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H37" s="34">
         <f>'Group Condition'!G2</f>
@@ -16412,7 +16404,7 @@
       </c>
       <c r="I37" s="34" t="str">
         <f>'Group Condition'!I2</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>410</v>
@@ -16435,20 +16427,20 @@
         <v>151</v>
       </c>
       <c r="D38" t="str">
-        <f>IF(F38="X","H",IF(G38="X","L",IF(H38="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="1"/>
+        <v>L</v>
       </c>
       <c r="E38" s="34" t="str">
         <f>IF('Group Condition'!J38="","",'Group Condition'!J38)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F38" s="34">
         <f>'Group Condition'!D38</f>
         <v>0</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="34" t="str">
         <f>'Group Condition'!E38</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H38" s="34">
         <f>'Group Condition'!G38</f>
@@ -16456,7 +16448,7 @@
       </c>
       <c r="I38" s="34" t="str">
         <f>'Group Condition'!I38</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J38"/>
       <c r="K38"/>
@@ -16476,20 +16468,20 @@
         <v>165</v>
       </c>
       <c r="D39" t="str">
-        <f>IF(F39="X","H",IF(G39="X","L",IF(H39="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="1"/>
+        <v>L</v>
       </c>
       <c r="E39" s="34" t="str">
         <f>IF('Group Condition'!J39="","",'Group Condition'!J39)</f>
-        <v/>
+        <v>better</v>
       </c>
       <c r="F39" s="34">
         <f>'Group Condition'!D39</f>
         <v>0</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39" s="34" t="str">
         <f>'Group Condition'!E39</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H39" s="34">
         <f>'Group Condition'!G39</f>
@@ -16497,7 +16489,7 @@
       </c>
       <c r="I39" s="34" t="str">
         <f>'Group Condition'!I39</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J39"/>
       <c r="K39"/>
@@ -16517,16 +16509,16 @@
         <v>103</v>
       </c>
       <c r="D40" t="str">
-        <f>IF(F40="X","H",IF(G40="X","L",IF(H40="X","C","G")))</f>
-        <v>H</v>
-      </c>
-      <c r="F40" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>L</v>
+      </c>
+      <c r="F40" s="34">
         <f>'Group Condition'!D28</f>
-        <v>X</v>
-      </c>
-      <c r="G40" s="34">
+        <v>0</v>
+      </c>
+      <c r="G40" s="34" t="str">
         <f>'Group Condition'!E28</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H40" s="34">
         <f>'Group Condition'!G28</f>
@@ -16554,24 +16546,24 @@
         <v>112</v>
       </c>
       <c r="D41" t="str">
-        <f>IF(F41="X","H",IF(G41="X","L",IF(H41="X","C","G")))</f>
-        <v>C</v>
+        <f t="shared" si="1"/>
+        <v>L</v>
       </c>
       <c r="E41" s="34" t="str">
         <f>IF('Group Condition'!J41="","",'Group Condition'!J41)</f>
-        <v>no change</v>
+        <v>worse</v>
       </c>
       <c r="F41" s="34">
         <f>'Group Condition'!D41</f>
         <v>0</v>
       </c>
-      <c r="G41" s="34">
+      <c r="G41" s="34" t="str">
         <f>'Group Condition'!E41</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="34" t="str">
+        <v>X</v>
+      </c>
+      <c r="H41" s="34">
         <f>'Group Condition'!G41</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="I41" s="34" t="str">
         <f>'Group Condition'!I41</f>
@@ -16601,24 +16593,24 @@
         <v>115</v>
       </c>
       <c r="D42" t="str">
-        <f>IF(F42="X","H",IF(G42="X","L",IF(H42="X","C","G")))</f>
-        <v>L</v>
+        <f t="shared" ref="D42:D73" si="2">IF(F42="X","H",IF(G42="X","L",IF(H42="X","C","G")))</f>
+        <v>C</v>
       </c>
       <c r="E42" s="34" t="str">
         <f>IF('Group Condition'!J67="","",'Group Condition'!J67)</f>
-        <v>worse</v>
+        <v>better</v>
       </c>
       <c r="F42" s="34">
         <f>'Group Condition'!D67</f>
         <v>0</v>
       </c>
-      <c r="G42" s="34" t="str">
+      <c r="G42" s="34">
         <f>'Group Condition'!E67</f>
-        <v>X</v>
-      </c>
-      <c r="H42" s="34">
+        <v>0</v>
+      </c>
+      <c r="H42" s="34" t="str">
         <f>'Group Condition'!G67</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="I42" s="34" t="str">
         <f>'Group Condition'!I67</f>
@@ -16646,28 +16638,28 @@
         <v>161</v>
       </c>
       <c r="D43" t="str">
-        <f>IF(F43="X","H",IF(G43="X","L",IF(H43="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="2"/>
+        <v>H</v>
       </c>
       <c r="E43" s="34" t="str">
         <f>IF('Group Condition'!J43="","",'Group Condition'!J43)</f>
-        <v/>
-      </c>
-      <c r="F43" s="34">
+        <v>worse</v>
+      </c>
+      <c r="F43" s="34" t="str">
         <f>'Group Condition'!D43</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G43" s="34">
         <f>'Group Condition'!E43</f>
         <v>0</v>
       </c>
-      <c r="H43" s="34">
+      <c r="H43" s="34" t="str">
         <f>'Group Condition'!G43</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="I43" s="34" t="str">
         <f>'Group Condition'!I43</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J43"/>
       <c r="K43"/>
@@ -16687,16 +16679,16 @@
         <v>117</v>
       </c>
       <c r="D44" t="str">
-        <f>IF(F44="X","H",IF(G44="X","L",IF(H44="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" si="2"/>
+        <v>G</v>
       </c>
       <c r="E44" s="34" t="str">
         <f>IF('Group Condition'!J51="","",'Group Condition'!J51)</f>
         <v>worse</v>
       </c>
-      <c r="F44" s="34" t="str">
+      <c r="F44" s="34">
         <f>'Group Condition'!D51</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G44" s="34">
         <f>'Group Condition'!E51</f>
@@ -16708,7 +16700,7 @@
       </c>
       <c r="I44" s="34" t="str">
         <f>'Group Condition'!I51</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
@@ -16726,20 +16718,20 @@
         <v>141</v>
       </c>
       <c r="D45" t="str">
-        <f>IF(F45="X","H",IF(G45="X","L",IF(H45="X","C","G")))</f>
-        <v>L</v>
+        <f t="shared" si="2"/>
+        <v>G</v>
       </c>
       <c r="E45" s="34" t="str">
         <f>IF('Group Condition'!J37="","",'Group Condition'!J37)</f>
-        <v>better</v>
+        <v>no change</v>
       </c>
       <c r="F45" s="34">
         <f>'Group Condition'!D37</f>
         <v>0</v>
       </c>
-      <c r="G45" s="34" t="str">
+      <c r="G45" s="34">
         <f>'Group Condition'!E37</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H45" s="34">
         <f>'Group Condition'!G37</f>
@@ -16747,7 +16739,7 @@
       </c>
       <c r="I45" s="34" t="str">
         <f>'Group Condition'!I37</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L45" s="13" t="s">
         <v>423</v>
@@ -16764,20 +16756,20 @@
         <v>162</v>
       </c>
       <c r="D46" t="str">
-        <f>IF(F46="X","H",IF(G46="X","L",IF(H46="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="2"/>
+        <v>L</v>
       </c>
       <c r="E46" s="34" t="str">
         <f>IF('Group Condition'!J46="","",'Group Condition'!J46)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F46" s="34">
         <f>'Group Condition'!D46</f>
         <v>0</v>
       </c>
-      <c r="G46" s="34">
+      <c r="G46" s="34" t="str">
         <f>'Group Condition'!E46</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H46" s="34">
         <f>'Group Condition'!G46</f>
@@ -16785,7 +16777,7 @@
       </c>
       <c r="I46" s="34" t="str">
         <f>'Group Condition'!I46</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -16805,20 +16797,20 @@
         <v>174</v>
       </c>
       <c r="D47" t="str">
-        <f>IF(F47="X","H",IF(G47="X","L",IF(H47="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="2"/>
+        <v>L</v>
       </c>
       <c r="E47" s="34" t="str">
         <f>IF('Group Condition'!J47="","",'Group Condition'!J47)</f>
-        <v>worse</v>
+        <v>better</v>
       </c>
       <c r="F47" s="34">
         <f>'Group Condition'!D47</f>
         <v>0</v>
       </c>
-      <c r="G47" s="34">
+      <c r="G47" s="34" t="str">
         <f>'Group Condition'!E47</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H47" s="34">
         <f>'Group Condition'!G47</f>
@@ -16826,7 +16818,7 @@
       </c>
       <c r="I47" s="34" t="str">
         <f>'Group Condition'!I47</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -16846,16 +16838,16 @@
         <v>144</v>
       </c>
       <c r="D48" t="str">
-        <f>IF(F48="X","H",IF(G48="X","L",IF(H48="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="2"/>
+        <v>H</v>
       </c>
       <c r="E48" s="34" t="str">
         <f>IF('Group Condition'!J48="","",'Group Condition'!J48)</f>
-        <v/>
-      </c>
-      <c r="F48" s="34">
+        <v>worse</v>
+      </c>
+      <c r="F48" s="34" t="str">
         <f>'Group Condition'!D48</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G48" s="34">
         <f>'Group Condition'!E48</f>
@@ -16867,7 +16859,7 @@
       </c>
       <c r="I48" s="34" t="str">
         <f>'Group Condition'!I48</f>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -16881,12 +16873,12 @@
         <v>169</v>
       </c>
       <c r="D49" t="str">
-        <f>IF(F49="X","H",IF(G49="X","L",IF(H49="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="2"/>
+        <v>C</v>
       </c>
       <c r="E49" s="34" t="str">
         <f>IF('Group Condition'!J49="","",'Group Condition'!J49)</f>
-        <v/>
+        <v>better</v>
       </c>
       <c r="F49" s="34">
         <f>'Group Condition'!D49</f>
@@ -16896,13 +16888,13 @@
         <f>'Group Condition'!E49</f>
         <v>0</v>
       </c>
-      <c r="H49" s="34">
+      <c r="H49" s="34" t="str">
         <f>'Group Condition'!G49</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="I49" s="34" t="str">
         <f>'Group Condition'!I49</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -16922,16 +16914,16 @@
         <v>120</v>
       </c>
       <c r="D50" t="str">
-        <f>IF(F50="X","H",IF(G50="X","L",IF(H50="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" si="2"/>
+        <v>G</v>
       </c>
       <c r="E50" s="34" t="str">
         <f>IF('Group Condition'!J64="","",'Group Condition'!J64)</f>
-        <v>worse</v>
-      </c>
-      <c r="F50" s="34" t="str">
+        <v/>
+      </c>
+      <c r="F50" s="34">
         <f>'Group Condition'!D64</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G50" s="34">
         <f>'Group Condition'!E64</f>
@@ -16943,7 +16935,7 @@
       </c>
       <c r="I50" s="34" t="str">
         <f>'Group Condition'!I64</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J50" s="13" t="s">
         <v>410</v>
@@ -16969,24 +16961,24 @@
         <v>134</v>
       </c>
       <c r="D51" t="str">
-        <f>IF(F51="X","H",IF(G51="X","L",IF(H51="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" si="2"/>
+        <v>C</v>
       </c>
       <c r="E51" s="34" t="str">
         <f>IF('Group Condition'!J69="","",'Group Condition'!J69)</f>
-        <v>worse</v>
-      </c>
-      <c r="F51" s="34" t="str">
+        <v/>
+      </c>
+      <c r="F51" s="34">
         <f>'Group Condition'!D69</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G51" s="34">
         <f>'Group Condition'!E69</f>
         <v>0</v>
       </c>
-      <c r="H51" s="34">
+      <c r="H51" s="34" t="str">
         <f>'Group Condition'!G69</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="I51" s="34" t="str">
         <f>'Group Condition'!I69</f>
@@ -17010,16 +17002,16 @@
         <v>138</v>
       </c>
       <c r="D52" t="str">
-        <f>IF(F52="X","H",IF(G52="X","L",IF(H52="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="2"/>
+        <v>H</v>
       </c>
       <c r="E52" s="34" t="str">
         <f>IF('Group Condition'!J52="","",'Group Condition'!J52)</f>
-        <v/>
-      </c>
-      <c r="F52" s="34">
+        <v>worse</v>
+      </c>
+      <c r="F52" s="34" t="str">
         <f>'Group Condition'!D52</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G52" s="34">
         <f>'Group Condition'!E52</f>
@@ -17031,7 +17023,7 @@
       </c>
       <c r="I52" s="34" t="str">
         <f>'Group Condition'!I52</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -17051,12 +17043,12 @@
         <v>171</v>
       </c>
       <c r="D53" t="str">
-        <f>IF(F53="X","H",IF(G53="X","L",IF(H53="X","C","G")))</f>
+        <f t="shared" si="2"/>
         <v>G</v>
       </c>
       <c r="E53" s="34" t="str">
         <f>IF('Group Condition'!J53="","",'Group Condition'!J53)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F53" s="34">
         <f>'Group Condition'!D53</f>
@@ -17092,12 +17084,12 @@
         <v>139</v>
       </c>
       <c r="D54" t="str">
-        <f>IF(F54="X","H",IF(G54="X","L",IF(H54="X","C","G")))</f>
+        <f t="shared" si="2"/>
         <v>G</v>
       </c>
       <c r="E54" s="34" t="str">
         <f>IF('Group Condition'!J54="","",'Group Condition'!J54)</f>
-        <v>worse</v>
+        <v/>
       </c>
       <c r="F54" s="34">
         <f>'Group Condition'!D54</f>
@@ -17131,20 +17123,20 @@
         <v>154</v>
       </c>
       <c r="D55" t="str">
-        <f>IF(F55="X","H",IF(G55="X","L",IF(H55="X","C","G")))</f>
-        <v>L</v>
+        <f t="shared" si="2"/>
+        <v>G</v>
       </c>
       <c r="E55" s="34" t="str">
         <f>IF('Group Condition'!J55="","",'Group Condition'!J55)</f>
-        <v>better</v>
+        <v>worse</v>
       </c>
       <c r="F55" s="34">
         <f>'Group Condition'!D55</f>
         <v>0</v>
       </c>
-      <c r="G55" s="34" t="str">
+      <c r="G55" s="34">
         <f>'Group Condition'!E55</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H55" s="34">
         <f>'Group Condition'!G55</f>
@@ -17152,7 +17144,7 @@
       </c>
       <c r="I55" s="34" t="str">
         <f>'Group Condition'!I55</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="P55" t="s">
         <v>412</v>
@@ -17169,12 +17161,12 @@
         <v>159</v>
       </c>
       <c r="D56" t="str">
-        <f>IF(F56="X","H",IF(G56="X","L",IF(H56="X","C","G")))</f>
+        <f t="shared" si="2"/>
         <v>G</v>
       </c>
       <c r="E56" s="34" t="str">
         <f>IF('Group Condition'!J56="","",'Group Condition'!J56)</f>
-        <v>better</v>
+        <v>worse</v>
       </c>
       <c r="F56" s="34">
         <f>'Group Condition'!D56</f>
@@ -17213,12 +17205,12 @@
         <v>122</v>
       </c>
       <c r="D57" t="str">
-        <f>IF(F57="X","H",IF(G57="X","L",IF(H57="X","C","G")))</f>
+        <f t="shared" si="2"/>
         <v>G</v>
       </c>
       <c r="E57" s="34" t="str">
         <f>IF('Group Condition'!J57="","",'Group Condition'!J57)</f>
-        <v>worse</v>
+        <v/>
       </c>
       <c r="F57" s="34">
         <f>'Group Condition'!D57</f>
@@ -17254,12 +17246,12 @@
         <v>145</v>
       </c>
       <c r="D58" t="str">
-        <f>IF(F58="X","H",IF(G58="X","L",IF(H58="X","C","G")))</f>
+        <f t="shared" si="2"/>
         <v>G</v>
       </c>
       <c r="E58" s="34" t="str">
         <f>IF('Group Condition'!J58="","",'Group Condition'!J58)</f>
-        <v>no change</v>
+        <v/>
       </c>
       <c r="F58" s="34">
         <f>'Group Condition'!D58</f>
@@ -17295,20 +17287,20 @@
         <v>118</v>
       </c>
       <c r="D59" t="str">
-        <f>IF(F59="X","H",IF(G59="X","L",IF(H59="X","C","G")))</f>
-        <v>L</v>
+        <f t="shared" si="2"/>
+        <v>H</v>
       </c>
       <c r="E59" s="34" t="str">
         <f>IF('Group Condition'!J59="","",'Group Condition'!J59)</f>
         <v>worse</v>
       </c>
-      <c r="F59" s="34">
+      <c r="F59" s="34" t="str">
         <f>'Group Condition'!D59</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="34" t="str">
+        <v>X</v>
+      </c>
+      <c r="G59" s="34">
         <f>'Group Condition'!E59</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H59" s="34">
         <f>'Group Condition'!G59</f>
@@ -17336,7 +17328,7 @@
         <v>146</v>
       </c>
       <c r="D60" t="str">
-        <f>IF(F60="X","H",IF(G60="X","L",IF(H60="X","C","G")))</f>
+        <f t="shared" si="2"/>
         <v>G</v>
       </c>
       <c r="E60" s="34" t="str">
@@ -17377,20 +17369,20 @@
         <v>133</v>
       </c>
       <c r="D61" t="str">
-        <f>IF(F61="X","H",IF(G61="X","L",IF(H61="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" si="2"/>
+        <v>L</v>
       </c>
       <c r="E61" s="34" t="str">
         <f>IF('Group Condition'!J22="","",'Group Condition'!J22)</f>
         <v>worse</v>
       </c>
-      <c r="F61" s="34" t="str">
+      <c r="F61" s="34">
         <f>'Group Condition'!D22</f>
-        <v>X</v>
-      </c>
-      <c r="G61" s="34">
+        <v>0</v>
+      </c>
+      <c r="G61" s="34" t="str">
         <f>'Group Condition'!E22</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H61" s="34">
         <f>'Group Condition'!G22</f>
@@ -17418,20 +17410,20 @@
         <v>143</v>
       </c>
       <c r="D62" t="str">
-        <f>IF(F62="X","H",IF(G62="X","L",IF(H62="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="2"/>
+        <v>L</v>
       </c>
       <c r="E62" s="34" t="str">
         <f>IF('Group Condition'!J62="","",'Group Condition'!J62)</f>
-        <v>no change</v>
+        <v>worse</v>
       </c>
       <c r="F62" s="34">
         <f>'Group Condition'!D62</f>
         <v>0</v>
       </c>
-      <c r="G62" s="34">
+      <c r="G62" s="34" t="str">
         <f>'Group Condition'!E62</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="H62" s="34">
         <f>'Group Condition'!G62</f>
@@ -17439,7 +17431,7 @@
       </c>
       <c r="I62" s="34" t="str">
         <f>'Group Condition'!I62</f>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -17453,12 +17445,12 @@
         <v>153</v>
       </c>
       <c r="D63" t="str">
-        <f>IF(F63="X","H",IF(G63="X","L",IF(H63="X","C","G")))</f>
-        <v>C</v>
+        <f t="shared" si="2"/>
+        <v>G</v>
       </c>
       <c r="E63" s="34" t="str">
         <f>IF('Group Condition'!J63="","",'Group Condition'!J63)</f>
-        <v>better</v>
+        <v/>
       </c>
       <c r="F63" s="34">
         <f>'Group Condition'!D63</f>
@@ -17468,13 +17460,13 @@
         <f>'Group Condition'!E63</f>
         <v>0</v>
       </c>
-      <c r="H63" s="34" t="str">
+      <c r="H63" s="34">
         <f>'Group Condition'!G63</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="I63" s="34" t="str">
         <f>'Group Condition'!I63</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="P63" t="s">
         <v>412</v>
@@ -17491,8 +17483,8 @@
         <v>124</v>
       </c>
       <c r="D64" t="str">
-        <f>IF(F64="X","H",IF(G64="X","L",IF(H64="X","C","G")))</f>
-        <v>L</v>
+        <f t="shared" si="2"/>
+        <v>C</v>
       </c>
       <c r="E64" s="34" t="str">
         <f>IF('Group Condition'!J61="","",'Group Condition'!J61)</f>
@@ -17502,13 +17494,13 @@
         <f>'Group Condition'!D61</f>
         <v>0</v>
       </c>
-      <c r="G64" s="34" t="str">
+      <c r="G64" s="34">
         <f>'Group Condition'!E61</f>
-        <v>X</v>
-      </c>
-      <c r="H64" s="34">
+        <v>0</v>
+      </c>
+      <c r="H64" s="34" t="str">
         <f>'Group Condition'!G61</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="I64" s="34" t="str">
         <f>'Group Condition'!I61</f>
@@ -17532,16 +17524,16 @@
         <v>126</v>
       </c>
       <c r="D65" t="str">
-        <f>IF(F65="X","H",IF(G65="X","L",IF(H65="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" si="2"/>
+        <v>G</v>
       </c>
       <c r="E65" s="34" t="str">
         <f>IF('Group Condition'!J71="","",'Group Condition'!J71)</f>
         <v>worse</v>
       </c>
-      <c r="F65" s="34" t="str">
+      <c r="F65" s="34">
         <f>'Group Condition'!D71</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G65" s="34">
         <f>'Group Condition'!E71</f>
@@ -17553,7 +17545,7 @@
       </c>
       <c r="I65" s="34" t="str">
         <f>'Group Condition'!I71</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L65" s="13" t="s">
         <v>410</v>
@@ -17573,20 +17565,20 @@
         <v>123</v>
       </c>
       <c r="D66" t="str">
-        <f>IF(F66="X","H",IF(G66="X","L",IF(H66="X","C","G")))</f>
-        <v>L</v>
+        <f t="shared" si="2"/>
+        <v>G</v>
       </c>
       <c r="E66" s="34" t="str">
         <f>IF('Group Condition'!J45="","",'Group Condition'!J45)</f>
-        <v>worse</v>
+        <v/>
       </c>
       <c r="F66" s="34">
         <f>'Group Condition'!D45</f>
         <v>0</v>
       </c>
-      <c r="G66" s="34" t="str">
+      <c r="G66" s="34">
         <f>'Group Condition'!E45</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H66" s="34">
         <f>'Group Condition'!G45</f>
@@ -17594,7 +17586,7 @@
       </c>
       <c r="I66" s="34" t="str">
         <f>'Group Condition'!I45</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
@@ -17616,16 +17608,16 @@
         <v>97</v>
       </c>
       <c r="D67" t="str">
-        <f>IF(F67="X","H",IF(G67="X","L",IF(H67="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" si="2"/>
+        <v>C</v>
       </c>
       <c r="E67" s="34" t="str">
         <f>IF('Group Condition'!J72="","",'Group Condition'!J72)</f>
-        <v>worse</v>
-      </c>
-      <c r="F67" s="34" t="str">
+        <v>invert</v>
+      </c>
+      <c r="F67" s="34">
         <f>'Group Condition'!D72</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G67" s="34">
         <f>'Group Condition'!E72</f>
@@ -17661,20 +17653,20 @@
         <v>142</v>
       </c>
       <c r="D68" t="str">
-        <f>IF(F68="X","H",IF(G68="X","L",IF(H68="X","C","G")))</f>
-        <v>L</v>
+        <f t="shared" si="2"/>
+        <v>G</v>
       </c>
       <c r="E68" s="34" t="str">
         <f>IF('Group Condition'!J68="","",'Group Condition'!J68)</f>
-        <v>worse</v>
+        <v>no change</v>
       </c>
       <c r="F68" s="34">
         <f>'Group Condition'!D68</f>
         <v>0</v>
       </c>
-      <c r="G68" s="34" t="str">
+      <c r="G68" s="34">
         <f>'Group Condition'!E68</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H68" s="34">
         <f>'Group Condition'!G68</f>
@@ -17682,7 +17674,7 @@
       </c>
       <c r="I68" s="34" t="str">
         <f>'Group Condition'!I68</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
@@ -17702,20 +17694,20 @@
         <v>127</v>
       </c>
       <c r="D69" t="str">
-        <f>IF(F69="X","H",IF(G69="X","L",IF(H69="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" si="2"/>
+        <v>G</v>
       </c>
       <c r="E69" s="34" t="str">
         <f>IF('Group Condition'!J74="","",'Group Condition'!J74)</f>
-        <v>worse</v>
-      </c>
-      <c r="F69" s="34" t="str">
+        <v/>
+      </c>
+      <c r="F69" s="34">
         <f>'Group Condition'!D74</f>
-        <v>X</v>
-      </c>
-      <c r="G69" s="34" t="str">
+        <v>0</v>
+      </c>
+      <c r="G69" s="34">
         <f>'Group Condition'!E74</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H69" s="34">
         <f>'Group Condition'!G74</f>
@@ -17723,7 +17715,7 @@
       </c>
       <c r="I69" s="34" t="str">
         <f>'Group Condition'!I74</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L69" s="13" t="s">
         <v>411</v>
@@ -17746,7 +17738,7 @@
         <v>135</v>
       </c>
       <c r="D70" t="str">
-        <f>IF(F70="X","H",IF(G70="X","L",IF(H70="X","C","G")))</f>
+        <f t="shared" si="2"/>
         <v>G</v>
       </c>
       <c r="E70" s="34" t="str">
@@ -17787,12 +17779,12 @@
         <v>121</v>
       </c>
       <c r="D71" t="str">
-        <f>IF(F71="X","H",IF(G71="X","L",IF(H71="X","C","G")))</f>
+        <f t="shared" si="2"/>
         <v>H</v>
       </c>
       <c r="E71" s="34" t="str">
         <f>IF('Group Condition'!J77="","",'Group Condition'!J77)</f>
-        <v>better</v>
+        <v>worse</v>
       </c>
       <c r="F71" s="34" t="str">
         <f>'Group Condition'!D77</f>
@@ -17828,16 +17820,16 @@
         <v>113</v>
       </c>
       <c r="D72" t="str">
-        <f>IF(F72="X","H",IF(G72="X","L",IF(H72="X","C","G")))</f>
-        <v>L</v>
+        <f t="shared" si="2"/>
+        <v>G</v>
       </c>
       <c r="F72" s="34">
         <f>'Group Condition'!D26</f>
         <v>0</v>
       </c>
-      <c r="G72" s="34" t="str">
+      <c r="G72" s="34">
         <f>'Group Condition'!E26</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H72" s="34">
         <f>'Group Condition'!G26</f>
@@ -17845,7 +17837,7 @@
       </c>
       <c r="I72" s="34" t="str">
         <f>'Group Condition'!I26</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J72" s="13" t="s">
         <v>410</v>
@@ -17865,16 +17857,16 @@
         <v>131</v>
       </c>
       <c r="D73" t="str">
-        <f>IF(F73="X","H",IF(G73="X","L",IF(H73="X","C","G")))</f>
-        <v>L</v>
+        <f t="shared" si="2"/>
+        <v>G</v>
       </c>
       <c r="F73" s="34">
         <f>'Group Condition'!D31</f>
         <v>0</v>
       </c>
-      <c r="G73" s="34" t="str">
+      <c r="G73" s="34">
         <f>'Group Condition'!E31</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H73" s="34">
         <f>'Group Condition'!G31</f>
@@ -17882,7 +17874,7 @@
       </c>
       <c r="I73" s="34" t="str">
         <f>'Group Condition'!I31</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L73" s="13" t="s">
         <v>423</v>
@@ -17902,7 +17894,7 @@
         <v>94</v>
       </c>
       <c r="D74" t="str">
-        <f>IF(F74="X","H",IF(G74="X","L",IF(H74="X","C","G")))</f>
+        <f t="shared" ref="D74:D84" si="3">IF(F74="X","H",IF(G74="X","L",IF(H74="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E74" s="34" t="str">
@@ -17917,9 +17909,9 @@
         <f>'Group Condition'!E78</f>
         <v>0</v>
       </c>
-      <c r="H74" s="34">
+      <c r="H74" s="34" t="str">
         <f>'Group Condition'!G78</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="I74" s="34" t="str">
         <f>'Group Condition'!I78</f>
@@ -17943,16 +17935,16 @@
         <v>105</v>
       </c>
       <c r="D75" t="str">
-        <f>IF(F75="X","H",IF(G75="X","L",IF(H75="X","C","G")))</f>
-        <v>G</v>
+        <f t="shared" si="3"/>
+        <v>H</v>
       </c>
       <c r="E75" s="34" t="str">
         <f>IF('Group Condition'!J75="","",'Group Condition'!J75)</f>
         <v>worse</v>
       </c>
-      <c r="F75" s="34">
+      <c r="F75" s="34" t="str">
         <f>'Group Condition'!D75</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G75" s="34">
         <f>'Group Condition'!E75</f>
@@ -17964,7 +17956,7 @@
       </c>
       <c r="I75" s="34" t="str">
         <f>'Group Condition'!I75</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J75"/>
       <c r="K75"/>
@@ -17984,12 +17976,12 @@
         <v>149</v>
       </c>
       <c r="D76" t="str">
-        <f>IF(F76="X","H",IF(G76="X","L",IF(H76="X","C","G")))</f>
-        <v>G</v>
-      </c>
-      <c r="F76" s="34">
+        <f t="shared" si="3"/>
+        <v>H</v>
+      </c>
+      <c r="F76" s="34" t="str">
         <f>'Group Condition'!D76</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G76" s="34">
         <f>'Group Condition'!E76</f>
@@ -18001,7 +17993,7 @@
       </c>
       <c r="I76" s="34" t="str">
         <f>'Group Condition'!I76</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -18021,16 +18013,16 @@
         <v>96</v>
       </c>
       <c r="D77" t="str">
-        <f>IF(F77="X","H",IF(G77="X","L",IF(H77="X","C","G")))</f>
-        <v>H</v>
+        <f t="shared" si="3"/>
+        <v>G</v>
       </c>
       <c r="E77" s="34" t="str">
         <f>IF('Group Condition'!J81="","",'Group Condition'!J81)</f>
-        <v>worse</v>
-      </c>
-      <c r="F77" s="34" t="str">
+        <v/>
+      </c>
+      <c r="F77" s="34">
         <f>'Group Condition'!D81</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="G77" s="34">
         <f>'Group Condition'!E81</f>
@@ -18042,7 +18034,7 @@
       </c>
       <c r="I77" s="34" t="str">
         <f>'Group Condition'!I81</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J77"/>
       <c r="L77" s="13" t="s">
@@ -18065,12 +18057,12 @@
         <v>148</v>
       </c>
       <c r="D78" t="str">
-        <f>IF(F78="X","H",IF(G78="X","L",IF(H78="X","C","G")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="E78" s="34" t="str">
         <f>IF('Group Condition'!J73="","",'Group Condition'!J73)</f>
-        <v/>
+        <v>worse</v>
       </c>
       <c r="F78" s="34">
         <f>'Group Condition'!D73</f>
@@ -18106,7 +18098,7 @@
         <v>98</v>
       </c>
       <c r="D79" t="str">
-        <f>IF(F79="X","H",IF(G79="X","L",IF(H79="X","C","G")))</f>
+        <f t="shared" si="3"/>
         <v>H</v>
       </c>
       <c r="E79" s="34" t="str">
@@ -18141,7 +18133,7 @@
         <v>140</v>
       </c>
       <c r="D80" t="str">
-        <f>IF(F80="X","H",IF(G80="X","L",IF(H80="X","C","G")))</f>
+        <f t="shared" si="3"/>
         <v>H</v>
       </c>
       <c r="E80" s="34" t="str">
@@ -18176,20 +18168,20 @@
         <v>163</v>
       </c>
       <c r="D81" t="str">
-        <f>IF(F81="X","H",IF(G81="X","L",IF(H81="X","C","G")))</f>
-        <v>L</v>
+        <f t="shared" si="3"/>
+        <v>H</v>
       </c>
       <c r="E81" s="34" t="str">
         <f>IF('Group Condition'!J86="","",'Group Condition'!J86)</f>
-        <v>no change</v>
-      </c>
-      <c r="F81" s="34">
+        <v>worse</v>
+      </c>
+      <c r="F81" s="34" t="str">
         <f>'Group Condition'!D86</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="34" t="str">
+        <v>X</v>
+      </c>
+      <c r="G81" s="34">
         <f>'Group Condition'!E86</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H81" s="34">
         <f>'Group Condition'!G86</f>
@@ -18217,7 +18209,7 @@
         <v>99</v>
       </c>
       <c r="D82" t="str">
-        <f>IF(F82="X","H",IF(G82="X","L",IF(H82="X","C","G")))</f>
+        <f t="shared" si="3"/>
         <v>H</v>
       </c>
       <c r="E82" s="34" t="str">
@@ -18252,12 +18244,12 @@
         <v>128</v>
       </c>
       <c r="D83" t="str">
-        <f>IF(F83="X","H",IF(G83="X","L",IF(H83="X","C","G")))</f>
+        <f t="shared" si="3"/>
         <v>H</v>
       </c>
       <c r="E83" s="34" t="str">
         <f>IF('Group Condition'!J80="","",'Group Condition'!J80)</f>
-        <v>worse</v>
+        <v>better</v>
       </c>
       <c r="F83" s="34" t="str">
         <f>'Group Condition'!D80</f>
@@ -18293,12 +18285,12 @@
         <v>132</v>
       </c>
       <c r="D84" t="str">
-        <f>IF(F84="X","H",IF(G84="X","L",IF(H84="X","C","G")))</f>
+        <f t="shared" si="3"/>
         <v>H</v>
       </c>
       <c r="E84" s="34" t="str">
         <f>IF('Group Condition'!J84="","",'Group Condition'!J84)</f>
-        <v>better</v>
+        <v>worse</v>
       </c>
       <c r="F84" s="34" t="str">
         <f>'Group Condition'!D84</f>
@@ -18334,24 +18326,24 @@
         <v>166</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" ref="D66:D87" si="1">IF(F85="X","H",IF(G85="X","L",IF(H85="X","C","G")))</f>
-        <v>C</v>
+        <f t="shared" ref="D85:D87" si="4">IF(F85="X","H",IF(G85="X","L",IF(H85="X","C","G")))</f>
+        <v>H</v>
       </c>
       <c r="E85" s="34" t="str">
         <f>IF('Group Condition'!J66="","",'Group Condition'!J66)</f>
-        <v/>
-      </c>
-      <c r="F85" s="34">
+        <v>worse</v>
+      </c>
+      <c r="F85" s="34" t="str">
         <f>'Group Condition'!D66</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G85" s="34">
         <f>'Group Condition'!E66</f>
         <v>0</v>
       </c>
-      <c r="H85" s="34" t="str">
+      <c r="H85" s="34">
         <f>'Group Condition'!G66</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="I85" s="34" t="str">
         <f>'Group Condition'!I66</f>
@@ -18372,20 +18364,20 @@
         <v>168</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="1"/>
-        <v>L</v>
+        <f t="shared" si="4"/>
+        <v>H</v>
       </c>
       <c r="E86" s="34" t="str">
         <f>IF('Group Condition'!J85="","",'Group Condition'!J85)</f>
-        <v>better</v>
-      </c>
-      <c r="F86" s="34">
+        <v>worse</v>
+      </c>
+      <c r="F86" s="34" t="str">
         <f>'Group Condition'!D85</f>
-        <v>0</v>
-      </c>
-      <c r="G86" s="34" t="str">
+        <v>X</v>
+      </c>
+      <c r="G86" s="34">
         <f>'Group Condition'!E85</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H86" s="34">
         <f>'Group Condition'!G85</f>
@@ -18413,20 +18405,20 @@
         <v>172</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="1"/>
-        <v>L</v>
+        <f t="shared" si="4"/>
+        <v>H</v>
       </c>
       <c r="E87" s="34" t="str">
         <f>IF('Group Condition'!J87="","",'Group Condition'!J87)</f>
-        <v>better</v>
-      </c>
-      <c r="F87" s="34">
+        <v>worse</v>
+      </c>
+      <c r="F87" s="34" t="str">
         <f>'Group Condition'!D87</f>
-        <v>0</v>
-      </c>
-      <c r="G87" s="34" t="str">
+        <v>X</v>
+      </c>
+      <c r="G87" s="34">
         <f>'Group Condition'!E87</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H87" s="34">
         <f>'Group Condition'!G87</f>
@@ -18454,20 +18446,20 @@
         <v>173</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" ref="D88" si="2">IF(F88="X","H",IF(G88="X","L",IF(H88="X","C","G")))</f>
-        <v>L</v>
+        <f t="shared" ref="D88" si="5">IF(F88="X","H",IF(G88="X","L",IF(H88="X","C","G")))</f>
+        <v>H</v>
       </c>
       <c r="E88" s="34" t="str">
         <f>IF('Group Condition'!J88="","",'Group Condition'!J88)</f>
-        <v>worse</v>
-      </c>
-      <c r="F88" s="34">
+        <v>better</v>
+      </c>
+      <c r="F88" s="34" t="str">
         <f>'Group Condition'!D88</f>
-        <v>0</v>
-      </c>
-      <c r="G88" s="34" t="str">
+        <v>X</v>
+      </c>
+      <c r="G88" s="34">
         <f>'Group Condition'!E88</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H88" s="34">
         <f>'Group Condition'!G88</f>
@@ -19556,7 +19548,7 @@
       </c>
       <c r="E23" s="7" t="str">
         <f>VLOOKUP(A23,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F23" s="6">
         <v>4928995.608</v>
@@ -21019,7 +21011,7 @@
       </c>
       <c r="E58" s="7" t="str">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F58" s="6">
         <v>7496.955054</v>
@@ -22448,7 +22440,7 @@
       </c>
       <c r="F23" s="7" t="str">
         <f>VLOOKUP(A23,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K23">
         <f>VLOOKUP(A23,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -23980,7 +23972,7 @@
       </c>
       <c r="F58" s="7" t="str">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="K58">
         <f>VLOOKUP(A58,[3]mL!$A$2:$C$87,3,FALSE)</f>
@@ -25817,7 +25809,7 @@
       </c>
       <c r="F23" s="7" t="str">
         <f>VLOOKUP(A23,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="H23"/>
       <c r="Q23">
@@ -28012,7 +28004,7 @@
       </c>
       <c r="F58" s="7" t="str">
         <f>VLOOKUP(A58,'Group Condition'!$A$2:$K$88,9,FALSE)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="H58"/>
       <c r="Q58">

--- a/diagnostics/Obs_Hindcast_Group_Progress.xlsx
+++ b/diagnostics/Obs_Hindcast_Group_Progress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15696" windowHeight="8748" tabRatio="853" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3396" windowHeight="8424" tabRatio="853" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Group Condition" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Crash Diagnosis'!$A$1:$L$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Group Condition'!$A$1:$K$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Group Condition'!$A$1:$K$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Group Diagnostic'!$A$1:$P$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Init Scalar Revert'!$A$2:$J$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'mL-Log'!$A$1:$S$1</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="439">
   <si>
     <t>Too Low</t>
   </si>
@@ -1281,12 +1281,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Rob</t>
   </si>
   <si>
@@ -1320,9 +1314,6 @@
     <t>New_Init_CatchTS_Revert mQ1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>New_Init_CatchTS_3</t>
   </si>
   <si>
@@ -1338,15 +1329,6 @@
     <t>New_Init_CatchTS_3 mQ2</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>no change</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
     <t>New_Init_CatchTS_4</t>
   </si>
   <si>
@@ -1360,9 +1342,6 @@
   </si>
   <si>
     <t>New_Init_CatchTS_4 mQ2</t>
-  </si>
-  <si>
-    <t>invert</t>
   </si>
   <si>
     <t>New_Init_CatchTS_5</t>
@@ -9335,11 +9314,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9411,11 +9390,8 @@
         <v>X</v>
       </c>
       <c r="I2" s="24" t="str">
-        <f t="shared" ref="I2:I33" si="0">IF(OR(COUNTIF(D2:G2,"X")=0,COUNTIF(D2:G2,"B")&lt;&gt;0),"X","")</f>
-        <v/>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D2:G2,"X")=0,COUNTIF(D2:G2,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K2">
         <f>VLOOKUP(A2,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9438,11 +9414,8 @@
         <v/>
       </c>
       <c r="I3" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D3:G3,"X")=0,COUNTIF(D3:G3,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K3">
         <f>VLOOKUP(A3,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9460,7 +9433,7 @@
       <c r="C4" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H4" s="22" t="str">
@@ -9468,11 +9441,8 @@
         <v/>
       </c>
       <c r="I4" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>437</v>
+        <f>IF(OR(COUNTIF(D4:G4,"X")=0,COUNTIF(D4:G4,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K4">
         <f>VLOOKUP(A4,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9490,19 +9460,13 @@
       <c r="C5" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="H5" s="22" t="str">
         <f>VLOOKUP(A5,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I5" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D5:G5,"X")=0,COUNTIF(D5:G5,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K5">
         <f>VLOOKUP(A5,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9520,7 +9484,7 @@
       <c r="C6" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="G6" s="24" t="s">
         <v>180</v>
       </c>
       <c r="H6" s="22" t="str">
@@ -9528,11 +9492,8 @@
         <v/>
       </c>
       <c r="I6" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D6:G6,"X")=0,COUNTIF(D6:G6,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K6">
         <f>VLOOKUP(A6,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9555,11 +9516,8 @@
         <v/>
       </c>
       <c r="I7" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D7:G7,"X")=0,COUNTIF(D7:G7,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K7">
         <f>VLOOKUP(A7,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9577,7 +9535,7 @@
       <c r="C8" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>180</v>
       </c>
       <c r="H8" s="22" t="str">
@@ -9585,11 +9543,8 @@
         <v/>
       </c>
       <c r="I8" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D8:G8,"X")=0,COUNTIF(D8:G8,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K8">
         <f>VLOOKUP(A8,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9612,11 +9567,8 @@
         <v>X</v>
       </c>
       <c r="I9" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>430</v>
+        <f>IF(OR(COUNTIF(D9:G9,"X")=0,COUNTIF(D9:G9,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K9">
         <f>VLOOKUP(A9,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9643,11 +9595,8 @@
         <v>X</v>
       </c>
       <c r="I10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>437</v>
+        <f>IF(OR(COUNTIF(D10:G10,"X")=0,COUNTIF(D10:G10,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K10">
         <f>VLOOKUP(A10,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9673,11 +9622,8 @@
         <v/>
       </c>
       <c r="I11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>430</v>
+        <f>IF(OR(COUNTIF(D11:G11,"X")=0,COUNTIF(D11:G11,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K11">
         <f>VLOOKUP(A11,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9703,11 +9649,8 @@
         <v/>
       </c>
       <c r="I12" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>437</v>
+        <f>IF(OR(COUNTIF(D12:G12,"X")=0,COUNTIF(D12:G12,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K12">
         <f>VLOOKUP(A12,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9733,11 +9676,8 @@
         <v/>
       </c>
       <c r="I13" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D13:G13,"X")=0,COUNTIF(D13:G13,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K13">
         <f>VLOOKUP(A13,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9755,16 +9695,14 @@
       <c r="C14" t="s">
         <v>109</v>
       </c>
+      <c r="E14" s="29"/>
       <c r="H14" s="22" t="str">
         <f>VLOOKUP(A14,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I14" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>430</v>
+        <f>IF(OR(COUNTIF(D14:G14,"X")=0,COUNTIF(D14:G14,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K14">
         <f>VLOOKUP(A14,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9790,11 +9728,8 @@
         <v>X</v>
       </c>
       <c r="I15" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>430</v>
+        <f>IF(OR(COUNTIF(D15:G15,"X")=0,COUNTIF(D15:G15,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K15">
         <f>VLOOKUP(A15,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9812,7 +9747,7 @@
       <c r="C16" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H16" s="22" t="str">
@@ -9820,11 +9755,8 @@
         <v>X</v>
       </c>
       <c r="I16" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D16:G16,"X")=0,COUNTIF(D16:G16,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K16">
         <f>VLOOKUP(A16,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9847,7 +9779,7 @@
         <v/>
       </c>
       <c r="I17" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(D17:G17,"X")=0,COUNTIF(D17:G17,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K17">
@@ -9874,11 +9806,8 @@
         <v/>
       </c>
       <c r="I18" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>437</v>
+        <f>IF(OR(COUNTIF(D18:G18,"X")=0,COUNTIF(D18:G18,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K18">
         <f>VLOOKUP(A18,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9896,16 +9825,16 @@
       <c r="C19" t="s">
         <v>114</v>
       </c>
+      <c r="D19" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H19" s="22" t="str">
         <f>VLOOKUP(A19,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I19" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D19:G19,"X")=0,COUNTIF(D19:G19,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K19">
         <f>VLOOKUP(A19,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9928,11 +9857,8 @@
         <v/>
       </c>
       <c r="I20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D20:G20,"X")=0,COUNTIF(D20:G20,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K20">
         <f>VLOOKUP(A20,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -9955,7 +9881,7 @@
         <v/>
       </c>
       <c r="I21" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(D21:G21,"X")=0,COUNTIF(D21:G21,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K21">
@@ -9982,11 +9908,8 @@
         <v>X</v>
       </c>
       <c r="I22" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D22:G22,"X")=0,COUNTIF(D22:G22,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K22">
         <f>VLOOKUP(A22,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10009,7 +9932,7 @@
         <v/>
       </c>
       <c r="I23" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COUNTIF(D23:G23,"X")=0,COUNTIF(D23:G23,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K23">
@@ -10036,11 +9959,8 @@
         <v>X</v>
       </c>
       <c r="I24" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D24:G24,"X")=0,COUNTIF(D24:G24,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K24">
         <f>VLOOKUP(A24,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10058,16 +9978,16 @@
       <c r="C25" t="s">
         <v>136</v>
       </c>
+      <c r="D25" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H25" s="22" t="str">
         <f>VLOOKUP(A25,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I25" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D25:G25,"X")=0,COUNTIF(D25:G25,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K25">
         <f>VLOOKUP(A25,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10085,19 +10005,13 @@
       <c r="C26" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="H26" s="22" t="str">
         <f>VLOOKUP(A26,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I26" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D26:G26,"X")=0,COUNTIF(D26:G26,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K26">
         <f>VLOOKUP(A26,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10115,16 +10029,16 @@
       <c r="C27" t="s">
         <v>130</v>
       </c>
+      <c r="D27" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H27" s="22" t="str">
         <f>VLOOKUP(A27,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I27" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D27:G27,"X")=0,COUNTIF(D27:G27,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K27">
         <f>VLOOKUP(A27,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10142,19 +10056,13 @@
       <c r="C28" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>180</v>
-      </c>
       <c r="H28" s="22" t="str">
         <f>VLOOKUP(A28,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I28" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D28:G28,"X")=0,COUNTIF(D28:G28,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K28">
         <f>VLOOKUP(A28,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10177,11 +10085,8 @@
         <v>X</v>
       </c>
       <c r="I29" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D29:G29,"X")=0,COUNTIF(D29:G29,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K29">
         <f>VLOOKUP(A29,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10202,19 +10107,13 @@
       <c r="D30" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="G30" s="24" t="s">
-        <v>180</v>
-      </c>
       <c r="H30" s="22" t="str">
         <f>VLOOKUP(A30,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I30" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D30:G30,"X")=0,COUNTIF(D30:G30,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K30">
         <f>VLOOKUP(A30,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10232,19 +10131,14 @@
       <c r="C31" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="29" t="s">
-        <v>180</v>
-      </c>
+      <c r="E31" s="29"/>
       <c r="H31" s="22" t="str">
         <f>VLOOKUP(A31,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I31" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D31:G31,"X")=0,COUNTIF(D31:G31,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K31">
         <f>VLOOKUP(A31,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10270,11 +10164,8 @@
         <v>X</v>
       </c>
       <c r="I32" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D32:G32,"X")=0,COUNTIF(D32:G32,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K32">
         <f>VLOOKUP(A32,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10300,11 +10191,8 @@
         <v>X</v>
       </c>
       <c r="I33" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D33:G33,"X")=0,COUNTIF(D33:G33,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K33">
         <f>VLOOKUP(A33,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10322,16 +10210,16 @@
       <c r="C34" t="s">
         <v>150</v>
       </c>
+      <c r="D34" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H34" s="22" t="str">
         <f>VLOOKUP(A34,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I34" s="24" t="str">
-        <f t="shared" ref="I34:I65" si="1">IF(OR(COUNTIF(D34:G34,"X")=0,COUNTIF(D34:G34,"B")&lt;&gt;0),"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D34:G34,"X")=0,COUNTIF(D34:G34,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K34">
         <f>VLOOKUP(A34,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10354,7 +10242,7 @@
         <v/>
       </c>
       <c r="I35" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D35:G35,"X")=0,COUNTIF(D35:G35,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K35">
@@ -10381,11 +10269,8 @@
         <v/>
       </c>
       <c r="I36" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>437</v>
+        <f>IF(OR(COUNTIF(D36:G36,"X")=0,COUNTIF(D36:G36,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K36">
         <f>VLOOKUP(A36,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10403,19 +10288,13 @@
       <c r="C37" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="H37" s="22" t="str">
         <f>VLOOKUP(A37,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I37" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D37:G37,"X")=0,COUNTIF(D37:G37,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K37">
         <f>VLOOKUP(A37,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10438,7 +10317,7 @@
         <v/>
       </c>
       <c r="I38" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D38:G38,"X")=0,COUNTIF(D38:G38,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K38">
@@ -10462,7 +10341,7 @@
         <v/>
       </c>
       <c r="I39" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D39:G39,"X")=0,COUNTIF(D39:G39,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K39">
@@ -10489,11 +10368,8 @@
         <v>X</v>
       </c>
       <c r="I40" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>430</v>
+        <f>IF(OR(COUNTIF(D40:G40,"X")=0,COUNTIF(D40:G40,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K40">
         <f>VLOOKUP(A40,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10519,11 +10395,8 @@
         <v>X</v>
       </c>
       <c r="I41" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>430</v>
+        <f>IF(OR(COUNTIF(D41:G41,"X")=0,COUNTIF(D41:G41,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K41">
         <f>VLOOKUP(A41,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10549,11 +10422,8 @@
         <v>X</v>
       </c>
       <c r="I42" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D42:G42,"X")=0,COUNTIF(D42:G42,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K42">
         <f>VLOOKUP(A42,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10576,7 +10446,7 @@
         <v/>
       </c>
       <c r="I43" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D43:G43,"X")=0,COUNTIF(D43:G43,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K43">
@@ -10598,19 +10468,14 @@
       <c r="D44" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="29" t="s">
-        <v>180</v>
-      </c>
+      <c r="E44" s="29"/>
       <c r="H44" s="22" t="str">
         <f>VLOOKUP(A44,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I44" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D44:G44,"X")=0,COUNTIF(D44:G44,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K44">
         <f>VLOOKUP(A44,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10628,7 +10493,7 @@
       <c r="C45" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="D45" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H45" s="22" t="str">
@@ -10636,11 +10501,8 @@
         <v>X</v>
       </c>
       <c r="I45" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D45:G45,"X")=0,COUNTIF(D45:G45,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K45">
         <f>VLOOKUP(A45,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10663,7 +10525,7 @@
         <v/>
       </c>
       <c r="I46" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D46:G46,"X")=0,COUNTIF(D46:G46,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K46">
@@ -10687,11 +10549,8 @@
         <v/>
       </c>
       <c r="I47" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D47:G47,"X")=0,COUNTIF(D47:G47,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K47">
         <f>VLOOKUP(A47,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10714,7 +10573,7 @@
         <v/>
       </c>
       <c r="I48" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D48:G48,"X")=0,COUNTIF(D48:G48,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K48">
@@ -10738,7 +10597,7 @@
         <v/>
       </c>
       <c r="I49" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D49:G49,"X")=0,COUNTIF(D49:G49,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K49">
@@ -10765,11 +10624,8 @@
         <v>X</v>
       </c>
       <c r="I50" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D50:G50,"X")=0,COUNTIF(D50:G50,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K50">
         <f>VLOOKUP(A50,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10795,11 +10651,8 @@
         <v>X</v>
       </c>
       <c r="I51" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D51:G51,"X")=0,COUNTIF(D51:G51,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K51">
         <f>VLOOKUP(A51,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10822,7 +10675,7 @@
         <v>X</v>
       </c>
       <c r="I52" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D52:G52,"X")=0,COUNTIF(D52:G52,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K52">
@@ -10846,7 +10699,7 @@
         <v/>
       </c>
       <c r="I53" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D53:G53,"X")=0,COUNTIF(D53:G53,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K53">
@@ -10865,16 +10718,16 @@
       <c r="C54" t="s">
         <v>139</v>
       </c>
+      <c r="D54" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H54" s="22" t="str">
         <f>VLOOKUP(A54,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I54" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D54:G54,"X")=0,COUNTIF(D54:G54,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K54">
         <f>VLOOKUP(A54,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10900,11 +10753,8 @@
         <v/>
       </c>
       <c r="I55" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D55:G55,"X")=0,COUNTIF(D55:G55,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K55">
         <f>VLOOKUP(A55,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10922,16 +10772,16 @@
       <c r="C56" t="s">
         <v>159</v>
       </c>
+      <c r="G56" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="H56" s="22" t="str">
         <f>VLOOKUP(A56,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I56" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D56:G56,"X")=0,COUNTIF(D56:G56,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K56">
         <f>VLOOKUP(A56,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10954,11 +10804,8 @@
         <v>X</v>
       </c>
       <c r="I57" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D57:G57,"X")=0,COUNTIF(D57:G57,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K57">
         <f>VLOOKUP(A57,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -10981,11 +10828,8 @@
         <v>X</v>
       </c>
       <c r="I58" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="J58" s="13" t="s">
-        <v>430</v>
+        <f>IF(OR(COUNTIF(D58:G58,"X")=0,COUNTIF(D58:G58,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K58">
         <f>VLOOKUP(A58,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11003,19 +10847,13 @@
       <c r="C59" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="H59" s="22" t="str">
         <f>VLOOKUP(A59,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I59" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D59:G59,"X")=0,COUNTIF(D59:G59,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K59">
         <f>VLOOKUP(A59,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11038,7 +10876,7 @@
         <v/>
       </c>
       <c r="I60" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COUNTIF(D60:G60,"X")=0,COUNTIF(D60:G60,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K60">
@@ -11065,11 +10903,8 @@
         <v>X</v>
       </c>
       <c r="I61" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D61:G61,"X")=0,COUNTIF(D61:G61,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K61">
         <f>VLOOKUP(A61,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11092,11 +10927,8 @@
         <v/>
       </c>
       <c r="I62" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>430</v>
+        <f>IF(OR(COUNTIF(D62:G62,"X")=0,COUNTIF(D62:G62,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K62">
         <f>VLOOKUP(A62,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11114,19 +10946,13 @@
       <c r="C63" t="s">
         <v>153</v>
       </c>
-      <c r="G63" s="24" t="s">
-        <v>180</v>
-      </c>
       <c r="H63" s="22" t="str">
         <f>VLOOKUP(A63,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I63" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D63:G63,"X")=0,COUNTIF(D63:G63,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K63">
         <f>VLOOKUP(A63,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11152,11 +10978,8 @@
         <v>X</v>
       </c>
       <c r="I64" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D64:G64,"X")=0,COUNTIF(D64:G64,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K64">
         <f>VLOOKUP(A64,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11182,11 +11005,8 @@
         <v>X</v>
       </c>
       <c r="I65" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J65" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D65:G65,"X")=0,COUNTIF(D65:G65,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K65">
         <f>VLOOKUP(A65,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11212,7 +11032,7 @@
         <v/>
       </c>
       <c r="I66" s="24" t="str">
-        <f t="shared" ref="I66:I88" si="2">IF(OR(COUNTIF(D66:G66,"X")=0,COUNTIF(D66:G66,"B")&lt;&gt;0),"X","")</f>
+        <f>IF(OR(COUNTIF(D66:G66,"X")=0,COUNTIF(D66:G66,"B")&lt;&gt;0),"X","")</f>
         <v/>
       </c>
       <c r="K66">
@@ -11231,19 +11051,13 @@
       <c r="C67" t="s">
         <v>115</v>
       </c>
-      <c r="E67" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="H67" s="22" t="str">
         <f>VLOOKUP(A67,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I67" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D67:G67,"X")=0,COUNTIF(D67:G67,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K67">
         <f>VLOOKUP(A67,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11261,19 +11075,17 @@
       <c r="C68" t="s">
         <v>142</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="D68" s="22" t="s">
         <v>180</v>
       </c>
+      <c r="E68" s="29"/>
       <c r="H68" s="22" t="str">
         <f>VLOOKUP(A68,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I68" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J68" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D68:G68,"X")=0,COUNTIF(D68:G68,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K68">
         <f>VLOOKUP(A68,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11299,11 +11111,8 @@
         <v>X</v>
       </c>
       <c r="I69" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D69:G69,"X")=0,COUNTIF(D69:G69,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K69">
         <f>VLOOKUP(A69,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11321,16 +11130,16 @@
       <c r="C70" t="s">
         <v>135</v>
       </c>
+      <c r="D70" s="22" t="s">
+        <v>180</v>
+      </c>
       <c r="H70" s="22" t="str">
         <f>VLOOKUP(A70,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I70" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>X</v>
-      </c>
-      <c r="J70" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D70:G70,"X")=0,COUNTIF(D70:G70,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K70">
         <f>VLOOKUP(A70,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11356,11 +11165,8 @@
         <v>X</v>
       </c>
       <c r="I71" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D71:G71,"X")=0,COUNTIF(D71:G71,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K71">
         <f>VLOOKUP(A71,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11378,9 +11184,6 @@
       <c r="C72" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="22" t="s">
-        <v>180</v>
-      </c>
       <c r="G72" s="24" t="s">
         <v>180</v>
       </c>
@@ -11389,11 +11192,8 @@
         <v>X</v>
       </c>
       <c r="I72" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D72:G72,"X")=0,COUNTIF(D72:G72,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K72">
         <f>VLOOKUP(A72,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11411,16 +11211,13 @@
       <c r="C73" t="s">
         <v>148</v>
       </c>
-      <c r="E73" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="H73" s="22" t="str">
         <f>VLOOKUP(A73,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I73" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF(OR(COUNTIF(D73:G73,"X")=0,COUNTIF(D73:G73,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K73">
         <f>VLOOKUP(A73,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11441,19 +11238,13 @@
       <c r="D74" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="E74" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="H74" s="22" t="str">
         <f>VLOOKUP(A74,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v>X</v>
       </c>
       <c r="I74" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J74" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D74:G74,"X")=0,COUNTIF(D74:G74,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K74">
         <f>VLOOKUP(A74,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11476,11 +11267,8 @@
         <v>X</v>
       </c>
       <c r="I75" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>X</v>
-      </c>
-      <c r="J75" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D75:G75,"X")=0,COUNTIF(D75:G75,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K75">
         <f>VLOOKUP(A75,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11503,7 +11291,7 @@
         <v/>
       </c>
       <c r="I76" s="24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COUNTIF(D76:G76,"X")=0,COUNTIF(D76:G76,"B")&lt;&gt;0),"X","")</f>
         <v>X</v>
       </c>
       <c r="K76">
@@ -11530,11 +11318,8 @@
         <v>X</v>
       </c>
       <c r="I77" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D77:G77,"X")=0,COUNTIF(D77:G77,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K77">
         <f>VLOOKUP(A77,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11560,11 +11345,8 @@
         <v>X</v>
       </c>
       <c r="I78" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D78:G78,"X")=0,COUNTIF(D78:G78,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K78">
         <f>VLOOKUP(A78,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11590,11 +11372,8 @@
         <v>X</v>
       </c>
       <c r="I79" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J79" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D79:G79,"X")=0,COUNTIF(D79:G79,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K79">
         <f>VLOOKUP(A79,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11620,11 +11399,8 @@
         <v/>
       </c>
       <c r="I80" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J80" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D80:G80,"X")=0,COUNTIF(D80:G80,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K80">
         <f>VLOOKUP(A80,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11650,11 +11426,8 @@
         <v>X</v>
       </c>
       <c r="I81" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J81" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D81:G81,"X")=0,COUNTIF(D81:G81,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K81">
         <f>VLOOKUP(A81,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11680,11 +11453,8 @@
         <v>X</v>
       </c>
       <c r="I82" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J82" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D82:G82,"X")=0,COUNTIF(D82:G82,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K82">
         <f>VLOOKUP(A82,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11710,11 +11480,8 @@
         <v>X</v>
       </c>
       <c r="I83" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J83" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D83:G83,"X")=0,COUNTIF(D83:G83,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K83">
         <f>VLOOKUP(A83,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11740,11 +11507,8 @@
         <v>X</v>
       </c>
       <c r="I84" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J84" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D84:G84,"X")=0,COUNTIF(D84:G84,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K84">
         <f>VLOOKUP(A84,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11762,7 +11526,7 @@
       <c r="C85" t="s">
         <v>168</v>
       </c>
-      <c r="E85" s="23" t="s">
+      <c r="D85" s="22" t="s">
         <v>180</v>
       </c>
       <c r="H85" s="22" t="str">
@@ -11770,11 +11534,8 @@
         <v/>
       </c>
       <c r="I85" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J85" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D85:G85,"X")=0,COUNTIF(D85:G85,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K85">
         <f>VLOOKUP(A85,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11800,11 +11561,8 @@
         <v/>
       </c>
       <c r="I86" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J86" s="13" t="s">
-        <v>430</v>
+        <f>IF(OR(COUNTIF(D86:G86,"X")=0,COUNTIF(D86:G86,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K86">
         <f>VLOOKUP(A86,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11822,19 +11580,13 @@
       <c r="C87" t="s">
         <v>172</v>
       </c>
-      <c r="E87" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="H87" s="22" t="str">
         <f>VLOOKUP(A87,'Init Scalar '!$A$2:$H$90,7,FALSE)</f>
         <v/>
       </c>
       <c r="I87" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J87" s="13" t="s">
-        <v>429</v>
+        <f>IF(OR(COUNTIF(D87:G87,"X")=0,COUNTIF(D87:G87,"B")&lt;&gt;0),"X","")</f>
+        <v>X</v>
       </c>
       <c r="K87">
         <f>VLOOKUP(A87,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -11860,11 +11612,8 @@
         <v/>
       </c>
       <c r="I88" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J88" s="13" t="s">
-        <v>431</v>
+        <f>IF(OR(COUNTIF(D88:G88,"X")=0,COUNTIF(D88:G88,"B")&lt;&gt;0),"X","")</f>
+        <v/>
       </c>
       <c r="K88">
         <f>VLOOKUP(A88,'Init Scalar '!$A$2:$H$90,6,FALSE)</f>
@@ -13648,9 +13397,9 @@
       <c r="C15" t="s">
         <v>157</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15">
         <f>VLOOKUP(A15,'Group Condition'!$A$2:$I$88,7,FALSE)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -14170,9 +13919,9 @@
       <c r="C43" t="s">
         <v>111</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E43">
         <f>VLOOKUP(A43,'Group Condition'!$A$2:$I$88,7,FALSE)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -14266,9 +14015,9 @@
       <c r="C49" t="s">
         <v>156</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="str">
         <f>VLOOKUP(A49,'Group Condition'!$A$2:$I$88,7,FALSE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
     </row>
     <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
@@ -14410,9 +14159,9 @@
       <c r="C61" t="s">
         <v>159</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="str">
         <f>VLOOKUP(A61,'Group Condition'!$A$2:$I$88,7,FALSE)</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="F61">
         <v>7</v>
@@ -14524,9 +14273,9 @@
       <c r="C67" t="s">
         <v>153</v>
       </c>
-      <c r="E67" t="str">
+      <c r="E67">
         <f>VLOOKUP(A67,'Group Condition'!$A$2:$I$88,7,FALSE)</f>
-        <v>X</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -14873,10 +14622,8 @@
   <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14944,51 +14691,39 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D33" si="0">IF(F2="X","H",IF(G2="X","L",IF(H2="X","C","G")))</f>
+        <f>IF(F2="X","H",IF(G2="X","L",IF(H2="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>IF('Group Condition'!J40="","",'Group Condition'!J40)</f>
-        <v>no change</v>
+        <f>IF('Group Condition'!J2="","",'Group Condition'!J2)</f>
+        <v/>
       </c>
       <c r="F2" s="34">
-        <f>'Group Condition'!D40</f>
+        <f>'Group Condition'!D2</f>
         <v>0</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>'Group Condition'!E40</f>
+        <f>'Group Condition'!E2</f>
         <v>X</v>
       </c>
       <c r="H2" s="34">
-        <f>'Group Condition'!G40</f>
+        <f>'Group Condition'!G2</f>
         <v>0</v>
       </c>
       <c r="I2" s="34" t="str">
-        <f>'Group Condition'!I40</f>
-        <v/>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>410</v>
+        <f>'Group Condition'!I2</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -15002,12 +14737,12 @@
         <v>175</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F3="X","H",IF(G3="X","L",IF(H3="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E3" s="34" t="str">
         <f>IF('Group Condition'!J3="","",'Group Condition'!J3)</f>
-        <v>worse</v>
+        <v/>
       </c>
       <c r="F3" s="34">
         <f>'Group Condition'!D3</f>
@@ -15043,20 +14778,20 @@
         <v>167</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>L</v>
+        <f>IF(F4="X","H",IF(G4="X","L",IF(H4="X","C","G")))</f>
+        <v>H</v>
       </c>
       <c r="E4" s="34" t="str">
         <f>IF('Group Condition'!J4="","",'Group Condition'!J4)</f>
-        <v>invert</v>
-      </c>
-      <c r="F4" s="34">
+        <v/>
+      </c>
+      <c r="F4" s="34" t="str">
         <f>'Group Condition'!D4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="34" t="str">
+        <v>X</v>
+      </c>
+      <c r="G4" s="34">
         <f>'Group Condition'!E4</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H4" s="34">
         <f>'Group Condition'!G4</f>
@@ -15067,7 +14802,7 @@
         <v/>
       </c>
       <c r="P4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -15081,20 +14816,20 @@
         <v>164</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>L</v>
+        <f>IF(F5="X","H",IF(G5="X","L",IF(H5="X","C","G")))</f>
+        <v>G</v>
       </c>
       <c r="E5" s="34" t="str">
         <f>IF('Group Condition'!J5="","",'Group Condition'!J5)</f>
-        <v>worse</v>
+        <v/>
       </c>
       <c r="F5" s="34">
         <f>'Group Condition'!D5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="34" t="str">
+      <c r="G5" s="34">
         <f>'Group Condition'!E5</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="H5" s="34">
         <f>'Group Condition'!G5</f>
@@ -15102,7 +14837,7 @@
       </c>
       <c r="I5" s="34" t="str">
         <f>'Group Condition'!I5</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -15111,10 +14846,10 @@
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -15125,78 +14860,74 @@
         <v>156</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>L</v>
+        <f>IF(F6="X","H",IF(G6="X","L",IF(H6="X","C","G")))</f>
+        <v>C</v>
       </c>
       <c r="E6" s="34" t="str">
         <f>IF('Group Condition'!J6="","",'Group Condition'!J6)</f>
-        <v>better</v>
+        <v/>
       </c>
       <c r="F6" s="34">
         <f>'Group Condition'!D6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="34" t="str">
+      <c r="G6" s="34">
         <f>'Group Condition'!E6</f>
-        <v>X</v>
-      </c>
-      <c r="H6" s="34">
+        <v>0</v>
+      </c>
+      <c r="H6" s="34" t="str">
         <f>'Group Condition'!G6</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="I6" s="34" t="str">
         <f>'Group Condition'!I6</f>
         <v/>
       </c>
       <c r="P6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>L</v>
+        <f>IF(F7="X","H",IF(G7="X","L",IF(H7="X","C","G")))</f>
+        <v>G</v>
       </c>
       <c r="E7" s="34" t="str">
-        <f>IF('Group Condition'!J33="","",'Group Condition'!J33)</f>
-        <v>better</v>
+        <f>IF('Group Condition'!J7="","",'Group Condition'!J7)</f>
+        <v/>
       </c>
       <c r="F7" s="34">
-        <f>'Group Condition'!D33</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="34" t="str">
-        <f>'Group Condition'!E33</f>
-        <v>X</v>
+        <f>'Group Condition'!D7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="34">
+        <f>'Group Condition'!E7</f>
+        <v>0</v>
       </c>
       <c r="H7" s="34">
-        <f>'Group Condition'!G33</f>
+        <f>'Group Condition'!G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="34" t="str">
-        <f>'Group Condition'!I33</f>
-        <v/>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I7</f>
+        <v>X</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -15207,31 +14938,31 @@
         <v>157</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>C</v>
+        <f>IF(F8="X","H",IF(G8="X","L",IF(H8="X","C","G")))</f>
+        <v>L</v>
       </c>
       <c r="E8" s="34" t="str">
         <f>IF('Group Condition'!J8="","",'Group Condition'!J8)</f>
-        <v>better</v>
+        <v/>
       </c>
       <c r="F8" s="34">
         <f>'Group Condition'!D8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="34" t="str">
         <f>'Group Condition'!E8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="34" t="str">
+        <v>X</v>
+      </c>
+      <c r="H8" s="34">
         <f>'Group Condition'!G8</f>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="I8" s="34" t="str">
         <f>'Group Condition'!I8</f>
         <v/>
       </c>
       <c r="P8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -15245,12 +14976,12 @@
         <v>106</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(F9="X","H",IF(G9="X","L",IF(H9="X","C","G")))</f>
         <v>G</v>
       </c>
       <c r="E9" s="34" t="str">
         <f>IF('Group Condition'!J9="","",'Group Condition'!J9)</f>
-        <v>no change</v>
+        <v/>
       </c>
       <c r="F9" s="34">
         <f>'Group Condition'!D9</f>
@@ -15275,79 +15006,73 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D10" t="str">
         <f>IF(F10="X","H",IF(G10="X","L",IF(H10="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E10" s="34" t="str">
-        <f>IF('Group Condition'!J50="","",'Group Condition'!J50)</f>
-        <v>worse</v>
+        <f>IF('Group Condition'!J10="","",'Group Condition'!J10)</f>
+        <v/>
       </c>
       <c r="F10" s="34" t="str">
-        <f>'Group Condition'!D50</f>
+        <f>'Group Condition'!D10</f>
         <v>X</v>
       </c>
       <c r="G10" s="34">
-        <f>'Group Condition'!E50</f>
+        <f>'Group Condition'!E10</f>
         <v>0</v>
       </c>
       <c r="H10" s="34">
-        <f>'Group Condition'!G50</f>
+        <f>'Group Condition'!G10</f>
         <v>0</v>
       </c>
       <c r="I10" s="34" t="str">
-        <f>'Group Condition'!I50</f>
-        <v/>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="D11" t="str">
         <f>IF(F11="X","H",IF(G11="X","L",IF(H11="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E11" s="34" t="str">
-        <f>IF('Group Condition'!J32="","",'Group Condition'!J32)</f>
-        <v>better</v>
+        <f>IF('Group Condition'!J11="","",'Group Condition'!J11)</f>
+        <v/>
       </c>
       <c r="F11" s="34" t="str">
-        <f>'Group Condition'!D32</f>
+        <f>'Group Condition'!D11</f>
         <v>X</v>
       </c>
       <c r="G11" s="34">
-        <f>'Group Condition'!E32</f>
+        <f>'Group Condition'!E11</f>
         <v>0</v>
       </c>
       <c r="H11" s="34">
-        <f>'Group Condition'!G32</f>
+        <f>'Group Condition'!G11</f>
         <v>0</v>
       </c>
       <c r="I11" s="34" t="str">
-        <f>'Group Condition'!I32</f>
+        <f>'Group Condition'!I11</f>
         <v/>
       </c>
       <c r="J11"/>
@@ -15355,11 +15080,9 @@
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
-      <c r="O11" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -15375,7 +15098,7 @@
       </c>
       <c r="E12" s="34" t="str">
         <f>IF('Group Condition'!J12="","",'Group Condition'!J12)</f>
-        <v>invert</v>
+        <v/>
       </c>
       <c r="F12" s="34">
         <f>'Group Condition'!D12</f>
@@ -15394,10 +15117,10 @@
         <v/>
       </c>
       <c r="P12" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -15413,7 +15136,7 @@
       </c>
       <c r="E13" s="34" t="str">
         <f>IF('Group Condition'!J13="","",'Group Condition'!J13)</f>
-        <v>worse</v>
+        <v/>
       </c>
       <c r="F13" s="34">
         <f>'Group Condition'!D13</f>
@@ -15469,89 +15192,74 @@
         <v>X</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D15" t="str">
         <f>IF(F15="X","H",IF(G15="X","L",IF(H15="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E15" s="34" t="str">
-        <f>IF('Group Condition'!J65="","",'Group Condition'!J65)</f>
-        <v>worse</v>
+        <f>IF('Group Condition'!J15="","",'Group Condition'!J15)</f>
+        <v/>
       </c>
       <c r="F15" s="34" t="str">
-        <f>'Group Condition'!D65</f>
+        <f>'Group Condition'!D15</f>
         <v>X</v>
       </c>
       <c r="G15" s="34">
-        <f>'Group Condition'!E65</f>
+        <f>'Group Condition'!E15</f>
         <v>0</v>
       </c>
       <c r="H15" s="34">
-        <f>'Group Condition'!G65</f>
+        <f>'Group Condition'!G15</f>
         <v>0</v>
       </c>
       <c r="I15" s="34" t="str">
-        <f>'Group Condition'!I65</f>
-        <v/>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D16" t="str">
         <f>IF(F16="X","H",IF(G16="X","L",IF(H16="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E16" s="34" t="str">
-        <f>IF('Group Condition'!J15="","",'Group Condition'!J15)</f>
-        <v>no change</v>
+        <f>IF('Group Condition'!J16="","",'Group Condition'!J16)</f>
+        <v/>
       </c>
       <c r="F16" s="34" t="str">
-        <f>'Group Condition'!D15</f>
+        <f>'Group Condition'!D16</f>
         <v>X</v>
       </c>
       <c r="G16" s="34">
-        <f>'Group Condition'!E15</f>
+        <f>'Group Condition'!E16</f>
         <v>0</v>
       </c>
       <c r="H16" s="34">
-        <f>'Group Condition'!G15</f>
+        <f>'Group Condition'!G16</f>
         <v>0</v>
       </c>
       <c r="I16" s="34" t="str">
-        <f>'Group Condition'!I15</f>
-        <v/>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>423</v>
+        <f>'Group Condition'!I16</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -15589,7 +15297,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -15605,7 +15313,7 @@
       </c>
       <c r="E18" s="34" t="str">
         <f>IF('Group Condition'!J18="","",'Group Condition'!J18)</f>
-        <v>invert</v>
+        <v/>
       </c>
       <c r="F18" s="34">
         <f>'Group Condition'!D18</f>
@@ -15624,7 +15332,7 @@
         <v/>
       </c>
       <c r="P18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -15639,15 +15347,15 @@
       </c>
       <c r="D19" t="str">
         <f>IF(F19="X","H",IF(G19="X","L",IF(H19="X","C","G")))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="E19" s="34" t="str">
         <f>IF('Group Condition'!J19="","",'Group Condition'!J19)</f>
-        <v>better</v>
-      </c>
-      <c r="F19" s="34">
+        <v/>
+      </c>
+      <c r="F19" s="34" t="str">
         <f>'Group Condition'!D19</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G19" s="34">
         <f>'Group Condition'!E19</f>
@@ -15659,7 +15367,7 @@
       </c>
       <c r="I19" s="34" t="str">
         <f>'Group Condition'!I19</f>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -15678,7 +15386,7 @@
       </c>
       <c r="E20" s="34" t="str">
         <f>IF('Group Condition'!J20="","",'Group Condition'!J20)</f>
-        <v>better</v>
+        <v/>
       </c>
       <c r="F20" s="34">
         <f>'Group Condition'!D20</f>
@@ -15744,50 +15452,46 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B22">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D22" t="str">
         <f>IF(F22="X","H",IF(G22="X","L",IF(H22="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E22" s="34" t="str">
-        <f>IF('Group Condition'!J11="","",'Group Condition'!J11)</f>
-        <v>no change</v>
+        <f>IF('Group Condition'!J22="","",'Group Condition'!J22)</f>
+        <v/>
       </c>
       <c r="F22" s="34" t="str">
-        <f>'Group Condition'!D11</f>
+        <f>'Group Condition'!D22</f>
         <v>X</v>
       </c>
       <c r="G22" s="34">
-        <f>'Group Condition'!E11</f>
+        <f>'Group Condition'!E22</f>
         <v>0</v>
       </c>
       <c r="H22" s="34">
-        <f>'Group Condition'!G11</f>
+        <f>'Group Condition'!G22</f>
         <v>0</v>
       </c>
       <c r="I22" s="34" t="str">
-        <f>'Group Condition'!I11</f>
+        <f>'Group Condition'!I22</f>
         <v/>
       </c>
       <c r="J22"/>
       <c r="K22"/>
-      <c r="L22" t="s">
-        <v>410</v>
-      </c>
+      <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
-      <c r="O22" t="s">
-        <v>411</v>
-      </c>
+      <c r="O22"/>
     </row>
     <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -15832,41 +15536,38 @@
     </row>
     <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D24" t="str">
         <f>IF(F24="X","H",IF(G24="X","L",IF(H24="X","C","G")))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="E24" s="34" t="str">
-        <f>IF('Group Condition'!J29="","",'Group Condition'!J29)</f>
-        <v>better</v>
-      </c>
-      <c r="F24" s="34">
-        <f>'Group Condition'!D29</f>
-        <v>0</v>
+        <f>IF('Group Condition'!J24="","",'Group Condition'!J24)</f>
+        <v/>
+      </c>
+      <c r="F24" s="34" t="str">
+        <f>'Group Condition'!D24</f>
+        <v>X</v>
       </c>
       <c r="G24" s="34">
-        <f>'Group Condition'!E29</f>
+        <f>'Group Condition'!E24</f>
         <v>0</v>
       </c>
       <c r="H24" s="34">
-        <f>'Group Condition'!G29</f>
+        <f>'Group Condition'!G24</f>
         <v>0</v>
       </c>
       <c r="I24" s="34" t="str">
-        <f>'Group Condition'!I29</f>
-        <v>X</v>
-      </c>
-      <c r="J24"/>
-      <c r="N24"/>
-      <c r="O24"/>
+        <f>'Group Condition'!I24</f>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -15880,15 +15581,15 @@
       </c>
       <c r="D25" t="str">
         <f>IF(F25="X","H",IF(G25="X","L",IF(H25="X","C","G")))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="E25" s="34" t="str">
         <f>IF('Group Condition'!J25="","",'Group Condition'!J25)</f>
-        <v>worse</v>
-      </c>
-      <c r="F25" s="34">
+        <v/>
+      </c>
+      <c r="F25" s="34" t="str">
         <f>'Group Condition'!D25</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G25" s="34">
         <f>'Group Condition'!E25</f>
@@ -15900,7 +15601,7 @@
       </c>
       <c r="I25" s="34" t="str">
         <f>'Group Condition'!I25</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -15909,51 +15610,35 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D26" t="str">
         <f>IF(F26="X","H",IF(G26="X","L",IF(H26="X","C","G")))</f>
-        <v>H</v>
-      </c>
-      <c r="E26" s="34" t="str">
-        <f>IF('Group Condition'!J10="","",'Group Condition'!J10)</f>
-        <v>invert</v>
-      </c>
-      <c r="F26" s="34" t="str">
-        <f>'Group Condition'!D10</f>
-        <v>X</v>
+        <v>G</v>
+      </c>
+      <c r="F26" s="34">
+        <f>'Group Condition'!D26</f>
+        <v>0</v>
       </c>
       <c r="G26" s="34">
-        <f>'Group Condition'!E10</f>
+        <f>'Group Condition'!E26</f>
         <v>0</v>
       </c>
       <c r="H26" s="34">
-        <f>'Group Condition'!G10</f>
+        <f>'Group Condition'!G26</f>
         <v>0</v>
       </c>
       <c r="I26" s="34" t="str">
-        <f>'Group Condition'!I10</f>
-        <v/>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>410</v>
+        <f>'Group Condition'!I26</f>
+        <v>X</v>
       </c>
     </row>
     <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -15968,15 +15653,15 @@
       </c>
       <c r="D27" t="str">
         <f>IF(F27="X","H",IF(G27="X","L",IF(H27="X","C","G")))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="E27" s="34" t="str">
         <f>IF('Group Condition'!J27="","",'Group Condition'!J27)</f>
-        <v>worse</v>
-      </c>
-      <c r="F27" s="34">
+        <v/>
+      </c>
+      <c r="F27" s="34" t="str">
         <f>'Group Condition'!D27</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G27" s="34">
         <f>'Group Condition'!E27</f>
@@ -15988,7 +15673,7 @@
       </c>
       <c r="I27" s="34" t="str">
         <f>'Group Condition'!I27</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -15997,261 +15682,221 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D28" t="str">
         <f>IF(F28="X","H",IF(G28="X","L",IF(H28="X","C","G")))</f>
-        <v>H</v>
-      </c>
-      <c r="E28" s="34" t="str">
-        <f>IF('Group Condition'!J24="","",'Group Condition'!J24)</f>
-        <v>worse</v>
-      </c>
-      <c r="F28" s="34" t="str">
-        <f>'Group Condition'!D24</f>
-        <v>X</v>
+        <v>G</v>
+      </c>
+      <c r="F28" s="34">
+        <f>'Group Condition'!D28</f>
+        <v>0</v>
       </c>
       <c r="G28" s="34">
-        <f>'Group Condition'!E24</f>
+        <f>'Group Condition'!E28</f>
         <v>0</v>
       </c>
       <c r="H28" s="34">
-        <f>'Group Condition'!G24</f>
+        <f>'Group Condition'!G28</f>
         <v>0</v>
       </c>
       <c r="I28" s="34" t="str">
-        <f>'Group Condition'!I24</f>
-        <v/>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="O28" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I28</f>
+        <v>X</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D29" t="str">
         <f>IF(F29="X","H",IF(G29="X","L",IF(H29="X","C","G")))</f>
-        <v>H</v>
+        <v>G</v>
       </c>
       <c r="E29" s="34" t="str">
-        <f>IF('Group Condition'!J30="","",'Group Condition'!J30)</f>
-        <v>worse</v>
-      </c>
-      <c r="F29" s="34" t="str">
-        <f>'Group Condition'!D30</f>
-        <v>X</v>
+        <f>IF('Group Condition'!J29="","",'Group Condition'!J29)</f>
+        <v/>
+      </c>
+      <c r="F29" s="34">
+        <f>'Group Condition'!D29</f>
+        <v>0</v>
       </c>
       <c r="G29" s="34">
-        <f>'Group Condition'!E30</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="34" t="str">
-        <f>'Group Condition'!G30</f>
-        <v>X</v>
+        <f>'Group Condition'!E29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="34">
+        <f>'Group Condition'!G29</f>
+        <v>0</v>
       </c>
       <c r="I29" s="34" t="str">
-        <f>'Group Condition'!I30</f>
-        <v/>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="O29" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I29</f>
+        <v>X</v>
+      </c>
+      <c r="J29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D30" t="str">
         <f>IF(F30="X","H",IF(G30="X","L",IF(H30="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E30" s="34" t="str">
-        <f>IF('Group Condition'!J44="","",'Group Condition'!J44)</f>
-        <v>worse</v>
+        <f>IF('Group Condition'!J30="","",'Group Condition'!J30)</f>
+        <v/>
       </c>
       <c r="F30" s="34" t="str">
-        <f>'Group Condition'!D44</f>
-        <v>X</v>
-      </c>
-      <c r="G30" s="34" t="str">
-        <f>'Group Condition'!E44</f>
-        <v>X</v>
+        <f>'Group Condition'!D30</f>
+        <v>X</v>
+      </c>
+      <c r="G30" s="34">
+        <f>'Group Condition'!E30</f>
+        <v>0</v>
       </c>
       <c r="H30" s="34">
-        <f>'Group Condition'!G44</f>
+        <f>'Group Condition'!G30</f>
         <v>0</v>
       </c>
       <c r="I30" s="34" t="str">
-        <f>'Group Condition'!I44</f>
-        <v/>
-      </c>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
+        <f>'Group Condition'!I30</f>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="D31" t="str">
         <f>IF(F31="X","H",IF(G31="X","L",IF(H31="X","C","G")))</f>
         <v>G</v>
       </c>
-      <c r="E31" s="34" t="str">
-        <f>IF('Group Condition'!J7="","",'Group Condition'!J7)</f>
-        <v>better</v>
-      </c>
       <c r="F31" s="34">
-        <f>'Group Condition'!D7</f>
+        <f>'Group Condition'!D31</f>
         <v>0</v>
       </c>
       <c r="G31" s="34">
-        <f>'Group Condition'!E7</f>
+        <f>'Group Condition'!E31</f>
         <v>0</v>
       </c>
       <c r="H31" s="34">
-        <f>'Group Condition'!G7</f>
+        <f>'Group Condition'!G31</f>
         <v>0</v>
       </c>
       <c r="I31" s="34" t="str">
-        <f>'Group Condition'!I7</f>
-        <v>X</v>
-      </c>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
+        <f>'Group Condition'!I31</f>
+        <v>X</v>
+      </c>
     </row>
     <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D32" t="str">
         <f>IF(F32="X","H",IF(G32="X","L",IF(H32="X","C","G")))</f>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="E32" s="34" t="str">
-        <f>IF('Group Condition'!J42="","",'Group Condition'!J42)</f>
-        <v>worse</v>
-      </c>
-      <c r="F32" s="34">
-        <f>'Group Condition'!D42</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="34" t="str">
-        <f>'Group Condition'!E42</f>
-        <v>X</v>
+        <f>IF('Group Condition'!J32="","",'Group Condition'!J32)</f>
+        <v/>
+      </c>
+      <c r="F32" s="34" t="str">
+        <f>'Group Condition'!D32</f>
+        <v>X</v>
+      </c>
+      <c r="G32" s="34">
+        <f>'Group Condition'!E32</f>
+        <v>0</v>
       </c>
       <c r="H32" s="34">
-        <f>'Group Condition'!G42</f>
+        <f>'Group Condition'!G32</f>
         <v>0</v>
       </c>
       <c r="I32" s="34" t="str">
-        <f>'Group Condition'!I42</f>
-        <v/>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="O32" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I32</f>
+        <v/>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D33" t="str">
         <f>IF(F33="X","H",IF(G33="X","L",IF(H33="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E33" s="34" t="str">
-        <f>IF('Group Condition'!J16="","",'Group Condition'!J16)</f>
-        <v>worse</v>
+        <f>IF('Group Condition'!J33="","",'Group Condition'!J33)</f>
+        <v/>
       </c>
       <c r="F33" s="34">
-        <f>'Group Condition'!D16</f>
+        <f>'Group Condition'!D33</f>
         <v>0</v>
       </c>
       <c r="G33" s="34" t="str">
-        <f>'Group Condition'!E16</f>
+        <f>'Group Condition'!E33</f>
         <v>X</v>
       </c>
       <c r="H33" s="34">
-        <f>'Group Condition'!G16</f>
+        <f>'Group Condition'!G33</f>
         <v>0</v>
       </c>
       <c r="I33" s="34" t="str">
-        <f>'Group Condition'!I16</f>
-        <v/>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>410</v>
+        <f>'Group Condition'!I33</f>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -16266,15 +15911,15 @@
       </c>
       <c r="D34" t="str">
         <f>IF(F34="X","H",IF(G34="X","L",IF(H34="X","C","G")))</f>
-        <v>G</v>
+        <v>H</v>
       </c>
       <c r="E34" s="34" t="str">
         <f>IF('Group Condition'!J34="","",'Group Condition'!J34)</f>
-        <v>better</v>
-      </c>
-      <c r="F34" s="34">
+        <v/>
+      </c>
+      <c r="F34" s="34" t="str">
         <f>'Group Condition'!D34</f>
-        <v>0</v>
+        <v>X</v>
       </c>
       <c r="G34" s="34">
         <f>'Group Condition'!E34</f>
@@ -16286,7 +15931,7 @@
       </c>
       <c r="I34" s="34" t="str">
         <f>'Group Condition'!I34</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="J34"/>
       <c r="K34"/>
@@ -16336,7 +15981,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -16352,7 +15997,7 @@
       </c>
       <c r="E36" s="34" t="str">
         <f>IF('Group Condition'!J36="","",'Group Condition'!J36)</f>
-        <v>invert</v>
+        <v/>
       </c>
       <c r="F36" s="34">
         <f>'Group Condition'!D36</f>
@@ -16377,51 +16022,42 @@
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B37">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D37" t="str">
         <f>IF(F37="X","H",IF(G37="X","L",IF(H37="X","C","G")))</f>
-        <v>L</v>
+        <v>G</v>
       </c>
       <c r="E37" s="34" t="str">
-        <f>IF('Group Condition'!J2="","",'Group Condition'!J2)</f>
-        <v>better</v>
+        <f>IF('Group Condition'!J37="","",'Group Condition'!J37)</f>
+        <v/>
       </c>
       <c r="F37" s="34">
-        <f>'Group Condition'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="34" t="str">
-        <f>'Group Condition'!E2</f>
-        <v>X</v>
+        <f>'Group Condition'!D37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="34">
+        <f>'Group Condition'!E37</f>
+        <v>0</v>
       </c>
       <c r="H37" s="34">
-        <f>'Group Condition'!G2</f>
+        <f>'Group Condition'!G37</f>
         <v>0</v>
       </c>
       <c r="I37" s="34" t="str">
-        <f>'Group Condition'!I2</f>
-        <v/>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="N37" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>410</v>
+        <f>'Group Condition'!I37</f>
+        <v>X</v>
       </c>
     </row>
     <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -16508,42 +16144,40 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D40" t="str">
         <f>IF(F40="X","H",IF(G40="X","L",IF(H40="X","C","G")))</f>
-        <v>H</v>
-      </c>
-      <c r="F40" s="34" t="str">
-        <f>'Group Condition'!D28</f>
-        <v>X</v>
-      </c>
-      <c r="G40" s="34">
-        <f>'Group Condition'!E28</f>
-        <v>0</v>
+        <v>L</v>
+      </c>
+      <c r="E40" s="34" t="str">
+        <f>IF('Group Condition'!J40="","",'Group Condition'!J40)</f>
+        <v/>
+      </c>
+      <c r="F40" s="34">
+        <f>'Group Condition'!D40</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="34" t="str">
+        <f>'Group Condition'!E40</f>
+        <v>X</v>
       </c>
       <c r="H40" s="34">
-        <f>'Group Condition'!G28</f>
+        <f>'Group Condition'!G40</f>
         <v>0</v>
       </c>
       <c r="I40" s="34" t="str">
-        <f>'Group Condition'!I28</f>
-        <v/>
-      </c>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-    </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I40</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -16559,7 +16193,7 @@
       </c>
       <c r="E41" s="34" t="str">
         <f>IF('Group Condition'!J41="","",'Group Condition'!J41)</f>
-        <v>no change</v>
+        <v/>
       </c>
       <c r="F41" s="34">
         <f>'Group Condition'!D41</f>
@@ -16577,62 +16211,40 @@
         <f>'Group Condition'!I41</f>
         <v/>
       </c>
-      <c r="J41" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="N41" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="O41" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D42" t="str">
         <f>IF(F42="X","H",IF(G42="X","L",IF(H42="X","C","G")))</f>
         <v>L</v>
       </c>
       <c r="E42" s="34" t="str">
-        <f>IF('Group Condition'!J67="","",'Group Condition'!J67)</f>
-        <v>worse</v>
+        <f>IF('Group Condition'!J42="","",'Group Condition'!J42)</f>
+        <v/>
       </c>
       <c r="F42" s="34">
-        <f>'Group Condition'!D67</f>
+        <f>'Group Condition'!D42</f>
         <v>0</v>
       </c>
       <c r="G42" s="34" t="str">
-        <f>'Group Condition'!E67</f>
+        <f>'Group Condition'!E42</f>
         <v>X</v>
       </c>
       <c r="H42" s="34">
-        <f>'Group Condition'!G67</f>
+        <f>'Group Condition'!G42</f>
         <v>0</v>
       </c>
       <c r="I42" s="34" t="str">
-        <f>'Group Condition'!I67</f>
-        <v/>
-      </c>
-      <c r="J42" t="s">
-        <v>410</v>
-      </c>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42" s="13" t="s">
-        <v>410</v>
+        <f>'Group Condition'!I42</f>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -16676,82 +16288,87 @@
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D44" t="str">
         <f>IF(F44="X","H",IF(G44="X","L",IF(H44="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E44" s="34" t="str">
-        <f>IF('Group Condition'!J51="","",'Group Condition'!J51)</f>
-        <v>worse</v>
+        <f>IF('Group Condition'!J44="","",'Group Condition'!J44)</f>
+        <v/>
       </c>
       <c r="F44" s="34" t="str">
-        <f>'Group Condition'!D51</f>
+        <f>'Group Condition'!D44</f>
         <v>X</v>
       </c>
       <c r="G44" s="34">
-        <f>'Group Condition'!E51</f>
+        <f>'Group Condition'!E44</f>
         <v>0</v>
       </c>
       <c r="H44" s="34">
-        <f>'Group Condition'!G51</f>
+        <f>'Group Condition'!G44</f>
         <v>0</v>
       </c>
       <c r="I44" s="34" t="str">
-        <f>'Group Condition'!I51</f>
-        <v/>
-      </c>
+        <f>'Group Condition'!I44</f>
+        <v/>
+      </c>
+      <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
+      <c r="O44"/>
     </row>
     <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B45">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D45" t="str">
         <f>IF(F45="X","H",IF(G45="X","L",IF(H45="X","C","G")))</f>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="E45" s="34" t="str">
-        <f>IF('Group Condition'!J37="","",'Group Condition'!J37)</f>
-        <v>better</v>
-      </c>
-      <c r="F45" s="34">
-        <f>'Group Condition'!D37</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="34" t="str">
-        <f>'Group Condition'!E37</f>
-        <v>X</v>
+        <f>IF('Group Condition'!J45="","",'Group Condition'!J45)</f>
+        <v/>
+      </c>
+      <c r="F45" s="34" t="str">
+        <f>'Group Condition'!D45</f>
+        <v>X</v>
+      </c>
+      <c r="G45" s="34">
+        <f>'Group Condition'!E45</f>
+        <v>0</v>
       </c>
       <c r="H45" s="34">
-        <f>'Group Condition'!G37</f>
+        <f>'Group Condition'!G45</f>
         <v>0</v>
       </c>
       <c r="I45" s="34" t="str">
-        <f>'Group Condition'!I37</f>
-        <v/>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>423</v>
-      </c>
+        <f>'Group Condition'!I45</f>
+        <v/>
+      </c>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
     </row>
     <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -16810,7 +16427,7 @@
       </c>
       <c r="E47" s="34" t="str">
         <f>IF('Group Condition'!J47="","",'Group Condition'!J47)</f>
-        <v>worse</v>
+        <v/>
       </c>
       <c r="F47" s="34">
         <f>'Group Condition'!D47</f>
@@ -16911,93 +16528,79 @@
       <c r="N49"/>
       <c r="O49" s="30"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D50" t="str">
         <f>IF(F50="X","H",IF(G50="X","L",IF(H50="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E50" s="34" t="str">
-        <f>IF('Group Condition'!J64="","",'Group Condition'!J64)</f>
-        <v>worse</v>
+        <f>IF('Group Condition'!J50="","",'Group Condition'!J50)</f>
+        <v/>
       </c>
       <c r="F50" s="34" t="str">
-        <f>'Group Condition'!D64</f>
+        <f>'Group Condition'!D50</f>
         <v>X</v>
       </c>
       <c r="G50" s="34">
-        <f>'Group Condition'!E64</f>
+        <f>'Group Condition'!E50</f>
         <v>0</v>
       </c>
       <c r="H50" s="34">
-        <f>'Group Condition'!G64</f>
+        <f>'Group Condition'!G50</f>
         <v>0</v>
       </c>
       <c r="I50" s="34" t="str">
-        <f>'Group Condition'!I64</f>
-        <v/>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="M50" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="O50" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+        <f>'Group Condition'!I50</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B51">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D51" t="str">
         <f>IF(F51="X","H",IF(G51="X","L",IF(H51="X","C","G")))</f>
         <v>H</v>
       </c>
       <c r="E51" s="34" t="str">
-        <f>IF('Group Condition'!J69="","",'Group Condition'!J69)</f>
-        <v>worse</v>
+        <f>IF('Group Condition'!J51="","",'Group Condition'!J51)</f>
+        <v/>
       </c>
       <c r="F51" s="34" t="str">
-        <f>'Group Condition'!D69</f>
+        <f>'Group Condition'!D51</f>
         <v>X</v>
       </c>
       <c r="G51" s="34">
-        <f>'Group Condition'!E69</f>
+        <f>'Group Condition'!E51</f>
         <v>0</v>
       </c>
       <c r="H51" s="34">
-        <f>'Group Condition'!G69</f>
+        <f>'Group Condition'!G51</f>
         <v>0</v>
       </c>
       <c r="I51" s="34" t="str">
-        <f>'Group Condition'!I69</f>
-        <v/>
-      </c>
-      <c r="J51"/>
+        <f>'Group Condition'!I51</f>
+        <v/>
+      </c>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
-      <c r="O51"/>
     </row>
     <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
